--- a/data/DreamLeague25-26.xlsx
+++ b/data/DreamLeague25-26.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kelloggcompany-my.sharepoint.com/personal/bryn_coombe_kellogg_com/Documents/Desktop/Dream League/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="607" documentId="8_{C87169E2-2024-48B8-8683-DE00D207922A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D63CF544-F758-4E26-82CD-08DF1D2E4D41}"/>
+  <xr:revisionPtr revIDLastSave="722" documentId="8_{C87169E2-2024-48B8-8683-DE00D207922A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{181860C5-670C-49F1-B501-0821A96CA0E0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="292">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -337,9 +337,6 @@
     <t>ALEKSANDER ISAK</t>
   </si>
   <si>
-    <t>STOKE</t>
-  </si>
-  <si>
     <t>COVENTRY</t>
   </si>
   <si>
@@ -463,6 +460,9 @@
     <t>HARRISON BURROWS</t>
   </si>
   <si>
+    <t>BAYERN MUNICH</t>
+  </si>
+  <si>
     <t>EBERECHI EZE</t>
   </si>
   <si>
@@ -712,9 +712,6 @@
     <t>PORTO</t>
   </si>
   <si>
-    <t>WENGERBOYZ</t>
-  </si>
-  <si>
     <t>MARC CUCURELLA</t>
   </si>
   <si>
@@ -866,6 +863,57 @@
   </si>
   <si>
     <t>MAMADOU DOUMBIA</t>
+  </si>
+  <si>
+    <t>WENGER BOYS</t>
+  </si>
+  <si>
+    <t>WILLIAM SALIBA</t>
+  </si>
+  <si>
+    <t>RUBEN DIAZ</t>
+  </si>
+  <si>
+    <t>MORGAN GIBBS-WHITE</t>
+  </si>
+  <si>
+    <t>DECLAN RICE</t>
+  </si>
+  <si>
+    <t>BERNARDO SILVA</t>
+  </si>
+  <si>
+    <t>EMIL RIIS JAKOBSEN</t>
+  </si>
+  <si>
+    <t>JERRY YATES</t>
+  </si>
+  <si>
+    <t>RAUL JIMENEZ</t>
+  </si>
+  <si>
+    <t>DANNY ROSE</t>
+  </si>
+  <si>
+    <t>GRIMSBY</t>
+  </si>
+  <si>
+    <t>MATTY GODDEN</t>
+  </si>
+  <si>
+    <t>UNATTACHED</t>
+  </si>
+  <si>
+    <t>MOHAMMED KUDUS</t>
+  </si>
+  <si>
+    <t>JADEN PHILOGENE</t>
+  </si>
+  <si>
+    <t>TOM CANNON</t>
+  </si>
+  <si>
+    <t>Dream League Champs Cup 2026</t>
   </si>
 </sst>
 </file>
@@ -2748,8 +2796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IX404"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F237" sqref="F237"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5:O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2903,11 +2951,11 @@
       </c>
       <c r="M5" s="18">
         <f t="shared" ref="M5:M17" si="0">N5-O5</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N5" s="19">
         <f>SUM(F8:F25)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O5" s="20">
         <f>SUM(F5:F7)</f>
@@ -3002,7 +3050,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="83"/>
       <c r="H8" s="75"/>
@@ -3059,15 +3107,15 @@
       </c>
       <c r="M9" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N9" s="73">
         <f>SUM(F116:F133)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O9" s="74">
         <f>SUM(F113:F115)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -3095,11 +3143,11 @@
       </c>
       <c r="N10" s="26">
         <f>SUM(F143:F160)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="27">
         <f>SUM(F140:F142)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="108"/>
       <c r="S10" s="108"/>
@@ -3161,7 +3209,7 @@
         <v>170</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E12" s="29">
         <v>1</v>
@@ -3203,13 +3251,13 @@
         <v>190</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E13" s="29">
         <v>1</v>
       </c>
       <c r="F13" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="87"/>
       <c r="H13" s="84"/>
@@ -3221,19 +3269,19 @@
       </c>
       <c r="L13" s="72" t="str">
         <f>C218</f>
-        <v>WENGERBOYZ</v>
+        <v>WENGER BOYS</v>
       </c>
       <c r="M13" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N13" s="73">
         <f>SUM(F224:F241)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="74">
         <f>SUM(F221:F223)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R13" s="108"/>
       <c r="S13" s="108"/>
@@ -3329,11 +3377,11 @@
       </c>
       <c r="M16" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="26">
         <f>SUM(F305:F322)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="27">
         <f>SUM(F302:F304)</f>
@@ -3393,10 +3441,10 @@
         <v>17</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E18" s="29">
         <v>15</v>
@@ -3418,11 +3466,11 @@
       </c>
       <c r="M18" s="25">
         <f>N18-O18</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" s="26">
         <f>SUM(F359:F376)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="27">
         <f>SUM(F356:F358)</f>
@@ -3474,7 +3522,7 @@
         <v>8</v>
       </c>
       <c r="F20" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="87"/>
       <c r="H20" s="84"/>
@@ -3608,7 +3656,7 @@
       </c>
       <c r="F26" s="36">
         <f>SUM(F8:F25)-SUM(F5:F7)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G26" s="80"/>
       <c r="H26" s="92"/>
@@ -3731,7 +3779,7 @@
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E32" s="14">
         <v>1</v>
@@ -3860,7 +3908,7 @@
         <v>16</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D38" s="28" t="s">
         <v>19</v>
@@ -4024,7 +4072,7 @@
         <v>17</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D45" s="28" t="s">
         <v>71</v>
@@ -4078,7 +4126,7 @@
         <v>17</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D47" s="28" t="s">
         <v>198</v>
@@ -4584,7 +4632,7 @@
         <v>17</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D71" s="28" t="s">
         <v>20</v>
@@ -4695,7 +4743,7 @@
         <v>203</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E75" s="29">
         <v>1</v>
@@ -5069,7 +5117,7 @@
         <v>66</v>
       </c>
       <c r="D93" s="28" t="s">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="E93" s="29">
         <v>1</v>
@@ -5503,7 +5551,7 @@
         <v>1</v>
       </c>
       <c r="F113" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G113" s="80"/>
       <c r="H113" s="94"/>
@@ -5635,7 +5683,7 @@
         <v>19</v>
       </c>
       <c r="F119" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G119" s="87"/>
       <c r="H119" s="91"/>
@@ -5653,7 +5701,7 @@
         <v>16</v>
       </c>
       <c r="C120" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D120" s="28" t="s">
         <v>34</v>
@@ -5815,13 +5863,13 @@
         <v>215</v>
       </c>
       <c r="D127" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E127" s="29">
         <v>19</v>
       </c>
       <c r="F127" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G127" s="87"/>
       <c r="H127" s="91"/>
@@ -5839,10 +5887,10 @@
         <v>17</v>
       </c>
       <c r="C128" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D128" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E128" s="29">
         <v>1</v>
@@ -5966,7 +6014,7 @@
       </c>
       <c r="F134" s="36">
         <f>SUM(F116:F133)-SUM(F113:F115)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G134" s="80"/>
       <c r="H134" s="92"/>
@@ -6090,7 +6138,7 @@
         <v>1</v>
       </c>
       <c r="F140" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G140" s="80"/>
       <c r="H140" s="94"/>
@@ -6142,7 +6190,7 @@
         <v>14</v>
       </c>
       <c r="C143" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D143" s="28" t="s">
         <v>186</v>
@@ -6172,7 +6220,7 @@
         <v>217</v>
       </c>
       <c r="D144" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E144" s="29">
         <v>1</v>
@@ -6266,7 +6314,7 @@
         <v>16</v>
       </c>
       <c r="C148" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D148" s="28" t="s">
         <v>70</v>
@@ -6275,7 +6323,7 @@
         <v>1</v>
       </c>
       <c r="F148" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G148" s="87"/>
       <c r="H148" s="87"/>
@@ -6347,7 +6395,7 @@
         <v>155</v>
       </c>
       <c r="D152" s="28" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="E152" s="29">
         <v>1</v>
@@ -6425,7 +6473,7 @@
         <v>17</v>
       </c>
       <c r="C155" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D155" s="28" t="s">
         <v>19</v>
@@ -6452,7 +6500,7 @@
         <v>17</v>
       </c>
       <c r="C156" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D156" s="28" t="s">
         <v>221</v>
@@ -6670,7 +6718,7 @@
       </c>
       <c r="C167" s="13"/>
       <c r="D167" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E167" s="14">
         <v>1</v>
@@ -6728,7 +6776,7 @@
         <v>14</v>
       </c>
       <c r="C170" s="28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D170" s="28" t="s">
         <v>22</v>
@@ -6826,7 +6874,7 @@
         <v>16</v>
       </c>
       <c r="C174" s="28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D174" s="28" t="s">
         <v>75</v>
@@ -6853,7 +6901,7 @@
         <v>16</v>
       </c>
       <c r="C175" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D175" s="28" t="s">
         <v>81</v>
@@ -6961,7 +7009,7 @@
         <v>181</v>
       </c>
       <c r="D180" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E180" s="29">
         <v>1</v>
@@ -6985,7 +7033,7 @@
         <v>17</v>
       </c>
       <c r="C181" s="28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D181" s="28" t="s">
         <v>65</v>
@@ -7256,7 +7304,9 @@
         <v>13</v>
       </c>
       <c r="C194" s="13"/>
-      <c r="D194" s="12"/>
+      <c r="D194" s="12" t="s">
+        <v>84</v>
+      </c>
       <c r="E194" s="14">
         <v>1</v>
       </c>
@@ -7312,8 +7362,12 @@
       <c r="B197" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C197" s="28"/>
-      <c r="D197" s="28"/>
+      <c r="C197" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="D197" s="28" t="s">
+        <v>18</v>
+      </c>
       <c r="E197" s="29">
         <v>1</v>
       </c>
@@ -7335,8 +7389,12 @@
       <c r="B198" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C198" s="28"/>
-      <c r="D198" s="28"/>
+      <c r="C198" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="D198" s="28" t="s">
+        <v>22</v>
+      </c>
       <c r="E198" s="29">
         <v>1</v>
       </c>
@@ -7375,8 +7433,12 @@
       <c r="B200" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C200" s="28"/>
-      <c r="D200" s="28"/>
+      <c r="C200" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="D200" s="28" t="s">
+        <v>158</v>
+      </c>
       <c r="E200" s="29">
         <v>1</v>
       </c>
@@ -7398,8 +7460,12 @@
       <c r="B201" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C201" s="28"/>
-      <c r="D201" s="28"/>
+      <c r="C201" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="D201" s="28" t="s">
+        <v>18</v>
+      </c>
       <c r="E201" s="29">
         <v>1</v>
       </c>
@@ -7421,8 +7487,12 @@
       <c r="B202" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C202" s="28"/>
-      <c r="D202" s="28"/>
+      <c r="C202" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="D202" s="28" t="s">
+        <v>22</v>
+      </c>
       <c r="E202" s="29">
         <v>1</v>
       </c>
@@ -7495,8 +7565,12 @@
       <c r="B206" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C206" s="28"/>
-      <c r="D206" s="28"/>
+      <c r="C206" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="D206" s="28" t="s">
+        <v>88</v>
+      </c>
       <c r="E206" s="29">
         <v>1</v>
       </c>
@@ -7518,8 +7592,12 @@
       <c r="B207" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C207" s="28"/>
-      <c r="D207" s="28"/>
+      <c r="C207" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="D207" s="28" t="s">
+        <v>74</v>
+      </c>
       <c r="E207" s="29">
         <v>1</v>
       </c>
@@ -7541,8 +7619,12 @@
       <c r="B208" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C208" s="28"/>
-      <c r="D208" s="28"/>
+      <c r="C208" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="D208" s="28" t="s">
+        <v>92</v>
+      </c>
       <c r="E208" s="29">
         <v>1</v>
       </c>
@@ -7564,8 +7646,12 @@
       <c r="B209" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C209" s="28"/>
-      <c r="D209" s="28"/>
+      <c r="C209" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="D209" s="28" t="s">
+        <v>198</v>
+      </c>
       <c r="E209" s="29">
         <v>1</v>
       </c>
@@ -7587,8 +7673,12 @@
       <c r="B210" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C210" s="28"/>
-      <c r="D210" s="28"/>
+      <c r="C210" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="D210" s="28" t="s">
+        <v>285</v>
+      </c>
       <c r="E210" s="29">
         <v>1</v>
       </c>
@@ -7734,7 +7824,7 @@
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="3" t="s">
-        <v>224</v>
+        <v>275</v>
       </c>
       <c r="D218" s="3" t="s">
         <v>55</v>
@@ -7808,7 +7898,7 @@
         <v>1</v>
       </c>
       <c r="F221" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G221" s="80"/>
       <c r="H221" s="94"/>
@@ -7860,7 +7950,7 @@
         <v>14</v>
       </c>
       <c r="C224" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D224" s="28" t="s">
         <v>19</v>
@@ -7887,7 +7977,7 @@
         <v>14</v>
       </c>
       <c r="C225" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D225" s="28" t="s">
         <v>18</v>
@@ -7958,16 +8048,16 @@
         <v>16</v>
       </c>
       <c r="C228" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D228" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E228" s="29">
         <v>5</v>
       </c>
       <c r="F228" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G228" s="87"/>
       <c r="H228" s="91"/>
@@ -7988,7 +8078,7 @@
         <v>180</v>
       </c>
       <c r="D229" s="28" t="s">
-        <v>153</v>
+        <v>287</v>
       </c>
       <c r="E229" s="29">
         <v>4</v>
@@ -8063,7 +8153,7 @@
         <v>17</v>
       </c>
       <c r="C233" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D233" s="28" t="s">
         <v>18</v>
@@ -8144,10 +8234,10 @@
         <v>17</v>
       </c>
       <c r="C236" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D236" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E236" s="29">
         <v>15</v>
@@ -8171,7 +8261,7 @@
         <v>17</v>
       </c>
       <c r="C237" s="28" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D237" s="28" t="s">
         <v>163</v>
@@ -8271,7 +8361,7 @@
       </c>
       <c r="F242" s="36">
         <f>SUM(F224:F241)-SUM(F221:F223)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G242" s="80"/>
       <c r="H242" s="92"/>
@@ -8321,7 +8411,7 @@
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D245" s="3" t="s">
         <v>56</v>
@@ -8439,7 +8529,7 @@
         <v>14</v>
       </c>
       <c r="C251" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D251" s="28" t="s">
         <v>158</v>
@@ -8469,7 +8559,7 @@
         <v>176</v>
       </c>
       <c r="D252" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E252" s="29">
         <v>3</v>
@@ -8537,7 +8627,7 @@
         <v>16</v>
       </c>
       <c r="C255" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D255" s="28" t="s">
         <v>24</v>
@@ -8564,7 +8654,7 @@
         <v>16</v>
       </c>
       <c r="C256" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D256" s="28" t="s">
         <v>22</v>
@@ -8642,10 +8732,10 @@
         <v>17</v>
       </c>
       <c r="C260" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D260" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E260" s="29">
         <v>20</v>
@@ -8696,7 +8786,7 @@
         <v>17</v>
       </c>
       <c r="C262" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D262" s="28" t="s">
         <v>24</v>
@@ -8903,7 +8993,7 @@
         <v>144</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E272" s="2"/>
       <c r="F272" s="1"/>
@@ -9026,7 +9116,7 @@
         <v>14</v>
       </c>
       <c r="C278" s="28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D278" s="28" t="s">
         <v>71</v>
@@ -9053,10 +9143,10 @@
         <v>14</v>
       </c>
       <c r="C279" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D279" s="28" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="E279" s="29">
         <v>1</v>
@@ -9097,7 +9187,7 @@
         <v>16</v>
       </c>
       <c r="C281" s="28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D281" s="28" t="s">
         <v>71</v>
@@ -9124,7 +9214,7 @@
         <v>16</v>
       </c>
       <c r="C282" s="28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D282" s="28" t="s">
         <v>34</v>
@@ -9151,10 +9241,10 @@
         <v>16</v>
       </c>
       <c r="C283" s="28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D283" s="28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E283" s="29">
         <v>1</v>
@@ -9283,7 +9373,7 @@
         <v>17</v>
       </c>
       <c r="C289" s="28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D289" s="28" t="s">
         <v>19</v>
@@ -9487,10 +9577,10 @@
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E299" s="2"/>
       <c r="F299" s="1"/>
@@ -9613,7 +9703,7 @@
         <v>14</v>
       </c>
       <c r="C305" s="28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D305" s="28" t="s">
         <v>184</v>
@@ -9640,10 +9730,10 @@
         <v>14</v>
       </c>
       <c r="C306" s="28" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D306" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E306" s="29">
         <v>1</v>
@@ -9687,7 +9777,7 @@
         <v>179</v>
       </c>
       <c r="D308" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E308" s="29">
         <v>4</v>
@@ -9720,7 +9810,7 @@
         <v>1</v>
       </c>
       <c r="F309" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G309" s="87"/>
       <c r="H309" s="91"/>
@@ -9738,10 +9828,10 @@
         <v>16</v>
       </c>
       <c r="C310" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D310" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E310" s="29">
         <v>9</v>
@@ -9843,10 +9933,10 @@
         <v>17</v>
       </c>
       <c r="C315" s="28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D315" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E315" s="29">
         <v>8</v>
@@ -9870,10 +9960,10 @@
         <v>17</v>
       </c>
       <c r="C316" s="28" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D316" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E316" s="29">
         <v>1</v>
@@ -9897,10 +9987,10 @@
         <v>17</v>
       </c>
       <c r="C317" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="D317" s="28" t="s">
         <v>245</v>
-      </c>
-      <c r="D317" s="28" t="s">
-        <v>246</v>
       </c>
       <c r="E317" s="29">
         <v>1</v>
@@ -9924,7 +10014,7 @@
         <v>17</v>
       </c>
       <c r="C318" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D318" s="28" t="s">
         <v>90</v>
@@ -10024,7 +10114,7 @@
       </c>
       <c r="F323" s="36">
         <f>SUM(F305:F322)-SUM(F302:F304)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G323" s="80"/>
       <c r="H323" s="92"/>
@@ -10074,7 +10164,7 @@
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D326" s="1" t="s">
         <v>67</v>
@@ -10200,7 +10290,7 @@
         <v>14</v>
       </c>
       <c r="C332" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D332" s="28" t="s">
         <v>153</v>
@@ -10227,10 +10317,10 @@
         <v>14</v>
       </c>
       <c r="C333" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="D333" s="28" t="s">
         <v>138</v>
-      </c>
-      <c r="D333" s="28" t="s">
-        <v>139</v>
       </c>
       <c r="E333" s="29">
         <v>1</v>
@@ -10274,7 +10364,7 @@
         <v>149</v>
       </c>
       <c r="D335" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E335" s="29">
         <v>1</v>
@@ -10324,8 +10414,12 @@
       <c r="B337" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C337" s="28"/>
-      <c r="D337" s="28"/>
+      <c r="C337" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="D337" s="28" t="s">
+        <v>24</v>
+      </c>
       <c r="E337" s="29">
         <v>1</v>
       </c>
@@ -10393,7 +10487,7 @@
         <v>17</v>
       </c>
       <c r="C341" s="28" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D341" s="28" t="s">
         <v>212</v>
@@ -10441,10 +10535,10 @@
         <v>17</v>
       </c>
       <c r="C343" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D343" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E343" s="29">
         <v>1</v>
@@ -10464,8 +10558,12 @@
       <c r="B344" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C344" s="28"/>
-      <c r="D344" s="28"/>
+      <c r="C344" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="D344" s="28" t="s">
+        <v>136</v>
+      </c>
       <c r="E344" s="29">
         <v>1</v>
       </c>
@@ -10484,8 +10582,12 @@
       <c r="B345" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C345" s="28"/>
-      <c r="D345" s="28"/>
+      <c r="C345" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="D345" s="28" t="s">
+        <v>85</v>
+      </c>
       <c r="E345" s="29">
         <v>1</v>
       </c>
@@ -10592,10 +10694,10 @@
     <row r="353" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B353" s="1"/>
       <c r="C353" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E353" s="2"/>
       <c r="F353" s="1"/>
@@ -10682,7 +10784,7 @@
         <v>14</v>
       </c>
       <c r="C359" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D359" s="28" t="s">
         <v>85</v>
@@ -10703,7 +10805,7 @@
         <v>14</v>
       </c>
       <c r="C360" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D360" s="28" t="s">
         <v>23</v>
@@ -10735,7 +10837,7 @@
         <v>16</v>
       </c>
       <c r="C362" s="28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D362" s="28" t="s">
         <v>18</v>
@@ -10756,7 +10858,7 @@
         <v>16</v>
       </c>
       <c r="C363" s="28" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D363" s="28" t="s">
         <v>57</v>
@@ -10780,7 +10882,7 @@
         <v>178</v>
       </c>
       <c r="D364" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E364" s="29">
         <v>1</v>
@@ -10834,13 +10936,13 @@
         <v>94</v>
       </c>
       <c r="D368" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E368" s="29">
         <v>27</v>
       </c>
       <c r="F368" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G368" s="1"/>
       <c r="H368" s="104"/>
@@ -10852,7 +10954,7 @@
         <v>17</v>
       </c>
       <c r="C369" s="28" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D369" s="28" t="s">
         <v>175</v>
@@ -10873,10 +10975,10 @@
         <v>17</v>
       </c>
       <c r="C370" s="28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D370" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E370" s="29">
         <v>5</v>
@@ -10894,10 +10996,10 @@
         <v>17</v>
       </c>
       <c r="C371" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="D371" s="28" t="s">
         <v>259</v>
-      </c>
-      <c r="D371" s="28" t="s">
-        <v>260</v>
       </c>
       <c r="E371" s="29">
         <v>1</v>
@@ -10985,7 +11087,7 @@
       </c>
       <c r="F377" s="36">
         <f>SUM(F359:F376)-SUM(F356:F358)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G377" s="1"/>
       <c r="H377" s="1"/>
@@ -10995,10 +11097,10 @@
     <row r="380" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B380" s="1"/>
       <c r="C380" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D380" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="D380" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="E380" s="2"/>
       <c r="F380" s="1"/>
@@ -11240,8 +11342,8 @@
   </sheetPr>
   <dimension ref="A1:IV22"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11305,7 +11407,7 @@
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
       <c r="D4" s="43" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E4" s="41"/>
       <c r="F4" s="41"/>
@@ -11358,11 +11460,21 @@
       <c r="B7" s="54">
         <v>1</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="27"/>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="25">
+        <v>3</v>
+      </c>
+      <c r="F7" s="26">
+        <v>3</v>
+      </c>
+      <c r="G7" s="27">
+        <v>0</v>
+      </c>
       <c r="H7" s="52"/>
       <c r="I7" s="41"/>
       <c r="J7" s="41"/>
@@ -11373,11 +11485,21 @@
       <c r="B8" s="54">
         <v>2</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="57"/>
+      <c r="C8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="E8" s="25">
+        <v>2</v>
+      </c>
+      <c r="F8" s="26">
+        <v>3</v>
+      </c>
+      <c r="G8" s="27">
+        <v>1</v>
+      </c>
       <c r="H8" s="52"/>
       <c r="I8" s="41"/>
       <c r="J8" s="41"/>
@@ -11388,11 +11510,21 @@
       <c r="B9" s="54">
         <v>3</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="27"/>
+      <c r="C9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="E9" s="25">
+        <v>1</v>
+      </c>
+      <c r="F9" s="26">
+        <v>1</v>
+      </c>
+      <c r="G9" s="27">
+        <v>0</v>
+      </c>
       <c r="H9" s="52"/>
       <c r="I9" s="41"/>
       <c r="J9" s="41"/>
@@ -11401,13 +11533,23 @@
     <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="47"/>
       <c r="B10" s="54">
-        <v>4</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="57"/>
+        <v>3</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="E10" s="25">
+        <v>1</v>
+      </c>
+      <c r="F10" s="26">
+        <v>1</v>
+      </c>
+      <c r="G10" s="27">
+        <v>0</v>
+      </c>
       <c r="H10" s="52"/>
       <c r="I10" s="41"/>
       <c r="J10" s="41"/>
@@ -11418,11 +11560,21 @@
       <c r="B11" s="54">
         <v>5</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="27"/>
+      <c r="C11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="25">
+        <v>0</v>
+      </c>
+      <c r="F11" s="26">
+        <v>1</v>
+      </c>
+      <c r="G11" s="27">
+        <v>1</v>
+      </c>
       <c r="H11" s="52"/>
       <c r="I11" s="41"/>
       <c r="J11" s="41"/>
@@ -11433,11 +11585,21 @@
       <c r="B12" s="54">
         <v>6</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="27"/>
+      <c r="C12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="55" t="s">
+        <v>194</v>
+      </c>
+      <c r="E12" s="25">
+        <v>0</v>
+      </c>
+      <c r="F12" s="56">
+        <v>0</v>
+      </c>
+      <c r="G12" s="57">
+        <v>0</v>
+      </c>
       <c r="H12" s="52"/>
       <c r="I12" s="41"/>
       <c r="J12" s="41"/>
@@ -11446,13 +11608,23 @@
     <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="47"/>
       <c r="B13" s="54">
-        <v>7</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="57"/>
+        <v>6</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="E13" s="25">
+        <v>0</v>
+      </c>
+      <c r="F13" s="26">
+        <v>0</v>
+      </c>
+      <c r="G13" s="27">
+        <v>0</v>
+      </c>
       <c r="H13" s="52"/>
       <c r="I13" s="41"/>
       <c r="J13" s="41"/>
@@ -11461,13 +11633,23 @@
     <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="47"/>
       <c r="B14" s="54">
-        <v>8</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="27"/>
+        <v>6</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="25">
+        <v>0</v>
+      </c>
+      <c r="F14" s="56">
+        <v>0</v>
+      </c>
+      <c r="G14" s="57">
+        <v>0</v>
+      </c>
       <c r="H14" s="52"/>
       <c r="I14" s="41"/>
       <c r="J14" s="41"/>
@@ -11476,13 +11658,23 @@
     <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="47"/>
       <c r="B15" s="54">
-        <v>9</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="27"/>
+        <v>6</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="25">
+        <v>0</v>
+      </c>
+      <c r="F15" s="56">
+        <v>0</v>
+      </c>
+      <c r="G15" s="57">
+        <v>0</v>
+      </c>
       <c r="H15" s="52"/>
       <c r="I15" s="41"/>
       <c r="J15" s="41"/>
@@ -11491,13 +11683,23 @@
     <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="47"/>
       <c r="B16" s="54">
-        <v>10</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="27"/>
+        <v>6</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="25">
+        <v>0</v>
+      </c>
+      <c r="F16" s="26">
+        <v>0</v>
+      </c>
+      <c r="G16" s="27">
+        <v>0</v>
+      </c>
       <c r="H16" s="52"/>
       <c r="I16" s="41"/>
       <c r="J16" s="41"/>
@@ -11506,13 +11708,23 @@
     <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="47"/>
       <c r="B17" s="54">
-        <v>11</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="27"/>
+        <v>6</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="E17" s="25">
+        <v>0</v>
+      </c>
+      <c r="F17" s="26">
+        <v>0</v>
+      </c>
+      <c r="G17" s="27">
+        <v>0</v>
+      </c>
       <c r="H17" s="52"/>
       <c r="I17" s="41"/>
       <c r="J17" s="41"/>
@@ -11521,13 +11733,23 @@
     <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="47"/>
       <c r="B18" s="54">
-        <v>12</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="27"/>
+        <v>6</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18" s="25">
+        <v>0</v>
+      </c>
+      <c r="F18" s="26">
+        <v>0</v>
+      </c>
+      <c r="G18" s="27">
+        <v>0</v>
+      </c>
       <c r="H18" s="52"/>
       <c r="I18" s="41"/>
       <c r="J18" s="41"/>
@@ -11536,13 +11758,23 @@
     <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="47"/>
       <c r="B19" s="54">
-        <v>13</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="27"/>
+        <v>6</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="E19" s="25">
+        <v>0</v>
+      </c>
+      <c r="F19" s="26">
+        <v>0</v>
+      </c>
+      <c r="G19" s="27">
+        <v>0</v>
+      </c>
       <c r="H19" s="52"/>
       <c r="I19" s="41"/>
       <c r="J19" s="41"/>
@@ -11553,11 +11785,21 @@
       <c r="B20" s="54">
         <v>14</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="27"/>
+      <c r="C20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="E20" s="25">
+        <v>-1</v>
+      </c>
+      <c r="F20" s="26">
+        <v>1</v>
+      </c>
+      <c r="G20" s="27">
+        <v>2</v>
+      </c>
       <c r="H20" s="52"/>
       <c r="I20" s="41"/>
       <c r="J20" s="41"/>
@@ -11622,7 +11864,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="62" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C1" s="40"/>
       <c r="D1" s="40"/>
@@ -11790,7 +12032,7 @@
     <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="67"/>
       <c r="B17" s="63" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C17" s="68"/>
       <c r="D17" s="64"/>
@@ -11877,7 +12119,7 @@
     </row>
     <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B26" s="65"/>
       <c r="C26" s="68"/>
@@ -11931,7 +12173,7 @@
   <dimension ref="A1:X68"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -11942,7 +12184,7 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" s="62" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="C1" s="40"/>
       <c r="D1" s="40"/>
@@ -12328,7 +12570,7 @@
     <row r="15" spans="1:24" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A15" s="67"/>
       <c r="B15" s="63" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C15" s="68"/>
       <c r="D15" s="64"/>
@@ -12439,7 +12681,7 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B19" s="70"/>
       <c r="C19" s="69"/>
@@ -12467,7 +12709,7 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="67" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B20" s="70"/>
       <c r="C20" s="69"/>
@@ -12495,7 +12737,7 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="67" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B21" s="70"/>
       <c r="C21" s="69"/>
@@ -12523,7 +12765,7 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="67" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B22" s="70"/>
       <c r="C22" s="69"/>
@@ -12551,7 +12793,7 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="67" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B23" s="70"/>
       <c r="C23" s="69"/>
@@ -12633,7 +12875,7 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="67" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B26" s="70"/>
       <c r="C26" s="69"/>
@@ -12661,7 +12903,7 @@
     </row>
     <row r="27" spans="1:24" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A27" s="67" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B27" s="63"/>
       <c r="C27" s="64"/>
@@ -12689,7 +12931,7 @@
     </row>
     <row r="28" spans="1:24" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A28" s="67" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B28" s="63"/>
       <c r="C28" s="64"/>
@@ -12717,7 +12959,7 @@
     </row>
     <row r="29" spans="1:24" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A29" s="67" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B29" s="63"/>
       <c r="C29" s="64"/>
@@ -12797,7 +13039,7 @@
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="67" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B32" s="70"/>
       <c r="C32" s="69"/>
@@ -12825,7 +13067,7 @@
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="67" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B33" s="65"/>
       <c r="C33" s="68"/>
@@ -12905,7 +13147,7 @@
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="67" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B36" s="65"/>
       <c r="C36" s="68"/>

--- a/data/DreamLeague25-26.xlsx
+++ b/data/DreamLeague25-26.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kelloggcompany-my.sharepoint.com/personal/bryn_coombe_kellogg_com/Documents/Desktop/Dream League/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/462a734c48854128/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="722" documentId="8_{C87169E2-2024-48B8-8683-DE00D207922A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{181860C5-670C-49F1-B501-0821A96CA0E0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A700595-C9FF-4D85-9A4D-B796FD82F00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Table" sheetId="3" r:id="rId3"/>
     <sheet name="Cup" sheetId="4" r:id="rId4"/>
     <sheet name="Champs Cup" sheetId="6" r:id="rId5"/>
+    <sheet name="Player Count" sheetId="7" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Table!$A$6:$IV$6</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="410">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -307,9 +308,6 @@
     <t>BRISTOL CITY</t>
   </si>
   <si>
-    <t>WEST BROMWICH ALBION</t>
-  </si>
-  <si>
     <t>BRISTOL ROVERS</t>
   </si>
   <si>
@@ -914,6 +912,363 @@
   </si>
   <si>
     <t>Dream League Champs Cup 2026</t>
+  </si>
+  <si>
+    <t>CHUBA AKPOM</t>
+  </si>
+  <si>
+    <t>TRANSFER</t>
+  </si>
+  <si>
+    <t>SOLD</t>
+  </si>
+  <si>
+    <t>BENJAMIN SESKO</t>
+  </si>
+  <si>
+    <t>XAVI SIMMONS</t>
+  </si>
+  <si>
+    <t>RB LEIPZIG</t>
+  </si>
+  <si>
+    <t>JOHN SWIFT</t>
+  </si>
+  <si>
+    <t>WEST BROM</t>
+  </si>
+  <si>
+    <t>GUSTAVO HAMER</t>
+  </si>
+  <si>
+    <t>WILL DAVIES</t>
+  </si>
+  <si>
+    <t>FLEETWOOD</t>
+  </si>
+  <si>
+    <t>DIVIN MUBAMA</t>
+  </si>
+  <si>
+    <t>STOKE</t>
+  </si>
+  <si>
+    <t>ISAAC PRICE</t>
+  </si>
+  <si>
+    <t>Premier League</t>
+  </si>
+  <si>
+    <t>Arsenal</t>
+  </si>
+  <si>
+    <t>Aston Villa</t>
+  </si>
+  <si>
+    <t>Bournemouth</t>
+  </si>
+  <si>
+    <t>Brentford</t>
+  </si>
+  <si>
+    <t>Brighton</t>
+  </si>
+  <si>
+    <t>Burnley</t>
+  </si>
+  <si>
+    <t>Chelsea</t>
+  </si>
+  <si>
+    <t>Crystal Palace</t>
+  </si>
+  <si>
+    <t>Everton</t>
+  </si>
+  <si>
+    <t>Fulham</t>
+  </si>
+  <si>
+    <t>Leeds</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>Manchester City</t>
+  </si>
+  <si>
+    <t>Manchester United</t>
+  </si>
+  <si>
+    <t>Newcastle</t>
+  </si>
+  <si>
+    <t>Nottingham Forest</t>
+  </si>
+  <si>
+    <t>Sunderland</t>
+  </si>
+  <si>
+    <t>Tottenham</t>
+  </si>
+  <si>
+    <t>West Ham</t>
+  </si>
+  <si>
+    <t>Wolverhampton</t>
+  </si>
+  <si>
+    <t>Player Count</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Championship</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Blackburn</t>
+  </si>
+  <si>
+    <t>Bristol City</t>
+  </si>
+  <si>
+    <t>Charlton</t>
+  </si>
+  <si>
+    <t>Coventry</t>
+  </si>
+  <si>
+    <t>Derby</t>
+  </si>
+  <si>
+    <t>Hull</t>
+  </si>
+  <si>
+    <t>Ipswich</t>
+  </si>
+  <si>
+    <t>Leicester</t>
+  </si>
+  <si>
+    <t>Middlesbrough</t>
+  </si>
+  <si>
+    <t>Millwall</t>
+  </si>
+  <si>
+    <t>Norwich</t>
+  </si>
+  <si>
+    <t>Oxford</t>
+  </si>
+  <si>
+    <t>Portsmouth</t>
+  </si>
+  <si>
+    <t>Preston</t>
+  </si>
+  <si>
+    <t>QPR</t>
+  </si>
+  <si>
+    <t>Sheffield United</t>
+  </si>
+  <si>
+    <t>Sheffield Wednesday</t>
+  </si>
+  <si>
+    <t>Southampton</t>
+  </si>
+  <si>
+    <t>Stoke</t>
+  </si>
+  <si>
+    <t>Swansea</t>
+  </si>
+  <si>
+    <t>Watford</t>
+  </si>
+  <si>
+    <t>West Brom</t>
+  </si>
+  <si>
+    <t>Wrexham</t>
+  </si>
+  <si>
+    <t>League One</t>
+  </si>
+  <si>
+    <t>Barnsley</t>
+  </si>
+  <si>
+    <t>Blackpool</t>
+  </si>
+  <si>
+    <t>Bradford</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Doncaster</t>
+  </si>
+  <si>
+    <t>Exeter</t>
+  </si>
+  <si>
+    <t>Huddersfield</t>
+  </si>
+  <si>
+    <t>Leyton Orient</t>
+  </si>
+  <si>
+    <t>Lincoln</t>
+  </si>
+  <si>
+    <t>Luton</t>
+  </si>
+  <si>
+    <t>Mansfield</t>
+  </si>
+  <si>
+    <t>Peterborough</t>
+  </si>
+  <si>
+    <t>Plymouth</t>
+  </si>
+  <si>
+    <t>Port Vale</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Rotherham</t>
+  </si>
+  <si>
+    <t>Stevenage</t>
+  </si>
+  <si>
+    <t>Wigan</t>
+  </si>
+  <si>
+    <t>Wimbledon</t>
+  </si>
+  <si>
+    <t>Bolton</t>
+  </si>
+  <si>
+    <t>Burton</t>
+  </si>
+  <si>
+    <t>Northampton</t>
+  </si>
+  <si>
+    <t>Stockport</t>
+  </si>
+  <si>
+    <t>Wycombe</t>
+  </si>
+  <si>
+    <t>League Two</t>
+  </si>
+  <si>
+    <t>Accrington</t>
+  </si>
+  <si>
+    <t>Barnet</t>
+  </si>
+  <si>
+    <t>Barrow</t>
+  </si>
+  <si>
+    <t>Bristol Rovers</t>
+  </si>
+  <si>
+    <t>Bromley</t>
+  </si>
+  <si>
+    <t>Cambridge</t>
+  </si>
+  <si>
+    <t>Cheltenham</t>
+  </si>
+  <si>
+    <t>Chesterfield</t>
+  </si>
+  <si>
+    <t>Colchester</t>
+  </si>
+  <si>
+    <t>Crawley</t>
+  </si>
+  <si>
+    <t>Crewe</t>
+  </si>
+  <si>
+    <t>Fleetwood</t>
+  </si>
+  <si>
+    <t>Gillingham</t>
+  </si>
+  <si>
+    <t>Harrogate</t>
+  </si>
+  <si>
+    <t>Milton Keynes Dons</t>
+  </si>
+  <si>
+    <t>Newport</t>
+  </si>
+  <si>
+    <t>Notts County</t>
+  </si>
+  <si>
+    <t>Oldham</t>
+  </si>
+  <si>
+    <t>Salford</t>
+  </si>
+  <si>
+    <t>Shrewsbury</t>
+  </si>
+  <si>
+    <t>Swindon</t>
+  </si>
+  <si>
+    <t>Walsall</t>
+  </si>
+  <si>
+    <t>Grimsby</t>
+  </si>
+  <si>
+    <t>Tranmere</t>
+  </si>
+  <si>
+    <t>DL Byes</t>
+  </si>
+  <si>
+    <t>Tiki Taka</t>
+  </si>
+  <si>
+    <t>Le Harpre</t>
+  </si>
+  <si>
+    <t>Sporting Hoof</t>
+  </si>
+  <si>
+    <t>Alternative Ulstermen</t>
+  </si>
+  <si>
+    <t>Woodhall Spa Whites</t>
+  </si>
+  <si>
+    <t>Better Together</t>
   </si>
 </sst>
 </file>
@@ -1324,7 +1679,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1603,9 +1958,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2782,12 +3147,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
     <customPr name="_pios_id" r:id="rId1"/>
-    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId2"/>
   </customProperties>
 </worksheet>
 </file>
@@ -2797,33 +3161,33 @@
   <dimension ref="A1:IX404"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:O18"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="77" customWidth="1"/>
+    <col min="1" max="1" width="1.296875" style="77" customWidth="1"/>
     <col min="2" max="2" width="16" style="77" customWidth="1"/>
-    <col min="3" max="3" width="39.33203125" style="77" customWidth="1"/>
-    <col min="4" max="4" width="32.77734375" style="77" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="77" customWidth="1"/>
+    <col min="3" max="3" width="39.296875" style="77" customWidth="1"/>
+    <col min="4" max="4" width="32.796875" style="77" customWidth="1"/>
+    <col min="5" max="5" width="11.796875" style="77" customWidth="1"/>
     <col min="6" max="6" width="17" style="77" customWidth="1"/>
-    <col min="7" max="8" width="11.33203125" style="77" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" style="77" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" style="77" customWidth="1"/>
-    <col min="11" max="11" width="25.6640625" style="77" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.33203125" style="77" customWidth="1"/>
+    <col min="7" max="8" width="11.296875" style="77" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.69921875" style="77" customWidth="1"/>
+    <col min="10" max="10" width="7.09765625" style="77" customWidth="1"/>
+    <col min="11" max="11" width="25.69921875" style="77" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.296875" style="77" customWidth="1"/>
     <col min="13" max="14" width="12" style="77" customWidth="1"/>
-    <col min="15" max="15" width="10.33203125" style="77" customWidth="1"/>
+    <col min="15" max="15" width="10.296875" style="77" customWidth="1"/>
     <col min="16" max="17" width="9" style="77" customWidth="1"/>
-    <col min="18" max="18" width="32.33203125" style="77" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="32.296875" style="77" bestFit="1" customWidth="1"/>
     <col min="19" max="21" width="9" style="77" customWidth="1"/>
-    <col min="22" max="22" width="30.109375" style="77" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.09765625" style="77" bestFit="1" customWidth="1"/>
     <col min="23" max="258" width="9" style="77" customWidth="1"/>
     <col min="259" max="16384" width="9" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2842,7 +3206,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="3" t="s">
@@ -2863,7 +3227,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -2880,7 +3244,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="79"/>
       <c r="B4" s="6" t="s">
         <v>3</v>
@@ -2916,13 +3280,13 @@
       <c r="O4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="R4" s="108"/>
-      <c r="S4" s="108"/>
-      <c r="T4" s="108"/>
-      <c r="U4" s="108"/>
-      <c r="V4" s="108"/>
-    </row>
-    <row r="5" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R4" s="111"/>
+      <c r="S4" s="111"/>
+      <c r="T4" s="111"/>
+      <c r="U4" s="111"/>
+      <c r="V4" s="111"/>
+    </row>
+    <row r="5" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="79"/>
       <c r="B5" s="12" t="s">
         <v>13</v>
@@ -2951,11 +3315,11 @@
       </c>
       <c r="M5" s="18">
         <f t="shared" ref="M5:M17" si="0">N5-O5</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N5" s="19">
         <f>SUM(F8:F25)</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="O5" s="20">
         <f>SUM(F5:F7)</f>
@@ -2965,7 +3329,7 @@
       <c r="T5" s="101"/>
       <c r="U5" s="102"/>
     </row>
-    <row r="6" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="79"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -2986,21 +3350,21 @@
       </c>
       <c r="M6" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N6" s="26">
         <f>SUM(F35:F52)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O6" s="27">
         <f>SUM(F32:F34)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S6" s="102"/>
       <c r="T6" s="101"/>
       <c r="U6" s="102"/>
     </row>
-    <row r="7" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="79"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -3021,11 +3385,11 @@
       </c>
       <c r="M7" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N7" s="26">
         <f>SUM(F62:F79)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O7" s="27">
         <f>SUM(F59:F61)</f>
@@ -3035,16 +3399,16 @@
       <c r="T7" s="101"/>
       <c r="U7" s="102"/>
     </row>
-    <row r="8" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="79"/>
       <c r="B8" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E8" s="29">
         <v>1</v>
@@ -3065,24 +3429,24 @@
       </c>
       <c r="M8" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N8" s="26">
         <f>SUM(F89:F106)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O8" s="27">
         <f>SUM(F86:F88)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="79"/>
       <c r="B9" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>27</v>
@@ -3107,18 +3471,18 @@
       </c>
       <c r="M9" s="25">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N9" s="73">
         <f>SUM(F116:F133)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="O9" s="74">
         <f>SUM(F113:F115)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="79"/>
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
@@ -3139,29 +3503,29 @@
       </c>
       <c r="M10" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N10" s="26">
         <f>SUM(F143:F160)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O10" s="27">
         <f>SUM(F140:F142)</f>
-        <v>1</v>
-      </c>
-      <c r="R10" s="108"/>
-      <c r="S10" s="108"/>
-      <c r="T10" s="108"/>
-      <c r="U10" s="108"/>
-      <c r="V10" s="108"/>
-    </row>
-    <row r="11" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="R10" s="111"/>
+      <c r="S10" s="111"/>
+      <c r="T10" s="111"/>
+      <c r="U10" s="111"/>
+      <c r="V10" s="111"/>
+    </row>
+    <row r="11" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="79"/>
       <c r="B11" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D11" s="28" t="s">
         <v>24</v>
@@ -3170,7 +3534,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="87"/>
       <c r="H11" s="84"/>
@@ -3190,26 +3554,26 @@
       </c>
       <c r="N11" s="26">
         <f>SUM(F170:F187)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O11" s="27">
         <f>SUM(F167:F169)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S11" s="102"/>
       <c r="T11" s="101"/>
       <c r="U11" s="102"/>
     </row>
-    <row r="12" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="79"/>
       <c r="B12" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E12" s="29">
         <v>1</v>
@@ -3231,7 +3595,7 @@
       </c>
       <c r="M12" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="N12" s="73">
         <f>SUM(F197:F214)</f>
@@ -3239,19 +3603,19 @@
       </c>
       <c r="O12" s="74">
         <f>SUM(F194:F196)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="79"/>
       <c r="B13" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E13" s="29">
         <v>1</v>
@@ -3273,23 +3637,23 @@
       </c>
       <c r="M13" s="25">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="N13" s="73">
         <f>SUM(F224:F241)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O13" s="74">
         <f>SUM(F221:F223)</f>
-        <v>2</v>
-      </c>
-      <c r="R13" s="108"/>
-      <c r="S13" s="108"/>
-      <c r="T13" s="108"/>
-      <c r="U13" s="108"/>
-      <c r="V13" s="108"/>
-    </row>
-    <row r="14" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="R13" s="111"/>
+      <c r="S13" s="111"/>
+      <c r="T13" s="111"/>
+      <c r="U13" s="111"/>
+      <c r="V13" s="111"/>
+    </row>
+    <row r="14" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="79"/>
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
@@ -3310,21 +3674,21 @@
       </c>
       <c r="M14" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="N14" s="73">
         <f>SUM(F251:F268)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O14" s="74">
         <f>SUM(F248:F250)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S14" s="102"/>
       <c r="T14" s="101"/>
       <c r="U14" s="102"/>
     </row>
-    <row r="15" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="79"/>
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
@@ -3345,18 +3709,18 @@
       </c>
       <c r="M15" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="N15" s="26">
         <f>SUM(F277:F295)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O15" s="27">
         <f>SUM(F275:F276)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="79"/>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
@@ -3381,23 +3745,23 @@
       </c>
       <c r="N16" s="26">
         <f>SUM(F305:F322)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O16" s="27">
         <f>SUM(F302:F304)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="79"/>
       <c r="B17" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="29">
         <v>14</v>
@@ -3419,38 +3783,38 @@
       </c>
       <c r="M17" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N17" s="26">
         <f>SUM(F332:F349)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O17" s="27">
         <f>SUM(F329:F331)</f>
         <v>0</v>
       </c>
-      <c r="R17" s="108"/>
-      <c r="S17" s="108"/>
-      <c r="T17" s="108"/>
-      <c r="U17" s="108"/>
-      <c r="V17" s="108"/>
-    </row>
-    <row r="18" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R17" s="111"/>
+      <c r="S17" s="111"/>
+      <c r="T17" s="111"/>
+      <c r="U17" s="111"/>
+      <c r="V17" s="111"/>
+    </row>
+    <row r="18" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="79"/>
       <c r="B18" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E18" s="29">
         <v>15</v>
       </c>
       <c r="F18" s="30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G18" s="84"/>
       <c r="H18" s="84"/>
@@ -3466,7 +3830,7 @@
       </c>
       <c r="M18" s="25">
         <f>N18-O18</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N18" s="26">
         <f>SUM(F359:F376)</f>
@@ -3474,31 +3838,35 @@
       </c>
       <c r="O18" s="27">
         <f>SUM(F356:F358)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S18" s="102"/>
       <c r="T18" s="101"/>
       <c r="U18" s="102"/>
     </row>
-    <row r="19" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="79"/>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="D19" s="28" t="s">
+      <c r="C19" s="108" t="s">
+        <v>190</v>
+      </c>
+      <c r="D19" s="108" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="29">
+      <c r="E19" s="109">
         <v>17</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="110">
         <v>0</v>
       </c>
-      <c r="G19" s="83"/>
-      <c r="H19" s="84"/>
+      <c r="G19" s="83" t="s">
+        <v>293</v>
+      </c>
+      <c r="H19" s="84">
+        <v>45883</v>
+      </c>
       <c r="I19" s="99"/>
       <c r="J19" s="76"/>
       <c r="K19" s="33"/>
@@ -3507,24 +3875,26 @@
       <c r="N19" s="88"/>
       <c r="O19" s="88"/>
     </row>
-    <row r="20" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="79"/>
       <c r="B20" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>192</v>
+        <v>300</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="E20" s="29">
-        <v>8</v>
+        <v>301</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>292</v>
       </c>
       <c r="F20" s="30">
-        <v>1</v>
-      </c>
-      <c r="G20" s="87"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="87">
+        <v>45883</v>
+      </c>
       <c r="H20" s="84"/>
       <c r="I20" s="99"/>
       <c r="J20" s="76"/>
@@ -3533,28 +3903,28 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="R20" s="108"/>
-      <c r="S20" s="108"/>
-      <c r="T20" s="108"/>
-      <c r="U20" s="108"/>
-      <c r="V20" s="108"/>
-    </row>
-    <row r="21" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R20" s="111"/>
+      <c r="S20" s="111"/>
+      <c r="T20" s="111"/>
+      <c r="U20" s="111"/>
+      <c r="V20" s="111"/>
+    </row>
+    <row r="21" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="79"/>
       <c r="B21" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="E21" s="29">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F21" s="30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G21" s="87"/>
       <c r="H21" s="84"/>
@@ -3569,13 +3939,23 @@
       <c r="T21" s="101"/>
       <c r="U21" s="102"/>
     </row>
-    <row r="22" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="79"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="30"/>
+      <c r="B22" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="29">
+        <v>1</v>
+      </c>
+      <c r="F22" s="30">
+        <v>1</v>
+      </c>
       <c r="G22" s="87"/>
       <c r="H22" s="84"/>
       <c r="I22" s="89"/>
@@ -3586,7 +3966,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="79"/>
       <c r="B23" s="28"/>
       <c r="C23" s="28"/>
@@ -3603,7 +3983,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="79"/>
       <c r="B24" s="28"/>
       <c r="C24" s="28"/>
@@ -3619,13 +3999,13 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
-      <c r="R24" s="108"/>
-      <c r="S24" s="108"/>
-      <c r="T24" s="108"/>
-      <c r="U24" s="108"/>
-      <c r="V24" s="108"/>
-    </row>
-    <row r="25" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R24" s="111"/>
+      <c r="S24" s="111"/>
+      <c r="T24" s="111"/>
+      <c r="U24" s="111"/>
+      <c r="V24" s="111"/>
+    </row>
+    <row r="25" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="79"/>
       <c r="B25" s="28"/>
       <c r="C25" s="28"/>
@@ -3645,7 +4025,7 @@
       <c r="T25" s="101"/>
       <c r="U25" s="102"/>
     </row>
-    <row r="26" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="33"/>
       <c r="C26" s="33"/>
@@ -3656,7 +4036,7 @@
       </c>
       <c r="F26" s="36">
         <f>SUM(F8:F25)-SUM(F5:F7)</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G26" s="80"/>
       <c r="H26" s="92"/>
@@ -3668,7 +4048,7 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -3685,7 +4065,7 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -3701,17 +4081,17 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
-      <c r="R28" s="108"/>
-      <c r="S28" s="108"/>
-      <c r="T28" s="108"/>
-      <c r="U28" s="108"/>
-      <c r="V28" s="108"/>
-    </row>
-    <row r="29" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R28" s="111"/>
+      <c r="S28" s="111"/>
+      <c r="T28" s="111"/>
+      <c r="U28" s="111"/>
+      <c r="V28" s="111"/>
+    </row>
+    <row r="29" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>21</v>
@@ -3728,7 +4108,7 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -3745,7 +4125,7 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="79"/>
       <c r="B31" s="6" t="s">
         <v>3</v>
@@ -3772,20 +4152,20 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="79"/>
       <c r="B32" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E32" s="14">
         <v>1</v>
       </c>
       <c r="F32" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G32" s="80"/>
       <c r="H32" s="94"/>
@@ -3797,7 +4177,7 @@
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="79"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -3814,7 +4194,7 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="79"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
@@ -3831,13 +4211,13 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="79"/>
       <c r="B35" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D35" s="28" t="s">
         <v>84</v>
@@ -3858,7 +4238,7 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="79"/>
       <c r="B36" s="28" t="s">
         <v>14</v>
@@ -3885,7 +4265,7 @@
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="79"/>
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
@@ -3902,13 +4282,13 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="79"/>
       <c r="B38" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D38" s="28" t="s">
         <v>19</v>
@@ -3928,13 +4308,13 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
-      <c r="R38" s="108"/>
-      <c r="S38" s="108"/>
-      <c r="T38" s="108"/>
-      <c r="U38" s="108"/>
-      <c r="V38" s="108"/>
-    </row>
-    <row r="39" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R38" s="111"/>
+      <c r="S38" s="111"/>
+      <c r="T38" s="111"/>
+      <c r="U38" s="111"/>
+      <c r="V38" s="111"/>
+    </row>
+    <row r="39" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="79"/>
       <c r="B39" s="28" t="s">
         <v>16</v>
@@ -3961,13 +4341,13 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="79"/>
       <c r="B40" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D40" s="28" t="s">
         <v>84</v>
@@ -3976,7 +4356,7 @@
         <v>1</v>
       </c>
       <c r="F40" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" s="87"/>
       <c r="H40" s="91"/>
@@ -3988,7 +4368,7 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="79"/>
       <c r="B41" s="28"/>
       <c r="C41" s="28"/>
@@ -4005,7 +4385,7 @@
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="79"/>
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
@@ -4022,7 +4402,7 @@
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
     </row>
-    <row r="43" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="79"/>
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
@@ -4039,25 +4419,29 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="79"/>
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="28" t="s">
+      <c r="C44" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="D44" s="28" t="s">
+      <c r="D44" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="E44" s="29">
+      <c r="E44" s="109">
         <v>2</v>
       </c>
-      <c r="F44" s="30">
+      <c r="F44" s="110">
         <v>0</v>
       </c>
-      <c r="G44" s="87"/>
-      <c r="H44" s="91"/>
+      <c r="G44" s="87" t="s">
+        <v>293</v>
+      </c>
+      <c r="H44" s="91">
+        <v>45876</v>
+      </c>
       <c r="I44" s="89"/>
       <c r="J44" s="76"/>
       <c r="K44" s="1"/>
@@ -4066,24 +4450,26 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
     </row>
-    <row r="45" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="79"/>
       <c r="B45" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>111</v>
+        <v>294</v>
       </c>
       <c r="D45" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="E45" s="29">
-        <v>12</v>
+      <c r="E45" s="29" t="s">
+        <v>292</v>
       </c>
       <c r="F45" s="30">
         <v>0</v>
       </c>
-      <c r="G45" s="87"/>
+      <c r="G45" s="87">
+        <v>45876</v>
+      </c>
       <c r="H45" s="91"/>
       <c r="I45" s="89"/>
       <c r="J45" s="1"/>
@@ -4093,19 +4479,19 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="79"/>
       <c r="B46" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>197</v>
+        <v>110</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="E46" s="29">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F46" s="30">
         <v>0</v>
@@ -4120,19 +4506,19 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="79"/>
       <c r="B47" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>123</v>
+        <v>196</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>198</v>
+        <v>87</v>
       </c>
       <c r="E47" s="29">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F47" s="30">
         <v>0</v>
@@ -4147,22 +4533,22 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="79"/>
       <c r="B48" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>173</v>
+        <v>122</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>22</v>
+        <v>197</v>
       </c>
       <c r="E48" s="29">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="F48" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" s="91"/>
       <c r="H48" s="91"/>
@@ -4174,13 +4560,23 @@
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="79"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="30"/>
+      <c r="B49" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="D49" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="29">
+        <v>24</v>
+      </c>
+      <c r="F49" s="30">
+        <v>0</v>
+      </c>
       <c r="G49" s="91"/>
       <c r="H49" s="91"/>
       <c r="I49" s="89"/>
@@ -4191,7 +4587,7 @@
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
     </row>
-    <row r="50" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="79"/>
       <c r="B50" s="28"/>
       <c r="C50" s="28"/>
@@ -4208,7 +4604,7 @@
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
     </row>
-    <row r="51" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="79"/>
       <c r="B51" s="28"/>
       <c r="C51" s="28"/>
@@ -4225,7 +4621,7 @@
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
     </row>
-    <row r="52" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="79"/>
       <c r="B52" s="28"/>
       <c r="C52" s="28"/>
@@ -4242,7 +4638,7 @@
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
     </row>
-    <row r="53" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="33"/>
       <c r="C53" s="33"/>
@@ -4253,7 +4649,7 @@
       </c>
       <c r="F53" s="36">
         <f>SUM(F35:F52)-SUM(F32:F34)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G53" s="80"/>
       <c r="H53" s="92"/>
@@ -4265,7 +4661,7 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -4282,7 +4678,7 @@
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
     </row>
-    <row r="55" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -4299,11 +4695,11 @@
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
     </row>
-    <row r="56" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>25</v>
@@ -4320,7 +4716,7 @@
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
     </row>
-    <row r="57" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -4337,7 +4733,7 @@
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
     </row>
-    <row r="58" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="79"/>
       <c r="B58" s="6" t="s">
         <v>3</v>
@@ -4364,14 +4760,14 @@
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
     </row>
-    <row r="59" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="79"/>
       <c r="B59" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E59" s="14">
         <v>4</v>
@@ -4389,7 +4785,7 @@
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
     </row>
-    <row r="60" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="79"/>
       <c r="B60" s="21"/>
       <c r="C60" s="21"/>
@@ -4406,7 +4802,7 @@
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
     </row>
-    <row r="61" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="79"/>
       <c r="B61" s="21"/>
       <c r="C61" s="21"/>
@@ -4423,13 +4819,13 @@
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
     </row>
-    <row r="62" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="79"/>
       <c r="B62" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D62" s="28" t="s">
         <v>26</v>
@@ -4450,13 +4846,13 @@
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
     </row>
-    <row r="63" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="79"/>
       <c r="B63" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D63" s="28" t="s">
         <v>34</v>
@@ -4465,7 +4861,7 @@
         <v>1</v>
       </c>
       <c r="F63" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" s="87"/>
       <c r="H63" s="91"/>
@@ -4477,7 +4873,7 @@
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
     </row>
-    <row r="64" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="79"/>
       <c r="B64" s="28"/>
       <c r="C64" s="28"/>
@@ -4494,7 +4890,7 @@
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
     </row>
-    <row r="65" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="79"/>
       <c r="B65" s="28" t="s">
         <v>16</v>
@@ -4521,22 +4917,22 @@
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
     </row>
-    <row r="66" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="79"/>
       <c r="B66" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C66" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="D66" s="28" t="s">
         <v>164</v>
-      </c>
-      <c r="D66" s="28" t="s">
-        <v>165</v>
       </c>
       <c r="E66" s="29">
         <v>5</v>
       </c>
       <c r="F66" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G66" s="83"/>
       <c r="H66" s="91"/>
@@ -4548,13 +4944,13 @@
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
     </row>
-    <row r="67" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="79"/>
       <c r="B67" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C67" s="28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D67" s="28" t="s">
         <v>26</v>
@@ -4575,7 +4971,7 @@
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
     </row>
-    <row r="68" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="79"/>
       <c r="B68" s="28"/>
       <c r="C68" s="28"/>
@@ -4592,7 +4988,7 @@
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
     </row>
-    <row r="69" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="79"/>
       <c r="B69" s="28"/>
       <c r="C69" s="28"/>
@@ -4609,7 +5005,7 @@
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
     </row>
-    <row r="70" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="79"/>
       <c r="B70" s="28"/>
       <c r="C70" s="28"/>
@@ -4626,13 +5022,13 @@
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
     </row>
-    <row r="71" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="79"/>
       <c r="B71" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D71" s="28" t="s">
         <v>20</v>
@@ -4641,7 +5037,7 @@
         <v>5</v>
       </c>
       <c r="F71" s="30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G71" s="87"/>
       <c r="H71" s="91"/>
@@ -4653,7 +5049,7 @@
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
     </row>
-    <row r="72" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="79"/>
       <c r="B72" s="28" t="s">
         <v>17</v>
@@ -4680,16 +5076,16 @@
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
     </row>
-    <row r="73" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="79"/>
       <c r="B73" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C73" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D73" s="28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E73" s="29">
         <v>7</v>
@@ -4707,25 +5103,29 @@
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
     </row>
-    <row r="74" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="79"/>
-      <c r="B74" s="28" t="s">
+      <c r="B74" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C74" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="D74" s="28" t="s">
+      <c r="C74" s="108" t="s">
+        <v>201</v>
+      </c>
+      <c r="D74" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="E74" s="29">
+      <c r="E74" s="109">
         <v>1</v>
       </c>
-      <c r="F74" s="30">
+      <c r="F74" s="110">
         <v>0</v>
       </c>
-      <c r="G74" s="87"/>
-      <c r="H74" s="91"/>
+      <c r="G74" s="87" t="s">
+        <v>293</v>
+      </c>
+      <c r="H74" s="91">
+        <v>45890</v>
+      </c>
       <c r="I74" s="90"/>
       <c r="J74" s="76"/>
       <c r="K74" s="1"/>
@@ -4734,24 +5134,26 @@
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
     </row>
-    <row r="75" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="79"/>
       <c r="B75" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C75" s="28" t="s">
-        <v>203</v>
+        <v>302</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="E75" s="29">
-        <v>1</v>
+        <v>303</v>
+      </c>
+      <c r="E75" s="29" t="s">
+        <v>292</v>
       </c>
       <c r="F75" s="30">
         <v>0</v>
       </c>
-      <c r="G75" s="83"/>
+      <c r="G75" s="87">
+        <v>45890</v>
+      </c>
       <c r="H75" s="91"/>
       <c r="I75" s="90"/>
       <c r="J75" s="76"/>
@@ -4761,13 +5163,23 @@
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
     </row>
-    <row r="76" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="79"/>
-      <c r="B76" s="28"/>
-      <c r="C76" s="28"/>
-      <c r="D76" s="28"/>
-      <c r="E76" s="29"/>
-      <c r="F76" s="30"/>
+      <c r="B76" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="D76" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="E76" s="29">
+        <v>1</v>
+      </c>
+      <c r="F76" s="30">
+        <v>1</v>
+      </c>
       <c r="G76" s="87"/>
       <c r="H76" s="91"/>
       <c r="I76" s="90"/>
@@ -4778,7 +5190,7 @@
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
     </row>
-    <row r="77" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="79"/>
       <c r="B77" s="28"/>
       <c r="C77" s="28"/>
@@ -4795,7 +5207,7 @@
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
     </row>
-    <row r="78" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="79"/>
       <c r="B78" s="28"/>
       <c r="C78" s="28"/>
@@ -4812,7 +5224,7 @@
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
     </row>
-    <row r="79" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="79"/>
       <c r="B79" s="28"/>
       <c r="C79" s="28"/>
@@ -4829,7 +5241,7 @@
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
     </row>
-    <row r="80" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
       <c r="B80" s="33"/>
       <c r="C80" s="33"/>
@@ -4840,7 +5252,7 @@
       </c>
       <c r="F80" s="36">
         <f>SUM(F62:F79)-SUM(F59:F61)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G80" s="80"/>
       <c r="H80" s="92"/>
@@ -4852,7 +5264,7 @@
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
     </row>
-    <row r="81" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -4869,7 +5281,7 @@
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
     </row>
-    <row r="82" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -4886,7 +5298,7 @@
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
     </row>
-    <row r="83" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="3" t="s">
@@ -4907,7 +5319,7 @@
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
     </row>
-    <row r="84" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -4924,7 +5336,7 @@
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
     </row>
-    <row r="85" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="79"/>
       <c r="B85" s="6" t="s">
         <v>3</v>
@@ -4951,7 +5363,7 @@
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
     </row>
-    <row r="86" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="79"/>
       <c r="B86" s="12" t="s">
         <v>13</v>
@@ -4964,7 +5376,7 @@
         <v>8</v>
       </c>
       <c r="F86" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86" s="80"/>
       <c r="H86" s="94"/>
@@ -4976,7 +5388,7 @@
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
     </row>
-    <row r="87" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="79"/>
       <c r="B87" s="21"/>
       <c r="C87" s="21"/>
@@ -4993,7 +5405,7 @@
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
     </row>
-    <row r="88" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="79"/>
       <c r="B88" s="21"/>
       <c r="C88" s="21"/>
@@ -5010,13 +5422,13 @@
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
     </row>
-    <row r="89" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="79"/>
       <c r="B89" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C89" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D89" s="28" t="s">
         <v>37</v>
@@ -5037,7 +5449,7 @@
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
     </row>
-    <row r="90" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="79"/>
       <c r="B90" s="28" t="s">
         <v>14</v>
@@ -5064,7 +5476,7 @@
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
     </row>
-    <row r="91" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="79"/>
       <c r="B91" s="28"/>
       <c r="C91" s="28"/>
@@ -5081,13 +5493,13 @@
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
     </row>
-    <row r="92" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="79"/>
       <c r="B92" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C92" s="28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D92" s="28" t="s">
         <v>22</v>
@@ -5096,7 +5508,7 @@
         <v>1</v>
       </c>
       <c r="F92" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92" s="87"/>
       <c r="H92" s="91"/>
@@ -5108,25 +5520,29 @@
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
     </row>
-    <row r="93" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="79"/>
-      <c r="B93" s="28" t="s">
+      <c r="B93" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="C93" s="28" t="s">
+      <c r="C93" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="D93" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="E93" s="29">
+      <c r="D93" s="108" t="s">
+        <v>139</v>
+      </c>
+      <c r="E93" s="109">
         <v>1</v>
       </c>
-      <c r="F93" s="30">
+      <c r="F93" s="110">
         <v>0</v>
       </c>
-      <c r="G93" s="91"/>
-      <c r="H93" s="91"/>
+      <c r="G93" s="91" t="s">
+        <v>293</v>
+      </c>
+      <c r="H93" s="91">
+        <v>45876</v>
+      </c>
       <c r="I93" s="91"/>
       <c r="J93" s="76"/>
       <c r="K93" s="1"/>
@@ -5135,24 +5551,26 @@
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
     </row>
-    <row r="94" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="79"/>
       <c r="B94" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C94" s="28" t="s">
-        <v>141</v>
+        <v>295</v>
       </c>
       <c r="D94" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="E94" s="29">
-        <v>19</v>
+        <v>296</v>
+      </c>
+      <c r="E94" s="29" t="s">
+        <v>292</v>
       </c>
       <c r="F94" s="30">
         <v>0</v>
       </c>
-      <c r="G94" s="91"/>
+      <c r="G94" s="91">
+        <v>45876</v>
+      </c>
       <c r="H94" s="91"/>
       <c r="I94" s="90"/>
       <c r="J94" s="76"/>
@@ -5162,13 +5580,23 @@
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
     </row>
-    <row r="95" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="79"/>
-      <c r="B95" s="28"/>
-      <c r="C95" s="28"/>
-      <c r="D95" s="28"/>
-      <c r="E95" s="29"/>
-      <c r="F95" s="30"/>
+      <c r="B95" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C95" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="D95" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="E95" s="29">
+        <v>19</v>
+      </c>
+      <c r="F95" s="30">
+        <v>0</v>
+      </c>
       <c r="G95" s="91"/>
       <c r="H95" s="91"/>
       <c r="I95" s="90"/>
@@ -5179,7 +5607,7 @@
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
     </row>
-    <row r="96" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="79"/>
       <c r="B96" s="28"/>
       <c r="C96" s="28"/>
@@ -5196,7 +5624,7 @@
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
     </row>
-    <row r="97" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="79"/>
       <c r="B97" s="28"/>
       <c r="C97" s="28"/>
@@ -5213,13 +5641,13 @@
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
     </row>
-    <row r="98" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="79"/>
       <c r="B98" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C98" s="28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D98" s="28" t="s">
         <v>34</v>
@@ -5228,7 +5656,7 @@
         <v>25</v>
       </c>
       <c r="F98" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G98" s="87"/>
       <c r="H98" s="91"/>
@@ -5240,22 +5668,22 @@
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
     </row>
-    <row r="99" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="79"/>
       <c r="B99" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C99" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D99" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E99" s="29">
         <v>10</v>
       </c>
       <c r="F99" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G99" s="83"/>
       <c r="H99" s="91"/>
@@ -5267,7 +5695,7 @@
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
     </row>
-    <row r="100" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="79"/>
       <c r="B100" s="28" t="s">
         <v>17</v>
@@ -5276,7 +5704,7 @@
         <v>61</v>
       </c>
       <c r="D100" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E100" s="29">
         <v>6</v>
@@ -5294,13 +5722,13 @@
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
     </row>
-    <row r="101" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="79"/>
       <c r="B101" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C101" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D101" s="28" t="s">
         <v>81</v>
@@ -5321,13 +5749,13 @@
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
     </row>
-    <row r="102" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="79"/>
       <c r="B102" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C102" s="28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D102" s="28" t="s">
         <v>74</v>
@@ -5348,7 +5776,7 @@
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
     </row>
-    <row r="103" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="79"/>
       <c r="B103" s="28"/>
       <c r="C103" s="28"/>
@@ -5365,7 +5793,7 @@
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
     </row>
-    <row r="104" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="79"/>
       <c r="B104" s="28"/>
       <c r="C104" s="28"/>
@@ -5382,7 +5810,7 @@
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
     </row>
-    <row r="105" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="79"/>
       <c r="B105" s="28"/>
       <c r="C105" s="28"/>
@@ -5399,7 +5827,7 @@
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
     </row>
-    <row r="106" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="79"/>
       <c r="B106" s="28"/>
       <c r="C106" s="28"/>
@@ -5416,7 +5844,7 @@
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
     </row>
-    <row r="107" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1"/>
       <c r="B107" s="33"/>
       <c r="C107" s="33"/>
@@ -5427,7 +5855,7 @@
       </c>
       <c r="F107" s="36">
         <f>SUM(F89:F106)-SUM(F86:F88)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G107" s="80"/>
       <c r="H107" s="92"/>
@@ -5439,7 +5867,7 @@
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
     </row>
-    <row r="108" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -5456,7 +5884,7 @@
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
     </row>
-    <row r="109" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -5473,11 +5901,11 @@
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
     </row>
-    <row r="110" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>52</v>
@@ -5494,7 +5922,7 @@
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
     </row>
-    <row r="111" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -5511,7 +5939,7 @@
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
     </row>
-    <row r="112" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="79"/>
       <c r="B112" s="6" t="s">
         <v>3</v>
@@ -5538,20 +5966,20 @@
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
     </row>
-    <row r="113" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="79"/>
       <c r="B113" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C113" s="13"/>
       <c r="D113" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E113" s="14">
         <v>1</v>
       </c>
       <c r="F113" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G113" s="80"/>
       <c r="H113" s="94"/>
@@ -5563,7 +5991,7 @@
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
     </row>
-    <row r="114" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="79"/>
       <c r="B114" s="21"/>
       <c r="C114" s="21"/>
@@ -5580,7 +6008,7 @@
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
     </row>
-    <row r="115" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="79"/>
       <c r="B115" s="21"/>
       <c r="C115" s="21"/>
@@ -5597,16 +6025,16 @@
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
     </row>
-    <row r="116" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="79"/>
       <c r="B116" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C116" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="D116" s="28" t="s">
         <v>211</v>
-      </c>
-      <c r="D116" s="28" t="s">
-        <v>212</v>
       </c>
       <c r="E116" s="29">
         <v>1</v>
@@ -5624,16 +6052,16 @@
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
     </row>
-    <row r="117" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="79"/>
       <c r="B117" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C117" s="28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D117" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E117" s="29">
         <v>1</v>
@@ -5651,7 +6079,7 @@
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
     </row>
-    <row r="118" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="79"/>
       <c r="B118" s="28"/>
       <c r="C118" s="28"/>
@@ -5668,22 +6096,22 @@
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
     </row>
-    <row r="119" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="79"/>
       <c r="B119" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C119" s="28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D119" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E119" s="29">
         <v>19</v>
       </c>
       <c r="F119" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G119" s="87"/>
       <c r="H119" s="91"/>
@@ -5695,13 +6123,13 @@
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
     </row>
-    <row r="120" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="79"/>
       <c r="B120" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C120" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D120" s="28" t="s">
         <v>34</v>
@@ -5710,7 +6138,7 @@
         <v>20</v>
       </c>
       <c r="F120" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G120" s="87"/>
       <c r="H120" s="91"/>
@@ -5722,22 +6150,22 @@
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
     </row>
-    <row r="121" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="79"/>
       <c r="B121" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C121" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D121" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E121" s="29">
         <v>1</v>
       </c>
       <c r="F121" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G121" s="86"/>
       <c r="H121" s="94"/>
@@ -5749,7 +6177,7 @@
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
     </row>
-    <row r="122" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="79"/>
       <c r="B122" s="28"/>
       <c r="C122" s="28"/>
@@ -5766,7 +6194,7 @@
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
     </row>
-    <row r="123" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="79"/>
       <c r="B123" s="28"/>
       <c r="C123" s="28"/>
@@ -5783,7 +6211,7 @@
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
     </row>
-    <row r="124" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="79"/>
       <c r="B124" s="28"/>
       <c r="C124" s="28"/>
@@ -5800,13 +6228,13 @@
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
     </row>
-    <row r="125" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="79"/>
       <c r="B125" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C125" s="28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D125" s="28" t="s">
         <v>23</v>
@@ -5827,22 +6255,22 @@
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
     </row>
-    <row r="126" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="79"/>
       <c r="B126" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C126" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="D126" s="28" t="s">
         <v>171</v>
-      </c>
-      <c r="D126" s="28" t="s">
-        <v>172</v>
       </c>
       <c r="E126" s="29">
         <v>10</v>
       </c>
       <c r="F126" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G126" s="83"/>
       <c r="H126" s="91"/>
@@ -5854,16 +6282,16 @@
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
     </row>
-    <row r="127" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="79"/>
       <c r="B127" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C127" s="28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D127" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E127" s="29">
         <v>19</v>
@@ -5881,22 +6309,22 @@
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
     </row>
-    <row r="128" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="79"/>
       <c r="B128" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C128" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D128" s="28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E128" s="29">
         <v>1</v>
       </c>
       <c r="F128" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128" s="87"/>
       <c r="H128" s="91"/>
@@ -5908,13 +6336,13 @@
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
     </row>
-    <row r="129" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="79"/>
       <c r="B129" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C129" s="28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D129" s="28" t="s">
         <v>20</v>
@@ -5935,7 +6363,7 @@
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
     </row>
-    <row r="130" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="79"/>
       <c r="B130" s="28"/>
       <c r="C130" s="28"/>
@@ -5952,7 +6380,7 @@
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
     </row>
-    <row r="131" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="79"/>
       <c r="B131" s="28"/>
       <c r="C131" s="28"/>
@@ -5969,7 +6397,7 @@
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
     </row>
-    <row r="132" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="79"/>
       <c r="B132" s="28"/>
       <c r="C132" s="28"/>
@@ -5986,7 +6414,7 @@
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
     </row>
-    <row r="133" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="79"/>
       <c r="B133" s="28"/>
       <c r="C133" s="28"/>
@@ -6003,7 +6431,7 @@
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
     </row>
-    <row r="134" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="1"/>
       <c r="B134" s="33"/>
       <c r="C134" s="33"/>
@@ -6014,7 +6442,7 @@
       </c>
       <c r="F134" s="36">
         <f>SUM(F116:F133)-SUM(F113:F115)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G134" s="80"/>
       <c r="H134" s="92"/>
@@ -6026,7 +6454,7 @@
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
     </row>
-    <row r="135" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -6043,7 +6471,7 @@
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
     </row>
-    <row r="136" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -6060,7 +6488,7 @@
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
     </row>
-    <row r="137" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="3" t="s">
@@ -6081,7 +6509,7 @@
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
     </row>
-    <row r="138" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -6098,7 +6526,7 @@
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
     </row>
-    <row r="139" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="79"/>
       <c r="B139" s="6" t="s">
         <v>3</v>
@@ -6125,20 +6553,20 @@
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
     </row>
-    <row r="140" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="79"/>
       <c r="B140" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C140" s="13"/>
       <c r="D140" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E140" s="14">
         <v>1</v>
       </c>
       <c r="F140" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G140" s="80"/>
       <c r="H140" s="94"/>
@@ -6150,7 +6578,7 @@
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
     </row>
-    <row r="141" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="79"/>
       <c r="B141" s="21"/>
       <c r="C141" s="21"/>
@@ -6167,7 +6595,7 @@
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
     </row>
-    <row r="142" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="79"/>
       <c r="B142" s="21"/>
       <c r="C142" s="21"/>
@@ -6184,16 +6612,16 @@
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
     </row>
-    <row r="143" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="79"/>
       <c r="B143" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C143" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D143" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E143" s="29">
         <v>3</v>
@@ -6211,22 +6639,22 @@
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
     </row>
-    <row r="144" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="79"/>
       <c r="B144" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C144" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D144" s="28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E144" s="29">
         <v>1</v>
       </c>
       <c r="F144" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G144" s="83"/>
       <c r="H144" s="91"/>
@@ -6238,7 +6666,7 @@
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
     </row>
-    <row r="145" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="79"/>
       <c r="B145" s="28"/>
       <c r="C145" s="28"/>
@@ -6255,13 +6683,13 @@
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
     </row>
-    <row r="146" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="79"/>
       <c r="B146" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C146" s="28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D146" s="28" t="s">
         <v>34</v>
@@ -6270,7 +6698,7 @@
         <v>42</v>
       </c>
       <c r="F146" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G146" s="87"/>
       <c r="H146" s="90"/>
@@ -6282,13 +6710,13 @@
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
     </row>
-    <row r="147" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="79"/>
       <c r="B147" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C147" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D147" s="28" t="s">
         <v>22</v>
@@ -6308,13 +6736,13 @@
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
     </row>
-    <row r="148" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="79"/>
       <c r="B148" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C148" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D148" s="28" t="s">
         <v>70</v>
@@ -6323,7 +6751,7 @@
         <v>1</v>
       </c>
       <c r="F148" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G148" s="87"/>
       <c r="H148" s="87"/>
@@ -6335,7 +6763,7 @@
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
     </row>
-    <row r="149" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="79"/>
       <c r="B149" s="28"/>
       <c r="C149" s="28"/>
@@ -6352,7 +6780,7 @@
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
     </row>
-    <row r="150" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="79"/>
       <c r="B150" s="28"/>
       <c r="C150" s="28"/>
@@ -6369,7 +6797,7 @@
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
     </row>
-    <row r="151" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="79"/>
       <c r="B151" s="28"/>
       <c r="C151" s="28"/>
@@ -6386,13 +6814,13 @@
       <c r="N151" s="1"/>
       <c r="O151" s="1"/>
     </row>
-    <row r="152" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="79"/>
       <c r="B152" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C152" s="28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D152" s="28" t="s">
         <v>69</v>
@@ -6401,7 +6829,7 @@
         <v>1</v>
       </c>
       <c r="F152" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G152" s="87"/>
       <c r="H152" s="91"/>
@@ -6413,13 +6841,13 @@
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
     </row>
-    <row r="153" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="79"/>
       <c r="B153" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C153" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D153" s="28" t="s">
         <v>84</v>
@@ -6428,7 +6856,7 @@
         <v>18</v>
       </c>
       <c r="F153" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G153" s="83"/>
       <c r="H153" s="91"/>
@@ -6440,13 +6868,13 @@
       <c r="N153" s="1"/>
       <c r="O153" s="1"/>
     </row>
-    <row r="154" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="79"/>
       <c r="B154" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C154" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D154" s="28" t="s">
         <v>19</v>
@@ -6467,13 +6895,13 @@
       <c r="N154" s="1"/>
       <c r="O154" s="1"/>
     </row>
-    <row r="155" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="79"/>
       <c r="B155" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C155" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D155" s="28" t="s">
         <v>19</v>
@@ -6494,16 +6922,16 @@
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
     </row>
-    <row r="156" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="79"/>
       <c r="B156" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C156" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D156" s="28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E156" s="29">
         <v>4</v>
@@ -6521,7 +6949,7 @@
       <c r="N156" s="1"/>
       <c r="O156" s="1"/>
     </row>
-    <row r="157" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="79"/>
       <c r="B157" s="28"/>
       <c r="C157" s="28"/>
@@ -6538,7 +6966,7 @@
       <c r="N157" s="1"/>
       <c r="O157" s="1"/>
     </row>
-    <row r="158" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="79"/>
       <c r="B158" s="28"/>
       <c r="C158" s="28"/>
@@ -6555,7 +6983,7 @@
       <c r="N158" s="1"/>
       <c r="O158" s="1"/>
     </row>
-    <row r="159" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="79"/>
       <c r="B159" s="28"/>
       <c r="C159" s="28"/>
@@ -6572,7 +7000,7 @@
       <c r="N159" s="1"/>
       <c r="O159" s="1"/>
     </row>
-    <row r="160" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="79"/>
       <c r="B160" s="28"/>
       <c r="C160" s="28"/>
@@ -6589,7 +7017,7 @@
       <c r="N160" s="1"/>
       <c r="O160" s="1"/>
     </row>
-    <row r="161" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1"/>
       <c r="B161" s="33"/>
       <c r="C161" s="33"/>
@@ -6600,7 +7028,7 @@
       </c>
       <c r="F161" s="36">
         <f>SUM(F143:F160)-SUM(F140:F142)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G161" s="80"/>
       <c r="H161" s="92"/>
@@ -6612,7 +7040,7 @@
       <c r="N161" s="1"/>
       <c r="O161" s="1"/>
     </row>
-    <row r="162" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -6629,7 +7057,7 @@
       <c r="N162" s="1"/>
       <c r="O162" s="1"/>
     </row>
-    <row r="163" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -6646,7 +7074,7 @@
       <c r="N163" s="1"/>
       <c r="O163" s="1"/>
     </row>
-    <row r="164" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="3" t="s">
@@ -6667,7 +7095,7 @@
       <c r="N164" s="1"/>
       <c r="O164" s="1"/>
     </row>
-    <row r="165" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -6684,7 +7112,7 @@
       <c r="N165" s="1"/>
       <c r="O165" s="1"/>
     </row>
-    <row r="166" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="79"/>
       <c r="B166" s="6" t="s">
         <v>3</v>
@@ -6711,20 +7139,20 @@
       <c r="N166" s="1"/>
       <c r="O166" s="1"/>
     </row>
-    <row r="167" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="79"/>
       <c r="B167" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C167" s="13"/>
       <c r="D167" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E167" s="14">
         <v>1</v>
       </c>
       <c r="F167" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G167" s="80"/>
       <c r="H167" s="94"/>
@@ -6736,7 +7164,7 @@
       <c r="N167" s="1"/>
       <c r="O167" s="1"/>
     </row>
-    <row r="168" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="79"/>
       <c r="B168" s="21"/>
       <c r="C168" s="21"/>
@@ -6753,7 +7181,7 @@
       <c r="N168" s="1"/>
       <c r="O168" s="1"/>
     </row>
-    <row r="169" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="79"/>
       <c r="B169" s="21"/>
       <c r="C169" s="21"/>
@@ -6770,13 +7198,13 @@
       <c r="N169" s="1"/>
       <c r="O169" s="1"/>
     </row>
-    <row r="170" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="79"/>
       <c r="B170" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C170" s="28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D170" s="28" t="s">
         <v>22</v>
@@ -6797,7 +7225,7 @@
       <c r="N170" s="1"/>
       <c r="O170" s="1"/>
     </row>
-    <row r="171" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="79"/>
       <c r="B171" s="28" t="s">
         <v>14</v>
@@ -6824,7 +7252,7 @@
       <c r="N171" s="1"/>
       <c r="O171" s="1"/>
     </row>
-    <row r="172" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="79"/>
       <c r="B172" s="28"/>
       <c r="C172" s="28"/>
@@ -6841,13 +7269,13 @@
       <c r="N172" s="1"/>
       <c r="O172" s="1"/>
     </row>
-    <row r="173" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="79"/>
       <c r="B173" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C173" s="28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D173" s="28" t="s">
         <v>88</v>
@@ -6856,7 +7284,7 @@
         <v>3</v>
       </c>
       <c r="F173" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G173" s="83"/>
       <c r="H173" s="91"/>
@@ -6868,13 +7296,13 @@
       <c r="N173" s="1"/>
       <c r="O173" s="1"/>
     </row>
-    <row r="174" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="79"/>
       <c r="B174" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C174" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D174" s="28" t="s">
         <v>75</v>
@@ -6895,13 +7323,13 @@
       <c r="N174" s="1"/>
       <c r="O174" s="1"/>
     </row>
-    <row r="175" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="79"/>
       <c r="B175" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C175" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D175" s="28" t="s">
         <v>81</v>
@@ -6910,7 +7338,7 @@
         <v>1</v>
       </c>
       <c r="F175" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G175" s="87"/>
       <c r="H175" s="91"/>
@@ -6922,7 +7350,7 @@
       <c r="N175" s="1"/>
       <c r="O175" s="1"/>
     </row>
-    <row r="176" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="79"/>
       <c r="B176" s="28"/>
       <c r="C176" s="28"/>
@@ -6939,7 +7367,7 @@
       <c r="N176" s="1"/>
       <c r="O176" s="1"/>
     </row>
-    <row r="177" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="79"/>
       <c r="B177" s="28"/>
       <c r="C177" s="28"/>
@@ -6956,7 +7384,7 @@
       <c r="N177" s="1"/>
       <c r="O177" s="1"/>
     </row>
-    <row r="178" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="79"/>
       <c r="B178" s="28"/>
       <c r="C178" s="28"/>
@@ -6973,13 +7401,13 @@
       <c r="N178" s="1"/>
       <c r="O178" s="1"/>
     </row>
-    <row r="179" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="79"/>
       <c r="B179" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C179" s="28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D179" s="28" t="s">
         <v>37</v>
@@ -7000,16 +7428,16 @@
       <c r="N179" s="1"/>
       <c r="O179" s="1"/>
     </row>
-    <row r="180" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="79"/>
       <c r="B180" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C180" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D180" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E180" s="29">
         <v>1</v>
@@ -7027,13 +7455,13 @@
       <c r="N180" s="1"/>
       <c r="O180" s="1"/>
     </row>
-    <row r="181" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="79"/>
       <c r="B181" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C181" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D181" s="28" t="s">
         <v>65</v>
@@ -7044,7 +7472,7 @@
       <c r="F181" s="30">
         <v>0</v>
       </c>
-      <c r="G181" s="91"/>
+      <c r="G181" s="87"/>
       <c r="H181" s="91"/>
       <c r="I181" s="91"/>
       <c r="J181" s="76"/>
@@ -7054,13 +7482,13 @@
       <c r="N181" s="1"/>
       <c r="O181" s="1"/>
     </row>
-    <row r="182" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="79"/>
       <c r="B182" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C182" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D182" s="28" t="s">
         <v>29</v>
@@ -7071,8 +7499,8 @@
       <c r="F182" s="30">
         <v>0</v>
       </c>
-      <c r="G182" s="91"/>
-      <c r="H182" s="87"/>
+      <c r="G182" s="87"/>
+      <c r="H182" s="90"/>
       <c r="I182" s="89"/>
       <c r="J182" s="76"/>
       <c r="K182" s="1"/>
@@ -7081,25 +7509,29 @@
       <c r="N182" s="1"/>
       <c r="O182" s="1"/>
     </row>
-    <row r="183" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="79"/>
-      <c r="B183" s="28" t="s">
+      <c r="B183" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C183" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="D183" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="E183" s="29">
+      <c r="C183" s="108" t="s">
+        <v>150</v>
+      </c>
+      <c r="D183" s="108" t="s">
+        <v>222</v>
+      </c>
+      <c r="E183" s="109">
         <v>1</v>
       </c>
-      <c r="F183" s="30">
+      <c r="F183" s="110">
         <v>0</v>
       </c>
-      <c r="G183" s="91"/>
-      <c r="H183" s="91"/>
+      <c r="G183" s="83" t="s">
+        <v>293</v>
+      </c>
+      <c r="H183" s="91">
+        <v>45876</v>
+      </c>
       <c r="I183" s="90"/>
       <c r="J183" s="1"/>
       <c r="K183" s="1"/>
@@ -7108,15 +7540,27 @@
       <c r="N183" s="1"/>
       <c r="O183" s="1"/>
     </row>
-    <row r="184" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="79"/>
-      <c r="B184" s="28"/>
-      <c r="C184" s="28"/>
-      <c r="D184" s="28"/>
-      <c r="E184" s="29"/>
-      <c r="F184" s="30"/>
-      <c r="G184" s="91"/>
-      <c r="H184" s="87"/>
+      <c r="B184" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C184" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="D184" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E184" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="F184" s="30">
+        <v>0</v>
+      </c>
+      <c r="G184" s="91">
+        <v>45876</v>
+      </c>
+      <c r="H184" s="90"/>
       <c r="I184" s="90"/>
       <c r="J184" s="76"/>
       <c r="K184" s="1"/>
@@ -7125,15 +7569,15 @@
       <c r="N184" s="1"/>
       <c r="O184" s="1"/>
     </row>
-    <row r="185" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="79"/>
       <c r="B185" s="28"/>
       <c r="C185" s="28"/>
       <c r="D185" s="28"/>
       <c r="E185" s="29"/>
       <c r="F185" s="30"/>
-      <c r="G185" s="91"/>
-      <c r="H185" s="87"/>
+      <c r="G185" s="83"/>
+      <c r="H185" s="90"/>
       <c r="I185" s="90"/>
       <c r="J185" s="76"/>
       <c r="K185" s="1"/>
@@ -7142,15 +7586,15 @@
       <c r="N185" s="1"/>
       <c r="O185" s="1"/>
     </row>
-    <row r="186" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="79"/>
       <c r="B186" s="28"/>
       <c r="C186" s="28"/>
       <c r="D186" s="28"/>
       <c r="E186" s="29"/>
       <c r="F186" s="30"/>
-      <c r="G186" s="83"/>
-      <c r="H186" s="87"/>
+      <c r="G186" s="80"/>
+      <c r="H186" s="92"/>
       <c r="I186" s="90"/>
       <c r="J186" s="76"/>
       <c r="K186" s="1"/>
@@ -7159,15 +7603,15 @@
       <c r="N186" s="1"/>
       <c r="O186" s="1"/>
     </row>
-    <row r="187" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="79"/>
       <c r="B187" s="28"/>
       <c r="C187" s="28"/>
       <c r="D187" s="28"/>
       <c r="E187" s="29"/>
       <c r="F187" s="30"/>
-      <c r="G187" s="87"/>
-      <c r="H187" s="91"/>
+      <c r="G187" s="80"/>
+      <c r="H187" s="92"/>
       <c r="I187" s="90"/>
       <c r="J187" s="76"/>
       <c r="K187" s="1"/>
@@ -7176,7 +7620,7 @@
       <c r="N187" s="1"/>
       <c r="O187" s="1"/>
     </row>
-    <row r="188" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="1"/>
       <c r="B188" s="33"/>
       <c r="C188" s="33"/>
@@ -7189,8 +7633,8 @@
         <f>SUM(F170:F187)-SUM(F167:F169)</f>
         <v>0</v>
       </c>
-      <c r="G188" s="80"/>
-      <c r="H188" s="92"/>
+      <c r="G188" s="87"/>
+      <c r="H188" s="91"/>
       <c r="I188" s="92"/>
       <c r="J188" s="76"/>
       <c r="K188" s="1"/>
@@ -7199,7 +7643,7 @@
       <c r="N188" s="1"/>
       <c r="O188" s="1"/>
     </row>
-    <row r="189" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -7216,7 +7660,7 @@
       <c r="N189" s="1"/>
       <c r="O189" s="1"/>
     </row>
-    <row r="190" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -7233,7 +7677,7 @@
       <c r="N190" s="1"/>
       <c r="O190" s="1"/>
     </row>
-    <row r="191" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="3" t="s">
@@ -7254,7 +7698,7 @@
       <c r="N191" s="1"/>
       <c r="O191" s="1"/>
     </row>
-    <row r="192" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="1"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -7271,7 +7715,7 @@
       <c r="N192" s="1"/>
       <c r="O192" s="1"/>
     </row>
-    <row r="193" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="79"/>
       <c r="B193" s="6" t="s">
         <v>3</v>
@@ -7298,7 +7742,7 @@
       <c r="N193" s="1"/>
       <c r="O193" s="1"/>
     </row>
-    <row r="194" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="79"/>
       <c r="B194" s="12" t="s">
         <v>13</v>
@@ -7311,7 +7755,7 @@
         <v>1</v>
       </c>
       <c r="F194" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G194" s="80"/>
       <c r="H194" s="94"/>
@@ -7323,7 +7767,7 @@
       <c r="N194" s="1"/>
       <c r="O194" s="1"/>
     </row>
-    <row r="195" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="79"/>
       <c r="B195" s="21"/>
       <c r="C195" s="21"/>
@@ -7340,7 +7784,7 @@
       <c r="N195" s="1"/>
       <c r="O195" s="1"/>
     </row>
-    <row r="196" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="79"/>
       <c r="B196" s="21"/>
       <c r="C196" s="21"/>
@@ -7357,13 +7801,13 @@
       <c r="N196" s="1"/>
       <c r="O196" s="1"/>
     </row>
-    <row r="197" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="79"/>
       <c r="B197" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C197" s="28" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D197" s="28" t="s">
         <v>18</v>
@@ -7384,13 +7828,13 @@
       <c r="N197" s="1"/>
       <c r="O197" s="1"/>
     </row>
-    <row r="198" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="79"/>
       <c r="B198" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C198" s="28" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D198" s="28" t="s">
         <v>22</v>
@@ -7411,7 +7855,7 @@
       <c r="N198" s="1"/>
       <c r="O198" s="1"/>
     </row>
-    <row r="199" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="79"/>
       <c r="B199" s="28"/>
       <c r="C199" s="28"/>
@@ -7428,16 +7872,16 @@
       <c r="N199" s="1"/>
       <c r="O199" s="1"/>
     </row>
-    <row r="200" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="79"/>
       <c r="B200" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C200" s="28" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D200" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E200" s="29">
         <v>1</v>
@@ -7455,13 +7899,13 @@
       <c r="N200" s="1"/>
       <c r="O200" s="1"/>
     </row>
-    <row r="201" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="79"/>
       <c r="B201" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C201" s="28" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D201" s="28" t="s">
         <v>18</v>
@@ -7482,13 +7926,13 @@
       <c r="N201" s="1"/>
       <c r="O201" s="1"/>
     </row>
-    <row r="202" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="79"/>
       <c r="B202" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C202" s="28" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D202" s="28" t="s">
         <v>22</v>
@@ -7509,7 +7953,7 @@
       <c r="N202" s="1"/>
       <c r="O202" s="1"/>
     </row>
-    <row r="203" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="79"/>
       <c r="B203" s="28"/>
       <c r="C203" s="28"/>
@@ -7526,7 +7970,7 @@
       <c r="N203" s="1"/>
       <c r="O203" s="1"/>
     </row>
-    <row r="204" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="79"/>
       <c r="B204" s="28"/>
       <c r="C204" s="28"/>
@@ -7543,7 +7987,7 @@
       <c r="N204" s="1"/>
       <c r="O204" s="1"/>
     </row>
-    <row r="205" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="79"/>
       <c r="B205" s="28"/>
       <c r="C205" s="28"/>
@@ -7560,13 +8004,13 @@
       <c r="N205" s="1"/>
       <c r="O205" s="1"/>
     </row>
-    <row r="206" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="79"/>
       <c r="B206" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C206" s="28" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D206" s="28" t="s">
         <v>88</v>
@@ -7587,13 +8031,13 @@
       <c r="N206" s="1"/>
       <c r="O206" s="1"/>
     </row>
-    <row r="207" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="79"/>
       <c r="B207" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C207" s="28" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D207" s="28" t="s">
         <v>74</v>
@@ -7614,16 +8058,16 @@
       <c r="N207" s="1"/>
       <c r="O207" s="1"/>
     </row>
-    <row r="208" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="79"/>
       <c r="B208" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C208" s="28" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D208" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E208" s="29">
         <v>1</v>
@@ -7641,16 +8085,16 @@
       <c r="N208" s="1"/>
       <c r="O208" s="1"/>
     </row>
-    <row r="209" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="79"/>
       <c r="B209" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C209" s="28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D209" s="28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E209" s="29">
         <v>1</v>
@@ -7668,16 +8112,16 @@
       <c r="N209" s="1"/>
       <c r="O209" s="1"/>
     </row>
-    <row r="210" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="79"/>
       <c r="B210" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C210" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="D210" s="28" t="s">
         <v>284</v>
-      </c>
-      <c r="D210" s="28" t="s">
-        <v>285</v>
       </c>
       <c r="E210" s="29">
         <v>1</v>
@@ -7695,7 +8139,7 @@
       <c r="N210" s="1"/>
       <c r="O210" s="1"/>
     </row>
-    <row r="211" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="79"/>
       <c r="B211" s="28"/>
       <c r="C211" s="28"/>
@@ -7712,7 +8156,7 @@
       <c r="N211" s="1"/>
       <c r="O211" s="1"/>
     </row>
-    <row r="212" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="79"/>
       <c r="B212" s="28"/>
       <c r="C212" s="28"/>
@@ -7729,7 +8173,7 @@
       <c r="N212" s="1"/>
       <c r="O212" s="1"/>
     </row>
-    <row r="213" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="79"/>
       <c r="B213" s="28"/>
       <c r="C213" s="28"/>
@@ -7746,7 +8190,7 @@
       <c r="N213" s="1"/>
       <c r="O213" s="1"/>
     </row>
-    <row r="214" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A214" s="79"/>
       <c r="B214" s="28"/>
       <c r="C214" s="28"/>
@@ -7763,7 +8207,7 @@
       <c r="N214" s="1"/>
       <c r="O214" s="1"/>
     </row>
-    <row r="215" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" s="1"/>
       <c r="B215" s="33"/>
       <c r="C215" s="33"/>
@@ -7774,7 +8218,7 @@
       </c>
       <c r="F215" s="36">
         <f>SUM(F197:F214)-SUM(F194:F196)</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G215" s="80"/>
       <c r="H215" s="92"/>
@@ -7786,7 +8230,7 @@
       <c r="N215" s="1"/>
       <c r="O215" s="1"/>
     </row>
-    <row r="216" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -7803,7 +8247,7 @@
       <c r="N216" s="1"/>
       <c r="O216" s="1"/>
     </row>
-    <row r="217" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -7820,11 +8264,11 @@
       <c r="N217" s="1"/>
       <c r="O217" s="1"/>
     </row>
-    <row r="218" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D218" s="3" t="s">
         <v>55</v>
@@ -7841,7 +8285,7 @@
       <c r="N218" s="1"/>
       <c r="O218" s="1"/>
     </row>
-    <row r="219" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" s="1"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -7858,7 +8302,7 @@
       <c r="N219" s="1"/>
       <c r="O219" s="1"/>
     </row>
-    <row r="220" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A220" s="79"/>
       <c r="B220" s="6" t="s">
         <v>3</v>
@@ -7885,7 +8329,7 @@
       <c r="N220" s="1"/>
       <c r="O220" s="1"/>
     </row>
-    <row r="221" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="58"/>
       <c r="B221" s="12" t="s">
         <v>13</v>
@@ -7898,7 +8342,7 @@
         <v>1</v>
       </c>
       <c r="F221" s="15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G221" s="80"/>
       <c r="H221" s="94"/>
@@ -7910,7 +8354,7 @@
       <c r="N221" s="1"/>
       <c r="O221" s="1"/>
     </row>
-    <row r="222" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="79"/>
       <c r="B222" s="21"/>
       <c r="C222" s="21"/>
@@ -7927,7 +8371,7 @@
       <c r="N222" s="1"/>
       <c r="O222" s="1"/>
     </row>
-    <row r="223" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="79"/>
       <c r="B223" s="21"/>
       <c r="C223" s="21"/>
@@ -7944,13 +8388,13 @@
       <c r="N223" s="1"/>
       <c r="O223" s="1"/>
     </row>
-    <row r="224" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="79"/>
       <c r="B224" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C224" s="28" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D224" s="28" t="s">
         <v>19</v>
@@ -7971,13 +8415,13 @@
       <c r="N224" s="1"/>
       <c r="O224" s="1"/>
     </row>
-    <row r="225" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="79"/>
       <c r="B225" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C225" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D225" s="28" t="s">
         <v>18</v>
@@ -7998,7 +8442,7 @@
       <c r="N225" s="1"/>
       <c r="O225" s="1"/>
     </row>
-    <row r="226" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="79"/>
       <c r="B226" s="28"/>
       <c r="C226" s="28"/>
@@ -8015,7 +8459,7 @@
       <c r="N226" s="1"/>
       <c r="O226" s="1"/>
     </row>
-    <row r="227" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="79"/>
       <c r="B227" s="28" t="s">
         <v>16</v>
@@ -8042,16 +8486,16 @@
       <c r="N227" s="1"/>
       <c r="O227" s="1"/>
     </row>
-    <row r="228" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="79"/>
       <c r="B228" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C228" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D228" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E228" s="29">
         <v>5</v>
@@ -8069,25 +8513,29 @@
       <c r="N228" s="1"/>
       <c r="O228" s="1"/>
     </row>
-    <row r="229" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="79"/>
-      <c r="B229" s="28" t="s">
+      <c r="B229" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="C229" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="D229" s="28" t="s">
-        <v>287</v>
-      </c>
-      <c r="E229" s="29">
+      <c r="C229" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="D229" s="108" t="s">
+        <v>286</v>
+      </c>
+      <c r="E229" s="109">
         <v>4</v>
       </c>
-      <c r="F229" s="30">
+      <c r="F229" s="110">
         <v>0</v>
       </c>
-      <c r="G229" s="87"/>
-      <c r="H229" s="91"/>
+      <c r="G229" s="87" t="s">
+        <v>293</v>
+      </c>
+      <c r="H229" s="91">
+        <v>45876</v>
+      </c>
       <c r="I229" s="89"/>
       <c r="J229" s="76"/>
       <c r="K229" s="1"/>
@@ -8096,14 +8544,26 @@
       <c r="N229" s="1"/>
       <c r="O229" s="1"/>
     </row>
-    <row r="230" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="79"/>
-      <c r="B230" s="28"/>
-      <c r="C230" s="28"/>
-      <c r="D230" s="28"/>
-      <c r="E230" s="29"/>
-      <c r="F230" s="30"/>
-      <c r="G230" s="87"/>
+      <c r="B230" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C230" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="D230" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="E230" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="F230" s="30">
+        <v>0</v>
+      </c>
+      <c r="G230" s="87">
+        <v>45876</v>
+      </c>
       <c r="H230" s="91"/>
       <c r="I230" s="89"/>
       <c r="J230" s="76"/>
@@ -8113,7 +8573,7 @@
       <c r="N230" s="1"/>
       <c r="O230" s="1"/>
     </row>
-    <row r="231" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="79"/>
       <c r="B231" s="28"/>
       <c r="C231" s="28"/>
@@ -8130,7 +8590,7 @@
       <c r="N231" s="1"/>
       <c r="O231" s="1"/>
     </row>
-    <row r="232" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="79"/>
       <c r="B232" s="28"/>
       <c r="C232" s="28"/>
@@ -8147,13 +8607,13 @@
       <c r="N232" s="1"/>
       <c r="O232" s="1"/>
     </row>
-    <row r="233" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="79"/>
       <c r="B233" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C233" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D233" s="28" t="s">
         <v>18</v>
@@ -8174,22 +8634,22 @@
       <c r="N233" s="1"/>
       <c r="O233" s="1"/>
     </row>
-    <row r="234" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="79"/>
       <c r="B234" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C234" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D234" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E234" s="29">
         <v>20</v>
       </c>
       <c r="F234" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G234" s="87"/>
       <c r="H234" s="91"/>
@@ -8201,13 +8661,13 @@
       <c r="N234" s="1"/>
       <c r="O234" s="1"/>
     </row>
-    <row r="235" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="79"/>
       <c r="B235" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C235" s="28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D235" s="28" t="s">
         <v>31</v>
@@ -8228,16 +8688,16 @@
       <c r="N235" s="1"/>
       <c r="O235" s="1"/>
     </row>
-    <row r="236" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="79"/>
       <c r="B236" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C236" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D236" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E236" s="29">
         <v>15</v>
@@ -8255,16 +8715,16 @@
       <c r="N236" s="1"/>
       <c r="O236" s="1"/>
     </row>
-    <row r="237" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="79"/>
       <c r="B237" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C237" s="28" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D237" s="28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E237" s="29">
         <v>1</v>
@@ -8282,7 +8742,7 @@
       <c r="N237" s="1"/>
       <c r="O237" s="1"/>
     </row>
-    <row r="238" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="79"/>
       <c r="B238" s="28"/>
       <c r="C238" s="28"/>
@@ -8299,7 +8759,7 @@
       <c r="N238" s="1"/>
       <c r="O238" s="1"/>
     </row>
-    <row r="239" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="79"/>
       <c r="B239" s="28"/>
       <c r="C239" s="28"/>
@@ -8316,7 +8776,7 @@
       <c r="N239" s="1"/>
       <c r="O239" s="1"/>
     </row>
-    <row r="240" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="79"/>
       <c r="B240" s="28"/>
       <c r="C240" s="28"/>
@@ -8333,7 +8793,7 @@
       <c r="N240" s="1"/>
       <c r="O240" s="1"/>
     </row>
-    <row r="241" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A241" s="79"/>
       <c r="B241" s="28"/>
       <c r="C241" s="28"/>
@@ -8350,7 +8810,7 @@
       <c r="N241" s="1"/>
       <c r="O241" s="1"/>
     </row>
-    <row r="242" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A242" s="1"/>
       <c r="B242" s="33"/>
       <c r="C242" s="33"/>
@@ -8361,7 +8821,7 @@
       </c>
       <c r="F242" s="36">
         <f>SUM(F224:F241)-SUM(F221:F223)</f>
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="G242" s="80"/>
       <c r="H242" s="92"/>
@@ -8373,7 +8833,7 @@
       <c r="N242" s="1"/>
       <c r="O242" s="1"/>
     </row>
-    <row r="243" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -8390,7 +8850,7 @@
       <c r="N243" s="1"/>
       <c r="O243" s="1"/>
     </row>
-    <row r="244" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -8407,11 +8867,11 @@
       <c r="N244" s="1"/>
       <c r="O244" s="1"/>
     </row>
-    <row r="245" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D245" s="3" t="s">
         <v>56</v>
@@ -8428,7 +8888,7 @@
       <c r="N245" s="1"/>
       <c r="O245" s="1"/>
     </row>
-    <row r="246" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A246" s="1"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
@@ -8445,7 +8905,7 @@
       <c r="N246" s="1"/>
       <c r="O246" s="1"/>
     </row>
-    <row r="247" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A247" s="79"/>
       <c r="B247" s="6" t="s">
         <v>3</v>
@@ -8464,7 +8924,7 @@
       <c r="N247" s="1"/>
       <c r="O247" s="1"/>
     </row>
-    <row r="248" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="79"/>
       <c r="B248" s="12" t="s">
         <v>13</v>
@@ -8477,7 +8937,7 @@
         <v>8</v>
       </c>
       <c r="F248" s="15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G248" s="80"/>
       <c r="H248" s="94"/>
@@ -8489,7 +8949,7 @@
       <c r="N248" s="1"/>
       <c r="O248" s="1"/>
     </row>
-    <row r="249" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="79"/>
       <c r="B249" s="21"/>
       <c r="C249" s="21"/>
@@ -8506,7 +8966,7 @@
       <c r="N249" s="1"/>
       <c r="O249" s="1"/>
     </row>
-    <row r="250" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="79"/>
       <c r="B250" s="21"/>
       <c r="C250" s="21"/>
@@ -8523,16 +8983,16 @@
       <c r="N250" s="1"/>
       <c r="O250" s="1"/>
     </row>
-    <row r="251" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="79"/>
       <c r="B251" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C251" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D251" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E251" s="29">
         <v>1</v>
@@ -8550,16 +9010,16 @@
       <c r="N251" s="1"/>
       <c r="O251" s="1"/>
     </row>
-    <row r="252" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="79"/>
       <c r="B252" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C252" s="28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D252" s="28" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="E252" s="29">
         <v>3</v>
@@ -8577,7 +9037,7 @@
       <c r="N252" s="1"/>
       <c r="O252" s="1"/>
     </row>
-    <row r="253" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="79"/>
       <c r="B253" s="28"/>
       <c r="C253" s="28"/>
@@ -8594,13 +9054,13 @@
       <c r="N253" s="1"/>
       <c r="O253" s="1"/>
     </row>
-    <row r="254" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="79"/>
       <c r="B254" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C254" s="28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D254" s="28" t="s">
         <v>65</v>
@@ -8621,25 +9081,29 @@
       <c r="N254" s="1"/>
       <c r="O254" s="1"/>
     </row>
-    <row r="255" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="79"/>
-      <c r="B255" s="28" t="s">
+      <c r="B255" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="C255" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="D255" s="28" t="s">
+      <c r="C255" s="108" t="s">
+        <v>133</v>
+      </c>
+      <c r="D255" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E255" s="29">
+      <c r="E255" s="109">
         <v>2</v>
       </c>
-      <c r="F255" s="30">
+      <c r="F255" s="110">
         <v>0</v>
       </c>
-      <c r="G255" s="91"/>
-      <c r="H255" s="91"/>
+      <c r="G255" s="91" t="s">
+        <v>293</v>
+      </c>
+      <c r="H255" s="91">
+        <v>45890</v>
+      </c>
       <c r="I255" s="90"/>
       <c r="J255" s="1"/>
       <c r="K255" s="1"/>
@@ -8648,24 +9112,26 @@
       <c r="N255" s="1"/>
       <c r="O255" s="1"/>
     </row>
-    <row r="256" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="79"/>
       <c r="B256" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C256" s="28" t="s">
-        <v>230</v>
+        <v>304</v>
       </c>
       <c r="D256" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E256" s="29">
-        <v>3</v>
+        <v>298</v>
+      </c>
+      <c r="E256" s="29" t="s">
+        <v>292</v>
       </c>
       <c r="F256" s="30">
         <v>0</v>
       </c>
-      <c r="G256" s="87"/>
+      <c r="G256" s="87">
+        <v>45890</v>
+      </c>
       <c r="H256" s="90"/>
       <c r="I256" s="90"/>
       <c r="J256" s="1"/>
@@ -8675,13 +9141,23 @@
       <c r="N256" s="1"/>
       <c r="O256" s="1"/>
     </row>
-    <row r="257" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="79"/>
-      <c r="B257" s="28"/>
-      <c r="C257" s="28"/>
-      <c r="D257" s="28"/>
-      <c r="E257" s="29"/>
-      <c r="F257" s="30"/>
+      <c r="B257" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C257" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="D257" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E257" s="29">
+        <v>3</v>
+      </c>
+      <c r="F257" s="30">
+        <v>1</v>
+      </c>
       <c r="G257" s="83"/>
       <c r="H257" s="91"/>
       <c r="I257" s="90"/>
@@ -8692,7 +9168,7 @@
       <c r="N257" s="1"/>
       <c r="O257" s="1"/>
     </row>
-    <row r="258" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="79"/>
       <c r="B258" s="28"/>
       <c r="C258" s="28"/>
@@ -8709,7 +9185,7 @@
       <c r="N258" s="1"/>
       <c r="O258" s="1"/>
     </row>
-    <row r="259" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="79"/>
       <c r="B259" s="28"/>
       <c r="C259" s="28"/>
@@ -8726,22 +9202,22 @@
       <c r="N259" s="1"/>
       <c r="O259" s="1"/>
     </row>
-    <row r="260" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="79"/>
       <c r="B260" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C260" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D260" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E260" s="29">
         <v>20</v>
       </c>
       <c r="F260" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G260" s="87"/>
       <c r="H260" s="91"/>
@@ -8753,7 +9229,7 @@
       <c r="N260" s="1"/>
       <c r="O260" s="1"/>
     </row>
-    <row r="261" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="79"/>
       <c r="B261" s="28" t="s">
         <v>17</v>
@@ -8780,13 +9256,13 @@
       <c r="N261" s="1"/>
       <c r="O261" s="1"/>
     </row>
-    <row r="262" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="79"/>
       <c r="B262" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C262" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D262" s="28" t="s">
         <v>24</v>
@@ -8807,13 +9283,13 @@
       <c r="N262" s="1"/>
       <c r="O262" s="1"/>
     </row>
-    <row r="263" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="79"/>
       <c r="B263" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C263" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D263" s="28" t="s">
         <v>85</v>
@@ -8834,16 +9310,16 @@
       <c r="N263" s="1"/>
       <c r="O263" s="1"/>
     </row>
-    <row r="264" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="79"/>
       <c r="B264" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C264" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D264" s="28" t="s">
-        <v>89</v>
+        <v>298</v>
       </c>
       <c r="E264" s="29">
         <v>14</v>
@@ -8861,7 +9337,7 @@
       <c r="N264" s="1"/>
       <c r="O264" s="1"/>
     </row>
-    <row r="265" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="79"/>
       <c r="B265" s="28"/>
       <c r="C265" s="28"/>
@@ -8878,7 +9354,7 @@
       <c r="N265" s="1"/>
       <c r="O265" s="1"/>
     </row>
-    <row r="266" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="79"/>
       <c r="B266" s="28"/>
       <c r="C266" s="28"/>
@@ -8895,7 +9371,7 @@
       <c r="N266" s="1"/>
       <c r="O266" s="1"/>
     </row>
-    <row r="267" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="79"/>
       <c r="B267" s="28"/>
       <c r="C267" s="28"/>
@@ -8912,7 +9388,7 @@
       <c r="N267" s="1"/>
       <c r="O267" s="1"/>
     </row>
-    <row r="268" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A268" s="79"/>
       <c r="B268" s="28"/>
       <c r="C268" s="28"/>
@@ -8929,7 +9405,7 @@
       <c r="N268" s="1"/>
       <c r="O268" s="1"/>
     </row>
-    <row r="269" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A269" s="1"/>
       <c r="B269" s="33"/>
       <c r="C269" s="33"/>
@@ -8940,7 +9416,7 @@
       </c>
       <c r="F269" s="36">
         <f>SUM(F251:F268)-SUM(F248:F250)</f>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="G269" s="80"/>
       <c r="H269" s="92"/>
@@ -8952,7 +9428,7 @@
       <c r="N269" s="1"/>
       <c r="O269" s="1"/>
     </row>
-    <row r="270" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -8969,7 +9445,7 @@
       <c r="N270" s="1"/>
       <c r="O270" s="1"/>
     </row>
-    <row r="271" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -8986,14 +9462,14 @@
       <c r="N271" s="1"/>
       <c r="O271" s="1"/>
     </row>
-    <row r="272" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E272" s="2"/>
       <c r="F272" s="1"/>
@@ -9007,7 +9483,7 @@
       <c r="N272" s="1"/>
       <c r="O272" s="1"/>
     </row>
-    <row r="273" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A273" s="1"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
@@ -9024,7 +9500,7 @@
       <c r="N273" s="1"/>
       <c r="O273" s="1"/>
     </row>
-    <row r="274" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A274" s="79"/>
       <c r="B274" s="6" t="s">
         <v>3</v>
@@ -9051,7 +9527,7 @@
       <c r="N274" s="1"/>
       <c r="O274" s="1"/>
     </row>
-    <row r="275" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="79"/>
       <c r="B275" s="12" t="s">
         <v>13</v>
@@ -9064,7 +9540,7 @@
         <v>1</v>
       </c>
       <c r="F275" s="15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G275" s="80"/>
       <c r="H275" s="94"/>
@@ -9076,7 +9552,7 @@
       <c r="N275" s="1"/>
       <c r="O275" s="1"/>
     </row>
-    <row r="276" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="79"/>
       <c r="B276" s="21"/>
       <c r="C276" s="21"/>
@@ -9093,7 +9569,7 @@
       <c r="N276" s="1"/>
       <c r="O276" s="1"/>
     </row>
-    <row r="277" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="79"/>
       <c r="B277" s="21"/>
       <c r="C277" s="21"/>
@@ -9110,13 +9586,13 @@
       <c r="N277" s="1"/>
       <c r="O277" s="1"/>
     </row>
-    <row r="278" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="79"/>
       <c r="B278" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C278" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D278" s="28" t="s">
         <v>71</v>
@@ -9137,16 +9613,16 @@
       <c r="N278" s="1"/>
       <c r="O278" s="1"/>
     </row>
-    <row r="279" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="79"/>
       <c r="B279" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C279" s="28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D279" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E279" s="29">
         <v>1</v>
@@ -9164,7 +9640,7 @@
       <c r="N279" s="1"/>
       <c r="O279" s="1"/>
     </row>
-    <row r="280" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="79"/>
       <c r="B280" s="28"/>
       <c r="C280" s="28"/>
@@ -9181,13 +9657,13 @@
       <c r="N280" s="1"/>
       <c r="O280" s="1"/>
     </row>
-    <row r="281" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="79"/>
       <c r="B281" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C281" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D281" s="28" t="s">
         <v>71</v>
@@ -9208,13 +9684,13 @@
       <c r="N281" s="1"/>
       <c r="O281" s="1"/>
     </row>
-    <row r="282" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="79"/>
       <c r="B282" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C282" s="28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D282" s="28" t="s">
         <v>34</v>
@@ -9235,25 +9711,29 @@
       <c r="N282" s="1"/>
       <c r="O282" s="1"/>
     </row>
-    <row r="283" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="79"/>
-      <c r="B283" s="28" t="s">
+      <c r="B283" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="C283" s="28" t="s">
-        <v>237</v>
-      </c>
-      <c r="D283" s="28" t="s">
+      <c r="C283" s="108" t="s">
         <v>236</v>
       </c>
-      <c r="E283" s="29">
+      <c r="D283" s="108" t="s">
+        <v>235</v>
+      </c>
+      <c r="E283" s="109">
         <v>1</v>
       </c>
-      <c r="F283" s="30">
+      <c r="F283" s="110">
         <v>0</v>
       </c>
-      <c r="G283" s="87"/>
-      <c r="H283" s="91"/>
+      <c r="G283" s="87" t="s">
+        <v>293</v>
+      </c>
+      <c r="H283" s="91">
+        <v>45876</v>
+      </c>
       <c r="I283" s="90"/>
       <c r="J283" s="1"/>
       <c r="K283" s="1"/>
@@ -9262,14 +9742,26 @@
       <c r="N283" s="1"/>
       <c r="O283" s="1"/>
     </row>
-    <row r="284" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="79"/>
-      <c r="B284" s="28"/>
-      <c r="C284" s="28"/>
-      <c r="D284" s="28"/>
-      <c r="E284" s="29"/>
-      <c r="F284" s="30"/>
-      <c r="G284" s="87"/>
+      <c r="B284" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C284" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="D284" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E284" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="F284" s="30">
+        <v>1</v>
+      </c>
+      <c r="G284" s="87">
+        <v>45876</v>
+      </c>
       <c r="H284" s="90"/>
       <c r="I284" s="90"/>
       <c r="J284" s="1"/>
@@ -9279,7 +9771,7 @@
       <c r="N284" s="1"/>
       <c r="O284" s="1"/>
     </row>
-    <row r="285" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="79"/>
       <c r="B285" s="28"/>
       <c r="C285" s="28"/>
@@ -9296,7 +9788,7 @@
       <c r="N285" s="1"/>
       <c r="O285" s="1"/>
     </row>
-    <row r="286" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="79"/>
       <c r="B286" s="28"/>
       <c r="C286" s="28"/>
@@ -9313,16 +9805,16 @@
       <c r="N286" s="1"/>
       <c r="O286" s="1"/>
     </row>
-    <row r="287" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="79"/>
       <c r="B287" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C287" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D287" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E287" s="29">
         <v>12</v>
@@ -9340,22 +9832,22 @@
       <c r="N287" s="1"/>
       <c r="O287" s="1"/>
     </row>
-    <row r="288" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="79"/>
       <c r="B288" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C288" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="D288" s="28" t="s">
         <v>160</v>
-      </c>
-      <c r="D288" s="28" t="s">
-        <v>161</v>
       </c>
       <c r="E288" s="29">
         <v>1</v>
       </c>
       <c r="F288" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G288" s="87"/>
       <c r="H288" s="91"/>
@@ -9367,13 +9859,13 @@
       <c r="N288" s="1"/>
       <c r="O288" s="1"/>
     </row>
-    <row r="289" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="79"/>
       <c r="B289" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C289" s="28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D289" s="28" t="s">
         <v>19</v>
@@ -9394,13 +9886,13 @@
       <c r="N289" s="1"/>
       <c r="O289" s="1"/>
     </row>
-    <row r="290" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="79"/>
       <c r="B290" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C290" s="28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D290" s="28" t="s">
         <v>71</v>
@@ -9421,13 +9913,13 @@
       <c r="N290" s="1"/>
       <c r="O290" s="1"/>
     </row>
-    <row r="291" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="79"/>
       <c r="B291" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C291" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D291" s="28" t="s">
         <v>57</v>
@@ -9448,7 +9940,7 @@
       <c r="N291" s="1"/>
       <c r="O291" s="1"/>
     </row>
-    <row r="292" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="79"/>
       <c r="B292" s="28"/>
       <c r="C292" s="28"/>
@@ -9465,7 +9957,7 @@
       <c r="N292" s="1"/>
       <c r="O292" s="1"/>
     </row>
-    <row r="293" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="79"/>
       <c r="B293" s="28"/>
       <c r="C293" s="28"/>
@@ -9482,7 +9974,7 @@
       <c r="N293" s="1"/>
       <c r="O293" s="1"/>
     </row>
-    <row r="294" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="79"/>
       <c r="B294" s="28"/>
       <c r="C294" s="28"/>
@@ -9499,7 +9991,7 @@
       <c r="N294" s="1"/>
       <c r="O294" s="1"/>
     </row>
-    <row r="295" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A295" s="79"/>
       <c r="B295" s="28"/>
       <c r="C295" s="28"/>
@@ -9516,7 +10008,7 @@
       <c r="N295" s="1"/>
       <c r="O295" s="1"/>
     </row>
-    <row r="296" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A296" s="1"/>
       <c r="B296" s="33"/>
       <c r="C296" s="33"/>
@@ -9527,7 +10019,7 @@
       </c>
       <c r="F296" s="36">
         <f>SUM(F278:F295)-SUM(F275:F276)</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G296" s="91"/>
       <c r="H296" s="91"/>
@@ -9539,7 +10031,7 @@
       <c r="N296" s="1"/>
       <c r="O296" s="1"/>
     </row>
-    <row r="297" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -9556,7 +10048,7 @@
       <c r="N297" s="1"/>
       <c r="O297" s="1"/>
     </row>
-    <row r="298" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -9573,14 +10065,14 @@
       <c r="N298" s="1"/>
       <c r="O298" s="1"/>
     </row>
-    <row r="299" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E299" s="2"/>
       <c r="F299" s="1"/>
@@ -9594,7 +10086,7 @@
       <c r="N299" s="1"/>
       <c r="O299" s="1"/>
     </row>
-    <row r="300" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A300" s="1"/>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
@@ -9611,7 +10103,7 @@
       <c r="N300" s="1"/>
       <c r="O300" s="1"/>
     </row>
-    <row r="301" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A301" s="79"/>
       <c r="B301" s="6" t="s">
         <v>3</v>
@@ -9638,7 +10130,7 @@
       <c r="N301" s="1"/>
       <c r="O301" s="1"/>
     </row>
-    <row r="302" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="79"/>
       <c r="B302" s="12" t="s">
         <v>13</v>
@@ -9651,7 +10143,7 @@
         <v>4</v>
       </c>
       <c r="F302" s="15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G302" s="80"/>
       <c r="H302" s="91"/>
@@ -9663,7 +10155,7 @@
       <c r="N302" s="1"/>
       <c r="O302" s="1"/>
     </row>
-    <row r="303" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="79"/>
       <c r="B303" s="21"/>
       <c r="C303" s="21"/>
@@ -9680,7 +10172,7 @@
       <c r="N303" s="1"/>
       <c r="O303" s="1"/>
     </row>
-    <row r="304" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="79"/>
       <c r="B304" s="21"/>
       <c r="C304" s="21"/>
@@ -9697,16 +10189,16 @@
       <c r="N304" s="1"/>
       <c r="O304" s="1"/>
     </row>
-    <row r="305" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="79"/>
       <c r="B305" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C305" s="28" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D305" s="28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E305" s="29">
         <v>2</v>
@@ -9724,16 +10216,16 @@
       <c r="N305" s="1"/>
       <c r="O305" s="1"/>
     </row>
-    <row r="306" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="79"/>
       <c r="B306" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C306" s="28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D306" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E306" s="29">
         <v>1</v>
@@ -9751,7 +10243,7 @@
       <c r="N306" s="1"/>
       <c r="O306" s="1"/>
     </row>
-    <row r="307" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="79"/>
       <c r="B307" s="28"/>
       <c r="C307" s="28"/>
@@ -9768,22 +10260,22 @@
       <c r="N307" s="1"/>
       <c r="O307" s="1"/>
     </row>
-    <row r="308" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="79"/>
       <c r="B308" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C308" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D308" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E308" s="29">
         <v>4</v>
       </c>
       <c r="F308" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G308" s="87"/>
       <c r="H308" s="91"/>
@@ -9795,13 +10287,13 @@
       <c r="N308" s="1"/>
       <c r="O308" s="1"/>
     </row>
-    <row r="309" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="79"/>
       <c r="B309" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C309" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D309" s="28" t="s">
         <v>69</v>
@@ -9822,16 +10314,16 @@
       <c r="N309" s="1"/>
       <c r="O309" s="1"/>
     </row>
-    <row r="310" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="79"/>
       <c r="B310" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C310" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D310" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E310" s="29">
         <v>9</v>
@@ -9849,7 +10341,7 @@
       <c r="N310" s="1"/>
       <c r="O310" s="1"/>
     </row>
-    <row r="311" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="79"/>
       <c r="B311" s="28"/>
       <c r="C311" s="28"/>
@@ -9866,7 +10358,7 @@
       <c r="N311" s="1"/>
       <c r="O311" s="1"/>
     </row>
-    <row r="312" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="79"/>
       <c r="B312" s="28"/>
       <c r="C312" s="28"/>
@@ -9883,7 +10375,7 @@
       <c r="N312" s="1"/>
       <c r="O312" s="1"/>
     </row>
-    <row r="313" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="79"/>
       <c r="B313" s="28"/>
       <c r="C313" s="28"/>
@@ -9900,7 +10392,7 @@
       <c r="N313" s="1"/>
       <c r="O313" s="1"/>
     </row>
-    <row r="314" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="79"/>
       <c r="B314" s="28" t="s">
         <v>17</v>
@@ -9915,7 +10407,7 @@
         <v>54</v>
       </c>
       <c r="F314" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G314" s="87"/>
       <c r="H314" s="91"/>
@@ -9927,16 +10419,16 @@
       <c r="N314" s="1"/>
       <c r="O314" s="1"/>
     </row>
-    <row r="315" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="79"/>
       <c r="B315" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C315" s="28" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D315" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E315" s="29">
         <v>8</v>
@@ -9954,22 +10446,22 @@
       <c r="N315" s="1"/>
       <c r="O315" s="1"/>
     </row>
-    <row r="316" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="79"/>
       <c r="B316" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C316" s="28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D316" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E316" s="29">
         <v>1</v>
       </c>
       <c r="F316" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G316" s="87"/>
       <c r="H316" s="91"/>
@@ -9981,16 +10473,16 @@
       <c r="N316" s="1"/>
       <c r="O316" s="1"/>
     </row>
-    <row r="317" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="79"/>
       <c r="B317" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C317" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="D317" s="28" t="s">
         <v>244</v>
-      </c>
-      <c r="D317" s="28" t="s">
-        <v>245</v>
       </c>
       <c r="E317" s="29">
         <v>1</v>
@@ -10008,16 +10500,16 @@
       <c r="N317" s="1"/>
       <c r="O317" s="1"/>
     </row>
-    <row r="318" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="79"/>
       <c r="B318" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C318" s="28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D318" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E318" s="29">
         <v>1</v>
@@ -10035,7 +10527,7 @@
       <c r="N318" s="1"/>
       <c r="O318" s="1"/>
     </row>
-    <row r="319" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="79"/>
       <c r="B319" s="28"/>
       <c r="C319" s="28"/>
@@ -10052,7 +10544,7 @@
       <c r="N319" s="1"/>
       <c r="O319" s="1"/>
     </row>
-    <row r="320" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="79"/>
       <c r="B320" s="28"/>
       <c r="C320" s="28"/>
@@ -10069,7 +10561,7 @@
       <c r="N320" s="1"/>
       <c r="O320" s="1"/>
     </row>
-    <row r="321" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="79"/>
       <c r="B321" s="28"/>
       <c r="C321" s="28"/>
@@ -10086,7 +10578,7 @@
       <c r="N321" s="1"/>
       <c r="O321" s="1"/>
     </row>
-    <row r="322" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A322" s="79"/>
       <c r="B322" s="28"/>
       <c r="C322" s="28"/>
@@ -10103,7 +10595,7 @@
       <c r="N322" s="1"/>
       <c r="O322" s="1"/>
     </row>
-    <row r="323" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A323" s="1"/>
       <c r="B323" s="33"/>
       <c r="C323" s="33"/>
@@ -10126,7 +10618,7 @@
       <c r="N323" s="1"/>
       <c r="O323" s="1"/>
     </row>
-    <row r="324" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -10143,7 +10635,7 @@
       <c r="N324" s="1"/>
       <c r="O324" s="1"/>
     </row>
-    <row r="325" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -10160,11 +10652,11 @@
       <c r="N325" s="1"/>
       <c r="O325" s="1"/>
     </row>
-    <row r="326" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D326" s="1" t="s">
         <v>67</v>
@@ -10181,7 +10673,7 @@
       <c r="N326" s="1"/>
       <c r="O326" s="1"/>
     </row>
-    <row r="327" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A327" s="1"/>
       <c r="B327" s="4"/>
       <c r="C327" s="4"/>
@@ -10198,7 +10690,7 @@
       <c r="N327" s="1"/>
       <c r="O327" s="1"/>
     </row>
-    <row r="328" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A328" s="79"/>
       <c r="B328" s="6" t="s">
         <v>3</v>
@@ -10225,7 +10717,7 @@
       <c r="N328" s="1"/>
       <c r="O328" s="1"/>
     </row>
-    <row r="329" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="79"/>
       <c r="B329" s="12" t="s">
         <v>13</v>
@@ -10250,7 +10742,7 @@
       <c r="N329" s="1"/>
       <c r="O329" s="1"/>
     </row>
-    <row r="330" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="79"/>
       <c r="B330" s="21"/>
       <c r="C330" s="21"/>
@@ -10267,7 +10759,7 @@
       <c r="N330" s="1"/>
       <c r="O330" s="1"/>
     </row>
-    <row r="331" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="79"/>
       <c r="B331" s="21"/>
       <c r="C331" s="21"/>
@@ -10284,22 +10776,22 @@
       <c r="N331" s="1"/>
       <c r="O331" s="1"/>
     </row>
-    <row r="332" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="79"/>
       <c r="B332" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C332" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D332" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E332" s="29">
         <v>1</v>
       </c>
       <c r="F332" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G332" s="83"/>
       <c r="H332" s="90"/>
@@ -10311,22 +10803,22 @@
       <c r="N332" s="1"/>
       <c r="O332" s="1"/>
     </row>
-    <row r="333" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="79"/>
       <c r="B333" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C333" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D333" s="28" t="s">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="E333" s="29">
         <v>1</v>
       </c>
       <c r="F333" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G333" s="83"/>
       <c r="H333" s="90"/>
@@ -10338,7 +10830,7 @@
       <c r="N333" s="1"/>
       <c r="O333" s="1"/>
     </row>
-    <row r="334" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="79"/>
       <c r="B334" s="28"/>
       <c r="C334" s="28"/>
@@ -10355,16 +10847,16 @@
       <c r="N334" s="1"/>
       <c r="O334" s="1"/>
     </row>
-    <row r="335" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="79"/>
       <c r="B335" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C335" s="28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D335" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E335" s="29">
         <v>1</v>
@@ -10382,16 +10874,16 @@
       <c r="N335" s="1"/>
       <c r="O335" s="1"/>
     </row>
-    <row r="336" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="79"/>
       <c r="B336" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C336" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D336" s="28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E336" s="29">
         <v>1</v>
@@ -10409,13 +10901,13 @@
       <c r="N336" s="1"/>
       <c r="O336" s="1"/>
     </row>
-    <row r="337" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="79"/>
       <c r="B337" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C337" s="28" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D337" s="28" t="s">
         <v>24</v>
@@ -10436,7 +10928,7 @@
       <c r="N337" s="1"/>
       <c r="O337" s="1"/>
     </row>
-    <row r="338" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="79"/>
       <c r="B338" s="28"/>
       <c r="C338" s="28"/>
@@ -10453,7 +10945,7 @@
       <c r="N338" s="1"/>
       <c r="O338" s="1"/>
     </row>
-    <row r="339" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="79"/>
       <c r="B339" s="28"/>
       <c r="C339" s="28"/>
@@ -10467,7 +10959,7 @@
       <c r="N339" s="1"/>
       <c r="O339" s="1"/>
     </row>
-    <row r="340" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="79"/>
       <c r="B340" s="28"/>
       <c r="C340" s="28"/>
@@ -10481,16 +10973,16 @@
       <c r="N340" s="1"/>
       <c r="O340" s="1"/>
     </row>
-    <row r="341" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="79"/>
       <c r="B341" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C341" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D341" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E341" s="29">
         <v>1</v>
@@ -10505,13 +10997,13 @@
       <c r="N341" s="1"/>
       <c r="O341" s="1"/>
     </row>
-    <row r="342" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="79"/>
       <c r="B342" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C342" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D342" s="28" t="s">
         <v>83</v>
@@ -10520,7 +11012,7 @@
         <v>1</v>
       </c>
       <c r="F342" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G342" s="87"/>
       <c r="H342" s="91"/>
@@ -10529,16 +11021,16 @@
       <c r="N342" s="1"/>
       <c r="O342" s="1"/>
     </row>
-    <row r="343" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="79"/>
       <c r="B343" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C343" s="28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D343" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E343" s="29">
         <v>1</v>
@@ -10553,16 +11045,16 @@
       <c r="N343" s="1"/>
       <c r="O343" s="1"/>
     </row>
-    <row r="344" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="79"/>
       <c r="B344" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C344" s="28" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D344" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E344" s="29">
         <v>1</v>
@@ -10577,13 +11069,13 @@
       <c r="N344" s="1"/>
       <c r="O344" s="1"/>
     </row>
-    <row r="345" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="79"/>
       <c r="B345" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C345" s="28" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D345" s="28" t="s">
         <v>85</v>
@@ -10601,7 +11093,7 @@
       <c r="N345" s="1"/>
       <c r="O345" s="1"/>
     </row>
-    <row r="346" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="79"/>
       <c r="B346" s="28"/>
       <c r="C346" s="28"/>
@@ -10615,7 +11107,7 @@
       <c r="N346" s="1"/>
       <c r="O346" s="1"/>
     </row>
-    <row r="347" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="79"/>
       <c r="B347" s="28"/>
       <c r="C347" s="28"/>
@@ -10629,7 +11121,7 @@
       <c r="N347" s="1"/>
       <c r="O347" s="1"/>
     </row>
-    <row r="348" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="79"/>
       <c r="B348" s="28"/>
       <c r="C348" s="28"/>
@@ -10643,7 +11135,7 @@
       <c r="N348" s="1"/>
       <c r="O348" s="1"/>
     </row>
-    <row r="349" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A349" s="79"/>
       <c r="B349" s="28"/>
       <c r="C349" s="28"/>
@@ -10657,7 +11149,7 @@
       <c r="N349" s="1"/>
       <c r="O349" s="1"/>
     </row>
-    <row r="350" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A350" s="1"/>
       <c r="B350" s="33"/>
       <c r="C350" s="33"/>
@@ -10668,7 +11160,7 @@
       </c>
       <c r="F350" s="36">
         <f>SUM(F332:F349)-SUM(F329:F331)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G350" s="83"/>
       <c r="H350" s="90"/>
@@ -10677,7 +11169,7 @@
       <c r="N350" s="1"/>
       <c r="O350" s="1"/>
     </row>
-    <row r="351" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -10691,13 +11183,13 @@
       <c r="N351" s="1"/>
       <c r="O351" s="1"/>
     </row>
-    <row r="353" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B353" s="1"/>
       <c r="C353" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E353" s="2"/>
       <c r="F353" s="1"/>
@@ -10706,7 +11198,7 @@
       <c r="I353" s="1"/>
       <c r="J353" s="1"/>
     </row>
-    <row r="354" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="2:10" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
       <c r="D354" s="4"/>
@@ -10717,7 +11209,7 @@
       <c r="I354" s="1"/>
       <c r="J354" s="1"/>
     </row>
-    <row r="355" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:10" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B355" s="6" t="s">
         <v>3</v>
       </c>
@@ -10738,7 +11230,7 @@
       <c r="I355" s="1"/>
       <c r="J355" s="1"/>
     </row>
-    <row r="356" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B356" s="12" t="s">
         <v>13</v>
       </c>
@@ -10750,14 +11242,14 @@
         <v>5</v>
       </c>
       <c r="F356" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G356" s="1"/>
       <c r="H356" s="104"/>
       <c r="I356" s="1"/>
       <c r="J356" s="1"/>
     </row>
-    <row r="357" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B357" s="21"/>
       <c r="C357" s="21"/>
       <c r="D357" s="21"/>
@@ -10768,7 +11260,7 @@
       <c r="I357" s="1"/>
       <c r="J357" s="1"/>
     </row>
-    <row r="358" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B358" s="21"/>
       <c r="C358" s="21"/>
       <c r="D358" s="21"/>
@@ -10779,12 +11271,12 @@
       <c r="I358" s="1"/>
       <c r="J358" s="1"/>
     </row>
-    <row r="359" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B359" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C359" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D359" s="28" t="s">
         <v>85</v>
@@ -10800,12 +11292,12 @@
       <c r="I359" s="1"/>
       <c r="J359" s="1"/>
     </row>
-    <row r="360" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B360" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C360" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D360" s="28" t="s">
         <v>23</v>
@@ -10821,7 +11313,7 @@
       <c r="I360" s="1"/>
       <c r="J360" s="1"/>
     </row>
-    <row r="361" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B361" s="28"/>
       <c r="C361" s="28"/>
       <c r="D361" s="28"/>
@@ -10832,12 +11324,12 @@
       <c r="I361" s="1"/>
       <c r="J361" s="1"/>
     </row>
-    <row r="362" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B362" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C362" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D362" s="28" t="s">
         <v>18</v>
@@ -10853,12 +11345,12 @@
       <c r="I362" s="1"/>
       <c r="J362" s="1"/>
     </row>
-    <row r="363" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B363" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C363" s="28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D363" s="28" t="s">
         <v>57</v>
@@ -10874,15 +11366,15 @@
       <c r="I363" s="1"/>
       <c r="J363" s="1"/>
     </row>
-    <row r="364" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B364" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C364" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D364" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E364" s="29">
         <v>1</v>
@@ -10895,7 +11387,7 @@
       <c r="I364" s="1"/>
       <c r="J364" s="1"/>
     </row>
-    <row r="365" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B365" s="28"/>
       <c r="C365" s="28"/>
       <c r="D365" s="28"/>
@@ -10906,7 +11398,7 @@
       <c r="I365" s="1"/>
       <c r="J365" s="1"/>
     </row>
-    <row r="366" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B366" s="28"/>
       <c r="C366" s="28"/>
       <c r="D366" s="28"/>
@@ -10917,7 +11409,7 @@
       <c r="I366" s="1"/>
       <c r="J366" s="1"/>
     </row>
-    <row r="367" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B367" s="28"/>
       <c r="C367" s="28"/>
       <c r="D367" s="28"/>
@@ -10928,15 +11420,15 @@
       <c r="I367" s="1"/>
       <c r="J367" s="1"/>
     </row>
-    <row r="368" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B368" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C368" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D368" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E368" s="29">
         <v>27</v>
@@ -10949,15 +11441,15 @@
       <c r="I368" s="1"/>
       <c r="J368" s="1"/>
     </row>
-    <row r="369" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B369" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C369" s="28" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D369" s="28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E369" s="29">
         <v>12</v>
@@ -10970,15 +11462,15 @@
       <c r="I369" s="1"/>
       <c r="J369" s="1"/>
     </row>
-    <row r="370" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B370" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C370" s="28" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D370" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E370" s="29">
         <v>5</v>
@@ -10991,15 +11483,15 @@
       <c r="I370" s="1"/>
       <c r="J370" s="1"/>
     </row>
-    <row r="371" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B371" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C371" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="D371" s="28" t="s">
         <v>258</v>
-      </c>
-      <c r="D371" s="28" t="s">
-        <v>259</v>
       </c>
       <c r="E371" s="29">
         <v>1</v>
@@ -11012,12 +11504,12 @@
       <c r="I371" s="1"/>
       <c r="J371" s="1"/>
     </row>
-    <row r="372" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B372" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C372" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D372" s="28" t="s">
         <v>84</v>
@@ -11033,7 +11525,7 @@
       <c r="I372" s="1"/>
       <c r="J372" s="1"/>
     </row>
-    <row r="373" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B373" s="28"/>
       <c r="C373" s="28"/>
       <c r="D373" s="28"/>
@@ -11044,7 +11536,7 @@
       <c r="I373" s="1"/>
       <c r="J373" s="1"/>
     </row>
-    <row r="374" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B374" s="28"/>
       <c r="C374" s="28"/>
       <c r="D374" s="28"/>
@@ -11055,7 +11547,7 @@
       <c r="I374" s="1"/>
       <c r="J374" s="1"/>
     </row>
-    <row r="375" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B375" s="28"/>
       <c r="C375" s="28"/>
       <c r="D375" s="28"/>
@@ -11066,7 +11558,7 @@
       <c r="I375" s="1"/>
       <c r="J375" s="1"/>
     </row>
-    <row r="376" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="2:10" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B376" s="28"/>
       <c r="C376" s="28"/>
       <c r="D376" s="28"/>
@@ -11077,7 +11569,7 @@
       <c r="I376" s="1"/>
       <c r="J376" s="1"/>
     </row>
-    <row r="377" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="2:10" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B377" s="33"/>
       <c r="C377" s="33"/>
       <c r="D377" s="34"/>
@@ -11087,32 +11579,32 @@
       </c>
       <c r="F377" s="36">
         <f>SUM(F359:F376)-SUM(F356:F358)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G377" s="1"/>
       <c r="H377" s="1"/>
       <c r="I377" s="1"/>
       <c r="J377" s="1"/>
     </row>
-    <row r="380" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B380" s="1"/>
       <c r="C380" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D380" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="D380" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E380" s="2"/>
       <c r="F380" s="1"/>
     </row>
-    <row r="381" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="2:10" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B381" s="4"/>
       <c r="C381" s="4"/>
       <c r="D381" s="4"/>
       <c r="E381" s="5"/>
       <c r="F381" s="4"/>
     </row>
-    <row r="382" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="2:10" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B382" s="6" t="s">
         <v>3</v>
       </c>
@@ -11129,7 +11621,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="383" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B383" s="12" t="s">
         <v>13</v>
       </c>
@@ -11138,21 +11630,21 @@
       <c r="E383" s="14"/>
       <c r="F383" s="15"/>
     </row>
-    <row r="384" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B384" s="21"/>
       <c r="C384" s="21"/>
       <c r="D384" s="21"/>
       <c r="E384" s="22"/>
       <c r="F384" s="21"/>
     </row>
-    <row r="385" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B385" s="21"/>
       <c r="C385" s="21"/>
       <c r="D385" s="21"/>
       <c r="E385" s="22"/>
       <c r="F385" s="21"/>
     </row>
-    <row r="386" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B386" s="28" t="s">
         <v>14</v>
       </c>
@@ -11161,7 +11653,7 @@
       <c r="E386" s="29"/>
       <c r="F386" s="30"/>
     </row>
-    <row r="387" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B387" s="28" t="s">
         <v>14</v>
       </c>
@@ -11170,14 +11662,14 @@
       <c r="E387" s="29"/>
       <c r="F387" s="30"/>
     </row>
-    <row r="388" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B388" s="28"/>
       <c r="C388" s="28"/>
       <c r="D388" s="28"/>
       <c r="E388" s="29"/>
       <c r="F388" s="30"/>
     </row>
-    <row r="389" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B389" s="28" t="s">
         <v>16</v>
       </c>
@@ -11186,7 +11678,7 @@
       <c r="E389" s="29"/>
       <c r="F389" s="30"/>
     </row>
-    <row r="390" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B390" s="28" t="s">
         <v>16</v>
       </c>
@@ -11195,7 +11687,7 @@
       <c r="E390" s="29"/>
       <c r="F390" s="30"/>
     </row>
-    <row r="391" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B391" s="28" t="s">
         <v>16</v>
       </c>
@@ -11204,28 +11696,28 @@
       <c r="E391" s="29"/>
       <c r="F391" s="30"/>
     </row>
-    <row r="392" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B392" s="28"/>
       <c r="C392" s="28"/>
       <c r="D392" s="28"/>
       <c r="E392" s="29"/>
       <c r="F392" s="30"/>
     </row>
-    <row r="393" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B393" s="28"/>
       <c r="C393" s="28"/>
       <c r="D393" s="28"/>
       <c r="E393" s="29"/>
       <c r="F393" s="30"/>
     </row>
-    <row r="394" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B394" s="28"/>
       <c r="C394" s="28"/>
       <c r="D394" s="28"/>
       <c r="E394" s="29"/>
       <c r="F394" s="30"/>
     </row>
-    <row r="395" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B395" s="28" t="s">
         <v>17</v>
       </c>
@@ -11234,7 +11726,7 @@
       <c r="E395" s="29"/>
       <c r="F395" s="30"/>
     </row>
-    <row r="396" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B396" s="28" t="s">
         <v>17</v>
       </c>
@@ -11243,7 +11735,7 @@
       <c r="E396" s="29"/>
       <c r="F396" s="30"/>
     </row>
-    <row r="397" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B397" s="28" t="s">
         <v>17</v>
       </c>
@@ -11252,7 +11744,7 @@
       <c r="E397" s="29"/>
       <c r="F397" s="30"/>
     </row>
-    <row r="398" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B398" s="28" t="s">
         <v>17</v>
       </c>
@@ -11261,7 +11753,7 @@
       <c r="E398" s="29"/>
       <c r="F398" s="30"/>
     </row>
-    <row r="399" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B399" s="28" t="s">
         <v>17</v>
       </c>
@@ -11270,35 +11762,35 @@
       <c r="E399" s="29"/>
       <c r="F399" s="30"/>
     </row>
-    <row r="400" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B400" s="28"/>
       <c r="C400" s="28"/>
       <c r="D400" s="28"/>
       <c r="E400" s="29"/>
       <c r="F400" s="30"/>
     </row>
-    <row r="401" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B401" s="28"/>
       <c r="C401" s="28"/>
       <c r="D401" s="28"/>
       <c r="E401" s="29"/>
       <c r="F401" s="30"/>
     </row>
-    <row r="402" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B402" s="28"/>
       <c r="C402" s="28"/>
       <c r="D402" s="28"/>
       <c r="E402" s="29"/>
       <c r="F402" s="30"/>
     </row>
-    <row r="403" spans="2:6" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="2:6" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B403" s="28"/>
       <c r="C403" s="28"/>
       <c r="D403" s="28"/>
       <c r="E403" s="29"/>
       <c r="F403" s="30"/>
     </row>
-    <row r="404" spans="2:6" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="2:6" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B404" s="33"/>
       <c r="C404" s="33"/>
       <c r="D404" s="34"/>
@@ -11330,7 +11822,6 @@
   </headerFooter>
   <customProperties>
     <customPr name="_pios_id" r:id="rId2"/>
-    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId3"/>
   </customProperties>
 </worksheet>
 </file>
@@ -11343,21 +11834,21 @@
   <dimension ref="A1:IV22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="38" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" style="38" customWidth="1"/>
+    <col min="1" max="1" width="1.296875" style="38" customWidth="1"/>
+    <col min="2" max="2" width="11.796875" style="38" customWidth="1"/>
     <col min="3" max="3" width="31" style="38" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="38" customWidth="1"/>
+    <col min="4" max="4" width="35.296875" style="38" customWidth="1"/>
     <col min="5" max="6" width="9" style="38" customWidth="1"/>
     <col min="7" max="7" width="11" style="38" customWidth="1"/>
     <col min="8" max="256" width="9" style="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -11374,7 +11865,7 @@
       </c>
       <c r="K1" s="41"/>
     </row>
-    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40"/>
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
@@ -11389,7 +11880,7 @@
       <c r="J2" s="41"/>
       <c r="K2" s="41"/>
     </row>
-    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="40"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -11402,12 +11893,12 @@
       <c r="J3" s="41"/>
       <c r="K3" s="41"/>
     </row>
-    <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="40"/>
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
       <c r="D4" s="43" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E4" s="41"/>
       <c r="F4" s="41"/>
@@ -11417,7 +11908,7 @@
       <c r="J4" s="41"/>
       <c r="K4" s="41"/>
     </row>
-    <row r="5" spans="1:11" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="40"/>
       <c r="B5" s="45"/>
       <c r="C5" s="45"/>
@@ -11430,7 +11921,7 @@
       <c r="J5" s="41"/>
       <c r="K5" s="41"/>
     </row>
-    <row r="6" spans="1:11" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="14.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="47"/>
       <c r="B6" s="48" t="s">
         <v>3</v>
@@ -11455,7 +11946,7 @@
       <c r="J6" s="41"/>
       <c r="K6" s="41"/>
     </row>
-    <row r="7" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="47"/>
       <c r="B7" s="54">
         <v>1</v>
@@ -11463,14 +11954,14 @@
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="24" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="25">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F7" s="26">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G7" s="27">
         <v>0</v>
@@ -11478,99 +11969,99 @@
       <c r="H7" s="52"/>
       <c r="I7" s="41"/>
       <c r="J7" s="41"/>
-      <c r="K7" s="53"/>
-    </row>
-    <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K7" s="41"/>
+    </row>
+    <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="47"/>
       <c r="B8" s="54">
         <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>209</v>
+        <v>25</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>203</v>
       </c>
       <c r="E8" s="25">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F8" s="26">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G8" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="52"/>
       <c r="I8" s="41"/>
       <c r="J8" s="41"/>
       <c r="K8" s="41"/>
     </row>
-    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="47"/>
       <c r="B9" s="54">
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="E9" s="25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F9" s="26">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G9" s="27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H9" s="52"/>
       <c r="I9" s="41"/>
       <c r="J9" s="41"/>
       <c r="K9" s="41"/>
     </row>
-    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="47"/>
       <c r="B10" s="54">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="25">
+        <v>4</v>
+      </c>
+      <c r="F10" s="56">
+        <v>7</v>
+      </c>
+      <c r="G10" s="57">
         <v>3</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="E10" s="25">
-        <v>1</v>
-      </c>
-      <c r="F10" s="26">
-        <v>1</v>
-      </c>
-      <c r="G10" s="27">
-        <v>0</v>
       </c>
       <c r="H10" s="52"/>
       <c r="I10" s="41"/>
       <c r="J10" s="41"/>
       <c r="K10" s="41"/>
     </row>
-    <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="47"/>
       <c r="B11" s="54">
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E11" s="25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F11" s="26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G11" s="27">
         <v>1</v>
@@ -11580,22 +12071,22 @@
       <c r="J11" s="41"/>
       <c r="K11" s="41"/>
     </row>
-    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="47"/>
       <c r="B12" s="54">
         <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>194</v>
+        <v>249</v>
       </c>
       <c r="E12" s="25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F12" s="56">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G12" s="57">
         <v>0</v>
@@ -11605,207 +12096,207 @@
       <c r="J12" s="41"/>
       <c r="K12" s="41"/>
     </row>
-    <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="47"/>
       <c r="B13" s="54">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="55" t="s">
-        <v>204</v>
+        <v>99</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>238</v>
       </c>
       <c r="E13" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G13" s="27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H13" s="52"/>
       <c r="I13" s="41"/>
       <c r="J13" s="41"/>
       <c r="K13" s="41"/>
     </row>
-    <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="47"/>
       <c r="B14" s="54">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="55" t="s">
-        <v>15</v>
+        <v>36</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>35</v>
       </c>
       <c r="E14" s="25">
         <v>0</v>
       </c>
-      <c r="F14" s="56">
-        <v>0</v>
-      </c>
-      <c r="G14" s="57">
-        <v>0</v>
+      <c r="F14" s="26">
+        <v>3</v>
+      </c>
+      <c r="G14" s="27">
+        <v>3</v>
       </c>
       <c r="H14" s="52"/>
       <c r="I14" s="41"/>
       <c r="J14" s="41"/>
       <c r="K14" s="41"/>
     </row>
-    <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="47"/>
       <c r="B15" s="54">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="55" t="s">
-        <v>35</v>
+        <v>21</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>193</v>
       </c>
       <c r="E15" s="25">
-        <v>0</v>
-      </c>
-      <c r="F15" s="56">
-        <v>0</v>
-      </c>
-      <c r="G15" s="57">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="F15" s="26">
+        <v>2</v>
+      </c>
+      <c r="G15" s="27">
+        <v>3</v>
       </c>
       <c r="H15" s="52"/>
       <c r="I15" s="41"/>
       <c r="J15" s="41"/>
       <c r="K15" s="41"/>
     </row>
-    <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="47"/>
       <c r="B16" s="54">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="55" t="s">
-        <v>54</v>
+        <v>250</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>251</v>
       </c>
       <c r="E16" s="25">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F16" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16" s="52"/>
       <c r="I16" s="41"/>
       <c r="J16" s="41"/>
       <c r="K16" s="41"/>
     </row>
-    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="47"/>
       <c r="B17" s="54">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>228</v>
+        <v>119</v>
+      </c>
+      <c r="D17" s="55" t="s">
+        <v>143</v>
       </c>
       <c r="E17" s="25">
-        <v>0</v>
-      </c>
-      <c r="F17" s="26">
-        <v>0</v>
-      </c>
-      <c r="G17" s="27">
-        <v>0</v>
+        <v>-2</v>
+      </c>
+      <c r="F17" s="56">
+        <v>2</v>
+      </c>
+      <c r="G17" s="57">
+        <v>4</v>
       </c>
       <c r="H17" s="52"/>
       <c r="I17" s="41"/>
       <c r="J17" s="41"/>
       <c r="K17" s="41"/>
     </row>
-    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="47"/>
       <c r="B18" s="54">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>144</v>
+        <v>54</v>
       </c>
       <c r="E18" s="25">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F18" s="26">
         <v>0</v>
       </c>
       <c r="G18" s="27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18" s="52"/>
       <c r="I18" s="41"/>
       <c r="J18" s="41"/>
       <c r="K18" s="41"/>
     </row>
-    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="47"/>
       <c r="B19" s="54">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>250</v>
+        <v>55</v>
+      </c>
+      <c r="D19" s="55" t="s">
+        <v>274</v>
       </c>
       <c r="E19" s="25">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F19" s="26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G19" s="27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H19" s="52"/>
       <c r="I19" s="41"/>
       <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-    </row>
-    <row r="20" spans="1:11" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K19" s="53"/>
+    </row>
+    <row r="20" spans="1:11" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="47"/>
       <c r="B20" s="54">
         <v>14</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>275</v>
+        <v>56</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>227</v>
       </c>
       <c r="E20" s="25">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="F20" s="26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" s="27">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H20" s="52"/>
       <c r="I20" s="41"/>
       <c r="J20" s="41"/>
       <c r="K20" s="41"/>
     </row>
-    <row r="21" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
       <c r="B21" s="59"/>
       <c r="C21" s="59"/>
@@ -11818,7 +12309,7 @@
       <c r="J21" s="41"/>
       <c r="K21" s="41"/>
     </row>
-    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
       <c r="B22" s="40"/>
       <c r="C22" s="40"/>
@@ -11832,6 +12323,11 @@
       <c r="K22" s="41"/>
     </row>
   </sheetData>
+  <autoFilter ref="A6:IV6" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:IV20">
+      <sortCondition descending="1" ref="E6"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="93" orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -11852,19 +12348,19 @@
       <selection activeCell="H1" sqref="H1:R29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" style="38" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="38" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="38" customWidth="1"/>
-    <col min="5" max="5" width="31.33203125" style="38" customWidth="1"/>
-    <col min="6" max="7" width="9.33203125" style="38" customWidth="1"/>
-    <col min="8" max="257" width="8.77734375" style="38" customWidth="1"/>
+    <col min="2" max="2" width="33.296875" style="38" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="9.296875" style="38" customWidth="1"/>
+    <col min="5" max="5" width="31.296875" style="38" customWidth="1"/>
+    <col min="6" max="7" width="9.296875" style="38" customWidth="1"/>
+    <col min="8" max="257" width="8.796875" style="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="62" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C1" s="40"/>
       <c r="D1" s="40"/>
@@ -11872,7 +12368,7 @@
       <c r="F1" s="40"/>
       <c r="G1" s="40"/>
     </row>
-    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
@@ -11880,7 +12376,7 @@
       <c r="F2" s="40"/>
       <c r="G2" s="40"/>
     </row>
-    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="63" t="s">
         <v>39</v>
       </c>
@@ -11890,7 +12386,7 @@
       <c r="F3" s="40"/>
       <c r="G3" s="40"/>
     </row>
-    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="67" t="s">
         <v>43</v>
       </c>
@@ -11901,7 +12397,7 @@
       <c r="F4" s="68"/>
       <c r="G4" s="64"/>
     </row>
-    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="67" t="s">
         <v>44</v>
       </c>
@@ -11912,7 +12408,7 @@
       <c r="F5" s="68"/>
       <c r="G5" s="64"/>
     </row>
-    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="67" t="s">
         <v>45</v>
       </c>
@@ -11923,7 +12419,7 @@
       <c r="F6" s="68"/>
       <c r="G6" s="64"/>
     </row>
-    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="67" t="s">
         <v>46</v>
       </c>
@@ -11934,7 +12430,7 @@
       <c r="F7" s="68"/>
       <c r="G7" s="64"/>
     </row>
-    <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="67" t="s">
         <v>47</v>
       </c>
@@ -11945,7 +12441,7 @@
       <c r="F8" s="68"/>
       <c r="G8" s="64"/>
     </row>
-    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="67" t="s">
         <v>48</v>
       </c>
@@ -11956,7 +12452,7 @@
       <c r="F9" s="68"/>
       <c r="G9" s="64"/>
     </row>
-    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="67"/>
       <c r="B10" s="65"/>
       <c r="C10" s="65"/>
@@ -11965,7 +12461,7 @@
       <c r="F10" s="40"/>
       <c r="G10" s="61"/>
     </row>
-    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="67"/>
       <c r="B11" s="63" t="s">
         <v>63</v>
@@ -11976,7 +12472,7 @@
       <c r="F11" s="68"/>
       <c r="G11" s="64"/>
     </row>
-    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="67" t="s">
         <v>49</v>
       </c>
@@ -11987,7 +12483,7 @@
       <c r="F12" s="69"/>
       <c r="G12" s="100"/>
     </row>
-    <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="67" t="s">
         <v>50</v>
       </c>
@@ -11998,7 +12494,7 @@
       <c r="F13" s="68"/>
       <c r="G13" s="64"/>
     </row>
-    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="67" t="s">
         <v>51</v>
       </c>
@@ -12009,7 +12505,7 @@
       <c r="F14" s="69"/>
       <c r="G14" s="100"/>
     </row>
-    <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="67" t="s">
         <v>64</v>
       </c>
@@ -12020,7 +12516,7 @@
       <c r="F15" s="68"/>
       <c r="G15" s="64"/>
     </row>
-    <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="67"/>
       <c r="B16" s="65"/>
       <c r="C16" s="68"/>
@@ -12029,10 +12525,10 @@
       <c r="F16" s="68"/>
       <c r="G16" s="64"/>
     </row>
-    <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="67"/>
       <c r="B17" s="63" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C17" s="68"/>
       <c r="D17" s="64"/>
@@ -12040,7 +12536,7 @@
       <c r="F17" s="69"/>
       <c r="G17" s="100"/>
     </row>
-    <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="67" t="s">
         <v>77</v>
       </c>
@@ -12051,7 +12547,7 @@
       <c r="F18" s="68"/>
       <c r="G18" s="64"/>
     </row>
-    <row r="19" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="63"/>
       <c r="C19" s="64"/>
       <c r="D19" s="64"/>
@@ -12059,7 +12555,7 @@
       <c r="F19" s="66"/>
       <c r="G19" s="40"/>
     </row>
-    <row r="20" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="65"/>
       <c r="C20" s="64"/>
       <c r="D20" s="61"/>
@@ -12067,7 +12563,7 @@
       <c r="F20" s="66"/>
       <c r="G20" s="40"/>
     </row>
-    <row r="21" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="63" t="s">
         <v>40</v>
       </c>
@@ -12077,7 +12573,7 @@
       <c r="F21" s="66"/>
       <c r="G21" s="40"/>
     </row>
-    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="67" t="s">
         <v>78</v>
       </c>
@@ -12088,7 +12584,7 @@
       <c r="F22" s="68"/>
       <c r="G22" s="64"/>
     </row>
-    <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="67" t="s">
         <v>79</v>
       </c>
@@ -12099,7 +12595,7 @@
       <c r="F23" s="69"/>
       <c r="G23" s="100"/>
     </row>
-    <row r="24" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="65"/>
       <c r="C24" s="65"/>
       <c r="D24" s="64"/>
@@ -12107,7 +12603,7 @@
       <c r="F24" s="40"/>
       <c r="G24" s="40"/>
     </row>
-    <row r="25" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="63" t="s">
         <v>41</v>
       </c>
@@ -12117,9 +12613,9 @@
       <c r="F25" s="40"/>
       <c r="G25" s="40"/>
     </row>
-    <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="67" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B26" s="65"/>
       <c r="C26" s="68"/>
@@ -12128,7 +12624,7 @@
       <c r="F26" s="69"/>
       <c r="G26" s="100"/>
     </row>
-    <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="40"/>
       <c r="C27" s="40"/>
       <c r="D27" s="64"/>
@@ -12136,7 +12632,7 @@
       <c r="F27" s="40"/>
       <c r="G27" s="40"/>
     </row>
-    <row r="28" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="63" t="s">
         <v>42</v>
       </c>
@@ -12147,7 +12643,7 @@
       <c r="G28" s="40"/>
       <c r="K28" s="98"/>
     </row>
-    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="65"/>
       <c r="C29" s="40"/>
       <c r="D29" s="40"/>
@@ -12163,7 +12659,6 @@
   </headerFooter>
   <customProperties>
     <customPr name="_pios_id" r:id="rId2"/>
-    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId3"/>
   </customProperties>
 </worksheet>
 </file>
@@ -12173,18 +12668,18 @@
   <dimension ref="A1:X68"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="35.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.69921875" customWidth="1"/>
+    <col min="5" max="5" width="35.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B1" s="62" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C1" s="40"/>
       <c r="D1" s="40"/>
@@ -12209,7 +12704,7 @@
       <c r="W1" s="38"/>
       <c r="X1" s="38"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
@@ -12234,7 +12729,7 @@
       <c r="W2" s="38"/>
       <c r="X2" s="38"/>
     </row>
-    <row r="3" spans="1:24" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B3" s="63" t="s">
         <v>39</v>
       </c>
@@ -12261,7 +12756,7 @@
       <c r="W3" s="38"/>
       <c r="X3" s="38"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="67" t="s">
         <v>43</v>
       </c>
@@ -12273,7 +12768,9 @@
       <c r="G4" s="64"/>
       <c r="H4" s="38"/>
       <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
+      <c r="J4" s="98" t="s">
+        <v>403</v>
+      </c>
       <c r="K4" s="38"/>
       <c r="L4" s="38"/>
       <c r="M4" s="38"/>
@@ -12289,7 +12786,7 @@
       <c r="W4" s="38"/>
       <c r="X4" s="38"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="67" t="s">
         <v>44</v>
       </c>
@@ -12301,7 +12798,9 @@
       <c r="G5" s="64"/>
       <c r="H5" s="38"/>
       <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
+      <c r="J5" s="98" t="s">
+        <v>405</v>
+      </c>
       <c r="K5" s="38"/>
       <c r="L5" s="38"/>
       <c r="M5" s="38"/>
@@ -12317,7 +12816,7 @@
       <c r="W5" s="38"/>
       <c r="X5" s="38"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="67" t="s">
         <v>45</v>
       </c>
@@ -12329,7 +12828,9 @@
       <c r="G6" s="64"/>
       <c r="H6" s="38"/>
       <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
+      <c r="J6" s="98" t="s">
+        <v>404</v>
+      </c>
       <c r="K6" s="38"/>
       <c r="L6" s="38"/>
       <c r="M6" s="38"/>
@@ -12345,7 +12846,7 @@
       <c r="W6" s="38"/>
       <c r="X6" s="38"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="67" t="s">
         <v>46</v>
       </c>
@@ -12357,7 +12858,9 @@
       <c r="G7" s="64"/>
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
+      <c r="J7" s="98" t="s">
+        <v>406</v>
+      </c>
       <c r="K7" s="38"/>
       <c r="L7" s="38"/>
       <c r="M7" s="38"/>
@@ -12373,7 +12876,7 @@
       <c r="W7" s="38"/>
       <c r="X7" s="38"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="67" t="s">
         <v>47</v>
       </c>
@@ -12385,7 +12888,9 @@
       <c r="G8" s="64"/>
       <c r="H8" s="38"/>
       <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
+      <c r="J8" s="98" t="s">
+        <v>407</v>
+      </c>
       <c r="K8" s="38"/>
       <c r="L8" s="38"/>
       <c r="M8" s="38"/>
@@ -12401,7 +12906,7 @@
       <c r="W8" s="38"/>
       <c r="X8" s="38"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="67" t="s">
         <v>48</v>
       </c>
@@ -12413,7 +12918,9 @@
       <c r="G9" s="64"/>
       <c r="H9" s="38"/>
       <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
+      <c r="J9" s="98" t="s">
+        <v>408</v>
+      </c>
       <c r="K9" s="38"/>
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
@@ -12429,7 +12936,7 @@
       <c r="W9" s="38"/>
       <c r="X9" s="38"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="67" t="s">
         <v>49</v>
       </c>
@@ -12441,7 +12948,9 @@
       <c r="G10" s="64"/>
       <c r="H10" s="38"/>
       <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
+      <c r="J10" s="98" t="s">
+        <v>409</v>
+      </c>
       <c r="K10" s="38"/>
       <c r="L10" s="38"/>
       <c r="M10" s="38"/>
@@ -12457,7 +12966,7 @@
       <c r="W10" s="38"/>
       <c r="X10" s="38"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="67" t="s">
         <v>50</v>
       </c>
@@ -12485,7 +12994,7 @@
       <c r="W11" s="38"/>
       <c r="X11" s="38"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="67" t="s">
         <v>51</v>
       </c>
@@ -12513,7 +13022,7 @@
       <c r="W12" s="38"/>
       <c r="X12" s="38"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="67" t="s">
         <v>64</v>
       </c>
@@ -12541,7 +13050,7 @@
       <c r="W13" s="38"/>
       <c r="X13" s="38"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="67"/>
       <c r="B14" s="65"/>
       <c r="C14" s="65"/>
@@ -12567,10 +13076,10 @@
       <c r="W14" s="38"/>
       <c r="X14" s="38"/>
     </row>
-    <row r="15" spans="1:24" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A15" s="67"/>
       <c r="B15" s="63" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C15" s="68"/>
       <c r="D15" s="64"/>
@@ -12595,7 +13104,7 @@
       <c r="W15" s="38"/>
       <c r="X15" s="38"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="67" t="s">
         <v>77</v>
       </c>
@@ -12623,7 +13132,7 @@
       <c r="W16" s="38"/>
       <c r="X16" s="38"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="67" t="s">
         <v>78</v>
       </c>
@@ -12651,7 +13160,7 @@
       <c r="W17" s="38"/>
       <c r="X17" s="38"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="67" t="s">
         <v>79</v>
       </c>
@@ -12679,9 +13188,9 @@
       <c r="W18" s="38"/>
       <c r="X18" s="38"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="67" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B19" s="70"/>
       <c r="C19" s="69"/>
@@ -12707,9 +13216,9 @@
       <c r="W19" s="38"/>
       <c r="X19" s="38"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="67" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B20" s="70"/>
       <c r="C20" s="69"/>
@@ -12735,9 +13244,9 @@
       <c r="W20" s="38"/>
       <c r="X20" s="38"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="67" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B21" s="70"/>
       <c r="C21" s="69"/>
@@ -12763,9 +13272,9 @@
       <c r="W21" s="38"/>
       <c r="X21" s="38"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="67" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B22" s="70"/>
       <c r="C22" s="69"/>
@@ -12791,9 +13300,9 @@
       <c r="W22" s="38"/>
       <c r="X22" s="38"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="67" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B23" s="70"/>
       <c r="C23" s="69"/>
@@ -12819,7 +13328,7 @@
       <c r="W23" s="38"/>
       <c r="X23" s="38"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="67"/>
       <c r="B24" s="65"/>
       <c r="C24" s="68"/>
@@ -12845,7 +13354,7 @@
       <c r="W24" s="38"/>
       <c r="X24" s="38"/>
     </row>
-    <row r="25" spans="1:24" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A25" s="67"/>
       <c r="B25" s="63" t="s">
         <v>63</v>
@@ -12873,9 +13382,9 @@
       <c r="W25" s="38"/>
       <c r="X25" s="38"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="67" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B26" s="70"/>
       <c r="C26" s="69"/>
@@ -12901,9 +13410,9 @@
       <c r="W26" s="38"/>
       <c r="X26" s="38"/>
     </row>
-    <row r="27" spans="1:24" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A27" s="67" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B27" s="63"/>
       <c r="C27" s="64"/>
@@ -12929,9 +13438,9 @@
       <c r="W27" s="38"/>
       <c r="X27" s="38"/>
     </row>
-    <row r="28" spans="1:24" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A28" s="67" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B28" s="63"/>
       <c r="C28" s="64"/>
@@ -12957,9 +13466,9 @@
       <c r="W28" s="38"/>
       <c r="X28" s="38"/>
     </row>
-    <row r="29" spans="1:24" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A29" s="67" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B29" s="63"/>
       <c r="C29" s="64"/>
@@ -12985,7 +13494,7 @@
       <c r="W29" s="38"/>
       <c r="X29" s="38"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B30" s="65"/>
       <c r="C30" s="64"/>
       <c r="D30" s="61"/>
@@ -13010,7 +13519,7 @@
       <c r="W30" s="38"/>
       <c r="X30" s="38"/>
     </row>
-    <row r="31" spans="1:24" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B31" s="63" t="s">
         <v>40</v>
       </c>
@@ -13037,9 +13546,9 @@
       <c r="W31" s="38"/>
       <c r="X31" s="38"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" s="67" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B32" s="70"/>
       <c r="C32" s="69"/>
@@ -13065,9 +13574,9 @@
       <c r="W32" s="38"/>
       <c r="X32" s="38"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" s="67" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B33" s="65"/>
       <c r="C33" s="68"/>
@@ -13093,7 +13602,7 @@
       <c r="W33" s="38"/>
       <c r="X33" s="38"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B34" s="65"/>
       <c r="C34" s="65"/>
       <c r="D34" s="64"/>
@@ -13118,7 +13627,7 @@
       <c r="W34" s="38"/>
       <c r="X34" s="38"/>
     </row>
-    <row r="35" spans="1:24" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B35" s="63" t="s">
         <v>41</v>
       </c>
@@ -13145,9 +13654,9 @@
       <c r="W35" s="38"/>
       <c r="X35" s="38"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" s="67" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B36" s="65"/>
       <c r="C36" s="68"/>
@@ -13173,7 +13682,7 @@
       <c r="W36" s="38"/>
       <c r="X36" s="38"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B37" s="40"/>
       <c r="C37" s="40"/>
       <c r="D37" s="64"/>
@@ -13198,7 +13707,7 @@
       <c r="W37" s="38"/>
       <c r="X37" s="38"/>
     </row>
-    <row r="38" spans="1:24" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B38" s="63" t="s">
         <v>42</v>
       </c>
@@ -13225,7 +13734,7 @@
       <c r="W38" s="38"/>
       <c r="X38" s="38"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B39" s="65"/>
       <c r="C39" s="40"/>
       <c r="D39" s="40"/>
@@ -13250,7 +13759,7 @@
       <c r="W39" s="38"/>
       <c r="X39" s="38"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="H40" s="38"/>
       <c r="I40" s="38"/>
       <c r="J40" s="38"/>
@@ -13269,7 +13778,7 @@
       <c r="W40" s="38"/>
       <c r="X40" s="38"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="H41" s="38"/>
       <c r="I41" s="38"/>
       <c r="J41" s="38"/>
@@ -13288,7 +13797,7 @@
       <c r="W41" s="38"/>
       <c r="X41" s="38"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="H42" s="38"/>
       <c r="I42" s="38"/>
       <c r="J42" s="38"/>
@@ -13307,7 +13816,7 @@
       <c r="W42" s="38"/>
       <c r="X42" s="38"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="H43" s="38"/>
       <c r="I43" s="38"/>
       <c r="J43" s="38"/>
@@ -13326,7 +13835,7 @@
       <c r="W43" s="38"/>
       <c r="X43" s="38"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="H44" s="38"/>
       <c r="I44" s="38"/>
       <c r="J44" s="38"/>
@@ -13345,7 +13854,7 @@
       <c r="W44" s="38"/>
       <c r="X44" s="38"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="H45" s="38"/>
       <c r="I45" s="38"/>
       <c r="J45" s="38"/>
@@ -13364,7 +13873,7 @@
       <c r="W45" s="38"/>
       <c r="X45" s="38"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="H46" s="38"/>
       <c r="I46" s="38"/>
       <c r="J46" s="38"/>
@@ -13383,7 +13892,7 @@
       <c r="W46" s="38"/>
       <c r="X46" s="38"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="H47" s="38"/>
       <c r="I47" s="38"/>
       <c r="J47" s="38"/>
@@ -13402,7 +13911,7 @@
       <c r="W47" s="38"/>
       <c r="X47" s="38"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="H48" s="38"/>
       <c r="I48" s="38"/>
       <c r="J48" s="38"/>
@@ -13421,7 +13930,7 @@
       <c r="W48" s="38"/>
       <c r="X48" s="38"/>
     </row>
-    <row r="49" spans="8:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H49" s="38"/>
       <c r="I49" s="38"/>
       <c r="J49" s="38"/>
@@ -13440,7 +13949,7 @@
       <c r="W49" s="38"/>
       <c r="X49" s="38"/>
     </row>
-    <row r="50" spans="8:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H50" s="38"/>
       <c r="I50" s="38"/>
       <c r="J50" s="38"/>
@@ -13459,7 +13968,7 @@
       <c r="W50" s="38"/>
       <c r="X50" s="38"/>
     </row>
-    <row r="51" spans="8:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H51" s="38"/>
       <c r="I51" s="38"/>
       <c r="J51" s="38"/>
@@ -13478,7 +13987,7 @@
       <c r="W51" s="38"/>
       <c r="X51" s="38"/>
     </row>
-    <row r="52" spans="8:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H52" s="38"/>
       <c r="I52" s="38"/>
       <c r="J52" s="38"/>
@@ -13497,7 +14006,7 @@
       <c r="W52" s="38"/>
       <c r="X52" s="38"/>
     </row>
-    <row r="53" spans="8:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H53" s="38"/>
       <c r="I53" s="38"/>
       <c r="J53" s="38"/>
@@ -13516,7 +14025,7 @@
       <c r="W53" s="38"/>
       <c r="X53" s="38"/>
     </row>
-    <row r="54" spans="8:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H54" s="38"/>
       <c r="I54" s="38"/>
       <c r="J54" s="38"/>
@@ -13535,7 +14044,7 @@
       <c r="W54" s="38"/>
       <c r="X54" s="38"/>
     </row>
-    <row r="55" spans="8:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H55" s="38"/>
       <c r="I55" s="38"/>
       <c r="J55" s="38"/>
@@ -13554,7 +14063,7 @@
       <c r="W55" s="38"/>
       <c r="X55" s="38"/>
     </row>
-    <row r="56" spans="8:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H56" s="38"/>
       <c r="I56" s="38"/>
       <c r="J56" s="38"/>
@@ -13573,7 +14082,7 @@
       <c r="W56" s="38"/>
       <c r="X56" s="38"/>
     </row>
-    <row r="57" spans="8:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H57" s="38"/>
       <c r="I57" s="38"/>
       <c r="J57" s="38"/>
@@ -13592,7 +14101,7 @@
       <c r="W57" s="38"/>
       <c r="X57" s="38"/>
     </row>
-    <row r="58" spans="8:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H58" s="38"/>
       <c r="I58" s="38"/>
       <c r="J58" s="38"/>
@@ -13611,7 +14120,7 @@
       <c r="W58" s="38"/>
       <c r="X58" s="38"/>
     </row>
-    <row r="59" spans="8:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H59" s="38"/>
       <c r="I59" s="38"/>
       <c r="J59" s="38"/>
@@ -13630,7 +14139,7 @@
       <c r="W59" s="38"/>
       <c r="X59" s="38"/>
     </row>
-    <row r="60" spans="8:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H60" s="38"/>
       <c r="I60" s="38"/>
       <c r="J60" s="38"/>
@@ -13649,7 +14158,7 @@
       <c r="W60" s="38"/>
       <c r="X60" s="38"/>
     </row>
-    <row r="61" spans="8:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H61" s="38"/>
       <c r="I61" s="38"/>
       <c r="J61" s="38"/>
@@ -13668,7 +14177,7 @@
       <c r="W61" s="38"/>
       <c r="X61" s="38"/>
     </row>
-    <row r="62" spans="8:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H62" s="38"/>
       <c r="I62" s="38"/>
       <c r="J62" s="38"/>
@@ -13687,7 +14196,7 @@
       <c r="W62" s="38"/>
       <c r="X62" s="38"/>
     </row>
-    <row r="63" spans="8:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H63" s="38"/>
       <c r="I63" s="38"/>
       <c r="J63" s="38"/>
@@ -13706,7 +14215,7 @@
       <c r="W63" s="38"/>
       <c r="X63" s="38"/>
     </row>
-    <row r="64" spans="8:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H64" s="38"/>
       <c r="I64" s="38"/>
       <c r="J64" s="38"/>
@@ -13725,7 +14234,7 @@
       <c r="W64" s="38"/>
       <c r="X64" s="38"/>
     </row>
-    <row r="65" spans="8:24" x14ac:dyDescent="0.25">
+    <row r="65" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H65" s="38"/>
       <c r="I65" s="38"/>
       <c r="J65" s="38"/>
@@ -13744,7 +14253,7 @@
       <c r="W65" s="38"/>
       <c r="X65" s="38"/>
     </row>
-    <row r="66" spans="8:24" x14ac:dyDescent="0.25">
+    <row r="66" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H66" s="38"/>
       <c r="I66" s="38"/>
       <c r="J66" s="38"/>
@@ -13763,7 +14272,7 @@
       <c r="W66" s="38"/>
       <c r="X66" s="38"/>
     </row>
-    <row r="67" spans="8:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H67" s="38"/>
       <c r="I67" s="38"/>
       <c r="J67" s="38"/>
@@ -13782,7 +14291,7 @@
       <c r="W67" s="38"/>
       <c r="X67" s="38"/>
     </row>
-    <row r="68" spans="8:24" x14ac:dyDescent="0.25">
+    <row r="68" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H68" s="38"/>
       <c r="I68" s="38"/>
       <c r="J68" s="38"/>
@@ -13804,8 +14313,823 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
-    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId1"/>
+    <customPr name="_pios_id" r:id="rId1"/>
   </customProperties>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5616AB3-C7B1-4511-93B2-51A6298AD44C}">
+  <dimension ref="B5:Q30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N43" sqref="N43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.8984375" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="17.09765625" customWidth="1"/>
+    <col min="14" max="14" width="16.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C5" t="s">
+        <v>326</v>
+      </c>
+      <c r="F5" t="s">
+        <v>328</v>
+      </c>
+      <c r="G5" t="s">
+        <v>326</v>
+      </c>
+      <c r="J5" s="67" t="s">
+        <v>353</v>
+      </c>
+      <c r="K5" t="s">
+        <v>326</v>
+      </c>
+      <c r="N5" s="67" t="s">
+        <v>378</v>
+      </c>
+      <c r="O5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C6">
+        <f>COUNTIF(Stats!D:D,'Player Count'!B6)</f>
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>329</v>
+      </c>
+      <c r="G6">
+        <f>COUNTIF(Stats!D:D,'Player Count'!F6)</f>
+        <v>3</v>
+      </c>
+      <c r="J6" s="67" t="s">
+        <v>372</v>
+      </c>
+      <c r="K6">
+        <f>COUNTIF(Stats!D:D,'Player Count'!J6)</f>
+        <v>1</v>
+      </c>
+      <c r="M6" s="112"/>
+      <c r="N6" s="67" t="s">
+        <v>379</v>
+      </c>
+      <c r="O6">
+        <f>COUNTIF(Stats!D:D,'Player Count'!N6)</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="112"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C7">
+        <f>COUNTIF(Stats!D:D,'Player Count'!B7)</f>
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>330</v>
+      </c>
+      <c r="G7">
+        <f>COUNTIF(Stats!D:D,'Player Count'!F7)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K7">
+        <f>COUNTIF(Stats!D:D,'Player Count'!J7)</f>
+        <v>1</v>
+      </c>
+      <c r="M7" s="112"/>
+      <c r="N7" t="s">
+        <v>380</v>
+      </c>
+      <c r="O7">
+        <f>COUNTIF(Stats!D:D,'Player Count'!N7)</f>
+        <v>1</v>
+      </c>
+      <c r="Q7" s="112"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C8">
+        <f>COUNTIF(Stats!D:D,'Player Count'!B8)</f>
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>331</v>
+      </c>
+      <c r="G8">
+        <f>COUNTIF(Stats!D:D,'Player Count'!F8)</f>
+        <v>2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>355</v>
+      </c>
+      <c r="K8">
+        <f>COUNTIF(Stats!D:D,'Player Count'!J8)</f>
+        <v>2</v>
+      </c>
+      <c r="M8" s="112"/>
+      <c r="N8" t="s">
+        <v>381</v>
+      </c>
+      <c r="O8">
+        <f>COUNTIF(Stats!D:D,'Player Count'!N8)</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="112"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>309</v>
+      </c>
+      <c r="C9">
+        <f>COUNTIF(Stats!D:D,'Player Count'!B9)</f>
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>332</v>
+      </c>
+      <c r="G9">
+        <f>COUNTIF(Stats!D:D,'Player Count'!F9)</f>
+        <v>2</v>
+      </c>
+      <c r="J9" s="67" t="s">
+        <v>373</v>
+      </c>
+      <c r="K9">
+        <f>COUNTIF(Stats!D:D,'Player Count'!J9)</f>
+        <v>1</v>
+      </c>
+      <c r="M9" s="112"/>
+      <c r="N9" t="s">
+        <v>382</v>
+      </c>
+      <c r="O9">
+        <f>COUNTIF(Stats!D:D,'Player Count'!N9)</f>
+        <v>1</v>
+      </c>
+      <c r="Q9" s="112"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>310</v>
+      </c>
+      <c r="C10">
+        <f>COUNTIF(Stats!D:D,'Player Count'!B10)</f>
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>333</v>
+      </c>
+      <c r="G10">
+        <f>COUNTIF(Stats!D:D,'Player Count'!F10)</f>
+        <v>2</v>
+      </c>
+      <c r="J10" s="67" t="s">
+        <v>356</v>
+      </c>
+      <c r="K10">
+        <f>COUNTIF(Stats!D:D,'Player Count'!J10)</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="112"/>
+      <c r="N10" t="s">
+        <v>383</v>
+      </c>
+      <c r="O10">
+        <f>COUNTIF(Stats!D:D,'Player Count'!N10)</f>
+        <v>1</v>
+      </c>
+      <c r="Q10" s="112"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>311</v>
+      </c>
+      <c r="C11">
+        <f>COUNTIF(Stats!D:D,'Player Count'!B11)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>334</v>
+      </c>
+      <c r="G11">
+        <f>COUNTIF(Stats!D:D,'Player Count'!F11)</f>
+        <v>2</v>
+      </c>
+      <c r="J11" s="67" t="s">
+        <v>374</v>
+      </c>
+      <c r="K11">
+        <f>COUNTIF(Stats!D:D,'Player Count'!J11)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="112"/>
+      <c r="N11" s="67" t="s">
+        <v>384</v>
+      </c>
+      <c r="O11">
+        <f>COUNTIF(Stats!D:D,'Player Count'!N11)</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="112"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>312</v>
+      </c>
+      <c r="C12">
+        <f>COUNTIF(Stats!D:D,'Player Count'!B12)</f>
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>335</v>
+      </c>
+      <c r="G12">
+        <f>COUNTIF(Stats!D:D,'Player Count'!F12)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="67" t="s">
+        <v>357</v>
+      </c>
+      <c r="K12">
+        <f>COUNTIF(Stats!D:D,'Player Count'!J12)</f>
+        <v>2</v>
+      </c>
+      <c r="M12" s="112"/>
+      <c r="N12" s="67" t="s">
+        <v>385</v>
+      </c>
+      <c r="O12">
+        <f>COUNTIF(Stats!D:D,'Player Count'!N12)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="112"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>313</v>
+      </c>
+      <c r="C13">
+        <f>COUNTIF(Stats!D:D,'Player Count'!B13)</f>
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>336</v>
+      </c>
+      <c r="G13">
+        <f>COUNTIF(Stats!D:D,'Player Count'!F13)</f>
+        <v>4</v>
+      </c>
+      <c r="J13" s="67" t="s">
+        <v>358</v>
+      </c>
+      <c r="K13">
+        <f>COUNTIF(Stats!D:D,'Player Count'!J13)</f>
+        <v>1</v>
+      </c>
+      <c r="M13" s="112"/>
+      <c r="N13" t="s">
+        <v>386</v>
+      </c>
+      <c r="O13">
+        <f>COUNTIF(Stats!D:D,'Player Count'!N13)</f>
+        <v>3</v>
+      </c>
+      <c r="Q13" s="112"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>314</v>
+      </c>
+      <c r="C14">
+        <f>COUNTIF(Stats!D:D,'Player Count'!B14)</f>
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>337</v>
+      </c>
+      <c r="G14">
+        <f>COUNTIF(Stats!D:D,'Player Count'!F14)</f>
+        <v>1</v>
+      </c>
+      <c r="J14" s="67" t="s">
+        <v>359</v>
+      </c>
+      <c r="K14">
+        <f>COUNTIF(Stats!D:D,'Player Count'!J14)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="112"/>
+      <c r="N14" s="67" t="s">
+        <v>387</v>
+      </c>
+      <c r="O14">
+        <f>COUNTIF(Stats!D:D,'Player Count'!N14)</f>
+        <v>1</v>
+      </c>
+      <c r="Q14" s="112"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>315</v>
+      </c>
+      <c r="C15">
+        <f>COUNTIF(Stats!D:D,'Player Count'!B15)</f>
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>338</v>
+      </c>
+      <c r="G15">
+        <f>COUNTIF(Stats!D:D,'Player Count'!F15)</f>
+        <v>2</v>
+      </c>
+      <c r="J15" s="67" t="s">
+        <v>360</v>
+      </c>
+      <c r="K15">
+        <f>COUNTIF(Stats!D:D,'Player Count'!J15)</f>
+        <v>1</v>
+      </c>
+      <c r="M15" s="112"/>
+      <c r="N15" s="67" t="s">
+        <v>388</v>
+      </c>
+      <c r="O15">
+        <f>COUNTIF(Stats!D:D,'Player Count'!N15)</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="112"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>316</v>
+      </c>
+      <c r="C16">
+        <f>COUNTIF(Stats!D:D,'Player Count'!B16)</f>
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>339</v>
+      </c>
+      <c r="G16">
+        <f>COUNTIF(Stats!D:D,'Player Count'!F16)</f>
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>361</v>
+      </c>
+      <c r="K16">
+        <f>COUNTIF(Stats!D:D,'Player Count'!J16)</f>
+        <v>1</v>
+      </c>
+      <c r="M16" s="112"/>
+      <c r="N16" s="67" t="s">
+        <v>389</v>
+      </c>
+      <c r="O16">
+        <f>COUNTIF(Stats!D:D,'Player Count'!N16)</f>
+        <v>1</v>
+      </c>
+      <c r="Q16" s="112"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>317</v>
+      </c>
+      <c r="C17">
+        <f>COUNTIF(Stats!D:D,'Player Count'!B17)</f>
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
+        <v>340</v>
+      </c>
+      <c r="G17">
+        <f>COUNTIF(Stats!D:D,'Player Count'!F17)</f>
+        <v>3</v>
+      </c>
+      <c r="J17" s="67" t="s">
+        <v>362</v>
+      </c>
+      <c r="K17">
+        <f>COUNTIF(Stats!D:D,'Player Count'!J17)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="112"/>
+      <c r="N17" s="67" t="s">
+        <v>390</v>
+      </c>
+      <c r="O17">
+        <f>COUNTIF(Stats!D:D,'Player Count'!N17)</f>
+        <v>1</v>
+      </c>
+      <c r="Q17" s="112"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>318</v>
+      </c>
+      <c r="C18">
+        <f>COUNTIF(Stats!D:D,'Player Count'!B18)</f>
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>341</v>
+      </c>
+      <c r="G18">
+        <f>COUNTIF(Stats!D:D,'Player Count'!F18)</f>
+        <v>1</v>
+      </c>
+      <c r="J18" s="67" t="s">
+        <v>363</v>
+      </c>
+      <c r="K18">
+        <f>COUNTIF(Stats!D:D,'Player Count'!J18)</f>
+        <v>4</v>
+      </c>
+      <c r="M18" s="112"/>
+      <c r="N18" t="s">
+        <v>391</v>
+      </c>
+      <c r="O18">
+        <f>COUNTIF(Stats!D:D,'Player Count'!N18)</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="112"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>319</v>
+      </c>
+      <c r="C19">
+        <f>COUNTIF(Stats!D:D,'Player Count'!B19)</f>
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>342</v>
+      </c>
+      <c r="G19">
+        <f>COUNTIF(Stats!D:D,'Player Count'!F19)</f>
+        <v>1</v>
+      </c>
+      <c r="J19" s="67" t="s">
+        <v>364</v>
+      </c>
+      <c r="K19">
+        <f>COUNTIF(Stats!D:D,'Player Count'!J19)</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="112"/>
+      <c r="N19" s="67" t="s">
+        <v>401</v>
+      </c>
+      <c r="O19">
+        <f>COUNTIF(Stats!D:D,'Player Count'!N19)</f>
+        <v>1</v>
+      </c>
+      <c r="Q19" s="112"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>320</v>
+      </c>
+      <c r="C20">
+        <f>COUNTIF(Stats!D:D,'Player Count'!B20)</f>
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>343</v>
+      </c>
+      <c r="G20">
+        <f>COUNTIF(Stats!D:D,'Player Count'!F20)</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="67" t="s">
+        <v>375</v>
+      </c>
+      <c r="K20">
+        <f>COUNTIF(Stats!D:D,'Player Count'!J20)</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="112"/>
+      <c r="N20" s="67" t="s">
+        <v>392</v>
+      </c>
+      <c r="O20">
+        <f>COUNTIF(Stats!D:D,'Player Count'!N20)</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="112"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>321</v>
+      </c>
+      <c r="C21">
+        <f>COUNTIF(Stats!D:D,'Player Count'!B21)</f>
+        <v>3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>344</v>
+      </c>
+      <c r="G21">
+        <f>COUNTIF(Stats!D:D,'Player Count'!F21)</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="67" t="s">
+        <v>365</v>
+      </c>
+      <c r="K21">
+        <f>COUNTIF(Stats!D:D,'Player Count'!J21)</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="112"/>
+      <c r="N21" t="s">
+        <v>393</v>
+      </c>
+      <c r="O21">
+        <f>COUNTIF(Stats!D:D,'Player Count'!N21)</f>
+        <v>4</v>
+      </c>
+      <c r="Q21" s="112"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>322</v>
+      </c>
+      <c r="C22">
+        <f>COUNTIF(Stats!D:D,'Player Count'!B22)</f>
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>345</v>
+      </c>
+      <c r="G22">
+        <f>COUNTIF(Stats!D:D,'Player Count'!F22)</f>
+        <v>5</v>
+      </c>
+      <c r="J22" s="67" t="s">
+        <v>366</v>
+      </c>
+      <c r="K22">
+        <f>COUNTIF(Stats!D:D,'Player Count'!J22)</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="112"/>
+      <c r="N22" s="67" t="s">
+        <v>394</v>
+      </c>
+      <c r="O22">
+        <f>COUNTIF(Stats!D:D,'Player Count'!N22)</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="112"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>323</v>
+      </c>
+      <c r="C23">
+        <f>COUNTIF(Stats!D:D,'Player Count'!B23)</f>
+        <v>5</v>
+      </c>
+      <c r="F23" t="s">
+        <v>346</v>
+      </c>
+      <c r="G23">
+        <f>COUNTIF(Stats!D:D,'Player Count'!F23)</f>
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>367</v>
+      </c>
+      <c r="K23">
+        <f>COUNTIF(Stats!D:D,'Player Count'!J23)</f>
+        <v>1</v>
+      </c>
+      <c r="M23" s="112"/>
+      <c r="N23" t="s">
+        <v>395</v>
+      </c>
+      <c r="O23">
+        <f>COUNTIF(Stats!D:D,'Player Count'!N23)</f>
+        <v>1</v>
+      </c>
+      <c r="Q23" s="112"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>324</v>
+      </c>
+      <c r="C24">
+        <f>COUNTIF(Stats!D:D,'Player Count'!B24)</f>
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>347</v>
+      </c>
+      <c r="G24">
+        <f>COUNTIF(Stats!D:D,'Player Count'!F24)</f>
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>368</v>
+      </c>
+      <c r="K24">
+        <f>COUNTIF(Stats!D:D,'Player Count'!J24)</f>
+        <v>1</v>
+      </c>
+      <c r="M24" s="112"/>
+      <c r="N24" s="67" t="s">
+        <v>396</v>
+      </c>
+      <c r="O24">
+        <f>COUNTIF(Stats!D:D,'Player Count'!N24)</f>
+        <v>2</v>
+      </c>
+      <c r="Q24" s="112"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>325</v>
+      </c>
+      <c r="C25">
+        <f>COUNTIF(Stats!D:D,'Player Count'!B25)</f>
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>348</v>
+      </c>
+      <c r="G25">
+        <f>COUNTIF(Stats!D:D,'Player Count'!F25)</f>
+        <v>1</v>
+      </c>
+      <c r="J25" s="67" t="s">
+        <v>369</v>
+      </c>
+      <c r="K25">
+        <f>COUNTIF(Stats!D:D,'Player Count'!J25)</f>
+        <v>1</v>
+      </c>
+      <c r="M25" s="112"/>
+      <c r="N25" s="67" t="s">
+        <v>397</v>
+      </c>
+      <c r="O25">
+        <f>COUNTIF(Stats!D:D,'Player Count'!N25)</f>
+        <v>2</v>
+      </c>
+      <c r="Q25" s="112"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B26" s="78" t="s">
+        <v>327</v>
+      </c>
+      <c r="C26" s="78">
+        <f>SUM(C6:C25)</f>
+        <v>70</v>
+      </c>
+      <c r="F26" t="s">
+        <v>349</v>
+      </c>
+      <c r="G26">
+        <f>COUNTIF(Stats!D:D,'Player Count'!F26)</f>
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>370</v>
+      </c>
+      <c r="K26">
+        <f>COUNTIF(Stats!D:D,'Player Count'!J26)</f>
+        <v>1</v>
+      </c>
+      <c r="M26" s="112"/>
+      <c r="N26" s="67" t="s">
+        <v>398</v>
+      </c>
+      <c r="O26">
+        <f>COUNTIF(Stats!D:D,'Player Count'!N26)</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="112"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="F27" t="s">
+        <v>350</v>
+      </c>
+      <c r="G27">
+        <f>COUNTIF(Stats!D:D,'Player Count'!F27)</f>
+        <v>1</v>
+      </c>
+      <c r="J27" s="67" t="s">
+        <v>376</v>
+      </c>
+      <c r="K27">
+        <f>COUNTIF(Stats!D:D,'Player Count'!J27)</f>
+        <v>3</v>
+      </c>
+      <c r="M27" s="112"/>
+      <c r="N27" s="67" t="s">
+        <v>399</v>
+      </c>
+      <c r="O27">
+        <f>COUNTIF(Stats!D:D,'Player Count'!N27)</f>
+        <v>2</v>
+      </c>
+      <c r="Q27" s="112"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="F28" t="s">
+        <v>351</v>
+      </c>
+      <c r="G28">
+        <f>COUNTIF(Stats!D:D,'Player Count'!F28)</f>
+        <v>3</v>
+      </c>
+      <c r="J28" s="67" t="s">
+        <v>371</v>
+      </c>
+      <c r="K28">
+        <f>COUNTIF(Stats!D:D,'Player Count'!J28)</f>
+        <v>1</v>
+      </c>
+      <c r="M28" s="112"/>
+      <c r="N28" s="67" t="s">
+        <v>402</v>
+      </c>
+      <c r="O28">
+        <f>COUNTIF(Stats!D:D,'Player Count'!N28)</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="112"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="F29" t="s">
+        <v>352</v>
+      </c>
+      <c r="G29">
+        <f>COUNTIF(Stats!D:D,'Player Count'!F29)</f>
+        <v>2</v>
+      </c>
+      <c r="J29" s="67" t="s">
+        <v>377</v>
+      </c>
+      <c r="K29">
+        <f>COUNTIF(Stats!D:D,'Player Count'!J29)</f>
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>400</v>
+      </c>
+      <c r="O29">
+        <f>COUNTIF(Stats!D:D,'Player Count'!N29)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="F30" s="78" t="s">
+        <v>327</v>
+      </c>
+      <c r="G30" s="78">
+        <f>SUM(G6:G29)</f>
+        <v>38</v>
+      </c>
+      <c r="J30" s="78" t="s">
+        <v>327</v>
+      </c>
+      <c r="K30" s="78">
+        <f>SUM(K6:K29)</f>
+        <v>25</v>
+      </c>
+      <c r="N30" s="78" t="s">
+        <v>327</v>
+      </c>
+      <c r="O30" s="78">
+        <f>SUM(O6:O29)</f>
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/data/DreamLeague25-26.xlsx
+++ b/data/DreamLeague25-26.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/462a734c48854128/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kelloggcompany-my.sharepoint.com/personal/bryn_coombe_kellogg_com/Documents/Desktop/Dream League/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A700595-C9FF-4D85-9A4D-B796FD82F00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A9E1B00-ACAB-4913-9E1F-5C3FFC5B968C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13900" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId1"/>
     <sheet name="Stats" sheetId="2" r:id="rId2"/>
     <sheet name="Table" sheetId="3" r:id="rId3"/>
     <sheet name="Cup" sheetId="4" r:id="rId4"/>
-    <sheet name="Champs Cup" sheetId="6" r:id="rId5"/>
-    <sheet name="Player Count" sheetId="7" state="hidden" r:id="rId6"/>
+    <sheet name="BFL Challenge" sheetId="6" r:id="rId5"/>
+    <sheet name="Player Count" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Table!$A$6:$IV$6</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentManualCount="8"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="417">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1269,6 +1269,27 @@
   </si>
   <si>
     <t>Better Together</t>
+  </si>
+  <si>
+    <t>JAMIE REID</t>
+  </si>
+  <si>
+    <t>LUCA KJERRUMGAARD</t>
+  </si>
+  <si>
+    <t>JAZE KABIA</t>
+  </si>
+  <si>
+    <t>JAMES COLLINS</t>
+  </si>
+  <si>
+    <t>LINCOLN</t>
+  </si>
+  <si>
+    <t>SCOTT TWINE</t>
+  </si>
+  <si>
+    <t>CARLTON MORRIS</t>
   </si>
 </sst>
 </file>
@@ -1679,7 +1700,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1967,10 +1988,22 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3147,11 +3180,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
     <customPr name="_pios_id" r:id="rId1"/>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId2"/>
   </customProperties>
 </worksheet>
 </file>
@@ -3161,33 +3195,33 @@
   <dimension ref="A1:IX404"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="C264" sqref="C264"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.296875" style="77" customWidth="1"/>
+    <col min="1" max="1" width="1.33203125" style="77" customWidth="1"/>
     <col min="2" max="2" width="16" style="77" customWidth="1"/>
-    <col min="3" max="3" width="39.296875" style="77" customWidth="1"/>
-    <col min="4" max="4" width="32.796875" style="77" customWidth="1"/>
-    <col min="5" max="5" width="11.796875" style="77" customWidth="1"/>
+    <col min="3" max="3" width="39.33203125" style="77" customWidth="1"/>
+    <col min="4" max="4" width="32.77734375" style="77" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" style="77" customWidth="1"/>
     <col min="6" max="6" width="17" style="77" customWidth="1"/>
-    <col min="7" max="8" width="11.296875" style="77" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.69921875" style="77" customWidth="1"/>
-    <col min="10" max="10" width="7.09765625" style="77" customWidth="1"/>
-    <col min="11" max="11" width="25.69921875" style="77" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.296875" style="77" customWidth="1"/>
+    <col min="7" max="8" width="11.33203125" style="77" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" style="77" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="77" customWidth="1"/>
+    <col min="11" max="11" width="25.6640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.33203125" style="77" customWidth="1"/>
     <col min="13" max="14" width="12" style="77" customWidth="1"/>
-    <col min="15" max="15" width="10.296875" style="77" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" style="77" customWidth="1"/>
     <col min="16" max="17" width="9" style="77" customWidth="1"/>
-    <col min="18" max="18" width="32.296875" style="77" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="32.33203125" style="77" bestFit="1" customWidth="1"/>
     <col min="19" max="21" width="9" style="77" customWidth="1"/>
-    <col min="22" max="22" width="30.09765625" style="77" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.109375" style="77" bestFit="1" customWidth="1"/>
     <col min="23" max="258" width="9" style="77" customWidth="1"/>
     <col min="259" max="16384" width="9" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3206,7 +3240,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="3" t="s">
@@ -3227,7 +3261,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -3244,7 +3278,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="79"/>
       <c r="B4" s="6" t="s">
         <v>3</v>
@@ -3280,13 +3314,13 @@
       <c r="O4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="R4" s="111"/>
-      <c r="S4" s="111"/>
-      <c r="T4" s="111"/>
-      <c r="U4" s="111"/>
-      <c r="V4" s="111"/>
-    </row>
-    <row r="5" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
+      <c r="U4" s="116"/>
+      <c r="V4" s="116"/>
+    </row>
+    <row r="5" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="79"/>
       <c r="B5" s="12" t="s">
         <v>13</v>
@@ -3315,11 +3349,11 @@
       </c>
       <c r="M5" s="18">
         <f t="shared" ref="M5:M17" si="0">N5-O5</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N5" s="19">
         <f>SUM(F8:F25)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O5" s="20">
         <f>SUM(F5:F7)</f>
@@ -3329,7 +3363,7 @@
       <c r="T5" s="101"/>
       <c r="U5" s="102"/>
     </row>
-    <row r="6" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="79"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -3354,17 +3388,17 @@
       </c>
       <c r="N6" s="26">
         <f>SUM(F35:F52)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O6" s="27">
         <f>SUM(F32:F34)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S6" s="102"/>
       <c r="T6" s="101"/>
       <c r="U6" s="102"/>
     </row>
-    <row r="7" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="79"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -3389,17 +3423,17 @@
       </c>
       <c r="N7" s="26">
         <f>SUM(F62:F79)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O7" s="27">
         <f>SUM(F59:F61)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" s="102"/>
       <c r="T7" s="101"/>
       <c r="U7" s="102"/>
     </row>
-    <row r="8" spans="1:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="79"/>
       <c r="B8" s="28" t="s">
         <v>14</v>
@@ -3433,14 +3467,14 @@
       </c>
       <c r="N8" s="26">
         <f>SUM(F89:F106)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O8" s="27">
         <f>SUM(F86:F88)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="79"/>
       <c r="B9" s="28" t="s">
         <v>14</v>
@@ -3471,18 +3505,18 @@
       </c>
       <c r="M9" s="25">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N9" s="73">
         <f>SUM(F116:F133)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O9" s="74">
         <f>SUM(F113:F115)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="79"/>
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
@@ -3503,23 +3537,23 @@
       </c>
       <c r="M10" s="25">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N10" s="26">
         <f>SUM(F143:F160)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O10" s="27">
         <f>SUM(F140:F142)</f>
-        <v>3</v>
-      </c>
-      <c r="R10" s="111"/>
-      <c r="S10" s="111"/>
-      <c r="T10" s="111"/>
-      <c r="U10" s="111"/>
-      <c r="V10" s="111"/>
-    </row>
-    <row r="11" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="R10" s="116"/>
+      <c r="S10" s="116"/>
+      <c r="T10" s="116"/>
+      <c r="U10" s="116"/>
+      <c r="V10" s="116"/>
+    </row>
+    <row r="11" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="79"/>
       <c r="B11" s="28" t="s">
         <v>16</v>
@@ -3534,7 +3568,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" s="87"/>
       <c r="H11" s="84"/>
@@ -3554,17 +3588,17 @@
       </c>
       <c r="N11" s="26">
         <f>SUM(F170:F187)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O11" s="27">
         <f>SUM(F167:F169)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S11" s="102"/>
       <c r="T11" s="101"/>
       <c r="U11" s="102"/>
     </row>
-    <row r="12" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="79"/>
       <c r="B12" s="28" t="s">
         <v>16</v>
@@ -3595,7 +3629,7 @@
       </c>
       <c r="M12" s="25">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="N12" s="73">
         <f>SUM(F197:F214)</f>
@@ -3603,10 +3637,10 @@
       </c>
       <c r="O12" s="74">
         <f>SUM(F194:F196)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="79"/>
       <c r="B13" s="28" t="s">
         <v>16</v>
@@ -3637,23 +3671,23 @@
       </c>
       <c r="M13" s="25">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="N13" s="73">
         <f>SUM(F224:F241)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O13" s="74">
         <f>SUM(F221:F223)</f>
-        <v>5</v>
-      </c>
-      <c r="R13" s="111"/>
-      <c r="S13" s="111"/>
-      <c r="T13" s="111"/>
-      <c r="U13" s="111"/>
-      <c r="V13" s="111"/>
-    </row>
-    <row r="14" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="R13" s="116"/>
+      <c r="S13" s="116"/>
+      <c r="T13" s="116"/>
+      <c r="U13" s="116"/>
+      <c r="V13" s="116"/>
+    </row>
+    <row r="14" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="79"/>
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
@@ -3678,17 +3712,17 @@
       </c>
       <c r="N14" s="73">
         <f>SUM(F251:F268)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O14" s="74">
         <f>SUM(F248:F250)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S14" s="102"/>
       <c r="T14" s="101"/>
       <c r="U14" s="102"/>
     </row>
-    <row r="15" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="79"/>
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
@@ -3709,18 +3743,18 @@
       </c>
       <c r="M15" s="25">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="N15" s="26">
         <f>SUM(F277:F295)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O15" s="27">
         <f>SUM(F275:F276)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="79"/>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
@@ -3741,18 +3775,18 @@
       </c>
       <c r="M16" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="26">
         <f>SUM(F305:F322)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O16" s="27">
         <f>SUM(F302:F304)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="79"/>
       <c r="B17" s="28" t="s">
         <v>17</v>
@@ -3783,23 +3817,23 @@
       </c>
       <c r="M17" s="25">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N17" s="26">
         <f>SUM(F332:F349)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O17" s="27">
         <f>SUM(F329:F331)</f>
-        <v>0</v>
-      </c>
-      <c r="R17" s="111"/>
-      <c r="S17" s="111"/>
-      <c r="T17" s="111"/>
-      <c r="U17" s="111"/>
-      <c r="V17" s="111"/>
-    </row>
-    <row r="18" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="R17" s="116"/>
+      <c r="S17" s="116"/>
+      <c r="T17" s="116"/>
+      <c r="U17" s="116"/>
+      <c r="V17" s="116"/>
+    </row>
+    <row r="18" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="79"/>
       <c r="B18" s="28" t="s">
         <v>17</v>
@@ -3830,21 +3864,21 @@
       </c>
       <c r="M18" s="25">
         <f>N18-O18</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N18" s="26">
         <f>SUM(F359:F376)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O18" s="27">
         <f>SUM(F356:F358)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S18" s="102"/>
       <c r="T18" s="101"/>
       <c r="U18" s="102"/>
     </row>
-    <row r="19" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="79"/>
       <c r="B19" s="108" t="s">
         <v>17</v>
@@ -3875,7 +3909,7 @@
       <c r="N19" s="88"/>
       <c r="O19" s="88"/>
     </row>
-    <row r="20" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="79"/>
       <c r="B20" s="28" t="s">
         <v>17</v>
@@ -3903,13 +3937,13 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="R20" s="111"/>
-      <c r="S20" s="111"/>
-      <c r="T20" s="111"/>
-      <c r="U20" s="111"/>
-      <c r="V20" s="111"/>
-    </row>
-    <row r="21" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R20" s="116"/>
+      <c r="S20" s="116"/>
+      <c r="T20" s="116"/>
+      <c r="U20" s="116"/>
+      <c r="V20" s="116"/>
+    </row>
+    <row r="21" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="79"/>
       <c r="B21" s="28" t="s">
         <v>17</v>
@@ -3939,7 +3973,7 @@
       <c r="T21" s="101"/>
       <c r="U21" s="102"/>
     </row>
-    <row r="22" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="79"/>
       <c r="B22" s="28" t="s">
         <v>17</v>
@@ -3966,7 +4000,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="79"/>
       <c r="B23" s="28"/>
       <c r="C23" s="28"/>
@@ -3983,7 +4017,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="79"/>
       <c r="B24" s="28"/>
       <c r="C24" s="28"/>
@@ -3999,13 +4033,13 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
-      <c r="R24" s="111"/>
-      <c r="S24" s="111"/>
-      <c r="T24" s="111"/>
-      <c r="U24" s="111"/>
-      <c r="V24" s="111"/>
-    </row>
-    <row r="25" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R24" s="116"/>
+      <c r="S24" s="116"/>
+      <c r="T24" s="116"/>
+      <c r="U24" s="116"/>
+      <c r="V24" s="116"/>
+    </row>
+    <row r="25" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="79"/>
       <c r="B25" s="28"/>
       <c r="C25" s="28"/>
@@ -4025,7 +4059,7 @@
       <c r="T25" s="101"/>
       <c r="U25" s="102"/>
     </row>
-    <row r="26" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="33"/>
       <c r="C26" s="33"/>
@@ -4036,7 +4070,7 @@
       </c>
       <c r="F26" s="36">
         <f>SUM(F8:F25)-SUM(F5:F7)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G26" s="80"/>
       <c r="H26" s="92"/>
@@ -4048,7 +4082,7 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -4065,7 +4099,7 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -4081,13 +4115,13 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
-      <c r="R28" s="111"/>
-      <c r="S28" s="111"/>
-      <c r="T28" s="111"/>
-      <c r="U28" s="111"/>
-      <c r="V28" s="111"/>
-    </row>
-    <row r="29" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R28" s="116"/>
+      <c r="S28" s="116"/>
+      <c r="T28" s="116"/>
+      <c r="U28" s="116"/>
+      <c r="V28" s="116"/>
+    </row>
+    <row r="29" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="3" t="s">
@@ -4108,7 +4142,7 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -4125,7 +4159,7 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="79"/>
       <c r="B31" s="6" t="s">
         <v>3</v>
@@ -4152,7 +4186,7 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="79"/>
       <c r="B32" s="12" t="s">
         <v>13</v>
@@ -4165,7 +4199,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G32" s="80"/>
       <c r="H32" s="94"/>
@@ -4177,7 +4211,7 @@
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="79"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -4194,7 +4228,7 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="79"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
@@ -4211,7 +4245,7 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="79"/>
       <c r="B35" s="28" t="s">
         <v>14</v>
@@ -4238,7 +4272,7 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="79"/>
       <c r="B36" s="28" t="s">
         <v>14</v>
@@ -4265,7 +4299,7 @@
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="79"/>
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
@@ -4282,7 +4316,7 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="79"/>
       <c r="B38" s="28" t="s">
         <v>16</v>
@@ -4308,13 +4342,13 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
-      <c r="R38" s="111"/>
-      <c r="S38" s="111"/>
-      <c r="T38" s="111"/>
-      <c r="U38" s="111"/>
-      <c r="V38" s="111"/>
-    </row>
-    <row r="39" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R38" s="116"/>
+      <c r="S38" s="116"/>
+      <c r="T38" s="116"/>
+      <c r="U38" s="116"/>
+      <c r="V38" s="116"/>
+    </row>
+    <row r="39" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="79"/>
       <c r="B39" s="28" t="s">
         <v>16</v>
@@ -4341,7 +4375,7 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="79"/>
       <c r="B40" s="28" t="s">
         <v>16</v>
@@ -4356,7 +4390,7 @@
         <v>1</v>
       </c>
       <c r="F40" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G40" s="87"/>
       <c r="H40" s="91"/>
@@ -4368,7 +4402,7 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="79"/>
       <c r="B41" s="28"/>
       <c r="C41" s="28"/>
@@ -4385,7 +4419,7 @@
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="79"/>
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
@@ -4402,7 +4436,7 @@
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
     </row>
-    <row r="43" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="79"/>
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
@@ -4419,7 +4453,7 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="79"/>
       <c r="B44" s="108" t="s">
         <v>17</v>
@@ -4450,7 +4484,7 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
     </row>
-    <row r="45" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="79"/>
       <c r="B45" s="28" t="s">
         <v>17</v>
@@ -4479,7 +4513,7 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="79"/>
       <c r="B46" s="28" t="s">
         <v>17</v>
@@ -4506,7 +4540,7 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="79"/>
       <c r="B47" s="28" t="s">
         <v>17</v>
@@ -4533,7 +4567,7 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="79"/>
       <c r="B48" s="28" t="s">
         <v>17</v>
@@ -4560,7 +4594,7 @@
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="79"/>
       <c r="B49" s="28" t="s">
         <v>17</v>
@@ -4587,7 +4621,7 @@
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
     </row>
-    <row r="50" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="79"/>
       <c r="B50" s="28"/>
       <c r="C50" s="28"/>
@@ -4604,7 +4638,7 @@
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
     </row>
-    <row r="51" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="79"/>
       <c r="B51" s="28"/>
       <c r="C51" s="28"/>
@@ -4621,7 +4655,7 @@
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
     </row>
-    <row r="52" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="79"/>
       <c r="B52" s="28"/>
       <c r="C52" s="28"/>
@@ -4638,7 +4672,7 @@
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
     </row>
-    <row r="53" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="33"/>
       <c r="C53" s="33"/>
@@ -4661,7 +4695,7 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -4678,7 +4712,7 @@
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
     </row>
-    <row r="55" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -4695,7 +4729,7 @@
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
     </row>
-    <row r="56" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="3" t="s">
@@ -4716,7 +4750,7 @@
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
     </row>
-    <row r="57" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -4733,7 +4767,7 @@
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
     </row>
-    <row r="58" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="79"/>
       <c r="B58" s="6" t="s">
         <v>3</v>
@@ -4760,7 +4794,7 @@
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
     </row>
-    <row r="59" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="79"/>
       <c r="B59" s="12" t="s">
         <v>13</v>
@@ -4773,7 +4807,7 @@
         <v>4</v>
       </c>
       <c r="F59" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" s="80"/>
       <c r="H59" s="92"/>
@@ -4785,7 +4819,7 @@
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
     </row>
-    <row r="60" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="79"/>
       <c r="B60" s="21"/>
       <c r="C60" s="21"/>
@@ -4802,7 +4836,7 @@
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
     </row>
-    <row r="61" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="79"/>
       <c r="B61" s="21"/>
       <c r="C61" s="21"/>
@@ -4819,7 +4853,7 @@
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
     </row>
-    <row r="62" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="79"/>
       <c r="B62" s="28" t="s">
         <v>14</v>
@@ -4846,7 +4880,7 @@
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
     </row>
-    <row r="63" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="79"/>
       <c r="B63" s="28" t="s">
         <v>14</v>
@@ -4873,7 +4907,7 @@
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
     </row>
-    <row r="64" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="79"/>
       <c r="B64" s="28"/>
       <c r="C64" s="28"/>
@@ -4890,7 +4924,7 @@
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
     </row>
-    <row r="65" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="79"/>
       <c r="B65" s="28" t="s">
         <v>16</v>
@@ -4917,7 +4951,7 @@
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
     </row>
-    <row r="66" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="79"/>
       <c r="B66" s="28" t="s">
         <v>16</v>
@@ -4944,7 +4978,7 @@
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
     </row>
-    <row r="67" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="79"/>
       <c r="B67" s="28" t="s">
         <v>16</v>
@@ -4971,7 +5005,7 @@
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
     </row>
-    <row r="68" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="79"/>
       <c r="B68" s="28"/>
       <c r="C68" s="28"/>
@@ -4988,7 +5022,7 @@
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
     </row>
-    <row r="69" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="79"/>
       <c r="B69" s="28"/>
       <c r="C69" s="28"/>
@@ -5005,7 +5039,7 @@
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
     </row>
-    <row r="70" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="79"/>
       <c r="B70" s="28"/>
       <c r="C70" s="28"/>
@@ -5022,7 +5056,7 @@
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
     </row>
-    <row r="71" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="79"/>
       <c r="B71" s="28" t="s">
         <v>17</v>
@@ -5037,7 +5071,7 @@
         <v>5</v>
       </c>
       <c r="F71" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G71" s="87"/>
       <c r="H71" s="91"/>
@@ -5049,25 +5083,29 @@
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
     </row>
-    <row r="72" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="79"/>
-      <c r="B72" s="28" t="s">
+      <c r="B72" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C72" s="28" t="s">
+      <c r="C72" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="D72" s="28" t="s">
+      <c r="D72" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="E72" s="29">
+      <c r="E72" s="109">
         <v>7</v>
       </c>
-      <c r="F72" s="30">
+      <c r="F72" s="110">
         <v>0</v>
       </c>
-      <c r="G72" s="83"/>
-      <c r="H72" s="91"/>
+      <c r="G72" s="83" t="s">
+        <v>293</v>
+      </c>
+      <c r="H72" s="91">
+        <v>45897</v>
+      </c>
       <c r="I72" s="90"/>
       <c r="J72" s="76"/>
       <c r="K72" s="1"/>
@@ -5076,24 +5114,26 @@
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
     </row>
-    <row r="73" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="79"/>
       <c r="B73" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C73" s="28" t="s">
-        <v>200</v>
+        <v>415</v>
       </c>
       <c r="D73" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="E73" s="29">
-        <v>7</v>
+        <v>88</v>
+      </c>
+      <c r="E73" s="29" t="s">
+        <v>292</v>
       </c>
       <c r="F73" s="30">
         <v>0</v>
       </c>
-      <c r="G73" s="87"/>
+      <c r="G73" s="87">
+        <v>45897</v>
+      </c>
       <c r="H73" s="91"/>
       <c r="I73" s="90"/>
       <c r="J73" s="96"/>
@@ -5103,29 +5143,25 @@
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
     </row>
-    <row r="74" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="79"/>
-      <c r="B74" s="108" t="s">
+      <c r="B74" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C74" s="108" t="s">
-        <v>201</v>
-      </c>
-      <c r="D74" s="108" t="s">
-        <v>83</v>
-      </c>
-      <c r="E74" s="109">
-        <v>1</v>
-      </c>
-      <c r="F74" s="110">
+      <c r="C74" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D74" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="E74" s="29">
+        <v>7</v>
+      </c>
+      <c r="F74" s="30">
         <v>0</v>
       </c>
-      <c r="G74" s="87" t="s">
-        <v>293</v>
-      </c>
-      <c r="H74" s="91">
-        <v>45890</v>
-      </c>
+      <c r="G74" s="87"/>
+      <c r="H74" s="91"/>
       <c r="I74" s="90"/>
       <c r="J74" s="76"/>
       <c r="K74" s="1"/>
@@ -5134,27 +5170,29 @@
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
     </row>
-    <row r="75" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="79"/>
-      <c r="B75" s="28" t="s">
+      <c r="B75" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C75" s="28" t="s">
-        <v>302</v>
-      </c>
-      <c r="D75" s="28" t="s">
-        <v>303</v>
-      </c>
-      <c r="E75" s="29" t="s">
-        <v>292</v>
-      </c>
-      <c r="F75" s="30">
+      <c r="C75" s="108" t="s">
+        <v>201</v>
+      </c>
+      <c r="D75" s="108" t="s">
+        <v>83</v>
+      </c>
+      <c r="E75" s="109">
+        <v>1</v>
+      </c>
+      <c r="F75" s="110">
         <v>0</v>
       </c>
-      <c r="G75" s="87">
+      <c r="G75" s="87" t="s">
+        <v>293</v>
+      </c>
+      <c r="H75" s="91">
         <v>45890</v>
       </c>
-      <c r="H75" s="91"/>
       <c r="I75" s="90"/>
       <c r="J75" s="76"/>
       <c r="K75" s="1"/>
@@ -5163,24 +5201,26 @@
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
     </row>
-    <row r="76" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="79"/>
       <c r="B76" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C76" s="28" t="s">
-        <v>202</v>
+        <v>302</v>
       </c>
       <c r="D76" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="E76" s="29">
-        <v>1</v>
+        <v>303</v>
+      </c>
+      <c r="E76" s="29" t="s">
+        <v>292</v>
       </c>
       <c r="F76" s="30">
-        <v>1</v>
-      </c>
-      <c r="G76" s="87"/>
+        <v>0</v>
+      </c>
+      <c r="G76" s="87">
+        <v>45890</v>
+      </c>
       <c r="H76" s="91"/>
       <c r="I76" s="90"/>
       <c r="J76" s="76"/>
@@ -5190,13 +5230,23 @@
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
     </row>
-    <row r="77" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="79"/>
-      <c r="B77" s="28"/>
-      <c r="C77" s="28"/>
-      <c r="D77" s="28"/>
-      <c r="E77" s="29"/>
-      <c r="F77" s="30"/>
+      <c r="B77" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="D77" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="E77" s="29">
+        <v>1</v>
+      </c>
+      <c r="F77" s="30">
+        <v>1</v>
+      </c>
       <c r="G77" s="87"/>
       <c r="H77" s="91"/>
       <c r="I77" s="90"/>
@@ -5207,7 +5257,7 @@
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
     </row>
-    <row r="78" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="79"/>
       <c r="B78" s="28"/>
       <c r="C78" s="28"/>
@@ -5224,7 +5274,7 @@
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
     </row>
-    <row r="79" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="79"/>
       <c r="B79" s="28"/>
       <c r="C79" s="28"/>
@@ -5241,7 +5291,7 @@
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
     </row>
-    <row r="80" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="33"/>
       <c r="C80" s="33"/>
@@ -5264,7 +5314,7 @@
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
     </row>
-    <row r="81" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -5281,7 +5331,7 @@
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
     </row>
-    <row r="82" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -5298,7 +5348,7 @@
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
     </row>
-    <row r="83" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="3" t="s">
@@ -5319,7 +5369,7 @@
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
     </row>
-    <row r="84" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -5336,7 +5386,7 @@
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
     </row>
-    <row r="85" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="79"/>
       <c r="B85" s="6" t="s">
         <v>3</v>
@@ -5363,7 +5413,7 @@
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
     </row>
-    <row r="86" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="79"/>
       <c r="B86" s="12" t="s">
         <v>13</v>
@@ -5376,7 +5426,7 @@
         <v>8</v>
       </c>
       <c r="F86" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G86" s="80"/>
       <c r="H86" s="94"/>
@@ -5388,7 +5438,7 @@
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
     </row>
-    <row r="87" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="79"/>
       <c r="B87" s="21"/>
       <c r="C87" s="21"/>
@@ -5405,7 +5455,7 @@
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
     </row>
-    <row r="88" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="79"/>
       <c r="B88" s="21"/>
       <c r="C88" s="21"/>
@@ -5422,7 +5472,7 @@
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
     </row>
-    <row r="89" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="79"/>
       <c r="B89" s="28" t="s">
         <v>14</v>
@@ -5449,7 +5499,7 @@
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
     </row>
-    <row r="90" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="79"/>
       <c r="B90" s="28" t="s">
         <v>14</v>
@@ -5476,7 +5526,7 @@
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
     </row>
-    <row r="91" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="79"/>
       <c r="B91" s="28"/>
       <c r="C91" s="28"/>
@@ -5493,7 +5543,7 @@
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
     </row>
-    <row r="92" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="79"/>
       <c r="B92" s="28" t="s">
         <v>16</v>
@@ -5520,7 +5570,7 @@
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
     </row>
-    <row r="93" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="79"/>
       <c r="B93" s="108" t="s">
         <v>16</v>
@@ -5551,7 +5601,7 @@
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
     </row>
-    <row r="94" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="79"/>
       <c r="B94" s="28" t="s">
         <v>16</v>
@@ -5580,7 +5630,7 @@
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
     </row>
-    <row r="95" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="79"/>
       <c r="B95" s="28" t="s">
         <v>16</v>
@@ -5589,7 +5639,7 @@
         <v>140</v>
       </c>
       <c r="D95" s="28" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="E95" s="29">
         <v>19</v>
@@ -5607,7 +5657,7 @@
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
     </row>
-    <row r="96" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="79"/>
       <c r="B96" s="28"/>
       <c r="C96" s="28"/>
@@ -5624,7 +5674,7 @@
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
     </row>
-    <row r="97" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="79"/>
       <c r="B97" s="28"/>
       <c r="C97" s="28"/>
@@ -5641,7 +5691,7 @@
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
     </row>
-    <row r="98" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="79"/>
       <c r="B98" s="28" t="s">
         <v>17</v>
@@ -5656,7 +5706,7 @@
         <v>25</v>
       </c>
       <c r="F98" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G98" s="87"/>
       <c r="H98" s="91"/>
@@ -5668,7 +5718,7 @@
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
     </row>
-    <row r="99" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="79"/>
       <c r="B99" s="28" t="s">
         <v>17</v>
@@ -5695,7 +5745,7 @@
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
     </row>
-    <row r="100" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="79"/>
       <c r="B100" s="28" t="s">
         <v>17</v>
@@ -5722,7 +5772,7 @@
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
     </row>
-    <row r="101" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="79"/>
       <c r="B101" s="28" t="s">
         <v>17</v>
@@ -5749,7 +5799,7 @@
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
     </row>
-    <row r="102" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="79"/>
       <c r="B102" s="28" t="s">
         <v>17</v>
@@ -5776,7 +5826,7 @@
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
     </row>
-    <row r="103" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="79"/>
       <c r="B103" s="28"/>
       <c r="C103" s="28"/>
@@ -5793,7 +5843,7 @@
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
     </row>
-    <row r="104" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="79"/>
       <c r="B104" s="28"/>
       <c r="C104" s="28"/>
@@ -5810,7 +5860,7 @@
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
     </row>
-    <row r="105" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="79"/>
       <c r="B105" s="28"/>
       <c r="C105" s="28"/>
@@ -5827,7 +5877,7 @@
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
     </row>
-    <row r="106" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="79"/>
       <c r="B106" s="28"/>
       <c r="C106" s="28"/>
@@ -5844,7 +5894,7 @@
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
     </row>
-    <row r="107" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="33"/>
       <c r="C107" s="33"/>
@@ -5867,7 +5917,7 @@
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
     </row>
-    <row r="108" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -5884,7 +5934,7 @@
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
     </row>
-    <row r="109" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -5901,7 +5951,7 @@
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
     </row>
-    <row r="110" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="3" t="s">
@@ -5922,7 +5972,7 @@
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
     </row>
-    <row r="111" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -5939,7 +5989,7 @@
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
     </row>
-    <row r="112" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="79"/>
       <c r="B112" s="6" t="s">
         <v>3</v>
@@ -5966,7 +6016,7 @@
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
     </row>
-    <row r="113" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="79"/>
       <c r="B113" s="12" t="s">
         <v>13</v>
@@ -5979,7 +6029,7 @@
         <v>1</v>
       </c>
       <c r="F113" s="15">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G113" s="80"/>
       <c r="H113" s="94"/>
@@ -5991,7 +6041,7 @@
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
     </row>
-    <row r="114" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="79"/>
       <c r="B114" s="21"/>
       <c r="C114" s="21"/>
@@ -6008,7 +6058,7 @@
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
     </row>
-    <row r="115" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="79"/>
       <c r="B115" s="21"/>
       <c r="C115" s="21"/>
@@ -6025,7 +6075,7 @@
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
     </row>
-    <row r="116" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="79"/>
       <c r="B116" s="28" t="s">
         <v>14</v>
@@ -6052,7 +6102,7 @@
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
     </row>
-    <row r="117" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="79"/>
       <c r="B117" s="28" t="s">
         <v>14</v>
@@ -6079,7 +6129,7 @@
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
     </row>
-    <row r="118" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="79"/>
       <c r="B118" s="28"/>
       <c r="C118" s="28"/>
@@ -6096,7 +6146,7 @@
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
     </row>
-    <row r="119" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="79"/>
       <c r="B119" s="28" t="s">
         <v>16</v>
@@ -6123,7 +6173,7 @@
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
     </row>
-    <row r="120" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="79"/>
       <c r="B120" s="28" t="s">
         <v>16</v>
@@ -6150,7 +6200,7 @@
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
     </row>
-    <row r="121" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="79"/>
       <c r="B121" s="28" t="s">
         <v>16</v>
@@ -6177,7 +6227,7 @@
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
     </row>
-    <row r="122" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="79"/>
       <c r="B122" s="28"/>
       <c r="C122" s="28"/>
@@ -6194,7 +6244,7 @@
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
     </row>
-    <row r="123" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="79"/>
       <c r="B123" s="28"/>
       <c r="C123" s="28"/>
@@ -6211,7 +6261,7 @@
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
     </row>
-    <row r="124" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="79"/>
       <c r="B124" s="28"/>
       <c r="C124" s="28"/>
@@ -6228,7 +6278,7 @@
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
     </row>
-    <row r="125" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="79"/>
       <c r="B125" s="28" t="s">
         <v>17</v>
@@ -6255,25 +6305,29 @@
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
     </row>
-    <row r="126" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="79"/>
-      <c r="B126" s="28" t="s">
+      <c r="B126" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C126" s="28" t="s">
+      <c r="C126" s="108" t="s">
         <v>170</v>
       </c>
-      <c r="D126" s="28" t="s">
+      <c r="D126" s="108" t="s">
         <v>171</v>
       </c>
-      <c r="E126" s="29">
+      <c r="E126" s="109">
         <v>10</v>
       </c>
-      <c r="F126" s="30">
+      <c r="F126" s="110">
         <v>1</v>
       </c>
-      <c r="G126" s="83"/>
-      <c r="H126" s="91"/>
+      <c r="G126" s="83" t="s">
+        <v>293</v>
+      </c>
+      <c r="H126" s="91">
+        <v>45890</v>
+      </c>
       <c r="I126" s="90"/>
       <c r="J126" s="76"/>
       <c r="K126" s="1"/>
@@ -6282,24 +6336,26 @@
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
     </row>
-    <row r="127" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="79"/>
       <c r="B127" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C127" s="28" t="s">
-        <v>214</v>
+        <v>413</v>
       </c>
       <c r="D127" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="E127" s="29">
-        <v>19</v>
+        <v>414</v>
+      </c>
+      <c r="E127" s="29" t="s">
+        <v>292</v>
       </c>
       <c r="F127" s="30">
-        <v>2</v>
-      </c>
-      <c r="G127" s="87"/>
+        <v>0</v>
+      </c>
+      <c r="G127" s="87">
+        <v>45890</v>
+      </c>
       <c r="H127" s="91"/>
       <c r="I127" s="90"/>
       <c r="J127" s="76"/>
@@ -6309,25 +6365,29 @@
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
     </row>
-    <row r="128" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="79"/>
-      <c r="B128" s="28" t="s">
+      <c r="B128" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C128" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="D128" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="E128" s="29">
-        <v>1</v>
-      </c>
-      <c r="F128" s="30">
-        <v>1</v>
-      </c>
-      <c r="G128" s="87"/>
-      <c r="H128" s="91"/>
+      <c r="C128" s="108" t="s">
+        <v>214</v>
+      </c>
+      <c r="D128" s="108" t="s">
+        <v>131</v>
+      </c>
+      <c r="E128" s="109">
+        <v>19</v>
+      </c>
+      <c r="F128" s="110">
+        <v>2</v>
+      </c>
+      <c r="G128" s="87" t="s">
+        <v>293</v>
+      </c>
+      <c r="H128" s="91">
+        <v>45890</v>
+      </c>
       <c r="I128" s="90"/>
       <c r="J128" s="76"/>
       <c r="K128" s="1"/>
@@ -6336,24 +6396,26 @@
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
     </row>
-    <row r="129" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="79"/>
       <c r="B129" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C129" s="28" t="s">
-        <v>215</v>
+        <v>410</v>
       </c>
       <c r="D129" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="E129" s="29">
-        <v>1</v>
+        <v>70</v>
+      </c>
+      <c r="E129" s="29" t="s">
+        <v>292</v>
       </c>
       <c r="F129" s="30">
         <v>0</v>
       </c>
-      <c r="G129" s="87"/>
+      <c r="G129" s="87">
+        <v>45890</v>
+      </c>
       <c r="H129" s="91"/>
       <c r="I129" s="90"/>
       <c r="J129" s="76"/>
@@ -6363,13 +6425,23 @@
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
     </row>
-    <row r="130" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="79"/>
-      <c r="B130" s="28"/>
-      <c r="C130" s="28"/>
-      <c r="D130" s="28"/>
-      <c r="E130" s="29"/>
-      <c r="F130" s="30"/>
+      <c r="B130" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C130" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D130" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="E130" s="29">
+        <v>1</v>
+      </c>
+      <c r="F130" s="30">
+        <v>3</v>
+      </c>
       <c r="G130" s="87"/>
       <c r="H130" s="91"/>
       <c r="I130" s="90"/>
@@ -6380,13 +6452,23 @@
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
     </row>
-    <row r="131" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="79"/>
-      <c r="B131" s="28"/>
-      <c r="C131" s="28"/>
-      <c r="D131" s="28"/>
-      <c r="E131" s="29"/>
-      <c r="F131" s="30"/>
+      <c r="B131" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C131" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="D131" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E131" s="29">
+        <v>1</v>
+      </c>
+      <c r="F131" s="30">
+        <v>0</v>
+      </c>
       <c r="G131" s="87"/>
       <c r="H131" s="91"/>
       <c r="I131" s="90"/>
@@ -6397,7 +6479,7 @@
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
     </row>
-    <row r="132" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="79"/>
       <c r="B132" s="28"/>
       <c r="C132" s="28"/>
@@ -6414,7 +6496,7 @@
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
     </row>
-    <row r="133" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="79"/>
       <c r="B133" s="28"/>
       <c r="C133" s="28"/>
@@ -6431,7 +6513,7 @@
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
     </row>
-    <row r="134" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
       <c r="B134" s="33"/>
       <c r="C134" s="33"/>
@@ -6442,7 +6524,7 @@
       </c>
       <c r="F134" s="36">
         <f>SUM(F116:F133)-SUM(F113:F115)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G134" s="80"/>
       <c r="H134" s="92"/>
@@ -6454,7 +6536,7 @@
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
     </row>
-    <row r="135" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -6471,7 +6553,7 @@
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
     </row>
-    <row r="136" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -6488,7 +6570,7 @@
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
     </row>
-    <row r="137" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="3" t="s">
@@ -6509,7 +6591,7 @@
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
     </row>
-    <row r="138" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -6526,7 +6608,7 @@
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
     </row>
-    <row r="139" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="79"/>
       <c r="B139" s="6" t="s">
         <v>3</v>
@@ -6553,7 +6635,7 @@
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
     </row>
-    <row r="140" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="79"/>
       <c r="B140" s="12" t="s">
         <v>13</v>
@@ -6566,7 +6648,7 @@
         <v>1</v>
       </c>
       <c r="F140" s="15">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G140" s="80"/>
       <c r="H140" s="94"/>
@@ -6578,7 +6660,7 @@
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
     </row>
-    <row r="141" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="79"/>
       <c r="B141" s="21"/>
       <c r="C141" s="21"/>
@@ -6595,7 +6677,7 @@
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
     </row>
-    <row r="142" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="79"/>
       <c r="B142" s="21"/>
       <c r="C142" s="21"/>
@@ -6612,7 +6694,7 @@
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
     </row>
-    <row r="143" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="79"/>
       <c r="B143" s="28" t="s">
         <v>14</v>
@@ -6639,7 +6721,7 @@
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
     </row>
-    <row r="144" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="79"/>
       <c r="B144" s="28" t="s">
         <v>14</v>
@@ -6666,7 +6748,7 @@
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
     </row>
-    <row r="145" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="79"/>
       <c r="B145" s="28"/>
       <c r="C145" s="28"/>
@@ -6683,7 +6765,7 @@
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
     </row>
-    <row r="146" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="79"/>
       <c r="B146" s="28" t="s">
         <v>16</v>
@@ -6710,7 +6792,7 @@
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
     </row>
-    <row r="147" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="79"/>
       <c r="B147" s="28" t="s">
         <v>16</v>
@@ -6736,7 +6818,7 @@
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
     </row>
-    <row r="148" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="79"/>
       <c r="B148" s="28" t="s">
         <v>16</v>
@@ -6763,7 +6845,7 @@
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
     </row>
-    <row r="149" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="79"/>
       <c r="B149" s="28"/>
       <c r="C149" s="28"/>
@@ -6780,7 +6862,7 @@
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
     </row>
-    <row r="150" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="79"/>
       <c r="B150" s="28"/>
       <c r="C150" s="28"/>
@@ -6797,7 +6879,7 @@
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
     </row>
-    <row r="151" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="79"/>
       <c r="B151" s="28"/>
       <c r="C151" s="28"/>
@@ -6814,7 +6896,7 @@
       <c r="N151" s="1"/>
       <c r="O151" s="1"/>
     </row>
-    <row r="152" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="79"/>
       <c r="B152" s="28" t="s">
         <v>17</v>
@@ -6841,7 +6923,7 @@
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
     </row>
-    <row r="153" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="79"/>
       <c r="B153" s="28" t="s">
         <v>17</v>
@@ -6856,7 +6938,7 @@
         <v>18</v>
       </c>
       <c r="F153" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G153" s="83"/>
       <c r="H153" s="91"/>
@@ -6868,7 +6950,7 @@
       <c r="N153" s="1"/>
       <c r="O153" s="1"/>
     </row>
-    <row r="154" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="79"/>
       <c r="B154" s="28" t="s">
         <v>17</v>
@@ -6895,7 +6977,7 @@
       <c r="N154" s="1"/>
       <c r="O154" s="1"/>
     </row>
-    <row r="155" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="79"/>
       <c r="B155" s="28" t="s">
         <v>17</v>
@@ -6910,7 +6992,7 @@
         <v>25</v>
       </c>
       <c r="F155" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G155" s="87"/>
       <c r="H155" s="91"/>
@@ -6922,7 +7004,7 @@
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
     </row>
-    <row r="156" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="79"/>
       <c r="B156" s="28" t="s">
         <v>17</v>
@@ -6949,7 +7031,7 @@
       <c r="N156" s="1"/>
       <c r="O156" s="1"/>
     </row>
-    <row r="157" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="79"/>
       <c r="B157" s="28"/>
       <c r="C157" s="28"/>
@@ -6966,7 +7048,7 @@
       <c r="N157" s="1"/>
       <c r="O157" s="1"/>
     </row>
-    <row r="158" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="79"/>
       <c r="B158" s="28"/>
       <c r="C158" s="28"/>
@@ -6983,7 +7065,7 @@
       <c r="N158" s="1"/>
       <c r="O158" s="1"/>
     </row>
-    <row r="159" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="79"/>
       <c r="B159" s="28"/>
       <c r="C159" s="28"/>
@@ -7000,7 +7082,7 @@
       <c r="N159" s="1"/>
       <c r="O159" s="1"/>
     </row>
-    <row r="160" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="79"/>
       <c r="B160" s="28"/>
       <c r="C160" s="28"/>
@@ -7017,7 +7099,7 @@
       <c r="N160" s="1"/>
       <c r="O160" s="1"/>
     </row>
-    <row r="161" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
       <c r="B161" s="33"/>
       <c r="C161" s="33"/>
@@ -7028,7 +7110,7 @@
       </c>
       <c r="F161" s="36">
         <f>SUM(F143:F160)-SUM(F140:F142)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G161" s="80"/>
       <c r="H161" s="92"/>
@@ -7040,7 +7122,7 @@
       <c r="N161" s="1"/>
       <c r="O161" s="1"/>
     </row>
-    <row r="162" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -7057,7 +7139,7 @@
       <c r="N162" s="1"/>
       <c r="O162" s="1"/>
     </row>
-    <row r="163" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -7074,7 +7156,7 @@
       <c r="N163" s="1"/>
       <c r="O163" s="1"/>
     </row>
-    <row r="164" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="3" t="s">
@@ -7095,7 +7177,7 @@
       <c r="N164" s="1"/>
       <c r="O164" s="1"/>
     </row>
-    <row r="165" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -7112,7 +7194,7 @@
       <c r="N165" s="1"/>
       <c r="O165" s="1"/>
     </row>
-    <row r="166" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="79"/>
       <c r="B166" s="6" t="s">
         <v>3</v>
@@ -7139,7 +7221,7 @@
       <c r="N166" s="1"/>
       <c r="O166" s="1"/>
     </row>
-    <row r="167" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="79"/>
       <c r="B167" s="12" t="s">
         <v>13</v>
@@ -7152,7 +7234,7 @@
         <v>1</v>
       </c>
       <c r="F167" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G167" s="80"/>
       <c r="H167" s="94"/>
@@ -7164,7 +7246,7 @@
       <c r="N167" s="1"/>
       <c r="O167" s="1"/>
     </row>
-    <row r="168" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="79"/>
       <c r="B168" s="21"/>
       <c r="C168" s="21"/>
@@ -7181,7 +7263,7 @@
       <c r="N168" s="1"/>
       <c r="O168" s="1"/>
     </row>
-    <row r="169" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="79"/>
       <c r="B169" s="21"/>
       <c r="C169" s="21"/>
@@ -7198,7 +7280,7 @@
       <c r="N169" s="1"/>
       <c r="O169" s="1"/>
     </row>
-    <row r="170" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="79"/>
       <c r="B170" s="28" t="s">
         <v>14</v>
@@ -7225,7 +7307,7 @@
       <c r="N170" s="1"/>
       <c r="O170" s="1"/>
     </row>
-    <row r="171" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="79"/>
       <c r="B171" s="28" t="s">
         <v>14</v>
@@ -7252,7 +7334,7 @@
       <c r="N171" s="1"/>
       <c r="O171" s="1"/>
     </row>
-    <row r="172" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="79"/>
       <c r="B172" s="28"/>
       <c r="C172" s="28"/>
@@ -7269,7 +7351,7 @@
       <c r="N172" s="1"/>
       <c r="O172" s="1"/>
     </row>
-    <row r="173" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="79"/>
       <c r="B173" s="28" t="s">
         <v>16</v>
@@ -7296,7 +7378,7 @@
       <c r="N173" s="1"/>
       <c r="O173" s="1"/>
     </row>
-    <row r="174" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="79"/>
       <c r="B174" s="28" t="s">
         <v>16</v>
@@ -7323,7 +7405,7 @@
       <c r="N174" s="1"/>
       <c r="O174" s="1"/>
     </row>
-    <row r="175" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="79"/>
       <c r="B175" s="28" t="s">
         <v>16</v>
@@ -7350,7 +7432,7 @@
       <c r="N175" s="1"/>
       <c r="O175" s="1"/>
     </row>
-    <row r="176" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="79"/>
       <c r="B176" s="28"/>
       <c r="C176" s="28"/>
@@ -7367,7 +7449,7 @@
       <c r="N176" s="1"/>
       <c r="O176" s="1"/>
     </row>
-    <row r="177" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="79"/>
       <c r="B177" s="28"/>
       <c r="C177" s="28"/>
@@ -7384,7 +7466,7 @@
       <c r="N177" s="1"/>
       <c r="O177" s="1"/>
     </row>
-    <row r="178" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="79"/>
       <c r="B178" s="28"/>
       <c r="C178" s="28"/>
@@ -7401,7 +7483,7 @@
       <c r="N178" s="1"/>
       <c r="O178" s="1"/>
     </row>
-    <row r="179" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="79"/>
       <c r="B179" s="28" t="s">
         <v>17</v>
@@ -7428,7 +7510,7 @@
       <c r="N179" s="1"/>
       <c r="O179" s="1"/>
     </row>
-    <row r="180" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="79"/>
       <c r="B180" s="28" t="s">
         <v>17</v>
@@ -7455,7 +7537,7 @@
       <c r="N180" s="1"/>
       <c r="O180" s="1"/>
     </row>
-    <row r="181" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="79"/>
       <c r="B181" s="28" t="s">
         <v>17</v>
@@ -7470,7 +7552,7 @@
         <v>7</v>
       </c>
       <c r="F181" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G181" s="87"/>
       <c r="H181" s="91"/>
@@ -7482,7 +7564,7 @@
       <c r="N181" s="1"/>
       <c r="O181" s="1"/>
     </row>
-    <row r="182" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="79"/>
       <c r="B182" s="28" t="s">
         <v>17</v>
@@ -7509,7 +7591,7 @@
       <c r="N182" s="1"/>
       <c r="O182" s="1"/>
     </row>
-    <row r="183" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="79"/>
       <c r="B183" s="108" t="s">
         <v>17</v>
@@ -7540,7 +7622,7 @@
       <c r="N183" s="1"/>
       <c r="O183" s="1"/>
     </row>
-    <row r="184" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="79"/>
       <c r="B184" s="28" t="s">
         <v>17</v>
@@ -7569,7 +7651,7 @@
       <c r="N184" s="1"/>
       <c r="O184" s="1"/>
     </row>
-    <row r="185" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="79"/>
       <c r="B185" s="28"/>
       <c r="C185" s="28"/>
@@ -7586,7 +7668,7 @@
       <c r="N185" s="1"/>
       <c r="O185" s="1"/>
     </row>
-    <row r="186" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="79"/>
       <c r="B186" s="28"/>
       <c r="C186" s="28"/>
@@ -7603,7 +7685,7 @@
       <c r="N186" s="1"/>
       <c r="O186" s="1"/>
     </row>
-    <row r="187" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="79"/>
       <c r="B187" s="28"/>
       <c r="C187" s="28"/>
@@ -7620,7 +7702,7 @@
       <c r="N187" s="1"/>
       <c r="O187" s="1"/>
     </row>
-    <row r="188" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1"/>
       <c r="B188" s="33"/>
       <c r="C188" s="33"/>
@@ -7643,7 +7725,7 @@
       <c r="N188" s="1"/>
       <c r="O188" s="1"/>
     </row>
-    <row r="189" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -7660,7 +7742,7 @@
       <c r="N189" s="1"/>
       <c r="O189" s="1"/>
     </row>
-    <row r="190" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -7677,7 +7759,7 @@
       <c r="N190" s="1"/>
       <c r="O190" s="1"/>
     </row>
-    <row r="191" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="3" t="s">
@@ -7698,7 +7780,7 @@
       <c r="N191" s="1"/>
       <c r="O191" s="1"/>
     </row>
-    <row r="192" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -7715,7 +7797,7 @@
       <c r="N192" s="1"/>
       <c r="O192" s="1"/>
     </row>
-    <row r="193" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="79"/>
       <c r="B193" s="6" t="s">
         <v>3</v>
@@ -7742,7 +7824,7 @@
       <c r="N193" s="1"/>
       <c r="O193" s="1"/>
     </row>
-    <row r="194" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="79"/>
       <c r="B194" s="12" t="s">
         <v>13</v>
@@ -7755,7 +7837,7 @@
         <v>1</v>
       </c>
       <c r="F194" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G194" s="80"/>
       <c r="H194" s="94"/>
@@ -7767,7 +7849,7 @@
       <c r="N194" s="1"/>
       <c r="O194" s="1"/>
     </row>
-    <row r="195" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="79"/>
       <c r="B195" s="21"/>
       <c r="C195" s="21"/>
@@ -7784,7 +7866,7 @@
       <c r="N195" s="1"/>
       <c r="O195" s="1"/>
     </row>
-    <row r="196" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="79"/>
       <c r="B196" s="21"/>
       <c r="C196" s="21"/>
@@ -7801,7 +7883,7 @@
       <c r="N196" s="1"/>
       <c r="O196" s="1"/>
     </row>
-    <row r="197" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="79"/>
       <c r="B197" s="28" t="s">
         <v>14</v>
@@ -7828,7 +7910,7 @@
       <c r="N197" s="1"/>
       <c r="O197" s="1"/>
     </row>
-    <row r="198" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="79"/>
       <c r="B198" s="28" t="s">
         <v>14</v>
@@ -7855,7 +7937,7 @@
       <c r="N198" s="1"/>
       <c r="O198" s="1"/>
     </row>
-    <row r="199" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="79"/>
       <c r="B199" s="28"/>
       <c r="C199" s="28"/>
@@ -7872,7 +7954,7 @@
       <c r="N199" s="1"/>
       <c r="O199" s="1"/>
     </row>
-    <row r="200" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="79"/>
       <c r="B200" s="28" t="s">
         <v>16</v>
@@ -7899,7 +7981,7 @@
       <c r="N200" s="1"/>
       <c r="O200" s="1"/>
     </row>
-    <row r="201" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="79"/>
       <c r="B201" s="28" t="s">
         <v>16</v>
@@ -7926,7 +8008,7 @@
       <c r="N201" s="1"/>
       <c r="O201" s="1"/>
     </row>
-    <row r="202" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="79"/>
       <c r="B202" s="28" t="s">
         <v>16</v>
@@ -7953,7 +8035,7 @@
       <c r="N202" s="1"/>
       <c r="O202" s="1"/>
     </row>
-    <row r="203" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="79"/>
       <c r="B203" s="28"/>
       <c r="C203" s="28"/>
@@ -7970,7 +8052,7 @@
       <c r="N203" s="1"/>
       <c r="O203" s="1"/>
     </row>
-    <row r="204" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="79"/>
       <c r="B204" s="28"/>
       <c r="C204" s="28"/>
@@ -7987,7 +8069,7 @@
       <c r="N204" s="1"/>
       <c r="O204" s="1"/>
     </row>
-    <row r="205" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="79"/>
       <c r="B205" s="28"/>
       <c r="C205" s="28"/>
@@ -8004,7 +8086,7 @@
       <c r="N205" s="1"/>
       <c r="O205" s="1"/>
     </row>
-    <row r="206" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="79"/>
       <c r="B206" s="28" t="s">
         <v>17</v>
@@ -8031,7 +8113,7 @@
       <c r="N206" s="1"/>
       <c r="O206" s="1"/>
     </row>
-    <row r="207" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="79"/>
       <c r="B207" s="28" t="s">
         <v>17</v>
@@ -8058,7 +8140,7 @@
       <c r="N207" s="1"/>
       <c r="O207" s="1"/>
     </row>
-    <row r="208" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="79"/>
       <c r="B208" s="28" t="s">
         <v>17</v>
@@ -8085,7 +8167,7 @@
       <c r="N208" s="1"/>
       <c r="O208" s="1"/>
     </row>
-    <row r="209" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="79"/>
       <c r="B209" s="28" t="s">
         <v>17</v>
@@ -8112,7 +8194,7 @@
       <c r="N209" s="1"/>
       <c r="O209" s="1"/>
     </row>
-    <row r="210" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="79"/>
       <c r="B210" s="28" t="s">
         <v>17</v>
@@ -8139,7 +8221,7 @@
       <c r="N210" s="1"/>
       <c r="O210" s="1"/>
     </row>
-    <row r="211" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="79"/>
       <c r="B211" s="28"/>
       <c r="C211" s="28"/>
@@ -8156,7 +8238,7 @@
       <c r="N211" s="1"/>
       <c r="O211" s="1"/>
     </row>
-    <row r="212" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="79"/>
       <c r="B212" s="28"/>
       <c r="C212" s="28"/>
@@ -8173,7 +8255,7 @@
       <c r="N212" s="1"/>
       <c r="O212" s="1"/>
     </row>
-    <row r="213" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="79"/>
       <c r="B213" s="28"/>
       <c r="C213" s="28"/>
@@ -8190,7 +8272,7 @@
       <c r="N213" s="1"/>
       <c r="O213" s="1"/>
     </row>
-    <row r="214" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="79"/>
       <c r="B214" s="28"/>
       <c r="C214" s="28"/>
@@ -8207,7 +8289,7 @@
       <c r="N214" s="1"/>
       <c r="O214" s="1"/>
     </row>
-    <row r="215" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1"/>
       <c r="B215" s="33"/>
       <c r="C215" s="33"/>
@@ -8218,7 +8300,7 @@
       </c>
       <c r="F215" s="36">
         <f>SUM(F197:F214)-SUM(F194:F196)</f>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="G215" s="80"/>
       <c r="H215" s="92"/>
@@ -8230,7 +8312,7 @@
       <c r="N215" s="1"/>
       <c r="O215" s="1"/>
     </row>
-    <row r="216" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -8247,7 +8329,7 @@
       <c r="N216" s="1"/>
       <c r="O216" s="1"/>
     </row>
-    <row r="217" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -8264,7 +8346,7 @@
       <c r="N217" s="1"/>
       <c r="O217" s="1"/>
     </row>
-    <row r="218" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="3" t="s">
@@ -8285,7 +8367,7 @@
       <c r="N218" s="1"/>
       <c r="O218" s="1"/>
     </row>
-    <row r="219" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -8302,7 +8384,7 @@
       <c r="N219" s="1"/>
       <c r="O219" s="1"/>
     </row>
-    <row r="220" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="79"/>
       <c r="B220" s="6" t="s">
         <v>3</v>
@@ -8329,23 +8411,27 @@
       <c r="N220" s="1"/>
       <c r="O220" s="1"/>
     </row>
-    <row r="221" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="58"/>
-      <c r="B221" s="12" t="s">
+      <c r="B221" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="C221" s="13"/>
-      <c r="D221" s="12" t="s">
+      <c r="C221" s="113"/>
+      <c r="D221" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="E221" s="14">
+      <c r="E221" s="114">
         <v>1</v>
       </c>
-      <c r="F221" s="15">
-        <v>5</v>
-      </c>
-      <c r="G221" s="80"/>
-      <c r="H221" s="94"/>
+      <c r="F221" s="115">
+        <v>6</v>
+      </c>
+      <c r="G221" s="80" t="s">
+        <v>293</v>
+      </c>
+      <c r="H221" s="94">
+        <v>45890</v>
+      </c>
       <c r="I221" s="93"/>
       <c r="J221" s="76"/>
       <c r="K221" s="1"/>
@@ -8354,14 +8440,24 @@
       <c r="N221" s="1"/>
       <c r="O221" s="1"/>
     </row>
-    <row r="222" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="79"/>
-      <c r="B222" s="21"/>
+      <c r="B222" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="C222" s="21"/>
-      <c r="D222" s="21"/>
-      <c r="E222" s="22"/>
-      <c r="F222" s="21"/>
-      <c r="G222" s="94"/>
+      <c r="D222" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="E222" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="F222" s="21">
+        <v>0</v>
+      </c>
+      <c r="G222" s="94">
+        <v>45890</v>
+      </c>
       <c r="H222" s="92"/>
       <c r="I222" s="89"/>
       <c r="J222" s="76"/>
@@ -8371,7 +8467,7 @@
       <c r="N222" s="1"/>
       <c r="O222" s="1"/>
     </row>
-    <row r="223" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="79"/>
       <c r="B223" s="21"/>
       <c r="C223" s="21"/>
@@ -8388,7 +8484,7 @@
       <c r="N223" s="1"/>
       <c r="O223" s="1"/>
     </row>
-    <row r="224" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="79"/>
       <c r="B224" s="28" t="s">
         <v>14</v>
@@ -8415,7 +8511,7 @@
       <c r="N224" s="1"/>
       <c r="O224" s="1"/>
     </row>
-    <row r="225" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="79"/>
       <c r="B225" s="28" t="s">
         <v>14</v>
@@ -8442,7 +8538,7 @@
       <c r="N225" s="1"/>
       <c r="O225" s="1"/>
     </row>
-    <row r="226" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="79"/>
       <c r="B226" s="28"/>
       <c r="C226" s="28"/>
@@ -8459,7 +8555,7 @@
       <c r="N226" s="1"/>
       <c r="O226" s="1"/>
     </row>
-    <row r="227" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="79"/>
       <c r="B227" s="28" t="s">
         <v>16</v>
@@ -8486,7 +8582,7 @@
       <c r="N227" s="1"/>
       <c r="O227" s="1"/>
     </row>
-    <row r="228" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="79"/>
       <c r="B228" s="28" t="s">
         <v>16</v>
@@ -8513,7 +8609,7 @@
       <c r="N228" s="1"/>
       <c r="O228" s="1"/>
     </row>
-    <row r="229" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="79"/>
       <c r="B229" s="108" t="s">
         <v>16</v>
@@ -8544,7 +8640,7 @@
       <c r="N229" s="1"/>
       <c r="O229" s="1"/>
     </row>
-    <row r="230" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="79"/>
       <c r="B230" s="28" t="s">
         <v>16</v>
@@ -8573,7 +8669,7 @@
       <c r="N230" s="1"/>
       <c r="O230" s="1"/>
     </row>
-    <row r="231" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="79"/>
       <c r="B231" s="28"/>
       <c r="C231" s="28"/>
@@ -8590,7 +8686,7 @@
       <c r="N231" s="1"/>
       <c r="O231" s="1"/>
     </row>
-    <row r="232" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="79"/>
       <c r="B232" s="28"/>
       <c r="C232" s="28"/>
@@ -8607,7 +8703,7 @@
       <c r="N232" s="1"/>
       <c r="O232" s="1"/>
     </row>
-    <row r="233" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="79"/>
       <c r="B233" s="28" t="s">
         <v>17</v>
@@ -8622,7 +8718,7 @@
         <v>36</v>
       </c>
       <c r="F233" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G233" s="87"/>
       <c r="H233" s="91"/>
@@ -8634,7 +8730,7 @@
       <c r="N233" s="1"/>
       <c r="O233" s="1"/>
     </row>
-    <row r="234" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="79"/>
       <c r="B234" s="28" t="s">
         <v>17</v>
@@ -8649,7 +8745,7 @@
         <v>20</v>
       </c>
       <c r="F234" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G234" s="87"/>
       <c r="H234" s="91"/>
@@ -8661,7 +8757,7 @@
       <c r="N234" s="1"/>
       <c r="O234" s="1"/>
     </row>
-    <row r="235" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="79"/>
       <c r="B235" s="28" t="s">
         <v>17</v>
@@ -8688,7 +8784,7 @@
       <c r="N235" s="1"/>
       <c r="O235" s="1"/>
     </row>
-    <row r="236" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="79"/>
       <c r="B236" s="28" t="s">
         <v>17</v>
@@ -8715,7 +8811,7 @@
       <c r="N236" s="1"/>
       <c r="O236" s="1"/>
     </row>
-    <row r="237" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="79"/>
       <c r="B237" s="28" t="s">
         <v>17</v>
@@ -8742,7 +8838,7 @@
       <c r="N237" s="1"/>
       <c r="O237" s="1"/>
     </row>
-    <row r="238" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="79"/>
       <c r="B238" s="28"/>
       <c r="C238" s="28"/>
@@ -8759,7 +8855,7 @@
       <c r="N238" s="1"/>
       <c r="O238" s="1"/>
     </row>
-    <row r="239" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="79"/>
       <c r="B239" s="28"/>
       <c r="C239" s="28"/>
@@ -8776,7 +8872,7 @@
       <c r="N239" s="1"/>
       <c r="O239" s="1"/>
     </row>
-    <row r="240" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="79"/>
       <c r="B240" s="28"/>
       <c r="C240" s="28"/>
@@ -8793,7 +8889,7 @@
       <c r="N240" s="1"/>
       <c r="O240" s="1"/>
     </row>
-    <row r="241" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="79"/>
       <c r="B241" s="28"/>
       <c r="C241" s="28"/>
@@ -8810,7 +8906,7 @@
       <c r="N241" s="1"/>
       <c r="O241" s="1"/>
     </row>
-    <row r="242" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1"/>
       <c r="B242" s="33"/>
       <c r="C242" s="33"/>
@@ -8821,7 +8917,7 @@
       </c>
       <c r="F242" s="36">
         <f>SUM(F224:F241)-SUM(F221:F223)</f>
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="G242" s="80"/>
       <c r="H242" s="92"/>
@@ -8833,7 +8929,7 @@
       <c r="N242" s="1"/>
       <c r="O242" s="1"/>
     </row>
-    <row r="243" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -8850,7 +8946,7 @@
       <c r="N243" s="1"/>
       <c r="O243" s="1"/>
     </row>
-    <row r="244" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -8867,7 +8963,7 @@
       <c r="N244" s="1"/>
       <c r="O244" s="1"/>
     </row>
-    <row r="245" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="3" t="s">
@@ -8888,7 +8984,7 @@
       <c r="N245" s="1"/>
       <c r="O245" s="1"/>
     </row>
-    <row r="246" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
@@ -8905,7 +9001,7 @@
       <c r="N246" s="1"/>
       <c r="O246" s="1"/>
     </row>
-    <row r="247" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="79"/>
       <c r="B247" s="6" t="s">
         <v>3</v>
@@ -8924,7 +9020,7 @@
       <c r="N247" s="1"/>
       <c r="O247" s="1"/>
     </row>
-    <row r="248" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="79"/>
       <c r="B248" s="12" t="s">
         <v>13</v>
@@ -8937,7 +9033,7 @@
         <v>8</v>
       </c>
       <c r="F248" s="15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G248" s="80"/>
       <c r="H248" s="94"/>
@@ -8949,7 +9045,7 @@
       <c r="N248" s="1"/>
       <c r="O248" s="1"/>
     </row>
-    <row r="249" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="79"/>
       <c r="B249" s="21"/>
       <c r="C249" s="21"/>
@@ -8966,7 +9062,7 @@
       <c r="N249" s="1"/>
       <c r="O249" s="1"/>
     </row>
-    <row r="250" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="79"/>
       <c r="B250" s="21"/>
       <c r="C250" s="21"/>
@@ -8983,7 +9079,7 @@
       <c r="N250" s="1"/>
       <c r="O250" s="1"/>
     </row>
-    <row r="251" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="79"/>
       <c r="B251" s="28" t="s">
         <v>14</v>
@@ -9010,7 +9106,7 @@
       <c r="N251" s="1"/>
       <c r="O251" s="1"/>
     </row>
-    <row r="252" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="79"/>
       <c r="B252" s="28" t="s">
         <v>14</v>
@@ -9037,7 +9133,7 @@
       <c r="N252" s="1"/>
       <c r="O252" s="1"/>
     </row>
-    <row r="253" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="79"/>
       <c r="B253" s="28"/>
       <c r="C253" s="28"/>
@@ -9054,7 +9150,7 @@
       <c r="N253" s="1"/>
       <c r="O253" s="1"/>
     </row>
-    <row r="254" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="79"/>
       <c r="B254" s="28" t="s">
         <v>16</v>
@@ -9069,7 +9165,7 @@
         <v>1</v>
       </c>
       <c r="F254" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G254" s="83"/>
       <c r="H254" s="91"/>
@@ -9081,7 +9177,7 @@
       <c r="N254" s="1"/>
       <c r="O254" s="1"/>
     </row>
-    <row r="255" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="79"/>
       <c r="B255" s="108" t="s">
         <v>16</v>
@@ -9112,7 +9208,7 @@
       <c r="N255" s="1"/>
       <c r="O255" s="1"/>
     </row>
-    <row r="256" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="79"/>
       <c r="B256" s="28" t="s">
         <v>16</v>
@@ -9141,7 +9237,7 @@
       <c r="N256" s="1"/>
       <c r="O256" s="1"/>
     </row>
-    <row r="257" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="79"/>
       <c r="B257" s="28" t="s">
         <v>16</v>
@@ -9168,7 +9264,7 @@
       <c r="N257" s="1"/>
       <c r="O257" s="1"/>
     </row>
-    <row r="258" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="79"/>
       <c r="B258" s="28"/>
       <c r="C258" s="28"/>
@@ -9185,7 +9281,7 @@
       <c r="N258" s="1"/>
       <c r="O258" s="1"/>
     </row>
-    <row r="259" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="79"/>
       <c r="B259" s="28"/>
       <c r="C259" s="28"/>
@@ -9202,7 +9298,7 @@
       <c r="N259" s="1"/>
       <c r="O259" s="1"/>
     </row>
-    <row r="260" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="79"/>
       <c r="B260" s="28" t="s">
         <v>17</v>
@@ -9229,7 +9325,7 @@
       <c r="N260" s="1"/>
       <c r="O260" s="1"/>
     </row>
-    <row r="261" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="79"/>
       <c r="B261" s="28" t="s">
         <v>17</v>
@@ -9256,7 +9352,7 @@
       <c r="N261" s="1"/>
       <c r="O261" s="1"/>
     </row>
-    <row r="262" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="79"/>
       <c r="B262" s="28" t="s">
         <v>17</v>
@@ -9283,7 +9379,7 @@
       <c r="N262" s="1"/>
       <c r="O262" s="1"/>
     </row>
-    <row r="263" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="79"/>
       <c r="B263" s="28" t="s">
         <v>17</v>
@@ -9310,25 +9406,29 @@
       <c r="N263" s="1"/>
       <c r="O263" s="1"/>
     </row>
-    <row r="264" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="79"/>
-      <c r="B264" s="28" t="s">
+      <c r="B264" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C264" s="28" t="s">
+      <c r="C264" s="108" t="s">
         <v>144</v>
       </c>
-      <c r="D264" s="28" t="s">
+      <c r="D264" s="108" t="s">
         <v>298</v>
       </c>
-      <c r="E264" s="29">
+      <c r="E264" s="109">
         <v>14</v>
       </c>
-      <c r="F264" s="30">
+      <c r="F264" s="110">
         <v>0</v>
       </c>
-      <c r="G264" s="83"/>
-      <c r="H264" s="91"/>
+      <c r="G264" s="83" t="s">
+        <v>293</v>
+      </c>
+      <c r="H264" s="91">
+        <v>45897</v>
+      </c>
       <c r="I264" s="90"/>
       <c r="J264" s="1"/>
       <c r="K264" s="1"/>
@@ -9337,14 +9437,26 @@
       <c r="N264" s="1"/>
       <c r="O264" s="1"/>
     </row>
-    <row r="265" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="79"/>
-      <c r="B265" s="28"/>
-      <c r="C265" s="28"/>
-      <c r="D265" s="28"/>
-      <c r="E265" s="29"/>
-      <c r="F265" s="30"/>
-      <c r="G265" s="87"/>
+      <c r="B265" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C265" s="28" t="s">
+        <v>416</v>
+      </c>
+      <c r="D265" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="E265" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="F265" s="30">
+        <v>0</v>
+      </c>
+      <c r="G265" s="87">
+        <v>45897</v>
+      </c>
       <c r="H265" s="91"/>
       <c r="I265" s="90"/>
       <c r="J265" s="1"/>
@@ -9354,7 +9466,7 @@
       <c r="N265" s="1"/>
       <c r="O265" s="1"/>
     </row>
-    <row r="266" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="79"/>
       <c r="B266" s="28"/>
       <c r="C266" s="28"/>
@@ -9371,7 +9483,7 @@
       <c r="N266" s="1"/>
       <c r="O266" s="1"/>
     </row>
-    <row r="267" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="79"/>
       <c r="B267" s="28"/>
       <c r="C267" s="28"/>
@@ -9388,7 +9500,7 @@
       <c r="N267" s="1"/>
       <c r="O267" s="1"/>
     </row>
-    <row r="268" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="79"/>
       <c r="B268" s="28"/>
       <c r="C268" s="28"/>
@@ -9405,7 +9517,7 @@
       <c r="N268" s="1"/>
       <c r="O268" s="1"/>
     </row>
-    <row r="269" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1"/>
       <c r="B269" s="33"/>
       <c r="C269" s="33"/>
@@ -9428,7 +9540,7 @@
       <c r="N269" s="1"/>
       <c r="O269" s="1"/>
     </row>
-    <row r="270" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -9445,7 +9557,7 @@
       <c r="N270" s="1"/>
       <c r="O270" s="1"/>
     </row>
-    <row r="271" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -9462,7 +9574,7 @@
       <c r="N271" s="1"/>
       <c r="O271" s="1"/>
     </row>
-    <row r="272" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1" t="s">
@@ -9483,7 +9595,7 @@
       <c r="N272" s="1"/>
       <c r="O272" s="1"/>
     </row>
-    <row r="273" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
@@ -9500,7 +9612,7 @@
       <c r="N273" s="1"/>
       <c r="O273" s="1"/>
     </row>
-    <row r="274" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="79"/>
       <c r="B274" s="6" t="s">
         <v>3</v>
@@ -9527,7 +9639,7 @@
       <c r="N274" s="1"/>
       <c r="O274" s="1"/>
     </row>
-    <row r="275" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="79"/>
       <c r="B275" s="12" t="s">
         <v>13</v>
@@ -9540,7 +9652,7 @@
         <v>1</v>
       </c>
       <c r="F275" s="15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G275" s="80"/>
       <c r="H275" s="94"/>
@@ -9552,7 +9664,7 @@
       <c r="N275" s="1"/>
       <c r="O275" s="1"/>
     </row>
-    <row r="276" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="79"/>
       <c r="B276" s="21"/>
       <c r="C276" s="21"/>
@@ -9569,7 +9681,7 @@
       <c r="N276" s="1"/>
       <c r="O276" s="1"/>
     </row>
-    <row r="277" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="79"/>
       <c r="B277" s="21"/>
       <c r="C277" s="21"/>
@@ -9586,7 +9698,7 @@
       <c r="N277" s="1"/>
       <c r="O277" s="1"/>
     </row>
-    <row r="278" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="79"/>
       <c r="B278" s="28" t="s">
         <v>14</v>
@@ -9613,7 +9725,7 @@
       <c r="N278" s="1"/>
       <c r="O278" s="1"/>
     </row>
-    <row r="279" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="79"/>
       <c r="B279" s="28" t="s">
         <v>14</v>
@@ -9640,7 +9752,7 @@
       <c r="N279" s="1"/>
       <c r="O279" s="1"/>
     </row>
-    <row r="280" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="79"/>
       <c r="B280" s="28"/>
       <c r="C280" s="28"/>
@@ -9657,7 +9769,7 @@
       <c r="N280" s="1"/>
       <c r="O280" s="1"/>
     </row>
-    <row r="281" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="79"/>
       <c r="B281" s="28" t="s">
         <v>16</v>
@@ -9684,7 +9796,7 @@
       <c r="N281" s="1"/>
       <c r="O281" s="1"/>
     </row>
-    <row r="282" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="79"/>
       <c r="B282" s="28" t="s">
         <v>16</v>
@@ -9711,7 +9823,7 @@
       <c r="N282" s="1"/>
       <c r="O282" s="1"/>
     </row>
-    <row r="283" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="79"/>
       <c r="B283" s="108" t="s">
         <v>16</v>
@@ -9742,7 +9854,7 @@
       <c r="N283" s="1"/>
       <c r="O283" s="1"/>
     </row>
-    <row r="284" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="79"/>
       <c r="B284" s="28" t="s">
         <v>16</v>
@@ -9771,7 +9883,7 @@
       <c r="N284" s="1"/>
       <c r="O284" s="1"/>
     </row>
-    <row r="285" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="79"/>
       <c r="B285" s="28"/>
       <c r="C285" s="28"/>
@@ -9788,7 +9900,7 @@
       <c r="N285" s="1"/>
       <c r="O285" s="1"/>
     </row>
-    <row r="286" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="79"/>
       <c r="B286" s="28"/>
       <c r="C286" s="28"/>
@@ -9805,7 +9917,7 @@
       <c r="N286" s="1"/>
       <c r="O286" s="1"/>
     </row>
-    <row r="287" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="79"/>
       <c r="B287" s="28" t="s">
         <v>17</v>
@@ -9832,7 +9944,7 @@
       <c r="N287" s="1"/>
       <c r="O287" s="1"/>
     </row>
-    <row r="288" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="79"/>
       <c r="B288" s="28" t="s">
         <v>17</v>
@@ -9847,7 +9959,7 @@
         <v>1</v>
       </c>
       <c r="F288" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G288" s="87"/>
       <c r="H288" s="91"/>
@@ -9859,7 +9971,7 @@
       <c r="N288" s="1"/>
       <c r="O288" s="1"/>
     </row>
-    <row r="289" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="79"/>
       <c r="B289" s="28" t="s">
         <v>17</v>
@@ -9886,7 +9998,7 @@
       <c r="N289" s="1"/>
       <c r="O289" s="1"/>
     </row>
-    <row r="290" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="79"/>
       <c r="B290" s="28" t="s">
         <v>17</v>
@@ -9913,7 +10025,7 @@
       <c r="N290" s="1"/>
       <c r="O290" s="1"/>
     </row>
-    <row r="291" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="79"/>
       <c r="B291" s="28" t="s">
         <v>17</v>
@@ -9940,7 +10052,7 @@
       <c r="N291" s="1"/>
       <c r="O291" s="1"/>
     </row>
-    <row r="292" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="79"/>
       <c r="B292" s="28"/>
       <c r="C292" s="28"/>
@@ -9957,7 +10069,7 @@
       <c r="N292" s="1"/>
       <c r="O292" s="1"/>
     </row>
-    <row r="293" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="79"/>
       <c r="B293" s="28"/>
       <c r="C293" s="28"/>
@@ -9974,7 +10086,7 @@
       <c r="N293" s="1"/>
       <c r="O293" s="1"/>
     </row>
-    <row r="294" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="79"/>
       <c r="B294" s="28"/>
       <c r="C294" s="28"/>
@@ -9991,7 +10103,7 @@
       <c r="N294" s="1"/>
       <c r="O294" s="1"/>
     </row>
-    <row r="295" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="79"/>
       <c r="B295" s="28"/>
       <c r="C295" s="28"/>
@@ -10008,7 +10120,7 @@
       <c r="N295" s="1"/>
       <c r="O295" s="1"/>
     </row>
-    <row r="296" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1"/>
       <c r="B296" s="33"/>
       <c r="C296" s="33"/>
@@ -10019,7 +10131,7 @@
       </c>
       <c r="F296" s="36">
         <f>SUM(F278:F295)-SUM(F275:F276)</f>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="G296" s="91"/>
       <c r="H296" s="91"/>
@@ -10031,7 +10143,7 @@
       <c r="N296" s="1"/>
       <c r="O296" s="1"/>
     </row>
-    <row r="297" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -10048,7 +10160,7 @@
       <c r="N297" s="1"/>
       <c r="O297" s="1"/>
     </row>
-    <row r="298" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -10065,7 +10177,7 @@
       <c r="N298" s="1"/>
       <c r="O298" s="1"/>
     </row>
-    <row r="299" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1" t="s">
@@ -10086,7 +10198,7 @@
       <c r="N299" s="1"/>
       <c r="O299" s="1"/>
     </row>
-    <row r="300" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1"/>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
@@ -10103,7 +10215,7 @@
       <c r="N300" s="1"/>
       <c r="O300" s="1"/>
     </row>
-    <row r="301" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="79"/>
       <c r="B301" s="6" t="s">
         <v>3</v>
@@ -10130,23 +10242,27 @@
       <c r="N301" s="1"/>
       <c r="O301" s="1"/>
     </row>
-    <row r="302" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="79"/>
-      <c r="B302" s="12" t="s">
+      <c r="B302" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="C302" s="13"/>
-      <c r="D302" s="12" t="s">
+      <c r="C302" s="113"/>
+      <c r="D302" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="E302" s="14">
+      <c r="E302" s="114">
         <v>4</v>
       </c>
-      <c r="F302" s="15">
-        <v>4</v>
-      </c>
-      <c r="G302" s="80"/>
-      <c r="H302" s="91"/>
+      <c r="F302" s="115">
+        <v>6</v>
+      </c>
+      <c r="G302" s="80" t="s">
+        <v>293</v>
+      </c>
+      <c r="H302" s="91">
+        <v>45890</v>
+      </c>
       <c r="I302" s="92"/>
       <c r="J302" s="1"/>
       <c r="K302" s="1"/>
@@ -10155,14 +10271,24 @@
       <c r="N302" s="1"/>
       <c r="O302" s="1"/>
     </row>
-    <row r="303" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="79"/>
-      <c r="B303" s="21"/>
+      <c r="B303" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="C303" s="21"/>
-      <c r="D303" s="21"/>
-      <c r="E303" s="22"/>
-      <c r="F303" s="21"/>
-      <c r="G303" s="87"/>
+      <c r="D303" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E303" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="F303" s="21">
+        <v>1</v>
+      </c>
+      <c r="G303" s="87">
+        <v>45890</v>
+      </c>
       <c r="H303" s="91"/>
       <c r="I303" s="92"/>
       <c r="J303" s="1"/>
@@ -10172,7 +10298,7 @@
       <c r="N303" s="1"/>
       <c r="O303" s="1"/>
     </row>
-    <row r="304" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="79"/>
       <c r="B304" s="21"/>
       <c r="C304" s="21"/>
@@ -10189,7 +10315,7 @@
       <c r="N304" s="1"/>
       <c r="O304" s="1"/>
     </row>
-    <row r="305" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="79"/>
       <c r="B305" s="28" t="s">
         <v>14</v>
@@ -10216,7 +10342,7 @@
       <c r="N305" s="1"/>
       <c r="O305" s="1"/>
     </row>
-    <row r="306" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="79"/>
       <c r="B306" s="28" t="s">
         <v>14</v>
@@ -10243,7 +10369,7 @@
       <c r="N306" s="1"/>
       <c r="O306" s="1"/>
     </row>
-    <row r="307" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="79"/>
       <c r="B307" s="28"/>
       <c r="C307" s="28"/>
@@ -10260,7 +10386,7 @@
       <c r="N307" s="1"/>
       <c r="O307" s="1"/>
     </row>
-    <row r="308" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="79"/>
       <c r="B308" s="28" t="s">
         <v>16</v>
@@ -10275,7 +10401,7 @@
         <v>4</v>
       </c>
       <c r="F308" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G308" s="87"/>
       <c r="H308" s="91"/>
@@ -10287,7 +10413,7 @@
       <c r="N308" s="1"/>
       <c r="O308" s="1"/>
     </row>
-    <row r="309" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="79"/>
       <c r="B309" s="28" t="s">
         <v>16</v>
@@ -10314,7 +10440,7 @@
       <c r="N309" s="1"/>
       <c r="O309" s="1"/>
     </row>
-    <row r="310" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="79"/>
       <c r="B310" s="28" t="s">
         <v>16</v>
@@ -10341,7 +10467,7 @@
       <c r="N310" s="1"/>
       <c r="O310" s="1"/>
     </row>
-    <row r="311" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="79"/>
       <c r="B311" s="28"/>
       <c r="C311" s="28"/>
@@ -10358,7 +10484,7 @@
       <c r="N311" s="1"/>
       <c r="O311" s="1"/>
     </row>
-    <row r="312" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="79"/>
       <c r="B312" s="28"/>
       <c r="C312" s="28"/>
@@ -10375,7 +10501,7 @@
       <c r="N312" s="1"/>
       <c r="O312" s="1"/>
     </row>
-    <row r="313" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="79"/>
       <c r="B313" s="28"/>
       <c r="C313" s="28"/>
@@ -10392,7 +10518,7 @@
       <c r="N313" s="1"/>
       <c r="O313" s="1"/>
     </row>
-    <row r="314" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="79"/>
       <c r="B314" s="28" t="s">
         <v>17</v>
@@ -10419,7 +10545,7 @@
       <c r="N314" s="1"/>
       <c r="O314" s="1"/>
     </row>
-    <row r="315" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="79"/>
       <c r="B315" s="28" t="s">
         <v>17</v>
@@ -10446,7 +10572,7 @@
       <c r="N315" s="1"/>
       <c r="O315" s="1"/>
     </row>
-    <row r="316" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="79"/>
       <c r="B316" s="28" t="s">
         <v>17</v>
@@ -10473,7 +10599,7 @@
       <c r="N316" s="1"/>
       <c r="O316" s="1"/>
     </row>
-    <row r="317" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="79"/>
       <c r="B317" s="28" t="s">
         <v>17</v>
@@ -10500,25 +10626,29 @@
       <c r="N317" s="1"/>
       <c r="O317" s="1"/>
     </row>
-    <row r="318" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="79"/>
-      <c r="B318" s="28" t="s">
+      <c r="B318" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C318" s="28" t="s">
+      <c r="C318" s="108" t="s">
         <v>245</v>
       </c>
-      <c r="D318" s="28" t="s">
+      <c r="D318" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="E318" s="29">
+      <c r="E318" s="109">
         <v>1</v>
       </c>
-      <c r="F318" s="30">
+      <c r="F318" s="110">
         <v>0</v>
       </c>
-      <c r="G318" s="87"/>
-      <c r="H318" s="90"/>
+      <c r="G318" s="87" t="s">
+        <v>293</v>
+      </c>
+      <c r="H318" s="91">
+        <v>45890</v>
+      </c>
       <c r="I318" s="90"/>
       <c r="J318" s="1"/>
       <c r="K318" s="1"/>
@@ -10527,14 +10657,26 @@
       <c r="N318" s="1"/>
       <c r="O318" s="1"/>
     </row>
-    <row r="319" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="79"/>
-      <c r="B319" s="28"/>
-      <c r="C319" s="28"/>
-      <c r="D319" s="28"/>
-      <c r="E319" s="29"/>
-      <c r="F319" s="30"/>
-      <c r="G319" s="83"/>
+      <c r="B319" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C319" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="D319" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="E319" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="F319" s="30">
+        <v>1</v>
+      </c>
+      <c r="G319" s="87">
+        <v>45890</v>
+      </c>
       <c r="H319" s="91"/>
       <c r="I319" s="90"/>
       <c r="J319" s="1"/>
@@ -10544,7 +10686,7 @@
       <c r="N319" s="1"/>
       <c r="O319" s="1"/>
     </row>
-    <row r="320" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="79"/>
       <c r="B320" s="28"/>
       <c r="C320" s="28"/>
@@ -10561,7 +10703,7 @@
       <c r="N320" s="1"/>
       <c r="O320" s="1"/>
     </row>
-    <row r="321" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="79"/>
       <c r="B321" s="28"/>
       <c r="C321" s="28"/>
@@ -10578,7 +10720,7 @@
       <c r="N321" s="1"/>
       <c r="O321" s="1"/>
     </row>
-    <row r="322" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="79"/>
       <c r="B322" s="28"/>
       <c r="C322" s="28"/>
@@ -10595,7 +10737,7 @@
       <c r="N322" s="1"/>
       <c r="O322" s="1"/>
     </row>
-    <row r="323" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1"/>
       <c r="B323" s="33"/>
       <c r="C323" s="33"/>
@@ -10606,7 +10748,7 @@
       </c>
       <c r="F323" s="36">
         <f>SUM(F305:F322)-SUM(F302:F304)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G323" s="80"/>
       <c r="H323" s="92"/>
@@ -10618,7 +10760,7 @@
       <c r="N323" s="1"/>
       <c r="O323" s="1"/>
     </row>
-    <row r="324" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -10635,7 +10777,7 @@
       <c r="N324" s="1"/>
       <c r="O324" s="1"/>
     </row>
-    <row r="325" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -10652,7 +10794,7 @@
       <c r="N325" s="1"/>
       <c r="O325" s="1"/>
     </row>
-    <row r="326" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1" t="s">
@@ -10673,7 +10815,7 @@
       <c r="N326" s="1"/>
       <c r="O326" s="1"/>
     </row>
-    <row r="327" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1"/>
       <c r="B327" s="4"/>
       <c r="C327" s="4"/>
@@ -10690,7 +10832,7 @@
       <c r="N327" s="1"/>
       <c r="O327" s="1"/>
     </row>
-    <row r="328" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A328" s="79"/>
       <c r="B328" s="6" t="s">
         <v>3</v>
@@ -10717,7 +10859,7 @@
       <c r="N328" s="1"/>
       <c r="O328" s="1"/>
     </row>
-    <row r="329" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="79"/>
       <c r="B329" s="12" t="s">
         <v>13</v>
@@ -10730,7 +10872,7 @@
         <v>1</v>
       </c>
       <c r="F329" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G329" s="83"/>
       <c r="H329" s="87"/>
@@ -10742,7 +10884,7 @@
       <c r="N329" s="1"/>
       <c r="O329" s="1"/>
     </row>
-    <row r="330" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="79"/>
       <c r="B330" s="21"/>
       <c r="C330" s="21"/>
@@ -10759,7 +10901,7 @@
       <c r="N330" s="1"/>
       <c r="O330" s="1"/>
     </row>
-    <row r="331" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="79"/>
       <c r="B331" s="21"/>
       <c r="C331" s="21"/>
@@ -10776,7 +10918,7 @@
       <c r="N331" s="1"/>
       <c r="O331" s="1"/>
     </row>
-    <row r="332" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="79"/>
       <c r="B332" s="28" t="s">
         <v>14</v>
@@ -10791,7 +10933,7 @@
         <v>1</v>
       </c>
       <c r="F332" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G332" s="83"/>
       <c r="H332" s="90"/>
@@ -10803,7 +10945,7 @@
       <c r="N332" s="1"/>
       <c r="O332" s="1"/>
     </row>
-    <row r="333" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="79"/>
       <c r="B333" s="28" t="s">
         <v>14</v>
@@ -10830,7 +10972,7 @@
       <c r="N333" s="1"/>
       <c r="O333" s="1"/>
     </row>
-    <row r="334" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="79"/>
       <c r="B334" s="28"/>
       <c r="C334" s="28"/>
@@ -10847,7 +10989,7 @@
       <c r="N334" s="1"/>
       <c r="O334" s="1"/>
     </row>
-    <row r="335" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="79"/>
       <c r="B335" s="28" t="s">
         <v>16</v>
@@ -10874,7 +11016,7 @@
       <c r="N335" s="1"/>
       <c r="O335" s="1"/>
     </row>
-    <row r="336" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="79"/>
       <c r="B336" s="28" t="s">
         <v>16</v>
@@ -10901,7 +11043,7 @@
       <c r="N336" s="1"/>
       <c r="O336" s="1"/>
     </row>
-    <row r="337" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="79"/>
       <c r="B337" s="28" t="s">
         <v>16</v>
@@ -10928,7 +11070,7 @@
       <c r="N337" s="1"/>
       <c r="O337" s="1"/>
     </row>
-    <row r="338" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="79"/>
       <c r="B338" s="28"/>
       <c r="C338" s="28"/>
@@ -10945,7 +11087,7 @@
       <c r="N338" s="1"/>
       <c r="O338" s="1"/>
     </row>
-    <row r="339" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="79"/>
       <c r="B339" s="28"/>
       <c r="C339" s="28"/>
@@ -10959,7 +11101,7 @@
       <c r="N339" s="1"/>
       <c r="O339" s="1"/>
     </row>
-    <row r="340" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="79"/>
       <c r="B340" s="28"/>
       <c r="C340" s="28"/>
@@ -10973,7 +11115,7 @@
       <c r="N340" s="1"/>
       <c r="O340" s="1"/>
     </row>
-    <row r="341" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="79"/>
       <c r="B341" s="28" t="s">
         <v>17</v>
@@ -10997,7 +11139,7 @@
       <c r="N341" s="1"/>
       <c r="O341" s="1"/>
     </row>
-    <row r="342" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="79"/>
       <c r="B342" s="28" t="s">
         <v>17</v>
@@ -11021,7 +11163,7 @@
       <c r="N342" s="1"/>
       <c r="O342" s="1"/>
     </row>
-    <row r="343" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="79"/>
       <c r="B343" s="28" t="s">
         <v>17</v>
@@ -11045,7 +11187,7 @@
       <c r="N343" s="1"/>
       <c r="O343" s="1"/>
     </row>
-    <row r="344" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="79"/>
       <c r="B344" s="28" t="s">
         <v>17</v>
@@ -11069,7 +11211,7 @@
       <c r="N344" s="1"/>
       <c r="O344" s="1"/>
     </row>
-    <row r="345" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="79"/>
       <c r="B345" s="28" t="s">
         <v>17</v>
@@ -11093,7 +11235,7 @@
       <c r="N345" s="1"/>
       <c r="O345" s="1"/>
     </row>
-    <row r="346" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="79"/>
       <c r="B346" s="28"/>
       <c r="C346" s="28"/>
@@ -11107,7 +11249,7 @@
       <c r="N346" s="1"/>
       <c r="O346" s="1"/>
     </row>
-    <row r="347" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="79"/>
       <c r="B347" s="28"/>
       <c r="C347" s="28"/>
@@ -11121,7 +11263,7 @@
       <c r="N347" s="1"/>
       <c r="O347" s="1"/>
     </row>
-    <row r="348" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="79"/>
       <c r="B348" s="28"/>
       <c r="C348" s="28"/>
@@ -11135,7 +11277,7 @@
       <c r="N348" s="1"/>
       <c r="O348" s="1"/>
     </row>
-    <row r="349" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A349" s="79"/>
       <c r="B349" s="28"/>
       <c r="C349" s="28"/>
@@ -11149,7 +11291,7 @@
       <c r="N349" s="1"/>
       <c r="O349" s="1"/>
     </row>
-    <row r="350" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1"/>
       <c r="B350" s="33"/>
       <c r="C350" s="33"/>
@@ -11160,7 +11302,7 @@
       </c>
       <c r="F350" s="36">
         <f>SUM(F332:F349)-SUM(F329:F331)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G350" s="83"/>
       <c r="H350" s="90"/>
@@ -11169,7 +11311,7 @@
       <c r="N350" s="1"/>
       <c r="O350" s="1"/>
     </row>
-    <row r="351" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -11183,7 +11325,7 @@
       <c r="N351" s="1"/>
       <c r="O351" s="1"/>
     </row>
-    <row r="353" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B353" s="1"/>
       <c r="C353" s="1" t="s">
         <v>251</v>
@@ -11198,7 +11340,7 @@
       <c r="I353" s="1"/>
       <c r="J353" s="1"/>
     </row>
-    <row r="354" spans="2:10" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
       <c r="D354" s="4"/>
@@ -11209,7 +11351,7 @@
       <c r="I354" s="1"/>
       <c r="J354" s="1"/>
     </row>
-    <row r="355" spans="2:10" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B355" s="6" t="s">
         <v>3</v>
       </c>
@@ -11230,7 +11372,7 @@
       <c r="I355" s="1"/>
       <c r="J355" s="1"/>
     </row>
-    <row r="356" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B356" s="12" t="s">
         <v>13</v>
       </c>
@@ -11242,14 +11384,14 @@
         <v>5</v>
       </c>
       <c r="F356" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G356" s="1"/>
       <c r="H356" s="104"/>
       <c r="I356" s="1"/>
       <c r="J356" s="1"/>
     </row>
-    <row r="357" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B357" s="21"/>
       <c r="C357" s="21"/>
       <c r="D357" s="21"/>
@@ -11260,7 +11402,7 @@
       <c r="I357" s="1"/>
       <c r="J357" s="1"/>
     </row>
-    <row r="358" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B358" s="21"/>
       <c r="C358" s="21"/>
       <c r="D358" s="21"/>
@@ -11271,7 +11413,7 @@
       <c r="I358" s="1"/>
       <c r="J358" s="1"/>
     </row>
-    <row r="359" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B359" s="28" t="s">
         <v>14</v>
       </c>
@@ -11292,7 +11434,7 @@
       <c r="I359" s="1"/>
       <c r="J359" s="1"/>
     </row>
-    <row r="360" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B360" s="28" t="s">
         <v>14</v>
       </c>
@@ -11313,7 +11455,7 @@
       <c r="I360" s="1"/>
       <c r="J360" s="1"/>
     </row>
-    <row r="361" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B361" s="28"/>
       <c r="C361" s="28"/>
       <c r="D361" s="28"/>
@@ -11324,7 +11466,7 @@
       <c r="I361" s="1"/>
       <c r="J361" s="1"/>
     </row>
-    <row r="362" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B362" s="28" t="s">
         <v>16</v>
       </c>
@@ -11338,14 +11480,14 @@
         <v>32</v>
       </c>
       <c r="F362" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G362" s="1"/>
       <c r="H362" s="1"/>
       <c r="I362" s="1"/>
       <c r="J362" s="1"/>
     </row>
-    <row r="363" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B363" s="28" t="s">
         <v>16</v>
       </c>
@@ -11366,7 +11508,7 @@
       <c r="I363" s="1"/>
       <c r="J363" s="1"/>
     </row>
-    <row r="364" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B364" s="28" t="s">
         <v>16</v>
       </c>
@@ -11387,7 +11529,7 @@
       <c r="I364" s="1"/>
       <c r="J364" s="1"/>
     </row>
-    <row r="365" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B365" s="28"/>
       <c r="C365" s="28"/>
       <c r="D365" s="28"/>
@@ -11398,7 +11540,7 @@
       <c r="I365" s="1"/>
       <c r="J365" s="1"/>
     </row>
-    <row r="366" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B366" s="28"/>
       <c r="C366" s="28"/>
       <c r="D366" s="28"/>
@@ -11409,7 +11551,7 @@
       <c r="I366" s="1"/>
       <c r="J366" s="1"/>
     </row>
-    <row r="367" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B367" s="28"/>
       <c r="C367" s="28"/>
       <c r="D367" s="28"/>
@@ -11420,7 +11562,7 @@
       <c r="I367" s="1"/>
       <c r="J367" s="1"/>
     </row>
-    <row r="368" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B368" s="28" t="s">
         <v>17</v>
       </c>
@@ -11434,14 +11576,14 @@
         <v>27</v>
       </c>
       <c r="F368" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G368" s="1"/>
       <c r="H368" s="104"/>
       <c r="I368" s="1"/>
       <c r="J368" s="1"/>
     </row>
-    <row r="369" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B369" s="28" t="s">
         <v>17</v>
       </c>
@@ -11455,14 +11597,14 @@
         <v>12</v>
       </c>
       <c r="F369" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G369" s="104"/>
       <c r="H369" s="104"/>
       <c r="I369" s="1"/>
       <c r="J369" s="1"/>
     </row>
-    <row r="370" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B370" s="28" t="s">
         <v>17</v>
       </c>
@@ -11476,14 +11618,14 @@
         <v>5</v>
       </c>
       <c r="F370" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G370" s="104"/>
       <c r="H370" s="1"/>
       <c r="I370" s="1"/>
       <c r="J370" s="1"/>
     </row>
-    <row r="371" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B371" s="28" t="s">
         <v>17</v>
       </c>
@@ -11504,39 +11646,55 @@
       <c r="I371" s="1"/>
       <c r="J371" s="1"/>
     </row>
-    <row r="372" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B372" s="28" t="s">
+    <row r="372" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B372" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C372" s="28" t="s">
+      <c r="C372" s="108" t="s">
         <v>149</v>
       </c>
-      <c r="D372" s="28" t="s">
+      <c r="D372" s="108" t="s">
         <v>84</v>
       </c>
-      <c r="E372" s="29">
+      <c r="E372" s="109">
         <v>1</v>
       </c>
-      <c r="F372" s="30">
+      <c r="F372" s="110">
         <v>0</v>
       </c>
-      <c r="G372" s="104"/>
-      <c r="H372" s="104"/>
+      <c r="G372" s="104" t="s">
+        <v>293</v>
+      </c>
+      <c r="H372" s="104">
+        <v>45890</v>
+      </c>
       <c r="I372" s="1"/>
       <c r="J372" s="1"/>
     </row>
-    <row r="373" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B373" s="28"/>
-      <c r="C373" s="28"/>
-      <c r="D373" s="28"/>
-      <c r="E373" s="29"/>
-      <c r="F373" s="30"/>
-      <c r="G373" s="104"/>
+    <row r="373" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B373" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C373" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="D373" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="E373" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="F373" s="30">
+        <v>0</v>
+      </c>
+      <c r="G373" s="104">
+        <v>45890</v>
+      </c>
       <c r="H373" s="1"/>
       <c r="I373" s="1"/>
       <c r="J373" s="1"/>
     </row>
-    <row r="374" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B374" s="28"/>
       <c r="C374" s="28"/>
       <c r="D374" s="28"/>
@@ -11547,7 +11705,7 @@
       <c r="I374" s="1"/>
       <c r="J374" s="1"/>
     </row>
-    <row r="375" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B375" s="28"/>
       <c r="C375" s="28"/>
       <c r="D375" s="28"/>
@@ -11558,7 +11716,7 @@
       <c r="I375" s="1"/>
       <c r="J375" s="1"/>
     </row>
-    <row r="376" spans="2:10" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B376" s="28"/>
       <c r="C376" s="28"/>
       <c r="D376" s="28"/>
@@ -11569,7 +11727,7 @@
       <c r="I376" s="1"/>
       <c r="J376" s="1"/>
     </row>
-    <row r="377" spans="2:10" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B377" s="33"/>
       <c r="C377" s="33"/>
       <c r="D377" s="34"/>
@@ -11579,14 +11737,14 @@
       </c>
       <c r="F377" s="36">
         <f>SUM(F359:F376)-SUM(F356:F358)</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G377" s="1"/>
       <c r="H377" s="1"/>
       <c r="I377" s="1"/>
       <c r="J377" s="1"/>
     </row>
-    <row r="380" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B380" s="1"/>
       <c r="C380" s="3" t="s">
         <v>113</v>
@@ -11597,14 +11755,14 @@
       <c r="E380" s="2"/>
       <c r="F380" s="1"/>
     </row>
-    <row r="381" spans="2:10" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B381" s="4"/>
       <c r="C381" s="4"/>
       <c r="D381" s="4"/>
       <c r="E381" s="5"/>
       <c r="F381" s="4"/>
     </row>
-    <row r="382" spans="2:10" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B382" s="6" t="s">
         <v>3</v>
       </c>
@@ -11621,7 +11779,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="383" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B383" s="12" t="s">
         <v>13</v>
       </c>
@@ -11630,21 +11788,21 @@
       <c r="E383" s="14"/>
       <c r="F383" s="15"/>
     </row>
-    <row r="384" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B384" s="21"/>
       <c r="C384" s="21"/>
       <c r="D384" s="21"/>
       <c r="E384" s="22"/>
       <c r="F384" s="21"/>
     </row>
-    <row r="385" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B385" s="21"/>
       <c r="C385" s="21"/>
       <c r="D385" s="21"/>
       <c r="E385" s="22"/>
       <c r="F385" s="21"/>
     </row>
-    <row r="386" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B386" s="28" t="s">
         <v>14</v>
       </c>
@@ -11653,7 +11811,7 @@
       <c r="E386" s="29"/>
       <c r="F386" s="30"/>
     </row>
-    <row r="387" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B387" s="28" t="s">
         <v>14</v>
       </c>
@@ -11662,14 +11820,14 @@
       <c r="E387" s="29"/>
       <c r="F387" s="30"/>
     </row>
-    <row r="388" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B388" s="28"/>
       <c r="C388" s="28"/>
       <c r="D388" s="28"/>
       <c r="E388" s="29"/>
       <c r="F388" s="30"/>
     </row>
-    <row r="389" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B389" s="28" t="s">
         <v>16</v>
       </c>
@@ -11678,7 +11836,7 @@
       <c r="E389" s="29"/>
       <c r="F389" s="30"/>
     </row>
-    <row r="390" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B390" s="28" t="s">
         <v>16</v>
       </c>
@@ -11687,7 +11845,7 @@
       <c r="E390" s="29"/>
       <c r="F390" s="30"/>
     </row>
-    <row r="391" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B391" s="28" t="s">
         <v>16</v>
       </c>
@@ -11696,28 +11854,28 @@
       <c r="E391" s="29"/>
       <c r="F391" s="30"/>
     </row>
-    <row r="392" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B392" s="28"/>
       <c r="C392" s="28"/>
       <c r="D392" s="28"/>
       <c r="E392" s="29"/>
       <c r="F392" s="30"/>
     </row>
-    <row r="393" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B393" s="28"/>
       <c r="C393" s="28"/>
       <c r="D393" s="28"/>
       <c r="E393" s="29"/>
       <c r="F393" s="30"/>
     </row>
-    <row r="394" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B394" s="28"/>
       <c r="C394" s="28"/>
       <c r="D394" s="28"/>
       <c r="E394" s="29"/>
       <c r="F394" s="30"/>
     </row>
-    <row r="395" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B395" s="28" t="s">
         <v>17</v>
       </c>
@@ -11726,7 +11884,7 @@
       <c r="E395" s="29"/>
       <c r="F395" s="30"/>
     </row>
-    <row r="396" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B396" s="28" t="s">
         <v>17</v>
       </c>
@@ -11735,7 +11893,7 @@
       <c r="E396" s="29"/>
       <c r="F396" s="30"/>
     </row>
-    <row r="397" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B397" s="28" t="s">
         <v>17</v>
       </c>
@@ -11744,7 +11902,7 @@
       <c r="E397" s="29"/>
       <c r="F397" s="30"/>
     </row>
-    <row r="398" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B398" s="28" t="s">
         <v>17</v>
       </c>
@@ -11753,7 +11911,7 @@
       <c r="E398" s="29"/>
       <c r="F398" s="30"/>
     </row>
-    <row r="399" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B399" s="28" t="s">
         <v>17</v>
       </c>
@@ -11762,35 +11920,35 @@
       <c r="E399" s="29"/>
       <c r="F399" s="30"/>
     </row>
-    <row r="400" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B400" s="28"/>
       <c r="C400" s="28"/>
       <c r="D400" s="28"/>
       <c r="E400" s="29"/>
       <c r="F400" s="30"/>
     </row>
-    <row r="401" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B401" s="28"/>
       <c r="C401" s="28"/>
       <c r="D401" s="28"/>
       <c r="E401" s="29"/>
       <c r="F401" s="30"/>
     </row>
-    <row r="402" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B402" s="28"/>
       <c r="C402" s="28"/>
       <c r="D402" s="28"/>
       <c r="E402" s="29"/>
       <c r="F402" s="30"/>
     </row>
-    <row r="403" spans="2:6" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="2:6" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B403" s="28"/>
       <c r="C403" s="28"/>
       <c r="D403" s="28"/>
       <c r="E403" s="29"/>
       <c r="F403" s="30"/>
     </row>
-    <row r="404" spans="2:6" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="2:6" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B404" s="33"/>
       <c r="C404" s="33"/>
       <c r="D404" s="34"/>
@@ -11822,6 +11980,7 @@
   </headerFooter>
   <customProperties>
     <customPr name="_pios_id" r:id="rId2"/>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId3"/>
   </customProperties>
 </worksheet>
 </file>
@@ -11833,22 +11992,22 @@
   </sheetPr>
   <dimension ref="A1:IV22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.296875" style="38" customWidth="1"/>
-    <col min="2" max="2" width="11.796875" style="38" customWidth="1"/>
+    <col min="1" max="1" width="1.33203125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" style="38" customWidth="1"/>
     <col min="3" max="3" width="31" style="38" customWidth="1"/>
-    <col min="4" max="4" width="35.296875" style="38" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="38" customWidth="1"/>
     <col min="5" max="6" width="9" style="38" customWidth="1"/>
     <col min="7" max="7" width="11" style="38" customWidth="1"/>
     <col min="8" max="256" width="9" style="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -11865,7 +12024,7 @@
       </c>
       <c r="K1" s="41"/>
     </row>
-    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="40"/>
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
@@ -11880,7 +12039,7 @@
       <c r="J2" s="41"/>
       <c r="K2" s="41"/>
     </row>
-    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="40"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -11893,7 +12052,7 @@
       <c r="J3" s="41"/>
       <c r="K3" s="41"/>
     </row>
-    <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40"/>
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
@@ -11908,7 +12067,7 @@
       <c r="J4" s="41"/>
       <c r="K4" s="41"/>
     </row>
-    <row r="5" spans="1:11" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="40"/>
       <c r="B5" s="45"/>
       <c r="C5" s="45"/>
@@ -11921,7 +12080,7 @@
       <c r="J5" s="41"/>
       <c r="K5" s="41"/>
     </row>
-    <row r="6" spans="1:11" ht="14.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="47"/>
       <c r="B6" s="48" t="s">
         <v>3</v>
@@ -11946,7 +12105,7 @@
       <c r="J6" s="41"/>
       <c r="K6" s="41"/>
     </row>
-    <row r="7" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="47"/>
       <c r="B7" s="54">
         <v>1</v>
@@ -11958,10 +12117,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="25">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" s="26">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G7" s="27">
         <v>0</v>
@@ -11971,7 +12130,7 @@
       <c r="J7" s="41"/>
       <c r="K7" s="41"/>
     </row>
-    <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="47"/>
       <c r="B8" s="54">
         <v>2</v>
@@ -11985,93 +12144,93 @@
       <c r="E8" s="25">
         <v>7</v>
       </c>
-      <c r="F8" s="26">
-        <v>7</v>
-      </c>
-      <c r="G8" s="27">
-        <v>0</v>
+      <c r="F8" s="56">
+        <v>8</v>
+      </c>
+      <c r="G8" s="57">
+        <v>1</v>
       </c>
       <c r="H8" s="52"/>
       <c r="I8" s="41"/>
       <c r="J8" s="41"/>
       <c r="K8" s="41"/>
     </row>
-    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="47"/>
       <c r="B9" s="54">
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="E9" s="25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" s="26">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G9" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9" s="52"/>
       <c r="I9" s="41"/>
       <c r="J9" s="41"/>
       <c r="K9" s="41"/>
     </row>
-    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="47"/>
       <c r="B10" s="54">
         <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>32</v>
+        <v>208</v>
       </c>
       <c r="E10" s="25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10" s="56">
+        <v>10</v>
+      </c>
+      <c r="G10" s="57">
         <v>7</v>
-      </c>
-      <c r="G10" s="57">
-        <v>3</v>
       </c>
       <c r="H10" s="52"/>
       <c r="I10" s="41"/>
       <c r="J10" s="41"/>
       <c r="K10" s="41"/>
     </row>
-    <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="47"/>
       <c r="B11" s="54">
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>15</v>
+        <v>33</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>32</v>
       </c>
       <c r="E11" s="25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F11" s="26">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G11" s="27">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H11" s="52"/>
       <c r="I11" s="41"/>
       <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-    </row>
-    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K11" s="53"/>
+    </row>
+    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="47"/>
       <c r="B12" s="54">
         <v>6</v>
@@ -12079,33 +12238,33 @@
       <c r="C12" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="24" t="s">
         <v>249</v>
       </c>
       <c r="E12" s="25">
-        <v>3</v>
-      </c>
-      <c r="F12" s="56">
-        <v>3</v>
-      </c>
-      <c r="G12" s="57">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F12" s="26">
+        <v>4</v>
+      </c>
+      <c r="G12" s="27">
+        <v>2</v>
       </c>
       <c r="H12" s="52"/>
       <c r="I12" s="41"/>
       <c r="J12" s="41"/>
       <c r="K12" s="41"/>
     </row>
-    <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="47"/>
       <c r="B13" s="54">
         <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>99</v>
+        <v>250</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="E13" s="25">
         <v>1</v>
@@ -12121,99 +12280,99 @@
       <c r="J13" s="41"/>
       <c r="K13" s="41"/>
     </row>
-    <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="47"/>
       <c r="B14" s="54">
         <v>8</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>35</v>
+        <v>99</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>238</v>
       </c>
       <c r="E14" s="25">
         <v>0</v>
       </c>
       <c r="F14" s="26">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G14" s="27">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H14" s="52"/>
       <c r="I14" s="41"/>
       <c r="J14" s="41"/>
       <c r="K14" s="41"/>
     </row>
-    <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="47"/>
       <c r="B15" s="54">
         <v>9</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>193</v>
+        <v>36</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>35</v>
       </c>
       <c r="E15" s="25">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G15" s="27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H15" s="52"/>
       <c r="I15" s="41"/>
       <c r="J15" s="41"/>
       <c r="K15" s="41"/>
     </row>
-    <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="47"/>
       <c r="B16" s="54">
         <v>10</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>250</v>
+        <v>55</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="E16" s="25">
         <v>-1</v>
       </c>
       <c r="F16" s="26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G16" s="27">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H16" s="52"/>
       <c r="I16" s="41"/>
       <c r="J16" s="41"/>
       <c r="K16" s="41"/>
     </row>
-    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="47"/>
       <c r="B17" s="54">
         <v>11</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D17" s="55" t="s">
-        <v>143</v>
+        <v>21</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>193</v>
       </c>
       <c r="E17" s="25">
-        <v>-2</v>
-      </c>
-      <c r="F17" s="56">
-        <v>2</v>
-      </c>
-      <c r="G17" s="57">
+        <v>-1</v>
+      </c>
+      <c r="F17" s="26">
+        <v>3</v>
+      </c>
+      <c r="G17" s="27">
         <v>4</v>
       </c>
       <c r="H17" s="52"/>
@@ -12221,57 +12380,57 @@
       <c r="J17" s="41"/>
       <c r="K17" s="41"/>
     </row>
-    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="47"/>
       <c r="B18" s="54">
         <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>54</v>
+        <v>119</v>
+      </c>
+      <c r="D18" s="55" t="s">
+        <v>143</v>
       </c>
       <c r="E18" s="25">
-        <v>-2</v>
-      </c>
-      <c r="F18" s="26">
-        <v>0</v>
-      </c>
-      <c r="G18" s="27">
-        <v>2</v>
+        <v>-3</v>
+      </c>
+      <c r="F18" s="56">
+        <v>3</v>
+      </c>
+      <c r="G18" s="57">
+        <v>6</v>
       </c>
       <c r="H18" s="52"/>
       <c r="I18" s="41"/>
       <c r="J18" s="41"/>
       <c r="K18" s="41"/>
     </row>
-    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="47"/>
       <c r="B19" s="54">
         <v>13</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="55" t="s">
-        <v>274</v>
+        <v>53</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>54</v>
       </c>
       <c r="E19" s="25">
         <v>-3</v>
       </c>
       <c r="F19" s="26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G19" s="27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H19" s="52"/>
       <c r="I19" s="41"/>
       <c r="J19" s="41"/>
-      <c r="K19" s="53"/>
-    </row>
-    <row r="20" spans="1:11" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K19" s="41"/>
+    </row>
+    <row r="20" spans="1:11" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="47"/>
       <c r="B20" s="54">
         <v>14</v>
@@ -12279,24 +12438,24 @@
       <c r="C20" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="55" t="s">
+      <c r="D20" s="24" t="s">
         <v>227</v>
       </c>
       <c r="E20" s="25">
         <v>-5</v>
       </c>
       <c r="F20" s="26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G20" s="27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H20" s="52"/>
       <c r="I20" s="41"/>
       <c r="J20" s="41"/>
       <c r="K20" s="41"/>
     </row>
-    <row r="21" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="59"/>
       <c r="C21" s="59"/>
@@ -12309,7 +12468,7 @@
       <c r="J21" s="41"/>
       <c r="K21" s="41"/>
     </row>
-    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="40"/>
       <c r="C22" s="40"/>
@@ -12348,17 +12507,17 @@
       <selection activeCell="H1" sqref="H1:R29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.296875" style="38" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" style="38" customWidth="1"/>
-    <col min="4" max="4" width="9.296875" style="38" customWidth="1"/>
-    <col min="5" max="5" width="31.296875" style="38" customWidth="1"/>
-    <col min="6" max="7" width="9.296875" style="38" customWidth="1"/>
-    <col min="8" max="257" width="8.796875" style="38" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" style="38" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" style="38" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="38" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" style="38" customWidth="1"/>
+    <col min="6" max="7" width="9.33203125" style="38" customWidth="1"/>
+    <col min="8" max="257" width="8.77734375" style="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="62" t="s">
         <v>260</v>
       </c>
@@ -12368,7 +12527,7 @@
       <c r="F1" s="40"/>
       <c r="G1" s="40"/>
     </row>
-    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
@@ -12376,7 +12535,7 @@
       <c r="F2" s="40"/>
       <c r="G2" s="40"/>
     </row>
-    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="63" t="s">
         <v>39</v>
       </c>
@@ -12386,7 +12545,7 @@
       <c r="F3" s="40"/>
       <c r="G3" s="40"/>
     </row>
-    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="67" t="s">
         <v>43</v>
       </c>
@@ -12397,7 +12556,7 @@
       <c r="F4" s="68"/>
       <c r="G4" s="64"/>
     </row>
-    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="67" t="s">
         <v>44</v>
       </c>
@@ -12408,7 +12567,7 @@
       <c r="F5" s="68"/>
       <c r="G5" s="64"/>
     </row>
-    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="67" t="s">
         <v>45</v>
       </c>
@@ -12419,7 +12578,7 @@
       <c r="F6" s="68"/>
       <c r="G6" s="64"/>
     </row>
-    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="67" t="s">
         <v>46</v>
       </c>
@@ -12430,7 +12589,7 @@
       <c r="F7" s="68"/>
       <c r="G7" s="64"/>
     </row>
-    <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="67" t="s">
         <v>47</v>
       </c>
@@ -12441,7 +12600,7 @@
       <c r="F8" s="68"/>
       <c r="G8" s="64"/>
     </row>
-    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="67" t="s">
         <v>48</v>
       </c>
@@ -12452,7 +12611,7 @@
       <c r="F9" s="68"/>
       <c r="G9" s="64"/>
     </row>
-    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="67"/>
       <c r="B10" s="65"/>
       <c r="C10" s="65"/>
@@ -12461,7 +12620,7 @@
       <c r="F10" s="40"/>
       <c r="G10" s="61"/>
     </row>
-    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="67"/>
       <c r="B11" s="63" t="s">
         <v>63</v>
@@ -12472,7 +12631,7 @@
       <c r="F11" s="68"/>
       <c r="G11" s="64"/>
     </row>
-    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="67" t="s">
         <v>49</v>
       </c>
@@ -12483,7 +12642,7 @@
       <c r="F12" s="69"/>
       <c r="G12" s="100"/>
     </row>
-    <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="67" t="s">
         <v>50</v>
       </c>
@@ -12494,7 +12653,7 @@
       <c r="F13" s="68"/>
       <c r="G13" s="64"/>
     </row>
-    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="67" t="s">
         <v>51</v>
       </c>
@@ -12505,7 +12664,7 @@
       <c r="F14" s="69"/>
       <c r="G14" s="100"/>
     </row>
-    <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="67" t="s">
         <v>64</v>
       </c>
@@ -12516,7 +12675,7 @@
       <c r="F15" s="68"/>
       <c r="G15" s="64"/>
     </row>
-    <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="67"/>
       <c r="B16" s="65"/>
       <c r="C16" s="68"/>
@@ -12525,7 +12684,7 @@
       <c r="F16" s="68"/>
       <c r="G16" s="64"/>
     </row>
-    <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="67"/>
       <c r="B17" s="63" t="s">
         <v>108</v>
@@ -12536,7 +12695,7 @@
       <c r="F17" s="69"/>
       <c r="G17" s="100"/>
     </row>
-    <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="67" t="s">
         <v>77</v>
       </c>
@@ -12547,7 +12706,7 @@
       <c r="F18" s="68"/>
       <c r="G18" s="64"/>
     </row>
-    <row r="19" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="63"/>
       <c r="C19" s="64"/>
       <c r="D19" s="64"/>
@@ -12555,7 +12714,7 @@
       <c r="F19" s="66"/>
       <c r="G19" s="40"/>
     </row>
-    <row r="20" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="65"/>
       <c r="C20" s="64"/>
       <c r="D20" s="61"/>
@@ -12563,7 +12722,7 @@
       <c r="F20" s="66"/>
       <c r="G20" s="40"/>
     </row>
-    <row r="21" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="63" t="s">
         <v>40</v>
       </c>
@@ -12573,7 +12732,7 @@
       <c r="F21" s="66"/>
       <c r="G21" s="40"/>
     </row>
-    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="67" t="s">
         <v>78</v>
       </c>
@@ -12584,7 +12743,7 @@
       <c r="F22" s="68"/>
       <c r="G22" s="64"/>
     </row>
-    <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="67" t="s">
         <v>79</v>
       </c>
@@ -12595,7 +12754,7 @@
       <c r="F23" s="69"/>
       <c r="G23" s="100"/>
     </row>
-    <row r="24" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="65"/>
       <c r="C24" s="65"/>
       <c r="D24" s="64"/>
@@ -12603,7 +12762,7 @@
       <c r="F24" s="40"/>
       <c r="G24" s="40"/>
     </row>
-    <row r="25" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="63" t="s">
         <v>41</v>
       </c>
@@ -12613,7 +12772,7 @@
       <c r="F25" s="40"/>
       <c r="G25" s="40"/>
     </row>
-    <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="67" t="s">
         <v>112</v>
       </c>
@@ -12624,7 +12783,7 @@
       <c r="F26" s="69"/>
       <c r="G26" s="100"/>
     </row>
-    <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="40"/>
       <c r="C27" s="40"/>
       <c r="D27" s="64"/>
@@ -12632,7 +12791,7 @@
       <c r="F27" s="40"/>
       <c r="G27" s="40"/>
     </row>
-    <row r="28" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="63" t="s">
         <v>42</v>
       </c>
@@ -12643,7 +12802,7 @@
       <c r="G28" s="40"/>
       <c r="K28" s="98"/>
     </row>
-    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="65"/>
       <c r="C29" s="40"/>
       <c r="D29" s="40"/>
@@ -12659,6 +12818,7 @@
   </headerFooter>
   <customProperties>
     <customPr name="_pios_id" r:id="rId2"/>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId3"/>
   </customProperties>
 </worksheet>
 </file>
@@ -12668,16 +12828,16 @@
   <dimension ref="A1:X68"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.69921875" customWidth="1"/>
-    <col min="5" max="5" width="35.296875" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" s="62" t="s">
         <v>290</v>
       </c>
@@ -12704,7 +12864,7 @@
       <c r="W1" s="38"/>
       <c r="X1" s="38"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
@@ -12729,7 +12889,7 @@
       <c r="W2" s="38"/>
       <c r="X2" s="38"/>
     </row>
-    <row r="3" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B3" s="63" t="s">
         <v>39</v>
       </c>
@@ -12756,7 +12916,7 @@
       <c r="W3" s="38"/>
       <c r="X3" s="38"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="67" t="s">
         <v>43</v>
       </c>
@@ -12786,7 +12946,7 @@
       <c r="W4" s="38"/>
       <c r="X4" s="38"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="67" t="s">
         <v>44</v>
       </c>
@@ -12816,7 +12976,7 @@
       <c r="W5" s="38"/>
       <c r="X5" s="38"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="67" t="s">
         <v>45</v>
       </c>
@@ -12846,7 +13006,7 @@
       <c r="W6" s="38"/>
       <c r="X6" s="38"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="67" t="s">
         <v>46</v>
       </c>
@@ -12876,7 +13036,7 @@
       <c r="W7" s="38"/>
       <c r="X7" s="38"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="67" t="s">
         <v>47</v>
       </c>
@@ -12906,7 +13066,7 @@
       <c r="W8" s="38"/>
       <c r="X8" s="38"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="67" t="s">
         <v>48</v>
       </c>
@@ -12936,7 +13096,7 @@
       <c r="W9" s="38"/>
       <c r="X9" s="38"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="67" t="s">
         <v>49</v>
       </c>
@@ -12966,7 +13126,7 @@
       <c r="W10" s="38"/>
       <c r="X10" s="38"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="67" t="s">
         <v>50</v>
       </c>
@@ -12994,7 +13154,7 @@
       <c r="W11" s="38"/>
       <c r="X11" s="38"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="67" t="s">
         <v>51</v>
       </c>
@@ -13022,7 +13182,7 @@
       <c r="W12" s="38"/>
       <c r="X12" s="38"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="67" t="s">
         <v>64</v>
       </c>
@@ -13050,7 +13210,7 @@
       <c r="W13" s="38"/>
       <c r="X13" s="38"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="67"/>
       <c r="B14" s="65"/>
       <c r="C14" s="65"/>
@@ -13076,7 +13236,7 @@
       <c r="W14" s="38"/>
       <c r="X14" s="38"/>
     </row>
-    <row r="15" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A15" s="67"/>
       <c r="B15" s="63" t="s">
         <v>261</v>
@@ -13104,7 +13264,7 @@
       <c r="W15" s="38"/>
       <c r="X15" s="38"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="67" t="s">
         <v>77</v>
       </c>
@@ -13132,7 +13292,7 @@
       <c r="W16" s="38"/>
       <c r="X16" s="38"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="67" t="s">
         <v>78</v>
       </c>
@@ -13160,7 +13320,7 @@
       <c r="W17" s="38"/>
       <c r="X17" s="38"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="67" t="s">
         <v>79</v>
       </c>
@@ -13188,7 +13348,7 @@
       <c r="W18" s="38"/>
       <c r="X18" s="38"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="67" t="s">
         <v>112</v>
       </c>
@@ -13216,7 +13376,7 @@
       <c r="W19" s="38"/>
       <c r="X19" s="38"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="67" t="s">
         <v>262</v>
       </c>
@@ -13244,7 +13404,7 @@
       <c r="W20" s="38"/>
       <c r="X20" s="38"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="67" t="s">
         <v>263</v>
       </c>
@@ -13272,7 +13432,7 @@
       <c r="W21" s="38"/>
       <c r="X21" s="38"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="67" t="s">
         <v>264</v>
       </c>
@@ -13300,7 +13460,7 @@
       <c r="W22" s="38"/>
       <c r="X22" s="38"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="67" t="s">
         <v>265</v>
       </c>
@@ -13328,7 +13488,7 @@
       <c r="W23" s="38"/>
       <c r="X23" s="38"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="67"/>
       <c r="B24" s="65"/>
       <c r="C24" s="68"/>
@@ -13354,7 +13514,7 @@
       <c r="W24" s="38"/>
       <c r="X24" s="38"/>
     </row>
-    <row r="25" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A25" s="67"/>
       <c r="B25" s="63" t="s">
         <v>63</v>
@@ -13382,7 +13542,7 @@
       <c r="W25" s="38"/>
       <c r="X25" s="38"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="67" t="s">
         <v>266</v>
       </c>
@@ -13410,7 +13570,7 @@
       <c r="W26" s="38"/>
       <c r="X26" s="38"/>
     </row>
-    <row r="27" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A27" s="67" t="s">
         <v>267</v>
       </c>
@@ -13438,7 +13598,7 @@
       <c r="W27" s="38"/>
       <c r="X27" s="38"/>
     </row>
-    <row r="28" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A28" s="67" t="s">
         <v>268</v>
       </c>
@@ -13466,7 +13626,7 @@
       <c r="W28" s="38"/>
       <c r="X28" s="38"/>
     </row>
-    <row r="29" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A29" s="67" t="s">
         <v>269</v>
       </c>
@@ -13494,7 +13654,7 @@
       <c r="W29" s="38"/>
       <c r="X29" s="38"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B30" s="65"/>
       <c r="C30" s="64"/>
       <c r="D30" s="61"/>
@@ -13519,7 +13679,7 @@
       <c r="W30" s="38"/>
       <c r="X30" s="38"/>
     </row>
-    <row r="31" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B31" s="63" t="s">
         <v>40</v>
       </c>
@@ -13546,7 +13706,7 @@
       <c r="W31" s="38"/>
       <c r="X31" s="38"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="67" t="s">
         <v>270</v>
       </c>
@@ -13574,7 +13734,7 @@
       <c r="W32" s="38"/>
       <c r="X32" s="38"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="67" t="s">
         <v>271</v>
       </c>
@@ -13602,7 +13762,7 @@
       <c r="W33" s="38"/>
       <c r="X33" s="38"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B34" s="65"/>
       <c r="C34" s="65"/>
       <c r="D34" s="64"/>
@@ -13627,7 +13787,7 @@
       <c r="W34" s="38"/>
       <c r="X34" s="38"/>
     </row>
-    <row r="35" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:24" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B35" s="63" t="s">
         <v>41</v>
       </c>
@@ -13654,7 +13814,7 @@
       <c r="W35" s="38"/>
       <c r="X35" s="38"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="67" t="s">
         <v>272</v>
       </c>
@@ -13682,7 +13842,7 @@
       <c r="W36" s="38"/>
       <c r="X36" s="38"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B37" s="40"/>
       <c r="C37" s="40"/>
       <c r="D37" s="64"/>
@@ -13707,7 +13867,7 @@
       <c r="W37" s="38"/>
       <c r="X37" s="38"/>
     </row>
-    <row r="38" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:24" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B38" s="63" t="s">
         <v>42</v>
       </c>
@@ -13734,7 +13894,7 @@
       <c r="W38" s="38"/>
       <c r="X38" s="38"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B39" s="65"/>
       <c r="C39" s="40"/>
       <c r="D39" s="40"/>
@@ -13759,7 +13919,7 @@
       <c r="W39" s="38"/>
       <c r="X39" s="38"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H40" s="38"/>
       <c r="I40" s="38"/>
       <c r="J40" s="38"/>
@@ -13778,7 +13938,7 @@
       <c r="W40" s="38"/>
       <c r="X40" s="38"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H41" s="38"/>
       <c r="I41" s="38"/>
       <c r="J41" s="38"/>
@@ -13797,7 +13957,7 @@
       <c r="W41" s="38"/>
       <c r="X41" s="38"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H42" s="38"/>
       <c r="I42" s="38"/>
       <c r="J42" s="38"/>
@@ -13816,7 +13976,7 @@
       <c r="W42" s="38"/>
       <c r="X42" s="38"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H43" s="38"/>
       <c r="I43" s="38"/>
       <c r="J43" s="38"/>
@@ -13835,7 +13995,7 @@
       <c r="W43" s="38"/>
       <c r="X43" s="38"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H44" s="38"/>
       <c r="I44" s="38"/>
       <c r="J44" s="38"/>
@@ -13854,7 +14014,7 @@
       <c r="W44" s="38"/>
       <c r="X44" s="38"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H45" s="38"/>
       <c r="I45" s="38"/>
       <c r="J45" s="38"/>
@@ -13873,7 +14033,7 @@
       <c r="W45" s="38"/>
       <c r="X45" s="38"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H46" s="38"/>
       <c r="I46" s="38"/>
       <c r="J46" s="38"/>
@@ -13892,7 +14052,7 @@
       <c r="W46" s="38"/>
       <c r="X46" s="38"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H47" s="38"/>
       <c r="I47" s="38"/>
       <c r="J47" s="38"/>
@@ -13911,7 +14071,7 @@
       <c r="W47" s="38"/>
       <c r="X47" s="38"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H48" s="38"/>
       <c r="I48" s="38"/>
       <c r="J48" s="38"/>
@@ -13930,7 +14090,7 @@
       <c r="W48" s="38"/>
       <c r="X48" s="38"/>
     </row>
-    <row r="49" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="49" spans="8:24" x14ac:dyDescent="0.25">
       <c r="H49" s="38"/>
       <c r="I49" s="38"/>
       <c r="J49" s="38"/>
@@ -13949,7 +14109,7 @@
       <c r="W49" s="38"/>
       <c r="X49" s="38"/>
     </row>
-    <row r="50" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="50" spans="8:24" x14ac:dyDescent="0.25">
       <c r="H50" s="38"/>
       <c r="I50" s="38"/>
       <c r="J50" s="38"/>
@@ -13968,7 +14128,7 @@
       <c r="W50" s="38"/>
       <c r="X50" s="38"/>
     </row>
-    <row r="51" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="51" spans="8:24" x14ac:dyDescent="0.25">
       <c r="H51" s="38"/>
       <c r="I51" s="38"/>
       <c r="J51" s="38"/>
@@ -13987,7 +14147,7 @@
       <c r="W51" s="38"/>
       <c r="X51" s="38"/>
     </row>
-    <row r="52" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="52" spans="8:24" x14ac:dyDescent="0.25">
       <c r="H52" s="38"/>
       <c r="I52" s="38"/>
       <c r="J52" s="38"/>
@@ -14006,7 +14166,7 @@
       <c r="W52" s="38"/>
       <c r="X52" s="38"/>
     </row>
-    <row r="53" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="53" spans="8:24" x14ac:dyDescent="0.25">
       <c r="H53" s="38"/>
       <c r="I53" s="38"/>
       <c r="J53" s="38"/>
@@ -14025,7 +14185,7 @@
       <c r="W53" s="38"/>
       <c r="X53" s="38"/>
     </row>
-    <row r="54" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="54" spans="8:24" x14ac:dyDescent="0.25">
       <c r="H54" s="38"/>
       <c r="I54" s="38"/>
       <c r="J54" s="38"/>
@@ -14044,7 +14204,7 @@
       <c r="W54" s="38"/>
       <c r="X54" s="38"/>
     </row>
-    <row r="55" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="55" spans="8:24" x14ac:dyDescent="0.25">
       <c r="H55" s="38"/>
       <c r="I55" s="38"/>
       <c r="J55" s="38"/>
@@ -14063,7 +14223,7 @@
       <c r="W55" s="38"/>
       <c r="X55" s="38"/>
     </row>
-    <row r="56" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="56" spans="8:24" x14ac:dyDescent="0.25">
       <c r="H56" s="38"/>
       <c r="I56" s="38"/>
       <c r="J56" s="38"/>
@@ -14082,7 +14242,7 @@
       <c r="W56" s="38"/>
       <c r="X56" s="38"/>
     </row>
-    <row r="57" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="57" spans="8:24" x14ac:dyDescent="0.25">
       <c r="H57" s="38"/>
       <c r="I57" s="38"/>
       <c r="J57" s="38"/>
@@ -14101,7 +14261,7 @@
       <c r="W57" s="38"/>
       <c r="X57" s="38"/>
     </row>
-    <row r="58" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="58" spans="8:24" x14ac:dyDescent="0.25">
       <c r="H58" s="38"/>
       <c r="I58" s="38"/>
       <c r="J58" s="38"/>
@@ -14120,7 +14280,7 @@
       <c r="W58" s="38"/>
       <c r="X58" s="38"/>
     </row>
-    <row r="59" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="59" spans="8:24" x14ac:dyDescent="0.25">
       <c r="H59" s="38"/>
       <c r="I59" s="38"/>
       <c r="J59" s="38"/>
@@ -14139,7 +14299,7 @@
       <c r="W59" s="38"/>
       <c r="X59" s="38"/>
     </row>
-    <row r="60" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="60" spans="8:24" x14ac:dyDescent="0.25">
       <c r="H60" s="38"/>
       <c r="I60" s="38"/>
       <c r="J60" s="38"/>
@@ -14158,7 +14318,7 @@
       <c r="W60" s="38"/>
       <c r="X60" s="38"/>
     </row>
-    <row r="61" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="61" spans="8:24" x14ac:dyDescent="0.25">
       <c r="H61" s="38"/>
       <c r="I61" s="38"/>
       <c r="J61" s="38"/>
@@ -14177,7 +14337,7 @@
       <c r="W61" s="38"/>
       <c r="X61" s="38"/>
     </row>
-    <row r="62" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="62" spans="8:24" x14ac:dyDescent="0.25">
       <c r="H62" s="38"/>
       <c r="I62" s="38"/>
       <c r="J62" s="38"/>
@@ -14196,7 +14356,7 @@
       <c r="W62" s="38"/>
       <c r="X62" s="38"/>
     </row>
-    <row r="63" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="63" spans="8:24" x14ac:dyDescent="0.25">
       <c r="H63" s="38"/>
       <c r="I63" s="38"/>
       <c r="J63" s="38"/>
@@ -14215,7 +14375,7 @@
       <c r="W63" s="38"/>
       <c r="X63" s="38"/>
     </row>
-    <row r="64" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="64" spans="8:24" x14ac:dyDescent="0.25">
       <c r="H64" s="38"/>
       <c r="I64" s="38"/>
       <c r="J64" s="38"/>
@@ -14234,7 +14394,7 @@
       <c r="W64" s="38"/>
       <c r="X64" s="38"/>
     </row>
-    <row r="65" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="65" spans="8:24" x14ac:dyDescent="0.25">
       <c r="H65" s="38"/>
       <c r="I65" s="38"/>
       <c r="J65" s="38"/>
@@ -14253,7 +14413,7 @@
       <c r="W65" s="38"/>
       <c r="X65" s="38"/>
     </row>
-    <row r="66" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="66" spans="8:24" x14ac:dyDescent="0.25">
       <c r="H66" s="38"/>
       <c r="I66" s="38"/>
       <c r="J66" s="38"/>
@@ -14272,7 +14432,7 @@
       <c r="W66" s="38"/>
       <c r="X66" s="38"/>
     </row>
-    <row r="67" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="67" spans="8:24" x14ac:dyDescent="0.25">
       <c r="H67" s="38"/>
       <c r="I67" s="38"/>
       <c r="J67" s="38"/>
@@ -14291,7 +14451,7 @@
       <c r="W67" s="38"/>
       <c r="X67" s="38"/>
     </row>
-    <row r="68" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="68" spans="8:24" x14ac:dyDescent="0.25">
       <c r="H68" s="38"/>
       <c r="I68" s="38"/>
       <c r="J68" s="38"/>
@@ -14314,27 +14474,28 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
     <customPr name="_pios_id" r:id="rId1"/>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId2"/>
   </customProperties>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5616AB3-C7B1-4511-93B2-51A6298AD44C}">
-  <dimension ref="B5:Q30"/>
+  <dimension ref="B5:Q38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N43" sqref="N43"/>
+      <selection activeCell="C16" activeCellId="1" sqref="C14 C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.8984375" customWidth="1"/>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="10" max="10" width="17.09765625" customWidth="1"/>
-    <col min="14" max="14" width="16.69921875" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="10" max="10" width="17.109375" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>305</v>
       </c>
@@ -14360,13 +14521,13 @@
         <v>326</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>306</v>
       </c>
       <c r="C6">
         <f>COUNTIF(Stats!D:D,'Player Count'!B6)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
         <v>329</v>
@@ -14382,7 +14543,7 @@
         <f>COUNTIF(Stats!D:D,'Player Count'!J6)</f>
         <v>1</v>
       </c>
-      <c r="M6" s="112"/>
+      <c r="M6" s="111"/>
       <c r="N6" s="67" t="s">
         <v>379</v>
       </c>
@@ -14390,9 +14551,9 @@
         <f>COUNTIF(Stats!D:D,'Player Count'!N6)</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="112"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q6" s="111"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>307</v>
       </c>
@@ -14414,7 +14575,7 @@
         <f>COUNTIF(Stats!D:D,'Player Count'!J7)</f>
         <v>1</v>
       </c>
-      <c r="M7" s="112"/>
+      <c r="M7" s="111"/>
       <c r="N7" t="s">
         <v>380</v>
       </c>
@@ -14422,9 +14583,9 @@
         <f>COUNTIF(Stats!D:D,'Player Count'!N7)</f>
         <v>1</v>
       </c>
-      <c r="Q7" s="112"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q7" s="111"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>308</v>
       </c>
@@ -14437,7 +14598,7 @@
       </c>
       <c r="G8">
         <f>COUNTIF(Stats!D:D,'Player Count'!F8)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J8" t="s">
         <v>355</v>
@@ -14446,7 +14607,7 @@
         <f>COUNTIF(Stats!D:D,'Player Count'!J8)</f>
         <v>2</v>
       </c>
-      <c r="M8" s="112"/>
+      <c r="M8" s="111"/>
       <c r="N8" t="s">
         <v>381</v>
       </c>
@@ -14454,9 +14615,9 @@
         <f>COUNTIF(Stats!D:D,'Player Count'!N8)</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="112"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q8" s="111"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>309</v>
       </c>
@@ -14478,7 +14639,7 @@
         <f>COUNTIF(Stats!D:D,'Player Count'!J9)</f>
         <v>1</v>
       </c>
-      <c r="M9" s="112"/>
+      <c r="M9" s="111"/>
       <c r="N9" t="s">
         <v>382</v>
       </c>
@@ -14486,9 +14647,9 @@
         <f>COUNTIF(Stats!D:D,'Player Count'!N9)</f>
         <v>1</v>
       </c>
-      <c r="Q9" s="112"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q9" s="111"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>310</v>
       </c>
@@ -14510,7 +14671,7 @@
         <f>COUNTIF(Stats!D:D,'Player Count'!J10)</f>
         <v>0</v>
       </c>
-      <c r="M10" s="112"/>
+      <c r="M10" s="111"/>
       <c r="N10" t="s">
         <v>383</v>
       </c>
@@ -14518,9 +14679,9 @@
         <f>COUNTIF(Stats!D:D,'Player Count'!N10)</f>
         <v>1</v>
       </c>
-      <c r="Q10" s="112"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q10" s="111"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>311</v>
       </c>
@@ -14533,7 +14694,7 @@
       </c>
       <c r="G11">
         <f>COUNTIF(Stats!D:D,'Player Count'!F11)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J11" s="67" t="s">
         <v>374</v>
@@ -14542,7 +14703,7 @@
         <f>COUNTIF(Stats!D:D,'Player Count'!J11)</f>
         <v>0</v>
       </c>
-      <c r="M11" s="112"/>
+      <c r="M11" s="111"/>
       <c r="N11" s="67" t="s">
         <v>384</v>
       </c>
@@ -14550,9 +14711,9 @@
         <f>COUNTIF(Stats!D:D,'Player Count'!N11)</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="112"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q11" s="111"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>312</v>
       </c>
@@ -14572,9 +14733,9 @@
       </c>
       <c r="K12">
         <f>COUNTIF(Stats!D:D,'Player Count'!J12)</f>
-        <v>2</v>
-      </c>
-      <c r="M12" s="112"/>
+        <v>3</v>
+      </c>
+      <c r="M12" s="111"/>
       <c r="N12" s="67" t="s">
         <v>385</v>
       </c>
@@ -14582,15 +14743,15 @@
         <f>COUNTIF(Stats!D:D,'Player Count'!N12)</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="112"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q12" s="111"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>313</v>
       </c>
       <c r="C13">
         <f>COUNTIF(Stats!D:D,'Player Count'!B13)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F13" t="s">
         <v>336</v>
@@ -14606,7 +14767,7 @@
         <f>COUNTIF(Stats!D:D,'Player Count'!J13)</f>
         <v>1</v>
       </c>
-      <c r="M13" s="112"/>
+      <c r="M13" s="111"/>
       <c r="N13" t="s">
         <v>386</v>
       </c>
@@ -14614,9 +14775,9 @@
         <f>COUNTIF(Stats!D:D,'Player Count'!N13)</f>
         <v>3</v>
       </c>
-      <c r="Q13" s="112"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q13" s="111"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>314</v>
       </c>
@@ -14638,7 +14799,7 @@
         <f>COUNTIF(Stats!D:D,'Player Count'!J14)</f>
         <v>0</v>
       </c>
-      <c r="M14" s="112"/>
+      <c r="M14" s="111"/>
       <c r="N14" s="67" t="s">
         <v>387</v>
       </c>
@@ -14646,9 +14807,9 @@
         <f>COUNTIF(Stats!D:D,'Player Count'!N14)</f>
         <v>1</v>
       </c>
-      <c r="Q14" s="112"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q14" s="111"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>315</v>
       </c>
@@ -14670,7 +14831,7 @@
         <f>COUNTIF(Stats!D:D,'Player Count'!J15)</f>
         <v>1</v>
       </c>
-      <c r="M15" s="112"/>
+      <c r="M15" s="111"/>
       <c r="N15" s="67" t="s">
         <v>388</v>
       </c>
@@ -14678,9 +14839,9 @@
         <f>COUNTIF(Stats!D:D,'Player Count'!N15)</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="112"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q15" s="111"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>316</v>
       </c>
@@ -14702,17 +14863,17 @@
         <f>COUNTIF(Stats!D:D,'Player Count'!J16)</f>
         <v>1</v>
       </c>
-      <c r="M16" s="112"/>
+      <c r="M16" s="111"/>
       <c r="N16" s="67" t="s">
         <v>389</v>
       </c>
       <c r="O16">
         <f>COUNTIF(Stats!D:D,'Player Count'!N16)</f>
-        <v>1</v>
-      </c>
-      <c r="Q16" s="112"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="111"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>317</v>
       </c>
@@ -14732,9 +14893,9 @@
       </c>
       <c r="K17">
         <f>COUNTIF(Stats!D:D,'Player Count'!J17)</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="112"/>
+        <v>1</v>
+      </c>
+      <c r="M17" s="111"/>
       <c r="N17" s="67" t="s">
         <v>390</v>
       </c>
@@ -14742,9 +14903,9 @@
         <f>COUNTIF(Stats!D:D,'Player Count'!N17)</f>
         <v>1</v>
       </c>
-      <c r="Q17" s="112"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q17" s="111"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>318</v>
       </c>
@@ -14766,7 +14927,7 @@
         <f>COUNTIF(Stats!D:D,'Player Count'!J18)</f>
         <v>4</v>
       </c>
-      <c r="M18" s="112"/>
+      <c r="M18" s="111"/>
       <c r="N18" t="s">
         <v>391</v>
       </c>
@@ -14774,9 +14935,9 @@
         <f>COUNTIF(Stats!D:D,'Player Count'!N18)</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="112"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q18" s="111"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>319</v>
       </c>
@@ -14798,17 +14959,17 @@
         <f>COUNTIF(Stats!D:D,'Player Count'!J19)</f>
         <v>0</v>
       </c>
-      <c r="M19" s="112"/>
+      <c r="M19" s="111"/>
       <c r="N19" s="67" t="s">
         <v>401</v>
       </c>
       <c r="O19">
         <f>COUNTIF(Stats!D:D,'Player Count'!N19)</f>
-        <v>1</v>
-      </c>
-      <c r="Q19" s="112"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="111"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>320</v>
       </c>
@@ -14830,7 +14991,7 @@
         <f>COUNTIF(Stats!D:D,'Player Count'!J20)</f>
         <v>0</v>
       </c>
-      <c r="M20" s="112"/>
+      <c r="M20" s="111"/>
       <c r="N20" s="67" t="s">
         <v>392</v>
       </c>
@@ -14838,9 +14999,9 @@
         <f>COUNTIF(Stats!D:D,'Player Count'!N20)</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="112"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q20" s="111"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>321</v>
       </c>
@@ -14862,7 +15023,7 @@
         <f>COUNTIF(Stats!D:D,'Player Count'!J21)</f>
         <v>0</v>
       </c>
-      <c r="M21" s="112"/>
+      <c r="M21" s="111"/>
       <c r="N21" t="s">
         <v>393</v>
       </c>
@@ -14870,9 +15031,9 @@
         <f>COUNTIF(Stats!D:D,'Player Count'!N21)</f>
         <v>4</v>
       </c>
-      <c r="Q21" s="112"/>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q21" s="111"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>322</v>
       </c>
@@ -14894,7 +15055,7 @@
         <f>COUNTIF(Stats!D:D,'Player Count'!J22)</f>
         <v>0</v>
       </c>
-      <c r="M22" s="112"/>
+      <c r="M22" s="111"/>
       <c r="N22" s="67" t="s">
         <v>394</v>
       </c>
@@ -14902,9 +15063,9 @@
         <f>COUNTIF(Stats!D:D,'Player Count'!N22)</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="112"/>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q22" s="111"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>323</v>
       </c>
@@ -14926,7 +15087,7 @@
         <f>COUNTIF(Stats!D:D,'Player Count'!J23)</f>
         <v>1</v>
       </c>
-      <c r="M23" s="112"/>
+      <c r="M23" s="111"/>
       <c r="N23" t="s">
         <v>395</v>
       </c>
@@ -14934,9 +15095,9 @@
         <f>COUNTIF(Stats!D:D,'Player Count'!N23)</f>
         <v>1</v>
       </c>
-      <c r="Q23" s="112"/>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q23" s="111"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>324</v>
       </c>
@@ -14958,7 +15119,7 @@
         <f>COUNTIF(Stats!D:D,'Player Count'!J24)</f>
         <v>1</v>
       </c>
-      <c r="M24" s="112"/>
+      <c r="M24" s="111"/>
       <c r="N24" s="67" t="s">
         <v>396</v>
       </c>
@@ -14966,9 +15127,9 @@
         <f>COUNTIF(Stats!D:D,'Player Count'!N24)</f>
         <v>2</v>
       </c>
-      <c r="Q24" s="112"/>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q24" s="111"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>325</v>
       </c>
@@ -14990,7 +15151,7 @@
         <f>COUNTIF(Stats!D:D,'Player Count'!J25)</f>
         <v>1</v>
       </c>
-      <c r="M25" s="112"/>
+      <c r="M25" s="111"/>
       <c r="N25" s="67" t="s">
         <v>397</v>
       </c>
@@ -14998,9 +15159,9 @@
         <f>COUNTIF(Stats!D:D,'Player Count'!N25)</f>
         <v>2</v>
       </c>
-      <c r="Q25" s="112"/>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q25" s="111"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="78" t="s">
         <v>327</v>
       </c>
@@ -15020,9 +15181,9 @@
       </c>
       <c r="K26">
         <f>COUNTIF(Stats!D:D,'Player Count'!J26)</f>
-        <v>1</v>
-      </c>
-      <c r="M26" s="112"/>
+        <v>2</v>
+      </c>
+      <c r="M26" s="111"/>
       <c r="N26" s="67" t="s">
         <v>398</v>
       </c>
@@ -15030,15 +15191,15 @@
         <f>COUNTIF(Stats!D:D,'Player Count'!N26)</f>
         <v>0</v>
       </c>
-      <c r="Q26" s="112"/>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q26" s="111"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
         <v>350</v>
       </c>
       <c r="G27">
         <f>COUNTIF(Stats!D:D,'Player Count'!F27)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J27" s="67" t="s">
         <v>376</v>
@@ -15047,7 +15208,7 @@
         <f>COUNTIF(Stats!D:D,'Player Count'!J27)</f>
         <v>3</v>
       </c>
-      <c r="M27" s="112"/>
+      <c r="M27" s="111"/>
       <c r="N27" s="67" t="s">
         <v>399</v>
       </c>
@@ -15055,9 +15216,9 @@
         <f>COUNTIF(Stats!D:D,'Player Count'!N27)</f>
         <v>2</v>
       </c>
-      <c r="Q27" s="112"/>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q27" s="111"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
         <v>351</v>
       </c>
@@ -15072,7 +15233,7 @@
         <f>COUNTIF(Stats!D:D,'Player Count'!J28)</f>
         <v>1</v>
       </c>
-      <c r="M28" s="112"/>
+      <c r="M28" s="111"/>
       <c r="N28" s="67" t="s">
         <v>402</v>
       </c>
@@ -15080,9 +15241,9 @@
         <f>COUNTIF(Stats!D:D,'Player Count'!N28)</f>
         <v>0</v>
       </c>
-      <c r="Q28" s="112"/>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q28" s="111"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="F29" t="s">
         <v>352</v>
       </c>
@@ -15105,31 +15266,52 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="F30" s="78" t="s">
         <v>327</v>
       </c>
       <c r="G30" s="78">
         <f>SUM(G6:G29)</f>
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J30" s="78" t="s">
         <v>327</v>
       </c>
       <c r="K30" s="78">
         <f>SUM(K6:K29)</f>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N30" s="78" t="s">
         <v>327</v>
       </c>
       <c r="O30" s="78">
         <f>SUM(O6:O29)</f>
-        <v>22</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <f>C26/160</f>
+        <v>0.4375</v>
+      </c>
+      <c r="G38">
+        <f>G30/160</f>
+        <v>0.25624999999999998</v>
+      </c>
+      <c r="K38">
+        <f>K30/160</f>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="O38">
+        <f>O30/160</f>
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId1"/>
+  </customProperties>
 </worksheet>
 </file>
 

--- a/data/DreamLeague25-26.xlsx
+++ b/data/DreamLeague25-26.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kelloggcompany-my.sharepoint.com/personal/bryn_coombe_kellogg_com/Documents/Desktop/Dream League/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/462a734c48854128/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A9E1B00-ACAB-4913-9E1F-5C3FFC5B968C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="110" documentId="8_{7D36DF2E-EA78-4237-9818-EA41DFB80887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEFCB13D-2CD9-499A-9EB1-E4ACAC625D89}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13900" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="433">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -929,9 +929,6 @@
     <t>XAVI SIMMONS</t>
   </si>
   <si>
-    <t>RB LEIPZIG</t>
-  </si>
-  <si>
     <t>JOHN SWIFT</t>
   </si>
   <si>
@@ -1290,13 +1287,64 @@
   </si>
   <si>
     <t>CARLTON MORRIS</t>
+  </si>
+  <si>
+    <t>ILLIMAN NDIAYE</t>
+  </si>
+  <si>
+    <t>NICK WOLTEMADE</t>
+  </si>
+  <si>
+    <t>JACK RUDONI</t>
+  </si>
+  <si>
+    <t>OMARI PATRICK</t>
+  </si>
+  <si>
+    <t>TRANMERE</t>
+  </si>
+  <si>
+    <t>WOODEN SPOON ARMY</t>
+  </si>
+  <si>
+    <t>KINGS XI</t>
+  </si>
+  <si>
+    <t>DYNAMO DURHAM</t>
+  </si>
+  <si>
+    <t>MUNTERS UTD</t>
+  </si>
+  <si>
+    <t>SURREAL MADRID</t>
+  </si>
+  <si>
+    <t>CRÈME D'ADVOCAAT</t>
+  </si>
+  <si>
+    <t>#holyf**k</t>
+  </si>
+  <si>
+    <t>GLENS</t>
+  </si>
+  <si>
+    <t>ROBS ROVERS</t>
+  </si>
+  <si>
+    <t>NEWQUAY HORNETS</t>
+  </si>
+  <si>
+    <t>PHOENIX FLYERS</t>
+  </si>
+  <si>
+    <t>% Players</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1336,6 +1384,11 @@
       <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1697,10 +1750,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2004,9 +2058,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -3180,7 +3236,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
@@ -3194,34 +3250,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IX404"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C264" sqref="C264"/>
+    <sheetView showGridLines="0" topLeftCell="A330" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5:N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="77" customWidth="1"/>
+    <col min="1" max="1" width="1.296875" style="77" customWidth="1"/>
     <col min="2" max="2" width="16" style="77" customWidth="1"/>
-    <col min="3" max="3" width="39.33203125" style="77" customWidth="1"/>
-    <col min="4" max="4" width="32.77734375" style="77" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="77" customWidth="1"/>
+    <col min="3" max="3" width="39.296875" style="77" customWidth="1"/>
+    <col min="4" max="4" width="32.796875" style="77" customWidth="1"/>
+    <col min="5" max="5" width="11.796875" style="77" customWidth="1"/>
     <col min="6" max="6" width="17" style="77" customWidth="1"/>
-    <col min="7" max="8" width="11.33203125" style="77" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" style="77" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" style="77" customWidth="1"/>
-    <col min="11" max="11" width="25.6640625" style="77" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.33203125" style="77" customWidth="1"/>
+    <col min="7" max="8" width="11.296875" style="77" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.69921875" style="77" customWidth="1"/>
+    <col min="10" max="10" width="7.09765625" style="77" customWidth="1"/>
+    <col min="11" max="11" width="25.69921875" style="77" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.296875" style="77" customWidth="1"/>
     <col min="13" max="14" width="12" style="77" customWidth="1"/>
-    <col min="15" max="15" width="10.33203125" style="77" customWidth="1"/>
+    <col min="15" max="15" width="10.296875" style="77" customWidth="1"/>
     <col min="16" max="17" width="9" style="77" customWidth="1"/>
-    <col min="18" max="18" width="32.33203125" style="77" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="32.296875" style="77" bestFit="1" customWidth="1"/>
     <col min="19" max="21" width="9" style="77" customWidth="1"/>
-    <col min="22" max="22" width="30.109375" style="77" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.09765625" style="77" bestFit="1" customWidth="1"/>
     <col min="23" max="258" width="9" style="77" customWidth="1"/>
     <col min="259" max="16384" width="9" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3240,7 +3296,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="3" t="s">
@@ -3261,7 +3317,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -3278,7 +3334,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="79"/>
       <c r="B4" s="6" t="s">
         <v>3</v>
@@ -3320,7 +3376,7 @@
       <c r="U4" s="116"/>
       <c r="V4" s="116"/>
     </row>
-    <row r="5" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="79"/>
       <c r="B5" s="12" t="s">
         <v>13</v>
@@ -3333,7 +3389,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="83"/>
       <c r="H5" s="84"/>
@@ -3353,17 +3409,17 @@
       </c>
       <c r="N5" s="19">
         <f>SUM(F8:F25)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O5" s="20">
         <f>SUM(F5:F7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" s="102"/>
       <c r="T5" s="101"/>
       <c r="U5" s="102"/>
     </row>
-    <row r="6" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="79"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -3384,11 +3440,11 @@
       </c>
       <c r="M6" s="25">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N6" s="26">
         <f>SUM(F35:F52)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O6" s="27">
         <f>SUM(F32:F34)</f>
@@ -3398,7 +3454,7 @@
       <c r="T6" s="101"/>
       <c r="U6" s="102"/>
     </row>
-    <row r="7" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="79"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -3419,21 +3475,21 @@
       </c>
       <c r="M7" s="25">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N7" s="26">
         <f>SUM(F62:F79)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="O7" s="27">
         <f>SUM(F59:F61)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S7" s="102"/>
       <c r="T7" s="101"/>
       <c r="U7" s="102"/>
     </row>
-    <row r="8" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="79"/>
       <c r="B8" s="28" t="s">
         <v>14</v>
@@ -3463,7 +3519,7 @@
       </c>
       <c r="M8" s="25">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N8" s="26">
         <f>SUM(F89:F106)</f>
@@ -3471,10 +3527,10 @@
       </c>
       <c r="O8" s="27">
         <f>SUM(F86:F88)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="79"/>
       <c r="B9" s="28" t="s">
         <v>14</v>
@@ -3505,18 +3561,18 @@
       </c>
       <c r="M9" s="25">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N9" s="73">
         <f>SUM(F116:F133)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="O9" s="74">
         <f>SUM(F113:F115)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="79"/>
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
@@ -3537,15 +3593,15 @@
       </c>
       <c r="M10" s="25">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N10" s="26">
         <f>SUM(F143:F160)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O10" s="27">
         <f>SUM(F140:F142)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R10" s="116"/>
       <c r="S10" s="116"/>
@@ -3553,7 +3609,7 @@
       <c r="U10" s="116"/>
       <c r="V10" s="116"/>
     </row>
-    <row r="11" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="79"/>
       <c r="B11" s="28" t="s">
         <v>16</v>
@@ -3584,21 +3640,21 @@
       </c>
       <c r="M11" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="26">
         <f>SUM(F170:F187)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O11" s="27">
         <f>SUM(F167:F169)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S11" s="102"/>
       <c r="T11" s="101"/>
       <c r="U11" s="102"/>
     </row>
-    <row r="12" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="79"/>
       <c r="B12" s="28" t="s">
         <v>16</v>
@@ -3629,18 +3685,18 @@
       </c>
       <c r="M12" s="25">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="N12" s="73">
         <f>SUM(F197:F214)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O12" s="74">
         <f>SUM(F194:F196)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="79"/>
       <c r="B13" s="28" t="s">
         <v>16</v>
@@ -3671,11 +3727,11 @@
       </c>
       <c r="M13" s="25">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N13" s="73">
         <f>SUM(F224:F241)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O13" s="74">
         <f>SUM(F221:F223)</f>
@@ -3687,7 +3743,7 @@
       <c r="U13" s="116"/>
       <c r="V13" s="116"/>
     </row>
-    <row r="14" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="79"/>
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
@@ -3712,17 +3768,17 @@
       </c>
       <c r="N14" s="73">
         <f>SUM(F251:F268)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O14" s="74">
         <f>SUM(F248:F250)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S14" s="102"/>
       <c r="T14" s="101"/>
       <c r="U14" s="102"/>
     </row>
-    <row r="15" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="79"/>
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
@@ -3743,18 +3799,18 @@
       </c>
       <c r="M15" s="25">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="N15" s="26">
         <f>SUM(F277:F295)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O15" s="27">
         <f>SUM(F275:F276)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="79"/>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
@@ -3775,36 +3831,40 @@
       </c>
       <c r="M16" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N16" s="26">
         <f>SUM(F305:F322)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O16" s="27">
         <f>SUM(F302:F304)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="79"/>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="108" t="s">
         <v>173</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="108" t="s">
         <v>91</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="109">
         <v>14</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="110">
         <v>0</v>
       </c>
-      <c r="G17" s="87"/>
-      <c r="H17" s="84"/>
+      <c r="G17" s="87" t="s">
+        <v>293</v>
+      </c>
+      <c r="H17" s="84">
+        <v>45897</v>
+      </c>
       <c r="I17" s="99"/>
       <c r="J17" s="82"/>
       <c r="K17" s="31" t="str">
@@ -3817,7 +3877,7 @@
       </c>
       <c r="M17" s="25">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N17" s="26">
         <f>SUM(F332:F349)</f>
@@ -3825,7 +3885,7 @@
       </c>
       <c r="O17" s="27">
         <f>SUM(F329:F331)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R17" s="116"/>
       <c r="S17" s="116"/>
@@ -3833,24 +3893,26 @@
       <c r="U17" s="116"/>
       <c r="V17" s="116"/>
     </row>
-    <row r="18" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="79"/>
       <c r="B18" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>126</v>
+        <v>419</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="E18" s="29">
-        <v>15</v>
+        <v>420</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>292</v>
       </c>
       <c r="F18" s="30">
-        <v>3</v>
-      </c>
-      <c r="G18" s="84"/>
+        <v>1</v>
+      </c>
+      <c r="G18" s="84">
+        <v>45897</v>
+      </c>
       <c r="H18" s="84"/>
       <c r="I18" s="99"/>
       <c r="J18" s="82"/>
@@ -3864,7 +3926,7 @@
       </c>
       <c r="M18" s="25">
         <f>N18-O18</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" s="26">
         <f>SUM(F359:F376)</f>
@@ -3872,35 +3934,31 @@
       </c>
       <c r="O18" s="27">
         <f>SUM(F356:F358)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S18" s="102"/>
       <c r="T18" s="101"/>
       <c r="U18" s="102"/>
     </row>
-    <row r="19" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="79"/>
-      <c r="B19" s="108" t="s">
+      <c r="B19" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="108" t="s">
-        <v>190</v>
-      </c>
-      <c r="D19" s="108" t="s">
-        <v>86</v>
-      </c>
-      <c r="E19" s="109">
-        <v>17</v>
-      </c>
-      <c r="F19" s="110">
-        <v>0</v>
-      </c>
-      <c r="G19" s="83" t="s">
-        <v>293</v>
-      </c>
-      <c r="H19" s="84">
-        <v>45883</v>
-      </c>
+      <c r="C19" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" s="29">
+        <v>15</v>
+      </c>
+      <c r="F19" s="30">
+        <v>3</v>
+      </c>
+      <c r="G19" s="84"/>
+      <c r="H19" s="84"/>
       <c r="I19" s="99"/>
       <c r="J19" s="76"/>
       <c r="K19" s="33"/>
@@ -3909,27 +3967,29 @@
       <c r="N19" s="88"/>
       <c r="O19" s="88"/>
     </row>
-    <row r="20" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="79"/>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>301</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>292</v>
-      </c>
-      <c r="F20" s="30">
+      <c r="C20" s="108" t="s">
+        <v>190</v>
+      </c>
+      <c r="D20" s="108" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="109">
+        <v>17</v>
+      </c>
+      <c r="F20" s="110">
         <v>0</v>
       </c>
-      <c r="G20" s="87">
+      <c r="G20" s="83" t="s">
+        <v>293</v>
+      </c>
+      <c r="H20" s="84">
         <v>45883</v>
       </c>
-      <c r="H20" s="84"/>
       <c r="I20" s="99"/>
       <c r="J20" s="76"/>
       <c r="K20" s="1"/>
@@ -3943,24 +4003,26 @@
       <c r="U20" s="116"/>
       <c r="V20" s="116"/>
     </row>
-    <row r="21" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="79"/>
       <c r="B21" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>191</v>
+        <v>299</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="E21" s="29">
-        <v>8</v>
+        <v>300</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>292</v>
       </c>
       <c r="F21" s="30">
-        <v>3</v>
-      </c>
-      <c r="G21" s="87"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="87">
+        <v>45883</v>
+      </c>
       <c r="H21" s="84"/>
       <c r="I21" s="99"/>
       <c r="J21" s="76"/>
@@ -3973,22 +4035,22 @@
       <c r="T21" s="101"/>
       <c r="U21" s="102"/>
     </row>
-    <row r="22" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="79"/>
       <c r="B22" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="E22" s="29">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F22" s="30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G22" s="87"/>
       <c r="H22" s="84"/>
@@ -4000,13 +4062,23 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="79"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="30"/>
+      <c r="B23" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="29">
+        <v>1</v>
+      </c>
+      <c r="F23" s="30">
+        <v>1</v>
+      </c>
       <c r="G23" s="87"/>
       <c r="H23" s="84"/>
       <c r="I23" s="89"/>
@@ -4017,7 +4089,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="79"/>
       <c r="B24" s="28"/>
       <c r="C24" s="28"/>
@@ -4039,7 +4111,7 @@
       <c r="U24" s="116"/>
       <c r="V24" s="116"/>
     </row>
-    <row r="25" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="79"/>
       <c r="B25" s="28"/>
       <c r="C25" s="28"/>
@@ -4059,7 +4131,7 @@
       <c r="T25" s="101"/>
       <c r="U25" s="102"/>
     </row>
-    <row r="26" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="33"/>
       <c r="C26" s="33"/>
@@ -4082,7 +4154,7 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -4099,7 +4171,7 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -4121,7 +4193,7 @@
       <c r="U28" s="116"/>
       <c r="V28" s="116"/>
     </row>
-    <row r="29" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="3" t="s">
@@ -4142,7 +4214,7 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -4159,7 +4231,7 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="79"/>
       <c r="B31" s="6" t="s">
         <v>3</v>
@@ -4186,7 +4258,7 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="79"/>
       <c r="B32" s="12" t="s">
         <v>13</v>
@@ -4211,7 +4283,7 @@
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="79"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -4228,7 +4300,7 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="79"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
@@ -4245,7 +4317,7 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="79"/>
       <c r="B35" s="28" t="s">
         <v>14</v>
@@ -4272,7 +4344,7 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="79"/>
       <c r="B36" s="28" t="s">
         <v>14</v>
@@ -4299,7 +4371,7 @@
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="79"/>
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
@@ -4316,7 +4388,7 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="79"/>
       <c r="B38" s="28" t="s">
         <v>16</v>
@@ -4348,7 +4420,7 @@
       <c r="U38" s="116"/>
       <c r="V38" s="116"/>
     </row>
-    <row r="39" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="79"/>
       <c r="B39" s="28" t="s">
         <v>16</v>
@@ -4363,7 +4435,7 @@
         <v>12</v>
       </c>
       <c r="F39" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" s="87"/>
       <c r="H39" s="91"/>
@@ -4375,7 +4447,7 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="79"/>
       <c r="B40" s="28" t="s">
         <v>16</v>
@@ -4390,7 +4462,7 @@
         <v>1</v>
       </c>
       <c r="F40" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G40" s="87"/>
       <c r="H40" s="91"/>
@@ -4402,7 +4474,7 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="79"/>
       <c r="B41" s="28"/>
       <c r="C41" s="28"/>
@@ -4419,7 +4491,7 @@
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="79"/>
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
@@ -4436,7 +4508,7 @@
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
     </row>
-    <row r="43" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="79"/>
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
@@ -4453,7 +4525,7 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="79"/>
       <c r="B44" s="108" t="s">
         <v>17</v>
@@ -4484,7 +4556,7 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
     </row>
-    <row r="45" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="79"/>
       <c r="B45" s="28" t="s">
         <v>17</v>
@@ -4513,7 +4585,7 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="79"/>
       <c r="B46" s="28" t="s">
         <v>17</v>
@@ -4540,7 +4612,7 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="79"/>
       <c r="B47" s="28" t="s">
         <v>17</v>
@@ -4567,7 +4639,7 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="79"/>
       <c r="B48" s="28" t="s">
         <v>17</v>
@@ -4594,7 +4666,7 @@
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="79"/>
       <c r="B49" s="28" t="s">
         <v>17</v>
@@ -4621,7 +4693,7 @@
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
     </row>
-    <row r="50" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="79"/>
       <c r="B50" s="28"/>
       <c r="C50" s="28"/>
@@ -4638,7 +4710,7 @@
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
     </row>
-    <row r="51" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="79"/>
       <c r="B51" s="28"/>
       <c r="C51" s="28"/>
@@ -4655,7 +4727,7 @@
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
     </row>
-    <row r="52" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="79"/>
       <c r="B52" s="28"/>
       <c r="C52" s="28"/>
@@ -4672,7 +4744,7 @@
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
     </row>
-    <row r="53" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="33"/>
       <c r="C53" s="33"/>
@@ -4683,7 +4755,7 @@
       </c>
       <c r="F53" s="36">
         <f>SUM(F35:F52)-SUM(F32:F34)</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G53" s="80"/>
       <c r="H53" s="92"/>
@@ -4695,7 +4767,7 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -4712,7 +4784,7 @@
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
     </row>
-    <row r="55" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -4729,7 +4801,7 @@
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
     </row>
-    <row r="56" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="3" t="s">
@@ -4750,7 +4822,7 @@
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
     </row>
-    <row r="57" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -4767,7 +4839,7 @@
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
     </row>
-    <row r="58" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="79"/>
       <c r="B58" s="6" t="s">
         <v>3</v>
@@ -4794,7 +4866,7 @@
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
     </row>
-    <row r="59" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="79"/>
       <c r="B59" s="12" t="s">
         <v>13</v>
@@ -4807,7 +4879,7 @@
         <v>4</v>
       </c>
       <c r="F59" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G59" s="80"/>
       <c r="H59" s="92"/>
@@ -4819,7 +4891,7 @@
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
     </row>
-    <row r="60" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="79"/>
       <c r="B60" s="21"/>
       <c r="C60" s="21"/>
@@ -4836,7 +4908,7 @@
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
     </row>
-    <row r="61" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="79"/>
       <c r="B61" s="21"/>
       <c r="C61" s="21"/>
@@ -4853,7 +4925,7 @@
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
     </row>
-    <row r="62" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="79"/>
       <c r="B62" s="28" t="s">
         <v>14</v>
@@ -4880,7 +4952,7 @@
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
     </row>
-    <row r="63" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="79"/>
       <c r="B63" s="28" t="s">
         <v>14</v>
@@ -4907,7 +4979,7 @@
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
     </row>
-    <row r="64" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="79"/>
       <c r="B64" s="28"/>
       <c r="C64" s="28"/>
@@ -4924,7 +4996,7 @@
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
     </row>
-    <row r="65" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="79"/>
       <c r="B65" s="28" t="s">
         <v>16</v>
@@ -4939,7 +5011,7 @@
         <v>30</v>
       </c>
       <c r="F65" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" s="83"/>
       <c r="H65" s="90"/>
@@ -4951,7 +5023,7 @@
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
     </row>
-    <row r="66" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="79"/>
       <c r="B66" s="28" t="s">
         <v>16</v>
@@ -4978,25 +5050,29 @@
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
     </row>
-    <row r="67" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="79"/>
-      <c r="B67" s="28" t="s">
+      <c r="B67" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="C67" s="28" t="s">
+      <c r="C67" s="108" t="s">
         <v>176</v>
       </c>
-      <c r="D67" s="28" t="s">
+      <c r="D67" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="E67" s="29">
+      <c r="E67" s="109">
         <v>29</v>
       </c>
-      <c r="F67" s="30">
+      <c r="F67" s="110">
         <v>0</v>
       </c>
-      <c r="G67" s="87"/>
-      <c r="H67" s="91"/>
+      <c r="G67" s="87" t="s">
+        <v>293</v>
+      </c>
+      <c r="H67" s="91">
+        <v>45904</v>
+      </c>
       <c r="I67" s="90"/>
       <c r="J67" s="76"/>
       <c r="K67" s="1"/>
@@ -5005,14 +5081,26 @@
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
     </row>
-    <row r="68" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="79"/>
-      <c r="B68" s="28"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="29"/>
-      <c r="F68" s="30"/>
-      <c r="G68" s="91"/>
+      <c r="B68" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" s="28" t="s">
+        <v>417</v>
+      </c>
+      <c r="D68" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E68" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="F68" s="30">
+        <v>0</v>
+      </c>
+      <c r="G68" s="91">
+        <v>45904</v>
+      </c>
       <c r="H68" s="91"/>
       <c r="I68" s="90"/>
       <c r="J68" s="76"/>
@@ -5022,7 +5110,7 @@
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
     </row>
-    <row r="69" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="79"/>
       <c r="B69" s="28"/>
       <c r="C69" s="28"/>
@@ -5039,7 +5127,7 @@
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
     </row>
-    <row r="70" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="79"/>
       <c r="B70" s="28"/>
       <c r="C70" s="28"/>
@@ -5056,7 +5144,7 @@
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
     </row>
-    <row r="71" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="79"/>
       <c r="B71" s="28" t="s">
         <v>17</v>
@@ -5071,7 +5159,7 @@
         <v>5</v>
       </c>
       <c r="F71" s="30">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G71" s="87"/>
       <c r="H71" s="91"/>
@@ -5083,7 +5171,7 @@
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
     </row>
-    <row r="72" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="79"/>
       <c r="B72" s="108" t="s">
         <v>17</v>
@@ -5114,13 +5202,13 @@
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
     </row>
-    <row r="73" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="79"/>
       <c r="B73" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C73" s="28" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D73" s="28" t="s">
         <v>88</v>
@@ -5143,7 +5231,7 @@
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
     </row>
-    <row r="74" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="79"/>
       <c r="B74" s="28" t="s">
         <v>17</v>
@@ -5158,7 +5246,7 @@
         <v>7</v>
       </c>
       <c r="F74" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74" s="87"/>
       <c r="H74" s="91"/>
@@ -5170,7 +5258,7 @@
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
     </row>
-    <row r="75" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="79"/>
       <c r="B75" s="108" t="s">
         <v>17</v>
@@ -5201,16 +5289,16 @@
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
     </row>
-    <row r="76" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="79"/>
       <c r="B76" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C76" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="D76" s="28" t="s">
         <v>302</v>
-      </c>
-      <c r="D76" s="28" t="s">
-        <v>303</v>
       </c>
       <c r="E76" s="29" t="s">
         <v>292</v>
@@ -5230,7 +5318,7 @@
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
     </row>
-    <row r="77" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="79"/>
       <c r="B77" s="28" t="s">
         <v>17</v>
@@ -5257,7 +5345,7 @@
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
     </row>
-    <row r="78" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="79"/>
       <c r="B78" s="28"/>
       <c r="C78" s="28"/>
@@ -5274,7 +5362,7 @@
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
     </row>
-    <row r="79" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="79"/>
       <c r="B79" s="28"/>
       <c r="C79" s="28"/>
@@ -5291,7 +5379,7 @@
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
     </row>
-    <row r="80" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
       <c r="B80" s="33"/>
       <c r="C80" s="33"/>
@@ -5302,7 +5390,7 @@
       </c>
       <c r="F80" s="36">
         <f>SUM(F62:F79)-SUM(F59:F61)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G80" s="80"/>
       <c r="H80" s="92"/>
@@ -5314,7 +5402,7 @@
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
     </row>
-    <row r="81" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -5331,7 +5419,7 @@
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
     </row>
-    <row r="82" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -5348,7 +5436,7 @@
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
     </row>
-    <row r="83" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="3" t="s">
@@ -5369,7 +5457,7 @@
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
     </row>
-    <row r="84" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -5386,7 +5474,7 @@
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
     </row>
-    <row r="85" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="79"/>
       <c r="B85" s="6" t="s">
         <v>3</v>
@@ -5413,7 +5501,7 @@
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
     </row>
-    <row r="86" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="79"/>
       <c r="B86" s="12" t="s">
         <v>13</v>
@@ -5426,7 +5514,7 @@
         <v>8</v>
       </c>
       <c r="F86" s="15">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G86" s="80"/>
       <c r="H86" s="94"/>
@@ -5438,7 +5526,7 @@
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
     </row>
-    <row r="87" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="79"/>
       <c r="B87" s="21"/>
       <c r="C87" s="21"/>
@@ -5455,7 +5543,7 @@
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
     </row>
-    <row r="88" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="79"/>
       <c r="B88" s="21"/>
       <c r="C88" s="21"/>
@@ -5472,7 +5560,7 @@
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
     </row>
-    <row r="89" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="79"/>
       <c r="B89" s="28" t="s">
         <v>14</v>
@@ -5499,7 +5587,7 @@
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
     </row>
-    <row r="90" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="79"/>
       <c r="B90" s="28" t="s">
         <v>14</v>
@@ -5526,7 +5614,7 @@
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
     </row>
-    <row r="91" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="79"/>
       <c r="B91" s="28"/>
       <c r="C91" s="28"/>
@@ -5543,7 +5631,7 @@
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
     </row>
-    <row r="92" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="79"/>
       <c r="B92" s="28" t="s">
         <v>16</v>
@@ -5570,7 +5658,7 @@
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
     </row>
-    <row r="93" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="79"/>
       <c r="B93" s="108" t="s">
         <v>16</v>
@@ -5601,7 +5689,7 @@
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
     </row>
-    <row r="94" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="79"/>
       <c r="B94" s="28" t="s">
         <v>16</v>
@@ -5610,7 +5698,7 @@
         <v>295</v>
       </c>
       <c r="D94" s="28" t="s">
-        <v>296</v>
+        <v>24</v>
       </c>
       <c r="E94" s="29" t="s">
         <v>292</v>
@@ -5630,7 +5718,7 @@
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
     </row>
-    <row r="95" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="79"/>
       <c r="B95" s="28" t="s">
         <v>16</v>
@@ -5657,7 +5745,7 @@
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
     </row>
-    <row r="96" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="79"/>
       <c r="B96" s="28"/>
       <c r="C96" s="28"/>
@@ -5674,7 +5762,7 @@
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
     </row>
-    <row r="97" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="79"/>
       <c r="B97" s="28"/>
       <c r="C97" s="28"/>
@@ -5691,7 +5779,7 @@
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
     </row>
-    <row r="98" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="79"/>
       <c r="B98" s="28" t="s">
         <v>17</v>
@@ -5718,7 +5806,7 @@
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
     </row>
-    <row r="99" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="79"/>
       <c r="B99" s="28" t="s">
         <v>17</v>
@@ -5745,7 +5833,7 @@
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
     </row>
-    <row r="100" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="79"/>
       <c r="B100" s="28" t="s">
         <v>17</v>
@@ -5772,7 +5860,7 @@
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
     </row>
-    <row r="101" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="79"/>
       <c r="B101" s="28" t="s">
         <v>17</v>
@@ -5799,7 +5887,7 @@
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
     </row>
-    <row r="102" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="79"/>
       <c r="B102" s="28" t="s">
         <v>17</v>
@@ -5826,7 +5914,7 @@
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
     </row>
-    <row r="103" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="79"/>
       <c r="B103" s="28"/>
       <c r="C103" s="28"/>
@@ -5843,7 +5931,7 @@
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
     </row>
-    <row r="104" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="79"/>
       <c r="B104" s="28"/>
       <c r="C104" s="28"/>
@@ -5860,7 +5948,7 @@
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
     </row>
-    <row r="105" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="79"/>
       <c r="B105" s="28"/>
       <c r="C105" s="28"/>
@@ -5877,7 +5965,7 @@
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
     </row>
-    <row r="106" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="79"/>
       <c r="B106" s="28"/>
       <c r="C106" s="28"/>
@@ -5894,7 +5982,7 @@
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
     </row>
-    <row r="107" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1"/>
       <c r="B107" s="33"/>
       <c r="C107" s="33"/>
@@ -5905,7 +5993,7 @@
       </c>
       <c r="F107" s="36">
         <f>SUM(F89:F106)-SUM(F86:F88)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G107" s="80"/>
       <c r="H107" s="92"/>
@@ -5917,7 +6005,7 @@
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
     </row>
-    <row r="108" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -5934,7 +6022,7 @@
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
     </row>
-    <row r="109" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -5951,7 +6039,7 @@
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
     </row>
-    <row r="110" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="3" t="s">
@@ -5972,7 +6060,7 @@
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
     </row>
-    <row r="111" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -5989,7 +6077,7 @@
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
     </row>
-    <row r="112" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="79"/>
       <c r="B112" s="6" t="s">
         <v>3</v>
@@ -6016,7 +6104,7 @@
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
     </row>
-    <row r="113" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="79"/>
       <c r="B113" s="12" t="s">
         <v>13</v>
@@ -6029,7 +6117,7 @@
         <v>1</v>
       </c>
       <c r="F113" s="15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G113" s="80"/>
       <c r="H113" s="94"/>
@@ -6041,7 +6129,7 @@
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
     </row>
-    <row r="114" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="79"/>
       <c r="B114" s="21"/>
       <c r="C114" s="21"/>
@@ -6058,7 +6146,7 @@
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
     </row>
-    <row r="115" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="79"/>
       <c r="B115" s="21"/>
       <c r="C115" s="21"/>
@@ -6075,7 +6163,7 @@
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
     </row>
-    <row r="116" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="79"/>
       <c r="B116" s="28" t="s">
         <v>14</v>
@@ -6102,7 +6190,7 @@
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
     </row>
-    <row r="117" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="79"/>
       <c r="B117" s="28" t="s">
         <v>14</v>
@@ -6129,7 +6217,7 @@
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
     </row>
-    <row r="118" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="79"/>
       <c r="B118" s="28"/>
       <c r="C118" s="28"/>
@@ -6146,7 +6234,7 @@
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
     </row>
-    <row r="119" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="79"/>
       <c r="B119" s="28" t="s">
         <v>16</v>
@@ -6161,7 +6249,7 @@
         <v>19</v>
       </c>
       <c r="F119" s="30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G119" s="87"/>
       <c r="H119" s="91"/>
@@ -6173,7 +6261,7 @@
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
     </row>
-    <row r="120" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="79"/>
       <c r="B120" s="28" t="s">
         <v>16</v>
@@ -6200,7 +6288,7 @@
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
     </row>
-    <row r="121" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="79"/>
       <c r="B121" s="28" t="s">
         <v>16</v>
@@ -6227,7 +6315,7 @@
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
     </row>
-    <row r="122" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="79"/>
       <c r="B122" s="28"/>
       <c r="C122" s="28"/>
@@ -6244,7 +6332,7 @@
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
     </row>
-    <row r="123" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="79"/>
       <c r="B123" s="28"/>
       <c r="C123" s="28"/>
@@ -6261,7 +6349,7 @@
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
     </row>
-    <row r="124" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="79"/>
       <c r="B124" s="28"/>
       <c r="C124" s="28"/>
@@ -6278,7 +6366,7 @@
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
     </row>
-    <row r="125" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="79"/>
       <c r="B125" s="28" t="s">
         <v>17</v>
@@ -6305,7 +6393,7 @@
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
     </row>
-    <row r="126" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="79"/>
       <c r="B126" s="108" t="s">
         <v>17</v>
@@ -6336,16 +6424,16 @@
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
     </row>
-    <row r="127" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="79"/>
       <c r="B127" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C127" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="D127" s="28" t="s">
         <v>413</v>
-      </c>
-      <c r="D127" s="28" t="s">
-        <v>414</v>
       </c>
       <c r="E127" s="29" t="s">
         <v>292</v>
@@ -6365,7 +6453,7 @@
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
     </row>
-    <row r="128" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="79"/>
       <c r="B128" s="108" t="s">
         <v>17</v>
@@ -6396,13 +6484,13 @@
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
     </row>
-    <row r="129" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="79"/>
       <c r="B129" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C129" s="28" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D129" s="28" t="s">
         <v>70</v>
@@ -6425,7 +6513,7 @@
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
     </row>
-    <row r="130" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="79"/>
       <c r="B130" s="28" t="s">
         <v>17</v>
@@ -6440,7 +6528,7 @@
         <v>1</v>
       </c>
       <c r="F130" s="30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G130" s="87"/>
       <c r="H130" s="91"/>
@@ -6452,7 +6540,7 @@
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
     </row>
-    <row r="131" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="79"/>
       <c r="B131" s="28" t="s">
         <v>17</v>
@@ -6479,7 +6567,7 @@
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
     </row>
-    <row r="132" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="79"/>
       <c r="B132" s="28"/>
       <c r="C132" s="28"/>
@@ -6496,7 +6584,7 @@
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
     </row>
-    <row r="133" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="79"/>
       <c r="B133" s="28"/>
       <c r="C133" s="28"/>
@@ -6513,7 +6601,7 @@
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
     </row>
-    <row r="134" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="1"/>
       <c r="B134" s="33"/>
       <c r="C134" s="33"/>
@@ -6524,7 +6612,7 @@
       </c>
       <c r="F134" s="36">
         <f>SUM(F116:F133)-SUM(F113:F115)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G134" s="80"/>
       <c r="H134" s="92"/>
@@ -6536,7 +6624,7 @@
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
     </row>
-    <row r="135" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -6553,7 +6641,7 @@
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
     </row>
-    <row r="136" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -6570,7 +6658,7 @@
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
     </row>
-    <row r="137" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="3" t="s">
@@ -6591,7 +6679,7 @@
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
     </row>
-    <row r="138" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -6608,7 +6696,7 @@
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
     </row>
-    <row r="139" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="79"/>
       <c r="B139" s="6" t="s">
         <v>3</v>
@@ -6635,7 +6723,7 @@
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
     </row>
-    <row r="140" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="79"/>
       <c r="B140" s="12" t="s">
         <v>13</v>
@@ -6648,7 +6736,7 @@
         <v>1</v>
       </c>
       <c r="F140" s="15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G140" s="80"/>
       <c r="H140" s="94"/>
@@ -6660,7 +6748,7 @@
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
     </row>
-    <row r="141" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="79"/>
       <c r="B141" s="21"/>
       <c r="C141" s="21"/>
@@ -6677,7 +6765,7 @@
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
     </row>
-    <row r="142" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="79"/>
       <c r="B142" s="21"/>
       <c r="C142" s="21"/>
@@ -6694,7 +6782,7 @@
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
     </row>
-    <row r="143" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="79"/>
       <c r="B143" s="28" t="s">
         <v>14</v>
@@ -6721,7 +6809,7 @@
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
     </row>
-    <row r="144" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="79"/>
       <c r="B144" s="28" t="s">
         <v>14</v>
@@ -6748,7 +6836,7 @@
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
     </row>
-    <row r="145" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="79"/>
       <c r="B145" s="28"/>
       <c r="C145" s="28"/>
@@ -6765,7 +6853,7 @@
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
     </row>
-    <row r="146" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="79"/>
       <c r="B146" s="28" t="s">
         <v>16</v>
@@ -6792,7 +6880,7 @@
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
     </row>
-    <row r="147" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="79"/>
       <c r="B147" s="28" t="s">
         <v>16</v>
@@ -6818,7 +6906,7 @@
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
     </row>
-    <row r="148" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="79"/>
       <c r="B148" s="28" t="s">
         <v>16</v>
@@ -6845,7 +6933,7 @@
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
     </row>
-    <row r="149" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="79"/>
       <c r="B149" s="28"/>
       <c r="C149" s="28"/>
@@ -6862,7 +6950,7 @@
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
     </row>
-    <row r="150" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="79"/>
       <c r="B150" s="28"/>
       <c r="C150" s="28"/>
@@ -6879,7 +6967,7 @@
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
     </row>
-    <row r="151" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="79"/>
       <c r="B151" s="28"/>
       <c r="C151" s="28"/>
@@ -6896,7 +6984,7 @@
       <c r="N151" s="1"/>
       <c r="O151" s="1"/>
     </row>
-    <row r="152" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="79"/>
       <c r="B152" s="28" t="s">
         <v>17</v>
@@ -6923,7 +7011,7 @@
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
     </row>
-    <row r="153" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="79"/>
       <c r="B153" s="28" t="s">
         <v>17</v>
@@ -6938,7 +7026,7 @@
         <v>18</v>
       </c>
       <c r="F153" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G153" s="83"/>
       <c r="H153" s="91"/>
@@ -6950,7 +7038,7 @@
       <c r="N153" s="1"/>
       <c r="O153" s="1"/>
     </row>
-    <row r="154" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="79"/>
       <c r="B154" s="28" t="s">
         <v>17</v>
@@ -6977,7 +7065,7 @@
       <c r="N154" s="1"/>
       <c r="O154" s="1"/>
     </row>
-    <row r="155" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="79"/>
       <c r="B155" s="28" t="s">
         <v>17</v>
@@ -6992,7 +7080,7 @@
         <v>25</v>
       </c>
       <c r="F155" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G155" s="87"/>
       <c r="H155" s="91"/>
@@ -7004,7 +7092,7 @@
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
     </row>
-    <row r="156" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="79"/>
       <c r="B156" s="28" t="s">
         <v>17</v>
@@ -7031,7 +7119,7 @@
       <c r="N156" s="1"/>
       <c r="O156" s="1"/>
     </row>
-    <row r="157" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="79"/>
       <c r="B157" s="28"/>
       <c r="C157" s="28"/>
@@ -7048,7 +7136,7 @@
       <c r="N157" s="1"/>
       <c r="O157" s="1"/>
     </row>
-    <row r="158" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="79"/>
       <c r="B158" s="28"/>
       <c r="C158" s="28"/>
@@ -7065,7 +7153,7 @@
       <c r="N158" s="1"/>
       <c r="O158" s="1"/>
     </row>
-    <row r="159" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="79"/>
       <c r="B159" s="28"/>
       <c r="C159" s="28"/>
@@ -7082,7 +7170,7 @@
       <c r="N159" s="1"/>
       <c r="O159" s="1"/>
     </row>
-    <row r="160" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="79"/>
       <c r="B160" s="28"/>
       <c r="C160" s="28"/>
@@ -7099,7 +7187,7 @@
       <c r="N160" s="1"/>
       <c r="O160" s="1"/>
     </row>
-    <row r="161" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1"/>
       <c r="B161" s="33"/>
       <c r="C161" s="33"/>
@@ -7110,7 +7198,7 @@
       </c>
       <c r="F161" s="36">
         <f>SUM(F143:F160)-SUM(F140:F142)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G161" s="80"/>
       <c r="H161" s="92"/>
@@ -7122,7 +7210,7 @@
       <c r="N161" s="1"/>
       <c r="O161" s="1"/>
     </row>
-    <row r="162" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -7139,7 +7227,7 @@
       <c r="N162" s="1"/>
       <c r="O162" s="1"/>
     </row>
-    <row r="163" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -7156,7 +7244,7 @@
       <c r="N163" s="1"/>
       <c r="O163" s="1"/>
     </row>
-    <row r="164" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="3" t="s">
@@ -7177,7 +7265,7 @@
       <c r="N164" s="1"/>
       <c r="O164" s="1"/>
     </row>
-    <row r="165" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -7194,7 +7282,7 @@
       <c r="N165" s="1"/>
       <c r="O165" s="1"/>
     </row>
-    <row r="166" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="79"/>
       <c r="B166" s="6" t="s">
         <v>3</v>
@@ -7221,7 +7309,7 @@
       <c r="N166" s="1"/>
       <c r="O166" s="1"/>
     </row>
-    <row r="167" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="79"/>
       <c r="B167" s="12" t="s">
         <v>13</v>
@@ -7234,7 +7322,7 @@
         <v>1</v>
       </c>
       <c r="F167" s="15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G167" s="80"/>
       <c r="H167" s="94"/>
@@ -7246,7 +7334,7 @@
       <c r="N167" s="1"/>
       <c r="O167" s="1"/>
     </row>
-    <row r="168" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="79"/>
       <c r="B168" s="21"/>
       <c r="C168" s="21"/>
@@ -7263,7 +7351,7 @@
       <c r="N168" s="1"/>
       <c r="O168" s="1"/>
     </row>
-    <row r="169" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="79"/>
       <c r="B169" s="21"/>
       <c r="C169" s="21"/>
@@ -7280,7 +7368,7 @@
       <c r="N169" s="1"/>
       <c r="O169" s="1"/>
     </row>
-    <row r="170" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="79"/>
       <c r="B170" s="28" t="s">
         <v>14</v>
@@ -7307,7 +7395,7 @@
       <c r="N170" s="1"/>
       <c r="O170" s="1"/>
     </row>
-    <row r="171" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="79"/>
       <c r="B171" s="28" t="s">
         <v>14</v>
@@ -7334,7 +7422,7 @@
       <c r="N171" s="1"/>
       <c r="O171" s="1"/>
     </row>
-    <row r="172" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="79"/>
       <c r="B172" s="28"/>
       <c r="C172" s="28"/>
@@ -7351,7 +7439,7 @@
       <c r="N172" s="1"/>
       <c r="O172" s="1"/>
     </row>
-    <row r="173" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="79"/>
       <c r="B173" s="28" t="s">
         <v>16</v>
@@ -7366,7 +7454,7 @@
         <v>3</v>
       </c>
       <c r="F173" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G173" s="83"/>
       <c r="H173" s="91"/>
@@ -7378,25 +7466,29 @@
       <c r="N173" s="1"/>
       <c r="O173" s="1"/>
     </row>
-    <row r="174" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="79"/>
-      <c r="B174" s="28" t="s">
+      <c r="B174" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="C174" s="28" t="s">
+      <c r="C174" s="108" t="s">
         <v>109</v>
       </c>
-      <c r="D174" s="28" t="s">
+      <c r="D174" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="E174" s="29">
-        <v>1</v>
-      </c>
-      <c r="F174" s="30">
+      <c r="E174" s="109">
+        <v>1</v>
+      </c>
+      <c r="F174" s="110">
         <v>0</v>
       </c>
-      <c r="G174" s="91"/>
-      <c r="H174" s="91"/>
+      <c r="G174" s="91" t="s">
+        <v>293</v>
+      </c>
+      <c r="H174" s="91">
+        <v>45897</v>
+      </c>
       <c r="I174" s="90"/>
       <c r="J174" s="76"/>
       <c r="K174" s="1"/>
@@ -7405,24 +7497,26 @@
       <c r="N174" s="1"/>
       <c r="O174" s="1"/>
     </row>
-    <row r="175" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="79"/>
       <c r="B175" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C175" s="28" t="s">
-        <v>132</v>
+        <v>418</v>
       </c>
       <c r="D175" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="E175" s="29">
-        <v>1</v>
+        <v>98</v>
+      </c>
+      <c r="E175" s="29" t="s">
+        <v>292</v>
       </c>
       <c r="F175" s="30">
-        <v>2</v>
-      </c>
-      <c r="G175" s="87"/>
+        <v>0</v>
+      </c>
+      <c r="G175" s="87">
+        <v>45897</v>
+      </c>
       <c r="H175" s="91"/>
       <c r="I175" s="90"/>
       <c r="J175" s="1"/>
@@ -7432,13 +7526,23 @@
       <c r="N175" s="1"/>
       <c r="O175" s="1"/>
     </row>
-    <row r="176" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="79"/>
-      <c r="B176" s="28"/>
-      <c r="C176" s="28"/>
-      <c r="D176" s="28"/>
-      <c r="E176" s="29"/>
-      <c r="F176" s="30"/>
+      <c r="B176" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C176" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="D176" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E176" s="29">
+        <v>1</v>
+      </c>
+      <c r="F176" s="30">
+        <v>2</v>
+      </c>
       <c r="G176" s="91"/>
       <c r="H176" s="91"/>
       <c r="I176" s="90"/>
@@ -7449,7 +7553,7 @@
       <c r="N176" s="1"/>
       <c r="O176" s="1"/>
     </row>
-    <row r="177" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="79"/>
       <c r="B177" s="28"/>
       <c r="C177" s="28"/>
@@ -7466,7 +7570,7 @@
       <c r="N177" s="1"/>
       <c r="O177" s="1"/>
     </row>
-    <row r="178" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="79"/>
       <c r="B178" s="28"/>
       <c r="C178" s="28"/>
@@ -7483,7 +7587,7 @@
       <c r="N178" s="1"/>
       <c r="O178" s="1"/>
     </row>
-    <row r="179" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="79"/>
       <c r="B179" s="28" t="s">
         <v>17</v>
@@ -7492,7 +7596,7 @@
         <v>97</v>
       </c>
       <c r="D179" s="28" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E179" s="29">
         <v>56</v>
@@ -7510,7 +7614,7 @@
       <c r="N179" s="1"/>
       <c r="O179" s="1"/>
     </row>
-    <row r="180" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="79"/>
       <c r="B180" s="28" t="s">
         <v>17</v>
@@ -7525,7 +7629,7 @@
         <v>1</v>
       </c>
       <c r="F180" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G180" s="91"/>
       <c r="H180" s="91"/>
@@ -7537,7 +7641,7 @@
       <c r="N180" s="1"/>
       <c r="O180" s="1"/>
     </row>
-    <row r="181" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="79"/>
       <c r="B181" s="28" t="s">
         <v>17</v>
@@ -7552,7 +7656,7 @@
         <v>7</v>
       </c>
       <c r="F181" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G181" s="87"/>
       <c r="H181" s="91"/>
@@ -7564,7 +7668,7 @@
       <c r="N181" s="1"/>
       <c r="O181" s="1"/>
     </row>
-    <row r="182" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="79"/>
       <c r="B182" s="28" t="s">
         <v>17</v>
@@ -7591,7 +7695,7 @@
       <c r="N182" s="1"/>
       <c r="O182" s="1"/>
     </row>
-    <row r="183" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="79"/>
       <c r="B183" s="108" t="s">
         <v>17</v>
@@ -7622,7 +7726,7 @@
       <c r="N183" s="1"/>
       <c r="O183" s="1"/>
     </row>
-    <row r="184" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="79"/>
       <c r="B184" s="28" t="s">
         <v>17</v>
@@ -7651,7 +7755,7 @@
       <c r="N184" s="1"/>
       <c r="O184" s="1"/>
     </row>
-    <row r="185" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="79"/>
       <c r="B185" s="28"/>
       <c r="C185" s="28"/>
@@ -7668,7 +7772,7 @@
       <c r="N185" s="1"/>
       <c r="O185" s="1"/>
     </row>
-    <row r="186" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="79"/>
       <c r="B186" s="28"/>
       <c r="C186" s="28"/>
@@ -7685,7 +7789,7 @@
       <c r="N186" s="1"/>
       <c r="O186" s="1"/>
     </row>
-    <row r="187" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="79"/>
       <c r="B187" s="28"/>
       <c r="C187" s="28"/>
@@ -7702,7 +7806,7 @@
       <c r="N187" s="1"/>
       <c r="O187" s="1"/>
     </row>
-    <row r="188" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="1"/>
       <c r="B188" s="33"/>
       <c r="C188" s="33"/>
@@ -7713,7 +7817,7 @@
       </c>
       <c r="F188" s="36">
         <f>SUM(F170:F187)-SUM(F167:F169)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G188" s="87"/>
       <c r="H188" s="91"/>
@@ -7725,7 +7829,7 @@
       <c r="N188" s="1"/>
       <c r="O188" s="1"/>
     </row>
-    <row r="189" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -7742,7 +7846,7 @@
       <c r="N189" s="1"/>
       <c r="O189" s="1"/>
     </row>
-    <row r="190" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -7759,7 +7863,7 @@
       <c r="N190" s="1"/>
       <c r="O190" s="1"/>
     </row>
-    <row r="191" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="3" t="s">
@@ -7780,7 +7884,7 @@
       <c r="N191" s="1"/>
       <c r="O191" s="1"/>
     </row>
-    <row r="192" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="1"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -7797,7 +7901,7 @@
       <c r="N192" s="1"/>
       <c r="O192" s="1"/>
     </row>
-    <row r="193" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="79"/>
       <c r="B193" s="6" t="s">
         <v>3</v>
@@ -7824,7 +7928,7 @@
       <c r="N193" s="1"/>
       <c r="O193" s="1"/>
     </row>
-    <row r="194" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="79"/>
       <c r="B194" s="12" t="s">
         <v>13</v>
@@ -7849,7 +7953,7 @@
       <c r="N194" s="1"/>
       <c r="O194" s="1"/>
     </row>
-    <row r="195" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="79"/>
       <c r="B195" s="21"/>
       <c r="C195" s="21"/>
@@ -7866,7 +7970,7 @@
       <c r="N195" s="1"/>
       <c r="O195" s="1"/>
     </row>
-    <row r="196" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="79"/>
       <c r="B196" s="21"/>
       <c r="C196" s="21"/>
@@ -7883,7 +7987,7 @@
       <c r="N196" s="1"/>
       <c r="O196" s="1"/>
     </row>
-    <row r="197" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="79"/>
       <c r="B197" s="28" t="s">
         <v>14</v>
@@ -7910,7 +8014,7 @@
       <c r="N197" s="1"/>
       <c r="O197" s="1"/>
     </row>
-    <row r="198" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="79"/>
       <c r="B198" s="28" t="s">
         <v>14</v>
@@ -7937,7 +8041,7 @@
       <c r="N198" s="1"/>
       <c r="O198" s="1"/>
     </row>
-    <row r="199" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="79"/>
       <c r="B199" s="28"/>
       <c r="C199" s="28"/>
@@ -7954,7 +8058,7 @@
       <c r="N199" s="1"/>
       <c r="O199" s="1"/>
     </row>
-    <row r="200" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="79"/>
       <c r="B200" s="28" t="s">
         <v>16</v>
@@ -7981,7 +8085,7 @@
       <c r="N200" s="1"/>
       <c r="O200" s="1"/>
     </row>
-    <row r="201" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="79"/>
       <c r="B201" s="28" t="s">
         <v>16</v>
@@ -8008,7 +8112,7 @@
       <c r="N201" s="1"/>
       <c r="O201" s="1"/>
     </row>
-    <row r="202" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="79"/>
       <c r="B202" s="28" t="s">
         <v>16</v>
@@ -8035,7 +8139,7 @@
       <c r="N202" s="1"/>
       <c r="O202" s="1"/>
     </row>
-    <row r="203" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="79"/>
       <c r="B203" s="28"/>
       <c r="C203" s="28"/>
@@ -8052,7 +8156,7 @@
       <c r="N203" s="1"/>
       <c r="O203" s="1"/>
     </row>
-    <row r="204" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="79"/>
       <c r="B204" s="28"/>
       <c r="C204" s="28"/>
@@ -8069,7 +8173,7 @@
       <c r="N204" s="1"/>
       <c r="O204" s="1"/>
     </row>
-    <row r="205" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="79"/>
       <c r="B205" s="28"/>
       <c r="C205" s="28"/>
@@ -8086,7 +8190,7 @@
       <c r="N205" s="1"/>
       <c r="O205" s="1"/>
     </row>
-    <row r="206" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="79"/>
       <c r="B206" s="28" t="s">
         <v>17</v>
@@ -8101,7 +8205,7 @@
         <v>1</v>
       </c>
       <c r="F206" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G206" s="87"/>
       <c r="H206" s="90"/>
@@ -8113,7 +8217,7 @@
       <c r="N206" s="1"/>
       <c r="O206" s="1"/>
     </row>
-    <row r="207" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="79"/>
       <c r="B207" s="28" t="s">
         <v>17</v>
@@ -8140,7 +8244,7 @@
       <c r="N207" s="1"/>
       <c r="O207" s="1"/>
     </row>
-    <row r="208" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="79"/>
       <c r="B208" s="28" t="s">
         <v>17</v>
@@ -8167,7 +8271,7 @@
       <c r="N208" s="1"/>
       <c r="O208" s="1"/>
     </row>
-    <row r="209" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="79"/>
       <c r="B209" s="28" t="s">
         <v>17</v>
@@ -8182,7 +8286,7 @@
         <v>1</v>
       </c>
       <c r="F209" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G209" s="87"/>
       <c r="H209" s="91"/>
@@ -8194,7 +8298,7 @@
       <c r="N209" s="1"/>
       <c r="O209" s="1"/>
     </row>
-    <row r="210" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="79"/>
       <c r="B210" s="28" t="s">
         <v>17</v>
@@ -8221,7 +8325,7 @@
       <c r="N210" s="1"/>
       <c r="O210" s="1"/>
     </row>
-    <row r="211" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="79"/>
       <c r="B211" s="28"/>
       <c r="C211" s="28"/>
@@ -8238,7 +8342,7 @@
       <c r="N211" s="1"/>
       <c r="O211" s="1"/>
     </row>
-    <row r="212" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="79"/>
       <c r="B212" s="28"/>
       <c r="C212" s="28"/>
@@ -8255,7 +8359,7 @@
       <c r="N212" s="1"/>
       <c r="O212" s="1"/>
     </row>
-    <row r="213" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="79"/>
       <c r="B213" s="28"/>
       <c r="C213" s="28"/>
@@ -8272,7 +8376,7 @@
       <c r="N213" s="1"/>
       <c r="O213" s="1"/>
     </row>
-    <row r="214" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A214" s="79"/>
       <c r="B214" s="28"/>
       <c r="C214" s="28"/>
@@ -8289,7 +8393,7 @@
       <c r="N214" s="1"/>
       <c r="O214" s="1"/>
     </row>
-    <row r="215" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" s="1"/>
       <c r="B215" s="33"/>
       <c r="C215" s="33"/>
@@ -8300,7 +8404,7 @@
       </c>
       <c r="F215" s="36">
         <f>SUM(F197:F214)-SUM(F194:F196)</f>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="G215" s="80"/>
       <c r="H215" s="92"/>
@@ -8312,7 +8416,7 @@
       <c r="N215" s="1"/>
       <c r="O215" s="1"/>
     </row>
-    <row r="216" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -8329,7 +8433,7 @@
       <c r="N216" s="1"/>
       <c r="O216" s="1"/>
     </row>
-    <row r="217" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -8346,7 +8450,7 @@
       <c r="N217" s="1"/>
       <c r="O217" s="1"/>
     </row>
-    <row r="218" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="3" t="s">
@@ -8367,7 +8471,7 @@
       <c r="N218" s="1"/>
       <c r="O218" s="1"/>
     </row>
-    <row r="219" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" s="1"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -8384,7 +8488,7 @@
       <c r="N219" s="1"/>
       <c r="O219" s="1"/>
     </row>
-    <row r="220" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A220" s="79"/>
       <c r="B220" s="6" t="s">
         <v>3</v>
@@ -8411,7 +8515,7 @@
       <c r="N220" s="1"/>
       <c r="O220" s="1"/>
     </row>
-    <row r="221" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="58"/>
       <c r="B221" s="112" t="s">
         <v>13</v>
@@ -8440,7 +8544,7 @@
       <c r="N221" s="1"/>
       <c r="O221" s="1"/>
     </row>
-    <row r="222" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="79"/>
       <c r="B222" s="21" t="s">
         <v>13</v>
@@ -8467,7 +8571,7 @@
       <c r="N222" s="1"/>
       <c r="O222" s="1"/>
     </row>
-    <row r="223" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="79"/>
       <c r="B223" s="21"/>
       <c r="C223" s="21"/>
@@ -8484,7 +8588,7 @@
       <c r="N223" s="1"/>
       <c r="O223" s="1"/>
     </row>
-    <row r="224" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="79"/>
       <c r="B224" s="28" t="s">
         <v>14</v>
@@ -8511,7 +8615,7 @@
       <c r="N224" s="1"/>
       <c r="O224" s="1"/>
     </row>
-    <row r="225" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="79"/>
       <c r="B225" s="28" t="s">
         <v>14</v>
@@ -8538,7 +8642,7 @@
       <c r="N225" s="1"/>
       <c r="O225" s="1"/>
     </row>
-    <row r="226" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="79"/>
       <c r="B226" s="28"/>
       <c r="C226" s="28"/>
@@ -8555,7 +8659,7 @@
       <c r="N226" s="1"/>
       <c r="O226" s="1"/>
     </row>
-    <row r="227" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="79"/>
       <c r="B227" s="28" t="s">
         <v>16</v>
@@ -8582,7 +8686,7 @@
       <c r="N227" s="1"/>
       <c r="O227" s="1"/>
     </row>
-    <row r="228" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="79"/>
       <c r="B228" s="28" t="s">
         <v>16</v>
@@ -8609,7 +8713,7 @@
       <c r="N228" s="1"/>
       <c r="O228" s="1"/>
     </row>
-    <row r="229" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="79"/>
       <c r="B229" s="108" t="s">
         <v>16</v>
@@ -8640,16 +8744,16 @@
       <c r="N229" s="1"/>
       <c r="O229" s="1"/>
     </row>
-    <row r="230" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="79"/>
       <c r="B230" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C230" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="D230" s="28" t="s">
         <v>297</v>
-      </c>
-      <c r="D230" s="28" t="s">
-        <v>298</v>
       </c>
       <c r="E230" s="29" t="s">
         <v>292</v>
@@ -8669,7 +8773,7 @@
       <c r="N230" s="1"/>
       <c r="O230" s="1"/>
     </row>
-    <row r="231" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="79"/>
       <c r="B231" s="28"/>
       <c r="C231" s="28"/>
@@ -8686,7 +8790,7 @@
       <c r="N231" s="1"/>
       <c r="O231" s="1"/>
     </row>
-    <row r="232" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="79"/>
       <c r="B232" s="28"/>
       <c r="C232" s="28"/>
@@ -8703,7 +8807,7 @@
       <c r="N232" s="1"/>
       <c r="O232" s="1"/>
     </row>
-    <row r="233" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="79"/>
       <c r="B233" s="28" t="s">
         <v>17</v>
@@ -8730,7 +8834,7 @@
       <c r="N233" s="1"/>
       <c r="O233" s="1"/>
     </row>
-    <row r="234" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="79"/>
       <c r="B234" s="28" t="s">
         <v>17</v>
@@ -8757,7 +8861,7 @@
       <c r="N234" s="1"/>
       <c r="O234" s="1"/>
     </row>
-    <row r="235" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="79"/>
       <c r="B235" s="28" t="s">
         <v>17</v>
@@ -8784,7 +8888,7 @@
       <c r="N235" s="1"/>
       <c r="O235" s="1"/>
     </row>
-    <row r="236" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="79"/>
       <c r="B236" s="28" t="s">
         <v>17</v>
@@ -8799,7 +8903,7 @@
         <v>15</v>
       </c>
       <c r="F236" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G236" s="87"/>
       <c r="H236" s="91"/>
@@ -8811,7 +8915,7 @@
       <c r="N236" s="1"/>
       <c r="O236" s="1"/>
     </row>
-    <row r="237" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="79"/>
       <c r="B237" s="28" t="s">
         <v>17</v>
@@ -8838,7 +8942,7 @@
       <c r="N237" s="1"/>
       <c r="O237" s="1"/>
     </row>
-    <row r="238" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="79"/>
       <c r="B238" s="28"/>
       <c r="C238" s="28"/>
@@ -8855,7 +8959,7 @@
       <c r="N238" s="1"/>
       <c r="O238" s="1"/>
     </row>
-    <row r="239" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="79"/>
       <c r="B239" s="28"/>
       <c r="C239" s="28"/>
@@ -8872,7 +8976,7 @@
       <c r="N239" s="1"/>
       <c r="O239" s="1"/>
     </row>
-    <row r="240" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="79"/>
       <c r="B240" s="28"/>
       <c r="C240" s="28"/>
@@ -8889,7 +8993,7 @@
       <c r="N240" s="1"/>
       <c r="O240" s="1"/>
     </row>
-    <row r="241" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A241" s="79"/>
       <c r="B241" s="28"/>
       <c r="C241" s="28"/>
@@ -8906,7 +9010,7 @@
       <c r="N241" s="1"/>
       <c r="O241" s="1"/>
     </row>
-    <row r="242" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A242" s="1"/>
       <c r="B242" s="33"/>
       <c r="C242" s="33"/>
@@ -8917,7 +9021,7 @@
       </c>
       <c r="F242" s="36">
         <f>SUM(F224:F241)-SUM(F221:F223)</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G242" s="80"/>
       <c r="H242" s="92"/>
@@ -8929,7 +9033,7 @@
       <c r="N242" s="1"/>
       <c r="O242" s="1"/>
     </row>
-    <row r="243" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -8946,7 +9050,7 @@
       <c r="N243" s="1"/>
       <c r="O243" s="1"/>
     </row>
-    <row r="244" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -8963,7 +9067,7 @@
       <c r="N244" s="1"/>
       <c r="O244" s="1"/>
     </row>
-    <row r="245" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="3" t="s">
@@ -8984,7 +9088,7 @@
       <c r="N245" s="1"/>
       <c r="O245" s="1"/>
     </row>
-    <row r="246" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A246" s="1"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
@@ -9001,7 +9105,7 @@
       <c r="N246" s="1"/>
       <c r="O246" s="1"/>
     </row>
-    <row r="247" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A247" s="79"/>
       <c r="B247" s="6" t="s">
         <v>3</v>
@@ -9020,7 +9124,7 @@
       <c r="N247" s="1"/>
       <c r="O247" s="1"/>
     </row>
-    <row r="248" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="79"/>
       <c r="B248" s="12" t="s">
         <v>13</v>
@@ -9033,7 +9137,7 @@
         <v>8</v>
       </c>
       <c r="F248" s="15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G248" s="80"/>
       <c r="H248" s="94"/>
@@ -9045,7 +9149,7 @@
       <c r="N248" s="1"/>
       <c r="O248" s="1"/>
     </row>
-    <row r="249" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="79"/>
       <c r="B249" s="21"/>
       <c r="C249" s="21"/>
@@ -9062,7 +9166,7 @@
       <c r="N249" s="1"/>
       <c r="O249" s="1"/>
     </row>
-    <row r="250" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="79"/>
       <c r="B250" s="21"/>
       <c r="C250" s="21"/>
@@ -9079,7 +9183,7 @@
       <c r="N250" s="1"/>
       <c r="O250" s="1"/>
     </row>
-    <row r="251" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="79"/>
       <c r="B251" s="28" t="s">
         <v>14</v>
@@ -9106,7 +9210,7 @@
       <c r="N251" s="1"/>
       <c r="O251" s="1"/>
     </row>
-    <row r="252" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="79"/>
       <c r="B252" s="28" t="s">
         <v>14</v>
@@ -9133,7 +9237,7 @@
       <c r="N252" s="1"/>
       <c r="O252" s="1"/>
     </row>
-    <row r="253" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="79"/>
       <c r="B253" s="28"/>
       <c r="C253" s="28"/>
@@ -9150,7 +9254,7 @@
       <c r="N253" s="1"/>
       <c r="O253" s="1"/>
     </row>
-    <row r="254" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="79"/>
       <c r="B254" s="28" t="s">
         <v>16</v>
@@ -9177,7 +9281,7 @@
       <c r="N254" s="1"/>
       <c r="O254" s="1"/>
     </row>
-    <row r="255" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="79"/>
       <c r="B255" s="108" t="s">
         <v>16</v>
@@ -9208,16 +9312,16 @@
       <c r="N255" s="1"/>
       <c r="O255" s="1"/>
     </row>
-    <row r="256" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="79"/>
       <c r="B256" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C256" s="28" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D256" s="28" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E256" s="29" t="s">
         <v>292</v>
@@ -9237,7 +9341,7 @@
       <c r="N256" s="1"/>
       <c r="O256" s="1"/>
     </row>
-    <row r="257" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="79"/>
       <c r="B257" s="28" t="s">
         <v>16</v>
@@ -9264,7 +9368,7 @@
       <c r="N257" s="1"/>
       <c r="O257" s="1"/>
     </row>
-    <row r="258" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="79"/>
       <c r="B258" s="28"/>
       <c r="C258" s="28"/>
@@ -9281,7 +9385,7 @@
       <c r="N258" s="1"/>
       <c r="O258" s="1"/>
     </row>
-    <row r="259" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="79"/>
       <c r="B259" s="28"/>
       <c r="C259" s="28"/>
@@ -9298,7 +9402,7 @@
       <c r="N259" s="1"/>
       <c r="O259" s="1"/>
     </row>
-    <row r="260" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="79"/>
       <c r="B260" s="28" t="s">
         <v>17</v>
@@ -9325,7 +9429,7 @@
       <c r="N260" s="1"/>
       <c r="O260" s="1"/>
     </row>
-    <row r="261" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="79"/>
       <c r="B261" s="28" t="s">
         <v>17</v>
@@ -9352,7 +9456,7 @@
       <c r="N261" s="1"/>
       <c r="O261" s="1"/>
     </row>
-    <row r="262" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="79"/>
       <c r="B262" s="28" t="s">
         <v>17</v>
@@ -9379,7 +9483,7 @@
       <c r="N262" s="1"/>
       <c r="O262" s="1"/>
     </row>
-    <row r="263" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="79"/>
       <c r="B263" s="28" t="s">
         <v>17</v>
@@ -9406,7 +9510,7 @@
       <c r="N263" s="1"/>
       <c r="O263" s="1"/>
     </row>
-    <row r="264" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="79"/>
       <c r="B264" s="108" t="s">
         <v>17</v>
@@ -9415,7 +9519,7 @@
         <v>144</v>
       </c>
       <c r="D264" s="108" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E264" s="109">
         <v>14</v>
@@ -9437,13 +9541,13 @@
       <c r="N264" s="1"/>
       <c r="O264" s="1"/>
     </row>
-    <row r="265" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="79"/>
       <c r="B265" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C265" s="28" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D265" s="28" t="s">
         <v>74</v>
@@ -9452,7 +9556,7 @@
         <v>292</v>
       </c>
       <c r="F265" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G265" s="87">
         <v>45897</v>
@@ -9466,7 +9570,7 @@
       <c r="N265" s="1"/>
       <c r="O265" s="1"/>
     </row>
-    <row r="266" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="79"/>
       <c r="B266" s="28"/>
       <c r="C266" s="28"/>
@@ -9483,7 +9587,7 @@
       <c r="N266" s="1"/>
       <c r="O266" s="1"/>
     </row>
-    <row r="267" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="79"/>
       <c r="B267" s="28"/>
       <c r="C267" s="28"/>
@@ -9500,7 +9604,7 @@
       <c r="N267" s="1"/>
       <c r="O267" s="1"/>
     </row>
-    <row r="268" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A268" s="79"/>
       <c r="B268" s="28"/>
       <c r="C268" s="28"/>
@@ -9517,7 +9621,7 @@
       <c r="N268" s="1"/>
       <c r="O268" s="1"/>
     </row>
-    <row r="269" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A269" s="1"/>
       <c r="B269" s="33"/>
       <c r="C269" s="33"/>
@@ -9540,7 +9644,7 @@
       <c r="N269" s="1"/>
       <c r="O269" s="1"/>
     </row>
-    <row r="270" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -9557,7 +9661,7 @@
       <c r="N270" s="1"/>
       <c r="O270" s="1"/>
     </row>
-    <row r="271" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -9574,7 +9678,7 @@
       <c r="N271" s="1"/>
       <c r="O271" s="1"/>
     </row>
-    <row r="272" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1" t="s">
@@ -9595,7 +9699,7 @@
       <c r="N272" s="1"/>
       <c r="O272" s="1"/>
     </row>
-    <row r="273" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A273" s="1"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
@@ -9612,7 +9716,7 @@
       <c r="N273" s="1"/>
       <c r="O273" s="1"/>
     </row>
-    <row r="274" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A274" s="79"/>
       <c r="B274" s="6" t="s">
         <v>3</v>
@@ -9639,7 +9743,7 @@
       <c r="N274" s="1"/>
       <c r="O274" s="1"/>
     </row>
-    <row r="275" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="79"/>
       <c r="B275" s="12" t="s">
         <v>13</v>
@@ -9664,7 +9768,7 @@
       <c r="N275" s="1"/>
       <c r="O275" s="1"/>
     </row>
-    <row r="276" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="79"/>
       <c r="B276" s="21"/>
       <c r="C276" s="21"/>
@@ -9681,7 +9785,7 @@
       <c r="N276" s="1"/>
       <c r="O276" s="1"/>
     </row>
-    <row r="277" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="79"/>
       <c r="B277" s="21"/>
       <c r="C277" s="21"/>
@@ -9698,7 +9802,7 @@
       <c r="N277" s="1"/>
       <c r="O277" s="1"/>
     </row>
-    <row r="278" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="79"/>
       <c r="B278" s="28" t="s">
         <v>14</v>
@@ -9713,7 +9817,7 @@
         <v>4</v>
       </c>
       <c r="F278" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G278" s="83"/>
       <c r="H278" s="90"/>
@@ -9725,7 +9829,7 @@
       <c r="N278" s="1"/>
       <c r="O278" s="1"/>
     </row>
-    <row r="279" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="79"/>
       <c r="B279" s="28" t="s">
         <v>14</v>
@@ -9752,7 +9856,7 @@
       <c r="N279" s="1"/>
       <c r="O279" s="1"/>
     </row>
-    <row r="280" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="79"/>
       <c r="B280" s="28"/>
       <c r="C280" s="28"/>
@@ -9769,7 +9873,7 @@
       <c r="N280" s="1"/>
       <c r="O280" s="1"/>
     </row>
-    <row r="281" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="79"/>
       <c r="B281" s="28" t="s">
         <v>16</v>
@@ -9784,7 +9888,7 @@
         <v>25</v>
       </c>
       <c r="F281" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G281" s="83"/>
       <c r="H281" s="91"/>
@@ -9796,7 +9900,7 @@
       <c r="N281" s="1"/>
       <c r="O281" s="1"/>
     </row>
-    <row r="282" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="79"/>
       <c r="B282" s="28" t="s">
         <v>16</v>
@@ -9823,7 +9927,7 @@
       <c r="N282" s="1"/>
       <c r="O282" s="1"/>
     </row>
-    <row r="283" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="79"/>
       <c r="B283" s="108" t="s">
         <v>16</v>
@@ -9854,13 +9958,13 @@
       <c r="N283" s="1"/>
       <c r="O283" s="1"/>
     </row>
-    <row r="284" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="79"/>
       <c r="B284" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C284" s="28" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D284" s="28" t="s">
         <v>85</v>
@@ -9883,7 +9987,7 @@
       <c r="N284" s="1"/>
       <c r="O284" s="1"/>
     </row>
-    <row r="285" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="79"/>
       <c r="B285" s="28"/>
       <c r="C285" s="28"/>
@@ -9900,7 +10004,7 @@
       <c r="N285" s="1"/>
       <c r="O285" s="1"/>
     </row>
-    <row r="286" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="79"/>
       <c r="B286" s="28"/>
       <c r="C286" s="28"/>
@@ -9917,7 +10021,7 @@
       <c r="N286" s="1"/>
       <c r="O286" s="1"/>
     </row>
-    <row r="287" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="79"/>
       <c r="B287" s="28" t="s">
         <v>17</v>
@@ -9944,7 +10048,7 @@
       <c r="N287" s="1"/>
       <c r="O287" s="1"/>
     </row>
-    <row r="288" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="79"/>
       <c r="B288" s="28" t="s">
         <v>17</v>
@@ -9959,7 +10063,7 @@
         <v>1</v>
       </c>
       <c r="F288" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G288" s="87"/>
       <c r="H288" s="91"/>
@@ -9971,7 +10075,7 @@
       <c r="N288" s="1"/>
       <c r="O288" s="1"/>
     </row>
-    <row r="289" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="79"/>
       <c r="B289" s="28" t="s">
         <v>17</v>
@@ -9998,7 +10102,7 @@
       <c r="N289" s="1"/>
       <c r="O289" s="1"/>
     </row>
-    <row r="290" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="79"/>
       <c r="B290" s="28" t="s">
         <v>17</v>
@@ -10025,7 +10129,7 @@
       <c r="N290" s="1"/>
       <c r="O290" s="1"/>
     </row>
-    <row r="291" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="79"/>
       <c r="B291" s="28" t="s">
         <v>17</v>
@@ -10052,7 +10156,7 @@
       <c r="N291" s="1"/>
       <c r="O291" s="1"/>
     </row>
-    <row r="292" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="79"/>
       <c r="B292" s="28"/>
       <c r="C292" s="28"/>
@@ -10069,7 +10173,7 @@
       <c r="N292" s="1"/>
       <c r="O292" s="1"/>
     </row>
-    <row r="293" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="79"/>
       <c r="B293" s="28"/>
       <c r="C293" s="28"/>
@@ -10086,7 +10190,7 @@
       <c r="N293" s="1"/>
       <c r="O293" s="1"/>
     </row>
-    <row r="294" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="79"/>
       <c r="B294" s="28"/>
       <c r="C294" s="28"/>
@@ -10103,7 +10207,7 @@
       <c r="N294" s="1"/>
       <c r="O294" s="1"/>
     </row>
-    <row r="295" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A295" s="79"/>
       <c r="B295" s="28"/>
       <c r="C295" s="28"/>
@@ -10120,7 +10224,7 @@
       <c r="N295" s="1"/>
       <c r="O295" s="1"/>
     </row>
-    <row r="296" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A296" s="1"/>
       <c r="B296" s="33"/>
       <c r="C296" s="33"/>
@@ -10131,7 +10235,7 @@
       </c>
       <c r="F296" s="36">
         <f>SUM(F278:F295)-SUM(F275:F276)</f>
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="G296" s="91"/>
       <c r="H296" s="91"/>
@@ -10143,7 +10247,7 @@
       <c r="N296" s="1"/>
       <c r="O296" s="1"/>
     </row>
-    <row r="297" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -10160,7 +10264,7 @@
       <c r="N297" s="1"/>
       <c r="O297" s="1"/>
     </row>
-    <row r="298" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -10177,7 +10281,7 @@
       <c r="N298" s="1"/>
       <c r="O298" s="1"/>
     </row>
-    <row r="299" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1" t="s">
@@ -10198,7 +10302,7 @@
       <c r="N299" s="1"/>
       <c r="O299" s="1"/>
     </row>
-    <row r="300" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A300" s="1"/>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
@@ -10215,7 +10319,7 @@
       <c r="N300" s="1"/>
       <c r="O300" s="1"/>
     </row>
-    <row r="301" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A301" s="79"/>
       <c r="B301" s="6" t="s">
         <v>3</v>
@@ -10242,7 +10346,7 @@
       <c r="N301" s="1"/>
       <c r="O301" s="1"/>
     </row>
-    <row r="302" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="79"/>
       <c r="B302" s="112" t="s">
         <v>13</v>
@@ -10271,7 +10375,7 @@
       <c r="N302" s="1"/>
       <c r="O302" s="1"/>
     </row>
-    <row r="303" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="79"/>
       <c r="B303" s="21" t="s">
         <v>13</v>
@@ -10284,7 +10388,7 @@
         <v>292</v>
       </c>
       <c r="F303" s="21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G303" s="87">
         <v>45890</v>
@@ -10298,7 +10402,7 @@
       <c r="N303" s="1"/>
       <c r="O303" s="1"/>
     </row>
-    <row r="304" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="79"/>
       <c r="B304" s="21"/>
       <c r="C304" s="21"/>
@@ -10315,7 +10419,7 @@
       <c r="N304" s="1"/>
       <c r="O304" s="1"/>
     </row>
-    <row r="305" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="79"/>
       <c r="B305" s="28" t="s">
         <v>14</v>
@@ -10342,7 +10446,7 @@
       <c r="N305" s="1"/>
       <c r="O305" s="1"/>
     </row>
-    <row r="306" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="79"/>
       <c r="B306" s="28" t="s">
         <v>14</v>
@@ -10369,7 +10473,7 @@
       <c r="N306" s="1"/>
       <c r="O306" s="1"/>
     </row>
-    <row r="307" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="79"/>
       <c r="B307" s="28"/>
       <c r="C307" s="28"/>
@@ -10386,7 +10490,7 @@
       <c r="N307" s="1"/>
       <c r="O307" s="1"/>
     </row>
-    <row r="308" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="79"/>
       <c r="B308" s="28" t="s">
         <v>16</v>
@@ -10401,7 +10505,7 @@
         <v>4</v>
       </c>
       <c r="F308" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G308" s="87"/>
       <c r="H308" s="91"/>
@@ -10413,7 +10517,7 @@
       <c r="N308" s="1"/>
       <c r="O308" s="1"/>
     </row>
-    <row r="309" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="79"/>
       <c r="B309" s="28" t="s">
         <v>16</v>
@@ -10440,7 +10544,7 @@
       <c r="N309" s="1"/>
       <c r="O309" s="1"/>
     </row>
-    <row r="310" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="79"/>
       <c r="B310" s="28" t="s">
         <v>16</v>
@@ -10467,7 +10571,7 @@
       <c r="N310" s="1"/>
       <c r="O310" s="1"/>
     </row>
-    <row r="311" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="79"/>
       <c r="B311" s="28"/>
       <c r="C311" s="28"/>
@@ -10484,7 +10588,7 @@
       <c r="N311" s="1"/>
       <c r="O311" s="1"/>
     </row>
-    <row r="312" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="79"/>
       <c r="B312" s="28"/>
       <c r="C312" s="28"/>
@@ -10501,7 +10605,7 @@
       <c r="N312" s="1"/>
       <c r="O312" s="1"/>
     </row>
-    <row r="313" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="79"/>
       <c r="B313" s="28"/>
       <c r="C313" s="28"/>
@@ -10518,7 +10622,7 @@
       <c r="N313" s="1"/>
       <c r="O313" s="1"/>
     </row>
-    <row r="314" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="79"/>
       <c r="B314" s="28" t="s">
         <v>17</v>
@@ -10533,7 +10637,7 @@
         <v>54</v>
       </c>
       <c r="F314" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G314" s="87"/>
       <c r="H314" s="91"/>
@@ -10545,7 +10649,7 @@
       <c r="N314" s="1"/>
       <c r="O314" s="1"/>
     </row>
-    <row r="315" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="79"/>
       <c r="B315" s="28" t="s">
         <v>17</v>
@@ -10572,7 +10676,7 @@
       <c r="N315" s="1"/>
       <c r="O315" s="1"/>
     </row>
-    <row r="316" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="79"/>
       <c r="B316" s="28" t="s">
         <v>17</v>
@@ -10599,7 +10703,7 @@
       <c r="N316" s="1"/>
       <c r="O316" s="1"/>
     </row>
-    <row r="317" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="79"/>
       <c r="B317" s="28" t="s">
         <v>17</v>
@@ -10626,7 +10730,7 @@
       <c r="N317" s="1"/>
       <c r="O317" s="1"/>
     </row>
-    <row r="318" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="79"/>
       <c r="B318" s="108" t="s">
         <v>17</v>
@@ -10657,13 +10761,13 @@
       <c r="N318" s="1"/>
       <c r="O318" s="1"/>
     </row>
-    <row r="319" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="79"/>
       <c r="B319" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C319" s="28" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D319" s="28" t="s">
         <v>284</v>
@@ -10686,7 +10790,7 @@
       <c r="N319" s="1"/>
       <c r="O319" s="1"/>
     </row>
-    <row r="320" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="79"/>
       <c r="B320" s="28"/>
       <c r="C320" s="28"/>
@@ -10703,7 +10807,7 @@
       <c r="N320" s="1"/>
       <c r="O320" s="1"/>
     </row>
-    <row r="321" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="79"/>
       <c r="B321" s="28"/>
       <c r="C321" s="28"/>
@@ -10720,7 +10824,7 @@
       <c r="N321" s="1"/>
       <c r="O321" s="1"/>
     </row>
-    <row r="322" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A322" s="79"/>
       <c r="B322" s="28"/>
       <c r="C322" s="28"/>
@@ -10737,7 +10841,7 @@
       <c r="N322" s="1"/>
       <c r="O322" s="1"/>
     </row>
-    <row r="323" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A323" s="1"/>
       <c r="B323" s="33"/>
       <c r="C323" s="33"/>
@@ -10748,7 +10852,7 @@
       </c>
       <c r="F323" s="36">
         <f>SUM(F305:F322)-SUM(F302:F304)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G323" s="80"/>
       <c r="H323" s="92"/>
@@ -10760,7 +10864,7 @@
       <c r="N323" s="1"/>
       <c r="O323" s="1"/>
     </row>
-    <row r="324" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -10777,7 +10881,7 @@
       <c r="N324" s="1"/>
       <c r="O324" s="1"/>
     </row>
-    <row r="325" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -10794,7 +10898,7 @@
       <c r="N325" s="1"/>
       <c r="O325" s="1"/>
     </row>
-    <row r="326" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1" t="s">
@@ -10815,7 +10919,7 @@
       <c r="N326" s="1"/>
       <c r="O326" s="1"/>
     </row>
-    <row r="327" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A327" s="1"/>
       <c r="B327" s="4"/>
       <c r="C327" s="4"/>
@@ -10832,7 +10936,7 @@
       <c r="N327" s="1"/>
       <c r="O327" s="1"/>
     </row>
-    <row r="328" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A328" s="79"/>
       <c r="B328" s="6" t="s">
         <v>3</v>
@@ -10859,7 +10963,7 @@
       <c r="N328" s="1"/>
       <c r="O328" s="1"/>
     </row>
-    <row r="329" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="79"/>
       <c r="B329" s="12" t="s">
         <v>13</v>
@@ -10872,7 +10976,7 @@
         <v>1</v>
       </c>
       <c r="F329" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G329" s="83"/>
       <c r="H329" s="87"/>
@@ -10884,7 +10988,7 @@
       <c r="N329" s="1"/>
       <c r="O329" s="1"/>
     </row>
-    <row r="330" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="79"/>
       <c r="B330" s="21"/>
       <c r="C330" s="21"/>
@@ -10901,7 +11005,7 @@
       <c r="N330" s="1"/>
       <c r="O330" s="1"/>
     </row>
-    <row r="331" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="79"/>
       <c r="B331" s="21"/>
       <c r="C331" s="21"/>
@@ -10918,7 +11022,7 @@
       <c r="N331" s="1"/>
       <c r="O331" s="1"/>
     </row>
-    <row r="332" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="79"/>
       <c r="B332" s="28" t="s">
         <v>14</v>
@@ -10945,7 +11049,7 @@
       <c r="N332" s="1"/>
       <c r="O332" s="1"/>
     </row>
-    <row r="333" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="79"/>
       <c r="B333" s="28" t="s">
         <v>14</v>
@@ -10972,7 +11076,7 @@
       <c r="N333" s="1"/>
       <c r="O333" s="1"/>
     </row>
-    <row r="334" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="79"/>
       <c r="B334" s="28"/>
       <c r="C334" s="28"/>
@@ -10989,7 +11093,7 @@
       <c r="N334" s="1"/>
       <c r="O334" s="1"/>
     </row>
-    <row r="335" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="79"/>
       <c r="B335" s="28" t="s">
         <v>16</v>
@@ -11016,7 +11120,7 @@
       <c r="N335" s="1"/>
       <c r="O335" s="1"/>
     </row>
-    <row r="336" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="79"/>
       <c r="B336" s="28" t="s">
         <v>16</v>
@@ -11043,7 +11147,7 @@
       <c r="N336" s="1"/>
       <c r="O336" s="1"/>
     </row>
-    <row r="337" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="79"/>
       <c r="B337" s="28" t="s">
         <v>16</v>
@@ -11070,7 +11174,7 @@
       <c r="N337" s="1"/>
       <c r="O337" s="1"/>
     </row>
-    <row r="338" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="79"/>
       <c r="B338" s="28"/>
       <c r="C338" s="28"/>
@@ -11087,7 +11191,7 @@
       <c r="N338" s="1"/>
       <c r="O338" s="1"/>
     </row>
-    <row r="339" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="79"/>
       <c r="B339" s="28"/>
       <c r="C339" s="28"/>
@@ -11101,7 +11205,7 @@
       <c r="N339" s="1"/>
       <c r="O339" s="1"/>
     </row>
-    <row r="340" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="79"/>
       <c r="B340" s="28"/>
       <c r="C340" s="28"/>
@@ -11115,7 +11219,7 @@
       <c r="N340" s="1"/>
       <c r="O340" s="1"/>
     </row>
-    <row r="341" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="79"/>
       <c r="B341" s="28" t="s">
         <v>17</v>
@@ -11139,7 +11243,7 @@
       <c r="N341" s="1"/>
       <c r="O341" s="1"/>
     </row>
-    <row r="342" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="79"/>
       <c r="B342" s="28" t="s">
         <v>17</v>
@@ -11163,7 +11267,7 @@
       <c r="N342" s="1"/>
       <c r="O342" s="1"/>
     </row>
-    <row r="343" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="79"/>
       <c r="B343" s="28" t="s">
         <v>17</v>
@@ -11187,7 +11291,7 @@
       <c r="N343" s="1"/>
       <c r="O343" s="1"/>
     </row>
-    <row r="344" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="79"/>
       <c r="B344" s="28" t="s">
         <v>17</v>
@@ -11211,7 +11315,7 @@
       <c r="N344" s="1"/>
       <c r="O344" s="1"/>
     </row>
-    <row r="345" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="79"/>
       <c r="B345" s="28" t="s">
         <v>17</v>
@@ -11235,7 +11339,7 @@
       <c r="N345" s="1"/>
       <c r="O345" s="1"/>
     </row>
-    <row r="346" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="79"/>
       <c r="B346" s="28"/>
       <c r="C346" s="28"/>
@@ -11249,7 +11353,7 @@
       <c r="N346" s="1"/>
       <c r="O346" s="1"/>
     </row>
-    <row r="347" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="79"/>
       <c r="B347" s="28"/>
       <c r="C347" s="28"/>
@@ -11263,7 +11367,7 @@
       <c r="N347" s="1"/>
       <c r="O347" s="1"/>
     </row>
-    <row r="348" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="79"/>
       <c r="B348" s="28"/>
       <c r="C348" s="28"/>
@@ -11277,7 +11381,7 @@
       <c r="N348" s="1"/>
       <c r="O348" s="1"/>
     </row>
-    <row r="349" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A349" s="79"/>
       <c r="B349" s="28"/>
       <c r="C349" s="28"/>
@@ -11291,7 +11395,7 @@
       <c r="N349" s="1"/>
       <c r="O349" s="1"/>
     </row>
-    <row r="350" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A350" s="1"/>
       <c r="B350" s="33"/>
       <c r="C350" s="33"/>
@@ -11302,7 +11406,7 @@
       </c>
       <c r="F350" s="36">
         <f>SUM(F332:F349)-SUM(F329:F331)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G350" s="83"/>
       <c r="H350" s="90"/>
@@ -11311,7 +11415,7 @@
       <c r="N350" s="1"/>
       <c r="O350" s="1"/>
     </row>
-    <row r="351" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -11325,7 +11429,7 @@
       <c r="N351" s="1"/>
       <c r="O351" s="1"/>
     </row>
-    <row r="353" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B353" s="1"/>
       <c r="C353" s="1" t="s">
         <v>251</v>
@@ -11340,7 +11444,7 @@
       <c r="I353" s="1"/>
       <c r="J353" s="1"/>
     </row>
-    <row r="354" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="2:10" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
       <c r="D354" s="4"/>
@@ -11351,7 +11455,7 @@
       <c r="I354" s="1"/>
       <c r="J354" s="1"/>
     </row>
-    <row r="355" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:10" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B355" s="6" t="s">
         <v>3</v>
       </c>
@@ -11372,7 +11476,7 @@
       <c r="I355" s="1"/>
       <c r="J355" s="1"/>
     </row>
-    <row r="356" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B356" s="12" t="s">
         <v>13</v>
       </c>
@@ -11384,14 +11488,14 @@
         <v>5</v>
       </c>
       <c r="F356" s="15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G356" s="1"/>
       <c r="H356" s="104"/>
       <c r="I356" s="1"/>
       <c r="J356" s="1"/>
     </row>
-    <row r="357" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B357" s="21"/>
       <c r="C357" s="21"/>
       <c r="D357" s="21"/>
@@ -11402,7 +11506,7 @@
       <c r="I357" s="1"/>
       <c r="J357" s="1"/>
     </row>
-    <row r="358" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B358" s="21"/>
       <c r="C358" s="21"/>
       <c r="D358" s="21"/>
@@ -11413,7 +11517,7 @@
       <c r="I358" s="1"/>
       <c r="J358" s="1"/>
     </row>
-    <row r="359" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B359" s="28" t="s">
         <v>14</v>
       </c>
@@ -11434,7 +11538,7 @@
       <c r="I359" s="1"/>
       <c r="J359" s="1"/>
     </row>
-    <row r="360" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B360" s="28" t="s">
         <v>14</v>
       </c>
@@ -11455,7 +11559,7 @@
       <c r="I360" s="1"/>
       <c r="J360" s="1"/>
     </row>
-    <row r="361" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B361" s="28"/>
       <c r="C361" s="28"/>
       <c r="D361" s="28"/>
@@ -11466,7 +11570,7 @@
       <c r="I361" s="1"/>
       <c r="J361" s="1"/>
     </row>
-    <row r="362" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B362" s="28" t="s">
         <v>16</v>
       </c>
@@ -11487,7 +11591,7 @@
       <c r="I362" s="1"/>
       <c r="J362" s="1"/>
     </row>
-    <row r="363" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B363" s="28" t="s">
         <v>16</v>
       </c>
@@ -11508,39 +11612,55 @@
       <c r="I363" s="1"/>
       <c r="J363" s="1"/>
     </row>
-    <row r="364" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B364" s="28" t="s">
+    <row r="364" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B364" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="C364" s="28" t="s">
+      <c r="C364" s="108" t="s">
         <v>177</v>
       </c>
-      <c r="D364" s="28" t="s">
+      <c r="D364" s="108" t="s">
         <v>123</v>
       </c>
-      <c r="E364" s="29">
-        <v>1</v>
-      </c>
-      <c r="F364" s="30">
+      <c r="E364" s="109">
+        <v>1</v>
+      </c>
+      <c r="F364" s="110">
         <v>0</v>
       </c>
-      <c r="G364" s="104"/>
-      <c r="H364" s="104"/>
+      <c r="G364" s="104" t="s">
+        <v>293</v>
+      </c>
+      <c r="H364" s="104">
+        <v>45904</v>
+      </c>
       <c r="I364" s="1"/>
       <c r="J364" s="1"/>
     </row>
-    <row r="365" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B365" s="28"/>
-      <c r="C365" s="28"/>
-      <c r="D365" s="28"/>
-      <c r="E365" s="29"/>
-      <c r="F365" s="30"/>
-      <c r="G365" s="104"/>
+    <row r="365" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B365" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C365" s="28" t="s">
+        <v>416</v>
+      </c>
+      <c r="D365" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="E365" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="F365" s="30">
+        <v>0</v>
+      </c>
+      <c r="G365" s="104">
+        <v>45904</v>
+      </c>
       <c r="H365" s="104"/>
       <c r="I365" s="1"/>
       <c r="J365" s="1"/>
     </row>
-    <row r="366" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B366" s="28"/>
       <c r="C366" s="28"/>
       <c r="D366" s="28"/>
@@ -11551,7 +11671,7 @@
       <c r="I366" s="1"/>
       <c r="J366" s="1"/>
     </row>
-    <row r="367" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B367" s="28"/>
       <c r="C367" s="28"/>
       <c r="D367" s="28"/>
@@ -11562,7 +11682,7 @@
       <c r="I367" s="1"/>
       <c r="J367" s="1"/>
     </row>
-    <row r="368" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B368" s="28" t="s">
         <v>17</v>
       </c>
@@ -11583,7 +11703,7 @@
       <c r="I368" s="1"/>
       <c r="J368" s="1"/>
     </row>
-    <row r="369" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B369" s="28" t="s">
         <v>17</v>
       </c>
@@ -11604,7 +11724,7 @@
       <c r="I369" s="1"/>
       <c r="J369" s="1"/>
     </row>
-    <row r="370" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B370" s="28" t="s">
         <v>17</v>
       </c>
@@ -11625,7 +11745,7 @@
       <c r="I370" s="1"/>
       <c r="J370" s="1"/>
     </row>
-    <row r="371" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B371" s="28" t="s">
         <v>17</v>
       </c>
@@ -11646,7 +11766,7 @@
       <c r="I371" s="1"/>
       <c r="J371" s="1"/>
     </row>
-    <row r="372" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B372" s="108" t="s">
         <v>17</v>
       </c>
@@ -11671,12 +11791,12 @@
       <c r="I372" s="1"/>
       <c r="J372" s="1"/>
     </row>
-    <row r="373" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B373" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C373" s="28" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D373" s="28" t="s">
         <v>162</v>
@@ -11694,7 +11814,7 @@
       <c r="I373" s="1"/>
       <c r="J373" s="1"/>
     </row>
-    <row r="374" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B374" s="28"/>
       <c r="C374" s="28"/>
       <c r="D374" s="28"/>
@@ -11705,7 +11825,7 @@
       <c r="I374" s="1"/>
       <c r="J374" s="1"/>
     </row>
-    <row r="375" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B375" s="28"/>
       <c r="C375" s="28"/>
       <c r="D375" s="28"/>
@@ -11716,7 +11836,7 @@
       <c r="I375" s="1"/>
       <c r="J375" s="1"/>
     </row>
-    <row r="376" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="2:10" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B376" s="28"/>
       <c r="C376" s="28"/>
       <c r="D376" s="28"/>
@@ -11727,7 +11847,7 @@
       <c r="I376" s="1"/>
       <c r="J376" s="1"/>
     </row>
-    <row r="377" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="2:10" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B377" s="33"/>
       <c r="C377" s="33"/>
       <c r="D377" s="34"/>
@@ -11737,14 +11857,14 @@
       </c>
       <c r="F377" s="36">
         <f>SUM(F359:F376)-SUM(F356:F358)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G377" s="1"/>
       <c r="H377" s="1"/>
       <c r="I377" s="1"/>
       <c r="J377" s="1"/>
     </row>
-    <row r="380" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B380" s="1"/>
       <c r="C380" s="3" t="s">
         <v>113</v>
@@ -11755,14 +11875,14 @@
       <c r="E380" s="2"/>
       <c r="F380" s="1"/>
     </row>
-    <row r="381" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="2:10" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B381" s="4"/>
       <c r="C381" s="4"/>
       <c r="D381" s="4"/>
       <c r="E381" s="5"/>
       <c r="F381" s="4"/>
     </row>
-    <row r="382" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="2:10" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B382" s="6" t="s">
         <v>3</v>
       </c>
@@ -11779,7 +11899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="383" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B383" s="12" t="s">
         <v>13</v>
       </c>
@@ -11788,21 +11908,21 @@
       <c r="E383" s="14"/>
       <c r="F383" s="15"/>
     </row>
-    <row r="384" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B384" s="21"/>
       <c r="C384" s="21"/>
       <c r="D384" s="21"/>
       <c r="E384" s="22"/>
       <c r="F384" s="21"/>
     </row>
-    <row r="385" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B385" s="21"/>
       <c r="C385" s="21"/>
       <c r="D385" s="21"/>
       <c r="E385" s="22"/>
       <c r="F385" s="21"/>
     </row>
-    <row r="386" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B386" s="28" t="s">
         <v>14</v>
       </c>
@@ -11811,7 +11931,7 @@
       <c r="E386" s="29"/>
       <c r="F386" s="30"/>
     </row>
-    <row r="387" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B387" s="28" t="s">
         <v>14</v>
       </c>
@@ -11820,14 +11940,14 @@
       <c r="E387" s="29"/>
       <c r="F387" s="30"/>
     </row>
-    <row r="388" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B388" s="28"/>
       <c r="C388" s="28"/>
       <c r="D388" s="28"/>
       <c r="E388" s="29"/>
       <c r="F388" s="30"/>
     </row>
-    <row r="389" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B389" s="28" t="s">
         <v>16</v>
       </c>
@@ -11836,7 +11956,7 @@
       <c r="E389" s="29"/>
       <c r="F389" s="30"/>
     </row>
-    <row r="390" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B390" s="28" t="s">
         <v>16</v>
       </c>
@@ -11845,7 +11965,7 @@
       <c r="E390" s="29"/>
       <c r="F390" s="30"/>
     </row>
-    <row r="391" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B391" s="28" t="s">
         <v>16</v>
       </c>
@@ -11854,28 +11974,28 @@
       <c r="E391" s="29"/>
       <c r="F391" s="30"/>
     </row>
-    <row r="392" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B392" s="28"/>
       <c r="C392" s="28"/>
       <c r="D392" s="28"/>
       <c r="E392" s="29"/>
       <c r="F392" s="30"/>
     </row>
-    <row r="393" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B393" s="28"/>
       <c r="C393" s="28"/>
       <c r="D393" s="28"/>
       <c r="E393" s="29"/>
       <c r="F393" s="30"/>
     </row>
-    <row r="394" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B394" s="28"/>
       <c r="C394" s="28"/>
       <c r="D394" s="28"/>
       <c r="E394" s="29"/>
       <c r="F394" s="30"/>
     </row>
-    <row r="395" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B395" s="28" t="s">
         <v>17</v>
       </c>
@@ -11884,7 +12004,7 @@
       <c r="E395" s="29"/>
       <c r="F395" s="30"/>
     </row>
-    <row r="396" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B396" s="28" t="s">
         <v>17</v>
       </c>
@@ -11893,7 +12013,7 @@
       <c r="E396" s="29"/>
       <c r="F396" s="30"/>
     </row>
-    <row r="397" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B397" s="28" t="s">
         <v>17</v>
       </c>
@@ -11902,7 +12022,7 @@
       <c r="E397" s="29"/>
       <c r="F397" s="30"/>
     </row>
-    <row r="398" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B398" s="28" t="s">
         <v>17</v>
       </c>
@@ -11911,7 +12031,7 @@
       <c r="E398" s="29"/>
       <c r="F398" s="30"/>
     </row>
-    <row r="399" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B399" s="28" t="s">
         <v>17</v>
       </c>
@@ -11920,35 +12040,35 @@
       <c r="E399" s="29"/>
       <c r="F399" s="30"/>
     </row>
-    <row r="400" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B400" s="28"/>
       <c r="C400" s="28"/>
       <c r="D400" s="28"/>
       <c r="E400" s="29"/>
       <c r="F400" s="30"/>
     </row>
-    <row r="401" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B401" s="28"/>
       <c r="C401" s="28"/>
       <c r="D401" s="28"/>
       <c r="E401" s="29"/>
       <c r="F401" s="30"/>
     </row>
-    <row r="402" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B402" s="28"/>
       <c r="C402" s="28"/>
       <c r="D402" s="28"/>
       <c r="E402" s="29"/>
       <c r="F402" s="30"/>
     </row>
-    <row r="403" spans="2:6" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="2:6" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B403" s="28"/>
       <c r="C403" s="28"/>
       <c r="D403" s="28"/>
       <c r="E403" s="29"/>
       <c r="F403" s="30"/>
     </row>
-    <row r="404" spans="2:6" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="2:6" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B404" s="33"/>
       <c r="C404" s="33"/>
       <c r="D404" s="34"/>
@@ -11993,21 +12113,21 @@
   <dimension ref="A1:IV22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="38" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" style="38" customWidth="1"/>
+    <col min="1" max="1" width="1.296875" style="38" customWidth="1"/>
+    <col min="2" max="2" width="11.796875" style="38" customWidth="1"/>
     <col min="3" max="3" width="31" style="38" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="38" customWidth="1"/>
+    <col min="4" max="4" width="35.296875" style="38" customWidth="1"/>
     <col min="5" max="6" width="9" style="38" customWidth="1"/>
     <col min="7" max="7" width="11" style="38" customWidth="1"/>
     <col min="8" max="256" width="9" style="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -12024,7 +12144,7 @@
       </c>
       <c r="K1" s="41"/>
     </row>
-    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40"/>
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
@@ -12039,7 +12159,7 @@
       <c r="J2" s="41"/>
       <c r="K2" s="41"/>
     </row>
-    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="40"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -12052,7 +12172,7 @@
       <c r="J3" s="41"/>
       <c r="K3" s="41"/>
     </row>
-    <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="40"/>
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
@@ -12067,7 +12187,7 @@
       <c r="J4" s="41"/>
       <c r="K4" s="41"/>
     </row>
-    <row r="5" spans="1:11" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="40"/>
       <c r="B5" s="45"/>
       <c r="C5" s="45"/>
@@ -12080,7 +12200,7 @@
       <c r="J5" s="41"/>
       <c r="K5" s="41"/>
     </row>
-    <row r="6" spans="1:11" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="14.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="47"/>
       <c r="B6" s="48" t="s">
         <v>3</v>
@@ -12105,7 +12225,7 @@
       <c r="J6" s="41"/>
       <c r="K6" s="41"/>
     </row>
-    <row r="7" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="47"/>
       <c r="B7" s="54">
         <v>1</v>
@@ -12120,17 +12240,17 @@
         <v>11</v>
       </c>
       <c r="F7" s="26">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="52"/>
       <c r="I7" s="41"/>
       <c r="J7" s="41"/>
       <c r="K7" s="41"/>
     </row>
-    <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="47"/>
       <c r="B8" s="54">
         <v>2</v>
@@ -12138,66 +12258,66 @@
       <c r="C8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="24" t="s">
         <v>203</v>
       </c>
       <c r="E8" s="25">
-        <v>7</v>
-      </c>
-      <c r="F8" s="56">
-        <v>8</v>
-      </c>
-      <c r="G8" s="57">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="F8" s="26">
+        <v>12</v>
+      </c>
+      <c r="G8" s="27">
+        <v>3</v>
       </c>
       <c r="H8" s="52"/>
       <c r="I8" s="41"/>
       <c r="J8" s="41"/>
       <c r="K8" s="41"/>
     </row>
-    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="47"/>
       <c r="B9" s="54">
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>15</v>
+        <v>52</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>208</v>
       </c>
       <c r="E9" s="25">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F9" s="26">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G9" s="27">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H9" s="52"/>
       <c r="I9" s="41"/>
       <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-    </row>
-    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K9" s="53"/>
+    </row>
+    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="47"/>
       <c r="B10" s="54">
         <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="55" t="s">
-        <v>208</v>
+        <v>33</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="E10" s="25">
-        <v>3</v>
-      </c>
-      <c r="F10" s="56">
-        <v>10</v>
-      </c>
-      <c r="G10" s="57">
+        <v>4</v>
+      </c>
+      <c r="F10" s="26">
+        <v>11</v>
+      </c>
+      <c r="G10" s="27">
         <v>7</v>
       </c>
       <c r="H10" s="52"/>
@@ -12205,22 +12325,22 @@
       <c r="J10" s="41"/>
       <c r="K10" s="41"/>
     </row>
-    <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="47"/>
       <c r="B11" s="54">
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="55" t="s">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>35</v>
       </c>
       <c r="E11" s="25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11" s="26">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G11" s="27">
         <v>6</v>
@@ -12228,149 +12348,149 @@
       <c r="H11" s="52"/>
       <c r="I11" s="41"/>
       <c r="J11" s="41"/>
-      <c r="K11" s="53"/>
-    </row>
-    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="41"/>
+    </row>
+    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="47"/>
       <c r="B12" s="54">
         <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>249</v>
+        <v>55</v>
+      </c>
+      <c r="D12" s="55" t="s">
+        <v>274</v>
       </c>
       <c r="E12" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" s="26">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G12" s="27">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H12" s="52"/>
       <c r="I12" s="41"/>
       <c r="J12" s="41"/>
       <c r="K12" s="41"/>
     </row>
-    <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="47"/>
       <c r="B13" s="54">
         <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>250</v>
+        <v>119</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>251</v>
+        <v>143</v>
       </c>
       <c r="E13" s="25">
         <v>1</v>
       </c>
       <c r="F13" s="26">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G13" s="27">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H13" s="52"/>
       <c r="I13" s="41"/>
       <c r="J13" s="41"/>
       <c r="K13" s="41"/>
     </row>
-    <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="47"/>
       <c r="B14" s="54">
         <v>8</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="D14" s="55" t="s">
-        <v>238</v>
+        <v>193</v>
       </c>
       <c r="E14" s="25">
-        <v>0</v>
-      </c>
-      <c r="F14" s="26">
-        <v>7</v>
-      </c>
-      <c r="G14" s="27">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="F14" s="56">
+        <v>5</v>
+      </c>
+      <c r="G14" s="57">
+        <v>4</v>
       </c>
       <c r="H14" s="52"/>
       <c r="I14" s="41"/>
       <c r="J14" s="41"/>
       <c r="K14" s="41"/>
     </row>
-    <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="47"/>
       <c r="B15" s="54">
         <v>9</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E15" s="25">
         <v>0</v>
       </c>
-      <c r="F15" s="26">
-        <v>4</v>
-      </c>
-      <c r="G15" s="27">
-        <v>4</v>
+      <c r="F15" s="56">
+        <v>6</v>
+      </c>
+      <c r="G15" s="57">
+        <v>6</v>
       </c>
       <c r="H15" s="52"/>
       <c r="I15" s="41"/>
       <c r="J15" s="41"/>
       <c r="K15" s="41"/>
     </row>
-    <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="47"/>
       <c r="B16" s="54">
         <v>10</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="E16" s="25">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="26">
         <v>5</v>
       </c>
       <c r="G16" s="27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H16" s="52"/>
       <c r="I16" s="41"/>
       <c r="J16" s="41"/>
       <c r="K16" s="41"/>
     </row>
-    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="47"/>
       <c r="B17" s="54">
         <v>11</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>193</v>
+        <v>249</v>
       </c>
       <c r="E17" s="25">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17" s="27">
         <v>4</v>
@@ -12380,57 +12500,57 @@
       <c r="J17" s="41"/>
       <c r="K17" s="41"/>
     </row>
-    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="47"/>
       <c r="B18" s="54">
         <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>143</v>
+        <v>54</v>
       </c>
       <c r="E18" s="25">
-        <v>-3</v>
-      </c>
-      <c r="F18" s="56">
+        <v>0</v>
+      </c>
+      <c r="F18" s="26">
         <v>3</v>
       </c>
-      <c r="G18" s="57">
-        <v>6</v>
+      <c r="G18" s="27">
+        <v>3</v>
       </c>
       <c r="H18" s="52"/>
       <c r="I18" s="41"/>
       <c r="J18" s="41"/>
       <c r="K18" s="41"/>
     </row>
-    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="47"/>
       <c r="B19" s="54">
         <v>13</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>54</v>
+        <v>99</v>
+      </c>
+      <c r="D19" s="55" t="s">
+        <v>238</v>
       </c>
       <c r="E19" s="25">
-        <v>-3</v>
-      </c>
-      <c r="F19" s="26">
-        <v>0</v>
-      </c>
-      <c r="G19" s="27">
-        <v>3</v>
+        <v>-1</v>
+      </c>
+      <c r="F19" s="56">
+        <v>9</v>
+      </c>
+      <c r="G19" s="57">
+        <v>10</v>
       </c>
       <c r="H19" s="52"/>
       <c r="I19" s="41"/>
       <c r="J19" s="41"/>
       <c r="K19" s="41"/>
     </row>
-    <row r="20" spans="1:11" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="47"/>
       <c r="B20" s="54">
         <v>14</v>
@@ -12445,17 +12565,17 @@
         <v>-5</v>
       </c>
       <c r="F20" s="26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G20" s="27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H20" s="52"/>
       <c r="I20" s="41"/>
       <c r="J20" s="41"/>
       <c r="K20" s="41"/>
     </row>
-    <row r="21" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
       <c r="B21" s="59"/>
       <c r="C21" s="59"/>
@@ -12468,7 +12588,7 @@
       <c r="J21" s="41"/>
       <c r="K21" s="41"/>
     </row>
-    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
       <c r="B22" s="40"/>
       <c r="C22" s="40"/>
@@ -12482,11 +12602,6 @@
       <c r="K22" s="41"/>
     </row>
   </sheetData>
-  <autoFilter ref="A6:IV6" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:IV20">
-      <sortCondition descending="1" ref="E6"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="93" orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -12507,17 +12622,17 @@
       <selection activeCell="H1" sqref="H1:R29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" style="38" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="38" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="38" customWidth="1"/>
-    <col min="5" max="5" width="31.33203125" style="38" customWidth="1"/>
-    <col min="6" max="7" width="9.33203125" style="38" customWidth="1"/>
-    <col min="8" max="257" width="8.77734375" style="38" customWidth="1"/>
+    <col min="2" max="2" width="33.296875" style="38" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="9.296875" style="38" customWidth="1"/>
+    <col min="5" max="5" width="31.296875" style="38" customWidth="1"/>
+    <col min="6" max="7" width="9.296875" style="38" customWidth="1"/>
+    <col min="8" max="257" width="8.796875" style="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="62" t="s">
         <v>260</v>
       </c>
@@ -12527,7 +12642,7 @@
       <c r="F1" s="40"/>
       <c r="G1" s="40"/>
     </row>
-    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
@@ -12535,7 +12650,7 @@
       <c r="F2" s="40"/>
       <c r="G2" s="40"/>
     </row>
-    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="63" t="s">
         <v>39</v>
       </c>
@@ -12545,7 +12660,7 @@
       <c r="F3" s="40"/>
       <c r="G3" s="40"/>
     </row>
-    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="67" t="s">
         <v>43</v>
       </c>
@@ -12556,7 +12671,7 @@
       <c r="F4" s="68"/>
       <c r="G4" s="64"/>
     </row>
-    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="67" t="s">
         <v>44</v>
       </c>
@@ -12567,7 +12682,7 @@
       <c r="F5" s="68"/>
       <c r="G5" s="64"/>
     </row>
-    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="67" t="s">
         <v>45</v>
       </c>
@@ -12578,7 +12693,7 @@
       <c r="F6" s="68"/>
       <c r="G6" s="64"/>
     </row>
-    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="67" t="s">
         <v>46</v>
       </c>
@@ -12589,7 +12704,7 @@
       <c r="F7" s="68"/>
       <c r="G7" s="64"/>
     </row>
-    <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="67" t="s">
         <v>47</v>
       </c>
@@ -12600,7 +12715,7 @@
       <c r="F8" s="68"/>
       <c r="G8" s="64"/>
     </row>
-    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="67" t="s">
         <v>48</v>
       </c>
@@ -12611,7 +12726,7 @@
       <c r="F9" s="68"/>
       <c r="G9" s="64"/>
     </row>
-    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="67"/>
       <c r="B10" s="65"/>
       <c r="C10" s="65"/>
@@ -12620,7 +12735,7 @@
       <c r="F10" s="40"/>
       <c r="G10" s="61"/>
     </row>
-    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="67"/>
       <c r="B11" s="63" t="s">
         <v>63</v>
@@ -12631,7 +12746,7 @@
       <c r="F11" s="68"/>
       <c r="G11" s="64"/>
     </row>
-    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="67" t="s">
         <v>49</v>
       </c>
@@ -12642,7 +12757,7 @@
       <c r="F12" s="69"/>
       <c r="G12" s="100"/>
     </row>
-    <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="67" t="s">
         <v>50</v>
       </c>
@@ -12653,7 +12768,7 @@
       <c r="F13" s="68"/>
       <c r="G13" s="64"/>
     </row>
-    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="67" t="s">
         <v>51</v>
       </c>
@@ -12664,7 +12779,7 @@
       <c r="F14" s="69"/>
       <c r="G14" s="100"/>
     </row>
-    <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="67" t="s">
         <v>64</v>
       </c>
@@ -12675,7 +12790,7 @@
       <c r="F15" s="68"/>
       <c r="G15" s="64"/>
     </row>
-    <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="67"/>
       <c r="B16" s="65"/>
       <c r="C16" s="68"/>
@@ -12684,7 +12799,7 @@
       <c r="F16" s="68"/>
       <c r="G16" s="64"/>
     </row>
-    <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="67"/>
       <c r="B17" s="63" t="s">
         <v>108</v>
@@ -12695,7 +12810,7 @@
       <c r="F17" s="69"/>
       <c r="G17" s="100"/>
     </row>
-    <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="67" t="s">
         <v>77</v>
       </c>
@@ -12706,7 +12821,7 @@
       <c r="F18" s="68"/>
       <c r="G18" s="64"/>
     </row>
-    <row r="19" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="63"/>
       <c r="C19" s="64"/>
       <c r="D19" s="64"/>
@@ -12714,7 +12829,7 @@
       <c r="F19" s="66"/>
       <c r="G19" s="40"/>
     </row>
-    <row r="20" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="65"/>
       <c r="C20" s="64"/>
       <c r="D20" s="61"/>
@@ -12722,7 +12837,7 @@
       <c r="F20" s="66"/>
       <c r="G20" s="40"/>
     </row>
-    <row r="21" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="63" t="s">
         <v>40</v>
       </c>
@@ -12732,7 +12847,7 @@
       <c r="F21" s="66"/>
       <c r="G21" s="40"/>
     </row>
-    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="67" t="s">
         <v>78</v>
       </c>
@@ -12743,7 +12858,7 @@
       <c r="F22" s="68"/>
       <c r="G22" s="64"/>
     </row>
-    <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="67" t="s">
         <v>79</v>
       </c>
@@ -12754,7 +12869,7 @@
       <c r="F23" s="69"/>
       <c r="G23" s="100"/>
     </row>
-    <row r="24" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="65"/>
       <c r="C24" s="65"/>
       <c r="D24" s="64"/>
@@ -12762,7 +12877,7 @@
       <c r="F24" s="40"/>
       <c r="G24" s="40"/>
     </row>
-    <row r="25" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="63" t="s">
         <v>41</v>
       </c>
@@ -12772,7 +12887,7 @@
       <c r="F25" s="40"/>
       <c r="G25" s="40"/>
     </row>
-    <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="67" t="s">
         <v>112</v>
       </c>
@@ -12783,7 +12898,7 @@
       <c r="F26" s="69"/>
       <c r="G26" s="100"/>
     </row>
-    <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="40"/>
       <c r="C27" s="40"/>
       <c r="D27" s="64"/>
@@ -12791,7 +12906,7 @@
       <c r="F27" s="40"/>
       <c r="G27" s="40"/>
     </row>
-    <row r="28" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="63" t="s">
         <v>42</v>
       </c>
@@ -12802,7 +12917,7 @@
       <c r="G28" s="40"/>
       <c r="K28" s="98"/>
     </row>
-    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="65"/>
       <c r="C29" s="40"/>
       <c r="D29" s="40"/>
@@ -12828,16 +12943,16 @@
   <dimension ref="A1:X68"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="35.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.69921875" customWidth="1"/>
+    <col min="5" max="5" width="35.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B1" s="62" t="s">
         <v>290</v>
       </c>
@@ -12864,7 +12979,7 @@
       <c r="W1" s="38"/>
       <c r="X1" s="38"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
@@ -12889,7 +13004,7 @@
       <c r="W2" s="38"/>
       <c r="X2" s="38"/>
     </row>
-    <row r="3" spans="1:24" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B3" s="63" t="s">
         <v>39</v>
       </c>
@@ -12916,20 +13031,24 @@
       <c r="W3" s="38"/>
       <c r="X3" s="38"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="68"/>
+      <c r="B4" s="68" t="s">
+        <v>249</v>
+      </c>
       <c r="C4" s="68"/>
       <c r="D4" s="64"/>
-      <c r="E4" s="68"/>
+      <c r="E4" s="68" t="s">
+        <v>421</v>
+      </c>
       <c r="F4" s="68"/>
       <c r="G4" s="64"/>
       <c r="H4" s="38"/>
       <c r="I4" s="38"/>
       <c r="J4" s="98" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K4" s="38"/>
       <c r="L4" s="38"/>
@@ -12946,20 +13065,24 @@
       <c r="W4" s="38"/>
       <c r="X4" s="38"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="68"/>
+      <c r="B5" s="68" t="s">
+        <v>35</v>
+      </c>
       <c r="C5" s="105"/>
       <c r="D5" s="64"/>
-      <c r="E5" s="68"/>
+      <c r="E5" s="68" t="s">
+        <v>422</v>
+      </c>
       <c r="F5" s="68"/>
       <c r="G5" s="64"/>
       <c r="H5" s="38"/>
       <c r="I5" s="38"/>
       <c r="J5" s="98" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K5" s="38"/>
       <c r="L5" s="38"/>
@@ -12976,20 +13099,24 @@
       <c r="W5" s="38"/>
       <c r="X5" s="38"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="68"/>
+      <c r="B6" s="68" t="s">
+        <v>143</v>
+      </c>
       <c r="C6" s="68"/>
       <c r="D6" s="64"/>
-      <c r="E6" s="68"/>
+      <c r="E6" s="68" t="s">
+        <v>423</v>
+      </c>
       <c r="F6" s="68"/>
       <c r="G6" s="64"/>
       <c r="H6" s="38"/>
       <c r="I6" s="38"/>
       <c r="J6" s="98" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K6" s="38"/>
       <c r="L6" s="38"/>
@@ -13006,20 +13133,24 @@
       <c r="W6" s="38"/>
       <c r="X6" s="38"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="68"/>
+      <c r="B7" s="68" t="s">
+        <v>54</v>
+      </c>
       <c r="C7" s="68"/>
       <c r="D7" s="64"/>
-      <c r="E7" s="68"/>
+      <c r="E7" s="68" t="s">
+        <v>424</v>
+      </c>
       <c r="F7" s="68"/>
       <c r="G7" s="64"/>
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
       <c r="J7" s="98" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K7" s="38"/>
       <c r="L7" s="38"/>
@@ -13036,20 +13167,24 @@
       <c r="W7" s="38"/>
       <c r="X7" s="38"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="68"/>
+      <c r="B8" s="68" t="s">
+        <v>251</v>
+      </c>
       <c r="C8" s="68"/>
       <c r="D8" s="64"/>
-      <c r="E8" s="68"/>
+      <c r="E8" s="68" t="s">
+        <v>425</v>
+      </c>
       <c r="F8" s="68"/>
       <c r="G8" s="64"/>
       <c r="H8" s="38"/>
       <c r="I8" s="38"/>
       <c r="J8" s="98" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K8" s="38"/>
       <c r="L8" s="38"/>
@@ -13066,20 +13201,24 @@
       <c r="W8" s="38"/>
       <c r="X8" s="38"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="68"/>
+      <c r="B9" s="68" t="s">
+        <v>15</v>
+      </c>
       <c r="C9" s="68"/>
       <c r="D9" s="64"/>
-      <c r="E9" s="68"/>
+      <c r="E9" s="68" t="s">
+        <v>426</v>
+      </c>
       <c r="F9" s="68"/>
       <c r="G9" s="64"/>
       <c r="H9" s="38"/>
       <c r="I9" s="38"/>
       <c r="J9" s="98" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K9" s="38"/>
       <c r="L9" s="38"/>
@@ -13096,20 +13235,24 @@
       <c r="W9" s="38"/>
       <c r="X9" s="38"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="68"/>
+      <c r="B10" s="68" t="s">
+        <v>274</v>
+      </c>
       <c r="C10" s="68"/>
       <c r="D10" s="64"/>
-      <c r="E10" s="68"/>
+      <c r="E10" s="68" t="s">
+        <v>427</v>
+      </c>
       <c r="F10" s="68"/>
       <c r="G10" s="64"/>
       <c r="H10" s="38"/>
       <c r="I10" s="38"/>
       <c r="J10" s="98" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K10" s="38"/>
       <c r="L10" s="38"/>
@@ -13126,14 +13269,18 @@
       <c r="W10" s="38"/>
       <c r="X10" s="38"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="68"/>
+      <c r="B11" s="68" t="s">
+        <v>203</v>
+      </c>
       <c r="C11" s="68"/>
       <c r="D11" s="64"/>
-      <c r="E11" s="68"/>
+      <c r="E11" s="68" t="s">
+        <v>428</v>
+      </c>
       <c r="F11" s="68"/>
       <c r="G11" s="64"/>
       <c r="H11" s="38"/>
@@ -13154,14 +13301,18 @@
       <c r="W11" s="38"/>
       <c r="X11" s="38"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="68"/>
+      <c r="B12" s="68" t="s">
+        <v>429</v>
+      </c>
       <c r="C12" s="68"/>
       <c r="D12" s="64"/>
-      <c r="E12" s="68"/>
+      <c r="E12" s="68" t="s">
+        <v>430</v>
+      </c>
       <c r="F12" s="68"/>
       <c r="G12" s="64"/>
       <c r="H12" s="38"/>
@@ -13182,14 +13333,18 @@
       <c r="W12" s="38"/>
       <c r="X12" s="38"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="68"/>
+      <c r="B13" s="68" t="s">
+        <v>32</v>
+      </c>
       <c r="C13" s="68"/>
       <c r="D13" s="64"/>
-      <c r="E13" s="68"/>
+      <c r="E13" s="68" t="s">
+        <v>431</v>
+      </c>
       <c r="F13" s="68"/>
       <c r="G13" s="64"/>
       <c r="H13" s="38"/>
@@ -13210,7 +13365,7 @@
       <c r="W13" s="38"/>
       <c r="X13" s="38"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="67"/>
       <c r="B14" s="65"/>
       <c r="C14" s="65"/>
@@ -13236,7 +13391,7 @@
       <c r="W14" s="38"/>
       <c r="X14" s="38"/>
     </row>
-    <row r="15" spans="1:24" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A15" s="67"/>
       <c r="B15" s="63" t="s">
         <v>261</v>
@@ -13264,7 +13419,7 @@
       <c r="W15" s="38"/>
       <c r="X15" s="38"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="67" t="s">
         <v>77</v>
       </c>
@@ -13292,7 +13447,7 @@
       <c r="W16" s="38"/>
       <c r="X16" s="38"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="67" t="s">
         <v>78</v>
       </c>
@@ -13320,7 +13475,7 @@
       <c r="W17" s="38"/>
       <c r="X17" s="38"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="67" t="s">
         <v>79</v>
       </c>
@@ -13348,7 +13503,7 @@
       <c r="W18" s="38"/>
       <c r="X18" s="38"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="67" t="s">
         <v>112</v>
       </c>
@@ -13376,7 +13531,7 @@
       <c r="W19" s="38"/>
       <c r="X19" s="38"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="67" t="s">
         <v>262</v>
       </c>
@@ -13404,7 +13559,7 @@
       <c r="W20" s="38"/>
       <c r="X20" s="38"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="67" t="s">
         <v>263</v>
       </c>
@@ -13432,7 +13587,7 @@
       <c r="W21" s="38"/>
       <c r="X21" s="38"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="67" t="s">
         <v>264</v>
       </c>
@@ -13460,7 +13615,7 @@
       <c r="W22" s="38"/>
       <c r="X22" s="38"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="67" t="s">
         <v>265</v>
       </c>
@@ -13488,7 +13643,7 @@
       <c r="W23" s="38"/>
       <c r="X23" s="38"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="67"/>
       <c r="B24" s="65"/>
       <c r="C24" s="68"/>
@@ -13514,7 +13669,7 @@
       <c r="W24" s="38"/>
       <c r="X24" s="38"/>
     </row>
-    <row r="25" spans="1:24" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A25" s="67"/>
       <c r="B25" s="63" t="s">
         <v>63</v>
@@ -13542,7 +13697,7 @@
       <c r="W25" s="38"/>
       <c r="X25" s="38"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="67" t="s">
         <v>266</v>
       </c>
@@ -13570,7 +13725,7 @@
       <c r="W26" s="38"/>
       <c r="X26" s="38"/>
     </row>
-    <row r="27" spans="1:24" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A27" s="67" t="s">
         <v>267</v>
       </c>
@@ -13598,7 +13753,7 @@
       <c r="W27" s="38"/>
       <c r="X27" s="38"/>
     </row>
-    <row r="28" spans="1:24" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A28" s="67" t="s">
         <v>268</v>
       </c>
@@ -13626,7 +13781,7 @@
       <c r="W28" s="38"/>
       <c r="X28" s="38"/>
     </row>
-    <row r="29" spans="1:24" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A29" s="67" t="s">
         <v>269</v>
       </c>
@@ -13654,7 +13809,7 @@
       <c r="W29" s="38"/>
       <c r="X29" s="38"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B30" s="65"/>
       <c r="C30" s="64"/>
       <c r="D30" s="61"/>
@@ -13679,7 +13834,7 @@
       <c r="W30" s="38"/>
       <c r="X30" s="38"/>
     </row>
-    <row r="31" spans="1:24" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B31" s="63" t="s">
         <v>40</v>
       </c>
@@ -13706,7 +13861,7 @@
       <c r="W31" s="38"/>
       <c r="X31" s="38"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" s="67" t="s">
         <v>270</v>
       </c>
@@ -13734,7 +13889,7 @@
       <c r="W32" s="38"/>
       <c r="X32" s="38"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" s="67" t="s">
         <v>271</v>
       </c>
@@ -13762,7 +13917,7 @@
       <c r="W33" s="38"/>
       <c r="X33" s="38"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B34" s="65"/>
       <c r="C34" s="65"/>
       <c r="D34" s="64"/>
@@ -13787,7 +13942,7 @@
       <c r="W34" s="38"/>
       <c r="X34" s="38"/>
     </row>
-    <row r="35" spans="1:24" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B35" s="63" t="s">
         <v>41</v>
       </c>
@@ -13814,7 +13969,7 @@
       <c r="W35" s="38"/>
       <c r="X35" s="38"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" s="67" t="s">
         <v>272</v>
       </c>
@@ -13842,7 +13997,7 @@
       <c r="W36" s="38"/>
       <c r="X36" s="38"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B37" s="40"/>
       <c r="C37" s="40"/>
       <c r="D37" s="64"/>
@@ -13867,7 +14022,7 @@
       <c r="W37" s="38"/>
       <c r="X37" s="38"/>
     </row>
-    <row r="38" spans="1:24" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B38" s="63" t="s">
         <v>42</v>
       </c>
@@ -13894,7 +14049,7 @@
       <c r="W38" s="38"/>
       <c r="X38" s="38"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B39" s="65"/>
       <c r="C39" s="40"/>
       <c r="D39" s="40"/>
@@ -13919,7 +14074,7 @@
       <c r="W39" s="38"/>
       <c r="X39" s="38"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="H40" s="38"/>
       <c r="I40" s="38"/>
       <c r="J40" s="38"/>
@@ -13938,7 +14093,7 @@
       <c r="W40" s="38"/>
       <c r="X40" s="38"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="H41" s="38"/>
       <c r="I41" s="38"/>
       <c r="J41" s="38"/>
@@ -13957,7 +14112,7 @@
       <c r="W41" s="38"/>
       <c r="X41" s="38"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="H42" s="38"/>
       <c r="I42" s="38"/>
       <c r="J42" s="38"/>
@@ -13976,7 +14131,7 @@
       <c r="W42" s="38"/>
       <c r="X42" s="38"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="H43" s="38"/>
       <c r="I43" s="38"/>
       <c r="J43" s="38"/>
@@ -13995,7 +14150,7 @@
       <c r="W43" s="38"/>
       <c r="X43" s="38"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="H44" s="38"/>
       <c r="I44" s="38"/>
       <c r="J44" s="38"/>
@@ -14014,7 +14169,7 @@
       <c r="W44" s="38"/>
       <c r="X44" s="38"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="H45" s="38"/>
       <c r="I45" s="38"/>
       <c r="J45" s="38"/>
@@ -14033,7 +14188,7 @@
       <c r="W45" s="38"/>
       <c r="X45" s="38"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="H46" s="38"/>
       <c r="I46" s="38"/>
       <c r="J46" s="38"/>
@@ -14052,7 +14207,7 @@
       <c r="W46" s="38"/>
       <c r="X46" s="38"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="H47" s="38"/>
       <c r="I47" s="38"/>
       <c r="J47" s="38"/>
@@ -14071,7 +14226,7 @@
       <c r="W47" s="38"/>
       <c r="X47" s="38"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="H48" s="38"/>
       <c r="I48" s="38"/>
       <c r="J48" s="38"/>
@@ -14090,7 +14245,7 @@
       <c r="W48" s="38"/>
       <c r="X48" s="38"/>
     </row>
-    <row r="49" spans="8:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H49" s="38"/>
       <c r="I49" s="38"/>
       <c r="J49" s="38"/>
@@ -14109,7 +14264,7 @@
       <c r="W49" s="38"/>
       <c r="X49" s="38"/>
     </row>
-    <row r="50" spans="8:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H50" s="38"/>
       <c r="I50" s="38"/>
       <c r="J50" s="38"/>
@@ -14128,7 +14283,7 @@
       <c r="W50" s="38"/>
       <c r="X50" s="38"/>
     </row>
-    <row r="51" spans="8:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H51" s="38"/>
       <c r="I51" s="38"/>
       <c r="J51" s="38"/>
@@ -14147,7 +14302,7 @@
       <c r="W51" s="38"/>
       <c r="X51" s="38"/>
     </row>
-    <row r="52" spans="8:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H52" s="38"/>
       <c r="I52" s="38"/>
       <c r="J52" s="38"/>
@@ -14166,7 +14321,7 @@
       <c r="W52" s="38"/>
       <c r="X52" s="38"/>
     </row>
-    <row r="53" spans="8:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H53" s="38"/>
       <c r="I53" s="38"/>
       <c r="J53" s="38"/>
@@ -14185,7 +14340,7 @@
       <c r="W53" s="38"/>
       <c r="X53" s="38"/>
     </row>
-    <row r="54" spans="8:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H54" s="38"/>
       <c r="I54" s="38"/>
       <c r="J54" s="38"/>
@@ -14204,7 +14359,7 @@
       <c r="W54" s="38"/>
       <c r="X54" s="38"/>
     </row>
-    <row r="55" spans="8:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H55" s="38"/>
       <c r="I55" s="38"/>
       <c r="J55" s="38"/>
@@ -14223,7 +14378,7 @@
       <c r="W55" s="38"/>
       <c r="X55" s="38"/>
     </row>
-    <row r="56" spans="8:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H56" s="38"/>
       <c r="I56" s="38"/>
       <c r="J56" s="38"/>
@@ -14242,7 +14397,7 @@
       <c r="W56" s="38"/>
       <c r="X56" s="38"/>
     </row>
-    <row r="57" spans="8:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H57" s="38"/>
       <c r="I57" s="38"/>
       <c r="J57" s="38"/>
@@ -14261,7 +14416,7 @@
       <c r="W57" s="38"/>
       <c r="X57" s="38"/>
     </row>
-    <row r="58" spans="8:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H58" s="38"/>
       <c r="I58" s="38"/>
       <c r="J58" s="38"/>
@@ -14280,7 +14435,7 @@
       <c r="W58" s="38"/>
       <c r="X58" s="38"/>
     </row>
-    <row r="59" spans="8:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H59" s="38"/>
       <c r="I59" s="38"/>
       <c r="J59" s="38"/>
@@ -14299,7 +14454,7 @@
       <c r="W59" s="38"/>
       <c r="X59" s="38"/>
     </row>
-    <row r="60" spans="8:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H60" s="38"/>
       <c r="I60" s="38"/>
       <c r="J60" s="38"/>
@@ -14318,7 +14473,7 @@
       <c r="W60" s="38"/>
       <c r="X60" s="38"/>
     </row>
-    <row r="61" spans="8:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H61" s="38"/>
       <c r="I61" s="38"/>
       <c r="J61" s="38"/>
@@ -14337,7 +14492,7 @@
       <c r="W61" s="38"/>
       <c r="X61" s="38"/>
     </row>
-    <row r="62" spans="8:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H62" s="38"/>
       <c r="I62" s="38"/>
       <c r="J62" s="38"/>
@@ -14356,7 +14511,7 @@
       <c r="W62" s="38"/>
       <c r="X62" s="38"/>
     </row>
-    <row r="63" spans="8:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H63" s="38"/>
       <c r="I63" s="38"/>
       <c r="J63" s="38"/>
@@ -14375,7 +14530,7 @@
       <c r="W63" s="38"/>
       <c r="X63" s="38"/>
     </row>
-    <row r="64" spans="8:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H64" s="38"/>
       <c r="I64" s="38"/>
       <c r="J64" s="38"/>
@@ -14394,7 +14549,7 @@
       <c r="W64" s="38"/>
       <c r="X64" s="38"/>
     </row>
-    <row r="65" spans="8:24" x14ac:dyDescent="0.25">
+    <row r="65" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H65" s="38"/>
       <c r="I65" s="38"/>
       <c r="J65" s="38"/>
@@ -14413,7 +14568,7 @@
       <c r="W65" s="38"/>
       <c r="X65" s="38"/>
     </row>
-    <row r="66" spans="8:24" x14ac:dyDescent="0.25">
+    <row r="66" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H66" s="38"/>
       <c r="I66" s="38"/>
       <c r="J66" s="38"/>
@@ -14432,7 +14587,7 @@
       <c r="W66" s="38"/>
       <c r="X66" s="38"/>
     </row>
-    <row r="67" spans="8:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H67" s="38"/>
       <c r="I67" s="38"/>
       <c r="J67" s="38"/>
@@ -14451,7 +14606,7 @@
       <c r="W67" s="38"/>
       <c r="X67" s="38"/>
     </row>
-    <row r="68" spans="8:24" x14ac:dyDescent="0.25">
+    <row r="68" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H68" s="38"/>
       <c r="I68" s="38"/>
       <c r="J68" s="38"/>
@@ -14481,63 +14636,63 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5616AB3-C7B1-4511-93B2-51A6298AD44C}">
-  <dimension ref="B5:Q38"/>
+  <dimension ref="A5:Q38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" activeCellId="1" sqref="C14 C16"/>
+      <selection activeCell="J19" sqref="J19:J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
-    <col min="10" max="10" width="17.109375" customWidth="1"/>
-    <col min="14" max="14" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.8984375" customWidth="1"/>
+    <col min="6" max="6" width="13.3984375" customWidth="1"/>
+    <col min="10" max="10" width="17.09765625" customWidth="1"/>
+    <col min="14" max="14" width="16.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C5" t="s">
+        <v>325</v>
+      </c>
+      <c r="F5" t="s">
+        <v>327</v>
+      </c>
+      <c r="G5" t="s">
+        <v>325</v>
+      </c>
+      <c r="J5" s="67" t="s">
+        <v>352</v>
+      </c>
+      <c r="K5" t="s">
+        <v>325</v>
+      </c>
+      <c r="N5" s="67" t="s">
+        <v>377</v>
+      </c>
+      <c r="O5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>305</v>
-      </c>
-      <c r="C5" t="s">
-        <v>326</v>
-      </c>
-      <c r="F5" t="s">
-        <v>328</v>
-      </c>
-      <c r="G5" t="s">
-        <v>326</v>
-      </c>
-      <c r="J5" s="67" t="s">
-        <v>353</v>
-      </c>
-      <c r="K5" t="s">
-        <v>326</v>
-      </c>
-      <c r="N5" s="67" t="s">
-        <v>378</v>
-      </c>
-      <c r="O5" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>306</v>
       </c>
       <c r="C6">
         <f>COUNTIF(Stats!D:D,'Player Count'!B6)</f>
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G6">
         <f>COUNTIF(Stats!D:D,'Player Count'!F6)</f>
         <v>3</v>
       </c>
       <c r="J6" s="67" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K6">
         <f>COUNTIF(Stats!D:D,'Player Count'!J6)</f>
@@ -14545,7 +14700,7 @@
       </c>
       <c r="M6" s="111"/>
       <c r="N6" s="67" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="O6">
         <f>COUNTIF(Stats!D:D,'Player Count'!N6)</f>
@@ -14553,23 +14708,23 @@
       </c>
       <c r="Q6" s="111"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C7">
         <f>COUNTIF(Stats!D:D,'Player Count'!B7)</f>
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G7">
         <f>COUNTIF(Stats!D:D,'Player Count'!F7)</f>
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K7">
         <f>COUNTIF(Stats!D:D,'Player Count'!J7)</f>
@@ -14577,7 +14732,7 @@
       </c>
       <c r="M7" s="111"/>
       <c r="N7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O7">
         <f>COUNTIF(Stats!D:D,'Player Count'!N7)</f>
@@ -14585,23 +14740,23 @@
       </c>
       <c r="Q7" s="111"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C8">
         <f>COUNTIF(Stats!D:D,'Player Count'!B8)</f>
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G8">
         <f>COUNTIF(Stats!D:D,'Player Count'!F8)</f>
         <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K8">
         <f>COUNTIF(Stats!D:D,'Player Count'!J8)</f>
@@ -14609,7 +14764,7 @@
       </c>
       <c r="M8" s="111"/>
       <c r="N8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O8">
         <f>COUNTIF(Stats!D:D,'Player Count'!N8)</f>
@@ -14617,23 +14772,23 @@
       </c>
       <c r="Q8" s="111"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C9">
         <f>COUNTIF(Stats!D:D,'Player Count'!B9)</f>
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G9">
         <f>COUNTIF(Stats!D:D,'Player Count'!F9)</f>
         <v>2</v>
       </c>
       <c r="J9" s="67" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K9">
         <f>COUNTIF(Stats!D:D,'Player Count'!J9)</f>
@@ -14641,7 +14796,7 @@
       </c>
       <c r="M9" s="111"/>
       <c r="N9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O9">
         <f>COUNTIF(Stats!D:D,'Player Count'!N9)</f>
@@ -14649,23 +14804,23 @@
       </c>
       <c r="Q9" s="111"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C10">
         <f>COUNTIF(Stats!D:D,'Player Count'!B10)</f>
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G10">
         <f>COUNTIF(Stats!D:D,'Player Count'!F10)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J10" s="67" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K10">
         <f>COUNTIF(Stats!D:D,'Player Count'!J10)</f>
@@ -14673,7 +14828,7 @@
       </c>
       <c r="M10" s="111"/>
       <c r="N10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O10">
         <f>COUNTIF(Stats!D:D,'Player Count'!N10)</f>
@@ -14681,23 +14836,23 @@
       </c>
       <c r="Q10" s="111"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C11">
         <f>COUNTIF(Stats!D:D,'Player Count'!B11)</f>
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G11">
         <f>COUNTIF(Stats!D:D,'Player Count'!F11)</f>
         <v>3</v>
       </c>
       <c r="J11" s="67" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K11">
         <f>COUNTIF(Stats!D:D,'Player Count'!J11)</f>
@@ -14705,7 +14860,7 @@
       </c>
       <c r="M11" s="111"/>
       <c r="N11" s="67" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O11">
         <f>COUNTIF(Stats!D:D,'Player Count'!N11)</f>
@@ -14713,23 +14868,23 @@
       </c>
       <c r="Q11" s="111"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C12">
         <f>COUNTIF(Stats!D:D,'Player Count'!B12)</f>
         <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G12">
         <f>COUNTIF(Stats!D:D,'Player Count'!F12)</f>
         <v>0</v>
       </c>
       <c r="J12" s="67" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K12">
         <f>COUNTIF(Stats!D:D,'Player Count'!J12)</f>
@@ -14737,7 +14892,7 @@
       </c>
       <c r="M12" s="111"/>
       <c r="N12" s="67" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="O12">
         <f>COUNTIF(Stats!D:D,'Player Count'!N12)</f>
@@ -14745,23 +14900,23 @@
       </c>
       <c r="Q12" s="111"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C13">
         <f>COUNTIF(Stats!D:D,'Player Count'!B13)</f>
         <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G13">
         <f>COUNTIF(Stats!D:D,'Player Count'!F13)</f>
         <v>4</v>
       </c>
       <c r="J13" s="67" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K13">
         <f>COUNTIF(Stats!D:D,'Player Count'!J13)</f>
@@ -14769,7 +14924,7 @@
       </c>
       <c r="M13" s="111"/>
       <c r="N13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="O13">
         <f>COUNTIF(Stats!D:D,'Player Count'!N13)</f>
@@ -14777,23 +14932,23 @@
       </c>
       <c r="Q13" s="111"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C14">
         <f>COUNTIF(Stats!D:D,'Player Count'!B14)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G14">
         <f>COUNTIF(Stats!D:D,'Player Count'!F14)</f>
         <v>1</v>
       </c>
       <c r="J14" s="67" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K14">
         <f>COUNTIF(Stats!D:D,'Player Count'!J14)</f>
@@ -14801,7 +14956,7 @@
       </c>
       <c r="M14" s="111"/>
       <c r="N14" s="67" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="O14">
         <f>COUNTIF(Stats!D:D,'Player Count'!N14)</f>
@@ -14809,23 +14964,23 @@
       </c>
       <c r="Q14" s="111"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C15">
         <f>COUNTIF(Stats!D:D,'Player Count'!B15)</f>
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G15">
         <f>COUNTIF(Stats!D:D,'Player Count'!F15)</f>
         <v>2</v>
       </c>
       <c r="J15" s="67" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K15">
         <f>COUNTIF(Stats!D:D,'Player Count'!J15)</f>
@@ -14833,7 +14988,7 @@
       </c>
       <c r="M15" s="111"/>
       <c r="N15" s="67" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O15">
         <f>COUNTIF(Stats!D:D,'Player Count'!N15)</f>
@@ -14841,23 +14996,23 @@
       </c>
       <c r="Q15" s="111"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C16">
         <f>COUNTIF(Stats!D:D,'Player Count'!B16)</f>
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G16">
         <f>COUNTIF(Stats!D:D,'Player Count'!F16)</f>
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K16">
         <f>COUNTIF(Stats!D:D,'Player Count'!J16)</f>
@@ -14865,7 +15020,7 @@
       </c>
       <c r="M16" s="111"/>
       <c r="N16" s="67" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="O16">
         <f>COUNTIF(Stats!D:D,'Player Count'!N16)</f>
@@ -14873,23 +15028,23 @@
       </c>
       <c r="Q16" s="111"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C17">
         <f>COUNTIF(Stats!D:D,'Player Count'!B17)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G17">
         <f>COUNTIF(Stats!D:D,'Player Count'!F17)</f>
         <v>3</v>
       </c>
       <c r="J17" s="67" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K17">
         <f>COUNTIF(Stats!D:D,'Player Count'!J17)</f>
@@ -14897,7 +15052,7 @@
       </c>
       <c r="M17" s="111"/>
       <c r="N17" s="67" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O17">
         <f>COUNTIF(Stats!D:D,'Player Count'!N17)</f>
@@ -14905,23 +15060,23 @@
       </c>
       <c r="Q17" s="111"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C18">
         <f>COUNTIF(Stats!D:D,'Player Count'!B18)</f>
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G18">
         <f>COUNTIF(Stats!D:D,'Player Count'!F18)</f>
         <v>1</v>
       </c>
       <c r="J18" s="67" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K18">
         <f>COUNTIF(Stats!D:D,'Player Count'!J18)</f>
@@ -14929,7 +15084,7 @@
       </c>
       <c r="M18" s="111"/>
       <c r="N18" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="O18">
         <f>COUNTIF(Stats!D:D,'Player Count'!N18)</f>
@@ -14937,23 +15092,23 @@
       </c>
       <c r="Q18" s="111"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C19">
         <f>COUNTIF(Stats!D:D,'Player Count'!B19)</f>
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G19">
         <f>COUNTIF(Stats!D:D,'Player Count'!F19)</f>
         <v>1</v>
       </c>
       <c r="J19" s="67" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K19">
         <f>COUNTIF(Stats!D:D,'Player Count'!J19)</f>
@@ -14961,7 +15116,7 @@
       </c>
       <c r="M19" s="111"/>
       <c r="N19" s="67" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O19">
         <f>COUNTIF(Stats!D:D,'Player Count'!N19)</f>
@@ -14969,23 +15124,23 @@
       </c>
       <c r="Q19" s="111"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C20">
         <f>COUNTIF(Stats!D:D,'Player Count'!B20)</f>
         <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G20">
         <f>COUNTIF(Stats!D:D,'Player Count'!F20)</f>
         <v>0</v>
       </c>
       <c r="J20" s="67" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K20">
         <f>COUNTIF(Stats!D:D,'Player Count'!J20)</f>
@@ -14993,7 +15148,7 @@
       </c>
       <c r="M20" s="111"/>
       <c r="N20" s="67" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="O20">
         <f>COUNTIF(Stats!D:D,'Player Count'!N20)</f>
@@ -15001,23 +15156,23 @@
       </c>
       <c r="Q20" s="111"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C21">
         <f>COUNTIF(Stats!D:D,'Player Count'!B21)</f>
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G21">
         <f>COUNTIF(Stats!D:D,'Player Count'!F21)</f>
         <v>0</v>
       </c>
       <c r="J21" s="67" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K21">
         <f>COUNTIF(Stats!D:D,'Player Count'!J21)</f>
@@ -15025,7 +15180,7 @@
       </c>
       <c r="M21" s="111"/>
       <c r="N21" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O21">
         <f>COUNTIF(Stats!D:D,'Player Count'!N21)</f>
@@ -15033,23 +15188,23 @@
       </c>
       <c r="Q21" s="111"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C22">
         <f>COUNTIF(Stats!D:D,'Player Count'!B22)</f>
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G22">
         <f>COUNTIF(Stats!D:D,'Player Count'!F22)</f>
         <v>5</v>
       </c>
       <c r="J22" s="67" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K22">
         <f>COUNTIF(Stats!D:D,'Player Count'!J22)</f>
@@ -15057,7 +15212,7 @@
       </c>
       <c r="M22" s="111"/>
       <c r="N22" s="67" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="O22">
         <f>COUNTIF(Stats!D:D,'Player Count'!N22)</f>
@@ -15065,23 +15220,23 @@
       </c>
       <c r="Q22" s="111"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C23">
         <f>COUNTIF(Stats!D:D,'Player Count'!B23)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G23">
         <f>COUNTIF(Stats!D:D,'Player Count'!F23)</f>
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K23">
         <f>COUNTIF(Stats!D:D,'Player Count'!J23)</f>
@@ -15089,7 +15244,7 @@
       </c>
       <c r="M23" s="111"/>
       <c r="N23" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="O23">
         <f>COUNTIF(Stats!D:D,'Player Count'!N23)</f>
@@ -15097,23 +15252,23 @@
       </c>
       <c r="Q23" s="111"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C24">
         <f>COUNTIF(Stats!D:D,'Player Count'!B24)</f>
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G24">
         <f>COUNTIF(Stats!D:D,'Player Count'!F24)</f>
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K24">
         <f>COUNTIF(Stats!D:D,'Player Count'!J24)</f>
@@ -15121,7 +15276,7 @@
       </c>
       <c r="M24" s="111"/>
       <c r="N24" s="67" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="O24">
         <f>COUNTIF(Stats!D:D,'Player Count'!N24)</f>
@@ -15129,23 +15284,23 @@
       </c>
       <c r="Q24" s="111"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C25">
         <f>COUNTIF(Stats!D:D,'Player Count'!B25)</f>
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G25">
         <f>COUNTIF(Stats!D:D,'Player Count'!F25)</f>
         <v>1</v>
       </c>
       <c r="J25" s="67" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K25">
         <f>COUNTIF(Stats!D:D,'Player Count'!J25)</f>
@@ -15153,7 +15308,7 @@
       </c>
       <c r="M25" s="111"/>
       <c r="N25" s="67" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="O25">
         <f>COUNTIF(Stats!D:D,'Player Count'!N25)</f>
@@ -15161,23 +15316,23 @@
       </c>
       <c r="Q25" s="111"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B26" s="78" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C26" s="78">
         <f>SUM(C6:C25)</f>
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F26" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G26">
         <f>COUNTIF(Stats!D:D,'Player Count'!F26)</f>
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K26">
         <f>COUNTIF(Stats!D:D,'Player Count'!J26)</f>
@@ -15185,7 +15340,7 @@
       </c>
       <c r="M26" s="111"/>
       <c r="N26" s="67" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O26">
         <f>COUNTIF(Stats!D:D,'Player Count'!N26)</f>
@@ -15193,16 +15348,16 @@
       </c>
       <c r="Q26" s="111"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
       <c r="F27" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G27">
         <f>COUNTIF(Stats!D:D,'Player Count'!F27)</f>
         <v>2</v>
       </c>
       <c r="J27" s="67" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K27">
         <f>COUNTIF(Stats!D:D,'Player Count'!J27)</f>
@@ -15210,7 +15365,7 @@
       </c>
       <c r="M27" s="111"/>
       <c r="N27" s="67" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="O27">
         <f>COUNTIF(Stats!D:D,'Player Count'!N27)</f>
@@ -15218,16 +15373,16 @@
       </c>
       <c r="Q27" s="111"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
       <c r="F28" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G28">
         <f>COUNTIF(Stats!D:D,'Player Count'!F28)</f>
         <v>3</v>
       </c>
       <c r="J28" s="67" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K28">
         <f>COUNTIF(Stats!D:D,'Player Count'!J28)</f>
@@ -15235,76 +15390,88 @@
       </c>
       <c r="M28" s="111"/>
       <c r="N28" s="67" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="O28">
         <f>COUNTIF(Stats!D:D,'Player Count'!N28)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28" s="111"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
       <c r="F29" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G29">
         <f>COUNTIF(Stats!D:D,'Player Count'!F29)</f>
         <v>2</v>
       </c>
       <c r="J29" s="67" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K29">
         <f>COUNTIF(Stats!D:D,'Player Count'!J29)</f>
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="O29">
         <f>COUNTIF(Stats!D:D,'Player Count'!N29)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="F30" s="78" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G30" s="78">
         <f>SUM(G6:G29)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J30" s="78" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K30" s="78">
         <f>SUM(K6:K29)</f>
         <v>28</v>
       </c>
       <c r="N30" s="78" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O30" s="78">
         <f>SUM(O6:O29)</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C38">
-        <f>C26/160</f>
-        <v>0.4375</v>
-      </c>
-      <c r="G38">
-        <f>G30/160</f>
-        <v>0.25624999999999998</v>
-      </c>
-      <c r="K38">
-        <f>K30/160</f>
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="O38">
-        <f>O30/160</f>
-        <v>0.15</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="67" t="s">
+        <v>432</v>
+      </c>
+      <c r="C38" s="117">
+        <f>C26/SUM(C26,G30,K30,O30)</f>
+        <v>0.43452380952380953</v>
+      </c>
+      <c r="D38" s="117"/>
+      <c r="E38" s="117"/>
+      <c r="F38" s="117"/>
+      <c r="G38" s="117">
+        <f>G30/SUM(C26,G30,K30,O30)</f>
+        <v>0.25</v>
+      </c>
+      <c r="H38" s="117"/>
+      <c r="I38" s="117"/>
+      <c r="J38" s="117"/>
+      <c r="K38" s="117">
+        <f>K30/SUM(C26,G30,K30,O30)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="L38" s="117"/>
+      <c r="M38" s="117"/>
+      <c r="N38" s="117"/>
+      <c r="O38" s="117">
+        <f>O30/SUM(C26,G30,K30,O30)</f>
+        <v>0.14880952380952381</v>
       </c>
     </row>
   </sheetData>

--- a/data/DreamLeague25-26.xlsx
+++ b/data/DreamLeague25-26.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/462a734c48854128/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\git\dreamleague\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="110" documentId="8_{7D36DF2E-EA78-4237-9818-EA41DFB80887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEFCB13D-2CD9-499A-9EB1-E4ACAC625D89}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9864BAD2-1721-422E-A61B-40954DBD3D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="444">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -404,9 +404,6 @@
     <t>BIRMINGHAM</t>
   </si>
   <si>
-    <t>PORT VALE</t>
-  </si>
-  <si>
     <t>RODRIGO MUNIZ</t>
   </si>
   <si>
@@ -1338,6 +1335,42 @@
   </si>
   <si>
     <t>% Players</t>
+  </si>
+  <si>
+    <t>MATT DENNIS</t>
+  </si>
+  <si>
+    <t>PLYMOUTH</t>
+  </si>
+  <si>
+    <t>KYLE WOOTTON</t>
+  </si>
+  <si>
+    <t>PAUL MULLIN</t>
+  </si>
+  <si>
+    <t>NICKE KAMAMBA</t>
+  </si>
+  <si>
+    <t>GILLINGHAM</t>
+  </si>
+  <si>
+    <t>TRASNFER</t>
+  </si>
+  <si>
+    <t>RANDOL KOLO MUANI</t>
+  </si>
+  <si>
+    <t>TOTTNEHAM</t>
+  </si>
+  <si>
+    <t>KIEFFER MOORE</t>
+  </si>
+  <si>
+    <t>WILL SWAN</t>
+  </si>
+  <si>
+    <t>BRADFORD</t>
   </si>
 </sst>
 </file>
@@ -1389,6 +1422,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2055,10 +2089,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3236,7 +3270,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
@@ -3248,36 +3282,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IX404"/>
+  <dimension ref="A1:IX406"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A330" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5:N18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A302" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B320" sqref="B320"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.296875" style="77" customWidth="1"/>
+    <col min="1" max="1" width="1.33203125" style="77" customWidth="1"/>
     <col min="2" max="2" width="16" style="77" customWidth="1"/>
-    <col min="3" max="3" width="39.296875" style="77" customWidth="1"/>
-    <col min="4" max="4" width="32.796875" style="77" customWidth="1"/>
-    <col min="5" max="5" width="11.796875" style="77" customWidth="1"/>
+    <col min="3" max="3" width="39.33203125" style="77" customWidth="1"/>
+    <col min="4" max="4" width="32.83203125" style="77" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" style="77" customWidth="1"/>
     <col min="6" max="6" width="17" style="77" customWidth="1"/>
-    <col min="7" max="8" width="11.296875" style="77" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.69921875" style="77" customWidth="1"/>
-    <col min="10" max="10" width="7.09765625" style="77" customWidth="1"/>
-    <col min="11" max="11" width="25.69921875" style="77" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.296875" style="77" customWidth="1"/>
+    <col min="7" max="8" width="11.33203125" style="77" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" style="77" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" style="77" customWidth="1"/>
+    <col min="11" max="11" width="25.6640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.33203125" style="77" customWidth="1"/>
     <col min="13" max="14" width="12" style="77" customWidth="1"/>
-    <col min="15" max="15" width="10.296875" style="77" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" style="77" customWidth="1"/>
     <col min="16" max="17" width="9" style="77" customWidth="1"/>
-    <col min="18" max="18" width="32.296875" style="77" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="32.33203125" style="77" bestFit="1" customWidth="1"/>
     <col min="19" max="21" width="9" style="77" customWidth="1"/>
-    <col min="22" max="22" width="30.09765625" style="77" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.1640625" style="77" bestFit="1" customWidth="1"/>
     <col min="23" max="258" width="9" style="77" customWidth="1"/>
     <col min="259" max="16384" width="9" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3296,7 +3330,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="3" t="s">
@@ -3317,7 +3351,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -3334,7 +3368,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="79"/>
       <c r="B4" s="6" t="s">
         <v>3</v>
@@ -3370,13 +3404,13 @@
       <c r="O4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
-      <c r="U4" s="116"/>
-      <c r="V4" s="116"/>
-    </row>
-    <row r="5" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
+      <c r="U4" s="117"/>
+      <c r="V4" s="117"/>
+    </row>
+    <row r="5" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="79"/>
       <c r="B5" s="12" t="s">
         <v>13</v>
@@ -3405,11 +3439,11 @@
       </c>
       <c r="M5" s="18">
         <f t="shared" ref="M5:M17" si="0">N5-O5</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N5" s="19">
         <f>SUM(F8:F25)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O5" s="20">
         <f>SUM(F5:F7)</f>
@@ -3419,7 +3453,7 @@
       <c r="T5" s="101"/>
       <c r="U5" s="102"/>
     </row>
-    <row r="6" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="79"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -3440,11 +3474,11 @@
       </c>
       <c r="M6" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N6" s="26">
         <f>SUM(F35:F52)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O6" s="27">
         <f>SUM(F32:F34)</f>
@@ -3454,7 +3488,7 @@
       <c r="T6" s="101"/>
       <c r="U6" s="102"/>
     </row>
-    <row r="7" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="79"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -3489,16 +3523,16 @@
       <c r="T7" s="101"/>
       <c r="U7" s="102"/>
     </row>
-    <row r="8" spans="1:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="79"/>
       <c r="B8" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E8" s="29">
         <v>1</v>
@@ -3519,24 +3553,24 @@
       </c>
       <c r="M8" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="26">
         <f>SUM(F89:F106)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O8" s="27">
         <f>SUM(F86:F88)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="79"/>
       <c r="B9" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>27</v>
@@ -3561,18 +3595,18 @@
       </c>
       <c r="M9" s="25">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N9" s="73">
         <f>SUM(F116:F133)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O9" s="74">
         <f>SUM(F113:F115)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="79"/>
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
@@ -3603,19 +3637,19 @@
         <f>SUM(F140:F142)</f>
         <v>7</v>
       </c>
-      <c r="R10" s="116"/>
-      <c r="S10" s="116"/>
-      <c r="T10" s="116"/>
-      <c r="U10" s="116"/>
-      <c r="V10" s="116"/>
-    </row>
-    <row r="11" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R10" s="117"/>
+      <c r="S10" s="117"/>
+      <c r="T10" s="117"/>
+      <c r="U10" s="117"/>
+      <c r="V10" s="117"/>
+    </row>
+    <row r="11" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="79"/>
       <c r="B11" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D11" s="28" t="s">
         <v>24</v>
@@ -3654,16 +3688,16 @@
       <c r="T11" s="101"/>
       <c r="U11" s="102"/>
     </row>
-    <row r="12" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="79"/>
       <c r="B12" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E12" s="29">
         <v>1</v>
@@ -3696,16 +3730,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="79"/>
       <c r="B13" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E13" s="29">
         <v>1</v>
@@ -3727,23 +3761,23 @@
       </c>
       <c r="M13" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N13" s="73">
         <f>SUM(F224:F241)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O13" s="74">
         <f>SUM(F221:F223)</f>
         <v>6</v>
       </c>
-      <c r="R13" s="116"/>
-      <c r="S13" s="116"/>
-      <c r="T13" s="116"/>
-      <c r="U13" s="116"/>
-      <c r="V13" s="116"/>
-    </row>
-    <row r="14" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R13" s="117"/>
+      <c r="S13" s="117"/>
+      <c r="T13" s="117"/>
+      <c r="U13" s="117"/>
+      <c r="V13" s="117"/>
+    </row>
+    <row r="14" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="79"/>
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
@@ -3778,7 +3812,7 @@
       <c r="T14" s="101"/>
       <c r="U14" s="102"/>
     </row>
-    <row r="15" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="79"/>
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
@@ -3810,7 +3844,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="79"/>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
@@ -3834,21 +3868,21 @@
         <v>-1</v>
       </c>
       <c r="N16" s="26">
-        <f>SUM(F305:F322)</f>
-        <v>9</v>
+        <f>SUM(F305:F324)</f>
+        <v>10</v>
       </c>
       <c r="O16" s="27">
         <f>SUM(F302:F304)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="79"/>
       <c r="B17" s="108" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="108" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D17" s="108" t="s">
         <v>91</v>
@@ -3860,7 +3894,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="87" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H17" s="84">
         <v>45897</v>
@@ -3868,11 +3902,11 @@
       <c r="I17" s="99"/>
       <c r="J17" s="82"/>
       <c r="K17" s="31" t="str">
-        <f>D326</f>
+        <f>D328</f>
         <v>JAMIE DUGGAN</v>
       </c>
       <c r="L17" s="32" t="str">
-        <f>C326</f>
+        <f>C328</f>
         <v>DREAMERS DREGS</v>
       </c>
       <c r="M17" s="25">
@@ -3880,35 +3914,35 @@
         <v>0</v>
       </c>
       <c r="N17" s="26">
-        <f>SUM(F332:F349)</f>
+        <f>SUM(F334:F351)</f>
         <v>4</v>
       </c>
       <c r="O17" s="27">
-        <f>SUM(F329:F331)</f>
+        <f>SUM(F331:F333)</f>
         <v>4</v>
       </c>
-      <c r="R17" s="116"/>
-      <c r="S17" s="116"/>
-      <c r="T17" s="116"/>
-      <c r="U17" s="116"/>
-      <c r="V17" s="116"/>
-    </row>
-    <row r="18" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R17" s="117"/>
+      <c r="S17" s="117"/>
+      <c r="T17" s="117"/>
+      <c r="U17" s="117"/>
+      <c r="V17" s="117"/>
+    </row>
+    <row r="18" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="79"/>
       <c r="B18" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="28" t="s">
+        <v>418</v>
+      </c>
+      <c r="D18" s="28" t="s">
         <v>419</v>
       </c>
-      <c r="D18" s="28" t="s">
-        <v>420</v>
-      </c>
       <c r="E18" s="29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F18" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" s="84">
         <v>45897</v>
@@ -3917,36 +3951,36 @@
       <c r="I18" s="99"/>
       <c r="J18" s="82"/>
       <c r="K18" s="31" t="str">
-        <f>D353</f>
+        <f>D355</f>
         <v>CHARLIE, ELIO &amp; DAVE</v>
       </c>
       <c r="L18" s="32" t="str">
-        <f>C353</f>
+        <f>C355</f>
         <v>ATLETICO DEC</v>
       </c>
       <c r="M18" s="25">
         <f>N18-O18</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N18" s="26">
-        <f>SUM(F359:F376)</f>
-        <v>5</v>
+        <f>SUM(F361:F378)</f>
+        <v>7</v>
       </c>
       <c r="O18" s="27">
-        <f>SUM(F356:F358)</f>
-        <v>5</v>
+        <f>SUM(F358:F360)</f>
+        <v>8</v>
       </c>
       <c r="S18" s="102"/>
       <c r="T18" s="101"/>
       <c r="U18" s="102"/>
     </row>
-    <row r="19" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="79"/>
       <c r="B19" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D19" s="28" t="s">
         <v>120</v>
@@ -3967,13 +4001,13 @@
       <c r="N19" s="88"/>
       <c r="O19" s="88"/>
     </row>
-    <row r="20" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="79"/>
       <c r="B20" s="108" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="108" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D20" s="108" t="s">
         <v>86</v>
@@ -3985,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="83" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H20" s="84">
         <v>45883</v>
@@ -3997,25 +4031,25 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="R20" s="116"/>
-      <c r="S20" s="116"/>
-      <c r="T20" s="116"/>
-      <c r="U20" s="116"/>
-      <c r="V20" s="116"/>
-    </row>
-    <row r="21" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R20" s="117"/>
+      <c r="S20" s="117"/>
+      <c r="T20" s="117"/>
+      <c r="U20" s="117"/>
+      <c r="V20" s="117"/>
+    </row>
+    <row r="21" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="79"/>
       <c r="B21" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="D21" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="D21" s="28" t="s">
-        <v>300</v>
-      </c>
       <c r="E21" s="29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F21" s="30">
         <v>0</v>
@@ -4035,13 +4069,13 @@
       <c r="T21" s="101"/>
       <c r="U21" s="102"/>
     </row>
-    <row r="22" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="79"/>
       <c r="B22" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D22" s="28" t="s">
         <v>96</v>
@@ -4062,25 +4096,29 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="79"/>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="D23" s="28" t="s">
+      <c r="C23" s="108" t="s">
+        <v>191</v>
+      </c>
+      <c r="D23" s="108" t="s">
         <v>81</v>
       </c>
-      <c r="E23" s="29">
+      <c r="E23" s="109">
         <v>1</v>
       </c>
-      <c r="F23" s="30">
+      <c r="F23" s="110">
         <v>1</v>
       </c>
-      <c r="G23" s="87"/>
-      <c r="H23" s="84"/>
+      <c r="G23" s="87" t="s">
+        <v>292</v>
+      </c>
+      <c r="H23" s="84">
+        <v>45911</v>
+      </c>
       <c r="I23" s="89"/>
       <c r="J23" s="76"/>
       <c r="K23" s="1"/>
@@ -4089,14 +4127,26 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="79"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="87"/>
+      <c r="B24" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>435</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="F24" s="30">
+        <v>0</v>
+      </c>
+      <c r="G24" s="87">
+        <v>45911</v>
+      </c>
       <c r="H24" s="84"/>
       <c r="I24" s="89"/>
       <c r="J24" s="1"/>
@@ -4105,13 +4155,13 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
-      <c r="R24" s="116"/>
-      <c r="S24" s="116"/>
-      <c r="T24" s="116"/>
-      <c r="U24" s="116"/>
-      <c r="V24" s="116"/>
-    </row>
-    <row r="25" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R24" s="117"/>
+      <c r="S24" s="117"/>
+      <c r="T24" s="117"/>
+      <c r="U24" s="117"/>
+      <c r="V24" s="117"/>
+    </row>
+    <row r="25" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="79"/>
       <c r="B25" s="28"/>
       <c r="C25" s="28"/>
@@ -4131,7 +4181,7 @@
       <c r="T25" s="101"/>
       <c r="U25" s="102"/>
     </row>
-    <row r="26" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="33"/>
       <c r="C26" s="33"/>
@@ -4142,7 +4192,7 @@
       </c>
       <c r="F26" s="36">
         <f>SUM(F8:F25)-SUM(F5:F7)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G26" s="80"/>
       <c r="H26" s="92"/>
@@ -4154,7 +4204,7 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -4171,7 +4221,7 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -4187,17 +4237,17 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
-      <c r="R28" s="116"/>
-      <c r="S28" s="116"/>
-      <c r="T28" s="116"/>
-      <c r="U28" s="116"/>
-      <c r="V28" s="116"/>
-    </row>
-    <row r="29" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R28" s="117"/>
+      <c r="S28" s="117"/>
+      <c r="T28" s="117"/>
+      <c r="U28" s="117"/>
+      <c r="V28" s="117"/>
+    </row>
+    <row r="29" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>21</v>
@@ -4214,7 +4264,7 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -4231,7 +4281,7 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="79"/>
       <c r="B31" s="6" t="s">
         <v>3</v>
@@ -4258,14 +4308,14 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="79"/>
       <c r="B32" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E32" s="14">
         <v>1</v>
@@ -4283,7 +4333,7 @@
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="79"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -4300,7 +4350,7 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="79"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
@@ -4317,13 +4367,13 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="79"/>
       <c r="B35" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D35" s="28" t="s">
         <v>84</v>
@@ -4344,7 +4394,7 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="79"/>
       <c r="B36" s="28" t="s">
         <v>14</v>
@@ -4371,7 +4421,7 @@
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="79"/>
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
@@ -4388,7 +4438,7 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="79"/>
       <c r="B38" s="28" t="s">
         <v>16</v>
@@ -4414,13 +4464,13 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
-      <c r="R38" s="116"/>
-      <c r="S38" s="116"/>
-      <c r="T38" s="116"/>
-      <c r="U38" s="116"/>
-      <c r="V38" s="116"/>
-    </row>
-    <row r="39" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R38" s="117"/>
+      <c r="S38" s="117"/>
+      <c r="T38" s="117"/>
+      <c r="U38" s="117"/>
+      <c r="V38" s="117"/>
+    </row>
+    <row r="39" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="79"/>
       <c r="B39" s="28" t="s">
         <v>16</v>
@@ -4447,13 +4497,13 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="79"/>
       <c r="B40" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D40" s="28" t="s">
         <v>84</v>
@@ -4474,7 +4524,7 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="79"/>
       <c r="B41" s="28"/>
       <c r="C41" s="28"/>
@@ -4491,7 +4541,7 @@
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="79"/>
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
@@ -4508,7 +4558,7 @@
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
     </row>
-    <row r="43" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="79"/>
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
@@ -4525,7 +4575,7 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="79"/>
       <c r="B44" s="108" t="s">
         <v>17</v>
@@ -4543,7 +4593,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="87" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H44" s="91">
         <v>45876</v>
@@ -4556,19 +4606,19 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
     </row>
-    <row r="45" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="79"/>
       <c r="B45" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D45" s="28" t="s">
         <v>71</v>
       </c>
       <c r="E45" s="29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F45" s="30">
         <v>0</v>
@@ -4585,7 +4635,7 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="79"/>
       <c r="B46" s="28" t="s">
         <v>17</v>
@@ -4612,25 +4662,29 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="79"/>
-      <c r="B47" s="28" t="s">
+      <c r="B47" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="D47" s="28" t="s">
+      <c r="C47" s="108" t="s">
+        <v>195</v>
+      </c>
+      <c r="D47" s="108" t="s">
         <v>87</v>
       </c>
-      <c r="E47" s="29">
+      <c r="E47" s="109">
         <v>9</v>
       </c>
-      <c r="F47" s="30">
+      <c r="F47" s="110">
         <v>0</v>
       </c>
-      <c r="G47" s="87"/>
-      <c r="H47" s="91"/>
+      <c r="G47" s="87" t="s">
+        <v>292</v>
+      </c>
+      <c r="H47" s="91">
+        <v>45904</v>
+      </c>
       <c r="I47" s="89"/>
       <c r="J47" s="76"/>
       <c r="K47" s="1"/>
@@ -4639,24 +4693,26 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="79"/>
       <c r="B48" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>122</v>
+        <v>439</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="E48" s="29">
-        <v>1</v>
+        <v>440</v>
+      </c>
+      <c r="E48" s="29" t="s">
+        <v>291</v>
       </c>
       <c r="F48" s="30">
-        <v>1</v>
-      </c>
-      <c r="G48" s="91"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="91">
+        <v>45904</v>
+      </c>
       <c r="H48" s="91"/>
       <c r="I48" s="89"/>
       <c r="J48" s="76"/>
@@ -4666,25 +4722,29 @@
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="79"/>
-      <c r="B49" s="28" t="s">
+      <c r="B49" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C49" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="D49" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E49" s="29">
-        <v>24</v>
-      </c>
-      <c r="F49" s="30">
-        <v>0</v>
-      </c>
-      <c r="G49" s="91"/>
-      <c r="H49" s="91"/>
+      <c r="C49" s="108" t="s">
+        <v>121</v>
+      </c>
+      <c r="D49" s="108" t="s">
+        <v>196</v>
+      </c>
+      <c r="E49" s="109">
+        <v>1</v>
+      </c>
+      <c r="F49" s="110">
+        <v>1</v>
+      </c>
+      <c r="G49" s="91" t="s">
+        <v>292</v>
+      </c>
+      <c r="H49" s="91">
+        <v>45904</v>
+      </c>
       <c r="I49" s="89"/>
       <c r="J49" s="76"/>
       <c r="K49" s="1"/>
@@ -4693,14 +4753,26 @@
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
     </row>
-    <row r="50" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="79"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="87"/>
+      <c r="B50" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="28" t="s">
+        <v>432</v>
+      </c>
+      <c r="D50" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="E50" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="F50" s="30">
+        <v>1</v>
+      </c>
+      <c r="G50" s="91">
+        <v>45904</v>
+      </c>
       <c r="H50" s="91"/>
       <c r="I50" s="89"/>
       <c r="J50" s="76"/>
@@ -4710,13 +4782,23 @@
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
     </row>
-    <row r="51" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="79"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="30"/>
+      <c r="B51" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="D51" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51" s="29">
+        <v>24</v>
+      </c>
+      <c r="F51" s="30">
+        <v>0</v>
+      </c>
       <c r="G51" s="87"/>
       <c r="H51" s="91"/>
       <c r="I51" s="89"/>
@@ -4727,7 +4809,7 @@
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
     </row>
-    <row r="52" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="79"/>
       <c r="B52" s="28"/>
       <c r="C52" s="28"/>
@@ -4744,7 +4826,7 @@
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
     </row>
-    <row r="53" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="33"/>
       <c r="C53" s="33"/>
@@ -4755,7 +4837,7 @@
       </c>
       <c r="F53" s="36">
         <f>SUM(F35:F52)-SUM(F32:F34)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G53" s="80"/>
       <c r="H53" s="92"/>
@@ -4767,7 +4849,7 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -4784,7 +4866,7 @@
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
     </row>
-    <row r="55" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -4801,11 +4883,11 @@
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
     </row>
-    <row r="56" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>25</v>
@@ -4822,7 +4904,7 @@
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
     </row>
-    <row r="57" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -4839,7 +4921,7 @@
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
     </row>
-    <row r="58" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="79"/>
       <c r="B58" s="6" t="s">
         <v>3</v>
@@ -4866,14 +4948,14 @@
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
     </row>
-    <row r="59" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="79"/>
       <c r="B59" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E59" s="14">
         <v>4</v>
@@ -4891,7 +4973,7 @@
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
     </row>
-    <row r="60" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="79"/>
       <c r="B60" s="21"/>
       <c r="C60" s="21"/>
@@ -4908,7 +4990,7 @@
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
     </row>
-    <row r="61" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="79"/>
       <c r="B61" s="21"/>
       <c r="C61" s="21"/>
@@ -4925,13 +5007,13 @@
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
     </row>
-    <row r="62" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="79"/>
       <c r="B62" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D62" s="28" t="s">
         <v>26</v>
@@ -4952,13 +5034,13 @@
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
     </row>
-    <row r="63" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="79"/>
       <c r="B63" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D63" s="28" t="s">
         <v>34</v>
@@ -4979,7 +5061,7 @@
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
     </row>
-    <row r="64" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="79"/>
       <c r="B64" s="28"/>
       <c r="C64" s="28"/>
@@ -4996,7 +5078,7 @@
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
     </row>
-    <row r="65" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="79"/>
       <c r="B65" s="28" t="s">
         <v>16</v>
@@ -5023,16 +5105,16 @@
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
     </row>
-    <row r="66" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="79"/>
       <c r="B66" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C66" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="D66" s="28" t="s">
         <v>163</v>
-      </c>
-      <c r="D66" s="28" t="s">
-        <v>164</v>
       </c>
       <c r="E66" s="29">
         <v>5</v>
@@ -5050,13 +5132,13 @@
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
     </row>
-    <row r="67" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="79"/>
       <c r="B67" s="108" t="s">
         <v>16</v>
       </c>
       <c r="C67" s="108" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D67" s="108" t="s">
         <v>26</v>
@@ -5068,7 +5150,7 @@
         <v>0</v>
       </c>
       <c r="G67" s="87" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H67" s="91">
         <v>45904</v>
@@ -5081,19 +5163,19 @@
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
     </row>
-    <row r="68" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="79"/>
       <c r="B68" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D68" s="28" t="s">
         <v>37</v>
       </c>
       <c r="E68" s="29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F68" s="30">
         <v>0</v>
@@ -5110,7 +5192,7 @@
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
     </row>
-    <row r="69" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="79"/>
       <c r="B69" s="28"/>
       <c r="C69" s="28"/>
@@ -5127,7 +5209,7 @@
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
     </row>
-    <row r="70" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="79"/>
       <c r="B70" s="28"/>
       <c r="C70" s="28"/>
@@ -5144,7 +5226,7 @@
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
     </row>
-    <row r="71" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="79"/>
       <c r="B71" s="28" t="s">
         <v>17</v>
@@ -5171,7 +5253,7 @@
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
     </row>
-    <row r="72" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="79"/>
       <c r="B72" s="108" t="s">
         <v>17</v>
@@ -5189,7 +5271,7 @@
         <v>0</v>
       </c>
       <c r="G72" s="83" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H72" s="91">
         <v>45897</v>
@@ -5202,19 +5284,19 @@
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
     </row>
-    <row r="73" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="79"/>
       <c r="B73" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C73" s="28" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D73" s="28" t="s">
         <v>88</v>
       </c>
       <c r="E73" s="29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F73" s="30">
         <v>0</v>
@@ -5231,16 +5313,16 @@
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
     </row>
-    <row r="74" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="79"/>
       <c r="B74" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C74" s="28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D74" s="28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E74" s="29">
         <v>7</v>
@@ -5258,13 +5340,13 @@
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
     </row>
-    <row r="75" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="79"/>
       <c r="B75" s="108" t="s">
         <v>17</v>
       </c>
       <c r="C75" s="108" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D75" s="108" t="s">
         <v>83</v>
@@ -5276,7 +5358,7 @@
         <v>0</v>
       </c>
       <c r="G75" s="87" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H75" s="91">
         <v>45890</v>
@@ -5289,19 +5371,19 @@
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
     </row>
-    <row r="76" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="79"/>
       <c r="B76" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C76" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="D76" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="D76" s="28" t="s">
-        <v>302</v>
-      </c>
       <c r="E76" s="29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F76" s="30">
         <v>0</v>
@@ -5318,13 +5400,13 @@
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
     </row>
-    <row r="77" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="79"/>
       <c r="B77" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C77" s="28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D77" s="28" t="s">
         <v>101</v>
@@ -5345,7 +5427,7 @@
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
     </row>
-    <row r="78" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="79"/>
       <c r="B78" s="28"/>
       <c r="C78" s="28"/>
@@ -5362,7 +5444,7 @@
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
     </row>
-    <row r="79" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="79"/>
       <c r="B79" s="28"/>
       <c r="C79" s="28"/>
@@ -5379,7 +5461,7 @@
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
     </row>
-    <row r="80" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="33"/>
       <c r="C80" s="33"/>
@@ -5402,7 +5484,7 @@
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
     </row>
-    <row r="81" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -5419,7 +5501,7 @@
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
     </row>
-    <row r="82" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -5436,7 +5518,7 @@
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
     </row>
-    <row r="83" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="3" t="s">
@@ -5457,7 +5539,7 @@
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
     </row>
-    <row r="84" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -5474,7 +5556,7 @@
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
     </row>
-    <row r="85" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="79"/>
       <c r="B85" s="6" t="s">
         <v>3</v>
@@ -5501,7 +5583,7 @@
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
     </row>
-    <row r="86" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="79"/>
       <c r="B86" s="12" t="s">
         <v>13</v>
@@ -5526,7 +5608,7 @@
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
     </row>
-    <row r="87" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="79"/>
       <c r="B87" s="21"/>
       <c r="C87" s="21"/>
@@ -5543,7 +5625,7 @@
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
     </row>
-    <row r="88" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="79"/>
       <c r="B88" s="21"/>
       <c r="C88" s="21"/>
@@ -5560,13 +5642,13 @@
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
     </row>
-    <row r="89" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="79"/>
       <c r="B89" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C89" s="28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D89" s="28" t="s">
         <v>37</v>
@@ -5587,7 +5669,7 @@
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
     </row>
-    <row r="90" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="79"/>
       <c r="B90" s="28" t="s">
         <v>14</v>
@@ -5614,7 +5696,7 @@
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
     </row>
-    <row r="91" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="79"/>
       <c r="B91" s="28"/>
       <c r="C91" s="28"/>
@@ -5631,13 +5713,13 @@
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
     </row>
-    <row r="92" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="79"/>
       <c r="B92" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C92" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D92" s="28" t="s">
         <v>22</v>
@@ -5658,7 +5740,7 @@
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
     </row>
-    <row r="93" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="79"/>
       <c r="B93" s="108" t="s">
         <v>16</v>
@@ -5667,7 +5749,7 @@
         <v>66</v>
       </c>
       <c r="D93" s="108" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E93" s="109">
         <v>1</v>
@@ -5676,7 +5758,7 @@
         <v>0</v>
       </c>
       <c r="G93" s="91" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H93" s="91">
         <v>45876</v>
@@ -5689,19 +5771,19 @@
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
     </row>
-    <row r="94" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="79"/>
       <c r="B94" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C94" s="28" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D94" s="28" t="s">
         <v>24</v>
       </c>
       <c r="E94" s="29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F94" s="30">
         <v>0</v>
@@ -5718,13 +5800,13 @@
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
     </row>
-    <row r="95" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="79"/>
       <c r="B95" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C95" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D95" s="28" t="s">
         <v>18</v>
@@ -5745,7 +5827,7 @@
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
     </row>
-    <row r="96" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="79"/>
       <c r="B96" s="28"/>
       <c r="C96" s="28"/>
@@ -5762,7 +5844,7 @@
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
     </row>
-    <row r="97" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="79"/>
       <c r="B97" s="28"/>
       <c r="C97" s="28"/>
@@ -5779,13 +5861,13 @@
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
     </row>
-    <row r="98" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="79"/>
       <c r="B98" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C98" s="28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D98" s="28" t="s">
         <v>34</v>
@@ -5806,16 +5888,16 @@
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
     </row>
-    <row r="99" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="79"/>
       <c r="B99" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C99" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D99" s="28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E99" s="29">
         <v>10</v>
@@ -5833,7 +5915,7 @@
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
     </row>
-    <row r="100" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="79"/>
       <c r="B100" s="28" t="s">
         <v>17</v>
@@ -5842,13 +5924,13 @@
         <v>61</v>
       </c>
       <c r="D100" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E100" s="29">
         <v>6</v>
       </c>
       <c r="F100" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100" s="87"/>
       <c r="H100" s="91"/>
@@ -5860,7 +5942,7 @@
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
     </row>
-    <row r="101" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="79"/>
       <c r="B101" s="28" t="s">
         <v>17</v>
@@ -5887,25 +5969,29 @@
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
     </row>
-    <row r="102" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="79"/>
-      <c r="B102" s="28" t="s">
+      <c r="B102" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C102" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="D102" s="28" t="s">
+      <c r="C102" s="108" t="s">
+        <v>206</v>
+      </c>
+      <c r="D102" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="E102" s="29">
+      <c r="E102" s="109">
         <v>1</v>
       </c>
-      <c r="F102" s="30">
+      <c r="F102" s="110">
         <v>0</v>
       </c>
-      <c r="G102" s="87"/>
-      <c r="H102" s="91"/>
+      <c r="G102" s="87" t="s">
+        <v>292</v>
+      </c>
+      <c r="H102" s="91">
+        <v>45911</v>
+      </c>
       <c r="I102" s="90"/>
       <c r="J102" s="76"/>
       <c r="K102" s="1"/>
@@ -5914,14 +6000,26 @@
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
     </row>
-    <row r="103" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="79"/>
-      <c r="B103" s="28"/>
-      <c r="C103" s="28"/>
-      <c r="D103" s="28"/>
-      <c r="E103" s="29"/>
-      <c r="F103" s="30"/>
-      <c r="G103" s="87"/>
+      <c r="B103" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C103" s="28" t="s">
+        <v>441</v>
+      </c>
+      <c r="D103" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E103" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="F103" s="30">
+        <v>0</v>
+      </c>
+      <c r="G103" s="87">
+        <v>45911</v>
+      </c>
       <c r="H103" s="91"/>
       <c r="I103" s="90"/>
       <c r="J103" s="76"/>
@@ -5931,7 +6029,7 @@
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
     </row>
-    <row r="104" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="79"/>
       <c r="B104" s="28"/>
       <c r="C104" s="28"/>
@@ -5948,7 +6046,7 @@
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
     </row>
-    <row r="105" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="79"/>
       <c r="B105" s="28"/>
       <c r="C105" s="28"/>
@@ -5965,7 +6063,7 @@
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
     </row>
-    <row r="106" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="79"/>
       <c r="B106" s="28"/>
       <c r="C106" s="28"/>
@@ -5982,7 +6080,7 @@
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
     </row>
-    <row r="107" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="33"/>
       <c r="C107" s="33"/>
@@ -5993,7 +6091,7 @@
       </c>
       <c r="F107" s="36">
         <f>SUM(F89:F106)-SUM(F86:F88)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G107" s="80"/>
       <c r="H107" s="92"/>
@@ -6005,7 +6103,7 @@
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
     </row>
-    <row r="108" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -6022,7 +6120,7 @@
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
     </row>
-    <row r="109" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -6039,11 +6137,11 @@
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
     </row>
-    <row r="110" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>52</v>
@@ -6060,7 +6158,7 @@
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
     </row>
-    <row r="111" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -6077,7 +6175,7 @@
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
     </row>
-    <row r="112" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="79"/>
       <c r="B112" s="6" t="s">
         <v>3</v>
@@ -6104,20 +6202,20 @@
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
     </row>
-    <row r="113" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="79"/>
       <c r="B113" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C113" s="13"/>
       <c r="D113" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E113" s="14">
         <v>1</v>
       </c>
       <c r="F113" s="15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G113" s="80"/>
       <c r="H113" s="94"/>
@@ -6129,7 +6227,7 @@
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
     </row>
-    <row r="114" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="79"/>
       <c r="B114" s="21"/>
       <c r="C114" s="21"/>
@@ -6146,7 +6244,7 @@
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
     </row>
-    <row r="115" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="79"/>
       <c r="B115" s="21"/>
       <c r="C115" s="21"/>
@@ -6163,16 +6261,16 @@
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
     </row>
-    <row r="116" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="79"/>
       <c r="B116" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C116" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="D116" s="28" t="s">
         <v>210</v>
-      </c>
-      <c r="D116" s="28" t="s">
-        <v>211</v>
       </c>
       <c r="E116" s="29">
         <v>1</v>
@@ -6190,13 +6288,13 @@
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
     </row>
-    <row r="117" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="79"/>
       <c r="B117" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C117" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D117" s="28" t="s">
         <v>96</v>
@@ -6217,7 +6315,7 @@
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
     </row>
-    <row r="118" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="79"/>
       <c r="B118" s="28"/>
       <c r="C118" s="28"/>
@@ -6234,16 +6332,16 @@
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
     </row>
-    <row r="119" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="79"/>
       <c r="B119" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C119" s="28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D119" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E119" s="29">
         <v>19</v>
@@ -6261,7 +6359,7 @@
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
     </row>
-    <row r="120" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="79"/>
       <c r="B120" s="28" t="s">
         <v>16</v>
@@ -6288,16 +6386,16 @@
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
     </row>
-    <row r="121" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="79"/>
       <c r="B121" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C121" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D121" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E121" s="29">
         <v>1</v>
@@ -6315,7 +6413,7 @@
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
     </row>
-    <row r="122" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="79"/>
       <c r="B122" s="28"/>
       <c r="C122" s="28"/>
@@ -6332,7 +6430,7 @@
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
     </row>
-    <row r="123" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="79"/>
       <c r="B123" s="28"/>
       <c r="C123" s="28"/>
@@ -6349,7 +6447,7 @@
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
     </row>
-    <row r="124" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="79"/>
       <c r="B124" s="28"/>
       <c r="C124" s="28"/>
@@ -6366,13 +6464,13 @@
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
     </row>
-    <row r="125" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="79"/>
       <c r="B125" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C125" s="28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D125" s="28" t="s">
         <v>23</v>
@@ -6393,16 +6491,16 @@
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
     </row>
-    <row r="126" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="79"/>
       <c r="B126" s="108" t="s">
         <v>17</v>
       </c>
       <c r="C126" s="108" t="s">
+        <v>169</v>
+      </c>
+      <c r="D126" s="108" t="s">
         <v>170</v>
-      </c>
-      <c r="D126" s="108" t="s">
-        <v>171</v>
       </c>
       <c r="E126" s="109">
         <v>10</v>
@@ -6411,7 +6509,7 @@
         <v>1</v>
       </c>
       <c r="G126" s="83" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H126" s="91">
         <v>45890</v>
@@ -6424,22 +6522,22 @@
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
     </row>
-    <row r="127" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="79"/>
       <c r="B127" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C127" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="D127" s="28" t="s">
         <v>412</v>
       </c>
-      <c r="D127" s="28" t="s">
-        <v>413</v>
-      </c>
       <c r="E127" s="29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F127" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G127" s="87">
         <v>45890</v>
@@ -6453,16 +6551,16 @@
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
     </row>
-    <row r="128" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="79"/>
       <c r="B128" s="108" t="s">
         <v>17</v>
       </c>
       <c r="C128" s="108" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D128" s="108" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E128" s="109">
         <v>19</v>
@@ -6471,7 +6569,7 @@
         <v>2</v>
       </c>
       <c r="G128" s="87" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H128" s="91">
         <v>45890</v>
@@ -6484,19 +6582,19 @@
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
     </row>
-    <row r="129" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="79"/>
       <c r="B129" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C129" s="28" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D129" s="28" t="s">
         <v>70</v>
       </c>
       <c r="E129" s="29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F129" s="30">
         <v>0</v>
@@ -6513,7 +6611,7 @@
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
     </row>
-    <row r="130" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="79"/>
       <c r="B130" s="28" t="s">
         <v>17</v>
@@ -6540,13 +6638,13 @@
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
     </row>
-    <row r="131" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="79"/>
       <c r="B131" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C131" s="28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D131" s="28" t="s">
         <v>20</v>
@@ -6567,7 +6665,7 @@
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
     </row>
-    <row r="132" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="79"/>
       <c r="B132" s="28"/>
       <c r="C132" s="28"/>
@@ -6584,7 +6682,7 @@
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
     </row>
-    <row r="133" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="79"/>
       <c r="B133" s="28"/>
       <c r="C133" s="28"/>
@@ -6601,7 +6699,7 @@
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
     </row>
-    <row r="134" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="33"/>
       <c r="C134" s="33"/>
@@ -6612,7 +6710,7 @@
       </c>
       <c r="F134" s="36">
         <f>SUM(F116:F133)-SUM(F113:F115)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G134" s="80"/>
       <c r="H134" s="92"/>
@@ -6624,7 +6722,7 @@
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
     </row>
-    <row r="135" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -6641,7 +6739,7 @@
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
     </row>
-    <row r="136" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -6658,7 +6756,7 @@
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
     </row>
-    <row r="137" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="3" t="s">
@@ -6679,7 +6777,7 @@
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
     </row>
-    <row r="138" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -6696,7 +6794,7 @@
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
     </row>
-    <row r="139" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="79"/>
       <c r="B139" s="6" t="s">
         <v>3</v>
@@ -6723,23 +6821,27 @@
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
     </row>
-    <row r="140" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="79"/>
-      <c r="B140" s="12" t="s">
+      <c r="B140" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="C140" s="13"/>
-      <c r="D140" s="12" t="s">
+      <c r="C140" s="113"/>
+      <c r="D140" s="112" t="s">
         <v>95</v>
       </c>
-      <c r="E140" s="14">
+      <c r="E140" s="114">
         <v>1</v>
       </c>
-      <c r="F140" s="15">
+      <c r="F140" s="115">
         <v>7</v>
       </c>
-      <c r="G140" s="80"/>
-      <c r="H140" s="94"/>
+      <c r="G140" s="80" t="s">
+        <v>292</v>
+      </c>
+      <c r="H140" s="94">
+        <v>45911</v>
+      </c>
       <c r="I140" s="94"/>
       <c r="J140" s="76"/>
       <c r="K140" s="1"/>
@@ -6748,14 +6850,24 @@
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
     </row>
-    <row r="141" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="79"/>
-      <c r="B141" s="21"/>
+      <c r="B141" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="C141" s="21"/>
-      <c r="D141" s="21"/>
-      <c r="E141" s="22"/>
-      <c r="F141" s="21"/>
-      <c r="G141" s="86"/>
+      <c r="D141" s="21" t="s">
+        <v>437</v>
+      </c>
+      <c r="E141" s="22" t="s">
+        <v>438</v>
+      </c>
+      <c r="F141" s="21">
+        <v>0</v>
+      </c>
+      <c r="G141" s="86">
+        <v>45911</v>
+      </c>
       <c r="H141" s="92"/>
       <c r="I141" s="92"/>
       <c r="J141" s="76"/>
@@ -6765,7 +6877,7 @@
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
     </row>
-    <row r="142" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="79"/>
       <c r="B142" s="21"/>
       <c r="C142" s="21"/>
@@ -6782,16 +6894,16 @@
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
     </row>
-    <row r="143" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="79"/>
       <c r="B143" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C143" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D143" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E143" s="29">
         <v>3</v>
@@ -6809,13 +6921,13 @@
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
     </row>
-    <row r="144" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="79"/>
       <c r="B144" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C144" s="28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D144" s="28" t="s">
         <v>98</v>
@@ -6836,7 +6948,7 @@
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
     </row>
-    <row r="145" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="79"/>
       <c r="B145" s="28"/>
       <c r="C145" s="28"/>
@@ -6853,13 +6965,13 @@
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
     </row>
-    <row r="146" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="79"/>
       <c r="B146" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C146" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D146" s="28" t="s">
         <v>34</v>
@@ -6880,7 +6992,7 @@
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
     </row>
-    <row r="147" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="79"/>
       <c r="B147" s="28" t="s">
         <v>16</v>
@@ -6906,7 +7018,7 @@
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
     </row>
-    <row r="148" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="79"/>
       <c r="B148" s="28" t="s">
         <v>16</v>
@@ -6933,7 +7045,7 @@
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
     </row>
-    <row r="149" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="79"/>
       <c r="B149" s="28"/>
       <c r="C149" s="28"/>
@@ -6950,7 +7062,7 @@
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
     </row>
-    <row r="150" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="79"/>
       <c r="B150" s="28"/>
       <c r="C150" s="28"/>
@@ -6967,7 +7079,7 @@
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
     </row>
-    <row r="151" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="79"/>
       <c r="B151" s="28"/>
       <c r="C151" s="28"/>
@@ -6984,13 +7096,13 @@
       <c r="N151" s="1"/>
       <c r="O151" s="1"/>
     </row>
-    <row r="152" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="79"/>
       <c r="B152" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C152" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D152" s="28" t="s">
         <v>69</v>
@@ -7011,13 +7123,13 @@
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
     </row>
-    <row r="153" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="79"/>
       <c r="B153" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C153" s="28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D153" s="28" t="s">
         <v>84</v>
@@ -7038,25 +7150,29 @@
       <c r="N153" s="1"/>
       <c r="O153" s="1"/>
     </row>
-    <row r="154" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="79"/>
-      <c r="B154" s="28" t="s">
+      <c r="B154" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C154" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="D154" s="28" t="s">
+      <c r="C154" s="108" t="s">
+        <v>218</v>
+      </c>
+      <c r="D154" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="E154" s="29">
+      <c r="E154" s="109">
         <v>3</v>
       </c>
-      <c r="F154" s="30">
+      <c r="F154" s="110">
         <v>0</v>
       </c>
-      <c r="G154" s="87"/>
-      <c r="H154" s="91"/>
+      <c r="G154" s="87" t="s">
+        <v>292</v>
+      </c>
+      <c r="H154" s="91">
+        <v>45911</v>
+      </c>
       <c r="I154" s="90"/>
       <c r="J154" s="96"/>
       <c r="K154" s="1"/>
@@ -7065,24 +7181,26 @@
       <c r="N154" s="1"/>
       <c r="O154" s="1"/>
     </row>
-    <row r="155" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="79"/>
       <c r="B155" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C155" s="28" t="s">
-        <v>118</v>
+        <v>436</v>
       </c>
       <c r="D155" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E155" s="29">
-        <v>25</v>
+        <v>140</v>
+      </c>
+      <c r="E155" s="29" t="s">
+        <v>291</v>
       </c>
       <c r="F155" s="30">
-        <v>2</v>
-      </c>
-      <c r="G155" s="87"/>
+        <v>0</v>
+      </c>
+      <c r="G155" s="87">
+        <v>45911</v>
+      </c>
       <c r="H155" s="91"/>
       <c r="I155" s="90"/>
       <c r="J155" s="76"/>
@@ -7092,22 +7210,22 @@
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
     </row>
-    <row r="156" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="79"/>
       <c r="B156" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C156" s="28" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="D156" s="28" t="s">
-        <v>220</v>
+        <v>19</v>
       </c>
       <c r="E156" s="29">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F156" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G156" s="87"/>
       <c r="H156" s="91"/>
@@ -7119,13 +7237,23 @@
       <c r="N156" s="1"/>
       <c r="O156" s="1"/>
     </row>
-    <row r="157" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="79"/>
-      <c r="B157" s="28"/>
-      <c r="C157" s="28"/>
-      <c r="D157" s="28"/>
-      <c r="E157" s="29"/>
-      <c r="F157" s="30"/>
+      <c r="B157" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C157" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D157" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="E157" s="29">
+        <v>4</v>
+      </c>
+      <c r="F157" s="30">
+        <v>0</v>
+      </c>
       <c r="G157" s="87"/>
       <c r="H157" s="91"/>
       <c r="I157" s="90"/>
@@ -7136,7 +7264,7 @@
       <c r="N157" s="1"/>
       <c r="O157" s="1"/>
     </row>
-    <row r="158" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="79"/>
       <c r="B158" s="28"/>
       <c r="C158" s="28"/>
@@ -7153,7 +7281,7 @@
       <c r="N158" s="1"/>
       <c r="O158" s="1"/>
     </row>
-    <row r="159" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="79"/>
       <c r="B159" s="28"/>
       <c r="C159" s="28"/>
@@ -7170,7 +7298,7 @@
       <c r="N159" s="1"/>
       <c r="O159" s="1"/>
     </row>
-    <row r="160" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A160" s="79"/>
       <c r="B160" s="28"/>
       <c r="C160" s="28"/>
@@ -7187,7 +7315,7 @@
       <c r="N160" s="1"/>
       <c r="O160" s="1"/>
     </row>
-    <row r="161" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="33"/>
       <c r="C161" s="33"/>
@@ -7210,7 +7338,7 @@
       <c r="N161" s="1"/>
       <c r="O161" s="1"/>
     </row>
-    <row r="162" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -7227,7 +7355,7 @@
       <c r="N162" s="1"/>
       <c r="O162" s="1"/>
     </row>
-    <row r="163" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -7244,7 +7372,7 @@
       <c r="N163" s="1"/>
       <c r="O163" s="1"/>
     </row>
-    <row r="164" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="3" t="s">
@@ -7265,7 +7393,7 @@
       <c r="N164" s="1"/>
       <c r="O164" s="1"/>
     </row>
-    <row r="165" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -7282,7 +7410,7 @@
       <c r="N165" s="1"/>
       <c r="O165" s="1"/>
     </row>
-    <row r="166" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A166" s="79"/>
       <c r="B166" s="6" t="s">
         <v>3</v>
@@ -7309,14 +7437,14 @@
       <c r="N166" s="1"/>
       <c r="O166" s="1"/>
     </row>
-    <row r="167" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="79"/>
       <c r="B167" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C167" s="13"/>
       <c r="D167" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E167" s="14">
         <v>1</v>
@@ -7334,7 +7462,7 @@
       <c r="N167" s="1"/>
       <c r="O167" s="1"/>
     </row>
-    <row r="168" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="79"/>
       <c r="B168" s="21"/>
       <c r="C168" s="21"/>
@@ -7351,7 +7479,7 @@
       <c r="N168" s="1"/>
       <c r="O168" s="1"/>
     </row>
-    <row r="169" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="79"/>
       <c r="B169" s="21"/>
       <c r="C169" s="21"/>
@@ -7368,13 +7496,13 @@
       <c r="N169" s="1"/>
       <c r="O169" s="1"/>
     </row>
-    <row r="170" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="79"/>
       <c r="B170" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C170" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D170" s="28" t="s">
         <v>22</v>
@@ -7395,7 +7523,7 @@
       <c r="N170" s="1"/>
       <c r="O170" s="1"/>
     </row>
-    <row r="171" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="79"/>
       <c r="B171" s="28" t="s">
         <v>14</v>
@@ -7422,7 +7550,7 @@
       <c r="N171" s="1"/>
       <c r="O171" s="1"/>
     </row>
-    <row r="172" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="79"/>
       <c r="B172" s="28"/>
       <c r="C172" s="28"/>
@@ -7439,13 +7567,13 @@
       <c r="N172" s="1"/>
       <c r="O172" s="1"/>
     </row>
-    <row r="173" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="79"/>
       <c r="B173" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C173" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D173" s="28" t="s">
         <v>88</v>
@@ -7466,7 +7594,7 @@
       <c r="N173" s="1"/>
       <c r="O173" s="1"/>
     </row>
-    <row r="174" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="79"/>
       <c r="B174" s="108" t="s">
         <v>16</v>
@@ -7484,7 +7612,7 @@
         <v>0</v>
       </c>
       <c r="G174" s="91" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H174" s="91">
         <v>45897</v>
@@ -7497,19 +7625,19 @@
       <c r="N174" s="1"/>
       <c r="O174" s="1"/>
     </row>
-    <row r="175" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="79"/>
       <c r="B175" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C175" s="28" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D175" s="28" t="s">
         <v>98</v>
       </c>
       <c r="E175" s="29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F175" s="30">
         <v>0</v>
@@ -7526,13 +7654,13 @@
       <c r="N175" s="1"/>
       <c r="O175" s="1"/>
     </row>
-    <row r="176" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="79"/>
       <c r="B176" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C176" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D176" s="28" t="s">
         <v>81</v>
@@ -7553,7 +7681,7 @@
       <c r="N176" s="1"/>
       <c r="O176" s="1"/>
     </row>
-    <row r="177" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="79"/>
       <c r="B177" s="28"/>
       <c r="C177" s="28"/>
@@ -7570,7 +7698,7 @@
       <c r="N177" s="1"/>
       <c r="O177" s="1"/>
     </row>
-    <row r="178" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="79"/>
       <c r="B178" s="28"/>
       <c r="C178" s="28"/>
@@ -7587,7 +7715,7 @@
       <c r="N178" s="1"/>
       <c r="O178" s="1"/>
     </row>
-    <row r="179" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="79"/>
       <c r="B179" s="28" t="s">
         <v>17</v>
@@ -7614,16 +7742,16 @@
       <c r="N179" s="1"/>
       <c r="O179" s="1"/>
     </row>
-    <row r="180" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="79"/>
       <c r="B180" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C180" s="28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D180" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E180" s="29">
         <v>1</v>
@@ -7641,13 +7769,13 @@
       <c r="N180" s="1"/>
       <c r="O180" s="1"/>
     </row>
-    <row r="181" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="79"/>
       <c r="B181" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C181" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D181" s="28" t="s">
         <v>65</v>
@@ -7668,13 +7796,13 @@
       <c r="N181" s="1"/>
       <c r="O181" s="1"/>
     </row>
-    <row r="182" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="79"/>
       <c r="B182" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C182" s="28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D182" s="28" t="s">
         <v>29</v>
@@ -7695,16 +7823,16 @@
       <c r="N182" s="1"/>
       <c r="O182" s="1"/>
     </row>
-    <row r="183" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="79"/>
       <c r="B183" s="108" t="s">
         <v>17</v>
       </c>
       <c r="C183" s="108" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D183" s="108" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E183" s="109">
         <v>1</v>
@@ -7713,7 +7841,7 @@
         <v>0</v>
       </c>
       <c r="G183" s="83" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H183" s="91">
         <v>45876</v>
@@ -7726,19 +7854,19 @@
       <c r="N183" s="1"/>
       <c r="O183" s="1"/>
     </row>
-    <row r="184" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="79"/>
       <c r="B184" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C184" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="D184" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E184" s="29" t="s">
         <v>291</v>
-      </c>
-      <c r="D184" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="E184" s="29" t="s">
-        <v>292</v>
       </c>
       <c r="F184" s="30">
         <v>0</v>
@@ -7755,7 +7883,7 @@
       <c r="N184" s="1"/>
       <c r="O184" s="1"/>
     </row>
-    <row r="185" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="79"/>
       <c r="B185" s="28"/>
       <c r="C185" s="28"/>
@@ -7772,7 +7900,7 @@
       <c r="N185" s="1"/>
       <c r="O185" s="1"/>
     </row>
-    <row r="186" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="79"/>
       <c r="B186" s="28"/>
       <c r="C186" s="28"/>
@@ -7789,7 +7917,7 @@
       <c r="N186" s="1"/>
       <c r="O186" s="1"/>
     </row>
-    <row r="187" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A187" s="79"/>
       <c r="B187" s="28"/>
       <c r="C187" s="28"/>
@@ -7806,7 +7934,7 @@
       <c r="N187" s="1"/>
       <c r="O187" s="1"/>
     </row>
-    <row r="188" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="33"/>
       <c r="C188" s="33"/>
@@ -7829,7 +7957,7 @@
       <c r="N188" s="1"/>
       <c r="O188" s="1"/>
     </row>
-    <row r="189" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -7846,7 +7974,7 @@
       <c r="N189" s="1"/>
       <c r="O189" s="1"/>
     </row>
-    <row r="190" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -7863,7 +7991,7 @@
       <c r="N190" s="1"/>
       <c r="O190" s="1"/>
     </row>
-    <row r="191" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="3" t="s">
@@ -7884,7 +8012,7 @@
       <c r="N191" s="1"/>
       <c r="O191" s="1"/>
     </row>
-    <row r="192" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -7901,7 +8029,7 @@
       <c r="N192" s="1"/>
       <c r="O192" s="1"/>
     </row>
-    <row r="193" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A193" s="79"/>
       <c r="B193" s="6" t="s">
         <v>3</v>
@@ -7928,7 +8056,7 @@
       <c r="N193" s="1"/>
       <c r="O193" s="1"/>
     </row>
-    <row r="194" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="79"/>
       <c r="B194" s="12" t="s">
         <v>13</v>
@@ -7953,7 +8081,7 @@
       <c r="N194" s="1"/>
       <c r="O194" s="1"/>
     </row>
-    <row r="195" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="79"/>
       <c r="B195" s="21"/>
       <c r="C195" s="21"/>
@@ -7970,7 +8098,7 @@
       <c r="N195" s="1"/>
       <c r="O195" s="1"/>
     </row>
-    <row r="196" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="79"/>
       <c r="B196" s="21"/>
       <c r="C196" s="21"/>
@@ -7987,13 +8115,13 @@
       <c r="N196" s="1"/>
       <c r="O196" s="1"/>
     </row>
-    <row r="197" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="79"/>
       <c r="B197" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C197" s="28" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D197" s="28" t="s">
         <v>18</v>
@@ -8014,13 +8142,13 @@
       <c r="N197" s="1"/>
       <c r="O197" s="1"/>
     </row>
-    <row r="198" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="79"/>
       <c r="B198" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C198" s="28" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D198" s="28" t="s">
         <v>22</v>
@@ -8041,7 +8169,7 @@
       <c r="N198" s="1"/>
       <c r="O198" s="1"/>
     </row>
-    <row r="199" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="79"/>
       <c r="B199" s="28"/>
       <c r="C199" s="28"/>
@@ -8058,16 +8186,16 @@
       <c r="N199" s="1"/>
       <c r="O199" s="1"/>
     </row>
-    <row r="200" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="79"/>
       <c r="B200" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C200" s="28" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D200" s="28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E200" s="29">
         <v>1</v>
@@ -8085,13 +8213,13 @@
       <c r="N200" s="1"/>
       <c r="O200" s="1"/>
     </row>
-    <row r="201" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="79"/>
       <c r="B201" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C201" s="28" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D201" s="28" t="s">
         <v>18</v>
@@ -8112,13 +8240,13 @@
       <c r="N201" s="1"/>
       <c r="O201" s="1"/>
     </row>
-    <row r="202" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="79"/>
       <c r="B202" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C202" s="28" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D202" s="28" t="s">
         <v>22</v>
@@ -8139,7 +8267,7 @@
       <c r="N202" s="1"/>
       <c r="O202" s="1"/>
     </row>
-    <row r="203" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="79"/>
       <c r="B203" s="28"/>
       <c r="C203" s="28"/>
@@ -8156,7 +8284,7 @@
       <c r="N203" s="1"/>
       <c r="O203" s="1"/>
     </row>
-    <row r="204" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="79"/>
       <c r="B204" s="28"/>
       <c r="C204" s="28"/>
@@ -8173,7 +8301,7 @@
       <c r="N204" s="1"/>
       <c r="O204" s="1"/>
     </row>
-    <row r="205" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="79"/>
       <c r="B205" s="28"/>
       <c r="C205" s="28"/>
@@ -8190,13 +8318,13 @@
       <c r="N205" s="1"/>
       <c r="O205" s="1"/>
     </row>
-    <row r="206" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="79"/>
       <c r="B206" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C206" s="28" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D206" s="28" t="s">
         <v>88</v>
@@ -8217,13 +8345,13 @@
       <c r="N206" s="1"/>
       <c r="O206" s="1"/>
     </row>
-    <row r="207" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="79"/>
       <c r="B207" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C207" s="28" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D207" s="28" t="s">
         <v>74</v>
@@ -8244,13 +8372,13 @@
       <c r="N207" s="1"/>
       <c r="O207" s="1"/>
     </row>
-    <row r="208" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="79"/>
       <c r="B208" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C208" s="28" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D208" s="28" t="s">
         <v>91</v>
@@ -8271,16 +8399,16 @@
       <c r="N208" s="1"/>
       <c r="O208" s="1"/>
     </row>
-    <row r="209" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="79"/>
       <c r="B209" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C209" s="28" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D209" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E209" s="29">
         <v>1</v>
@@ -8298,16 +8426,16 @@
       <c r="N209" s="1"/>
       <c r="O209" s="1"/>
     </row>
-    <row r="210" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="79"/>
       <c r="B210" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C210" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="D210" s="28" t="s">
         <v>283</v>
-      </c>
-      <c r="D210" s="28" t="s">
-        <v>284</v>
       </c>
       <c r="E210" s="29">
         <v>1</v>
@@ -8325,7 +8453,7 @@
       <c r="N210" s="1"/>
       <c r="O210" s="1"/>
     </row>
-    <row r="211" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="79"/>
       <c r="B211" s="28"/>
       <c r="C211" s="28"/>
@@ -8342,7 +8470,7 @@
       <c r="N211" s="1"/>
       <c r="O211" s="1"/>
     </row>
-    <row r="212" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="79"/>
       <c r="B212" s="28"/>
       <c r="C212" s="28"/>
@@ -8359,7 +8487,7 @@
       <c r="N212" s="1"/>
       <c r="O212" s="1"/>
     </row>
-    <row r="213" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="79"/>
       <c r="B213" s="28"/>
       <c r="C213" s="28"/>
@@ -8376,7 +8504,7 @@
       <c r="N213" s="1"/>
       <c r="O213" s="1"/>
     </row>
-    <row r="214" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A214" s="79"/>
       <c r="B214" s="28"/>
       <c r="C214" s="28"/>
@@ -8393,7 +8521,7 @@
       <c r="N214" s="1"/>
       <c r="O214" s="1"/>
     </row>
-    <row r="215" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="33"/>
       <c r="C215" s="33"/>
@@ -8416,7 +8544,7 @@
       <c r="N215" s="1"/>
       <c r="O215" s="1"/>
     </row>
-    <row r="216" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -8433,7 +8561,7 @@
       <c r="N216" s="1"/>
       <c r="O216" s="1"/>
     </row>
-    <row r="217" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -8450,11 +8578,11 @@
       <c r="N217" s="1"/>
       <c r="O217" s="1"/>
     </row>
-    <row r="218" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D218" s="3" t="s">
         <v>55</v>
@@ -8471,7 +8599,7 @@
       <c r="N218" s="1"/>
       <c r="O218" s="1"/>
     </row>
-    <row r="219" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -8488,7 +8616,7 @@
       <c r="N219" s="1"/>
       <c r="O219" s="1"/>
     </row>
-    <row r="220" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A220" s="79"/>
       <c r="B220" s="6" t="s">
         <v>3</v>
@@ -8515,7 +8643,7 @@
       <c r="N220" s="1"/>
       <c r="O220" s="1"/>
     </row>
-    <row r="221" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="58"/>
       <c r="B221" s="112" t="s">
         <v>13</v>
@@ -8531,7 +8659,7 @@
         <v>6</v>
       </c>
       <c r="G221" s="80" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H221" s="94">
         <v>45890</v>
@@ -8544,17 +8672,17 @@
       <c r="N221" s="1"/>
       <c r="O221" s="1"/>
     </row>
-    <row r="222" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="79"/>
       <c r="B222" s="21" t="s">
         <v>13</v>
       </c>
       <c r="C222" s="21"/>
       <c r="D222" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E222" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F222" s="21">
         <v>0</v>
@@ -8571,7 +8699,7 @@
       <c r="N222" s="1"/>
       <c r="O222" s="1"/>
     </row>
-    <row r="223" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="79"/>
       <c r="B223" s="21"/>
       <c r="C223" s="21"/>
@@ -8588,13 +8716,13 @@
       <c r="N223" s="1"/>
       <c r="O223" s="1"/>
     </row>
-    <row r="224" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="79"/>
       <c r="B224" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C224" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D224" s="28" t="s">
         <v>19</v>
@@ -8615,13 +8743,13 @@
       <c r="N224" s="1"/>
       <c r="O224" s="1"/>
     </row>
-    <row r="225" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="79"/>
       <c r="B225" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C225" s="28" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D225" s="28" t="s">
         <v>18</v>
@@ -8642,7 +8770,7 @@
       <c r="N225" s="1"/>
       <c r="O225" s="1"/>
     </row>
-    <row r="226" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="79"/>
       <c r="B226" s="28"/>
       <c r="C226" s="28"/>
@@ -8659,7 +8787,7 @@
       <c r="N226" s="1"/>
       <c r="O226" s="1"/>
     </row>
-    <row r="227" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="79"/>
       <c r="B227" s="28" t="s">
         <v>16</v>
@@ -8686,7 +8814,7 @@
       <c r="N227" s="1"/>
       <c r="O227" s="1"/>
     </row>
-    <row r="228" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="79"/>
       <c r="B228" s="28" t="s">
         <v>16</v>
@@ -8701,7 +8829,7 @@
         <v>5</v>
       </c>
       <c r="F228" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G228" s="87"/>
       <c r="H228" s="91"/>
@@ -8713,16 +8841,16 @@
       <c r="N228" s="1"/>
       <c r="O228" s="1"/>
     </row>
-    <row r="229" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="79"/>
       <c r="B229" s="108" t="s">
         <v>16</v>
       </c>
       <c r="C229" s="108" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D229" s="108" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E229" s="109">
         <v>4</v>
@@ -8731,7 +8859,7 @@
         <v>0</v>
       </c>
       <c r="G229" s="87" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H229" s="91">
         <v>45876</v>
@@ -8744,19 +8872,19 @@
       <c r="N229" s="1"/>
       <c r="O229" s="1"/>
     </row>
-    <row r="230" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="79"/>
       <c r="B230" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C230" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="D230" s="28" t="s">
         <v>296</v>
       </c>
-      <c r="D230" s="28" t="s">
-        <v>297</v>
-      </c>
       <c r="E230" s="29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F230" s="30">
         <v>0</v>
@@ -8773,7 +8901,7 @@
       <c r="N230" s="1"/>
       <c r="O230" s="1"/>
     </row>
-    <row r="231" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="79"/>
       <c r="B231" s="28"/>
       <c r="C231" s="28"/>
@@ -8790,7 +8918,7 @@
       <c r="N231" s="1"/>
       <c r="O231" s="1"/>
     </row>
-    <row r="232" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="79"/>
       <c r="B232" s="28"/>
       <c r="C232" s="28"/>
@@ -8807,13 +8935,13 @@
       <c r="N232" s="1"/>
       <c r="O232" s="1"/>
     </row>
-    <row r="233" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="79"/>
       <c r="B233" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C233" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D233" s="28" t="s">
         <v>18</v>
@@ -8834,22 +8962,22 @@
       <c r="N233" s="1"/>
       <c r="O233" s="1"/>
     </row>
-    <row r="234" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="79"/>
       <c r="B234" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C234" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D234" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E234" s="29">
         <v>20</v>
       </c>
       <c r="F234" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G234" s="87"/>
       <c r="H234" s="91"/>
@@ -8861,13 +8989,13 @@
       <c r="N234" s="1"/>
       <c r="O234" s="1"/>
     </row>
-    <row r="235" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="79"/>
       <c r="B235" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C235" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D235" s="28" t="s">
         <v>31</v>
@@ -8888,13 +9016,13 @@
       <c r="N235" s="1"/>
       <c r="O235" s="1"/>
     </row>
-    <row r="236" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="79"/>
       <c r="B236" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C236" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D236" s="28" t="s">
         <v>104</v>
@@ -8915,25 +9043,29 @@
       <c r="N236" s="1"/>
       <c r="O236" s="1"/>
     </row>
-    <row r="237" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="79"/>
-      <c r="B237" s="28" t="s">
+      <c r="B237" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C237" s="28" t="s">
-        <v>273</v>
-      </c>
-      <c r="D237" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="E237" s="29">
+      <c r="C237" s="108" t="s">
+        <v>272</v>
+      </c>
+      <c r="D237" s="108" t="s">
+        <v>161</v>
+      </c>
+      <c r="E237" s="109">
         <v>1</v>
       </c>
-      <c r="F237" s="30">
+      <c r="F237" s="110">
         <v>0</v>
       </c>
-      <c r="G237" s="87"/>
-      <c r="H237" s="91"/>
+      <c r="G237" s="87" t="s">
+        <v>292</v>
+      </c>
+      <c r="H237" s="91">
+        <v>45911</v>
+      </c>
       <c r="I237" s="89"/>
       <c r="J237" s="76"/>
       <c r="K237" s="1"/>
@@ -8942,14 +9074,26 @@
       <c r="N237" s="1"/>
       <c r="O237" s="1"/>
     </row>
-    <row r="238" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="79"/>
-      <c r="B238" s="28"/>
-      <c r="C238" s="28"/>
-      <c r="D238" s="28"/>
-      <c r="E238" s="29"/>
-      <c r="F238" s="30"/>
-      <c r="G238" s="87"/>
+      <c r="B238" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C238" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="D238" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E238" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="F238" s="30">
+        <v>0</v>
+      </c>
+      <c r="G238" s="87">
+        <v>45911</v>
+      </c>
       <c r="H238" s="91"/>
       <c r="I238" s="89"/>
       <c r="J238" s="76"/>
@@ -8959,7 +9103,7 @@
       <c r="N238" s="1"/>
       <c r="O238" s="1"/>
     </row>
-    <row r="239" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="79"/>
       <c r="B239" s="28"/>
       <c r="C239" s="28"/>
@@ -8976,7 +9120,7 @@
       <c r="N239" s="1"/>
       <c r="O239" s="1"/>
     </row>
-    <row r="240" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="79"/>
       <c r="B240" s="28"/>
       <c r="C240" s="28"/>
@@ -8993,7 +9137,7 @@
       <c r="N240" s="1"/>
       <c r="O240" s="1"/>
     </row>
-    <row r="241" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A241" s="79"/>
       <c r="B241" s="28"/>
       <c r="C241" s="28"/>
@@ -9010,7 +9154,7 @@
       <c r="N241" s="1"/>
       <c r="O241" s="1"/>
     </row>
-    <row r="242" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="33"/>
       <c r="C242" s="33"/>
@@ -9021,7 +9165,7 @@
       </c>
       <c r="F242" s="36">
         <f>SUM(F224:F241)-SUM(F221:F223)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G242" s="80"/>
       <c r="H242" s="92"/>
@@ -9033,7 +9177,7 @@
       <c r="N242" s="1"/>
       <c r="O242" s="1"/>
     </row>
-    <row r="243" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -9050,7 +9194,7 @@
       <c r="N243" s="1"/>
       <c r="O243" s="1"/>
     </row>
-    <row r="244" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -9067,11 +9211,11 @@
       <c r="N244" s="1"/>
       <c r="O244" s="1"/>
     </row>
-    <row r="245" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D245" s="3" t="s">
         <v>56</v>
@@ -9088,7 +9232,7 @@
       <c r="N245" s="1"/>
       <c r="O245" s="1"/>
     </row>
-    <row r="246" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
@@ -9105,7 +9249,7 @@
       <c r="N246" s="1"/>
       <c r="O246" s="1"/>
     </row>
-    <row r="247" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A247" s="79"/>
       <c r="B247" s="6" t="s">
         <v>3</v>
@@ -9124,7 +9268,7 @@
       <c r="N247" s="1"/>
       <c r="O247" s="1"/>
     </row>
-    <row r="248" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="79"/>
       <c r="B248" s="12" t="s">
         <v>13</v>
@@ -9149,7 +9293,7 @@
       <c r="N248" s="1"/>
       <c r="O248" s="1"/>
     </row>
-    <row r="249" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="79"/>
       <c r="B249" s="21"/>
       <c r="C249" s="21"/>
@@ -9166,7 +9310,7 @@
       <c r="N249" s="1"/>
       <c r="O249" s="1"/>
     </row>
-    <row r="250" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="79"/>
       <c r="B250" s="21"/>
       <c r="C250" s="21"/>
@@ -9183,16 +9327,16 @@
       <c r="N250" s="1"/>
       <c r="O250" s="1"/>
     </row>
-    <row r="251" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="79"/>
       <c r="B251" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C251" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D251" s="28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E251" s="29">
         <v>1</v>
@@ -9210,13 +9354,13 @@
       <c r="N251" s="1"/>
       <c r="O251" s="1"/>
     </row>
-    <row r="252" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="79"/>
       <c r="B252" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C252" s="28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D252" s="28" t="s">
         <v>22</v>
@@ -9237,7 +9381,7 @@
       <c r="N252" s="1"/>
       <c r="O252" s="1"/>
     </row>
-    <row r="253" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="79"/>
       <c r="B253" s="28"/>
       <c r="C253" s="28"/>
@@ -9254,13 +9398,13 @@
       <c r="N253" s="1"/>
       <c r="O253" s="1"/>
     </row>
-    <row r="254" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="79"/>
       <c r="B254" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C254" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D254" s="28" t="s">
         <v>65</v>
@@ -9281,13 +9425,13 @@
       <c r="N254" s="1"/>
       <c r="O254" s="1"/>
     </row>
-    <row r="255" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="79"/>
       <c r="B255" s="108" t="s">
         <v>16</v>
       </c>
       <c r="C255" s="108" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D255" s="108" t="s">
         <v>24</v>
@@ -9299,7 +9443,7 @@
         <v>0</v>
       </c>
       <c r="G255" s="91" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H255" s="91">
         <v>45890</v>
@@ -9312,19 +9456,19 @@
       <c r="N255" s="1"/>
       <c r="O255" s="1"/>
     </row>
-    <row r="256" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="79"/>
       <c r="B256" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C256" s="28" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D256" s="28" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E256" s="29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F256" s="30">
         <v>0</v>
@@ -9341,13 +9485,13 @@
       <c r="N256" s="1"/>
       <c r="O256" s="1"/>
     </row>
-    <row r="257" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="79"/>
       <c r="B257" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C257" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D257" s="28" t="s">
         <v>22</v>
@@ -9368,7 +9512,7 @@
       <c r="N257" s="1"/>
       <c r="O257" s="1"/>
     </row>
-    <row r="258" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="79"/>
       <c r="B258" s="28"/>
       <c r="C258" s="28"/>
@@ -9385,7 +9529,7 @@
       <c r="N258" s="1"/>
       <c r="O258" s="1"/>
     </row>
-    <row r="259" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="79"/>
       <c r="B259" s="28"/>
       <c r="C259" s="28"/>
@@ -9402,13 +9546,13 @@
       <c r="N259" s="1"/>
       <c r="O259" s="1"/>
     </row>
-    <row r="260" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="79"/>
       <c r="B260" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C260" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D260" s="28" t="s">
         <v>120</v>
@@ -9429,7 +9573,7 @@
       <c r="N260" s="1"/>
       <c r="O260" s="1"/>
     </row>
-    <row r="261" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="79"/>
       <c r="B261" s="28" t="s">
         <v>17</v>
@@ -9456,7 +9600,7 @@
       <c r="N261" s="1"/>
       <c r="O261" s="1"/>
     </row>
-    <row r="262" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="79"/>
       <c r="B262" s="28" t="s">
         <v>17</v>
@@ -9483,13 +9627,13 @@
       <c r="N262" s="1"/>
       <c r="O262" s="1"/>
     </row>
-    <row r="263" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="79"/>
       <c r="B263" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C263" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D263" s="28" t="s">
         <v>85</v>
@@ -9510,16 +9654,16 @@
       <c r="N263" s="1"/>
       <c r="O263" s="1"/>
     </row>
-    <row r="264" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="79"/>
       <c r="B264" s="108" t="s">
         <v>17</v>
       </c>
       <c r="C264" s="108" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D264" s="108" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E264" s="109">
         <v>14</v>
@@ -9528,7 +9672,7 @@
         <v>0</v>
       </c>
       <c r="G264" s="83" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H264" s="91">
         <v>45897</v>
@@ -9541,19 +9685,19 @@
       <c r="N264" s="1"/>
       <c r="O264" s="1"/>
     </row>
-    <row r="265" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="79"/>
       <c r="B265" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C265" s="28" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D265" s="28" t="s">
         <v>74</v>
       </c>
       <c r="E265" s="29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F265" s="30">
         <v>1</v>
@@ -9570,7 +9714,7 @@
       <c r="N265" s="1"/>
       <c r="O265" s="1"/>
     </row>
-    <row r="266" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="79"/>
       <c r="B266" s="28"/>
       <c r="C266" s="28"/>
@@ -9587,7 +9731,7 @@
       <c r="N266" s="1"/>
       <c r="O266" s="1"/>
     </row>
-    <row r="267" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="79"/>
       <c r="B267" s="28"/>
       <c r="C267" s="28"/>
@@ -9604,7 +9748,7 @@
       <c r="N267" s="1"/>
       <c r="O267" s="1"/>
     </row>
-    <row r="268" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A268" s="79"/>
       <c r="B268" s="28"/>
       <c r="C268" s="28"/>
@@ -9621,7 +9765,7 @@
       <c r="N268" s="1"/>
       <c r="O268" s="1"/>
     </row>
-    <row r="269" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
       <c r="B269" s="33"/>
       <c r="C269" s="33"/>
@@ -9644,7 +9788,7 @@
       <c r="N269" s="1"/>
       <c r="O269" s="1"/>
     </row>
-    <row r="270" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -9661,7 +9805,7 @@
       <c r="N270" s="1"/>
       <c r="O270" s="1"/>
     </row>
-    <row r="271" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -9678,11 +9822,11 @@
       <c r="N271" s="1"/>
       <c r="O271" s="1"/>
     </row>
-    <row r="272" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>119</v>
@@ -9699,7 +9843,7 @@
       <c r="N272" s="1"/>
       <c r="O272" s="1"/>
     </row>
-    <row r="273" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
@@ -9716,7 +9860,7 @@
       <c r="N273" s="1"/>
       <c r="O273" s="1"/>
     </row>
-    <row r="274" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A274" s="79"/>
       <c r="B274" s="6" t="s">
         <v>3</v>
@@ -9743,7 +9887,7 @@
       <c r="N274" s="1"/>
       <c r="O274" s="1"/>
     </row>
-    <row r="275" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="79"/>
       <c r="B275" s="12" t="s">
         <v>13</v>
@@ -9768,7 +9912,7 @@
       <c r="N275" s="1"/>
       <c r="O275" s="1"/>
     </row>
-    <row r="276" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="79"/>
       <c r="B276" s="21"/>
       <c r="C276" s="21"/>
@@ -9785,7 +9929,7 @@
       <c r="N276" s="1"/>
       <c r="O276" s="1"/>
     </row>
-    <row r="277" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="79"/>
       <c r="B277" s="21"/>
       <c r="C277" s="21"/>
@@ -9802,13 +9946,13 @@
       <c r="N277" s="1"/>
       <c r="O277" s="1"/>
     </row>
-    <row r="278" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="79"/>
       <c r="B278" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C278" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D278" s="28" t="s">
         <v>71</v>
@@ -9829,13 +9973,13 @@
       <c r="N278" s="1"/>
       <c r="O278" s="1"/>
     </row>
-    <row r="279" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="79"/>
       <c r="B279" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C279" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D279" s="28" t="s">
         <v>120</v>
@@ -9856,7 +10000,7 @@
       <c r="N279" s="1"/>
       <c r="O279" s="1"/>
     </row>
-    <row r="280" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="79"/>
       <c r="B280" s="28"/>
       <c r="C280" s="28"/>
@@ -9873,13 +10017,13 @@
       <c r="N280" s="1"/>
       <c r="O280" s="1"/>
     </row>
-    <row r="281" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="79"/>
       <c r="B281" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C281" s="28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D281" s="28" t="s">
         <v>71</v>
@@ -9900,13 +10044,13 @@
       <c r="N281" s="1"/>
       <c r="O281" s="1"/>
     </row>
-    <row r="282" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="79"/>
       <c r="B282" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C282" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D282" s="28" t="s">
         <v>34</v>
@@ -9927,16 +10071,16 @@
       <c r="N282" s="1"/>
       <c r="O282" s="1"/>
     </row>
-    <row r="283" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="79"/>
       <c r="B283" s="108" t="s">
         <v>16</v>
       </c>
       <c r="C283" s="108" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D283" s="108" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E283" s="109">
         <v>1</v>
@@ -9945,7 +10089,7 @@
         <v>0</v>
       </c>
       <c r="G283" s="87" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H283" s="91">
         <v>45876</v>
@@ -9958,19 +10102,19 @@
       <c r="N283" s="1"/>
       <c r="O283" s="1"/>
     </row>
-    <row r="284" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="79"/>
       <c r="B284" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C284" s="28" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D284" s="28" t="s">
         <v>85</v>
       </c>
       <c r="E284" s="29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F284" s="30">
         <v>1</v>
@@ -9987,7 +10131,7 @@
       <c r="N284" s="1"/>
       <c r="O284" s="1"/>
     </row>
-    <row r="285" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="79"/>
       <c r="B285" s="28"/>
       <c r="C285" s="28"/>
@@ -10004,7 +10148,7 @@
       <c r="N285" s="1"/>
       <c r="O285" s="1"/>
     </row>
-    <row r="286" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="79"/>
       <c r="B286" s="28"/>
       <c r="C286" s="28"/>
@@ -10021,13 +10165,13 @@
       <c r="N286" s="1"/>
       <c r="O286" s="1"/>
     </row>
-    <row r="287" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="79"/>
       <c r="B287" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C287" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D287" s="28" t="s">
         <v>90</v>
@@ -10048,16 +10192,16 @@
       <c r="N287" s="1"/>
       <c r="O287" s="1"/>
     </row>
-    <row r="288" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="79"/>
       <c r="B288" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C288" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="D288" s="28" t="s">
         <v>159</v>
-      </c>
-      <c r="D288" s="28" t="s">
-        <v>160</v>
       </c>
       <c r="E288" s="29">
         <v>1</v>
@@ -10075,13 +10219,13 @@
       <c r="N288" s="1"/>
       <c r="O288" s="1"/>
     </row>
-    <row r="289" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="79"/>
       <c r="B289" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C289" s="28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D289" s="28" t="s">
         <v>19</v>
@@ -10102,13 +10246,13 @@
       <c r="N289" s="1"/>
       <c r="O289" s="1"/>
     </row>
-    <row r="290" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="79"/>
       <c r="B290" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C290" s="28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D290" s="28" t="s">
         <v>71</v>
@@ -10129,13 +10273,13 @@
       <c r="N290" s="1"/>
       <c r="O290" s="1"/>
     </row>
-    <row r="291" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="79"/>
       <c r="B291" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C291" s="28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D291" s="28" t="s">
         <v>57</v>
@@ -10156,7 +10300,7 @@
       <c r="N291" s="1"/>
       <c r="O291" s="1"/>
     </row>
-    <row r="292" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="79"/>
       <c r="B292" s="28"/>
       <c r="C292" s="28"/>
@@ -10173,7 +10317,7 @@
       <c r="N292" s="1"/>
       <c r="O292" s="1"/>
     </row>
-    <row r="293" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="79"/>
       <c r="B293" s="28"/>
       <c r="C293" s="28"/>
@@ -10190,7 +10334,7 @@
       <c r="N293" s="1"/>
       <c r="O293" s="1"/>
     </row>
-    <row r="294" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="79"/>
       <c r="B294" s="28"/>
       <c r="C294" s="28"/>
@@ -10207,7 +10351,7 @@
       <c r="N294" s="1"/>
       <c r="O294" s="1"/>
     </row>
-    <row r="295" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A295" s="79"/>
       <c r="B295" s="28"/>
       <c r="C295" s="28"/>
@@ -10224,7 +10368,7 @@
       <c r="N295" s="1"/>
       <c r="O295" s="1"/>
     </row>
-    <row r="296" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
       <c r="B296" s="33"/>
       <c r="C296" s="33"/>
@@ -10247,7 +10391,7 @@
       <c r="N296" s="1"/>
       <c r="O296" s="1"/>
     </row>
-    <row r="297" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -10264,7 +10408,7 @@
       <c r="N297" s="1"/>
       <c r="O297" s="1"/>
     </row>
-    <row r="298" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -10281,11 +10425,11 @@
       <c r="N298" s="1"/>
       <c r="O298" s="1"/>
     </row>
-    <row r="299" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D299" s="1" t="s">
         <v>99</v>
@@ -10302,7 +10446,7 @@
       <c r="N299" s="1"/>
       <c r="O299" s="1"/>
     </row>
-    <row r="300" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
@@ -10319,7 +10463,7 @@
       <c r="N300" s="1"/>
       <c r="O300" s="1"/>
     </row>
-    <row r="301" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A301" s="79"/>
       <c r="B301" s="6" t="s">
         <v>3</v>
@@ -10346,7 +10490,7 @@
       <c r="N301" s="1"/>
       <c r="O301" s="1"/>
     </row>
-    <row r="302" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="79"/>
       <c r="B302" s="112" t="s">
         <v>13</v>
@@ -10362,7 +10506,7 @@
         <v>6</v>
       </c>
       <c r="G302" s="80" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H302" s="91">
         <v>45890</v>
@@ -10375,7 +10519,7 @@
       <c r="N302" s="1"/>
       <c r="O302" s="1"/>
     </row>
-    <row r="303" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="79"/>
       <c r="B303" s="21" t="s">
         <v>13</v>
@@ -10385,10 +10529,10 @@
         <v>101</v>
       </c>
       <c r="E303" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F303" s="21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G303" s="87">
         <v>45890</v>
@@ -10402,7 +10546,7 @@
       <c r="N303" s="1"/>
       <c r="O303" s="1"/>
     </row>
-    <row r="304" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="79"/>
       <c r="B304" s="21"/>
       <c r="C304" s="21"/>
@@ -10419,16 +10563,16 @@
       <c r="N304" s="1"/>
       <c r="O304" s="1"/>
     </row>
-    <row r="305" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="79"/>
       <c r="B305" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C305" s="28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D305" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E305" s="29">
         <v>2</v>
@@ -10446,16 +10590,16 @@
       <c r="N305" s="1"/>
       <c r="O305" s="1"/>
     </row>
-    <row r="306" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="79"/>
       <c r="B306" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C306" s="28" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D306" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E306" s="29">
         <v>1</v>
@@ -10473,7 +10617,7 @@
       <c r="N306" s="1"/>
       <c r="O306" s="1"/>
     </row>
-    <row r="307" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="79"/>
       <c r="B307" s="28"/>
       <c r="C307" s="28"/>
@@ -10490,16 +10634,16 @@
       <c r="N307" s="1"/>
       <c r="O307" s="1"/>
     </row>
-    <row r="308" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="79"/>
       <c r="B308" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C308" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D308" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E308" s="29">
         <v>4</v>
@@ -10517,13 +10661,13 @@
       <c r="N308" s="1"/>
       <c r="O308" s="1"/>
     </row>
-    <row r="309" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="79"/>
       <c r="B309" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C309" s="28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D309" s="28" t="s">
         <v>69</v>
@@ -10534,8 +10678,12 @@
       <c r="F309" s="30">
         <v>1</v>
       </c>
-      <c r="G309" s="87"/>
-      <c r="H309" s="91"/>
+      <c r="G309" s="87" t="s">
+        <v>292</v>
+      </c>
+      <c r="H309" s="91">
+        <v>45911</v>
+      </c>
       <c r="I309" s="90"/>
       <c r="J309" s="1"/>
       <c r="K309" s="1"/>
@@ -10544,24 +10692,26 @@
       <c r="N309" s="1"/>
       <c r="O309" s="1"/>
     </row>
-    <row r="310" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="79"/>
       <c r="B310" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C310" s="28" t="s">
-        <v>103</v>
+        <v>175</v>
       </c>
       <c r="D310" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="E310" s="29">
-        <v>9</v>
+        <v>26</v>
+      </c>
+      <c r="E310" s="29" t="s">
+        <v>291</v>
       </c>
       <c r="F310" s="30">
         <v>0</v>
       </c>
-      <c r="G310" s="87"/>
+      <c r="G310" s="87">
+        <v>45911</v>
+      </c>
       <c r="H310" s="91"/>
       <c r="I310" s="90"/>
       <c r="J310" s="1"/>
@@ -10571,14 +10721,24 @@
       <c r="N310" s="1"/>
       <c r="O310" s="1"/>
     </row>
-    <row r="311" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="79"/>
-      <c r="B311" s="28"/>
-      <c r="C311" s="28"/>
-      <c r="D311" s="28"/>
-      <c r="E311" s="29"/>
-      <c r="F311" s="30"/>
-      <c r="G311" s="83"/>
+      <c r="B311" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C311" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D311" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E311" s="29">
+        <v>9</v>
+      </c>
+      <c r="F311" s="30">
+        <v>0</v>
+      </c>
+      <c r="G311" s="87"/>
       <c r="H311" s="91"/>
       <c r="I311" s="90"/>
       <c r="J311" s="1"/>
@@ -10588,14 +10748,14 @@
       <c r="N311" s="1"/>
       <c r="O311" s="1"/>
     </row>
-    <row r="312" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="79"/>
       <c r="B312" s="28"/>
       <c r="C312" s="28"/>
       <c r="D312" s="28"/>
       <c r="E312" s="29"/>
       <c r="F312" s="30"/>
-      <c r="G312" s="87"/>
+      <c r="G312" s="83"/>
       <c r="H312" s="91"/>
       <c r="I312" s="90"/>
       <c r="J312" s="1"/>
@@ -10605,7 +10765,7 @@
       <c r="N312" s="1"/>
       <c r="O312" s="1"/>
     </row>
-    <row r="313" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="79"/>
       <c r="B313" s="28"/>
       <c r="C313" s="28"/>
@@ -10622,23 +10782,13 @@
       <c r="N313" s="1"/>
       <c r="O313" s="1"/>
     </row>
-    <row r="314" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="79"/>
-      <c r="B314" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C314" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="D314" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E314" s="29">
-        <v>54</v>
-      </c>
-      <c r="F314" s="30">
-        <v>3</v>
-      </c>
+      <c r="B314" s="28"/>
+      <c r="C314" s="28"/>
+      <c r="D314" s="28"/>
+      <c r="E314" s="29"/>
+      <c r="F314" s="30"/>
       <c r="G314" s="87"/>
       <c r="H314" s="91"/>
       <c r="I314" s="90"/>
@@ -10649,22 +10799,22 @@
       <c r="N314" s="1"/>
       <c r="O314" s="1"/>
     </row>
-    <row r="315" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="79"/>
       <c r="B315" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C315" s="28" t="s">
-        <v>241</v>
+        <v>72</v>
       </c>
       <c r="D315" s="28" t="s">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="E315" s="29">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="F315" s="30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G315" s="87"/>
       <c r="H315" s="91"/>
@@ -10676,22 +10826,22 @@
       <c r="N315" s="1"/>
       <c r="O315" s="1"/>
     </row>
-    <row r="316" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="79"/>
       <c r="B316" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C316" s="28" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D316" s="28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E316" s="29">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F316" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G316" s="87"/>
       <c r="H316" s="91"/>
@@ -10703,24 +10853,24 @@
       <c r="N316" s="1"/>
       <c r="O316" s="1"/>
     </row>
-    <row r="317" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="79"/>
       <c r="B317" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C317" s="28" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D317" s="28" t="s">
-        <v>244</v>
+        <v>122</v>
       </c>
       <c r="E317" s="29">
         <v>1</v>
       </c>
       <c r="F317" s="30">
-        <v>0</v>
-      </c>
-      <c r="G317" s="83"/>
+        <v>1</v>
+      </c>
+      <c r="G317" s="87"/>
       <c r="H317" s="91"/>
       <c r="I317" s="90"/>
       <c r="J317" s="1"/>
@@ -10730,28 +10880,28 @@
       <c r="N317" s="1"/>
       <c r="O317" s="1"/>
     </row>
-    <row r="318" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="79"/>
-      <c r="B318" s="108" t="s">
+      <c r="B318" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C318" s="108" t="s">
-        <v>245</v>
-      </c>
-      <c r="D318" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="E318" s="109">
+      <c r="C318" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="D318" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="E318" s="29">
         <v>1</v>
       </c>
-      <c r="F318" s="110">
+      <c r="F318" s="30">
         <v>0</v>
       </c>
-      <c r="G318" s="87" t="s">
-        <v>293</v>
+      <c r="G318" s="83" t="s">
+        <v>292</v>
       </c>
       <c r="H318" s="91">
-        <v>45890</v>
+        <v>45911</v>
       </c>
       <c r="I318" s="90"/>
       <c r="J318" s="1"/>
@@ -10761,25 +10911,25 @@
       <c r="N318" s="1"/>
       <c r="O318" s="1"/>
     </row>
-    <row r="319" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="79"/>
       <c r="B319" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C319" s="28" t="s">
-        <v>411</v>
+        <v>442</v>
       </c>
       <c r="D319" s="28" t="s">
-        <v>284</v>
+        <v>443</v>
       </c>
       <c r="E319" s="29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F319" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G319" s="87">
-        <v>45890</v>
+        <v>45911</v>
       </c>
       <c r="H319" s="91"/>
       <c r="I319" s="90"/>
@@ -10790,15 +10940,29 @@
       <c r="N319" s="1"/>
       <c r="O319" s="1"/>
     </row>
-    <row r="320" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="79"/>
-      <c r="B320" s="28"/>
-      <c r="C320" s="28"/>
-      <c r="D320" s="28"/>
-      <c r="E320" s="29"/>
-      <c r="F320" s="30"/>
-      <c r="G320" s="87"/>
-      <c r="H320" s="90"/>
+      <c r="B320" s="108" t="s">
+        <v>17</v>
+      </c>
+      <c r="C320" s="108" t="s">
+        <v>244</v>
+      </c>
+      <c r="D320" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="E320" s="109">
+        <v>1</v>
+      </c>
+      <c r="F320" s="110">
+        <v>0</v>
+      </c>
+      <c r="G320" s="87" t="s">
+        <v>292</v>
+      </c>
+      <c r="H320" s="91">
+        <v>45890</v>
+      </c>
       <c r="I320" s="90"/>
       <c r="J320" s="1"/>
       <c r="K320" s="1"/>
@@ -10807,14 +10971,26 @@
       <c r="N320" s="1"/>
       <c r="O320" s="1"/>
     </row>
-    <row r="321" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="79"/>
-      <c r="B321" s="28"/>
-      <c r="C321" s="28"/>
-      <c r="D321" s="28"/>
-      <c r="E321" s="29"/>
-      <c r="F321" s="30"/>
-      <c r="G321" s="87"/>
+      <c r="B321" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C321" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="D321" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="E321" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="F321" s="30">
+        <v>2</v>
+      </c>
+      <c r="G321" s="87">
+        <v>45890</v>
+      </c>
       <c r="H321" s="91"/>
       <c r="I321" s="90"/>
       <c r="J321" s="1"/>
@@ -10824,7 +11000,7 @@
       <c r="N321" s="1"/>
       <c r="O321" s="1"/>
     </row>
-    <row r="322" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="79"/>
       <c r="B322" s="28"/>
       <c r="C322" s="28"/>
@@ -10832,8 +11008,8 @@
       <c r="E322" s="29"/>
       <c r="F322" s="30"/>
       <c r="G322" s="87"/>
-      <c r="H322" s="91"/>
-      <c r="I322" s="92"/>
+      <c r="H322" s="90"/>
+      <c r="I322" s="90"/>
       <c r="J322" s="1"/>
       <c r="K322" s="1"/>
       <c r="L322" s="1"/>
@@ -10841,22 +11017,16 @@
       <c r="N322" s="1"/>
       <c r="O322" s="1"/>
     </row>
-    <row r="323" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A323" s="1"/>
-      <c r="B323" s="33"/>
-      <c r="C323" s="33"/>
-      <c r="D323" s="34"/>
-      <c r="E323" s="35">
-        <f>SUM(E302:E322)</f>
-        <v>86</v>
-      </c>
-      <c r="F323" s="36">
-        <f>SUM(F305:F322)-SUM(F302:F304)</f>
-        <v>-1</v>
-      </c>
-      <c r="G323" s="80"/>
-      <c r="H323" s="92"/>
-      <c r="I323" s="92"/>
+    <row r="323" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A323" s="79"/>
+      <c r="B323" s="28"/>
+      <c r="C323" s="28"/>
+      <c r="D323" s="28"/>
+      <c r="E323" s="29"/>
+      <c r="F323" s="30"/>
+      <c r="G323" s="87"/>
+      <c r="H323" s="91"/>
+      <c r="I323" s="90"/>
       <c r="J323" s="1"/>
       <c r="K323" s="1"/>
       <c r="L323" s="1"/>
@@ -10864,16 +11034,16 @@
       <c r="N323" s="1"/>
       <c r="O323" s="1"/>
     </row>
-    <row r="324" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A324" s="1"/>
-      <c r="B324" s="1"/>
-      <c r="C324" s="1"/>
-      <c r="D324" s="1"/>
-      <c r="E324" s="37"/>
-      <c r="F324" s="33"/>
-      <c r="G324" s="75"/>
-      <c r="H324" s="75"/>
-      <c r="I324" s="75"/>
+    <row r="324" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A324" s="79"/>
+      <c r="B324" s="28"/>
+      <c r="C324" s="28"/>
+      <c r="D324" s="28"/>
+      <c r="E324" s="29"/>
+      <c r="F324" s="30"/>
+      <c r="G324" s="87"/>
+      <c r="H324" s="91"/>
+      <c r="I324" s="92"/>
       <c r="J324" s="1"/>
       <c r="K324" s="1"/>
       <c r="L324" s="1"/>
@@ -10881,16 +11051,22 @@
       <c r="N324" s="1"/>
       <c r="O324" s="1"/>
     </row>
-    <row r="325" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
-      <c r="B325" s="1"/>
-      <c r="C325" s="1"/>
-      <c r="D325" s="1"/>
-      <c r="E325" s="1"/>
-      <c r="F325" s="1"/>
-      <c r="G325" s="1"/>
-      <c r="H325" s="1"/>
-      <c r="I325" s="1"/>
+      <c r="B325" s="33"/>
+      <c r="C325" s="33"/>
+      <c r="D325" s="34"/>
+      <c r="E325" s="35">
+        <f>SUM(E302:E324)</f>
+        <v>86</v>
+      </c>
+      <c r="F325" s="36">
+        <f>SUM(F305:F324)-SUM(F302:F304)</f>
+        <v>-1</v>
+      </c>
+      <c r="G325" s="80"/>
+      <c r="H325" s="92"/>
+      <c r="I325" s="92"/>
       <c r="J325" s="1"/>
       <c r="K325" s="1"/>
       <c r="L325" s="1"/>
@@ -10898,20 +11074,16 @@
       <c r="N325" s="1"/>
       <c r="O325" s="1"/>
     </row>
-    <row r="326" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
-      <c r="C326" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D326" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E326" s="2"/>
-      <c r="F326" s="1"/>
-      <c r="G326" s="1"/>
-      <c r="H326" s="1"/>
-      <c r="I326" s="1"/>
+      <c r="C326" s="1"/>
+      <c r="D326" s="1"/>
+      <c r="E326" s="37"/>
+      <c r="F326" s="33"/>
+      <c r="G326" s="75"/>
+      <c r="H326" s="75"/>
+      <c r="I326" s="75"/>
       <c r="J326" s="1"/>
       <c r="K326" s="1"/>
       <c r="L326" s="1"/>
@@ -10919,13 +11091,13 @@
       <c r="N326" s="1"/>
       <c r="O326" s="1"/>
     </row>
-    <row r="327" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="1"/>
-      <c r="B327" s="4"/>
-      <c r="C327" s="4"/>
-      <c r="D327" s="4"/>
-      <c r="E327" s="5"/>
-      <c r="F327" s="4"/>
+      <c r="B327" s="1"/>
+      <c r="C327" s="1"/>
+      <c r="D327" s="1"/>
+      <c r="E327" s="1"/>
+      <c r="F327" s="1"/>
       <c r="G327" s="1"/>
       <c r="H327" s="1"/>
       <c r="I327" s="1"/>
@@ -10936,26 +11108,20 @@
       <c r="N327" s="1"/>
       <c r="O327" s="1"/>
     </row>
-    <row r="328" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A328" s="79"/>
-      <c r="B328" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C328" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D328" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E328" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F328" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G328" s="83"/>
-      <c r="H328" s="90"/>
-      <c r="I328" s="90"/>
+    <row r="328" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A328" s="1"/>
+      <c r="B328" s="1"/>
+      <c r="C328" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E328" s="2"/>
+      <c r="F328" s="1"/>
+      <c r="G328" s="1"/>
+      <c r="H328" s="1"/>
+      <c r="I328" s="1"/>
       <c r="J328" s="1"/>
       <c r="K328" s="1"/>
       <c r="L328" s="1"/>
@@ -10963,24 +11129,16 @@
       <c r="N328" s="1"/>
       <c r="O328" s="1"/>
     </row>
-    <row r="329" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A329" s="79"/>
-      <c r="B329" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C329" s="13"/>
-      <c r="D329" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E329" s="14">
-        <v>1</v>
-      </c>
-      <c r="F329" s="15">
-        <v>4</v>
-      </c>
-      <c r="G329" s="83"/>
-      <c r="H329" s="87"/>
-      <c r="I329" s="90"/>
+    <row r="329" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="1"/>
+      <c r="B329" s="4"/>
+      <c r="C329" s="4"/>
+      <c r="D329" s="4"/>
+      <c r="E329" s="5"/>
+      <c r="F329" s="4"/>
+      <c r="G329" s="1"/>
+      <c r="H329" s="1"/>
+      <c r="I329" s="1"/>
       <c r="J329" s="1"/>
       <c r="K329" s="1"/>
       <c r="L329" s="1"/>
@@ -10988,15 +11146,25 @@
       <c r="N329" s="1"/>
       <c r="O329" s="1"/>
     </row>
-    <row r="330" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A330" s="79"/>
-      <c r="B330" s="21"/>
-      <c r="C330" s="21"/>
-      <c r="D330" s="21"/>
-      <c r="E330" s="22"/>
-      <c r="F330" s="21"/>
-      <c r="G330" s="87"/>
-      <c r="H330" s="91"/>
+      <c r="B330" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C330" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D330" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E330" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F330" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G330" s="83"/>
+      <c r="H330" s="90"/>
       <c r="I330" s="90"/>
       <c r="J330" s="1"/>
       <c r="K330" s="1"/>
@@ -11005,15 +11173,23 @@
       <c r="N330" s="1"/>
       <c r="O330" s="1"/>
     </row>
-    <row r="331" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="79"/>
-      <c r="B331" s="21"/>
-      <c r="C331" s="21"/>
-      <c r="D331" s="21"/>
-      <c r="E331" s="22"/>
-      <c r="F331" s="21"/>
-      <c r="G331" s="87"/>
-      <c r="H331" s="90"/>
+      <c r="B331" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C331" s="13"/>
+      <c r="D331" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E331" s="14">
+        <v>1</v>
+      </c>
+      <c r="F331" s="15">
+        <v>4</v>
+      </c>
+      <c r="G331" s="83"/>
+      <c r="H331" s="87"/>
       <c r="I331" s="90"/>
       <c r="J331" s="1"/>
       <c r="K331" s="1"/>
@@ -11022,25 +11198,15 @@
       <c r="N331" s="1"/>
       <c r="O331" s="1"/>
     </row>
-    <row r="332" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="79"/>
-      <c r="B332" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C332" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="D332" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="E332" s="29">
-        <v>1</v>
-      </c>
-      <c r="F332" s="30">
-        <v>2</v>
-      </c>
-      <c r="G332" s="83"/>
-      <c r="H332" s="90"/>
+      <c r="B332" s="21"/>
+      <c r="C332" s="21"/>
+      <c r="D332" s="21"/>
+      <c r="E332" s="22"/>
+      <c r="F332" s="21"/>
+      <c r="G332" s="87"/>
+      <c r="H332" s="91"/>
       <c r="I332" s="90"/>
       <c r="J332" s="1"/>
       <c r="K332" s="1"/>
@@ -11049,24 +11215,14 @@
       <c r="N332" s="1"/>
       <c r="O332" s="1"/>
     </row>
-    <row r="333" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="79"/>
-      <c r="B333" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C333" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="D333" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="E333" s="29">
-        <v>1</v>
-      </c>
-      <c r="F333" s="30">
-        <v>1</v>
-      </c>
-      <c r="G333" s="83"/>
+      <c r="B333" s="21"/>
+      <c r="C333" s="21"/>
+      <c r="D333" s="21"/>
+      <c r="E333" s="22"/>
+      <c r="F333" s="21"/>
+      <c r="G333" s="87"/>
       <c r="H333" s="90"/>
       <c r="I333" s="90"/>
       <c r="J333" s="1"/>
@@ -11076,15 +11232,25 @@
       <c r="N333" s="1"/>
       <c r="O333" s="1"/>
     </row>
-    <row r="334" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="79"/>
-      <c r="B334" s="28"/>
-      <c r="C334" s="28"/>
-      <c r="D334" s="28"/>
-      <c r="E334" s="29"/>
-      <c r="F334" s="30"/>
-      <c r="G334" s="87"/>
-      <c r="H334" s="91"/>
+      <c r="B334" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C334" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="D334" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="E334" s="29">
+        <v>1</v>
+      </c>
+      <c r="F334" s="30">
+        <v>2</v>
+      </c>
+      <c r="G334" s="83"/>
+      <c r="H334" s="90"/>
       <c r="I334" s="90"/>
       <c r="J334" s="1"/>
       <c r="K334" s="1"/>
@@ -11093,25 +11259,25 @@
       <c r="N334" s="1"/>
       <c r="O334" s="1"/>
     </row>
-    <row r="335" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="79"/>
       <c r="B335" s="28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C335" s="28" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="D335" s="28" t="s">
-        <v>247</v>
+        <v>20</v>
       </c>
       <c r="E335" s="29">
         <v>1</v>
       </c>
       <c r="F335" s="30">
-        <v>0</v>
-      </c>
-      <c r="G335" s="87"/>
-      <c r="H335" s="91"/>
+        <v>1</v>
+      </c>
+      <c r="G335" s="83"/>
+      <c r="H335" s="90"/>
       <c r="I335" s="90"/>
       <c r="J335" s="1"/>
       <c r="K335" s="1"/>
@@ -11120,25 +11286,15 @@
       <c r="N335" s="1"/>
       <c r="O335" s="1"/>
     </row>
-    <row r="336" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="79"/>
-      <c r="B336" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C336" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="D336" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="E336" s="29">
-        <v>1</v>
-      </c>
-      <c r="F336" s="30">
-        <v>0</v>
-      </c>
+      <c r="B336" s="28"/>
+      <c r="C336" s="28"/>
+      <c r="D336" s="28"/>
+      <c r="E336" s="29"/>
+      <c r="F336" s="30"/>
       <c r="G336" s="87"/>
-      <c r="H336" s="90"/>
+      <c r="H336" s="91"/>
       <c r="I336" s="90"/>
       <c r="J336" s="1"/>
       <c r="K336" s="1"/>
@@ -11147,16 +11303,16 @@
       <c r="N336" s="1"/>
       <c r="O336" s="1"/>
     </row>
-    <row r="337" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="79"/>
       <c r="B337" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C337" s="28" t="s">
-        <v>287</v>
+        <v>147</v>
       </c>
       <c r="D337" s="28" t="s">
-        <v>24</v>
+        <v>246</v>
       </c>
       <c r="E337" s="29">
         <v>1</v>
@@ -11165,7 +11321,7 @@
         <v>0</v>
       </c>
       <c r="G337" s="87"/>
-      <c r="H337" s="90"/>
+      <c r="H337" s="91"/>
       <c r="I337" s="90"/>
       <c r="J337" s="1"/>
       <c r="K337" s="1"/>
@@ -11174,15 +11330,25 @@
       <c r="N337" s="1"/>
       <c r="O337" s="1"/>
     </row>
-    <row r="338" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="79"/>
-      <c r="B338" s="28"/>
-      <c r="C338" s="28"/>
-      <c r="D338" s="28"/>
-      <c r="E338" s="29"/>
-      <c r="F338" s="30"/>
-      <c r="G338" s="83"/>
-      <c r="H338" s="91"/>
+      <c r="B338" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C338" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="D338" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="E338" s="29">
+        <v>1</v>
+      </c>
+      <c r="F338" s="30">
+        <v>0</v>
+      </c>
+      <c r="G338" s="87"/>
+      <c r="H338" s="90"/>
       <c r="I338" s="90"/>
       <c r="J338" s="1"/>
       <c r="K338" s="1"/>
@@ -11191,92 +11357,88 @@
       <c r="N338" s="1"/>
       <c r="O338" s="1"/>
     </row>
-    <row r="339" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="79"/>
-      <c r="B339" s="28"/>
-      <c r="C339" s="28"/>
-      <c r="D339" s="28"/>
-      <c r="E339" s="29"/>
-      <c r="F339" s="30"/>
+      <c r="B339" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C339" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="D339" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E339" s="29">
+        <v>1</v>
+      </c>
+      <c r="F339" s="30">
+        <v>0</v>
+      </c>
       <c r="G339" s="87"/>
-      <c r="H339" s="91"/>
+      <c r="H339" s="90"/>
       <c r="I339" s="90"/>
       <c r="J339" s="1"/>
+      <c r="K339" s="1"/>
+      <c r="L339" s="1"/>
+      <c r="M339" s="1"/>
       <c r="N339" s="1"/>
       <c r="O339" s="1"/>
     </row>
-    <row r="340" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="79"/>
       <c r="B340" s="28"/>
       <c r="C340" s="28"/>
       <c r="D340" s="28"/>
       <c r="E340" s="29"/>
       <c r="F340" s="30"/>
-      <c r="G340" s="87"/>
-      <c r="H340" s="90"/>
+      <c r="G340" s="83"/>
+      <c r="H340" s="91"/>
       <c r="I340" s="90"/>
       <c r="J340" s="1"/>
+      <c r="K340" s="1"/>
+      <c r="L340" s="1"/>
+      <c r="M340" s="1"/>
       <c r="N340" s="1"/>
       <c r="O340" s="1"/>
     </row>
-    <row r="341" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="79"/>
-      <c r="B341" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C341" s="28" t="s">
-        <v>248</v>
-      </c>
-      <c r="D341" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="E341" s="29">
-        <v>1</v>
-      </c>
-      <c r="F341" s="30">
-        <v>0</v>
-      </c>
-      <c r="G341" s="83"/>
+      <c r="B341" s="28"/>
+      <c r="C341" s="28"/>
+      <c r="D341" s="28"/>
+      <c r="E341" s="29"/>
+      <c r="F341" s="30"/>
+      <c r="G341" s="87"/>
       <c r="H341" s="91"/>
       <c r="I341" s="90"/>
       <c r="J341" s="1"/>
       <c r="N341" s="1"/>
       <c r="O341" s="1"/>
     </row>
-    <row r="342" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="79"/>
-      <c r="B342" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C342" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="D342" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="E342" s="29">
-        <v>1</v>
-      </c>
-      <c r="F342" s="30">
-        <v>1</v>
-      </c>
+      <c r="B342" s="28"/>
+      <c r="C342" s="28"/>
+      <c r="D342" s="28"/>
+      <c r="E342" s="29"/>
+      <c r="F342" s="30"/>
       <c r="G342" s="87"/>
-      <c r="H342" s="91"/>
+      <c r="H342" s="90"/>
       <c r="I342" s="90"/>
       <c r="J342" s="1"/>
       <c r="N342" s="1"/>
       <c r="O342" s="1"/>
     </row>
-    <row r="343" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="79"/>
       <c r="B343" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C343" s="28" t="s">
-        <v>130</v>
+        <v>247</v>
       </c>
       <c r="D343" s="28" t="s">
-        <v>124</v>
+        <v>210</v>
       </c>
       <c r="E343" s="29">
         <v>1</v>
@@ -11284,47 +11446,47 @@
       <c r="F343" s="30">
         <v>0</v>
       </c>
-      <c r="G343" s="87"/>
+      <c r="G343" s="83"/>
       <c r="H343" s="91"/>
       <c r="I343" s="90"/>
       <c r="J343" s="1"/>
       <c r="N343" s="1"/>
       <c r="O343" s="1"/>
     </row>
-    <row r="344" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="79"/>
       <c r="B344" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C344" s="28" t="s">
-        <v>288</v>
+        <v>144</v>
       </c>
       <c r="D344" s="28" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="E344" s="29">
         <v>1</v>
       </c>
       <c r="F344" s="30">
-        <v>0</v>
-      </c>
-      <c r="G344" s="83"/>
+        <v>1</v>
+      </c>
+      <c r="G344" s="87"/>
       <c r="H344" s="91"/>
       <c r="I344" s="90"/>
       <c r="J344" s="1"/>
       <c r="N344" s="1"/>
       <c r="O344" s="1"/>
     </row>
-    <row r="345" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="79"/>
       <c r="B345" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C345" s="28" t="s">
-        <v>289</v>
+        <v>129</v>
       </c>
       <c r="D345" s="28" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="E345" s="29">
         <v>1</v>
@@ -11339,27 +11501,47 @@
       <c r="N345" s="1"/>
       <c r="O345" s="1"/>
     </row>
-    <row r="346" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="79"/>
-      <c r="B346" s="28"/>
-      <c r="C346" s="28"/>
-      <c r="D346" s="28"/>
-      <c r="E346" s="29"/>
-      <c r="F346" s="30"/>
-      <c r="G346" s="87"/>
+      <c r="B346" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C346" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="D346" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E346" s="29">
+        <v>1</v>
+      </c>
+      <c r="F346" s="30">
+        <v>0</v>
+      </c>
+      <c r="G346" s="83"/>
       <c r="H346" s="91"/>
       <c r="I346" s="90"/>
       <c r="J346" s="1"/>
       <c r="N346" s="1"/>
       <c r="O346" s="1"/>
     </row>
-    <row r="347" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="79"/>
-      <c r="B347" s="28"/>
-      <c r="C347" s="28"/>
-      <c r="D347" s="28"/>
-      <c r="E347" s="29"/>
-      <c r="F347" s="30"/>
+      <c r="B347" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C347" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="D347" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E347" s="29">
+        <v>1</v>
+      </c>
+      <c r="F347" s="30">
+        <v>0</v>
+      </c>
       <c r="G347" s="87"/>
       <c r="H347" s="91"/>
       <c r="I347" s="90"/>
@@ -11367,7 +11549,7 @@
       <c r="N347" s="1"/>
       <c r="O347" s="1"/>
     </row>
-    <row r="348" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="79"/>
       <c r="B348" s="28"/>
       <c r="C348" s="28"/>
@@ -11381,7 +11563,7 @@
       <c r="N348" s="1"/>
       <c r="O348" s="1"/>
     </row>
-    <row r="349" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="79"/>
       <c r="B349" s="28"/>
       <c r="C349" s="28"/>
@@ -11389,583 +11571,593 @@
       <c r="E349" s="29"/>
       <c r="F349" s="30"/>
       <c r="G349" s="87"/>
-      <c r="H349" s="90"/>
+      <c r="H349" s="91"/>
       <c r="I349" s="90"/>
       <c r="J349" s="1"/>
       <c r="N349" s="1"/>
       <c r="O349" s="1"/>
     </row>
-    <row r="350" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A350" s="1"/>
-      <c r="B350" s="33"/>
-      <c r="C350" s="33"/>
-      <c r="D350" s="34"/>
-      <c r="E350" s="35">
-        <f>SUM(E329:E349)</f>
-        <v>11</v>
-      </c>
-      <c r="F350" s="36">
-        <f>SUM(F332:F349)-SUM(F329:F331)</f>
-        <v>0</v>
-      </c>
-      <c r="G350" s="83"/>
-      <c r="H350" s="90"/>
+    <row r="350" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A350" s="79"/>
+      <c r="B350" s="28"/>
+      <c r="C350" s="28"/>
+      <c r="D350" s="28"/>
+      <c r="E350" s="29"/>
+      <c r="F350" s="30"/>
+      <c r="G350" s="87"/>
+      <c r="H350" s="91"/>
       <c r="I350" s="90"/>
       <c r="J350" s="1"/>
       <c r="N350" s="1"/>
       <c r="O350" s="1"/>
     </row>
-    <row r="351" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A351" s="1"/>
-      <c r="B351" s="1"/>
-      <c r="C351" s="1"/>
-      <c r="D351" s="1"/>
-      <c r="E351" s="37"/>
-      <c r="F351" s="33"/>
-      <c r="G351" s="1"/>
-      <c r="H351" s="1"/>
-      <c r="I351" s="1"/>
+    <row r="351" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A351" s="79"/>
+      <c r="B351" s="28"/>
+      <c r="C351" s="28"/>
+      <c r="D351" s="28"/>
+      <c r="E351" s="29"/>
+      <c r="F351" s="30"/>
+      <c r="G351" s="87"/>
+      <c r="H351" s="90"/>
+      <c r="I351" s="90"/>
       <c r="J351" s="1"/>
       <c r="N351" s="1"/>
       <c r="O351" s="1"/>
     </row>
-    <row r="353" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A352" s="1"/>
+      <c r="B352" s="33"/>
+      <c r="C352" s="33"/>
+      <c r="D352" s="34"/>
+      <c r="E352" s="35">
+        <f>SUM(E331:E351)</f>
+        <v>11</v>
+      </c>
+      <c r="F352" s="36">
+        <f>SUM(F334:F351)-SUM(F331:F333)</f>
+        <v>0</v>
+      </c>
+      <c r="G352" s="83"/>
+      <c r="H352" s="90"/>
+      <c r="I352" s="90"/>
+      <c r="J352" s="1"/>
+      <c r="N352" s="1"/>
+      <c r="O352" s="1"/>
+    </row>
+    <row r="353" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A353" s="1"/>
       <c r="B353" s="1"/>
-      <c r="C353" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D353" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E353" s="2"/>
-      <c r="F353" s="1"/>
+      <c r="C353" s="1"/>
+      <c r="D353" s="1"/>
+      <c r="E353" s="37"/>
+      <c r="F353" s="33"/>
       <c r="G353" s="1"/>
       <c r="H353" s="1"/>
       <c r="I353" s="1"/>
       <c r="J353" s="1"/>
-    </row>
-    <row r="354" spans="2:10" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B354" s="4"/>
-      <c r="C354" s="4"/>
-      <c r="D354" s="4"/>
-      <c r="E354" s="5"/>
-      <c r="F354" s="4"/>
-      <c r="G354" s="1"/>
-      <c r="H354" s="1"/>
-      <c r="I354" s="1"/>
-      <c r="J354" s="1"/>
-    </row>
-    <row r="355" spans="2:10" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B355" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C355" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D355" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E355" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F355" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="N353" s="1"/>
+      <c r="O353" s="1"/>
+    </row>
+    <row r="355" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B355" s="1"/>
+      <c r="C355" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E355" s="2"/>
+      <c r="F355" s="1"/>
       <c r="G355" s="1"/>
       <c r="H355" s="1"/>
       <c r="I355" s="1"/>
       <c r="J355" s="1"/>
     </row>
-    <row r="356" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B356" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C356" s="13"/>
-      <c r="D356" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E356" s="14">
-        <v>5</v>
-      </c>
-      <c r="F356" s="15">
-        <v>5</v>
-      </c>
+    <row r="356" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B356" s="4"/>
+      <c r="C356" s="4"/>
+      <c r="D356" s="4"/>
+      <c r="E356" s="5"/>
+      <c r="F356" s="4"/>
       <c r="G356" s="1"/>
-      <c r="H356" s="104"/>
+      <c r="H356" s="1"/>
       <c r="I356" s="1"/>
       <c r="J356" s="1"/>
     </row>
-    <row r="357" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B357" s="21"/>
-      <c r="C357" s="21"/>
-      <c r="D357" s="21"/>
-      <c r="E357" s="22"/>
-      <c r="F357" s="21"/>
-      <c r="G357" s="104"/>
-      <c r="H357" s="104"/>
+    <row r="357" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B357" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C357" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D357" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E357" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F357" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G357" s="1"/>
+      <c r="H357" s="1"/>
       <c r="I357" s="1"/>
       <c r="J357" s="1"/>
     </row>
-    <row r="358" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B358" s="21"/>
-      <c r="C358" s="21"/>
-      <c r="D358" s="21"/>
-      <c r="E358" s="22"/>
-      <c r="F358" s="21"/>
-      <c r="G358" s="104"/>
-      <c r="H358" s="1"/>
+    <row r="358" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B358" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C358" s="13"/>
+      <c r="D358" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E358" s="14">
+        <v>5</v>
+      </c>
+      <c r="F358" s="15">
+        <v>8</v>
+      </c>
+      <c r="G358" s="1"/>
+      <c r="H358" s="104"/>
       <c r="I358" s="1"/>
       <c r="J358" s="1"/>
     </row>
-    <row r="359" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B359" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C359" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="D359" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E359" s="29">
-        <v>4</v>
-      </c>
-      <c r="F359" s="30">
-        <v>0</v>
-      </c>
-      <c r="G359" s="1"/>
-      <c r="H359" s="1"/>
+    <row r="359" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B359" s="21"/>
+      <c r="C359" s="21"/>
+      <c r="D359" s="21"/>
+      <c r="E359" s="22"/>
+      <c r="F359" s="21"/>
+      <c r="G359" s="104"/>
+      <c r="H359" s="104"/>
       <c r="I359" s="1"/>
       <c r="J359" s="1"/>
     </row>
-    <row r="360" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B360" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C360" s="28" t="s">
-        <v>252</v>
-      </c>
-      <c r="D360" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="E360" s="29">
-        <v>1</v>
-      </c>
-      <c r="F360" s="30">
-        <v>0</v>
-      </c>
-      <c r="G360" s="1"/>
+    <row r="360" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B360" s="21"/>
+      <c r="C360" s="21"/>
+      <c r="D360" s="21"/>
+      <c r="E360" s="22"/>
+      <c r="F360" s="21"/>
+      <c r="G360" s="104"/>
       <c r="H360" s="1"/>
       <c r="I360" s="1"/>
       <c r="J360" s="1"/>
     </row>
-    <row r="361" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B361" s="28"/>
-      <c r="C361" s="28"/>
-      <c r="D361" s="28"/>
-      <c r="E361" s="29"/>
-      <c r="F361" s="30"/>
+    <row r="361" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B361" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C361" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="D361" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E361" s="29">
+        <v>4</v>
+      </c>
+      <c r="F361" s="30">
+        <v>0</v>
+      </c>
       <c r="G361" s="1"/>
       <c r="H361" s="1"/>
       <c r="I361" s="1"/>
       <c r="J361" s="1"/>
     </row>
-    <row r="362" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B362" s="28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C362" s="28" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D362" s="28" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E362" s="29">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="F362" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G362" s="1"/>
       <c r="H362" s="1"/>
       <c r="I362" s="1"/>
       <c r="J362" s="1"/>
     </row>
-    <row r="363" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B363" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C363" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="D363" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="E363" s="29">
-        <v>4</v>
-      </c>
-      <c r="F363" s="30">
-        <v>0</v>
-      </c>
+    <row r="363" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B363" s="28"/>
+      <c r="C363" s="28"/>
+      <c r="D363" s="28"/>
+      <c r="E363" s="29"/>
+      <c r="F363" s="30"/>
       <c r="G363" s="1"/>
-      <c r="H363" s="104"/>
+      <c r="H363" s="1"/>
       <c r="I363" s="1"/>
       <c r="J363" s="1"/>
     </row>
-    <row r="364" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B364" s="108" t="s">
+    <row r="364" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B364" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C364" s="108" t="s">
-        <v>177</v>
-      </c>
-      <c r="D364" s="108" t="s">
-        <v>123</v>
-      </c>
-      <c r="E364" s="109">
+      <c r="C364" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D364" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E364" s="29">
+        <v>32</v>
+      </c>
+      <c r="F364" s="30">
         <v>1</v>
       </c>
-      <c r="F364" s="110">
-        <v>0</v>
-      </c>
-      <c r="G364" s="104" t="s">
-        <v>293</v>
-      </c>
-      <c r="H364" s="104">
-        <v>45904</v>
-      </c>
+      <c r="G364" s="1"/>
+      <c r="H364" s="1"/>
       <c r="I364" s="1"/>
       <c r="J364" s="1"/>
     </row>
-    <row r="365" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B365" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C365" s="28" t="s">
-        <v>416</v>
+        <v>253</v>
       </c>
       <c r="D365" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="E365" s="29" t="s">
-        <v>292</v>
+        <v>57</v>
+      </c>
+      <c r="E365" s="29">
+        <v>4</v>
       </c>
       <c r="F365" s="30">
         <v>0</v>
       </c>
-      <c r="G365" s="104">
-        <v>45904</v>
-      </c>
+      <c r="G365" s="1"/>
       <c r="H365" s="104"/>
       <c r="I365" s="1"/>
       <c r="J365" s="1"/>
     </row>
-    <row r="366" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B366" s="28"/>
-      <c r="C366" s="28"/>
-      <c r="D366" s="28"/>
-      <c r="E366" s="29"/>
-      <c r="F366" s="30"/>
-      <c r="G366" s="104"/>
-      <c r="H366" s="1"/>
+    <row r="366" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B366" s="108" t="s">
+        <v>16</v>
+      </c>
+      <c r="C366" s="108" t="s">
+        <v>176</v>
+      </c>
+      <c r="D366" s="108" t="s">
+        <v>122</v>
+      </c>
+      <c r="E366" s="109">
+        <v>1</v>
+      </c>
+      <c r="F366" s="110">
+        <v>0</v>
+      </c>
+      <c r="G366" s="104" t="s">
+        <v>292</v>
+      </c>
+      <c r="H366" s="104">
+        <v>45904</v>
+      </c>
       <c r="I366" s="1"/>
       <c r="J366" s="1"/>
     </row>
-    <row r="367" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B367" s="28"/>
-      <c r="C367" s="28"/>
-      <c r="D367" s="28"/>
-      <c r="E367" s="29"/>
-      <c r="F367" s="30"/>
-      <c r="G367" s="1"/>
+    <row r="367" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B367" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C367" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="D367" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="E367" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="F367" s="30">
+        <v>0</v>
+      </c>
+      <c r="G367" s="104">
+        <v>45904</v>
+      </c>
       <c r="H367" s="104"/>
       <c r="I367" s="1"/>
       <c r="J367" s="1"/>
     </row>
-    <row r="368" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B368" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C368" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="D368" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="E368" s="29">
-        <v>27</v>
-      </c>
-      <c r="F368" s="30">
-        <v>2</v>
-      </c>
-      <c r="G368" s="1"/>
-      <c r="H368" s="104"/>
+    <row r="368" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B368" s="28"/>
+      <c r="C368" s="28"/>
+      <c r="D368" s="28"/>
+      <c r="E368" s="29"/>
+      <c r="F368" s="30"/>
+      <c r="G368" s="104"/>
+      <c r="H368" s="1"/>
       <c r="I368" s="1"/>
       <c r="J368" s="1"/>
     </row>
-    <row r="369" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B369" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C369" s="28" t="s">
-        <v>255</v>
-      </c>
-      <c r="D369" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="E369" s="29">
-        <v>12</v>
-      </c>
-      <c r="F369" s="30">
-        <v>1</v>
-      </c>
-      <c r="G369" s="104"/>
+    <row r="369" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B369" s="28"/>
+      <c r="C369" s="28"/>
+      <c r="D369" s="28"/>
+      <c r="E369" s="29"/>
+      <c r="F369" s="30"/>
+      <c r="G369" s="1"/>
       <c r="H369" s="104"/>
       <c r="I369" s="1"/>
       <c r="J369" s="1"/>
     </row>
-    <row r="370" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B370" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C370" s="28" t="s">
-        <v>256</v>
+        <v>93</v>
       </c>
       <c r="D370" s="28" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E370" s="29">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="F370" s="30">
-        <v>1</v>
-      </c>
-      <c r="G370" s="104"/>
-      <c r="H370" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="G370" s="1"/>
+      <c r="H370" s="104"/>
       <c r="I370" s="1"/>
       <c r="J370" s="1"/>
     </row>
-    <row r="371" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B371" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C371" s="28" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D371" s="28" t="s">
-        <v>258</v>
+        <v>173</v>
       </c>
       <c r="E371" s="29">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F371" s="30">
-        <v>0</v>
-      </c>
-      <c r="G371" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="G371" s="104"/>
       <c r="H371" s="104"/>
       <c r="I371" s="1"/>
       <c r="J371" s="1"/>
     </row>
-    <row r="372" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B372" s="108" t="s">
+    <row r="372" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B372" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C372" s="108" t="s">
-        <v>149</v>
-      </c>
-      <c r="D372" s="108" t="s">
-        <v>84</v>
-      </c>
-      <c r="E372" s="109">
-        <v>1</v>
-      </c>
-      <c r="F372" s="110">
-        <v>0</v>
-      </c>
-      <c r="G372" s="104" t="s">
-        <v>293</v>
-      </c>
-      <c r="H372" s="104">
-        <v>45890</v>
-      </c>
+      <c r="C372" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="D372" s="28" t="s">
+        <v>433</v>
+      </c>
+      <c r="E372" s="29">
+        <v>5</v>
+      </c>
+      <c r="F372" s="30">
+        <v>2</v>
+      </c>
+      <c r="G372" s="104"/>
+      <c r="H372" s="1"/>
       <c r="I372" s="1"/>
       <c r="J372" s="1"/>
     </row>
-    <row r="373" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B373" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C373" s="28" t="s">
-        <v>410</v>
+        <v>256</v>
       </c>
       <c r="D373" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="E373" s="29" t="s">
-        <v>292</v>
+        <v>257</v>
+      </c>
+      <c r="E373" s="29">
+        <v>1</v>
       </c>
       <c r="F373" s="30">
         <v>0</v>
       </c>
-      <c r="G373" s="104">
-        <v>45890</v>
-      </c>
-      <c r="H373" s="1"/>
+      <c r="G373" s="1"/>
+      <c r="H373" s="104"/>
       <c r="I373" s="1"/>
       <c r="J373" s="1"/>
     </row>
-    <row r="374" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B374" s="28"/>
-      <c r="C374" s="28"/>
-      <c r="D374" s="28"/>
-      <c r="E374" s="29"/>
-      <c r="F374" s="30"/>
-      <c r="G374" s="1"/>
-      <c r="H374" s="1"/>
+    <row r="374" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B374" s="108" t="s">
+        <v>17</v>
+      </c>
+      <c r="C374" s="108" t="s">
+        <v>148</v>
+      </c>
+      <c r="D374" s="108" t="s">
+        <v>84</v>
+      </c>
+      <c r="E374" s="109">
+        <v>1</v>
+      </c>
+      <c r="F374" s="110">
+        <v>0</v>
+      </c>
+      <c r="G374" s="104" t="s">
+        <v>292</v>
+      </c>
+      <c r="H374" s="104">
+        <v>45890</v>
+      </c>
       <c r="I374" s="1"/>
       <c r="J374" s="1"/>
     </row>
-    <row r="375" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B375" s="28"/>
-      <c r="C375" s="28"/>
-      <c r="D375" s="28"/>
-      <c r="E375" s="29"/>
-      <c r="F375" s="30"/>
-      <c r="G375" s="1"/>
-      <c r="H375" s="104"/>
+    <row r="375" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B375" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C375" s="28" t="s">
+        <v>409</v>
+      </c>
+      <c r="D375" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="E375" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="F375" s="30">
+        <v>0</v>
+      </c>
+      <c r="G375" s="104">
+        <v>45890</v>
+      </c>
+      <c r="H375" s="1"/>
       <c r="I375" s="1"/>
       <c r="J375" s="1"/>
     </row>
-    <row r="376" spans="2:10" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B376" s="28"/>
       <c r="C376" s="28"/>
       <c r="D376" s="28"/>
       <c r="E376" s="29"/>
       <c r="F376" s="30"/>
-      <c r="G376" s="104"/>
+      <c r="G376" s="1"/>
       <c r="H376" s="1"/>
       <c r="I376" s="1"/>
       <c r="J376" s="1"/>
     </row>
-    <row r="377" spans="2:10" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B377" s="33"/>
-      <c r="C377" s="33"/>
-      <c r="D377" s="34"/>
-      <c r="E377" s="35">
-        <f>SUM(E356:E376)</f>
-        <v>93</v>
-      </c>
-      <c r="F377" s="36">
-        <f>SUM(F359:F376)-SUM(F356:F358)</f>
-        <v>0</v>
-      </c>
+    <row r="377" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B377" s="28"/>
+      <c r="C377" s="28"/>
+      <c r="D377" s="28"/>
+      <c r="E377" s="29"/>
+      <c r="F377" s="30"/>
       <c r="G377" s="1"/>
-      <c r="H377" s="1"/>
+      <c r="H377" s="104"/>
       <c r="I377" s="1"/>
       <c r="J377" s="1"/>
     </row>
-    <row r="380" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B380" s="1"/>
-      <c r="C380" s="3" t="s">
+    <row r="378" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B378" s="28"/>
+      <c r="C378" s="28"/>
+      <c r="D378" s="28"/>
+      <c r="E378" s="29"/>
+      <c r="F378" s="30"/>
+      <c r="G378" s="104"/>
+      <c r="H378" s="1"/>
+      <c r="I378" s="1"/>
+      <c r="J378" s="1"/>
+    </row>
+    <row r="379" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B379" s="33"/>
+      <c r="C379" s="33"/>
+      <c r="D379" s="34"/>
+      <c r="E379" s="35">
+        <f>SUM(E358:E378)</f>
+        <v>93</v>
+      </c>
+      <c r="F379" s="36">
+        <f>SUM(F361:F378)-SUM(F358:F360)</f>
+        <v>-1</v>
+      </c>
+      <c r="G379" s="1"/>
+      <c r="H379" s="1"/>
+      <c r="I379" s="1"/>
+      <c r="J379" s="1"/>
+    </row>
+    <row r="382" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B382" s="1"/>
+      <c r="C382" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D380" s="3" t="s">
+      <c r="D382" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E380" s="2"/>
-      <c r="F380" s="1"/>
-    </row>
-    <row r="381" spans="2:10" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B381" s="4"/>
-      <c r="C381" s="4"/>
-      <c r="D381" s="4"/>
-      <c r="E381" s="5"/>
-      <c r="F381" s="4"/>
-    </row>
-    <row r="382" spans="2:10" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B382" s="6" t="s">
+      <c r="E382" s="2"/>
+      <c r="F382" s="1"/>
+    </row>
+    <row r="383" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B383" s="4"/>
+      <c r="C383" s="4"/>
+      <c r="D383" s="4"/>
+      <c r="E383" s="5"/>
+      <c r="F383" s="4"/>
+    </row>
+    <row r="384" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B384" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C382" s="6" t="s">
+      <c r="C384" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D382" s="6" t="s">
+      <c r="D384" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E382" s="6" t="s">
+      <c r="E384" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F382" s="6" t="s">
+      <c r="F384" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="383" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B383" s="12" t="s">
+    <row r="385" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B385" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C383" s="13"/>
-      <c r="D383" s="12"/>
-      <c r="E383" s="14"/>
-      <c r="F383" s="15"/>
-    </row>
-    <row r="384" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B384" s="21"/>
-      <c r="C384" s="21"/>
-      <c r="D384" s="21"/>
-      <c r="E384" s="22"/>
-      <c r="F384" s="21"/>
-    </row>
-    <row r="385" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B385" s="21"/>
-      <c r="C385" s="21"/>
-      <c r="D385" s="21"/>
-      <c r="E385" s="22"/>
-      <c r="F385" s="21"/>
-    </row>
-    <row r="386" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B386" s="28" t="s">
+      <c r="C385" s="13"/>
+      <c r="D385" s="12"/>
+      <c r="E385" s="14"/>
+      <c r="F385" s="15"/>
+    </row>
+    <row r="386" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B386" s="21"/>
+      <c r="C386" s="21"/>
+      <c r="D386" s="21"/>
+      <c r="E386" s="22"/>
+      <c r="F386" s="21"/>
+    </row>
+    <row r="387" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B387" s="21"/>
+      <c r="C387" s="21"/>
+      <c r="D387" s="21"/>
+      <c r="E387" s="22"/>
+      <c r="F387" s="21"/>
+    </row>
+    <row r="388" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B388" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C386" s="28"/>
-      <c r="D386" s="28"/>
-      <c r="E386" s="29"/>
-      <c r="F386" s="30"/>
-    </row>
-    <row r="387" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B387" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C387" s="28"/>
-      <c r="D387" s="28"/>
-      <c r="E387" s="29"/>
-      <c r="F387" s="30"/>
-    </row>
-    <row r="388" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B388" s="28"/>
       <c r="C388" s="28"/>
       <c r="D388" s="28"/>
       <c r="E388" s="29"/>
       <c r="F388" s="30"/>
     </row>
-    <row r="389" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B389" s="28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C389" s="28"/>
       <c r="D389" s="28"/>
       <c r="E389" s="29"/>
       <c r="F389" s="30"/>
     </row>
-    <row r="390" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B390" s="28" t="s">
-        <v>16</v>
-      </c>
+    <row r="390" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B390" s="28"/>
       <c r="C390" s="28"/>
       <c r="D390" s="28"/>
       <c r="E390" s="29"/>
       <c r="F390" s="30"/>
     </row>
-    <row r="391" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B391" s="28" t="s">
         <v>16</v>
       </c>
@@ -11974,46 +12166,46 @@
       <c r="E391" s="29"/>
       <c r="F391" s="30"/>
     </row>
-    <row r="392" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B392" s="28"/>
+    <row r="392" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B392" s="28" t="s">
+        <v>16</v>
+      </c>
       <c r="C392" s="28"/>
       <c r="D392" s="28"/>
       <c r="E392" s="29"/>
       <c r="F392" s="30"/>
     </row>
-    <row r="393" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B393" s="28"/>
+    <row r="393" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B393" s="28" t="s">
+        <v>16</v>
+      </c>
       <c r="C393" s="28"/>
       <c r="D393" s="28"/>
       <c r="E393" s="29"/>
       <c r="F393" s="30"/>
     </row>
-    <row r="394" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B394" s="28"/>
       <c r="C394" s="28"/>
       <c r="D394" s="28"/>
       <c r="E394" s="29"/>
       <c r="F394" s="30"/>
     </row>
-    <row r="395" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B395" s="28" t="s">
-        <v>17</v>
-      </c>
+    <row r="395" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B395" s="28"/>
       <c r="C395" s="28"/>
       <c r="D395" s="28"/>
       <c r="E395" s="29"/>
       <c r="F395" s="30"/>
     </row>
-    <row r="396" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B396" s="28" t="s">
-        <v>17</v>
-      </c>
+    <row r="396" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B396" s="28"/>
       <c r="C396" s="28"/>
       <c r="D396" s="28"/>
       <c r="E396" s="29"/>
       <c r="F396" s="30"/>
     </row>
-    <row r="397" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B397" s="28" t="s">
         <v>17</v>
       </c>
@@ -12022,7 +12214,7 @@
       <c r="E397" s="29"/>
       <c r="F397" s="30"/>
     </row>
-    <row r="398" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B398" s="28" t="s">
         <v>17</v>
       </c>
@@ -12031,7 +12223,7 @@
       <c r="E398" s="29"/>
       <c r="F398" s="30"/>
     </row>
-    <row r="399" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B399" s="28" t="s">
         <v>17</v>
       </c>
@@ -12040,44 +12232,62 @@
       <c r="E399" s="29"/>
       <c r="F399" s="30"/>
     </row>
-    <row r="400" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B400" s="28"/>
+    <row r="400" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B400" s="28" t="s">
+        <v>17</v>
+      </c>
       <c r="C400" s="28"/>
       <c r="D400" s="28"/>
       <c r="E400" s="29"/>
       <c r="F400" s="30"/>
     </row>
-    <row r="401" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B401" s="28"/>
+    <row r="401" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B401" s="28" t="s">
+        <v>17</v>
+      </c>
       <c r="C401" s="28"/>
       <c r="D401" s="28"/>
       <c r="E401" s="29"/>
       <c r="F401" s="30"/>
     </row>
-    <row r="402" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B402" s="28"/>
       <c r="C402" s="28"/>
       <c r="D402" s="28"/>
       <c r="E402" s="29"/>
       <c r="F402" s="30"/>
     </row>
-    <row r="403" spans="2:6" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B403" s="28"/>
       <c r="C403" s="28"/>
       <c r="D403" s="28"/>
       <c r="E403" s="29"/>
       <c r="F403" s="30"/>
     </row>
-    <row r="404" spans="2:6" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B404" s="33"/>
-      <c r="C404" s="33"/>
-      <c r="D404" s="34"/>
-      <c r="E404" s="35">
-        <f>SUM(E383:E403)</f>
+    <row r="404" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B404" s="28"/>
+      <c r="C404" s="28"/>
+      <c r="D404" s="28"/>
+      <c r="E404" s="29"/>
+      <c r="F404" s="30"/>
+    </row>
+    <row r="405" spans="2:6" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B405" s="28"/>
+      <c r="C405" s="28"/>
+      <c r="D405" s="28"/>
+      <c r="E405" s="29"/>
+      <c r="F405" s="30"/>
+    </row>
+    <row r="406" spans="2:6" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B406" s="33"/>
+      <c r="C406" s="33"/>
+      <c r="D406" s="34"/>
+      <c r="E406" s="35">
+        <f>SUM(E385:E405)</f>
         <v>0</v>
       </c>
-      <c r="F404" s="36">
-        <f>SUM(F386:F403)-SUM(F383:F385)</f>
+      <c r="F406" s="36">
+        <f>SUM(F388:F405)-SUM(F385:F387)</f>
         <v>0</v>
       </c>
     </row>
@@ -12112,22 +12322,22 @@
   </sheetPr>
   <dimension ref="A1:IV22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.296875" style="38" customWidth="1"/>
-    <col min="2" max="2" width="11.796875" style="38" customWidth="1"/>
+    <col min="1" max="1" width="1.33203125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" style="38" customWidth="1"/>
     <col min="3" max="3" width="31" style="38" customWidth="1"/>
-    <col min="4" max="4" width="35.296875" style="38" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="38" customWidth="1"/>
     <col min="5" max="6" width="9" style="38" customWidth="1"/>
     <col min="7" max="7" width="11" style="38" customWidth="1"/>
     <col min="8" max="256" width="9" style="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -12144,7 +12354,7 @@
       </c>
       <c r="K1" s="41"/>
     </row>
-    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="40"/>
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
@@ -12159,7 +12369,7 @@
       <c r="J2" s="41"/>
       <c r="K2" s="41"/>
     </row>
-    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -12172,12 +12382,12 @@
       <c r="J3" s="41"/>
       <c r="K3" s="41"/>
     </row>
-    <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="40"/>
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
       <c r="D4" s="43" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E4" s="41"/>
       <c r="F4" s="41"/>
@@ -12187,7 +12397,7 @@
       <c r="J4" s="41"/>
       <c r="K4" s="41"/>
     </row>
-    <row r="5" spans="1:11" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="40"/>
       <c r="B5" s="45"/>
       <c r="C5" s="45"/>
@@ -12200,7 +12410,7 @@
       <c r="J5" s="41"/>
       <c r="K5" s="41"/>
     </row>
-    <row r="6" spans="1:11" ht="14.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="47"/>
       <c r="B6" s="48" t="s">
         <v>3</v>
@@ -12225,7 +12435,7 @@
       <c r="J6" s="41"/>
       <c r="K6" s="41"/>
     </row>
-    <row r="7" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="47"/>
       <c r="B7" s="54">
         <v>1</v>
@@ -12237,10 +12447,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="25">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" s="26">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" s="27">
         <v>1</v>
@@ -12250,16 +12460,16 @@
       <c r="J7" s="41"/>
       <c r="K7" s="41"/>
     </row>
-    <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="47"/>
       <c r="B8" s="54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="24" t="s">
-        <v>203</v>
+      <c r="D8" s="55" t="s">
+        <v>202</v>
       </c>
       <c r="E8" s="25">
         <v>9</v>
@@ -12273,42 +12483,42 @@
       <c r="H8" s="52"/>
       <c r="I8" s="41"/>
       <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-    </row>
-    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K8" s="53"/>
+    </row>
+    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="47"/>
       <c r="B9" s="54">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="55" t="s">
-        <v>208</v>
+      <c r="D9" s="24" t="s">
+        <v>207</v>
       </c>
       <c r="E9" s="25">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F9" s="26">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G9" s="27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H9" s="52"/>
       <c r="I9" s="41"/>
       <c r="J9" s="41"/>
-      <c r="K9" s="53"/>
-    </row>
-    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K9" s="41"/>
+    </row>
+    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="47"/>
       <c r="B10" s="54">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="55" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="25">
@@ -12325,24 +12535,24 @@
       <c r="J10" s="41"/>
       <c r="K10" s="41"/>
     </row>
-    <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="47"/>
       <c r="B11" s="54">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>35</v>
+        <v>55</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>273</v>
       </c>
       <c r="E11" s="25">
-        <v>1</v>
-      </c>
-      <c r="F11" s="26">
-        <v>7</v>
-      </c>
-      <c r="G11" s="27">
+        <v>3</v>
+      </c>
+      <c r="F11" s="56">
+        <v>9</v>
+      </c>
+      <c r="G11" s="57">
         <v>6</v>
       </c>
       <c r="H11" s="52"/>
@@ -12350,41 +12560,41 @@
       <c r="J11" s="41"/>
       <c r="K11" s="41"/>
     </row>
-    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="47"/>
       <c r="B12" s="54">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="E12" s="25">
+        <v>2</v>
+      </c>
+      <c r="F12" s="26">
         <v>6</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="55" t="s">
-        <v>274</v>
-      </c>
-      <c r="E12" s="25">
-        <v>1</v>
-      </c>
-      <c r="F12" s="26">
-        <v>7</v>
-      </c>
       <c r="G12" s="27">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H12" s="52"/>
       <c r="I12" s="41"/>
       <c r="J12" s="41"/>
       <c r="K12" s="41"/>
     </row>
-    <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="47"/>
       <c r="B13" s="54">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>119</v>
+        <v>28</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>143</v>
+        <v>15</v>
       </c>
       <c r="E13" s="25">
         <v>1</v>
@@ -12400,49 +12610,49 @@
       <c r="J13" s="41"/>
       <c r="K13" s="41"/>
     </row>
-    <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="47"/>
       <c r="B14" s="54">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="55" t="s">
-        <v>193</v>
+        <v>36</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>35</v>
       </c>
       <c r="E14" s="25">
         <v>1</v>
       </c>
-      <c r="F14" s="56">
-        <v>5</v>
-      </c>
-      <c r="G14" s="57">
-        <v>4</v>
+      <c r="F14" s="26">
+        <v>7</v>
+      </c>
+      <c r="G14" s="27">
+        <v>6</v>
       </c>
       <c r="H14" s="52"/>
       <c r="I14" s="41"/>
       <c r="J14" s="41"/>
       <c r="K14" s="41"/>
     </row>
-    <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="47"/>
       <c r="B15" s="54">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="55" t="s">
-        <v>15</v>
+        <v>119</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>142</v>
       </c>
       <c r="E15" s="25">
-        <v>0</v>
-      </c>
-      <c r="F15" s="56">
-        <v>6</v>
-      </c>
-      <c r="G15" s="57">
+        <v>1</v>
+      </c>
+      <c r="F15" s="26">
+        <v>7</v>
+      </c>
+      <c r="G15" s="27">
         <v>6</v>
       </c>
       <c r="H15" s="52"/>
@@ -12450,116 +12660,116 @@
       <c r="J15" s="41"/>
       <c r="K15" s="41"/>
     </row>
-    <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="47"/>
       <c r="B16" s="54">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>251</v>
+        <v>67</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>248</v>
       </c>
       <c r="E16" s="25">
         <v>0</v>
       </c>
-      <c r="F16" s="26">
-        <v>5</v>
-      </c>
-      <c r="G16" s="27">
-        <v>5</v>
+      <c r="F16" s="56">
+        <v>4</v>
+      </c>
+      <c r="G16" s="57">
+        <v>4</v>
       </c>
       <c r="H16" s="52"/>
       <c r="I16" s="41"/>
       <c r="J16" s="41"/>
       <c r="K16" s="41"/>
     </row>
-    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="47"/>
       <c r="B17" s="54">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>249</v>
+        <v>53</v>
+      </c>
+      <c r="D17" s="55" t="s">
+        <v>54</v>
       </c>
       <c r="E17" s="25">
         <v>0</v>
       </c>
-      <c r="F17" s="26">
-        <v>4</v>
-      </c>
-      <c r="G17" s="27">
-        <v>4</v>
+      <c r="F17" s="56">
+        <v>3</v>
+      </c>
+      <c r="G17" s="57">
+        <v>3</v>
       </c>
       <c r="H17" s="52"/>
       <c r="I17" s="41"/>
       <c r="J17" s="41"/>
       <c r="K17" s="41"/>
     </row>
-    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="47"/>
       <c r="B18" s="54">
         <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>54</v>
+        <v>237</v>
       </c>
       <c r="E18" s="25">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F18" s="26">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G18" s="27">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H18" s="52"/>
       <c r="I18" s="41"/>
       <c r="J18" s="41"/>
       <c r="K18" s="41"/>
     </row>
-    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="47"/>
       <c r="B19" s="54">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D19" s="55" t="s">
-        <v>238</v>
+        <v>249</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>250</v>
       </c>
       <c r="E19" s="25">
         <v>-1</v>
       </c>
-      <c r="F19" s="56">
-        <v>9</v>
-      </c>
-      <c r="G19" s="57">
-        <v>10</v>
+      <c r="F19" s="26">
+        <v>7</v>
+      </c>
+      <c r="G19" s="27">
+        <v>8</v>
       </c>
       <c r="H19" s="52"/>
       <c r="I19" s="41"/>
       <c r="J19" s="41"/>
       <c r="K19" s="41"/>
     </row>
-    <row r="20" spans="1:11" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="47"/>
       <c r="B20" s="54">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E20" s="25">
         <v>-5</v>
@@ -12575,7 +12785,7 @@
       <c r="J20" s="41"/>
       <c r="K20" s="41"/>
     </row>
-    <row r="21" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="40"/>
       <c r="B21" s="59"/>
       <c r="C21" s="59"/>
@@ -12588,7 +12798,7 @@
       <c r="J21" s="41"/>
       <c r="K21" s="41"/>
     </row>
-    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="40"/>
       <c r="B22" s="40"/>
       <c r="C22" s="40"/>
@@ -12622,19 +12832,19 @@
       <selection activeCell="H1" sqref="H1:R29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="33.296875" style="38" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" style="38" customWidth="1"/>
-    <col min="4" max="4" width="9.296875" style="38" customWidth="1"/>
-    <col min="5" max="5" width="31.296875" style="38" customWidth="1"/>
-    <col min="6" max="7" width="9.296875" style="38" customWidth="1"/>
-    <col min="8" max="257" width="8.796875" style="38" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" style="38" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="38" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" style="38" customWidth="1"/>
+    <col min="6" max="7" width="9.33203125" style="38" customWidth="1"/>
+    <col min="8" max="257" width="8.83203125" style="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="62" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C1" s="40"/>
       <c r="D1" s="40"/>
@@ -12642,7 +12852,7 @@
       <c r="F1" s="40"/>
       <c r="G1" s="40"/>
     </row>
-    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
@@ -12650,7 +12860,7 @@
       <c r="F2" s="40"/>
       <c r="G2" s="40"/>
     </row>
-    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="63" t="s">
         <v>39</v>
       </c>
@@ -12660,7 +12870,7 @@
       <c r="F3" s="40"/>
       <c r="G3" s="40"/>
     </row>
-    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="67" t="s">
         <v>43</v>
       </c>
@@ -12671,7 +12881,7 @@
       <c r="F4" s="68"/>
       <c r="G4" s="64"/>
     </row>
-    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="67" t="s">
         <v>44</v>
       </c>
@@ -12682,7 +12892,7 @@
       <c r="F5" s="68"/>
       <c r="G5" s="64"/>
     </row>
-    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="67" t="s">
         <v>45</v>
       </c>
@@ -12693,7 +12903,7 @@
       <c r="F6" s="68"/>
       <c r="G6" s="64"/>
     </row>
-    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="67" t="s">
         <v>46</v>
       </c>
@@ -12704,7 +12914,7 @@
       <c r="F7" s="68"/>
       <c r="G7" s="64"/>
     </row>
-    <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="67" t="s">
         <v>47</v>
       </c>
@@ -12715,7 +12925,7 @@
       <c r="F8" s="68"/>
       <c r="G8" s="64"/>
     </row>
-    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="67" t="s">
         <v>48</v>
       </c>
@@ -12726,7 +12936,7 @@
       <c r="F9" s="68"/>
       <c r="G9" s="64"/>
     </row>
-    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="67"/>
       <c r="B10" s="65"/>
       <c r="C10" s="65"/>
@@ -12735,7 +12945,7 @@
       <c r="F10" s="40"/>
       <c r="G10" s="61"/>
     </row>
-    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="67"/>
       <c r="B11" s="63" t="s">
         <v>63</v>
@@ -12746,7 +12956,7 @@
       <c r="F11" s="68"/>
       <c r="G11" s="64"/>
     </row>
-    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="67" t="s">
         <v>49</v>
       </c>
@@ -12757,7 +12967,7 @@
       <c r="F12" s="69"/>
       <c r="G12" s="100"/>
     </row>
-    <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="67" t="s">
         <v>50</v>
       </c>
@@ -12768,7 +12978,7 @@
       <c r="F13" s="68"/>
       <c r="G13" s="64"/>
     </row>
-    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="67" t="s">
         <v>51</v>
       </c>
@@ -12779,7 +12989,7 @@
       <c r="F14" s="69"/>
       <c r="G14" s="100"/>
     </row>
-    <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="67" t="s">
         <v>64</v>
       </c>
@@ -12790,7 +13000,7 @@
       <c r="F15" s="68"/>
       <c r="G15" s="64"/>
     </row>
-    <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="67"/>
       <c r="B16" s="65"/>
       <c r="C16" s="68"/>
@@ -12799,7 +13009,7 @@
       <c r="F16" s="68"/>
       <c r="G16" s="64"/>
     </row>
-    <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="67"/>
       <c r="B17" s="63" t="s">
         <v>108</v>
@@ -12810,7 +13020,7 @@
       <c r="F17" s="69"/>
       <c r="G17" s="100"/>
     </row>
-    <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="67" t="s">
         <v>77</v>
       </c>
@@ -12821,7 +13031,7 @@
       <c r="F18" s="68"/>
       <c r="G18" s="64"/>
     </row>
-    <row r="19" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="63"/>
       <c r="C19" s="64"/>
       <c r="D19" s="64"/>
@@ -12829,7 +13039,7 @@
       <c r="F19" s="66"/>
       <c r="G19" s="40"/>
     </row>
-    <row r="20" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="65"/>
       <c r="C20" s="64"/>
       <c r="D20" s="61"/>
@@ -12837,7 +13047,7 @@
       <c r="F20" s="66"/>
       <c r="G20" s="40"/>
     </row>
-    <row r="21" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="63" t="s">
         <v>40</v>
       </c>
@@ -12847,7 +13057,7 @@
       <c r="F21" s="66"/>
       <c r="G21" s="40"/>
     </row>
-    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="67" t="s">
         <v>78</v>
       </c>
@@ -12858,7 +13068,7 @@
       <c r="F22" s="68"/>
       <c r="G22" s="64"/>
     </row>
-    <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="67" t="s">
         <v>79</v>
       </c>
@@ -12869,7 +13079,7 @@
       <c r="F23" s="69"/>
       <c r="G23" s="100"/>
     </row>
-    <row r="24" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="65"/>
       <c r="C24" s="65"/>
       <c r="D24" s="64"/>
@@ -12877,7 +13087,7 @@
       <c r="F24" s="40"/>
       <c r="G24" s="40"/>
     </row>
-    <row r="25" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="63" t="s">
         <v>41</v>
       </c>
@@ -12887,7 +13097,7 @@
       <c r="F25" s="40"/>
       <c r="G25" s="40"/>
     </row>
-    <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="67" t="s">
         <v>112</v>
       </c>
@@ -12898,7 +13108,7 @@
       <c r="F26" s="69"/>
       <c r="G26" s="100"/>
     </row>
-    <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="40"/>
       <c r="C27" s="40"/>
       <c r="D27" s="64"/>
@@ -12906,7 +13116,7 @@
       <c r="F27" s="40"/>
       <c r="G27" s="40"/>
     </row>
-    <row r="28" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="63" t="s">
         <v>42</v>
       </c>
@@ -12917,7 +13127,7 @@
       <c r="G28" s="40"/>
       <c r="K28" s="98"/>
     </row>
-    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="65"/>
       <c r="C29" s="40"/>
       <c r="D29" s="40"/>
@@ -12946,15 +13156,15 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.69921875" customWidth="1"/>
-    <col min="5" max="5" width="35.296875" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B1" s="62" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C1" s="40"/>
       <c r="D1" s="40"/>
@@ -12979,7 +13189,7 @@
       <c r="W1" s="38"/>
       <c r="X1" s="38"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
@@ -13004,7 +13214,7 @@
       <c r="W2" s="38"/>
       <c r="X2" s="38"/>
     </row>
-    <row r="3" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B3" s="63" t="s">
         <v>39</v>
       </c>
@@ -13031,24 +13241,24 @@
       <c r="W3" s="38"/>
       <c r="X3" s="38"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="67" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C4" s="68"/>
       <c r="D4" s="64"/>
       <c r="E4" s="68" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F4" s="68"/>
       <c r="G4" s="64"/>
       <c r="H4" s="38"/>
       <c r="I4" s="38"/>
       <c r="J4" s="98" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K4" s="38"/>
       <c r="L4" s="38"/>
@@ -13065,7 +13275,7 @@
       <c r="W4" s="38"/>
       <c r="X4" s="38"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="67" t="s">
         <v>44</v>
       </c>
@@ -13075,14 +13285,14 @@
       <c r="C5" s="105"/>
       <c r="D5" s="64"/>
       <c r="E5" s="68" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F5" s="68"/>
       <c r="G5" s="64"/>
       <c r="H5" s="38"/>
       <c r="I5" s="38"/>
       <c r="J5" s="98" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K5" s="38"/>
       <c r="L5" s="38"/>
@@ -13099,24 +13309,24 @@
       <c r="W5" s="38"/>
       <c r="X5" s="38"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="67" t="s">
         <v>45</v>
       </c>
       <c r="B6" s="68" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C6" s="68"/>
       <c r="D6" s="64"/>
       <c r="E6" s="68" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F6" s="68"/>
       <c r="G6" s="64"/>
       <c r="H6" s="38"/>
       <c r="I6" s="38"/>
       <c r="J6" s="98" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K6" s="38"/>
       <c r="L6" s="38"/>
@@ -13133,7 +13343,7 @@
       <c r="W6" s="38"/>
       <c r="X6" s="38"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="67" t="s">
         <v>46</v>
       </c>
@@ -13143,14 +13353,14 @@
       <c r="C7" s="68"/>
       <c r="D7" s="64"/>
       <c r="E7" s="68" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F7" s="68"/>
       <c r="G7" s="64"/>
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
       <c r="J7" s="98" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K7" s="38"/>
       <c r="L7" s="38"/>
@@ -13167,24 +13377,24 @@
       <c r="W7" s="38"/>
       <c r="X7" s="38"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="67" t="s">
         <v>47</v>
       </c>
       <c r="B8" s="68" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C8" s="68"/>
       <c r="D8" s="64"/>
       <c r="E8" s="68" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F8" s="68"/>
       <c r="G8" s="64"/>
       <c r="H8" s="38"/>
       <c r="I8" s="38"/>
       <c r="J8" s="98" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K8" s="38"/>
       <c r="L8" s="38"/>
@@ -13201,7 +13411,7 @@
       <c r="W8" s="38"/>
       <c r="X8" s="38"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="67" t="s">
         <v>48</v>
       </c>
@@ -13211,14 +13421,14 @@
       <c r="C9" s="68"/>
       <c r="D9" s="64"/>
       <c r="E9" s="68" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F9" s="68"/>
       <c r="G9" s="64"/>
       <c r="H9" s="38"/>
       <c r="I9" s="38"/>
       <c r="J9" s="98" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K9" s="38"/>
       <c r="L9" s="38"/>
@@ -13235,24 +13445,24 @@
       <c r="W9" s="38"/>
       <c r="X9" s="38"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="67" t="s">
         <v>49</v>
       </c>
       <c r="B10" s="68" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C10" s="68"/>
       <c r="D10" s="64"/>
       <c r="E10" s="68" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F10" s="68"/>
       <c r="G10" s="64"/>
       <c r="H10" s="38"/>
       <c r="I10" s="38"/>
       <c r="J10" s="98" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K10" s="38"/>
       <c r="L10" s="38"/>
@@ -13269,17 +13479,17 @@
       <c r="W10" s="38"/>
       <c r="X10" s="38"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="67" t="s">
         <v>50</v>
       </c>
       <c r="B11" s="68" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C11" s="68"/>
       <c r="D11" s="64"/>
       <c r="E11" s="68" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F11" s="68"/>
       <c r="G11" s="64"/>
@@ -13301,17 +13511,17 @@
       <c r="W11" s="38"/>
       <c r="X11" s="38"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="67" t="s">
         <v>51</v>
       </c>
       <c r="B12" s="68" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C12" s="68"/>
       <c r="D12" s="64"/>
       <c r="E12" s="68" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F12" s="68"/>
       <c r="G12" s="64"/>
@@ -13333,7 +13543,7 @@
       <c r="W12" s="38"/>
       <c r="X12" s="38"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="67" t="s">
         <v>64</v>
       </c>
@@ -13343,7 +13553,7 @@
       <c r="C13" s="68"/>
       <c r="D13" s="64"/>
       <c r="E13" s="68" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F13" s="68"/>
       <c r="G13" s="64"/>
@@ -13365,7 +13575,7 @@
       <c r="W13" s="38"/>
       <c r="X13" s="38"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="67"/>
       <c r="B14" s="65"/>
       <c r="C14" s="65"/>
@@ -13391,10 +13601,10 @@
       <c r="W14" s="38"/>
       <c r="X14" s="38"/>
     </row>
-    <row r="15" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A15" s="67"/>
       <c r="B15" s="63" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C15" s="68"/>
       <c r="D15" s="64"/>
@@ -13419,7 +13629,7 @@
       <c r="W15" s="38"/>
       <c r="X15" s="38"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="67" t="s">
         <v>77</v>
       </c>
@@ -13447,7 +13657,7 @@
       <c r="W16" s="38"/>
       <c r="X16" s="38"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="67" t="s">
         <v>78</v>
       </c>
@@ -13475,7 +13685,7 @@
       <c r="W17" s="38"/>
       <c r="X17" s="38"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="67" t="s">
         <v>79</v>
       </c>
@@ -13503,7 +13713,7 @@
       <c r="W18" s="38"/>
       <c r="X18" s="38"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="67" t="s">
         <v>112</v>
       </c>
@@ -13531,9 +13741,9 @@
       <c r="W19" s="38"/>
       <c r="X19" s="38"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="67" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B20" s="70"/>
       <c r="C20" s="69"/>
@@ -13559,9 +13769,9 @@
       <c r="W20" s="38"/>
       <c r="X20" s="38"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="67" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B21" s="70"/>
       <c r="C21" s="69"/>
@@ -13587,9 +13797,9 @@
       <c r="W21" s="38"/>
       <c r="X21" s="38"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="67" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B22" s="70"/>
       <c r="C22" s="69"/>
@@ -13615,9 +13825,9 @@
       <c r="W22" s="38"/>
       <c r="X22" s="38"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="67" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B23" s="70"/>
       <c r="C23" s="69"/>
@@ -13643,7 +13853,7 @@
       <c r="W23" s="38"/>
       <c r="X23" s="38"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="67"/>
       <c r="B24" s="65"/>
       <c r="C24" s="68"/>
@@ -13669,7 +13879,7 @@
       <c r="W24" s="38"/>
       <c r="X24" s="38"/>
     </row>
-    <row r="25" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A25" s="67"/>
       <c r="B25" s="63" t="s">
         <v>63</v>
@@ -13697,9 +13907,9 @@
       <c r="W25" s="38"/>
       <c r="X25" s="38"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="67" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B26" s="70"/>
       <c r="C26" s="69"/>
@@ -13725,9 +13935,9 @@
       <c r="W26" s="38"/>
       <c r="X26" s="38"/>
     </row>
-    <row r="27" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A27" s="67" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B27" s="63"/>
       <c r="C27" s="64"/>
@@ -13753,9 +13963,9 @@
       <c r="W27" s="38"/>
       <c r="X27" s="38"/>
     </row>
-    <row r="28" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A28" s="67" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B28" s="63"/>
       <c r="C28" s="64"/>
@@ -13781,9 +13991,9 @@
       <c r="W28" s="38"/>
       <c r="X28" s="38"/>
     </row>
-    <row r="29" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A29" s="67" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B29" s="63"/>
       <c r="C29" s="64"/>
@@ -13809,7 +14019,7 @@
       <c r="W29" s="38"/>
       <c r="X29" s="38"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B30" s="65"/>
       <c r="C30" s="64"/>
       <c r="D30" s="61"/>
@@ -13834,7 +14044,7 @@
       <c r="W30" s="38"/>
       <c r="X30" s="38"/>
     </row>
-    <row r="31" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B31" s="63" t="s">
         <v>40</v>
       </c>
@@ -13861,9 +14071,9 @@
       <c r="W31" s="38"/>
       <c r="X31" s="38"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="67" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B32" s="70"/>
       <c r="C32" s="69"/>
@@ -13889,9 +14099,9 @@
       <c r="W32" s="38"/>
       <c r="X32" s="38"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="67" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B33" s="65"/>
       <c r="C33" s="68"/>
@@ -13917,7 +14127,7 @@
       <c r="W33" s="38"/>
       <c r="X33" s="38"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B34" s="65"/>
       <c r="C34" s="65"/>
       <c r="D34" s="64"/>
@@ -13942,7 +14152,7 @@
       <c r="W34" s="38"/>
       <c r="X34" s="38"/>
     </row>
-    <row r="35" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:24" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B35" s="63" t="s">
         <v>41</v>
       </c>
@@ -13969,9 +14179,9 @@
       <c r="W35" s="38"/>
       <c r="X35" s="38"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="67" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B36" s="65"/>
       <c r="C36" s="68"/>
@@ -13997,7 +14207,7 @@
       <c r="W36" s="38"/>
       <c r="X36" s="38"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B37" s="40"/>
       <c r="C37" s="40"/>
       <c r="D37" s="64"/>
@@ -14022,7 +14232,7 @@
       <c r="W37" s="38"/>
       <c r="X37" s="38"/>
     </row>
-    <row r="38" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:24" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B38" s="63" t="s">
         <v>42</v>
       </c>
@@ -14049,7 +14259,7 @@
       <c r="W38" s="38"/>
       <c r="X38" s="38"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B39" s="65"/>
       <c r="C39" s="40"/>
       <c r="D39" s="40"/>
@@ -14074,7 +14284,7 @@
       <c r="W39" s="38"/>
       <c r="X39" s="38"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="H40" s="38"/>
       <c r="I40" s="38"/>
       <c r="J40" s="38"/>
@@ -14093,7 +14303,7 @@
       <c r="W40" s="38"/>
       <c r="X40" s="38"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="H41" s="38"/>
       <c r="I41" s="38"/>
       <c r="J41" s="38"/>
@@ -14112,7 +14322,7 @@
       <c r="W41" s="38"/>
       <c r="X41" s="38"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="H42" s="38"/>
       <c r="I42" s="38"/>
       <c r="J42" s="38"/>
@@ -14131,7 +14341,7 @@
       <c r="W42" s="38"/>
       <c r="X42" s="38"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="H43" s="38"/>
       <c r="I43" s="38"/>
       <c r="J43" s="38"/>
@@ -14150,7 +14360,7 @@
       <c r="W43" s="38"/>
       <c r="X43" s="38"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="H44" s="38"/>
       <c r="I44" s="38"/>
       <c r="J44" s="38"/>
@@ -14169,7 +14379,7 @@
       <c r="W44" s="38"/>
       <c r="X44" s="38"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="H45" s="38"/>
       <c r="I45" s="38"/>
       <c r="J45" s="38"/>
@@ -14188,7 +14398,7 @@
       <c r="W45" s="38"/>
       <c r="X45" s="38"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="H46" s="38"/>
       <c r="I46" s="38"/>
       <c r="J46" s="38"/>
@@ -14207,7 +14417,7 @@
       <c r="W46" s="38"/>
       <c r="X46" s="38"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="H47" s="38"/>
       <c r="I47" s="38"/>
       <c r="J47" s="38"/>
@@ -14226,7 +14436,7 @@
       <c r="W47" s="38"/>
       <c r="X47" s="38"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="H48" s="38"/>
       <c r="I48" s="38"/>
       <c r="J48" s="38"/>
@@ -14245,7 +14455,7 @@
       <c r="W48" s="38"/>
       <c r="X48" s="38"/>
     </row>
-    <row r="49" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="49" spans="8:24" x14ac:dyDescent="0.2">
       <c r="H49" s="38"/>
       <c r="I49" s="38"/>
       <c r="J49" s="38"/>
@@ -14264,7 +14474,7 @@
       <c r="W49" s="38"/>
       <c r="X49" s="38"/>
     </row>
-    <row r="50" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="50" spans="8:24" x14ac:dyDescent="0.2">
       <c r="H50" s="38"/>
       <c r="I50" s="38"/>
       <c r="J50" s="38"/>
@@ -14283,7 +14493,7 @@
       <c r="W50" s="38"/>
       <c r="X50" s="38"/>
     </row>
-    <row r="51" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="51" spans="8:24" x14ac:dyDescent="0.2">
       <c r="H51" s="38"/>
       <c r="I51" s="38"/>
       <c r="J51" s="38"/>
@@ -14302,7 +14512,7 @@
       <c r="W51" s="38"/>
       <c r="X51" s="38"/>
     </row>
-    <row r="52" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="52" spans="8:24" x14ac:dyDescent="0.2">
       <c r="H52" s="38"/>
       <c r="I52" s="38"/>
       <c r="J52" s="38"/>
@@ -14321,7 +14531,7 @@
       <c r="W52" s="38"/>
       <c r="X52" s="38"/>
     </row>
-    <row r="53" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="53" spans="8:24" x14ac:dyDescent="0.2">
       <c r="H53" s="38"/>
       <c r="I53" s="38"/>
       <c r="J53" s="38"/>
@@ -14340,7 +14550,7 @@
       <c r="W53" s="38"/>
       <c r="X53" s="38"/>
     </row>
-    <row r="54" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="54" spans="8:24" x14ac:dyDescent="0.2">
       <c r="H54" s="38"/>
       <c r="I54" s="38"/>
       <c r="J54" s="38"/>
@@ -14359,7 +14569,7 @@
       <c r="W54" s="38"/>
       <c r="X54" s="38"/>
     </row>
-    <row r="55" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="55" spans="8:24" x14ac:dyDescent="0.2">
       <c r="H55" s="38"/>
       <c r="I55" s="38"/>
       <c r="J55" s="38"/>
@@ -14378,7 +14588,7 @@
       <c r="W55" s="38"/>
       <c r="X55" s="38"/>
     </row>
-    <row r="56" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="56" spans="8:24" x14ac:dyDescent="0.2">
       <c r="H56" s="38"/>
       <c r="I56" s="38"/>
       <c r="J56" s="38"/>
@@ -14397,7 +14607,7 @@
       <c r="W56" s="38"/>
       <c r="X56" s="38"/>
     </row>
-    <row r="57" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="57" spans="8:24" x14ac:dyDescent="0.2">
       <c r="H57" s="38"/>
       <c r="I57" s="38"/>
       <c r="J57" s="38"/>
@@ -14416,7 +14626,7 @@
       <c r="W57" s="38"/>
       <c r="X57" s="38"/>
     </row>
-    <row r="58" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="58" spans="8:24" x14ac:dyDescent="0.2">
       <c r="H58" s="38"/>
       <c r="I58" s="38"/>
       <c r="J58" s="38"/>
@@ -14435,7 +14645,7 @@
       <c r="W58" s="38"/>
       <c r="X58" s="38"/>
     </row>
-    <row r="59" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="59" spans="8:24" x14ac:dyDescent="0.2">
       <c r="H59" s="38"/>
       <c r="I59" s="38"/>
       <c r="J59" s="38"/>
@@ -14454,7 +14664,7 @@
       <c r="W59" s="38"/>
       <c r="X59" s="38"/>
     </row>
-    <row r="60" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="60" spans="8:24" x14ac:dyDescent="0.2">
       <c r="H60" s="38"/>
       <c r="I60" s="38"/>
       <c r="J60" s="38"/>
@@ -14473,7 +14683,7 @@
       <c r="W60" s="38"/>
       <c r="X60" s="38"/>
     </row>
-    <row r="61" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="61" spans="8:24" x14ac:dyDescent="0.2">
       <c r="H61" s="38"/>
       <c r="I61" s="38"/>
       <c r="J61" s="38"/>
@@ -14492,7 +14702,7 @@
       <c r="W61" s="38"/>
       <c r="X61" s="38"/>
     </row>
-    <row r="62" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="62" spans="8:24" x14ac:dyDescent="0.2">
       <c r="H62" s="38"/>
       <c r="I62" s="38"/>
       <c r="J62" s="38"/>
@@ -14511,7 +14721,7 @@
       <c r="W62" s="38"/>
       <c r="X62" s="38"/>
     </row>
-    <row r="63" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="63" spans="8:24" x14ac:dyDescent="0.2">
       <c r="H63" s="38"/>
       <c r="I63" s="38"/>
       <c r="J63" s="38"/>
@@ -14530,7 +14740,7 @@
       <c r="W63" s="38"/>
       <c r="X63" s="38"/>
     </row>
-    <row r="64" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="64" spans="8:24" x14ac:dyDescent="0.2">
       <c r="H64" s="38"/>
       <c r="I64" s="38"/>
       <c r="J64" s="38"/>
@@ -14549,7 +14759,7 @@
       <c r="W64" s="38"/>
       <c r="X64" s="38"/>
     </row>
-    <row r="65" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="65" spans="8:24" x14ac:dyDescent="0.2">
       <c r="H65" s="38"/>
       <c r="I65" s="38"/>
       <c r="J65" s="38"/>
@@ -14568,7 +14778,7 @@
       <c r="W65" s="38"/>
       <c r="X65" s="38"/>
     </row>
-    <row r="66" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="66" spans="8:24" x14ac:dyDescent="0.2">
       <c r="H66" s="38"/>
       <c r="I66" s="38"/>
       <c r="J66" s="38"/>
@@ -14587,7 +14797,7 @@
       <c r="W66" s="38"/>
       <c r="X66" s="38"/>
     </row>
-    <row r="67" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="67" spans="8:24" x14ac:dyDescent="0.2">
       <c r="H67" s="38"/>
       <c r="I67" s="38"/>
       <c r="J67" s="38"/>
@@ -14606,7 +14816,7 @@
       <c r="W67" s="38"/>
       <c r="X67" s="38"/>
     </row>
-    <row r="68" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="68" spans="8:24" x14ac:dyDescent="0.2">
       <c r="H68" s="38"/>
       <c r="I68" s="38"/>
       <c r="J68" s="38"/>
@@ -14642,57 +14852,57 @@
       <selection activeCell="J19" sqref="J19:J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.8984375" customWidth="1"/>
-    <col min="6" max="6" width="13.3984375" customWidth="1"/>
-    <col min="10" max="10" width="17.09765625" customWidth="1"/>
-    <col min="14" max="14" width="16.69921875" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="17.1640625" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C5" t="s">
+        <v>324</v>
+      </c>
+      <c r="F5" t="s">
+        <v>326</v>
+      </c>
+      <c r="G5" t="s">
+        <v>324</v>
+      </c>
+      <c r="J5" s="67" t="s">
+        <v>351</v>
+      </c>
+      <c r="K5" t="s">
+        <v>324</v>
+      </c>
+      <c r="N5" s="67" t="s">
+        <v>376</v>
+      </c>
+      <c r="O5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>304</v>
-      </c>
-      <c r="C5" t="s">
-        <v>325</v>
-      </c>
-      <c r="F5" t="s">
-        <v>327</v>
-      </c>
-      <c r="G5" t="s">
-        <v>325</v>
-      </c>
-      <c r="J5" s="67" t="s">
-        <v>352</v>
-      </c>
-      <c r="K5" t="s">
-        <v>325</v>
-      </c>
-      <c r="N5" s="67" t="s">
-        <v>377</v>
-      </c>
-      <c r="O5" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>305</v>
       </c>
       <c r="C6">
         <f>COUNTIF(Stats!D:D,'Player Count'!B6)</f>
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G6">
         <f>COUNTIF(Stats!D:D,'Player Count'!F6)</f>
         <v>3</v>
       </c>
       <c r="J6" s="67" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K6">
         <f>COUNTIF(Stats!D:D,'Player Count'!J6)</f>
@@ -14700,7 +14910,7 @@
       </c>
       <c r="M6" s="111"/>
       <c r="N6" s="67" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O6">
         <f>COUNTIF(Stats!D:D,'Player Count'!N6)</f>
@@ -14708,23 +14918,23 @@
       </c>
       <c r="Q6" s="111"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C7">
         <f>COUNTIF(Stats!D:D,'Player Count'!B7)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G7">
         <f>COUNTIF(Stats!D:D,'Player Count'!F7)</f>
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K7">
         <f>COUNTIF(Stats!D:D,'Player Count'!J7)</f>
@@ -14732,7 +14942,7 @@
       </c>
       <c r="M7" s="111"/>
       <c r="N7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="O7">
         <f>COUNTIF(Stats!D:D,'Player Count'!N7)</f>
@@ -14740,23 +14950,23 @@
       </c>
       <c r="Q7" s="111"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C8">
         <f>COUNTIF(Stats!D:D,'Player Count'!B8)</f>
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G8">
         <f>COUNTIF(Stats!D:D,'Player Count'!F8)</f>
         <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K8">
         <f>COUNTIF(Stats!D:D,'Player Count'!J8)</f>
@@ -14764,7 +14974,7 @@
       </c>
       <c r="M8" s="111"/>
       <c r="N8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O8">
         <f>COUNTIF(Stats!D:D,'Player Count'!N8)</f>
@@ -14772,23 +14982,23 @@
       </c>
       <c r="Q8" s="111"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C9">
         <f>COUNTIF(Stats!D:D,'Player Count'!B9)</f>
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G9">
         <f>COUNTIF(Stats!D:D,'Player Count'!F9)</f>
         <v>2</v>
       </c>
       <c r="J9" s="67" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K9">
         <f>COUNTIF(Stats!D:D,'Player Count'!J9)</f>
@@ -14796,7 +15006,7 @@
       </c>
       <c r="M9" s="111"/>
       <c r="N9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O9">
         <f>COUNTIF(Stats!D:D,'Player Count'!N9)</f>
@@ -14804,55 +15014,55 @@
       </c>
       <c r="Q9" s="111"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C10">
         <f>COUNTIF(Stats!D:D,'Player Count'!B10)</f>
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G10">
         <f>COUNTIF(Stats!D:D,'Player Count'!F10)</f>
         <v>3</v>
       </c>
       <c r="J10" s="67" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K10">
         <f>COUNTIF(Stats!D:D,'Player Count'!J10)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="111"/>
       <c r="N10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O10">
         <f>COUNTIF(Stats!D:D,'Player Count'!N10)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q10" s="111"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C11">
         <f>COUNTIF(Stats!D:D,'Player Count'!B11)</f>
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G11">
         <f>COUNTIF(Stats!D:D,'Player Count'!F11)</f>
         <v>3</v>
       </c>
       <c r="J11" s="67" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K11">
         <f>COUNTIF(Stats!D:D,'Player Count'!J11)</f>
@@ -14860,7 +15070,7 @@
       </c>
       <c r="M11" s="111"/>
       <c r="N11" s="67" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O11">
         <f>COUNTIF(Stats!D:D,'Player Count'!N11)</f>
@@ -14868,23 +15078,23 @@
       </c>
       <c r="Q11" s="111"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C12">
         <f>COUNTIF(Stats!D:D,'Player Count'!B12)</f>
         <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G12">
         <f>COUNTIF(Stats!D:D,'Player Count'!F12)</f>
         <v>0</v>
       </c>
       <c r="J12" s="67" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K12">
         <f>COUNTIF(Stats!D:D,'Player Count'!J12)</f>
@@ -14892,7 +15102,7 @@
       </c>
       <c r="M12" s="111"/>
       <c r="N12" s="67" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O12">
         <f>COUNTIF(Stats!D:D,'Player Count'!N12)</f>
@@ -14900,23 +15110,23 @@
       </c>
       <c r="Q12" s="111"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C13">
         <f>COUNTIF(Stats!D:D,'Player Count'!B13)</f>
         <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G13">
         <f>COUNTIF(Stats!D:D,'Player Count'!F13)</f>
         <v>4</v>
       </c>
       <c r="J13" s="67" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K13">
         <f>COUNTIF(Stats!D:D,'Player Count'!J13)</f>
@@ -14924,7 +15134,7 @@
       </c>
       <c r="M13" s="111"/>
       <c r="N13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="O13">
         <f>COUNTIF(Stats!D:D,'Player Count'!N13)</f>
@@ -14932,23 +15142,23 @@
       </c>
       <c r="Q13" s="111"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C14">
         <f>COUNTIF(Stats!D:D,'Player Count'!B14)</f>
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G14">
         <f>COUNTIF(Stats!D:D,'Player Count'!F14)</f>
         <v>1</v>
       </c>
       <c r="J14" s="67" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K14">
         <f>COUNTIF(Stats!D:D,'Player Count'!J14)</f>
@@ -14956,7 +15166,7 @@
       </c>
       <c r="M14" s="111"/>
       <c r="N14" s="67" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="O14">
         <f>COUNTIF(Stats!D:D,'Player Count'!N14)</f>
@@ -14964,23 +15174,23 @@
       </c>
       <c r="Q14" s="111"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C15">
         <f>COUNTIF(Stats!D:D,'Player Count'!B15)</f>
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G15">
         <f>COUNTIF(Stats!D:D,'Player Count'!F15)</f>
         <v>2</v>
       </c>
       <c r="J15" s="67" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K15">
         <f>COUNTIF(Stats!D:D,'Player Count'!J15)</f>
@@ -14988,7 +15198,7 @@
       </c>
       <c r="M15" s="111"/>
       <c r="N15" s="67" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="O15">
         <f>COUNTIF(Stats!D:D,'Player Count'!N15)</f>
@@ -14996,23 +15206,23 @@
       </c>
       <c r="Q15" s="111"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C16">
         <f>COUNTIF(Stats!D:D,'Player Count'!B16)</f>
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G16">
         <f>COUNTIF(Stats!D:D,'Player Count'!F16)</f>
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K16">
         <f>COUNTIF(Stats!D:D,'Player Count'!J16)</f>
@@ -15020,7 +15230,7 @@
       </c>
       <c r="M16" s="111"/>
       <c r="N16" s="67" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O16">
         <f>COUNTIF(Stats!D:D,'Player Count'!N16)</f>
@@ -15028,23 +15238,23 @@
       </c>
       <c r="Q16" s="111"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C17">
         <f>COUNTIF(Stats!D:D,'Player Count'!B17)</f>
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G17">
         <f>COUNTIF(Stats!D:D,'Player Count'!F17)</f>
         <v>3</v>
       </c>
       <c r="J17" s="67" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K17">
         <f>COUNTIF(Stats!D:D,'Player Count'!J17)</f>
@@ -15052,7 +15262,7 @@
       </c>
       <c r="M17" s="111"/>
       <c r="N17" s="67" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="O17">
         <f>COUNTIF(Stats!D:D,'Player Count'!N17)</f>
@@ -15060,23 +15270,23 @@
       </c>
       <c r="Q17" s="111"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C18">
         <f>COUNTIF(Stats!D:D,'Player Count'!B18)</f>
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G18">
         <f>COUNTIF(Stats!D:D,'Player Count'!F18)</f>
         <v>1</v>
       </c>
       <c r="J18" s="67" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K18">
         <f>COUNTIF(Stats!D:D,'Player Count'!J18)</f>
@@ -15084,31 +15294,31 @@
       </c>
       <c r="M18" s="111"/>
       <c r="N18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O18">
         <f>COUNTIF(Stats!D:D,'Player Count'!N18)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="111"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C19">
         <f>COUNTIF(Stats!D:D,'Player Count'!B19)</f>
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G19">
         <f>COUNTIF(Stats!D:D,'Player Count'!F19)</f>
         <v>1</v>
       </c>
       <c r="J19" s="67" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K19">
         <f>COUNTIF(Stats!D:D,'Player Count'!J19)</f>
@@ -15116,7 +15326,7 @@
       </c>
       <c r="M19" s="111"/>
       <c r="N19" s="67" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="O19">
         <f>COUNTIF(Stats!D:D,'Player Count'!N19)</f>
@@ -15124,23 +15334,23 @@
       </c>
       <c r="Q19" s="111"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C20">
         <f>COUNTIF(Stats!D:D,'Player Count'!B20)</f>
         <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G20">
         <f>COUNTIF(Stats!D:D,'Player Count'!F20)</f>
         <v>0</v>
       </c>
       <c r="J20" s="67" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K20">
         <f>COUNTIF(Stats!D:D,'Player Count'!J20)</f>
@@ -15148,7 +15358,7 @@
       </c>
       <c r="M20" s="111"/>
       <c r="N20" s="67" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="O20">
         <f>COUNTIF(Stats!D:D,'Player Count'!N20)</f>
@@ -15156,23 +15366,23 @@
       </c>
       <c r="Q20" s="111"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C21">
         <f>COUNTIF(Stats!D:D,'Player Count'!B21)</f>
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G21">
         <f>COUNTIF(Stats!D:D,'Player Count'!F21)</f>
         <v>0</v>
       </c>
       <c r="J21" s="67" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K21">
         <f>COUNTIF(Stats!D:D,'Player Count'!J21)</f>
@@ -15180,7 +15390,7 @@
       </c>
       <c r="M21" s="111"/>
       <c r="N21" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="O21">
         <f>COUNTIF(Stats!D:D,'Player Count'!N21)</f>
@@ -15188,31 +15398,31 @@
       </c>
       <c r="Q21" s="111"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C22">
         <f>COUNTIF(Stats!D:D,'Player Count'!B22)</f>
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G22">
         <f>COUNTIF(Stats!D:D,'Player Count'!F22)</f>
         <v>5</v>
       </c>
       <c r="J22" s="67" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K22">
         <f>COUNTIF(Stats!D:D,'Player Count'!J22)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="111"/>
       <c r="N22" s="67" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O22">
         <f>COUNTIF(Stats!D:D,'Player Count'!N22)</f>
@@ -15220,55 +15430,55 @@
       </c>
       <c r="Q22" s="111"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C23">
         <f>COUNTIF(Stats!D:D,'Player Count'!B23)</f>
         <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G23">
         <f>COUNTIF(Stats!D:D,'Player Count'!F23)</f>
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K23">
         <f>COUNTIF(Stats!D:D,'Player Count'!J23)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" s="111"/>
       <c r="N23" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="O23">
         <f>COUNTIF(Stats!D:D,'Player Count'!N23)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q23" s="111"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C24">
         <f>COUNTIF(Stats!D:D,'Player Count'!B24)</f>
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G24">
         <f>COUNTIF(Stats!D:D,'Player Count'!F24)</f>
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K24">
         <f>COUNTIF(Stats!D:D,'Player Count'!J24)</f>
@@ -15276,7 +15486,7 @@
       </c>
       <c r="M24" s="111"/>
       <c r="N24" s="67" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="O24">
         <f>COUNTIF(Stats!D:D,'Player Count'!N24)</f>
@@ -15284,23 +15494,23 @@
       </c>
       <c r="Q24" s="111"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C25">
         <f>COUNTIF(Stats!D:D,'Player Count'!B25)</f>
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G25">
         <f>COUNTIF(Stats!D:D,'Player Count'!F25)</f>
         <v>1</v>
       </c>
       <c r="J25" s="67" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K25">
         <f>COUNTIF(Stats!D:D,'Player Count'!J25)</f>
@@ -15308,7 +15518,7 @@
       </c>
       <c r="M25" s="111"/>
       <c r="N25" s="67" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="O25">
         <f>COUNTIF(Stats!D:D,'Player Count'!N25)</f>
@@ -15316,23 +15526,23 @@
       </c>
       <c r="Q25" s="111"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26" s="78" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C26" s="78">
         <f>SUM(C6:C25)</f>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F26" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G26">
         <f>COUNTIF(Stats!D:D,'Player Count'!F26)</f>
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K26">
         <f>COUNTIF(Stats!D:D,'Player Count'!J26)</f>
@@ -15340,7 +15550,7 @@
       </c>
       <c r="M26" s="111"/>
       <c r="N26" s="67" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="O26">
         <f>COUNTIF(Stats!D:D,'Player Count'!N26)</f>
@@ -15348,24 +15558,24 @@
       </c>
       <c r="Q26" s="111"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
       <c r="F27" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G27">
         <f>COUNTIF(Stats!D:D,'Player Count'!F27)</f>
         <v>2</v>
       </c>
       <c r="J27" s="67" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K27">
         <f>COUNTIF(Stats!D:D,'Player Count'!J27)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M27" s="111"/>
       <c r="N27" s="67" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O27">
         <f>COUNTIF(Stats!D:D,'Player Count'!N27)</f>
@@ -15373,24 +15583,24 @@
       </c>
       <c r="Q27" s="111"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
       <c r="F28" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G28">
         <f>COUNTIF(Stats!D:D,'Player Count'!F28)</f>
         <v>3</v>
       </c>
       <c r="J28" s="67" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K28">
         <f>COUNTIF(Stats!D:D,'Player Count'!J28)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M28" s="111"/>
       <c r="N28" s="67" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O28">
         <f>COUNTIF(Stats!D:D,'Player Count'!N28)</f>
@@ -15398,80 +15608,80 @@
       </c>
       <c r="Q28" s="111"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
       <c r="F29" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G29">
         <f>COUNTIF(Stats!D:D,'Player Count'!F29)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J29" s="67" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K29">
         <f>COUNTIF(Stats!D:D,'Player Count'!J29)</f>
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="O29">
         <f>COUNTIF(Stats!D:D,'Player Count'!N29)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
       <c r="F30" s="78" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G30" s="78">
         <f>SUM(G6:G29)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J30" s="78" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K30" s="78">
         <f>SUM(K6:K29)</f>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N30" s="78" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O30" s="78">
         <f>SUM(O6:O29)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="67" t="s">
-        <v>432</v>
-      </c>
-      <c r="C38" s="117">
+        <v>431</v>
+      </c>
+      <c r="C38" s="116">
         <f>C26/SUM(C26,G30,K30,O30)</f>
-        <v>0.43452380952380953</v>
-      </c>
-      <c r="D38" s="117"/>
-      <c r="E38" s="117"/>
-      <c r="F38" s="117"/>
-      <c r="G38" s="117">
+        <v>0.42045454545454547</v>
+      </c>
+      <c r="D38" s="116"/>
+      <c r="E38" s="116"/>
+      <c r="F38" s="116"/>
+      <c r="G38" s="116">
         <f>G30/SUM(C26,G30,K30,O30)</f>
-        <v>0.25</v>
-      </c>
-      <c r="H38" s="117"/>
-      <c r="I38" s="117"/>
-      <c r="J38" s="117"/>
-      <c r="K38" s="117">
+        <v>0.24431818181818182</v>
+      </c>
+      <c r="H38" s="116"/>
+      <c r="I38" s="116"/>
+      <c r="J38" s="116"/>
+      <c r="K38" s="116">
         <f>K30/SUM(C26,G30,K30,O30)</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="L38" s="117"/>
-      <c r="M38" s="117"/>
-      <c r="N38" s="117"/>
-      <c r="O38" s="117">
+        <v>0.17613636363636365</v>
+      </c>
+      <c r="L38" s="116"/>
+      <c r="M38" s="116"/>
+      <c r="N38" s="116"/>
+      <c r="O38" s="116">
         <f>O30/SUM(C26,G30,K30,O30)</f>
-        <v>0.14880952380952381</v>
+        <v>0.15909090909090909</v>
       </c>
     </row>
   </sheetData>

--- a/data/DreamLeague25-26.xlsx
+++ b/data/DreamLeague25-26.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\git\dreamleague\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/462a734c48854128/Desktop/Dream League/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9864BAD2-1721-422E-A61B-40954DBD3D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="373" documentId="8_{7D36DF2E-EA78-4237-9818-EA41DFB80887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD7FE276-ECB6-4F2C-9EE2-5E39A3DFFEB8}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="458">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1361,10 +1361,52 @@
     <t>RANDOL KOLO MUANI</t>
   </si>
   <si>
-    <t>TOTTNEHAM</t>
-  </si>
-  <si>
     <t>KIEFFER MOORE</t>
+  </si>
+  <si>
+    <t>(2 - 0)</t>
+  </si>
+  <si>
+    <t>(1 - 3)</t>
+  </si>
+  <si>
+    <t>(1 - 0)</t>
+  </si>
+  <si>
+    <t>(2 - 1)</t>
+  </si>
+  <si>
+    <t>(4 - 0)</t>
+  </si>
+  <si>
+    <t>(1 - 1)</t>
+  </si>
+  <si>
+    <t>(0 - 1)</t>
+  </si>
+  <si>
+    <t>(3 - 2)</t>
+  </si>
+  <si>
+    <t>(3 - 3)</t>
+  </si>
+  <si>
+    <t>(1 - 2)</t>
+  </si>
+  <si>
+    <t>1st Round Replay</t>
+  </si>
+  <si>
+    <t>Game 26</t>
+  </si>
+  <si>
+    <t>AARON DRINAN</t>
+  </si>
+  <si>
+    <t>AC MILAN</t>
+  </si>
+  <si>
+    <t>VIKTOR TORP</t>
   </si>
   <si>
     <t>WILL SWAN</t>
@@ -2177,6 +2219,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3270,7 +3316,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
@@ -3282,36 +3328,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IX406"/>
+  <dimension ref="A1:IX404"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A302" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B320" sqref="B320"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G318" sqref="G318"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="77" customWidth="1"/>
+    <col min="1" max="1" width="1.296875" style="77" customWidth="1"/>
     <col min="2" max="2" width="16" style="77" customWidth="1"/>
-    <col min="3" max="3" width="39.33203125" style="77" customWidth="1"/>
-    <col min="4" max="4" width="32.83203125" style="77" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" style="77" customWidth="1"/>
+    <col min="3" max="3" width="39.296875" style="77" customWidth="1"/>
+    <col min="4" max="4" width="32.796875" style="77" customWidth="1"/>
+    <col min="5" max="5" width="11.796875" style="77" customWidth="1"/>
     <col min="6" max="6" width="17" style="77" customWidth="1"/>
-    <col min="7" max="8" width="11.33203125" style="77" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" style="77" customWidth="1"/>
-    <col min="10" max="10" width="7.1640625" style="77" customWidth="1"/>
-    <col min="11" max="11" width="25.6640625" style="77" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.33203125" style="77" customWidth="1"/>
+    <col min="7" max="8" width="11.296875" style="77" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.69921875" style="77" customWidth="1"/>
+    <col min="10" max="10" width="7.09765625" style="77" customWidth="1"/>
+    <col min="11" max="11" width="25.69921875" style="77" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.296875" style="77" customWidth="1"/>
     <col min="13" max="14" width="12" style="77" customWidth="1"/>
-    <col min="15" max="15" width="10.33203125" style="77" customWidth="1"/>
+    <col min="15" max="15" width="10.296875" style="77" customWidth="1"/>
     <col min="16" max="17" width="9" style="77" customWidth="1"/>
-    <col min="18" max="18" width="32.33203125" style="77" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="32.296875" style="77" bestFit="1" customWidth="1"/>
     <col min="19" max="21" width="9" style="77" customWidth="1"/>
-    <col min="22" max="22" width="30.1640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.09765625" style="77" bestFit="1" customWidth="1"/>
     <col min="23" max="258" width="9" style="77" customWidth="1"/>
     <col min="259" max="16384" width="9" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3330,7 +3376,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="3" t="s">
@@ -3351,7 +3397,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -3368,7 +3414,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="79"/>
       <c r="B4" s="6" t="s">
         <v>3</v>
@@ -3410,7 +3456,7 @@
       <c r="U4" s="117"/>
       <c r="V4" s="117"/>
     </row>
-    <row r="5" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="79"/>
       <c r="B5" s="12" t="s">
         <v>13</v>
@@ -3453,7 +3499,7 @@
       <c r="T5" s="101"/>
       <c r="U5" s="102"/>
     </row>
-    <row r="6" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="79"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -3474,21 +3520,21 @@
       </c>
       <c r="M6" s="25">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N6" s="26">
         <f>SUM(F35:F52)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O6" s="27">
         <f>SUM(F32:F34)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S6" s="102"/>
       <c r="T6" s="101"/>
       <c r="U6" s="102"/>
     </row>
-    <row r="7" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="79"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -3509,11 +3555,11 @@
       </c>
       <c r="M7" s="25">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N7" s="26">
         <f>SUM(F62:F79)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O7" s="27">
         <f>SUM(F59:F61)</f>
@@ -3523,7 +3569,7 @@
       <c r="T7" s="101"/>
       <c r="U7" s="102"/>
     </row>
-    <row r="8" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="79"/>
       <c r="B8" s="28" t="s">
         <v>14</v>
@@ -3553,18 +3599,18 @@
       </c>
       <c r="M8" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N8" s="26">
         <f>SUM(F89:F106)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O8" s="27">
         <f>SUM(F86:F88)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="79"/>
       <c r="B9" s="28" t="s">
         <v>14</v>
@@ -3595,18 +3641,18 @@
       </c>
       <c r="M9" s="25">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N9" s="73">
         <f>SUM(F116:F133)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="O9" s="74">
         <f>SUM(F113:F115)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="79"/>
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
@@ -3631,11 +3677,11 @@
       </c>
       <c r="N10" s="26">
         <f>SUM(F143:F160)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O10" s="27">
         <f>SUM(F140:F142)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R10" s="117"/>
       <c r="S10" s="117"/>
@@ -3643,7 +3689,7 @@
       <c r="U10" s="117"/>
       <c r="V10" s="117"/>
     </row>
-    <row r="11" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="79"/>
       <c r="B11" s="28" t="s">
         <v>16</v>
@@ -3674,11 +3720,11 @@
       </c>
       <c r="M11" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N11" s="26">
         <f>SUM(F170:F187)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O11" s="27">
         <f>SUM(F167:F169)</f>
@@ -3688,7 +3734,7 @@
       <c r="T11" s="101"/>
       <c r="U11" s="102"/>
     </row>
-    <row r="12" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="79"/>
       <c r="B12" s="28" t="s">
         <v>16</v>
@@ -3719,18 +3765,18 @@
       </c>
       <c r="M12" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N12" s="73">
         <f>SUM(F197:F214)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O12" s="74">
         <f>SUM(F194:F196)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="79"/>
       <c r="B13" s="28" t="s">
         <v>16</v>
@@ -3761,15 +3807,15 @@
       </c>
       <c r="M13" s="25">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N13" s="73">
         <f>SUM(F224:F241)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O13" s="74">
         <f>SUM(F221:F223)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R13" s="117"/>
       <c r="S13" s="117"/>
@@ -3777,7 +3823,7 @@
       <c r="U13" s="117"/>
       <c r="V13" s="117"/>
     </row>
-    <row r="14" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="79"/>
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
@@ -3798,7 +3844,7 @@
       </c>
       <c r="M14" s="25">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="N14" s="73">
         <f>SUM(F251:F268)</f>
@@ -3806,13 +3852,13 @@
       </c>
       <c r="O14" s="74">
         <f>SUM(F248:F250)</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="S14" s="102"/>
       <c r="T14" s="101"/>
       <c r="U14" s="102"/>
     </row>
-    <row r="15" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="79"/>
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
@@ -3833,18 +3879,18 @@
       </c>
       <c r="M15" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N15" s="26">
         <f>SUM(F277:F295)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O15" s="27">
         <f>SUM(F275:F276)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="79"/>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
@@ -3865,18 +3911,18 @@
       </c>
       <c r="M16" s="25">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="N16" s="26">
-        <f>SUM(F305:F324)</f>
-        <v>10</v>
+        <f>SUM(F305:F322)</f>
+        <v>14</v>
       </c>
       <c r="O16" s="27">
         <f>SUM(F302:F304)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="79"/>
       <c r="B17" s="108" t="s">
         <v>17</v>
@@ -3902,23 +3948,23 @@
       <c r="I17" s="99"/>
       <c r="J17" s="82"/>
       <c r="K17" s="31" t="str">
-        <f>D328</f>
+        <f>D326</f>
         <v>JAMIE DUGGAN</v>
       </c>
       <c r="L17" s="32" t="str">
-        <f>C328</f>
+        <f>C326</f>
         <v>DREAMERS DREGS</v>
       </c>
       <c r="M17" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N17" s="26">
-        <f>SUM(F334:F351)</f>
-        <v>4</v>
+        <f>SUM(F332:F349)</f>
+        <v>8</v>
       </c>
       <c r="O17" s="27">
-        <f>SUM(F331:F333)</f>
+        <f>SUM(F329:F331)</f>
         <v>4</v>
       </c>
       <c r="R17" s="117"/>
@@ -3927,7 +3973,7 @@
       <c r="U17" s="117"/>
       <c r="V17" s="117"/>
     </row>
-    <row r="18" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="79"/>
       <c r="B18" s="28" t="s">
         <v>17</v>
@@ -3951,11 +3997,11 @@
       <c r="I18" s="99"/>
       <c r="J18" s="82"/>
       <c r="K18" s="31" t="str">
-        <f>D355</f>
+        <f>D353</f>
         <v>CHARLIE, ELIO &amp; DAVE</v>
       </c>
       <c r="L18" s="32" t="str">
-        <f>C355</f>
+        <f>C353</f>
         <v>ATLETICO DEC</v>
       </c>
       <c r="M18" s="25">
@@ -3963,18 +4009,18 @@
         <v>-1</v>
       </c>
       <c r="N18" s="26">
-        <f>SUM(F361:F378)</f>
-        <v>7</v>
+        <f>SUM(F359:F376)</f>
+        <v>8</v>
       </c>
       <c r="O18" s="27">
-        <f>SUM(F358:F360)</f>
-        <v>8</v>
+        <f>SUM(F356:F358)</f>
+        <v>9</v>
       </c>
       <c r="S18" s="102"/>
       <c r="T18" s="101"/>
       <c r="U18" s="102"/>
     </row>
-    <row r="19" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="79"/>
       <c r="B19" s="28" t="s">
         <v>17</v>
@@ -4001,7 +4047,7 @@
       <c r="N19" s="88"/>
       <c r="O19" s="88"/>
     </row>
-    <row r="20" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="79"/>
       <c r="B20" s="108" t="s">
         <v>17</v>
@@ -4037,7 +4083,7 @@
       <c r="U20" s="117"/>
       <c r="V20" s="117"/>
     </row>
-    <row r="21" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="79"/>
       <c r="B21" s="28" t="s">
         <v>17</v>
@@ -4069,7 +4115,7 @@
       <c r="T21" s="101"/>
       <c r="U21" s="102"/>
     </row>
-    <row r="22" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="79"/>
       <c r="B22" s="28" t="s">
         <v>17</v>
@@ -4096,7 +4142,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="79"/>
       <c r="B23" s="108" t="s">
         <v>17</v>
@@ -4127,7 +4173,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="79"/>
       <c r="B24" s="28" t="s">
         <v>17</v>
@@ -4161,7 +4207,7 @@
       <c r="U24" s="117"/>
       <c r="V24" s="117"/>
     </row>
-    <row r="25" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="79"/>
       <c r="B25" s="28"/>
       <c r="C25" s="28"/>
@@ -4181,7 +4227,7 @@
       <c r="T25" s="101"/>
       <c r="U25" s="102"/>
     </row>
-    <row r="26" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="33"/>
       <c r="C26" s="33"/>
@@ -4204,7 +4250,7 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -4221,7 +4267,7 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -4243,7 +4289,7 @@
       <c r="U28" s="117"/>
       <c r="V28" s="117"/>
     </row>
-    <row r="29" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="3" t="s">
@@ -4264,7 +4310,7 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -4281,7 +4327,7 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="79"/>
       <c r="B31" s="6" t="s">
         <v>3</v>
@@ -4308,7 +4354,7 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="79"/>
       <c r="B32" s="12" t="s">
         <v>13</v>
@@ -4321,11 +4367,13 @@
         <v>1</v>
       </c>
       <c r="F32" s="15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G32" s="80"/>
       <c r="H32" s="94"/>
-      <c r="I32" s="95"/>
+      <c r="I32" s="95">
+        <v>-3</v>
+      </c>
       <c r="J32" s="76"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -4333,7 +4381,7 @@
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="79"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -4350,7 +4398,7 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="79"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
@@ -4367,7 +4415,7 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="79"/>
       <c r="B35" s="28" t="s">
         <v>14</v>
@@ -4394,7 +4442,7 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="79"/>
       <c r="B36" s="28" t="s">
         <v>14</v>
@@ -4421,7 +4469,7 @@
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="79"/>
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
@@ -4438,7 +4486,7 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="79"/>
       <c r="B38" s="28" t="s">
         <v>16</v>
@@ -4453,11 +4501,13 @@
         <v>32</v>
       </c>
       <c r="F38" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" s="83"/>
       <c r="H38" s="91"/>
-      <c r="I38" s="93"/>
+      <c r="I38" s="93">
+        <v>1</v>
+      </c>
       <c r="J38" s="76"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -4470,7 +4520,7 @@
       <c r="U38" s="117"/>
       <c r="V38" s="117"/>
     </row>
-    <row r="39" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="79"/>
       <c r="B39" s="28" t="s">
         <v>16</v>
@@ -4497,7 +4547,7 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="79"/>
       <c r="B40" s="28" t="s">
         <v>16</v>
@@ -4524,7 +4574,7 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="79"/>
       <c r="B41" s="28"/>
       <c r="C41" s="28"/>
@@ -4541,7 +4591,7 @@
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="79"/>
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
@@ -4558,7 +4608,7 @@
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
     </row>
-    <row r="43" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="79"/>
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
@@ -4575,7 +4625,7 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="79"/>
       <c r="B44" s="108" t="s">
         <v>17</v>
@@ -4606,7 +4656,7 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
     </row>
-    <row r="45" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="79"/>
       <c r="B45" s="28" t="s">
         <v>17</v>
@@ -4635,7 +4685,7 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="79"/>
       <c r="B46" s="28" t="s">
         <v>17</v>
@@ -4662,7 +4712,7 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="79"/>
       <c r="B47" s="108" t="s">
         <v>17</v>
@@ -4693,7 +4743,7 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="79"/>
       <c r="B48" s="28" t="s">
         <v>17</v>
@@ -4702,7 +4752,7 @@
         <v>439</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>440</v>
+        <v>24</v>
       </c>
       <c r="E48" s="29" t="s">
         <v>291</v>
@@ -4722,7 +4772,7 @@
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="79"/>
       <c r="B49" s="108" t="s">
         <v>17</v>
@@ -4753,7 +4803,7 @@
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
     </row>
-    <row r="50" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="79"/>
       <c r="B50" s="28" t="s">
         <v>17</v>
@@ -4782,7 +4832,7 @@
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
     </row>
-    <row r="51" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="79"/>
       <c r="B51" s="28" t="s">
         <v>17</v>
@@ -4809,7 +4859,7 @@
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
     </row>
-    <row r="52" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="79"/>
       <c r="B52" s="28"/>
       <c r="C52" s="28"/>
@@ -4826,7 +4876,7 @@
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
     </row>
-    <row r="53" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="33"/>
       <c r="C53" s="33"/>
@@ -4837,7 +4887,7 @@
       </c>
       <c r="F53" s="36">
         <f>SUM(F35:F52)-SUM(F32:F34)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G53" s="80"/>
       <c r="H53" s="92"/>
@@ -4849,7 +4899,7 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -4866,7 +4916,7 @@
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
     </row>
-    <row r="55" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -4883,7 +4933,7 @@
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
     </row>
-    <row r="56" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="3" t="s">
@@ -4904,7 +4954,7 @@
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
     </row>
-    <row r="57" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -4921,7 +4971,7 @@
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
     </row>
-    <row r="58" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="79"/>
       <c r="B58" s="6" t="s">
         <v>3</v>
@@ -4948,7 +4998,7 @@
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
     </row>
-    <row r="59" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="79"/>
       <c r="B59" s="12" t="s">
         <v>13</v>
@@ -4973,7 +5023,7 @@
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
     </row>
-    <row r="60" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="79"/>
       <c r="B60" s="21"/>
       <c r="C60" s="21"/>
@@ -4990,7 +5040,7 @@
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
     </row>
-    <row r="61" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="79"/>
       <c r="B61" s="21"/>
       <c r="C61" s="21"/>
@@ -5007,7 +5057,7 @@
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
     </row>
-    <row r="62" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="79"/>
       <c r="B62" s="28" t="s">
         <v>14</v>
@@ -5034,7 +5084,7 @@
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
     </row>
-    <row r="63" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="79"/>
       <c r="B63" s="28" t="s">
         <v>14</v>
@@ -5061,7 +5111,7 @@
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
     </row>
-    <row r="64" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="79"/>
       <c r="B64" s="28"/>
       <c r="C64" s="28"/>
@@ -5078,7 +5128,7 @@
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
     </row>
-    <row r="65" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="79"/>
       <c r="B65" s="28" t="s">
         <v>16</v>
@@ -5105,7 +5155,7 @@
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
     </row>
-    <row r="66" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="79"/>
       <c r="B66" s="28" t="s">
         <v>16</v>
@@ -5120,11 +5170,13 @@
         <v>5</v>
       </c>
       <c r="F66" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G66" s="83"/>
       <c r="H66" s="91"/>
-      <c r="I66" s="90"/>
+      <c r="I66" s="90">
+        <v>1</v>
+      </c>
       <c r="J66" s="76"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
@@ -5132,7 +5184,7 @@
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
     </row>
-    <row r="67" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="79"/>
       <c r="B67" s="108" t="s">
         <v>16</v>
@@ -5163,7 +5215,7 @@
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
     </row>
-    <row r="68" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="79"/>
       <c r="B68" s="28" t="s">
         <v>16</v>
@@ -5178,13 +5230,15 @@
         <v>291</v>
       </c>
       <c r="F68" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" s="91">
         <v>45904</v>
       </c>
       <c r="H68" s="91"/>
-      <c r="I68" s="90"/>
+      <c r="I68" s="90">
+        <v>1</v>
+      </c>
       <c r="J68" s="76"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
@@ -5192,7 +5246,7 @@
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
     </row>
-    <row r="69" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="79"/>
       <c r="B69" s="28"/>
       <c r="C69" s="28"/>
@@ -5209,7 +5263,7 @@
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
     </row>
-    <row r="70" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="79"/>
       <c r="B70" s="28"/>
       <c r="C70" s="28"/>
@@ -5226,7 +5280,7 @@
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
     </row>
-    <row r="71" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="79"/>
       <c r="B71" s="28" t="s">
         <v>17</v>
@@ -5253,7 +5307,7 @@
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
     </row>
-    <row r="72" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="79"/>
       <c r="B72" s="108" t="s">
         <v>17</v>
@@ -5284,7 +5338,7 @@
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
     </row>
-    <row r="73" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="79"/>
       <c r="B73" s="28" t="s">
         <v>17</v>
@@ -5313,7 +5367,7 @@
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
     </row>
-    <row r="74" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="79"/>
       <c r="B74" s="28" t="s">
         <v>17</v>
@@ -5340,7 +5394,7 @@
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
     </row>
-    <row r="75" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="79"/>
       <c r="B75" s="108" t="s">
         <v>17</v>
@@ -5371,7 +5425,7 @@
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
     </row>
-    <row r="76" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="79"/>
       <c r="B76" s="28" t="s">
         <v>17</v>
@@ -5400,7 +5454,7 @@
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
     </row>
-    <row r="77" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="79"/>
       <c r="B77" s="28" t="s">
         <v>17</v>
@@ -5427,7 +5481,7 @@
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
     </row>
-    <row r="78" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="79"/>
       <c r="B78" s="28"/>
       <c r="C78" s="28"/>
@@ -5444,7 +5498,7 @@
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
     </row>
-    <row r="79" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="79"/>
       <c r="B79" s="28"/>
       <c r="C79" s="28"/>
@@ -5461,7 +5515,7 @@
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
     </row>
-    <row r="80" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
       <c r="B80" s="33"/>
       <c r="C80" s="33"/>
@@ -5472,7 +5526,7 @@
       </c>
       <c r="F80" s="36">
         <f>SUM(F62:F79)-SUM(F59:F61)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G80" s="80"/>
       <c r="H80" s="92"/>
@@ -5484,7 +5538,7 @@
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
     </row>
-    <row r="81" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -5501,7 +5555,7 @@
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
     </row>
-    <row r="82" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -5518,7 +5572,7 @@
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
     </row>
-    <row r="83" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="3" t="s">
@@ -5539,7 +5593,7 @@
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
     </row>
-    <row r="84" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -5556,7 +5610,7 @@
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
     </row>
-    <row r="85" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="79"/>
       <c r="B85" s="6" t="s">
         <v>3</v>
@@ -5583,7 +5637,7 @@
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
     </row>
-    <row r="86" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="79"/>
       <c r="B86" s="12" t="s">
         <v>13</v>
@@ -5596,11 +5650,13 @@
         <v>8</v>
       </c>
       <c r="F86" s="15">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G86" s="80"/>
       <c r="H86" s="94"/>
-      <c r="I86" s="93"/>
+      <c r="I86" s="93">
+        <v>-3</v>
+      </c>
       <c r="J86" s="76"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
@@ -5608,7 +5664,7 @@
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
     </row>
-    <row r="87" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="79"/>
       <c r="B87" s="21"/>
       <c r="C87" s="21"/>
@@ -5625,7 +5681,7 @@
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
     </row>
-    <row r="88" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="79"/>
       <c r="B88" s="21"/>
       <c r="C88" s="21"/>
@@ -5642,7 +5698,7 @@
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
     </row>
-    <row r="89" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="79"/>
       <c r="B89" s="28" t="s">
         <v>14</v>
@@ -5669,7 +5725,7 @@
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
     </row>
-    <row r="90" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="79"/>
       <c r="B90" s="28" t="s">
         <v>14</v>
@@ -5696,7 +5752,7 @@
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
     </row>
-    <row r="91" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="79"/>
       <c r="B91" s="28"/>
       <c r="C91" s="28"/>
@@ -5713,7 +5769,7 @@
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
     </row>
-    <row r="92" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="79"/>
       <c r="B92" s="28" t="s">
         <v>16</v>
@@ -5740,7 +5796,7 @@
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
     </row>
-    <row r="93" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="79"/>
       <c r="B93" s="108" t="s">
         <v>16</v>
@@ -5771,7 +5827,7 @@
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
     </row>
-    <row r="94" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="79"/>
       <c r="B94" s="28" t="s">
         <v>16</v>
@@ -5800,7 +5856,7 @@
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
     </row>
-    <row r="95" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="79"/>
       <c r="B95" s="28" t="s">
         <v>16</v>
@@ -5827,7 +5883,7 @@
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
     </row>
-    <row r="96" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="79"/>
       <c r="B96" s="28"/>
       <c r="C96" s="28"/>
@@ -5844,7 +5900,7 @@
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
     </row>
-    <row r="97" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="79"/>
       <c r="B97" s="28"/>
       <c r="C97" s="28"/>
@@ -5861,7 +5917,7 @@
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
     </row>
-    <row r="98" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="79"/>
       <c r="B98" s="28" t="s">
         <v>17</v>
@@ -5888,7 +5944,7 @@
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
     </row>
-    <row r="99" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="79"/>
       <c r="B99" s="28" t="s">
         <v>17</v>
@@ -5915,25 +5971,29 @@
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
     </row>
-    <row r="100" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="79"/>
-      <c r="B100" s="28" t="s">
+      <c r="B100" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C100" s="28" t="s">
+      <c r="C100" s="108" t="s">
         <v>61</v>
       </c>
-      <c r="D100" s="28" t="s">
+      <c r="D100" s="108" t="s">
         <v>151</v>
       </c>
-      <c r="E100" s="29">
+      <c r="E100" s="109">
         <v>6</v>
       </c>
-      <c r="F100" s="30">
-        <v>1</v>
-      </c>
-      <c r="G100" s="87"/>
-      <c r="H100" s="91"/>
+      <c r="F100" s="110">
+        <v>1</v>
+      </c>
+      <c r="G100" s="87" t="s">
+        <v>292</v>
+      </c>
+      <c r="H100" s="91">
+        <v>45918</v>
+      </c>
       <c r="I100" s="90"/>
       <c r="J100" s="76"/>
       <c r="K100" s="1"/>
@@ -5942,24 +6002,26 @@
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
     </row>
-    <row r="101" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="79"/>
       <c r="B101" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C101" s="28" t="s">
-        <v>94</v>
+        <v>453</v>
       </c>
       <c r="D101" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="E101" s="29">
-        <v>22</v>
+        <v>173</v>
+      </c>
+      <c r="E101" s="29" t="s">
+        <v>291</v>
       </c>
       <c r="F101" s="30">
         <v>0</v>
       </c>
-      <c r="G101" s="87"/>
+      <c r="G101" s="87">
+        <v>45918</v>
+      </c>
       <c r="H101" s="91"/>
       <c r="I101" s="90"/>
       <c r="J101" s="76"/>
@@ -5969,29 +6031,25 @@
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
     </row>
-    <row r="102" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="79"/>
-      <c r="B102" s="108" t="s">
+      <c r="B102" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C102" s="108" t="s">
-        <v>206</v>
-      </c>
-      <c r="D102" s="108" t="s">
-        <v>74</v>
-      </c>
-      <c r="E102" s="109">
-        <v>1</v>
-      </c>
-      <c r="F102" s="110">
+      <c r="C102" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D102" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E102" s="29">
+        <v>22</v>
+      </c>
+      <c r="F102" s="30">
         <v>0</v>
       </c>
-      <c r="G102" s="87" t="s">
-        <v>292</v>
-      </c>
-      <c r="H102" s="91">
-        <v>45911</v>
-      </c>
+      <c r="G102" s="87"/>
+      <c r="H102" s="91"/>
       <c r="I102" s="90"/>
       <c r="J102" s="76"/>
       <c r="K102" s="1"/>
@@ -6000,27 +6058,29 @@
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
     </row>
-    <row r="103" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="79"/>
-      <c r="B103" s="28" t="s">
+      <c r="B103" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C103" s="28" t="s">
-        <v>441</v>
-      </c>
-      <c r="D103" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="E103" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="F103" s="30">
+      <c r="C103" s="108" t="s">
+        <v>206</v>
+      </c>
+      <c r="D103" s="108" t="s">
+        <v>74</v>
+      </c>
+      <c r="E103" s="109">
+        <v>1</v>
+      </c>
+      <c r="F103" s="110">
         <v>0</v>
       </c>
-      <c r="G103" s="87">
+      <c r="G103" s="87" t="s">
+        <v>292</v>
+      </c>
+      <c r="H103" s="91">
         <v>45911</v>
       </c>
-      <c r="H103" s="91"/>
       <c r="I103" s="90"/>
       <c r="J103" s="76"/>
       <c r="K103" s="1"/>
@@ -6029,16 +6089,30 @@
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
     </row>
-    <row r="104" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="79"/>
-      <c r="B104" s="28"/>
-      <c r="C104" s="28"/>
-      <c r="D104" s="28"/>
-      <c r="E104" s="29"/>
-      <c r="F104" s="30"/>
-      <c r="G104" s="87"/>
+      <c r="B104" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C104" s="28" t="s">
+        <v>440</v>
+      </c>
+      <c r="D104" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E104" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="F104" s="30">
+        <v>1</v>
+      </c>
+      <c r="G104" s="87">
+        <v>45911</v>
+      </c>
       <c r="H104" s="91"/>
-      <c r="I104" s="90"/>
+      <c r="I104" s="90">
+        <v>1</v>
+      </c>
       <c r="J104" s="76"/>
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
@@ -6046,7 +6120,7 @@
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
     </row>
-    <row r="105" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="79"/>
       <c r="B105" s="28"/>
       <c r="C105" s="28"/>
@@ -6063,7 +6137,7 @@
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
     </row>
-    <row r="106" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="79"/>
       <c r="B106" s="28"/>
       <c r="C106" s="28"/>
@@ -6080,7 +6154,7 @@
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
     </row>
-    <row r="107" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1"/>
       <c r="B107" s="33"/>
       <c r="C107" s="33"/>
@@ -6091,7 +6165,7 @@
       </c>
       <c r="F107" s="36">
         <f>SUM(F89:F106)-SUM(F86:F88)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G107" s="80"/>
       <c r="H107" s="92"/>
@@ -6103,7 +6177,7 @@
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
     </row>
-    <row r="108" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -6120,7 +6194,7 @@
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
     </row>
-    <row r="109" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -6137,7 +6211,7 @@
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
     </row>
-    <row r="110" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="3" t="s">
@@ -6158,7 +6232,7 @@
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
     </row>
-    <row r="111" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -6175,7 +6249,7 @@
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
     </row>
-    <row r="112" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="79"/>
       <c r="B112" s="6" t="s">
         <v>3</v>
@@ -6202,7 +6276,7 @@
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
     </row>
-    <row r="113" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="79"/>
       <c r="B113" s="12" t="s">
         <v>13</v>
@@ -6215,11 +6289,13 @@
         <v>1</v>
       </c>
       <c r="F113" s="15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G113" s="80"/>
       <c r="H113" s="94"/>
-      <c r="I113" s="90"/>
+      <c r="I113" s="90">
+        <v>-1</v>
+      </c>
       <c r="J113" s="76"/>
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
@@ -6227,7 +6303,7 @@
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
     </row>
-    <row r="114" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="79"/>
       <c r="B114" s="21"/>
       <c r="C114" s="21"/>
@@ -6244,7 +6320,7 @@
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
     </row>
-    <row r="115" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="79"/>
       <c r="B115" s="21"/>
       <c r="C115" s="21"/>
@@ -6261,7 +6337,7 @@
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
     </row>
-    <row r="116" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="79"/>
       <c r="B116" s="28" t="s">
         <v>14</v>
@@ -6288,7 +6364,7 @@
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
     </row>
-    <row r="117" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="79"/>
       <c r="B117" s="28" t="s">
         <v>14</v>
@@ -6315,7 +6391,7 @@
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
     </row>
-    <row r="118" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="79"/>
       <c r="B118" s="28"/>
       <c r="C118" s="28"/>
@@ -6332,7 +6408,7 @@
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
     </row>
-    <row r="119" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="79"/>
       <c r="B119" s="28" t="s">
         <v>16</v>
@@ -6347,11 +6423,13 @@
         <v>19</v>
       </c>
       <c r="F119" s="30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G119" s="87"/>
       <c r="H119" s="91"/>
-      <c r="I119" s="90"/>
+      <c r="I119" s="90">
+        <v>1</v>
+      </c>
       <c r="J119" s="76"/>
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
@@ -6359,7 +6437,7 @@
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
     </row>
-    <row r="120" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="79"/>
       <c r="B120" s="28" t="s">
         <v>16</v>
@@ -6386,7 +6464,7 @@
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
     </row>
-    <row r="121" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="79"/>
       <c r="B121" s="28" t="s">
         <v>16</v>
@@ -6413,7 +6491,7 @@
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
     </row>
-    <row r="122" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="79"/>
       <c r="B122" s="28"/>
       <c r="C122" s="28"/>
@@ -6430,7 +6508,7 @@
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
     </row>
-    <row r="123" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="79"/>
       <c r="B123" s="28"/>
       <c r="C123" s="28"/>
@@ -6447,7 +6525,7 @@
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
     </row>
-    <row r="124" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="79"/>
       <c r="B124" s="28"/>
       <c r="C124" s="28"/>
@@ -6464,7 +6542,7 @@
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
     </row>
-    <row r="125" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="79"/>
       <c r="B125" s="28" t="s">
         <v>17</v>
@@ -6491,7 +6569,7 @@
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
     </row>
-    <row r="126" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="79"/>
       <c r="B126" s="108" t="s">
         <v>17</v>
@@ -6522,7 +6600,7 @@
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
     </row>
-    <row r="127" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="79"/>
       <c r="B127" s="28" t="s">
         <v>17</v>
@@ -6551,7 +6629,7 @@
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
     </row>
-    <row r="128" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="79"/>
       <c r="B128" s="108" t="s">
         <v>17</v>
@@ -6582,7 +6660,7 @@
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
     </row>
-    <row r="129" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="79"/>
       <c r="B129" s="28" t="s">
         <v>17</v>
@@ -6611,7 +6689,7 @@
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
     </row>
-    <row r="130" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="79"/>
       <c r="B130" s="28" t="s">
         <v>17</v>
@@ -6626,11 +6704,13 @@
         <v>1</v>
       </c>
       <c r="F130" s="30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G130" s="87"/>
       <c r="H130" s="91"/>
-      <c r="I130" s="90"/>
+      <c r="I130" s="90">
+        <v>1</v>
+      </c>
       <c r="J130" s="76"/>
       <c r="K130" s="1"/>
       <c r="L130" s="1"/>
@@ -6638,7 +6718,7 @@
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
     </row>
-    <row r="131" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="79"/>
       <c r="B131" s="28" t="s">
         <v>17</v>
@@ -6653,11 +6733,13 @@
         <v>1</v>
       </c>
       <c r="F131" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G131" s="87"/>
       <c r="H131" s="91"/>
-      <c r="I131" s="90"/>
+      <c r="I131" s="90">
+        <v>1</v>
+      </c>
       <c r="J131" s="76"/>
       <c r="K131" s="1"/>
       <c r="L131" s="1"/>
@@ -6665,7 +6747,7 @@
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
     </row>
-    <row r="132" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="79"/>
       <c r="B132" s="28"/>
       <c r="C132" s="28"/>
@@ -6682,7 +6764,7 @@
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
     </row>
-    <row r="133" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="79"/>
       <c r="B133" s="28"/>
       <c r="C133" s="28"/>
@@ -6699,7 +6781,7 @@
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
     </row>
-    <row r="134" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="1"/>
       <c r="B134" s="33"/>
       <c r="C134" s="33"/>
@@ -6710,7 +6792,7 @@
       </c>
       <c r="F134" s="36">
         <f>SUM(F116:F133)-SUM(F113:F115)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G134" s="80"/>
       <c r="H134" s="92"/>
@@ -6722,7 +6804,7 @@
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
     </row>
-    <row r="135" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -6739,7 +6821,7 @@
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
     </row>
-    <row r="136" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -6756,7 +6838,7 @@
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
     </row>
-    <row r="137" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="3" t="s">
@@ -6777,7 +6859,7 @@
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
     </row>
-    <row r="138" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -6794,7 +6876,7 @@
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
     </row>
-    <row r="139" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="79"/>
       <c r="B139" s="6" t="s">
         <v>3</v>
@@ -6821,7 +6903,7 @@
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
     </row>
-    <row r="140" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="79"/>
       <c r="B140" s="112" t="s">
         <v>13</v>
@@ -6834,7 +6916,7 @@
         <v>1</v>
       </c>
       <c r="F140" s="115">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G140" s="80" t="s">
         <v>292</v>
@@ -6850,7 +6932,7 @@
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
     </row>
-    <row r="141" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="79"/>
       <c r="B141" s="21" t="s">
         <v>13</v>
@@ -6877,7 +6959,7 @@
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
     </row>
-    <row r="142" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="79"/>
       <c r="B142" s="21"/>
       <c r="C142" s="21"/>
@@ -6894,7 +6976,7 @@
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
     </row>
-    <row r="143" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="79"/>
       <c r="B143" s="28" t="s">
         <v>14</v>
@@ -6921,7 +7003,7 @@
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
     </row>
-    <row r="144" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="79"/>
       <c r="B144" s="28" t="s">
         <v>14</v>
@@ -6948,7 +7030,7 @@
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
     </row>
-    <row r="145" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="79"/>
       <c r="B145" s="28"/>
       <c r="C145" s="28"/>
@@ -6965,7 +7047,7 @@
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
     </row>
-    <row r="146" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="79"/>
       <c r="B146" s="28" t="s">
         <v>16</v>
@@ -6980,11 +7062,13 @@
         <v>42</v>
       </c>
       <c r="F146" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G146" s="87"/>
       <c r="H146" s="90"/>
-      <c r="I146" s="90"/>
+      <c r="I146" s="90">
+        <v>1</v>
+      </c>
       <c r="J146" s="76"/>
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
@@ -6992,7 +7076,7 @@
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
     </row>
-    <row r="147" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="79"/>
       <c r="B147" s="28" t="s">
         <v>16</v>
@@ -7007,10 +7091,12 @@
         <v>1</v>
       </c>
       <c r="F147" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H147" s="103"/>
-      <c r="I147" s="90"/>
+      <c r="I147" s="90">
+        <v>1</v>
+      </c>
       <c r="J147" s="76"/>
       <c r="K147" s="1"/>
       <c r="L147" s="1"/>
@@ -7018,7 +7104,7 @@
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
     </row>
-    <row r="148" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="79"/>
       <c r="B148" s="28" t="s">
         <v>16</v>
@@ -7045,7 +7131,7 @@
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
     </row>
-    <row r="149" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="79"/>
       <c r="B149" s="28"/>
       <c r="C149" s="28"/>
@@ -7062,7 +7148,7 @@
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
     </row>
-    <row r="150" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="79"/>
       <c r="B150" s="28"/>
       <c r="C150" s="28"/>
@@ -7079,7 +7165,7 @@
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
     </row>
-    <row r="151" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="79"/>
       <c r="B151" s="28"/>
       <c r="C151" s="28"/>
@@ -7096,7 +7182,7 @@
       <c r="N151" s="1"/>
       <c r="O151" s="1"/>
     </row>
-    <row r="152" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="79"/>
       <c r="B152" s="28" t="s">
         <v>17</v>
@@ -7123,7 +7209,7 @@
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
     </row>
-    <row r="153" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="79"/>
       <c r="B153" s="28" t="s">
         <v>17</v>
@@ -7150,7 +7236,7 @@
       <c r="N153" s="1"/>
       <c r="O153" s="1"/>
     </row>
-    <row r="154" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="79"/>
       <c r="B154" s="108" t="s">
         <v>17</v>
@@ -7181,7 +7267,7 @@
       <c r="N154" s="1"/>
       <c r="O154" s="1"/>
     </row>
-    <row r="155" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="79"/>
       <c r="B155" s="28" t="s">
         <v>17</v>
@@ -7210,7 +7296,7 @@
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
     </row>
-    <row r="156" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="79"/>
       <c r="B156" s="28" t="s">
         <v>17</v>
@@ -7237,7 +7323,7 @@
       <c r="N156" s="1"/>
       <c r="O156" s="1"/>
     </row>
-    <row r="157" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="79"/>
       <c r="B157" s="28" t="s">
         <v>17</v>
@@ -7264,7 +7350,7 @@
       <c r="N157" s="1"/>
       <c r="O157" s="1"/>
     </row>
-    <row r="158" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="79"/>
       <c r="B158" s="28"/>
       <c r="C158" s="28"/>
@@ -7281,7 +7367,7 @@
       <c r="N158" s="1"/>
       <c r="O158" s="1"/>
     </row>
-    <row r="159" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="79"/>
       <c r="B159" s="28"/>
       <c r="C159" s="28"/>
@@ -7298,7 +7384,7 @@
       <c r="N159" s="1"/>
       <c r="O159" s="1"/>
     </row>
-    <row r="160" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="79"/>
       <c r="B160" s="28"/>
       <c r="C160" s="28"/>
@@ -7315,7 +7401,7 @@
       <c r="N160" s="1"/>
       <c r="O160" s="1"/>
     </row>
-    <row r="161" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1"/>
       <c r="B161" s="33"/>
       <c r="C161" s="33"/>
@@ -7338,7 +7424,7 @@
       <c r="N161" s="1"/>
       <c r="O161" s="1"/>
     </row>
-    <row r="162" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -7355,7 +7441,7 @@
       <c r="N162" s="1"/>
       <c r="O162" s="1"/>
     </row>
-    <row r="163" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -7372,7 +7458,7 @@
       <c r="N163" s="1"/>
       <c r="O163" s="1"/>
     </row>
-    <row r="164" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="3" t="s">
@@ -7393,7 +7479,7 @@
       <c r="N164" s="1"/>
       <c r="O164" s="1"/>
     </row>
-    <row r="165" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -7410,7 +7496,7 @@
       <c r="N165" s="1"/>
       <c r="O165" s="1"/>
     </row>
-    <row r="166" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="79"/>
       <c r="B166" s="6" t="s">
         <v>3</v>
@@ -7437,7 +7523,7 @@
       <c r="N166" s="1"/>
       <c r="O166" s="1"/>
     </row>
-    <row r="167" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="79"/>
       <c r="B167" s="12" t="s">
         <v>13</v>
@@ -7462,7 +7548,7 @@
       <c r="N167" s="1"/>
       <c r="O167" s="1"/>
     </row>
-    <row r="168" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="79"/>
       <c r="B168" s="21"/>
       <c r="C168" s="21"/>
@@ -7479,7 +7565,7 @@
       <c r="N168" s="1"/>
       <c r="O168" s="1"/>
     </row>
-    <row r="169" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="79"/>
       <c r="B169" s="21"/>
       <c r="C169" s="21"/>
@@ -7496,7 +7582,7 @@
       <c r="N169" s="1"/>
       <c r="O169" s="1"/>
     </row>
-    <row r="170" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="79"/>
       <c r="B170" s="28" t="s">
         <v>14</v>
@@ -7523,7 +7609,7 @@
       <c r="N170" s="1"/>
       <c r="O170" s="1"/>
     </row>
-    <row r="171" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="79"/>
       <c r="B171" s="28" t="s">
         <v>14</v>
@@ -7550,7 +7636,7 @@
       <c r="N171" s="1"/>
       <c r="O171" s="1"/>
     </row>
-    <row r="172" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="79"/>
       <c r="B172" s="28"/>
       <c r="C172" s="28"/>
@@ -7567,7 +7653,7 @@
       <c r="N172" s="1"/>
       <c r="O172" s="1"/>
     </row>
-    <row r="173" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="79"/>
       <c r="B173" s="28" t="s">
         <v>16</v>
@@ -7582,11 +7668,13 @@
         <v>3</v>
       </c>
       <c r="F173" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G173" s="83"/>
       <c r="H173" s="91"/>
-      <c r="I173" s="90"/>
+      <c r="I173" s="90">
+        <v>1</v>
+      </c>
       <c r="J173" s="76"/>
       <c r="K173" s="1"/>
       <c r="L173" s="1"/>
@@ -7594,7 +7682,7 @@
       <c r="N173" s="1"/>
       <c r="O173" s="1"/>
     </row>
-    <row r="174" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="79"/>
       <c r="B174" s="108" t="s">
         <v>16</v>
@@ -7625,7 +7713,7 @@
       <c r="N174" s="1"/>
       <c r="O174" s="1"/>
     </row>
-    <row r="175" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="79"/>
       <c r="B175" s="28" t="s">
         <v>16</v>
@@ -7654,7 +7742,7 @@
       <c r="N175" s="1"/>
       <c r="O175" s="1"/>
     </row>
-    <row r="176" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="79"/>
       <c r="B176" s="28" t="s">
         <v>16</v>
@@ -7681,7 +7769,7 @@
       <c r="N176" s="1"/>
       <c r="O176" s="1"/>
     </row>
-    <row r="177" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="79"/>
       <c r="B177" s="28"/>
       <c r="C177" s="28"/>
@@ -7698,7 +7786,7 @@
       <c r="N177" s="1"/>
       <c r="O177" s="1"/>
     </row>
-    <row r="178" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="79"/>
       <c r="B178" s="28"/>
       <c r="C178" s="28"/>
@@ -7715,7 +7803,7 @@
       <c r="N178" s="1"/>
       <c r="O178" s="1"/>
     </row>
-    <row r="179" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="79"/>
       <c r="B179" s="28" t="s">
         <v>17</v>
@@ -7742,7 +7830,7 @@
       <c r="N179" s="1"/>
       <c r="O179" s="1"/>
     </row>
-    <row r="180" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="79"/>
       <c r="B180" s="28" t="s">
         <v>17</v>
@@ -7769,7 +7857,7 @@
       <c r="N180" s="1"/>
       <c r="O180" s="1"/>
     </row>
-    <row r="181" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="79"/>
       <c r="B181" s="28" t="s">
         <v>17</v>
@@ -7796,7 +7884,7 @@
       <c r="N181" s="1"/>
       <c r="O181" s="1"/>
     </row>
-    <row r="182" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="79"/>
       <c r="B182" s="28" t="s">
         <v>17</v>
@@ -7823,7 +7911,7 @@
       <c r="N182" s="1"/>
       <c r="O182" s="1"/>
     </row>
-    <row r="183" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="79"/>
       <c r="B183" s="108" t="s">
         <v>17</v>
@@ -7854,7 +7942,7 @@
       <c r="N183" s="1"/>
       <c r="O183" s="1"/>
     </row>
-    <row r="184" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="79"/>
       <c r="B184" s="28" t="s">
         <v>17</v>
@@ -7883,7 +7971,7 @@
       <c r="N184" s="1"/>
       <c r="O184" s="1"/>
     </row>
-    <row r="185" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="79"/>
       <c r="B185" s="28"/>
       <c r="C185" s="28"/>
@@ -7900,7 +7988,7 @@
       <c r="N185" s="1"/>
       <c r="O185" s="1"/>
     </row>
-    <row r="186" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="79"/>
       <c r="B186" s="28"/>
       <c r="C186" s="28"/>
@@ -7917,7 +8005,7 @@
       <c r="N186" s="1"/>
       <c r="O186" s="1"/>
     </row>
-    <row r="187" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="79"/>
       <c r="B187" s="28"/>
       <c r="C187" s="28"/>
@@ -7934,7 +8022,7 @@
       <c r="N187" s="1"/>
       <c r="O187" s="1"/>
     </row>
-    <row r="188" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="1"/>
       <c r="B188" s="33"/>
       <c r="C188" s="33"/>
@@ -7945,7 +8033,7 @@
       </c>
       <c r="F188" s="36">
         <f>SUM(F170:F187)-SUM(F167:F169)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G188" s="87"/>
       <c r="H188" s="91"/>
@@ -7957,7 +8045,7 @@
       <c r="N188" s="1"/>
       <c r="O188" s="1"/>
     </row>
-    <row r="189" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -7974,7 +8062,7 @@
       <c r="N189" s="1"/>
       <c r="O189" s="1"/>
     </row>
-    <row r="190" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -7991,7 +8079,7 @@
       <c r="N190" s="1"/>
       <c r="O190" s="1"/>
     </row>
-    <row r="191" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="3" t="s">
@@ -8012,7 +8100,7 @@
       <c r="N191" s="1"/>
       <c r="O191" s="1"/>
     </row>
-    <row r="192" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="1"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -8029,7 +8117,7 @@
       <c r="N192" s="1"/>
       <c r="O192" s="1"/>
     </row>
-    <row r="193" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="79"/>
       <c r="B193" s="6" t="s">
         <v>3</v>
@@ -8056,7 +8144,7 @@
       <c r="N193" s="1"/>
       <c r="O193" s="1"/>
     </row>
-    <row r="194" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="79"/>
       <c r="B194" s="12" t="s">
         <v>13</v>
@@ -8081,7 +8169,7 @@
       <c r="N194" s="1"/>
       <c r="O194" s="1"/>
     </row>
-    <row r="195" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="79"/>
       <c r="B195" s="21"/>
       <c r="C195" s="21"/>
@@ -8098,7 +8186,7 @@
       <c r="N195" s="1"/>
       <c r="O195" s="1"/>
     </row>
-    <row r="196" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="79"/>
       <c r="B196" s="21"/>
       <c r="C196" s="21"/>
@@ -8115,7 +8203,7 @@
       <c r="N196" s="1"/>
       <c r="O196" s="1"/>
     </row>
-    <row r="197" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="79"/>
       <c r="B197" s="28" t="s">
         <v>14</v>
@@ -8142,7 +8230,7 @@
       <c r="N197" s="1"/>
       <c r="O197" s="1"/>
     </row>
-    <row r="198" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="79"/>
       <c r="B198" s="28" t="s">
         <v>14</v>
@@ -8169,7 +8257,7 @@
       <c r="N198" s="1"/>
       <c r="O198" s="1"/>
     </row>
-    <row r="199" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="79"/>
       <c r="B199" s="28"/>
       <c r="C199" s="28"/>
@@ -8186,7 +8274,7 @@
       <c r="N199" s="1"/>
       <c r="O199" s="1"/>
     </row>
-    <row r="200" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="79"/>
       <c r="B200" s="28" t="s">
         <v>16</v>
@@ -8213,7 +8301,7 @@
       <c r="N200" s="1"/>
       <c r="O200" s="1"/>
     </row>
-    <row r="201" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="79"/>
       <c r="B201" s="28" t="s">
         <v>16</v>
@@ -8240,7 +8328,7 @@
       <c r="N201" s="1"/>
       <c r="O201" s="1"/>
     </row>
-    <row r="202" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="79"/>
       <c r="B202" s="28" t="s">
         <v>16</v>
@@ -8267,7 +8355,7 @@
       <c r="N202" s="1"/>
       <c r="O202" s="1"/>
     </row>
-    <row r="203" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="79"/>
       <c r="B203" s="28"/>
       <c r="C203" s="28"/>
@@ -8284,7 +8372,7 @@
       <c r="N203" s="1"/>
       <c r="O203" s="1"/>
     </row>
-    <row r="204" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="79"/>
       <c r="B204" s="28"/>
       <c r="C204" s="28"/>
@@ -8301,7 +8389,7 @@
       <c r="N204" s="1"/>
       <c r="O204" s="1"/>
     </row>
-    <row r="205" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="79"/>
       <c r="B205" s="28"/>
       <c r="C205" s="28"/>
@@ -8318,7 +8406,7 @@
       <c r="N205" s="1"/>
       <c r="O205" s="1"/>
     </row>
-    <row r="206" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="79"/>
       <c r="B206" s="28" t="s">
         <v>17</v>
@@ -8333,11 +8421,13 @@
         <v>1</v>
       </c>
       <c r="F206" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G206" s="87"/>
       <c r="H206" s="90"/>
-      <c r="I206" s="90"/>
+      <c r="I206" s="90">
+        <v>1</v>
+      </c>
       <c r="J206" s="76"/>
       <c r="K206" s="1"/>
       <c r="L206" s="1"/>
@@ -8345,7 +8435,7 @@
       <c r="N206" s="1"/>
       <c r="O206" s="1"/>
     </row>
-    <row r="207" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="79"/>
       <c r="B207" s="28" t="s">
         <v>17</v>
@@ -8354,17 +8444,19 @@
         <v>280</v>
       </c>
       <c r="D207" s="28" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="E207" s="29">
         <v>1</v>
       </c>
       <c r="F207" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G207" s="83"/>
       <c r="H207" s="90"/>
-      <c r="I207" s="90"/>
+      <c r="I207" s="90">
+        <v>1</v>
+      </c>
       <c r="J207" s="76"/>
       <c r="K207" s="1"/>
       <c r="L207" s="1"/>
@@ -8372,7 +8464,7 @@
       <c r="N207" s="1"/>
       <c r="O207" s="1"/>
     </row>
-    <row r="208" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="79"/>
       <c r="B208" s="28" t="s">
         <v>17</v>
@@ -8399,7 +8491,7 @@
       <c r="N208" s="1"/>
       <c r="O208" s="1"/>
     </row>
-    <row r="209" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="79"/>
       <c r="B209" s="28" t="s">
         <v>17</v>
@@ -8426,7 +8518,7 @@
       <c r="N209" s="1"/>
       <c r="O209" s="1"/>
     </row>
-    <row r="210" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="79"/>
       <c r="B210" s="28" t="s">
         <v>17</v>
@@ -8453,7 +8545,7 @@
       <c r="N210" s="1"/>
       <c r="O210" s="1"/>
     </row>
-    <row r="211" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="79"/>
       <c r="B211" s="28"/>
       <c r="C211" s="28"/>
@@ -8470,7 +8562,7 @@
       <c r="N211" s="1"/>
       <c r="O211" s="1"/>
     </row>
-    <row r="212" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="79"/>
       <c r="B212" s="28"/>
       <c r="C212" s="28"/>
@@ -8487,7 +8579,7 @@
       <c r="N212" s="1"/>
       <c r="O212" s="1"/>
     </row>
-    <row r="213" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="79"/>
       <c r="B213" s="28"/>
       <c r="C213" s="28"/>
@@ -8504,7 +8596,7 @@
       <c r="N213" s="1"/>
       <c r="O213" s="1"/>
     </row>
-    <row r="214" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A214" s="79"/>
       <c r="B214" s="28"/>
       <c r="C214" s="28"/>
@@ -8521,7 +8613,7 @@
       <c r="N214" s="1"/>
       <c r="O214" s="1"/>
     </row>
-    <row r="215" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" s="1"/>
       <c r="B215" s="33"/>
       <c r="C215" s="33"/>
@@ -8532,7 +8624,7 @@
       </c>
       <c r="F215" s="36">
         <f>SUM(F197:F214)-SUM(F194:F196)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G215" s="80"/>
       <c r="H215" s="92"/>
@@ -8544,7 +8636,7 @@
       <c r="N215" s="1"/>
       <c r="O215" s="1"/>
     </row>
-    <row r="216" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -8561,7 +8653,7 @@
       <c r="N216" s="1"/>
       <c r="O216" s="1"/>
     </row>
-    <row r="217" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -8578,7 +8670,7 @@
       <c r="N217" s="1"/>
       <c r="O217" s="1"/>
     </row>
-    <row r="218" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="3" t="s">
@@ -8599,7 +8691,7 @@
       <c r="N218" s="1"/>
       <c r="O218" s="1"/>
     </row>
-    <row r="219" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" s="1"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -8616,7 +8708,7 @@
       <c r="N219" s="1"/>
       <c r="O219" s="1"/>
     </row>
-    <row r="220" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A220" s="79"/>
       <c r="B220" s="6" t="s">
         <v>3</v>
@@ -8643,7 +8735,7 @@
       <c r="N220" s="1"/>
       <c r="O220" s="1"/>
     </row>
-    <row r="221" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="58"/>
       <c r="B221" s="112" t="s">
         <v>13</v>
@@ -8672,7 +8764,7 @@
       <c r="N221" s="1"/>
       <c r="O221" s="1"/>
     </row>
-    <row r="222" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="79"/>
       <c r="B222" s="21" t="s">
         <v>13</v>
@@ -8685,13 +8777,15 @@
         <v>291</v>
       </c>
       <c r="F222" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G222" s="94">
         <v>45890</v>
       </c>
       <c r="H222" s="92"/>
-      <c r="I222" s="89"/>
+      <c r="I222" s="89">
+        <v>-1</v>
+      </c>
       <c r="J222" s="76"/>
       <c r="K222" s="1"/>
       <c r="L222" s="1"/>
@@ -8699,7 +8793,7 @@
       <c r="N222" s="1"/>
       <c r="O222" s="1"/>
     </row>
-    <row r="223" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="79"/>
       <c r="B223" s="21"/>
       <c r="C223" s="21"/>
@@ -8716,7 +8810,7 @@
       <c r="N223" s="1"/>
       <c r="O223" s="1"/>
     </row>
-    <row r="224" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="79"/>
       <c r="B224" s="28" t="s">
         <v>14</v>
@@ -8743,7 +8837,7 @@
       <c r="N224" s="1"/>
       <c r="O224" s="1"/>
     </row>
-    <row r="225" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="79"/>
       <c r="B225" s="28" t="s">
         <v>14</v>
@@ -8770,7 +8864,7 @@
       <c r="N225" s="1"/>
       <c r="O225" s="1"/>
     </row>
-    <row r="226" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="79"/>
       <c r="B226" s="28"/>
       <c r="C226" s="28"/>
@@ -8787,25 +8881,29 @@
       <c r="N226" s="1"/>
       <c r="O226" s="1"/>
     </row>
-    <row r="227" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="79"/>
-      <c r="B227" s="28" t="s">
+      <c r="B227" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="C227" s="28" t="s">
+      <c r="C227" s="108" t="s">
         <v>82</v>
       </c>
-      <c r="D227" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E227" s="29">
-        <v>1</v>
-      </c>
-      <c r="F227" s="30">
+      <c r="D227" s="108" t="s">
+        <v>454</v>
+      </c>
+      <c r="E227" s="109">
+        <v>1</v>
+      </c>
+      <c r="F227" s="110">
         <v>0</v>
       </c>
-      <c r="G227" s="83"/>
-      <c r="H227" s="91"/>
+      <c r="G227" s="83" t="s">
+        <v>292</v>
+      </c>
+      <c r="H227" s="91">
+        <v>45918</v>
+      </c>
       <c r="I227" s="89"/>
       <c r="J227" s="76"/>
       <c r="K227" s="1"/>
@@ -8814,24 +8912,26 @@
       <c r="N227" s="1"/>
       <c r="O227" s="1"/>
     </row>
-    <row r="228" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="79"/>
       <c r="B228" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C228" s="28" t="s">
-        <v>115</v>
+        <v>455</v>
       </c>
       <c r="D228" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="E228" s="29">
-        <v>5</v>
+        <v>98</v>
+      </c>
+      <c r="E228" s="29" t="s">
+        <v>291</v>
       </c>
       <c r="F228" s="30">
-        <v>2</v>
-      </c>
-      <c r="G228" s="87"/>
+        <v>0</v>
+      </c>
+      <c r="G228" s="87">
+        <v>45918</v>
+      </c>
       <c r="H228" s="91"/>
       <c r="I228" s="89"/>
       <c r="J228" s="1"/>
@@ -8841,29 +8941,25 @@
       <c r="N228" s="1"/>
       <c r="O228" s="1"/>
     </row>
-    <row r="229" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="79"/>
-      <c r="B229" s="108" t="s">
+      <c r="B229" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C229" s="108" t="s">
-        <v>178</v>
-      </c>
-      <c r="D229" s="108" t="s">
-        <v>285</v>
-      </c>
-      <c r="E229" s="109">
-        <v>4</v>
-      </c>
-      <c r="F229" s="110">
-        <v>0</v>
-      </c>
-      <c r="G229" s="87" t="s">
-        <v>292</v>
-      </c>
-      <c r="H229" s="91">
-        <v>45876</v>
-      </c>
+      <c r="C229" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D229" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="E229" s="29">
+        <v>5</v>
+      </c>
+      <c r="F229" s="30">
+        <v>2</v>
+      </c>
+      <c r="G229" s="87"/>
+      <c r="H229" s="91"/>
       <c r="I229" s="89"/>
       <c r="J229" s="76"/>
       <c r="K229" s="1"/>
@@ -8872,27 +8968,29 @@
       <c r="N229" s="1"/>
       <c r="O229" s="1"/>
     </row>
-    <row r="230" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="79"/>
-      <c r="B230" s="28" t="s">
+      <c r="B230" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="C230" s="28" t="s">
-        <v>295</v>
-      </c>
-      <c r="D230" s="28" t="s">
-        <v>296</v>
-      </c>
-      <c r="E230" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="F230" s="30">
+      <c r="C230" s="108" t="s">
+        <v>178</v>
+      </c>
+      <c r="D230" s="108" t="s">
+        <v>285</v>
+      </c>
+      <c r="E230" s="109">
+        <v>4</v>
+      </c>
+      <c r="F230" s="110">
         <v>0</v>
       </c>
-      <c r="G230" s="87">
+      <c r="G230" s="87" t="s">
+        <v>292</v>
+      </c>
+      <c r="H230" s="91">
         <v>45876</v>
       </c>
-      <c r="H230" s="91"/>
       <c r="I230" s="89"/>
       <c r="J230" s="76"/>
       <c r="K230" s="1"/>
@@ -8901,14 +8999,26 @@
       <c r="N230" s="1"/>
       <c r="O230" s="1"/>
     </row>
-    <row r="231" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="79"/>
-      <c r="B231" s="28"/>
-      <c r="C231" s="28"/>
-      <c r="D231" s="28"/>
-      <c r="E231" s="29"/>
-      <c r="F231" s="30"/>
-      <c r="G231" s="87"/>
+      <c r="B231" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C231" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="D231" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="E231" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="F231" s="30">
+        <v>0</v>
+      </c>
+      <c r="G231" s="87">
+        <v>45876</v>
+      </c>
       <c r="H231" s="91"/>
       <c r="I231" s="89"/>
       <c r="J231" s="76"/>
@@ -8918,7 +9028,7 @@
       <c r="N231" s="1"/>
       <c r="O231" s="1"/>
     </row>
-    <row r="232" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="79"/>
       <c r="B232" s="28"/>
       <c r="C232" s="28"/>
@@ -8935,7 +9045,7 @@
       <c r="N232" s="1"/>
       <c r="O232" s="1"/>
     </row>
-    <row r="233" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="79"/>
       <c r="B233" s="28" t="s">
         <v>17</v>
@@ -8950,11 +9060,13 @@
         <v>36</v>
       </c>
       <c r="F233" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G233" s="87"/>
       <c r="H233" s="91"/>
-      <c r="I233" s="89"/>
+      <c r="I233" s="89">
+        <v>1</v>
+      </c>
       <c r="J233" s="1"/>
       <c r="K233" s="1"/>
       <c r="L233" s="1"/>
@@ -8962,7 +9074,7 @@
       <c r="N233" s="1"/>
       <c r="O233" s="1"/>
     </row>
-    <row r="234" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="79"/>
       <c r="B234" s="28" t="s">
         <v>17</v>
@@ -8989,7 +9101,7 @@
       <c r="N234" s="1"/>
       <c r="O234" s="1"/>
     </row>
-    <row r="235" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="79"/>
       <c r="B235" s="28" t="s">
         <v>17</v>
@@ -8998,17 +9110,19 @@
         <v>155</v>
       </c>
       <c r="D235" s="28" t="s">
-        <v>31</v>
+        <v>342</v>
       </c>
       <c r="E235" s="29">
         <v>8</v>
       </c>
       <c r="F235" s="30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G235" s="83"/>
       <c r="H235" s="91"/>
-      <c r="I235" s="89"/>
+      <c r="I235" s="89">
+        <v>1</v>
+      </c>
       <c r="J235" s="76"/>
       <c r="K235" s="1"/>
       <c r="L235" s="1"/>
@@ -9016,7 +9130,7 @@
       <c r="N235" s="1"/>
       <c r="O235" s="1"/>
     </row>
-    <row r="236" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="79"/>
       <c r="B236" s="28" t="s">
         <v>17</v>
@@ -9043,7 +9157,7 @@
       <c r="N236" s="1"/>
       <c r="O236" s="1"/>
     </row>
-    <row r="237" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="79"/>
       <c r="B237" s="108" t="s">
         <v>17</v>
@@ -9074,7 +9188,7 @@
       <c r="N237" s="1"/>
       <c r="O237" s="1"/>
     </row>
-    <row r="238" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="79"/>
       <c r="B238" s="28" t="s">
         <v>17</v>
@@ -9103,7 +9217,7 @@
       <c r="N238" s="1"/>
       <c r="O238" s="1"/>
     </row>
-    <row r="239" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="79"/>
       <c r="B239" s="28"/>
       <c r="C239" s="28"/>
@@ -9120,7 +9234,7 @@
       <c r="N239" s="1"/>
       <c r="O239" s="1"/>
     </row>
-    <row r="240" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="79"/>
       <c r="B240" s="28"/>
       <c r="C240" s="28"/>
@@ -9137,7 +9251,7 @@
       <c r="N240" s="1"/>
       <c r="O240" s="1"/>
     </row>
-    <row r="241" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A241" s="79"/>
       <c r="B241" s="28"/>
       <c r="C241" s="28"/>
@@ -9154,7 +9268,7 @@
       <c r="N241" s="1"/>
       <c r="O241" s="1"/>
     </row>
-    <row r="242" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A242" s="1"/>
       <c r="B242" s="33"/>
       <c r="C242" s="33"/>
@@ -9165,7 +9279,7 @@
       </c>
       <c r="F242" s="36">
         <f>SUM(F224:F241)-SUM(F221:F223)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G242" s="80"/>
       <c r="H242" s="92"/>
@@ -9177,7 +9291,7 @@
       <c r="N242" s="1"/>
       <c r="O242" s="1"/>
     </row>
-    <row r="243" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -9194,7 +9308,7 @@
       <c r="N243" s="1"/>
       <c r="O243" s="1"/>
     </row>
-    <row r="244" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -9211,7 +9325,7 @@
       <c r="N244" s="1"/>
       <c r="O244" s="1"/>
     </row>
-    <row r="245" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="3" t="s">
@@ -9232,7 +9346,7 @@
       <c r="N245" s="1"/>
       <c r="O245" s="1"/>
     </row>
-    <row r="246" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A246" s="1"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
@@ -9249,7 +9363,7 @@
       <c r="N246" s="1"/>
       <c r="O246" s="1"/>
     </row>
-    <row r="247" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A247" s="79"/>
       <c r="B247" s="6" t="s">
         <v>3</v>
@@ -9268,24 +9382,30 @@
       <c r="N247" s="1"/>
       <c r="O247" s="1"/>
     </row>
-    <row r="248" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="79"/>
-      <c r="B248" s="12" t="s">
+      <c r="B248" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="C248" s="13"/>
-      <c r="D248" s="12" t="s">
+      <c r="C248" s="113"/>
+      <c r="D248" s="112" t="s">
         <v>85</v>
       </c>
-      <c r="E248" s="14">
+      <c r="E248" s="114">
         <v>8</v>
       </c>
-      <c r="F248" s="15">
-        <v>9</v>
-      </c>
-      <c r="G248" s="80"/>
-      <c r="H248" s="94"/>
-      <c r="I248" s="90"/>
+      <c r="F248" s="115">
+        <v>14</v>
+      </c>
+      <c r="G248" s="80" t="s">
+        <v>292</v>
+      </c>
+      <c r="H248" s="94">
+        <v>45918</v>
+      </c>
+      <c r="I248" s="90">
+        <v>-5</v>
+      </c>
       <c r="J248" s="1"/>
       <c r="K248" s="1"/>
       <c r="L248" s="1"/>
@@ -9293,14 +9413,24 @@
       <c r="N248" s="1"/>
       <c r="O248" s="1"/>
     </row>
-    <row r="249" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="79"/>
-      <c r="B249" s="21"/>
+      <c r="B249" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="C249" s="21"/>
-      <c r="D249" s="21"/>
-      <c r="E249" s="22"/>
-      <c r="F249" s="21"/>
-      <c r="G249" s="86"/>
+      <c r="D249" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E249" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="F249" s="21">
+        <v>0</v>
+      </c>
+      <c r="G249" s="86">
+        <v>45918</v>
+      </c>
       <c r="H249" s="92"/>
       <c r="I249" s="92"/>
       <c r="J249" s="1"/>
@@ -9310,7 +9440,7 @@
       <c r="N249" s="1"/>
       <c r="O249" s="1"/>
     </row>
-    <row r="250" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="79"/>
       <c r="B250" s="21"/>
       <c r="C250" s="21"/>
@@ -9327,7 +9457,7 @@
       <c r="N250" s="1"/>
       <c r="O250" s="1"/>
     </row>
-    <row r="251" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="79"/>
       <c r="B251" s="28" t="s">
         <v>14</v>
@@ -9354,7 +9484,7 @@
       <c r="N251" s="1"/>
       <c r="O251" s="1"/>
     </row>
-    <row r="252" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="79"/>
       <c r="B252" s="28" t="s">
         <v>14</v>
@@ -9381,7 +9511,7 @@
       <c r="N252" s="1"/>
       <c r="O252" s="1"/>
     </row>
-    <row r="253" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="79"/>
       <c r="B253" s="28"/>
       <c r="C253" s="28"/>
@@ -9398,7 +9528,7 @@
       <c r="N253" s="1"/>
       <c r="O253" s="1"/>
     </row>
-    <row r="254" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="79"/>
       <c r="B254" s="28" t="s">
         <v>16</v>
@@ -9425,7 +9555,7 @@
       <c r="N254" s="1"/>
       <c r="O254" s="1"/>
     </row>
-    <row r="255" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="79"/>
       <c r="B255" s="108" t="s">
         <v>16</v>
@@ -9456,7 +9586,7 @@
       <c r="N255" s="1"/>
       <c r="O255" s="1"/>
     </row>
-    <row r="256" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="79"/>
       <c r="B256" s="28" t="s">
         <v>16</v>
@@ -9485,7 +9615,7 @@
       <c r="N256" s="1"/>
       <c r="O256" s="1"/>
     </row>
-    <row r="257" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="79"/>
       <c r="B257" s="28" t="s">
         <v>16</v>
@@ -9512,7 +9642,7 @@
       <c r="N257" s="1"/>
       <c r="O257" s="1"/>
     </row>
-    <row r="258" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="79"/>
       <c r="B258" s="28"/>
       <c r="C258" s="28"/>
@@ -9529,7 +9659,7 @@
       <c r="N258" s="1"/>
       <c r="O258" s="1"/>
     </row>
-    <row r="259" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="79"/>
       <c r="B259" s="28"/>
       <c r="C259" s="28"/>
@@ -9546,7 +9676,7 @@
       <c r="N259" s="1"/>
       <c r="O259" s="1"/>
     </row>
-    <row r="260" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="79"/>
       <c r="B260" s="28" t="s">
         <v>17</v>
@@ -9573,7 +9703,7 @@
       <c r="N260" s="1"/>
       <c r="O260" s="1"/>
     </row>
-    <row r="261" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="79"/>
       <c r="B261" s="28" t="s">
         <v>17</v>
@@ -9600,7 +9730,7 @@
       <c r="N261" s="1"/>
       <c r="O261" s="1"/>
     </row>
-    <row r="262" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="79"/>
       <c r="B262" s="28" t="s">
         <v>17</v>
@@ -9627,7 +9757,7 @@
       <c r="N262" s="1"/>
       <c r="O262" s="1"/>
     </row>
-    <row r="263" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="79"/>
       <c r="B263" s="28" t="s">
         <v>17</v>
@@ -9654,7 +9784,7 @@
       <c r="N263" s="1"/>
       <c r="O263" s="1"/>
     </row>
-    <row r="264" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="79"/>
       <c r="B264" s="108" t="s">
         <v>17</v>
@@ -9685,7 +9815,7 @@
       <c r="N264" s="1"/>
       <c r="O264" s="1"/>
     </row>
-    <row r="265" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="79"/>
       <c r="B265" s="28" t="s">
         <v>17</v>
@@ -9714,7 +9844,7 @@
       <c r="N265" s="1"/>
       <c r="O265" s="1"/>
     </row>
-    <row r="266" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="79"/>
       <c r="B266" s="28"/>
       <c r="C266" s="28"/>
@@ -9731,7 +9861,7 @@
       <c r="N266" s="1"/>
       <c r="O266" s="1"/>
     </row>
-    <row r="267" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="79"/>
       <c r="B267" s="28"/>
       <c r="C267" s="28"/>
@@ -9748,7 +9878,7 @@
       <c r="N267" s="1"/>
       <c r="O267" s="1"/>
     </row>
-    <row r="268" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A268" s="79"/>
       <c r="B268" s="28"/>
       <c r="C268" s="28"/>
@@ -9765,7 +9895,7 @@
       <c r="N268" s="1"/>
       <c r="O268" s="1"/>
     </row>
-    <row r="269" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A269" s="1"/>
       <c r="B269" s="33"/>
       <c r="C269" s="33"/>
@@ -9776,7 +9906,7 @@
       </c>
       <c r="F269" s="36">
         <f>SUM(F251:F268)-SUM(F248:F250)</f>
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="G269" s="80"/>
       <c r="H269" s="92"/>
@@ -9788,7 +9918,7 @@
       <c r="N269" s="1"/>
       <c r="O269" s="1"/>
     </row>
-    <row r="270" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -9805,7 +9935,7 @@
       <c r="N270" s="1"/>
       <c r="O270" s="1"/>
     </row>
-    <row r="271" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -9822,7 +9952,7 @@
       <c r="N271" s="1"/>
       <c r="O271" s="1"/>
     </row>
-    <row r="272" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1" t="s">
@@ -9843,7 +9973,7 @@
       <c r="N272" s="1"/>
       <c r="O272" s="1"/>
     </row>
-    <row r="273" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A273" s="1"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
@@ -9860,7 +9990,7 @@
       <c r="N273" s="1"/>
       <c r="O273" s="1"/>
     </row>
-    <row r="274" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A274" s="79"/>
       <c r="B274" s="6" t="s">
         <v>3</v>
@@ -9887,7 +10017,7 @@
       <c r="N274" s="1"/>
       <c r="O274" s="1"/>
     </row>
-    <row r="275" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="79"/>
       <c r="B275" s="12" t="s">
         <v>13</v>
@@ -9912,7 +10042,7 @@
       <c r="N275" s="1"/>
       <c r="O275" s="1"/>
     </row>
-    <row r="276" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="79"/>
       <c r="B276" s="21"/>
       <c r="C276" s="21"/>
@@ -9929,7 +10059,7 @@
       <c r="N276" s="1"/>
       <c r="O276" s="1"/>
     </row>
-    <row r="277" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="79"/>
       <c r="B277" s="21"/>
       <c r="C277" s="21"/>
@@ -9946,7 +10076,7 @@
       <c r="N277" s="1"/>
       <c r="O277" s="1"/>
     </row>
-    <row r="278" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="79"/>
       <c r="B278" s="28" t="s">
         <v>14</v>
@@ -9973,7 +10103,7 @@
       <c r="N278" s="1"/>
       <c r="O278" s="1"/>
     </row>
-    <row r="279" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="79"/>
       <c r="B279" s="28" t="s">
         <v>14</v>
@@ -10000,7 +10130,7 @@
       <c r="N279" s="1"/>
       <c r="O279" s="1"/>
     </row>
-    <row r="280" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="79"/>
       <c r="B280" s="28"/>
       <c r="C280" s="28"/>
@@ -10017,7 +10147,7 @@
       <c r="N280" s="1"/>
       <c r="O280" s="1"/>
     </row>
-    <row r="281" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="79"/>
       <c r="B281" s="28" t="s">
         <v>16</v>
@@ -10044,7 +10174,7 @@
       <c r="N281" s="1"/>
       <c r="O281" s="1"/>
     </row>
-    <row r="282" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="79"/>
       <c r="B282" s="28" t="s">
         <v>16</v>
@@ -10071,7 +10201,7 @@
       <c r="N282" s="1"/>
       <c r="O282" s="1"/>
     </row>
-    <row r="283" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="79"/>
       <c r="B283" s="108" t="s">
         <v>16</v>
@@ -10102,7 +10232,7 @@
       <c r="N283" s="1"/>
       <c r="O283" s="1"/>
     </row>
-    <row r="284" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="79"/>
       <c r="B284" s="28" t="s">
         <v>16</v>
@@ -10131,7 +10261,7 @@
       <c r="N284" s="1"/>
       <c r="O284" s="1"/>
     </row>
-    <row r="285" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="79"/>
       <c r="B285" s="28"/>
       <c r="C285" s="28"/>
@@ -10148,7 +10278,7 @@
       <c r="N285" s="1"/>
       <c r="O285" s="1"/>
     </row>
-    <row r="286" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="79"/>
       <c r="B286" s="28"/>
       <c r="C286" s="28"/>
@@ -10165,7 +10295,7 @@
       <c r="N286" s="1"/>
       <c r="O286" s="1"/>
     </row>
-    <row r="287" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="79"/>
       <c r="B287" s="28" t="s">
         <v>17</v>
@@ -10192,7 +10322,7 @@
       <c r="N287" s="1"/>
       <c r="O287" s="1"/>
     </row>
-    <row r="288" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="79"/>
       <c r="B288" s="28" t="s">
         <v>17</v>
@@ -10207,11 +10337,13 @@
         <v>1</v>
       </c>
       <c r="F288" s="30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G288" s="87"/>
       <c r="H288" s="91"/>
-      <c r="I288" s="90"/>
+      <c r="I288" s="90">
+        <v>1</v>
+      </c>
       <c r="J288" s="1"/>
       <c r="K288" s="1"/>
       <c r="L288" s="1"/>
@@ -10219,7 +10351,7 @@
       <c r="N288" s="1"/>
       <c r="O288" s="1"/>
     </row>
-    <row r="289" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="79"/>
       <c r="B289" s="28" t="s">
         <v>17</v>
@@ -10228,7 +10360,7 @@
         <v>236</v>
       </c>
       <c r="D289" s="28" t="s">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="E289" s="29">
         <v>4</v>
@@ -10246,7 +10378,7 @@
       <c r="N289" s="1"/>
       <c r="O289" s="1"/>
     </row>
-    <row r="290" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="79"/>
       <c r="B290" s="28" t="s">
         <v>17</v>
@@ -10273,7 +10405,7 @@
       <c r="N290" s="1"/>
       <c r="O290" s="1"/>
     </row>
-    <row r="291" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="79"/>
       <c r="B291" s="28" t="s">
         <v>17</v>
@@ -10300,7 +10432,7 @@
       <c r="N291" s="1"/>
       <c r="O291" s="1"/>
     </row>
-    <row r="292" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="79"/>
       <c r="B292" s="28"/>
       <c r="C292" s="28"/>
@@ -10317,7 +10449,7 @@
       <c r="N292" s="1"/>
       <c r="O292" s="1"/>
     </row>
-    <row r="293" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="79"/>
       <c r="B293" s="28"/>
       <c r="C293" s="28"/>
@@ -10334,7 +10466,7 @@
       <c r="N293" s="1"/>
       <c r="O293" s="1"/>
     </row>
-    <row r="294" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="79"/>
       <c r="B294" s="28"/>
       <c r="C294" s="28"/>
@@ -10351,7 +10483,7 @@
       <c r="N294" s="1"/>
       <c r="O294" s="1"/>
     </row>
-    <row r="295" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A295" s="79"/>
       <c r="B295" s="28"/>
       <c r="C295" s="28"/>
@@ -10368,7 +10500,7 @@
       <c r="N295" s="1"/>
       <c r="O295" s="1"/>
     </row>
-    <row r="296" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A296" s="1"/>
       <c r="B296" s="33"/>
       <c r="C296" s="33"/>
@@ -10379,7 +10511,7 @@
       </c>
       <c r="F296" s="36">
         <f>SUM(F278:F295)-SUM(F275:F276)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G296" s="91"/>
       <c r="H296" s="91"/>
@@ -10391,7 +10523,7 @@
       <c r="N296" s="1"/>
       <c r="O296" s="1"/>
     </row>
-    <row r="297" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -10408,7 +10540,7 @@
       <c r="N297" s="1"/>
       <c r="O297" s="1"/>
     </row>
-    <row r="298" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -10425,7 +10557,7 @@
       <c r="N298" s="1"/>
       <c r="O298" s="1"/>
     </row>
-    <row r="299" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1" t="s">
@@ -10446,7 +10578,7 @@
       <c r="N299" s="1"/>
       <c r="O299" s="1"/>
     </row>
-    <row r="300" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A300" s="1"/>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
@@ -10463,7 +10595,7 @@
       <c r="N300" s="1"/>
       <c r="O300" s="1"/>
     </row>
-    <row r="301" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A301" s="79"/>
       <c r="B301" s="6" t="s">
         <v>3</v>
@@ -10490,7 +10622,7 @@
       <c r="N301" s="1"/>
       <c r="O301" s="1"/>
     </row>
-    <row r="302" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="79"/>
       <c r="B302" s="112" t="s">
         <v>13</v>
@@ -10519,7 +10651,7 @@
       <c r="N302" s="1"/>
       <c r="O302" s="1"/>
     </row>
-    <row r="303" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="79"/>
       <c r="B303" s="21" t="s">
         <v>13</v>
@@ -10546,7 +10678,7 @@
       <c r="N303" s="1"/>
       <c r="O303" s="1"/>
     </row>
-    <row r="304" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="79"/>
       <c r="B304" s="21"/>
       <c r="C304" s="21"/>
@@ -10563,7 +10695,7 @@
       <c r="N304" s="1"/>
       <c r="O304" s="1"/>
     </row>
-    <row r="305" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="79"/>
       <c r="B305" s="28" t="s">
         <v>14</v>
@@ -10590,7 +10722,7 @@
       <c r="N305" s="1"/>
       <c r="O305" s="1"/>
     </row>
-    <row r="306" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="79"/>
       <c r="B306" s="28" t="s">
         <v>14</v>
@@ -10617,7 +10749,7 @@
       <c r="N306" s="1"/>
       <c r="O306" s="1"/>
     </row>
-    <row r="307" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="79"/>
       <c r="B307" s="28"/>
       <c r="C307" s="28"/>
@@ -10634,7 +10766,7 @@
       <c r="N307" s="1"/>
       <c r="O307" s="1"/>
     </row>
-    <row r="308" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="79"/>
       <c r="B308" s="28" t="s">
         <v>16</v>
@@ -10661,21 +10793,21 @@
       <c r="N308" s="1"/>
       <c r="O308" s="1"/>
     </row>
-    <row r="309" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="79"/>
-      <c r="B309" s="28" t="s">
+      <c r="B309" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="C309" s="28" t="s">
+      <c r="C309" s="108" t="s">
         <v>166</v>
       </c>
-      <c r="D309" s="28" t="s">
+      <c r="D309" s="108" t="s">
         <v>69</v>
       </c>
-      <c r="E309" s="29">
-        <v>1</v>
-      </c>
-      <c r="F309" s="30">
+      <c r="E309" s="109">
+        <v>1</v>
+      </c>
+      <c r="F309" s="110">
         <v>1</v>
       </c>
       <c r="G309" s="87" t="s">
@@ -10692,7 +10824,7 @@
       <c r="N309" s="1"/>
       <c r="O309" s="1"/>
     </row>
-    <row r="310" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="79"/>
       <c r="B310" s="28" t="s">
         <v>16</v>
@@ -10721,7 +10853,7 @@
       <c r="N310" s="1"/>
       <c r="O310" s="1"/>
     </row>
-    <row r="311" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="79"/>
       <c r="B311" s="28" t="s">
         <v>16</v>
@@ -10738,7 +10870,7 @@
       <c r="F311" s="30">
         <v>0</v>
       </c>
-      <c r="G311" s="87"/>
+      <c r="G311" s="83"/>
       <c r="H311" s="91"/>
       <c r="I311" s="90"/>
       <c r="J311" s="1"/>
@@ -10748,14 +10880,14 @@
       <c r="N311" s="1"/>
       <c r="O311" s="1"/>
     </row>
-    <row r="312" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="79"/>
       <c r="B312" s="28"/>
       <c r="C312" s="28"/>
       <c r="D312" s="28"/>
       <c r="E312" s="29"/>
       <c r="F312" s="30"/>
-      <c r="G312" s="83"/>
+      <c r="G312" s="87"/>
       <c r="H312" s="91"/>
       <c r="I312" s="90"/>
       <c r="J312" s="1"/>
@@ -10765,7 +10897,7 @@
       <c r="N312" s="1"/>
       <c r="O312" s="1"/>
     </row>
-    <row r="313" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="79"/>
       <c r="B313" s="28"/>
       <c r="C313" s="28"/>
@@ -10782,16 +10914,28 @@
       <c r="N313" s="1"/>
       <c r="O313" s="1"/>
     </row>
-    <row r="314" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="79"/>
-      <c r="B314" s="28"/>
-      <c r="C314" s="28"/>
-      <c r="D314" s="28"/>
-      <c r="E314" s="29"/>
-      <c r="F314" s="30"/>
+      <c r="B314" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C314" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D314" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E314" s="29">
+        <v>54</v>
+      </c>
+      <c r="F314" s="30">
+        <v>5</v>
+      </c>
       <c r="G314" s="87"/>
       <c r="H314" s="91"/>
-      <c r="I314" s="90"/>
+      <c r="I314" s="90">
+        <v>2</v>
+      </c>
       <c r="J314" s="1"/>
       <c r="K314" s="1"/>
       <c r="L314" s="1"/>
@@ -10799,26 +10943,28 @@
       <c r="N314" s="1"/>
       <c r="O314" s="1"/>
     </row>
-    <row r="315" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="79"/>
       <c r="B315" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C315" s="28" t="s">
-        <v>72</v>
+        <v>240</v>
       </c>
       <c r="D315" s="28" t="s">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="E315" s="29">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="F315" s="30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G315" s="87"/>
       <c r="H315" s="91"/>
-      <c r="I315" s="90"/>
+      <c r="I315" s="90">
+        <v>1</v>
+      </c>
       <c r="J315" s="1"/>
       <c r="K315" s="1"/>
       <c r="L315" s="1"/>
@@ -10826,26 +10972,28 @@
       <c r="N315" s="1"/>
       <c r="O315" s="1"/>
     </row>
-    <row r="316" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="79"/>
       <c r="B316" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C316" s="28" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D316" s="28" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E316" s="29">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F316" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G316" s="87"/>
       <c r="H316" s="91"/>
-      <c r="I316" s="90"/>
+      <c r="I316" s="90">
+        <v>1</v>
+      </c>
       <c r="J316" s="1"/>
       <c r="K316" s="1"/>
       <c r="L316" s="1"/>
@@ -10853,25 +11001,29 @@
       <c r="N316" s="1"/>
       <c r="O316" s="1"/>
     </row>
-    <row r="317" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="79"/>
-      <c r="B317" s="28" t="s">
+      <c r="B317" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C317" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="D317" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="E317" s="29">
-        <v>1</v>
-      </c>
-      <c r="F317" s="30">
-        <v>1</v>
-      </c>
-      <c r="G317" s="87"/>
-      <c r="H317" s="91"/>
+      <c r="C317" s="108" t="s">
+        <v>242</v>
+      </c>
+      <c r="D317" s="108" t="s">
+        <v>243</v>
+      </c>
+      <c r="E317" s="109">
+        <v>1</v>
+      </c>
+      <c r="F317" s="110">
+        <v>0</v>
+      </c>
+      <c r="G317" s="83" t="s">
+        <v>292</v>
+      </c>
+      <c r="H317" s="91">
+        <v>45911</v>
+      </c>
       <c r="I317" s="90"/>
       <c r="J317" s="1"/>
       <c r="K317" s="1"/>
@@ -10880,29 +11032,27 @@
       <c r="N317" s="1"/>
       <c r="O317" s="1"/>
     </row>
-    <row r="318" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="79"/>
       <c r="B318" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C318" s="28" t="s">
-        <v>242</v>
+        <v>456</v>
       </c>
       <c r="D318" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="E318" s="29">
-        <v>1</v>
+        <v>457</v>
+      </c>
+      <c r="E318" s="29" t="s">
+        <v>291</v>
       </c>
       <c r="F318" s="30">
         <v>0</v>
       </c>
-      <c r="G318" s="83" t="s">
-        <v>292</v>
-      </c>
-      <c r="H318" s="91">
+      <c r="G318" s="87">
         <v>45911</v>
       </c>
+      <c r="H318" s="91"/>
       <c r="I318" s="90"/>
       <c r="J318" s="1"/>
       <c r="K318" s="1"/>
@@ -10911,27 +11061,29 @@
       <c r="N318" s="1"/>
       <c r="O318" s="1"/>
     </row>
-    <row r="319" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="79"/>
-      <c r="B319" s="28" t="s">
+      <c r="B319" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C319" s="28" t="s">
-        <v>442</v>
-      </c>
-      <c r="D319" s="28" t="s">
-        <v>443</v>
-      </c>
-      <c r="E319" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="F319" s="30">
+      <c r="C319" s="108" t="s">
+        <v>244</v>
+      </c>
+      <c r="D319" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="E319" s="109">
+        <v>1</v>
+      </c>
+      <c r="F319" s="110">
         <v>0</v>
       </c>
-      <c r="G319" s="87">
-        <v>45911</v>
-      </c>
-      <c r="H319" s="91"/>
+      <c r="G319" s="87" t="s">
+        <v>292</v>
+      </c>
+      <c r="H319" s="91">
+        <v>45890</v>
+      </c>
       <c r="I319" s="90"/>
       <c r="J319" s="1"/>
       <c r="K319" s="1"/>
@@ -10940,29 +11092,27 @@
       <c r="N319" s="1"/>
       <c r="O319" s="1"/>
     </row>
-    <row r="320" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="79"/>
-      <c r="B320" s="108" t="s">
+      <c r="B320" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C320" s="108" t="s">
-        <v>244</v>
-      </c>
-      <c r="D320" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="E320" s="109">
-        <v>1</v>
-      </c>
-      <c r="F320" s="110">
-        <v>0</v>
-      </c>
-      <c r="G320" s="87" t="s">
-        <v>292</v>
-      </c>
-      <c r="H320" s="91">
+      <c r="C320" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="D320" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="E320" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="F320" s="30">
+        <v>2</v>
+      </c>
+      <c r="G320" s="87">
         <v>45890</v>
       </c>
+      <c r="H320" s="91"/>
       <c r="I320" s="90"/>
       <c r="J320" s="1"/>
       <c r="K320" s="1"/>
@@ -10971,26 +11121,14 @@
       <c r="N320" s="1"/>
       <c r="O320" s="1"/>
     </row>
-    <row r="321" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="79"/>
-      <c r="B321" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C321" s="28" t="s">
-        <v>410</v>
-      </c>
-      <c r="D321" s="28" t="s">
-        <v>283</v>
-      </c>
-      <c r="E321" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="F321" s="30">
-        <v>2</v>
-      </c>
-      <c r="G321" s="87">
-        <v>45890</v>
-      </c>
+      <c r="B321" s="28"/>
+      <c r="C321" s="28"/>
+      <c r="D321" s="28"/>
+      <c r="E321" s="29"/>
+      <c r="F321" s="30"/>
+      <c r="G321" s="87"/>
       <c r="H321" s="91"/>
       <c r="I321" s="90"/>
       <c r="J321" s="1"/>
@@ -11000,7 +11138,7 @@
       <c r="N321" s="1"/>
       <c r="O321" s="1"/>
     </row>
-    <row r="322" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A322" s="79"/>
       <c r="B322" s="28"/>
       <c r="C322" s="28"/>
@@ -11008,8 +11146,8 @@
       <c r="E322" s="29"/>
       <c r="F322" s="30"/>
       <c r="G322" s="87"/>
-      <c r="H322" s="90"/>
-      <c r="I322" s="90"/>
+      <c r="H322" s="91"/>
+      <c r="I322" s="92"/>
       <c r="J322" s="1"/>
       <c r="K322" s="1"/>
       <c r="L322" s="1"/>
@@ -11017,16 +11155,22 @@
       <c r="N322" s="1"/>
       <c r="O322" s="1"/>
     </row>
-    <row r="323" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A323" s="79"/>
-      <c r="B323" s="28"/>
-      <c r="C323" s="28"/>
-      <c r="D323" s="28"/>
-      <c r="E323" s="29"/>
-      <c r="F323" s="30"/>
-      <c r="G323" s="87"/>
-      <c r="H323" s="91"/>
-      <c r="I323" s="90"/>
+    <row r="323" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A323" s="1"/>
+      <c r="B323" s="33"/>
+      <c r="C323" s="33"/>
+      <c r="D323" s="34"/>
+      <c r="E323" s="35">
+        <f>SUM(E302:E322)</f>
+        <v>86</v>
+      </c>
+      <c r="F323" s="36">
+        <f>SUM(F305:F322)-SUM(F302:F304)</f>
+        <v>3</v>
+      </c>
+      <c r="G323" s="80"/>
+      <c r="H323" s="92"/>
+      <c r="I323" s="92"/>
       <c r="J323" s="1"/>
       <c r="K323" s="1"/>
       <c r="L323" s="1"/>
@@ -11034,16 +11178,16 @@
       <c r="N323" s="1"/>
       <c r="O323" s="1"/>
     </row>
-    <row r="324" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="79"/>
-      <c r="B324" s="28"/>
-      <c r="C324" s="28"/>
-      <c r="D324" s="28"/>
-      <c r="E324" s="29"/>
-      <c r="F324" s="30"/>
-      <c r="G324" s="87"/>
-      <c r="H324" s="91"/>
-      <c r="I324" s="92"/>
+    <row r="324" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A324" s="1"/>
+      <c r="B324" s="1"/>
+      <c r="C324" s="1"/>
+      <c r="D324" s="1"/>
+      <c r="E324" s="37"/>
+      <c r="F324" s="33"/>
+      <c r="G324" s="75"/>
+      <c r="H324" s="75"/>
+      <c r="I324" s="75"/>
       <c r="J324" s="1"/>
       <c r="K324" s="1"/>
       <c r="L324" s="1"/>
@@ -11051,22 +11195,16 @@
       <c r="N324" s="1"/>
       <c r="O324" s="1"/>
     </row>
-    <row r="325" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1"/>
-      <c r="B325" s="33"/>
-      <c r="C325" s="33"/>
-      <c r="D325" s="34"/>
-      <c r="E325" s="35">
-        <f>SUM(E302:E324)</f>
-        <v>86</v>
-      </c>
-      <c r="F325" s="36">
-        <f>SUM(F305:F324)-SUM(F302:F304)</f>
-        <v>-1</v>
-      </c>
-      <c r="G325" s="80"/>
-      <c r="H325" s="92"/>
-      <c r="I325" s="92"/>
+      <c r="B325" s="1"/>
+      <c r="C325" s="1"/>
+      <c r="D325" s="1"/>
+      <c r="E325" s="1"/>
+      <c r="F325" s="1"/>
+      <c r="G325" s="1"/>
+      <c r="H325" s="1"/>
+      <c r="I325" s="1"/>
       <c r="J325" s="1"/>
       <c r="K325" s="1"/>
       <c r="L325" s="1"/>
@@ -11074,16 +11212,20 @@
       <c r="N325" s="1"/>
       <c r="O325" s="1"/>
     </row>
-    <row r="326" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
-      <c r="C326" s="1"/>
-      <c r="D326" s="1"/>
-      <c r="E326" s="37"/>
-      <c r="F326" s="33"/>
-      <c r="G326" s="75"/>
-      <c r="H326" s="75"/>
-      <c r="I326" s="75"/>
+      <c r="C326" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D326" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E326" s="2"/>
+      <c r="F326" s="1"/>
+      <c r="G326" s="1"/>
+      <c r="H326" s="1"/>
+      <c r="I326" s="1"/>
       <c r="J326" s="1"/>
       <c r="K326" s="1"/>
       <c r="L326" s="1"/>
@@ -11091,13 +11233,13 @@
       <c r="N326" s="1"/>
       <c r="O326" s="1"/>
     </row>
-    <row r="327" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A327" s="1"/>
-      <c r="B327" s="1"/>
-      <c r="C327" s="1"/>
-      <c r="D327" s="1"/>
-      <c r="E327" s="1"/>
-      <c r="F327" s="1"/>
+      <c r="B327" s="4"/>
+      <c r="C327" s="4"/>
+      <c r="D327" s="4"/>
+      <c r="E327" s="5"/>
+      <c r="F327" s="4"/>
       <c r="G327" s="1"/>
       <c r="H327" s="1"/>
       <c r="I327" s="1"/>
@@ -11108,20 +11250,26 @@
       <c r="N327" s="1"/>
       <c r="O327" s="1"/>
     </row>
-    <row r="328" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A328" s="1"/>
-      <c r="B328" s="1"/>
-      <c r="C328" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D328" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E328" s="2"/>
-      <c r="F328" s="1"/>
-      <c r="G328" s="1"/>
-      <c r="H328" s="1"/>
-      <c r="I328" s="1"/>
+    <row r="328" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A328" s="79"/>
+      <c r="B328" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C328" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D328" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E328" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F328" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G328" s="83"/>
+      <c r="H328" s="90"/>
+      <c r="I328" s="90"/>
       <c r="J328" s="1"/>
       <c r="K328" s="1"/>
       <c r="L328" s="1"/>
@@ -11129,16 +11277,24 @@
       <c r="N328" s="1"/>
       <c r="O328" s="1"/>
     </row>
-    <row r="329" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="1"/>
-      <c r="B329" s="4"/>
-      <c r="C329" s="4"/>
-      <c r="D329" s="4"/>
-      <c r="E329" s="5"/>
-      <c r="F329" s="4"/>
-      <c r="G329" s="1"/>
-      <c r="H329" s="1"/>
-      <c r="I329" s="1"/>
+    <row r="329" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A329" s="79"/>
+      <c r="B329" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C329" s="13"/>
+      <c r="D329" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E329" s="14">
+        <v>1</v>
+      </c>
+      <c r="F329" s="15">
+        <v>4</v>
+      </c>
+      <c r="G329" s="83"/>
+      <c r="H329" s="87"/>
+      <c r="I329" s="90"/>
       <c r="J329" s="1"/>
       <c r="K329" s="1"/>
       <c r="L329" s="1"/>
@@ -11146,25 +11302,15 @@
       <c r="N329" s="1"/>
       <c r="O329" s="1"/>
     </row>
-    <row r="330" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="79"/>
-      <c r="B330" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C330" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D330" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E330" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F330" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G330" s="83"/>
-      <c r="H330" s="90"/>
+      <c r="B330" s="21"/>
+      <c r="C330" s="21"/>
+      <c r="D330" s="21"/>
+      <c r="E330" s="22"/>
+      <c r="F330" s="21"/>
+      <c r="G330" s="87"/>
+      <c r="H330" s="91"/>
       <c r="I330" s="90"/>
       <c r="J330" s="1"/>
       <c r="K330" s="1"/>
@@ -11173,23 +11319,15 @@
       <c r="N330" s="1"/>
       <c r="O330" s="1"/>
     </row>
-    <row r="331" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="79"/>
-      <c r="B331" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C331" s="13"/>
-      <c r="D331" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E331" s="14">
-        <v>1</v>
-      </c>
-      <c r="F331" s="15">
-        <v>4</v>
-      </c>
-      <c r="G331" s="83"/>
-      <c r="H331" s="87"/>
+      <c r="B331" s="21"/>
+      <c r="C331" s="21"/>
+      <c r="D331" s="21"/>
+      <c r="E331" s="22"/>
+      <c r="F331" s="21"/>
+      <c r="G331" s="87"/>
+      <c r="H331" s="90"/>
       <c r="I331" s="90"/>
       <c r="J331" s="1"/>
       <c r="K331" s="1"/>
@@ -11198,15 +11336,25 @@
       <c r="N331" s="1"/>
       <c r="O331" s="1"/>
     </row>
-    <row r="332" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="79"/>
-      <c r="B332" s="21"/>
-      <c r="C332" s="21"/>
-      <c r="D332" s="21"/>
-      <c r="E332" s="22"/>
-      <c r="F332" s="21"/>
-      <c r="G332" s="87"/>
-      <c r="H332" s="91"/>
+      <c r="B332" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C332" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="D332" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="E332" s="29">
+        <v>1</v>
+      </c>
+      <c r="F332" s="30">
+        <v>2</v>
+      </c>
+      <c r="G332" s="83"/>
+      <c r="H332" s="90"/>
       <c r="I332" s="90"/>
       <c r="J332" s="1"/>
       <c r="K332" s="1"/>
@@ -11215,14 +11363,24 @@
       <c r="N332" s="1"/>
       <c r="O332" s="1"/>
     </row>
-    <row r="333" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="79"/>
-      <c r="B333" s="21"/>
-      <c r="C333" s="21"/>
-      <c r="D333" s="21"/>
-      <c r="E333" s="22"/>
-      <c r="F333" s="21"/>
-      <c r="G333" s="87"/>
+      <c r="B333" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C333" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="D333" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E333" s="29">
+        <v>1</v>
+      </c>
+      <c r="F333" s="30">
+        <v>1</v>
+      </c>
+      <c r="G333" s="83"/>
       <c r="H333" s="90"/>
       <c r="I333" s="90"/>
       <c r="J333" s="1"/>
@@ -11232,25 +11390,15 @@
       <c r="N333" s="1"/>
       <c r="O333" s="1"/>
     </row>
-    <row r="334" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="79"/>
-      <c r="B334" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C334" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="D334" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="E334" s="29">
-        <v>1</v>
-      </c>
-      <c r="F334" s="30">
-        <v>2</v>
-      </c>
-      <c r="G334" s="83"/>
-      <c r="H334" s="90"/>
+      <c r="B334" s="28"/>
+      <c r="C334" s="28"/>
+      <c r="D334" s="28"/>
+      <c r="E334" s="29"/>
+      <c r="F334" s="30"/>
+      <c r="G334" s="87"/>
+      <c r="H334" s="91"/>
       <c r="I334" s="90"/>
       <c r="J334" s="1"/>
       <c r="K334" s="1"/>
@@ -11259,25 +11407,25 @@
       <c r="N334" s="1"/>
       <c r="O334" s="1"/>
     </row>
-    <row r="335" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="79"/>
       <c r="B335" s="28" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C335" s="28" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="D335" s="28" t="s">
-        <v>20</v>
+        <v>246</v>
       </c>
       <c r="E335" s="29">
         <v>1</v>
       </c>
       <c r="F335" s="30">
-        <v>1</v>
-      </c>
-      <c r="G335" s="83"/>
-      <c r="H335" s="90"/>
+        <v>0</v>
+      </c>
+      <c r="G335" s="87"/>
+      <c r="H335" s="91"/>
       <c r="I335" s="90"/>
       <c r="J335" s="1"/>
       <c r="K335" s="1"/>
@@ -11286,15 +11434,25 @@
       <c r="N335" s="1"/>
       <c r="O335" s="1"/>
     </row>
-    <row r="336" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="79"/>
-      <c r="B336" s="28"/>
-      <c r="C336" s="28"/>
-      <c r="D336" s="28"/>
-      <c r="E336" s="29"/>
-      <c r="F336" s="30"/>
+      <c r="B336" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C336" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="D336" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="E336" s="29">
+        <v>1</v>
+      </c>
+      <c r="F336" s="30">
+        <v>0</v>
+      </c>
       <c r="G336" s="87"/>
-      <c r="H336" s="91"/>
+      <c r="H336" s="90"/>
       <c r="I336" s="90"/>
       <c r="J336" s="1"/>
       <c r="K336" s="1"/>
@@ -11303,16 +11461,16 @@
       <c r="N336" s="1"/>
       <c r="O336" s="1"/>
     </row>
-    <row r="337" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="79"/>
       <c r="B337" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C337" s="28" t="s">
-        <v>147</v>
+        <v>286</v>
       </c>
       <c r="D337" s="28" t="s">
-        <v>246</v>
+        <v>24</v>
       </c>
       <c r="E337" s="29">
         <v>1</v>
@@ -11321,7 +11479,7 @@
         <v>0</v>
       </c>
       <c r="G337" s="87"/>
-      <c r="H337" s="91"/>
+      <c r="H337" s="90"/>
       <c r="I337" s="90"/>
       <c r="J337" s="1"/>
       <c r="K337" s="1"/>
@@ -11330,25 +11488,15 @@
       <c r="N337" s="1"/>
       <c r="O337" s="1"/>
     </row>
-    <row r="338" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="79"/>
-      <c r="B338" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C338" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="D338" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="E338" s="29">
-        <v>1</v>
-      </c>
-      <c r="F338" s="30">
-        <v>0</v>
-      </c>
-      <c r="G338" s="87"/>
-      <c r="H338" s="90"/>
+      <c r="B338" s="28"/>
+      <c r="C338" s="28"/>
+      <c r="D338" s="28"/>
+      <c r="E338" s="29"/>
+      <c r="F338" s="30"/>
+      <c r="G338" s="83"/>
+      <c r="H338" s="91"/>
       <c r="I338" s="90"/>
       <c r="J338" s="1"/>
       <c r="K338" s="1"/>
@@ -11357,88 +11505,94 @@
       <c r="N338" s="1"/>
       <c r="O338" s="1"/>
     </row>
-    <row r="339" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="79"/>
-      <c r="B339" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C339" s="28" t="s">
-        <v>286</v>
-      </c>
-      <c r="D339" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E339" s="29">
-        <v>1</v>
-      </c>
-      <c r="F339" s="30">
-        <v>0</v>
-      </c>
+      <c r="B339" s="28"/>
+      <c r="C339" s="28"/>
+      <c r="D339" s="28"/>
+      <c r="E339" s="29"/>
+      <c r="F339" s="30"/>
       <c r="G339" s="87"/>
-      <c r="H339" s="90"/>
+      <c r="H339" s="91"/>
       <c r="I339" s="90"/>
       <c r="J339" s="1"/>
-      <c r="K339" s="1"/>
-      <c r="L339" s="1"/>
-      <c r="M339" s="1"/>
       <c r="N339" s="1"/>
       <c r="O339" s="1"/>
     </row>
-    <row r="340" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="79"/>
       <c r="B340" s="28"/>
       <c r="C340" s="28"/>
       <c r="D340" s="28"/>
       <c r="E340" s="29"/>
       <c r="F340" s="30"/>
-      <c r="G340" s="83"/>
-      <c r="H340" s="91"/>
+      <c r="G340" s="87"/>
+      <c r="H340" s="90"/>
       <c r="I340" s="90"/>
       <c r="J340" s="1"/>
-      <c r="K340" s="1"/>
-      <c r="L340" s="1"/>
-      <c r="M340" s="1"/>
       <c r="N340" s="1"/>
       <c r="O340" s="1"/>
     </row>
-    <row r="341" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="79"/>
-      <c r="B341" s="28"/>
-      <c r="C341" s="28"/>
-      <c r="D341" s="28"/>
-      <c r="E341" s="29"/>
-      <c r="F341" s="30"/>
-      <c r="G341" s="87"/>
+      <c r="B341" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C341" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D341" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="E341" s="29">
+        <v>1</v>
+      </c>
+      <c r="F341" s="30">
+        <v>1</v>
+      </c>
+      <c r="G341" s="83"/>
       <c r="H341" s="91"/>
-      <c r="I341" s="90"/>
+      <c r="I341" s="90">
+        <v>1</v>
+      </c>
       <c r="J341" s="1"/>
       <c r="N341" s="1"/>
       <c r="O341" s="1"/>
     </row>
-    <row r="342" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="79"/>
-      <c r="B342" s="28"/>
-      <c r="C342" s="28"/>
-      <c r="D342" s="28"/>
-      <c r="E342" s="29"/>
-      <c r="F342" s="30"/>
+      <c r="B342" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C342" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="D342" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E342" s="29">
+        <v>1</v>
+      </c>
+      <c r="F342" s="30">
+        <v>1</v>
+      </c>
       <c r="G342" s="87"/>
-      <c r="H342" s="90"/>
+      <c r="H342" s="91"/>
       <c r="I342" s="90"/>
       <c r="J342" s="1"/>
       <c r="N342" s="1"/>
       <c r="O342" s="1"/>
     </row>
-    <row r="343" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="79"/>
       <c r="B343" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C343" s="28" t="s">
-        <v>247</v>
+        <v>129</v>
       </c>
       <c r="D343" s="28" t="s">
-        <v>210</v>
+        <v>123</v>
       </c>
       <c r="E343" s="29">
         <v>1</v>
@@ -11446,47 +11600,49 @@
       <c r="F343" s="30">
         <v>0</v>
       </c>
-      <c r="G343" s="83"/>
+      <c r="G343" s="87"/>
       <c r="H343" s="91"/>
       <c r="I343" s="90"/>
       <c r="J343" s="1"/>
       <c r="N343" s="1"/>
       <c r="O343" s="1"/>
     </row>
-    <row r="344" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="79"/>
       <c r="B344" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C344" s="28" t="s">
-        <v>144</v>
+        <v>287</v>
       </c>
       <c r="D344" s="28" t="s">
-        <v>83</v>
+        <v>134</v>
       </c>
       <c r="E344" s="29">
         <v>1</v>
       </c>
       <c r="F344" s="30">
-        <v>1</v>
-      </c>
-      <c r="G344" s="87"/>
+        <v>3</v>
+      </c>
+      <c r="G344" s="83"/>
       <c r="H344" s="91"/>
-      <c r="I344" s="90"/>
+      <c r="I344" s="90">
+        <v>3</v>
+      </c>
       <c r="J344" s="1"/>
       <c r="N344" s="1"/>
       <c r="O344" s="1"/>
     </row>
-    <row r="345" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="79"/>
       <c r="B345" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C345" s="28" t="s">
-        <v>129</v>
+        <v>288</v>
       </c>
       <c r="D345" s="28" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="E345" s="29">
         <v>1</v>
@@ -11501,47 +11657,27 @@
       <c r="N345" s="1"/>
       <c r="O345" s="1"/>
     </row>
-    <row r="346" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="79"/>
-      <c r="B346" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C346" s="28" t="s">
-        <v>287</v>
-      </c>
-      <c r="D346" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="E346" s="29">
-        <v>1</v>
-      </c>
-      <c r="F346" s="30">
-        <v>0</v>
-      </c>
-      <c r="G346" s="83"/>
+      <c r="B346" s="28"/>
+      <c r="C346" s="28"/>
+      <c r="D346" s="28"/>
+      <c r="E346" s="29"/>
+      <c r="F346" s="30"/>
+      <c r="G346" s="87"/>
       <c r="H346" s="91"/>
       <c r="I346" s="90"/>
       <c r="J346" s="1"/>
       <c r="N346" s="1"/>
       <c r="O346" s="1"/>
     </row>
-    <row r="347" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="79"/>
-      <c r="B347" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C347" s="28" t="s">
-        <v>288</v>
-      </c>
-      <c r="D347" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E347" s="29">
-        <v>1</v>
-      </c>
-      <c r="F347" s="30">
-        <v>0</v>
-      </c>
+      <c r="B347" s="28"/>
+      <c r="C347" s="28"/>
+      <c r="D347" s="28"/>
+      <c r="E347" s="29"/>
+      <c r="F347" s="30"/>
       <c r="G347" s="87"/>
       <c r="H347" s="91"/>
       <c r="I347" s="90"/>
@@ -11549,7 +11685,7 @@
       <c r="N347" s="1"/>
       <c r="O347" s="1"/>
     </row>
-    <row r="348" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="79"/>
       <c r="B348" s="28"/>
       <c r="C348" s="28"/>
@@ -11563,7 +11699,7 @@
       <c r="N348" s="1"/>
       <c r="O348" s="1"/>
     </row>
-    <row r="349" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A349" s="79"/>
       <c r="B349" s="28"/>
       <c r="C349" s="28"/>
@@ -11571,593 +11707,587 @@
       <c r="E349" s="29"/>
       <c r="F349" s="30"/>
       <c r="G349" s="87"/>
-      <c r="H349" s="91"/>
+      <c r="H349" s="90"/>
       <c r="I349" s="90"/>
       <c r="J349" s="1"/>
       <c r="N349" s="1"/>
       <c r="O349" s="1"/>
     </row>
-    <row r="350" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A350" s="79"/>
-      <c r="B350" s="28"/>
-      <c r="C350" s="28"/>
-      <c r="D350" s="28"/>
-      <c r="E350" s="29"/>
-      <c r="F350" s="30"/>
-      <c r="G350" s="87"/>
-      <c r="H350" s="91"/>
+    <row r="350" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A350" s="1"/>
+      <c r="B350" s="33"/>
+      <c r="C350" s="33"/>
+      <c r="D350" s="34"/>
+      <c r="E350" s="35">
+        <f>SUM(E329:E349)</f>
+        <v>11</v>
+      </c>
+      <c r="F350" s="36">
+        <f>SUM(F332:F349)-SUM(F329:F331)</f>
+        <v>4</v>
+      </c>
+      <c r="G350" s="83"/>
+      <c r="H350" s="90"/>
       <c r="I350" s="90"/>
       <c r="J350" s="1"/>
       <c r="N350" s="1"/>
       <c r="O350" s="1"/>
     </row>
-    <row r="351" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A351" s="79"/>
-      <c r="B351" s="28"/>
-      <c r="C351" s="28"/>
-      <c r="D351" s="28"/>
-      <c r="E351" s="29"/>
-      <c r="F351" s="30"/>
-      <c r="G351" s="87"/>
-      <c r="H351" s="90"/>
-      <c r="I351" s="90"/>
+    <row r="351" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A351" s="1"/>
+      <c r="B351" s="1"/>
+      <c r="C351" s="1"/>
+      <c r="D351" s="1"/>
+      <c r="E351" s="37"/>
+      <c r="F351" s="33"/>
+      <c r="G351" s="1"/>
+      <c r="H351" s="1"/>
+      <c r="I351" s="1"/>
       <c r="J351" s="1"/>
       <c r="N351" s="1"/>
       <c r="O351" s="1"/>
     </row>
-    <row r="352" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A352" s="1"/>
-      <c r="B352" s="33"/>
-      <c r="C352" s="33"/>
-      <c r="D352" s="34"/>
-      <c r="E352" s="35">
-        <f>SUM(E331:E351)</f>
-        <v>11</v>
-      </c>
-      <c r="F352" s="36">
-        <f>SUM(F334:F351)-SUM(F331:F333)</f>
-        <v>0</v>
-      </c>
-      <c r="G352" s="83"/>
-      <c r="H352" s="90"/>
-      <c r="I352" s="90"/>
-      <c r="J352" s="1"/>
-      <c r="N352" s="1"/>
-      <c r="O352" s="1"/>
-    </row>
-    <row r="353" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A353" s="1"/>
+    <row r="353" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B353" s="1"/>
-      <c r="C353" s="1"/>
-      <c r="D353" s="1"/>
-      <c r="E353" s="37"/>
-      <c r="F353" s="33"/>
+      <c r="C353" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E353" s="2"/>
+      <c r="F353" s="1"/>
       <c r="G353" s="1"/>
       <c r="H353" s="1"/>
       <c r="I353" s="1"/>
       <c r="J353" s="1"/>
-      <c r="N353" s="1"/>
-      <c r="O353" s="1"/>
-    </row>
-    <row r="355" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B355" s="1"/>
-      <c r="C355" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D355" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="E355" s="2"/>
-      <c r="F355" s="1"/>
+    </row>
+    <row r="354" spans="2:10" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B354" s="4"/>
+      <c r="C354" s="4"/>
+      <c r="D354" s="4"/>
+      <c r="E354" s="5"/>
+      <c r="F354" s="4"/>
+      <c r="G354" s="1"/>
+      <c r="H354" s="1"/>
+      <c r="I354" s="1"/>
+      <c r="J354" s="1"/>
+    </row>
+    <row r="355" spans="2:10" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B355" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C355" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D355" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E355" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F355" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="G355" s="1"/>
       <c r="H355" s="1"/>
       <c r="I355" s="1"/>
       <c r="J355" s="1"/>
     </row>
-    <row r="356" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B356" s="4"/>
-      <c r="C356" s="4"/>
-      <c r="D356" s="4"/>
-      <c r="E356" s="5"/>
-      <c r="F356" s="4"/>
+    <row r="356" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B356" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C356" s="13"/>
+      <c r="D356" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E356" s="14">
+        <v>5</v>
+      </c>
+      <c r="F356" s="15">
+        <v>9</v>
+      </c>
       <c r="G356" s="1"/>
-      <c r="H356" s="1"/>
-      <c r="I356" s="1"/>
+      <c r="H356" s="104"/>
+      <c r="I356" s="1">
+        <v>-1</v>
+      </c>
       <c r="J356" s="1"/>
     </row>
-    <row r="357" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B357" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C357" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D357" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E357" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F357" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G357" s="1"/>
-      <c r="H357" s="1"/>
+    <row r="357" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B357" s="21"/>
+      <c r="C357" s="21"/>
+      <c r="D357" s="21"/>
+      <c r="E357" s="22"/>
+      <c r="F357" s="21"/>
+      <c r="G357" s="104"/>
+      <c r="H357" s="104"/>
       <c r="I357" s="1"/>
       <c r="J357" s="1"/>
     </row>
-    <row r="358" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B358" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C358" s="13"/>
-      <c r="D358" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E358" s="14">
-        <v>5</v>
-      </c>
-      <c r="F358" s="15">
-        <v>8</v>
-      </c>
-      <c r="G358" s="1"/>
-      <c r="H358" s="104"/>
+    <row r="358" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B358" s="21"/>
+      <c r="C358" s="21"/>
+      <c r="D358" s="21"/>
+      <c r="E358" s="22"/>
+      <c r="F358" s="21"/>
+      <c r="G358" s="104"/>
+      <c r="H358" s="1"/>
       <c r="I358" s="1"/>
       <c r="J358" s="1"/>
     </row>
-    <row r="359" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B359" s="21"/>
-      <c r="C359" s="21"/>
-      <c r="D359" s="21"/>
-      <c r="E359" s="22"/>
-      <c r="F359" s="21"/>
-      <c r="G359" s="104"/>
-      <c r="H359" s="104"/>
+    <row r="359" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B359" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C359" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="D359" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E359" s="29">
+        <v>4</v>
+      </c>
+      <c r="F359" s="30">
+        <v>0</v>
+      </c>
+      <c r="G359" s="1"/>
+      <c r="H359" s="1"/>
       <c r="I359" s="1"/>
       <c r="J359" s="1"/>
     </row>
-    <row r="360" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B360" s="21"/>
-      <c r="C360" s="21"/>
-      <c r="D360" s="21"/>
-      <c r="E360" s="22"/>
-      <c r="F360" s="21"/>
-      <c r="G360" s="104"/>
+    <row r="360" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B360" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C360" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="D360" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E360" s="29">
+        <v>1</v>
+      </c>
+      <c r="F360" s="30">
+        <v>0</v>
+      </c>
+      <c r="G360" s="1"/>
       <c r="H360" s="1"/>
       <c r="I360" s="1"/>
       <c r="J360" s="1"/>
     </row>
-    <row r="361" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B361" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C361" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="D361" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E361" s="29">
-        <v>4</v>
-      </c>
-      <c r="F361" s="30">
-        <v>0</v>
-      </c>
+    <row r="361" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B361" s="28"/>
+      <c r="C361" s="28"/>
+      <c r="D361" s="28"/>
+      <c r="E361" s="29"/>
+      <c r="F361" s="30"/>
       <c r="G361" s="1"/>
       <c r="H361" s="1"/>
       <c r="I361" s="1"/>
       <c r="J361" s="1"/>
     </row>
-    <row r="362" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B362" s="28" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C362" s="28" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D362" s="28" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E362" s="29">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="F362" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G362" s="1"/>
       <c r="H362" s="1"/>
       <c r="I362" s="1"/>
       <c r="J362" s="1"/>
     </row>
-    <row r="363" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B363" s="28"/>
-      <c r="C363" s="28"/>
-      <c r="D363" s="28"/>
-      <c r="E363" s="29"/>
-      <c r="F363" s="30"/>
+    <row r="363" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B363" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C363" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="D363" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E363" s="29">
+        <v>4</v>
+      </c>
+      <c r="F363" s="30">
+        <v>1</v>
+      </c>
       <c r="G363" s="1"/>
-      <c r="H363" s="1"/>
-      <c r="I363" s="1"/>
+      <c r="H363" s="104"/>
+      <c r="I363" s="1">
+        <v>1</v>
+      </c>
       <c r="J363" s="1"/>
     </row>
-    <row r="364" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B364" s="28" t="s">
+    <row r="364" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B364" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="C364" s="28" t="s">
-        <v>252</v>
-      </c>
-      <c r="D364" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E364" s="29">
-        <v>32</v>
-      </c>
-      <c r="F364" s="30">
-        <v>1</v>
-      </c>
-      <c r="G364" s="1"/>
-      <c r="H364" s="1"/>
+      <c r="C364" s="108" t="s">
+        <v>176</v>
+      </c>
+      <c r="D364" s="108" t="s">
+        <v>122</v>
+      </c>
+      <c r="E364" s="109">
+        <v>1</v>
+      </c>
+      <c r="F364" s="110">
+        <v>0</v>
+      </c>
+      <c r="G364" s="104" t="s">
+        <v>292</v>
+      </c>
+      <c r="H364" s="104">
+        <v>45904</v>
+      </c>
       <c r="I364" s="1"/>
       <c r="J364" s="1"/>
     </row>
-    <row r="365" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B365" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C365" s="28" t="s">
-        <v>253</v>
+        <v>415</v>
       </c>
       <c r="D365" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="E365" s="29">
-        <v>4</v>
+        <v>152</v>
+      </c>
+      <c r="E365" s="29" t="s">
+        <v>291</v>
       </c>
       <c r="F365" s="30">
         <v>0</v>
       </c>
-      <c r="G365" s="1"/>
+      <c r="G365" s="104">
+        <v>45904</v>
+      </c>
       <c r="H365" s="104"/>
       <c r="I365" s="1"/>
       <c r="J365" s="1"/>
     </row>
-    <row r="366" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B366" s="108" t="s">
-        <v>16</v>
-      </c>
-      <c r="C366" s="108" t="s">
-        <v>176</v>
-      </c>
-      <c r="D366" s="108" t="s">
-        <v>122</v>
-      </c>
-      <c r="E366" s="109">
-        <v>1</v>
-      </c>
-      <c r="F366" s="110">
-        <v>0</v>
-      </c>
-      <c r="G366" s="104" t="s">
-        <v>292</v>
-      </c>
-      <c r="H366" s="104">
-        <v>45904</v>
-      </c>
+    <row r="366" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B366" s="28"/>
+      <c r="C366" s="28"/>
+      <c r="D366" s="28"/>
+      <c r="E366" s="29"/>
+      <c r="F366" s="30"/>
+      <c r="G366" s="104"/>
+      <c r="H366" s="1"/>
       <c r="I366" s="1"/>
       <c r="J366" s="1"/>
     </row>
-    <row r="367" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B367" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C367" s="28" t="s">
-        <v>415</v>
-      </c>
-      <c r="D367" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="E367" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="F367" s="30">
-        <v>0</v>
-      </c>
-      <c r="G367" s="104">
-        <v>45904</v>
-      </c>
+    <row r="367" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B367" s="28"/>
+      <c r="C367" s="28"/>
+      <c r="D367" s="28"/>
+      <c r="E367" s="29"/>
+      <c r="F367" s="30"/>
+      <c r="G367" s="1"/>
       <c r="H367" s="104"/>
       <c r="I367" s="1"/>
       <c r="J367" s="1"/>
     </row>
-    <row r="368" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B368" s="28"/>
-      <c r="C368" s="28"/>
-      <c r="D368" s="28"/>
-      <c r="E368" s="29"/>
-      <c r="F368" s="30"/>
-      <c r="G368" s="104"/>
-      <c r="H368" s="1"/>
+    <row r="368" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B368" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C368" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D368" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E368" s="29">
+        <v>27</v>
+      </c>
+      <c r="F368" s="30">
+        <v>2</v>
+      </c>
+      <c r="G368" s="1"/>
+      <c r="H368" s="104"/>
       <c r="I368" s="1"/>
       <c r="J368" s="1"/>
     </row>
-    <row r="369" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B369" s="28"/>
-      <c r="C369" s="28"/>
-      <c r="D369" s="28"/>
-      <c r="E369" s="29"/>
-      <c r="F369" s="30"/>
-      <c r="G369" s="1"/>
+    <row r="369" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B369" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C369" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="D369" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="E369" s="29">
+        <v>12</v>
+      </c>
+      <c r="F369" s="30">
+        <v>2</v>
+      </c>
+      <c r="G369" s="104"/>
       <c r="H369" s="104"/>
       <c r="I369" s="1"/>
       <c r="J369" s="1"/>
     </row>
-    <row r="370" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B370" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C370" s="28" t="s">
-        <v>93</v>
+        <v>255</v>
       </c>
       <c r="D370" s="28" t="s">
-        <v>116</v>
+        <v>433</v>
       </c>
       <c r="E370" s="29">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="F370" s="30">
         <v>2</v>
       </c>
-      <c r="G370" s="1"/>
-      <c r="H370" s="104"/>
+      <c r="G370" s="104"/>
+      <c r="H370" s="1"/>
       <c r="I370" s="1"/>
       <c r="J370" s="1"/>
     </row>
-    <row r="371" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B371" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C371" s="28" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D371" s="28" t="s">
-        <v>173</v>
+        <v>257</v>
       </c>
       <c r="E371" s="29">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F371" s="30">
-        <v>2</v>
-      </c>
-      <c r="G371" s="104"/>
+        <v>0</v>
+      </c>
+      <c r="G371" s="1"/>
       <c r="H371" s="104"/>
       <c r="I371" s="1"/>
       <c r="J371" s="1"/>
     </row>
-    <row r="372" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B372" s="28" t="s">
+    <row r="372" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B372" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C372" s="28" t="s">
-        <v>255</v>
-      </c>
-      <c r="D372" s="28" t="s">
-        <v>433</v>
-      </c>
-      <c r="E372" s="29">
-        <v>5</v>
-      </c>
-      <c r="F372" s="30">
-        <v>2</v>
-      </c>
-      <c r="G372" s="104"/>
-      <c r="H372" s="1"/>
+      <c r="C372" s="108" t="s">
+        <v>148</v>
+      </c>
+      <c r="D372" s="108" t="s">
+        <v>84</v>
+      </c>
+      <c r="E372" s="109">
+        <v>1</v>
+      </c>
+      <c r="F372" s="110">
+        <v>0</v>
+      </c>
+      <c r="G372" s="104" t="s">
+        <v>292</v>
+      </c>
+      <c r="H372" s="104">
+        <v>45890</v>
+      </c>
       <c r="I372" s="1"/>
       <c r="J372" s="1"/>
     </row>
-    <row r="373" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B373" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C373" s="28" t="s">
-        <v>256</v>
+        <v>409</v>
       </c>
       <c r="D373" s="28" t="s">
-        <v>257</v>
-      </c>
-      <c r="E373" s="29">
-        <v>1</v>
+        <v>161</v>
+      </c>
+      <c r="E373" s="29" t="s">
+        <v>291</v>
       </c>
       <c r="F373" s="30">
         <v>0</v>
       </c>
-      <c r="G373" s="1"/>
-      <c r="H373" s="104"/>
+      <c r="G373" s="104">
+        <v>45890</v>
+      </c>
+      <c r="H373" s="1"/>
       <c r="I373" s="1"/>
       <c r="J373" s="1"/>
     </row>
-    <row r="374" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B374" s="108" t="s">
-        <v>17</v>
-      </c>
-      <c r="C374" s="108" t="s">
-        <v>148</v>
-      </c>
-      <c r="D374" s="108" t="s">
-        <v>84</v>
-      </c>
-      <c r="E374" s="109">
-        <v>1</v>
-      </c>
-      <c r="F374" s="110">
-        <v>0</v>
-      </c>
-      <c r="G374" s="104" t="s">
-        <v>292</v>
-      </c>
-      <c r="H374" s="104">
-        <v>45890</v>
-      </c>
+    <row r="374" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B374" s="28"/>
+      <c r="C374" s="28"/>
+      <c r="D374" s="28"/>
+      <c r="E374" s="29"/>
+      <c r="F374" s="30"/>
+      <c r="G374" s="1"/>
+      <c r="H374" s="1"/>
       <c r="I374" s="1"/>
       <c r="J374" s="1"/>
     </row>
-    <row r="375" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B375" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C375" s="28" t="s">
-        <v>409</v>
-      </c>
-      <c r="D375" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="E375" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="F375" s="30">
-        <v>0</v>
-      </c>
-      <c r="G375" s="104">
-        <v>45890</v>
-      </c>
-      <c r="H375" s="1"/>
+    <row r="375" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B375" s="28"/>
+      <c r="C375" s="28"/>
+      <c r="D375" s="28"/>
+      <c r="E375" s="29"/>
+      <c r="F375" s="30"/>
+      <c r="G375" s="1"/>
+      <c r="H375" s="104"/>
       <c r="I375" s="1"/>
       <c r="J375" s="1"/>
     </row>
-    <row r="376" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="2:10" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B376" s="28"/>
       <c r="C376" s="28"/>
       <c r="D376" s="28"/>
       <c r="E376" s="29"/>
       <c r="F376" s="30"/>
-      <c r="G376" s="1"/>
+      <c r="G376" s="104"/>
       <c r="H376" s="1"/>
       <c r="I376" s="1"/>
       <c r="J376" s="1"/>
     </row>
-    <row r="377" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B377" s="28"/>
-      <c r="C377" s="28"/>
-      <c r="D377" s="28"/>
-      <c r="E377" s="29"/>
-      <c r="F377" s="30"/>
+    <row r="377" spans="2:10" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B377" s="33"/>
+      <c r="C377" s="33"/>
+      <c r="D377" s="34"/>
+      <c r="E377" s="35">
+        <f>SUM(E356:E376)</f>
+        <v>93</v>
+      </c>
+      <c r="F377" s="36">
+        <f>SUM(F359:F376)-SUM(F356:F358)</f>
+        <v>-1</v>
+      </c>
       <c r="G377" s="1"/>
-      <c r="H377" s="104"/>
+      <c r="H377" s="1"/>
       <c r="I377" s="1"/>
       <c r="J377" s="1"/>
     </row>
-    <row r="378" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B378" s="28"/>
-      <c r="C378" s="28"/>
-      <c r="D378" s="28"/>
-      <c r="E378" s="29"/>
-      <c r="F378" s="30"/>
-      <c r="G378" s="104"/>
-      <c r="H378" s="1"/>
-      <c r="I378" s="1"/>
-      <c r="J378" s="1"/>
-    </row>
-    <row r="379" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B379" s="33"/>
-      <c r="C379" s="33"/>
-      <c r="D379" s="34"/>
-      <c r="E379" s="35">
-        <f>SUM(E358:E378)</f>
-        <v>93</v>
-      </c>
-      <c r="F379" s="36">
-        <f>SUM(F361:F378)-SUM(F358:F360)</f>
-        <v>-1</v>
-      </c>
-      <c r="G379" s="1"/>
-      <c r="H379" s="1"/>
-      <c r="I379" s="1"/>
-      <c r="J379" s="1"/>
-    </row>
-    <row r="382" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B382" s="1"/>
-      <c r="C382" s="3" t="s">
+    <row r="380" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B380" s="1"/>
+      <c r="C380" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D382" s="3" t="s">
+      <c r="D380" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E382" s="2"/>
-      <c r="F382" s="1"/>
-    </row>
-    <row r="383" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B383" s="4"/>
-      <c r="C383" s="4"/>
-      <c r="D383" s="4"/>
-      <c r="E383" s="5"/>
-      <c r="F383" s="4"/>
-    </row>
-    <row r="384" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B384" s="6" t="s">
+      <c r="E380" s="2"/>
+      <c r="F380" s="1"/>
+    </row>
+    <row r="381" spans="2:10" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B381" s="4"/>
+      <c r="C381" s="4"/>
+      <c r="D381" s="4"/>
+      <c r="E381" s="5"/>
+      <c r="F381" s="4"/>
+    </row>
+    <row r="382" spans="2:10" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B382" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C384" s="6" t="s">
+      <c r="C382" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D384" s="6" t="s">
+      <c r="D382" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E384" s="6" t="s">
+      <c r="E382" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F384" s="6" t="s">
+      <c r="F382" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="385" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B385" s="12" t="s">
+    <row r="383" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B383" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C385" s="13"/>
-      <c r="D385" s="12"/>
-      <c r="E385" s="14"/>
-      <c r="F385" s="15"/>
-    </row>
-    <row r="386" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B386" s="21"/>
-      <c r="C386" s="21"/>
-      <c r="D386" s="21"/>
-      <c r="E386" s="22"/>
-      <c r="F386" s="21"/>
-    </row>
-    <row r="387" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B387" s="21"/>
-      <c r="C387" s="21"/>
-      <c r="D387" s="21"/>
-      <c r="E387" s="22"/>
-      <c r="F387" s="21"/>
-    </row>
-    <row r="388" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B388" s="28" t="s">
+      <c r="C383" s="13"/>
+      <c r="D383" s="12"/>
+      <c r="E383" s="14"/>
+      <c r="F383" s="15"/>
+    </row>
+    <row r="384" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B384" s="21"/>
+      <c r="C384" s="21"/>
+      <c r="D384" s="21"/>
+      <c r="E384" s="22"/>
+      <c r="F384" s="21"/>
+    </row>
+    <row r="385" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B385" s="21"/>
+      <c r="C385" s="21"/>
+      <c r="D385" s="21"/>
+      <c r="E385" s="22"/>
+      <c r="F385" s="21"/>
+    </row>
+    <row r="386" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B386" s="28" t="s">
         <v>14</v>
       </c>
+      <c r="C386" s="28"/>
+      <c r="D386" s="28"/>
+      <c r="E386" s="29"/>
+      <c r="F386" s="30"/>
+    </row>
+    <row r="387" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B387" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C387" s="28"/>
+      <c r="D387" s="28"/>
+      <c r="E387" s="29"/>
+      <c r="F387" s="30"/>
+    </row>
+    <row r="388" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B388" s="28"/>
       <c r="C388" s="28"/>
       <c r="D388" s="28"/>
       <c r="E388" s="29"/>
       <c r="F388" s="30"/>
     </row>
-    <row r="389" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B389" s="28" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C389" s="28"/>
       <c r="D389" s="28"/>
       <c r="E389" s="29"/>
       <c r="F389" s="30"/>
     </row>
-    <row r="390" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B390" s="28"/>
+    <row r="390" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B390" s="28" t="s">
+        <v>16</v>
+      </c>
       <c r="C390" s="28"/>
       <c r="D390" s="28"/>
       <c r="E390" s="29"/>
       <c r="F390" s="30"/>
     </row>
-    <row r="391" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B391" s="28" t="s">
         <v>16</v>
       </c>
@@ -12166,46 +12296,46 @@
       <c r="E391" s="29"/>
       <c r="F391" s="30"/>
     </row>
-    <row r="392" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B392" s="28" t="s">
-        <v>16</v>
-      </c>
+    <row r="392" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B392" s="28"/>
       <c r="C392" s="28"/>
       <c r="D392" s="28"/>
       <c r="E392" s="29"/>
       <c r="F392" s="30"/>
     </row>
-    <row r="393" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B393" s="28" t="s">
-        <v>16</v>
-      </c>
+    <row r="393" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B393" s="28"/>
       <c r="C393" s="28"/>
       <c r="D393" s="28"/>
       <c r="E393" s="29"/>
       <c r="F393" s="30"/>
     </row>
-    <row r="394" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B394" s="28"/>
       <c r="C394" s="28"/>
       <c r="D394" s="28"/>
       <c r="E394" s="29"/>
       <c r="F394" s="30"/>
     </row>
-    <row r="395" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B395" s="28"/>
+    <row r="395" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B395" s="28" t="s">
+        <v>17</v>
+      </c>
       <c r="C395" s="28"/>
       <c r="D395" s="28"/>
       <c r="E395" s="29"/>
       <c r="F395" s="30"/>
     </row>
-    <row r="396" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B396" s="28"/>
+    <row r="396" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B396" s="28" t="s">
+        <v>17</v>
+      </c>
       <c r="C396" s="28"/>
       <c r="D396" s="28"/>
       <c r="E396" s="29"/>
       <c r="F396" s="30"/>
     </row>
-    <row r="397" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B397" s="28" t="s">
         <v>17</v>
       </c>
@@ -12214,7 +12344,7 @@
       <c r="E397" s="29"/>
       <c r="F397" s="30"/>
     </row>
-    <row r="398" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B398" s="28" t="s">
         <v>17</v>
       </c>
@@ -12223,7 +12353,7 @@
       <c r="E398" s="29"/>
       <c r="F398" s="30"/>
     </row>
-    <row r="399" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B399" s="28" t="s">
         <v>17</v>
       </c>
@@ -12232,62 +12362,44 @@
       <c r="E399" s="29"/>
       <c r="F399" s="30"/>
     </row>
-    <row r="400" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B400" s="28" t="s">
-        <v>17</v>
-      </c>
+    <row r="400" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B400" s="28"/>
       <c r="C400" s="28"/>
       <c r="D400" s="28"/>
       <c r="E400" s="29"/>
       <c r="F400" s="30"/>
     </row>
-    <row r="401" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B401" s="28" t="s">
-        <v>17</v>
-      </c>
+    <row r="401" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B401" s="28"/>
       <c r="C401" s="28"/>
       <c r="D401" s="28"/>
       <c r="E401" s="29"/>
       <c r="F401" s="30"/>
     </row>
-    <row r="402" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B402" s="28"/>
       <c r="C402" s="28"/>
       <c r="D402" s="28"/>
       <c r="E402" s="29"/>
       <c r="F402" s="30"/>
     </row>
-    <row r="403" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="2:6" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B403" s="28"/>
       <c r="C403" s="28"/>
       <c r="D403" s="28"/>
       <c r="E403" s="29"/>
       <c r="F403" s="30"/>
     </row>
-    <row r="404" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B404" s="28"/>
-      <c r="C404" s="28"/>
-      <c r="D404" s="28"/>
-      <c r="E404" s="29"/>
-      <c r="F404" s="30"/>
-    </row>
-    <row r="405" spans="2:6" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B405" s="28"/>
-      <c r="C405" s="28"/>
-      <c r="D405" s="28"/>
-      <c r="E405" s="29"/>
-      <c r="F405" s="30"/>
-    </row>
-    <row r="406" spans="2:6" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B406" s="33"/>
-      <c r="C406" s="33"/>
-      <c r="D406" s="34"/>
-      <c r="E406" s="35">
-        <f>SUM(E385:E405)</f>
+    <row r="404" spans="2:6" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B404" s="33"/>
+      <c r="C404" s="33"/>
+      <c r="D404" s="34"/>
+      <c r="E404" s="35">
+        <f>SUM(E383:E403)</f>
         <v>0</v>
       </c>
-      <c r="F406" s="36">
-        <f>SUM(F388:F405)-SUM(F385:F387)</f>
+      <c r="F404" s="36">
+        <f>SUM(F386:F403)-SUM(F383:F385)</f>
         <v>0</v>
       </c>
     </row>
@@ -12322,22 +12434,22 @@
   </sheetPr>
   <dimension ref="A1:IV22"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="38" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" style="38" customWidth="1"/>
+    <col min="1" max="1" width="1.296875" style="38" customWidth="1"/>
+    <col min="2" max="2" width="11.796875" style="38" customWidth="1"/>
     <col min="3" max="3" width="31" style="38" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="38" customWidth="1"/>
+    <col min="4" max="4" width="35.296875" style="38" customWidth="1"/>
     <col min="5" max="6" width="9" style="38" customWidth="1"/>
     <col min="7" max="7" width="11" style="38" customWidth="1"/>
     <col min="8" max="256" width="9" style="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -12354,7 +12466,7 @@
       </c>
       <c r="K1" s="41"/>
     </row>
-    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40"/>
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
@@ -12369,7 +12481,7 @@
       <c r="J2" s="41"/>
       <c r="K2" s="41"/>
     </row>
-    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="40"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -12382,7 +12494,7 @@
       <c r="J3" s="41"/>
       <c r="K3" s="41"/>
     </row>
-    <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="40"/>
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
@@ -12397,7 +12509,7 @@
       <c r="J4" s="41"/>
       <c r="K4" s="41"/>
     </row>
-    <row r="5" spans="1:11" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="40"/>
       <c r="B5" s="45"/>
       <c r="C5" s="45"/>
@@ -12410,7 +12522,7 @@
       <c r="J5" s="41"/>
       <c r="K5" s="41"/>
     </row>
-    <row r="6" spans="1:11" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="14.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="47"/>
       <c r="B6" s="48" t="s">
         <v>3</v>
@@ -12435,7 +12547,7 @@
       <c r="J6" s="41"/>
       <c r="K6" s="41"/>
     </row>
-    <row r="7" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="47"/>
       <c r="B7" s="54">
         <v>1</v>
@@ -12460,22 +12572,22 @@
       <c r="J7" s="41"/>
       <c r="K7" s="41"/>
     </row>
-    <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="47"/>
       <c r="B8" s="54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="24" t="s">
         <v>202</v>
       </c>
       <c r="E8" s="25">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F8" s="26">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G8" s="27">
         <v>3</v>
@@ -12483,49 +12595,49 @@
       <c r="H8" s="52"/>
       <c r="I8" s="41"/>
       <c r="J8" s="41"/>
-      <c r="K8" s="53"/>
-    </row>
-    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K8" s="41"/>
+    </row>
+    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="47"/>
       <c r="B9" s="54">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="55" t="s">
         <v>207</v>
       </c>
       <c r="E9" s="25">
-        <v>7</v>
-      </c>
-      <c r="F9" s="26">
-        <v>16</v>
-      </c>
-      <c r="G9" s="27">
         <v>9</v>
+      </c>
+      <c r="F9" s="56">
+        <v>19</v>
+      </c>
+      <c r="G9" s="57">
+        <v>10</v>
       </c>
       <c r="H9" s="52"/>
       <c r="I9" s="41"/>
       <c r="J9" s="41"/>
       <c r="K9" s="41"/>
     </row>
-    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="47"/>
       <c r="B10" s="54">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="E10" s="25">
         <v>6</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="25">
-        <v>4</v>
-      </c>
       <c r="F10" s="26">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G10" s="27">
         <v>7</v>
@@ -12535,47 +12647,47 @@
       <c r="J10" s="41"/>
       <c r="K10" s="41"/>
     </row>
-    <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="47"/>
       <c r="B11" s="54">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="25">
+        <v>4</v>
+      </c>
+      <c r="F11" s="26">
+        <v>13</v>
+      </c>
+      <c r="G11" s="27">
         <v>9</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="55" t="s">
-        <v>273</v>
-      </c>
-      <c r="E11" s="25">
-        <v>3</v>
-      </c>
-      <c r="F11" s="56">
-        <v>9</v>
-      </c>
-      <c r="G11" s="57">
-        <v>6</v>
       </c>
       <c r="H11" s="52"/>
       <c r="I11" s="41"/>
       <c r="J11" s="41"/>
       <c r="K11" s="41"/>
     </row>
-    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="47"/>
       <c r="B12" s="54">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>192</v>
+        <v>248</v>
       </c>
       <c r="E12" s="25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F12" s="26">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G12" s="27">
         <v>4</v>
@@ -12585,49 +12697,49 @@
       <c r="J12" s="41"/>
       <c r="K12" s="41"/>
     </row>
-    <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="47"/>
       <c r="B13" s="54">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>15</v>
+        <v>99</v>
+      </c>
+      <c r="D13" s="55" t="s">
+        <v>237</v>
       </c>
       <c r="E13" s="25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13" s="26">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G13" s="27">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H13" s="52"/>
       <c r="I13" s="41"/>
       <c r="J13" s="41"/>
       <c r="K13" s="41"/>
     </row>
-    <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="47"/>
       <c r="B14" s="54">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>35</v>
+        <v>119</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>142</v>
       </c>
       <c r="E14" s="25">
-        <v>1</v>
-      </c>
-      <c r="F14" s="26">
-        <v>7</v>
-      </c>
-      <c r="G14" s="27">
+        <v>3</v>
+      </c>
+      <c r="F14" s="56">
+        <v>9</v>
+      </c>
+      <c r="G14" s="57">
         <v>6</v>
       </c>
       <c r="H14" s="52"/>
@@ -12635,22 +12747,22 @@
       <c r="J14" s="41"/>
       <c r="K14" s="41"/>
     </row>
-    <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="47"/>
       <c r="B15" s="54">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="E15" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="26">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G15" s="27">
         <v>6</v>
@@ -12660,85 +12772,85 @@
       <c r="J15" s="41"/>
       <c r="K15" s="41"/>
     </row>
-    <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="47"/>
       <c r="B16" s="54">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="55" t="s">
-        <v>248</v>
+        <v>53</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>54</v>
       </c>
       <c r="E16" s="25">
-        <v>0</v>
-      </c>
-      <c r="F16" s="56">
-        <v>4</v>
-      </c>
-      <c r="G16" s="57">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="F16" s="26">
+        <v>5</v>
+      </c>
+      <c r="G16" s="27">
+        <v>3</v>
       </c>
       <c r="H16" s="52"/>
       <c r="I16" s="41"/>
       <c r="J16" s="41"/>
       <c r="K16" s="41"/>
     </row>
-    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="47"/>
       <c r="B17" s="54">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="D17" s="55" t="s">
-        <v>54</v>
+        <v>192</v>
       </c>
       <c r="E17" s="25">
         <v>0</v>
       </c>
-      <c r="F17" s="56">
-        <v>3</v>
-      </c>
-      <c r="G17" s="57">
-        <v>3</v>
+      <c r="F17" s="26">
+        <v>7</v>
+      </c>
+      <c r="G17" s="27">
+        <v>7</v>
       </c>
       <c r="H17" s="52"/>
       <c r="I17" s="41"/>
       <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-    </row>
-    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K17" s="53"/>
+    </row>
+    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="47"/>
       <c r="B18" s="54">
         <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>237</v>
+        <v>15</v>
       </c>
       <c r="E18" s="25">
         <v>-1</v>
       </c>
       <c r="F18" s="26">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G18" s="27">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H18" s="52"/>
       <c r="I18" s="41"/>
       <c r="J18" s="41"/>
       <c r="K18" s="41"/>
     </row>
-    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="47"/>
       <c r="B19" s="54">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>249</v>
@@ -12750,42 +12862,42 @@
         <v>-1</v>
       </c>
       <c r="F19" s="26">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G19" s="27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H19" s="52"/>
       <c r="I19" s="41"/>
       <c r="J19" s="41"/>
       <c r="K19" s="41"/>
     </row>
-    <row r="20" spans="1:11" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="47"/>
       <c r="B20" s="54">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="55" t="s">
         <v>226</v>
       </c>
       <c r="E20" s="25">
-        <v>-5</v>
-      </c>
-      <c r="F20" s="26">
+        <v>-10</v>
+      </c>
+      <c r="F20" s="56">
         <v>4</v>
       </c>
-      <c r="G20" s="27">
-        <v>9</v>
+      <c r="G20" s="57">
+        <v>14</v>
       </c>
       <c r="H20" s="52"/>
       <c r="I20" s="41"/>
       <c r="J20" s="41"/>
       <c r="K20" s="41"/>
     </row>
-    <row r="21" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
       <c r="B21" s="59"/>
       <c r="C21" s="59"/>
@@ -12798,7 +12910,7 @@
       <c r="J21" s="41"/>
       <c r="K21" s="41"/>
     </row>
-    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
       <c r="B22" s="40"/>
       <c r="C22" s="40"/>
@@ -12828,21 +12940,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IW29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:R29"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" style="38" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" style="38" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="38" customWidth="1"/>
-    <col min="5" max="5" width="31.33203125" style="38" customWidth="1"/>
-    <col min="6" max="7" width="9.33203125" style="38" customWidth="1"/>
-    <col min="8" max="257" width="8.83203125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="33.296875" style="38" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="9.296875" style="38" customWidth="1"/>
+    <col min="5" max="5" width="31.296875" style="38" customWidth="1"/>
+    <col min="6" max="7" width="9.296875" style="38" customWidth="1"/>
+    <col min="8" max="257" width="8.796875" style="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="62" t="s">
         <v>259</v>
       </c>
@@ -12852,7 +12964,7 @@
       <c r="F1" s="40"/>
       <c r="G1" s="40"/>
     </row>
-    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
@@ -12860,7 +12972,7 @@
       <c r="F2" s="40"/>
       <c r="G2" s="40"/>
     </row>
-    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="63" t="s">
         <v>39</v>
       </c>
@@ -12870,7 +12982,7 @@
       <c r="F3" s="40"/>
       <c r="G3" s="40"/>
     </row>
-    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="67" t="s">
         <v>43</v>
       </c>
@@ -12881,7 +12993,7 @@
       <c r="F4" s="68"/>
       <c r="G4" s="64"/>
     </row>
-    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="67" t="s">
         <v>44</v>
       </c>
@@ -12892,7 +13004,7 @@
       <c r="F5" s="68"/>
       <c r="G5" s="64"/>
     </row>
-    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="67" t="s">
         <v>45</v>
       </c>
@@ -12903,7 +13015,7 @@
       <c r="F6" s="68"/>
       <c r="G6" s="64"/>
     </row>
-    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="67" t="s">
         <v>46</v>
       </c>
@@ -12914,7 +13026,7 @@
       <c r="F7" s="68"/>
       <c r="G7" s="64"/>
     </row>
-    <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="67" t="s">
         <v>47</v>
       </c>
@@ -12925,7 +13037,7 @@
       <c r="F8" s="68"/>
       <c r="G8" s="64"/>
     </row>
-    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="67" t="s">
         <v>48</v>
       </c>
@@ -12936,7 +13048,7 @@
       <c r="F9" s="68"/>
       <c r="G9" s="64"/>
     </row>
-    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="67"/>
       <c r="B10" s="65"/>
       <c r="C10" s="65"/>
@@ -12945,7 +13057,7 @@
       <c r="F10" s="40"/>
       <c r="G10" s="61"/>
     </row>
-    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="67"/>
       <c r="B11" s="63" t="s">
         <v>63</v>
@@ -12956,7 +13068,7 @@
       <c r="F11" s="68"/>
       <c r="G11" s="64"/>
     </row>
-    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="67" t="s">
         <v>49</v>
       </c>
@@ -12967,7 +13079,7 @@
       <c r="F12" s="69"/>
       <c r="G12" s="100"/>
     </row>
-    <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="67" t="s">
         <v>50</v>
       </c>
@@ -12978,7 +13090,7 @@
       <c r="F13" s="68"/>
       <c r="G13" s="64"/>
     </row>
-    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="67" t="s">
         <v>51</v>
       </c>
@@ -12989,7 +13101,7 @@
       <c r="F14" s="69"/>
       <c r="G14" s="100"/>
     </row>
-    <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="67" t="s">
         <v>64</v>
       </c>
@@ -13000,7 +13112,7 @@
       <c r="F15" s="68"/>
       <c r="G15" s="64"/>
     </row>
-    <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="67"/>
       <c r="B16" s="65"/>
       <c r="C16" s="68"/>
@@ -13009,7 +13121,7 @@
       <c r="F16" s="68"/>
       <c r="G16" s="64"/>
     </row>
-    <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="67"/>
       <c r="B17" s="63" t="s">
         <v>108</v>
@@ -13020,7 +13132,7 @@
       <c r="F17" s="69"/>
       <c r="G17" s="100"/>
     </row>
-    <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="67" t="s">
         <v>77</v>
       </c>
@@ -13031,7 +13143,7 @@
       <c r="F18" s="68"/>
       <c r="G18" s="64"/>
     </row>
-    <row r="19" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="63"/>
       <c r="C19" s="64"/>
       <c r="D19" s="64"/>
@@ -13039,7 +13151,7 @@
       <c r="F19" s="66"/>
       <c r="G19" s="40"/>
     </row>
-    <row r="20" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="65"/>
       <c r="C20" s="64"/>
       <c r="D20" s="61"/>
@@ -13047,7 +13159,7 @@
       <c r="F20" s="66"/>
       <c r="G20" s="40"/>
     </row>
-    <row r="21" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="63" t="s">
         <v>40</v>
       </c>
@@ -13057,7 +13169,7 @@
       <c r="F21" s="66"/>
       <c r="G21" s="40"/>
     </row>
-    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="67" t="s">
         <v>78</v>
       </c>
@@ -13068,7 +13180,7 @@
       <c r="F22" s="68"/>
       <c r="G22" s="64"/>
     </row>
-    <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="67" t="s">
         <v>79</v>
       </c>
@@ -13079,7 +13191,7 @@
       <c r="F23" s="69"/>
       <c r="G23" s="100"/>
     </row>
-    <row r="24" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="65"/>
       <c r="C24" s="65"/>
       <c r="D24" s="64"/>
@@ -13087,7 +13199,7 @@
       <c r="F24" s="40"/>
       <c r="G24" s="40"/>
     </row>
-    <row r="25" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="63" t="s">
         <v>41</v>
       </c>
@@ -13097,7 +13209,7 @@
       <c r="F25" s="40"/>
       <c r="G25" s="40"/>
     </row>
-    <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="67" t="s">
         <v>112</v>
       </c>
@@ -13108,7 +13220,7 @@
       <c r="F26" s="69"/>
       <c r="G26" s="100"/>
     </row>
-    <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="40"/>
       <c r="C27" s="40"/>
       <c r="D27" s="64"/>
@@ -13116,7 +13228,7 @@
       <c r="F27" s="40"/>
       <c r="G27" s="40"/>
     </row>
-    <row r="28" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="63" t="s">
         <v>42</v>
       </c>
@@ -13127,7 +13239,7 @@
       <c r="G28" s="40"/>
       <c r="K28" s="98"/>
     </row>
-    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="65"/>
       <c r="C29" s="40"/>
       <c r="D29" s="40"/>
@@ -13150,19 +13262,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA85496-96FC-4E57-B88C-D037E5ADD8C6}">
-  <dimension ref="A1:X68"/>
+  <dimension ref="A1:X71"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="35.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.69921875" customWidth="1"/>
+    <col min="5" max="5" width="35.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B1" s="62" t="s">
         <v>289</v>
       </c>
@@ -13189,7 +13301,7 @@
       <c r="W1" s="38"/>
       <c r="X1" s="38"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
@@ -13214,7 +13326,7 @@
       <c r="W2" s="38"/>
       <c r="X2" s="38"/>
     </row>
-    <row r="3" spans="1:24" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B3" s="63" t="s">
         <v>39</v>
       </c>
@@ -13241,20 +13353,28 @@
       <c r="W3" s="38"/>
       <c r="X3" s="38"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="67" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="68" t="s">
         <v>248</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="64"/>
+      <c r="C4" s="64">
+        <v>4</v>
+      </c>
+      <c r="D4" s="64" t="s">
+        <v>445</v>
+      </c>
       <c r="E4" s="68" t="s">
         <v>420</v>
       </c>
-      <c r="F4" s="68"/>
-      <c r="G4" s="64"/>
+      <c r="F4" s="64">
+        <v>-1</v>
+      </c>
+      <c r="G4" s="64" t="s">
+        <v>450</v>
+      </c>
       <c r="H4" s="38"/>
       <c r="I4" s="38"/>
       <c r="J4" s="98" t="s">
@@ -13275,20 +13395,28 @@
       <c r="W4" s="38"/>
       <c r="X4" s="38"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="67" t="s">
         <v>44</v>
       </c>
       <c r="B5" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="105"/>
-      <c r="D5" s="64"/>
+      <c r="C5" s="64">
+        <v>1</v>
+      </c>
+      <c r="D5" s="64" t="s">
+        <v>443</v>
+      </c>
       <c r="E5" s="68" t="s">
         <v>421</v>
       </c>
-      <c r="F5" s="68"/>
-      <c r="G5" s="64"/>
+      <c r="F5" s="64">
+        <v>0</v>
+      </c>
+      <c r="G5" s="64" t="s">
+        <v>449</v>
+      </c>
       <c r="H5" s="38"/>
       <c r="I5" s="38"/>
       <c r="J5" s="98" t="s">
@@ -13309,20 +13437,28 @@
       <c r="W5" s="38"/>
       <c r="X5" s="38"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="67" t="s">
         <v>45</v>
       </c>
       <c r="B6" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="64"/>
+      <c r="C6" s="64">
+        <v>1</v>
+      </c>
+      <c r="D6" s="64" t="s">
+        <v>443</v>
+      </c>
       <c r="E6" s="68" t="s">
         <v>422</v>
       </c>
-      <c r="F6" s="68"/>
-      <c r="G6" s="64"/>
+      <c r="F6" s="64">
+        <v>0</v>
+      </c>
+      <c r="G6" s="64" t="s">
+        <v>446</v>
+      </c>
       <c r="H6" s="38"/>
       <c r="I6" s="38"/>
       <c r="J6" s="98" t="s">
@@ -13343,20 +13479,28 @@
       <c r="W6" s="38"/>
       <c r="X6" s="38"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="67" t="s">
         <v>46</v>
       </c>
       <c r="B7" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="64"/>
+      <c r="C7" s="64">
+        <v>2</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>441</v>
+      </c>
       <c r="E7" s="68" t="s">
         <v>423</v>
       </c>
-      <c r="F7" s="68"/>
-      <c r="G7" s="64"/>
+      <c r="F7" s="64">
+        <v>1</v>
+      </c>
+      <c r="G7" s="64" t="s">
+        <v>444</v>
+      </c>
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
       <c r="J7" s="98" t="s">
@@ -13377,20 +13521,28 @@
       <c r="W7" s="38"/>
       <c r="X7" s="38"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="67" t="s">
         <v>47</v>
       </c>
       <c r="B8" s="68" t="s">
         <v>250</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="64"/>
+      <c r="C8" s="64">
+        <v>0</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>446</v>
+      </c>
       <c r="E8" s="68" t="s">
         <v>424</v>
       </c>
-      <c r="F8" s="68"/>
-      <c r="G8" s="64"/>
+      <c r="F8" s="64">
+        <v>2</v>
+      </c>
+      <c r="G8" s="64" t="s">
+        <v>441</v>
+      </c>
       <c r="H8" s="38"/>
       <c r="I8" s="38"/>
       <c r="J8" s="98" t="s">
@@ -13411,20 +13563,28 @@
       <c r="W8" s="38"/>
       <c r="X8" s="38"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="67" t="s">
         <v>48</v>
       </c>
       <c r="B9" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="64"/>
+      <c r="C9" s="64">
+        <v>-2</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>442</v>
+      </c>
       <c r="E9" s="68" t="s">
         <v>425</v>
       </c>
-      <c r="F9" s="68"/>
-      <c r="G9" s="64"/>
+      <c r="F9" s="64">
+        <v>1</v>
+      </c>
+      <c r="G9" s="64" t="s">
+        <v>443</v>
+      </c>
       <c r="H9" s="38"/>
       <c r="I9" s="38"/>
       <c r="J9" s="98" t="s">
@@ -13445,20 +13605,28 @@
       <c r="W9" s="38"/>
       <c r="X9" s="38"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="67" t="s">
         <v>49</v>
       </c>
       <c r="B10" s="68" t="s">
         <v>273</v>
       </c>
-      <c r="C10" s="68"/>
-      <c r="D10" s="64"/>
+      <c r="C10" s="64">
+        <v>1</v>
+      </c>
+      <c r="D10" s="64" t="s">
+        <v>444</v>
+      </c>
       <c r="E10" s="68" t="s">
         <v>426</v>
       </c>
-      <c r="F10" s="68"/>
-      <c r="G10" s="64"/>
+      <c r="F10" s="64">
+        <v>1</v>
+      </c>
+      <c r="G10" s="64" t="s">
+        <v>448</v>
+      </c>
       <c r="H10" s="38"/>
       <c r="I10" s="38"/>
       <c r="J10" s="98" t="s">
@@ -13479,20 +13647,28 @@
       <c r="W10" s="38"/>
       <c r="X10" s="38"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="67" t="s">
         <v>50</v>
       </c>
       <c r="B11" s="68" t="s">
         <v>202</v>
       </c>
-      <c r="C11" s="68"/>
-      <c r="D11" s="64"/>
+      <c r="C11" s="64">
+        <v>2</v>
+      </c>
+      <c r="D11" s="64" t="s">
+        <v>441</v>
+      </c>
       <c r="E11" s="68" t="s">
         <v>427</v>
       </c>
-      <c r="F11" s="68"/>
-      <c r="G11" s="64"/>
+      <c r="F11" s="64">
+        <v>2</v>
+      </c>
+      <c r="G11" s="64" t="s">
+        <v>441</v>
+      </c>
       <c r="H11" s="38"/>
       <c r="I11" s="38"/>
       <c r="J11" s="38"/>
@@ -13511,20 +13687,28 @@
       <c r="W11" s="38"/>
       <c r="X11" s="38"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="67" t="s">
         <v>51</v>
       </c>
       <c r="B12" s="68" t="s">
         <v>428</v>
       </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="64"/>
+      <c r="C12" s="64">
+        <v>-2</v>
+      </c>
+      <c r="D12" s="64" t="s">
+        <v>442</v>
+      </c>
       <c r="E12" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="F12" s="68"/>
-      <c r="G12" s="64"/>
+      <c r="F12" s="64">
+        <v>-1</v>
+      </c>
+      <c r="G12" s="64" t="s">
+        <v>447</v>
+      </c>
       <c r="H12" s="38"/>
       <c r="I12" s="38"/>
       <c r="J12" s="38"/>
@@ -13543,20 +13727,28 @@
       <c r="W12" s="38"/>
       <c r="X12" s="38"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="67" t="s">
         <v>64</v>
       </c>
       <c r="B13" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="64"/>
+      <c r="C13" s="64">
+        <v>2</v>
+      </c>
+      <c r="D13" s="64" t="s">
+        <v>441</v>
+      </c>
       <c r="E13" s="68" t="s">
         <v>430</v>
       </c>
-      <c r="F13" s="68"/>
-      <c r="G13" s="64"/>
+      <c r="F13" s="64">
+        <v>1</v>
+      </c>
+      <c r="G13" s="64" t="s">
+        <v>443</v>
+      </c>
       <c r="H13" s="38"/>
       <c r="I13" s="38"/>
       <c r="J13" s="38"/>
@@ -13575,14 +13767,14 @@
       <c r="W13" s="38"/>
       <c r="X13" s="38"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="67"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="61"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
       <c r="J14" s="38"/>
@@ -13601,15 +13793,15 @@
       <c r="W14" s="38"/>
       <c r="X14" s="38"/>
     </row>
-    <row r="15" spans="1:24" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A15" s="67"/>
       <c r="B15" s="63" t="s">
-        <v>260</v>
-      </c>
-      <c r="C15" s="68"/>
+        <v>451</v>
+      </c>
+      <c r="C15" s="64"/>
       <c r="D15" s="64"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="64"/>
       <c r="G15" s="64"/>
       <c r="H15" s="38"/>
       <c r="I15" s="38"/>
@@ -13629,16 +13821,20 @@
       <c r="W15" s="38"/>
       <c r="X15" s="38"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="68"/>
+      <c r="B16" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="C16" s="64"/>
       <c r="D16" s="64"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="100"/>
+      <c r="E16" s="68" t="s">
+        <v>427</v>
+      </c>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
       <c r="H16" s="38"/>
       <c r="I16" s="38"/>
       <c r="J16" s="38"/>
@@ -13657,16 +13853,14 @@
       <c r="W16" s="38"/>
       <c r="X16" s="38"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A17" s="67" t="s">
-        <v>78</v>
-      </c>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A17" s="67"/>
       <c r="B17" s="65"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="64"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="61"/>
       <c r="H17" s="38"/>
       <c r="I17" s="38"/>
       <c r="J17" s="38"/>
@@ -13685,16 +13879,16 @@
       <c r="W17" s="38"/>
       <c r="X17" s="38"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A18" s="67" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" s="65"/>
+    <row r="18" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="67"/>
+      <c r="B18" s="63" t="s">
+        <v>260</v>
+      </c>
       <c r="C18" s="68"/>
       <c r="D18" s="64"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="100"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="64"/>
       <c r="H18" s="38"/>
       <c r="I18" s="38"/>
       <c r="J18" s="38"/>
@@ -13713,16 +13907,16 @@
       <c r="W18" s="38"/>
       <c r="X18" s="38"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="67" t="s">
-        <v>112</v>
-      </c>
-      <c r="B19" s="70"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="64"/>
+        <v>78</v>
+      </c>
+      <c r="B19" s="65"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="100"/>
       <c r="H19" s="38"/>
       <c r="I19" s="38"/>
       <c r="J19" s="38"/>
@@ -13741,13 +13935,13 @@
       <c r="W19" s="38"/>
       <c r="X19" s="38"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="67" t="s">
-        <v>261</v>
-      </c>
-      <c r="B20" s="70"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="100"/>
+        <v>79</v>
+      </c>
+      <c r="B20" s="65"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="64"/>
       <c r="E20" s="65"/>
       <c r="F20" s="68"/>
       <c r="G20" s="64"/>
@@ -13769,16 +13963,16 @@
       <c r="W20" s="38"/>
       <c r="X20" s="38"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="67" t="s">
-        <v>262</v>
-      </c>
-      <c r="B21" s="70"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="64"/>
+        <v>112</v>
+      </c>
+      <c r="B21" s="65"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="100"/>
       <c r="H21" s="38"/>
       <c r="I21" s="38"/>
       <c r="J21" s="38"/>
@@ -13797,9 +13991,9 @@
       <c r="W21" s="38"/>
       <c r="X21" s="38"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="67" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B22" s="70"/>
       <c r="C22" s="69"/>
@@ -13825,9 +14019,9 @@
       <c r="W22" s="38"/>
       <c r="X22" s="38"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="67" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B23" s="70"/>
       <c r="C23" s="69"/>
@@ -13853,11 +14047,13 @@
       <c r="W23" s="38"/>
       <c r="X23" s="38"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A24" s="67"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="64"/>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A24" s="67" t="s">
+        <v>263</v>
+      </c>
+      <c r="B24" s="70"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="100"/>
       <c r="E24" s="65"/>
       <c r="F24" s="68"/>
       <c r="G24" s="64"/>
@@ -13879,16 +14075,16 @@
       <c r="W24" s="38"/>
       <c r="X24" s="38"/>
     </row>
-    <row r="25" spans="1:24" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="67"/>
-      <c r="B25" s="63" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="68"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="100"/>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A25" s="67" t="s">
+        <v>264</v>
+      </c>
+      <c r="B25" s="70"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="64"/>
       <c r="H25" s="38"/>
       <c r="I25" s="38"/>
       <c r="J25" s="38"/>
@@ -13907,7 +14103,7 @@
       <c r="W25" s="38"/>
       <c r="X25" s="38"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="67" t="s">
         <v>265</v>
       </c>
@@ -13935,16 +14131,14 @@
       <c r="W26" s="38"/>
       <c r="X26" s="38"/>
     </row>
-    <row r="27" spans="1:24" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="67" t="s">
-        <v>266</v>
-      </c>
-      <c r="B27" s="63"/>
-      <c r="C27" s="64"/>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A27" s="67"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="68"/>
       <c r="D27" s="64"/>
       <c r="E27" s="65"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="40"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="64"/>
       <c r="H27" s="38"/>
       <c r="I27" s="38"/>
       <c r="J27" s="38"/>
@@ -13963,20 +14157,20 @@
       <c r="W27" s="38"/>
       <c r="X27" s="38"/>
     </row>
-    <row r="28" spans="1:24" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="67" t="s">
-        <v>267</v>
-      </c>
-      <c r="B28" s="63"/>
-      <c r="C28" s="64"/>
+    <row r="28" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="67"/>
+      <c r="B28" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="68"/>
       <c r="D28" s="64"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="40"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="100"/>
       <c r="H28" s="38"/>
       <c r="I28" s="38"/>
       <c r="J28" s="38"/>
-      <c r="K28" s="98"/>
+      <c r="K28" s="38"/>
       <c r="L28" s="38"/>
       <c r="M28" s="38"/>
       <c r="N28" s="38"/>
@@ -13987,20 +14181,20 @@
       <c r="S28" s="38"/>
       <c r="T28" s="38"/>
       <c r="U28" s="38"/>
-      <c r="V28" s="98"/>
+      <c r="V28" s="38"/>
       <c r="W28" s="38"/>
       <c r="X28" s="38"/>
     </row>
-    <row r="29" spans="1:24" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="67" t="s">
-        <v>268</v>
-      </c>
-      <c r="B29" s="63"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
+        <v>266</v>
+      </c>
+      <c r="B29" s="70"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="100"/>
       <c r="E29" s="65"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="40"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="64"/>
       <c r="H29" s="38"/>
       <c r="I29" s="38"/>
       <c r="J29" s="38"/>
@@ -14019,11 +14213,14 @@
       <c r="W29" s="38"/>
       <c r="X29" s="38"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B30" s="65"/>
+    <row r="30" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="B30" s="63"/>
       <c r="C30" s="64"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="40"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="65"/>
       <c r="F30" s="66"/>
       <c r="G30" s="40"/>
       <c r="H30" s="38"/>
@@ -14044,19 +14241,20 @@
       <c r="W30" s="38"/>
       <c r="X30" s="38"/>
     </row>
-    <row r="31" spans="1:24" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B31" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="66"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="40"/>
+    <row r="31" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="67" t="s">
+        <v>268</v>
+      </c>
+      <c r="B31" s="63"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="65"/>
       <c r="F31" s="66"/>
       <c r="G31" s="40"/>
       <c r="H31" s="38"/>
       <c r="I31" s="38"/>
       <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
+      <c r="K31" s="98"/>
       <c r="L31" s="38"/>
       <c r="M31" s="38"/>
       <c r="N31" s="38"/>
@@ -14067,20 +14265,20 @@
       <c r="S31" s="38"/>
       <c r="T31" s="38"/>
       <c r="U31" s="38"/>
-      <c r="V31" s="38"/>
+      <c r="V31" s="98"/>
       <c r="W31" s="38"/>
       <c r="X31" s="38"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A32" s="67" t="s">
         <v>269</v>
       </c>
-      <c r="B32" s="70"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="100"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
       <c r="E32" s="65"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="64"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="40"/>
       <c r="H32" s="38"/>
       <c r="I32" s="38"/>
       <c r="J32" s="38"/>
@@ -14099,16 +14297,13 @@
       <c r="W32" s="38"/>
       <c r="X32" s="38"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A33" s="67" t="s">
-        <v>270</v>
-      </c>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B33" s="65"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="69"/>
-      <c r="G33" s="100"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="40"/>
       <c r="H33" s="38"/>
       <c r="I33" s="38"/>
       <c r="J33" s="38"/>
@@ -14127,12 +14322,14 @@
       <c r="W33" s="38"/>
       <c r="X33" s="38"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="40"/>
+    <row r="34" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B34" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="66"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="66"/>
       <c r="G34" s="40"/>
       <c r="H34" s="38"/>
       <c r="I34" s="38"/>
@@ -14152,15 +14349,16 @@
       <c r="W34" s="38"/>
       <c r="X34" s="38"/>
     </row>
-    <row r="35" spans="1:24" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B35" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="65"/>
-      <c r="D35" s="64"/>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A35" s="67" t="s">
+        <v>270</v>
+      </c>
+      <c r="B35" s="70"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="100"/>
       <c r="E35" s="65"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="64"/>
       <c r="H35" s="38"/>
       <c r="I35" s="38"/>
       <c r="J35" s="38"/>
@@ -14179,7 +14377,7 @@
       <c r="W35" s="38"/>
       <c r="X35" s="38"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" s="67" t="s">
         <v>271</v>
       </c>
@@ -14207,11 +14405,11 @@
       <c r="W36" s="38"/>
       <c r="X36" s="38"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B37" s="40"/>
-      <c r="C37" s="40"/>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B37" s="65"/>
+      <c r="C37" s="65"/>
       <c r="D37" s="64"/>
-      <c r="E37" s="40"/>
+      <c r="E37" s="65"/>
       <c r="F37" s="40"/>
       <c r="G37" s="40"/>
       <c r="H37" s="38"/>
@@ -14232,13 +14430,13 @@
       <c r="W37" s="38"/>
       <c r="X37" s="38"/>
     </row>
-    <row r="38" spans="1:24" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B38" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
+        <v>41</v>
+      </c>
+      <c r="C38" s="65"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="65"/>
       <c r="F38" s="40"/>
       <c r="G38" s="40"/>
       <c r="H38" s="38"/>
@@ -14259,13 +14457,16 @@
       <c r="W38" s="38"/>
       <c r="X38" s="38"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A39" s="67" t="s">
+        <v>452</v>
+      </c>
       <c r="B39" s="65"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="40"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="100"/>
       <c r="H39" s="38"/>
       <c r="I39" s="38"/>
       <c r="J39" s="38"/>
@@ -14284,7 +14485,13 @@
       <c r="W39" s="38"/>
       <c r="X39" s="38"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
       <c r="H40" s="38"/>
       <c r="I40" s="38"/>
       <c r="J40" s="38"/>
@@ -14303,7 +14510,15 @@
       <c r="W40" s="38"/>
       <c r="X40" s="38"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B41" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
       <c r="H41" s="38"/>
       <c r="I41" s="38"/>
       <c r="J41" s="38"/>
@@ -14322,7 +14537,13 @@
       <c r="W41" s="38"/>
       <c r="X41" s="38"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B42" s="65"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
       <c r="H42" s="38"/>
       <c r="I42" s="38"/>
       <c r="J42" s="38"/>
@@ -14341,7 +14562,7 @@
       <c r="W42" s="38"/>
       <c r="X42" s="38"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="H43" s="38"/>
       <c r="I43" s="38"/>
       <c r="J43" s="38"/>
@@ -14360,7 +14581,7 @@
       <c r="W43" s="38"/>
       <c r="X43" s="38"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="H44" s="38"/>
       <c r="I44" s="38"/>
       <c r="J44" s="38"/>
@@ -14379,7 +14600,7 @@
       <c r="W44" s="38"/>
       <c r="X44" s="38"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="H45" s="38"/>
       <c r="I45" s="38"/>
       <c r="J45" s="38"/>
@@ -14398,7 +14619,7 @@
       <c r="W45" s="38"/>
       <c r="X45" s="38"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="H46" s="38"/>
       <c r="I46" s="38"/>
       <c r="J46" s="38"/>
@@ -14417,7 +14638,7 @@
       <c r="W46" s="38"/>
       <c r="X46" s="38"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="H47" s="38"/>
       <c r="I47" s="38"/>
       <c r="J47" s="38"/>
@@ -14436,7 +14657,7 @@
       <c r="W47" s="38"/>
       <c r="X47" s="38"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="H48" s="38"/>
       <c r="I48" s="38"/>
       <c r="J48" s="38"/>
@@ -14455,7 +14676,7 @@
       <c r="W48" s="38"/>
       <c r="X48" s="38"/>
     </row>
-    <row r="49" spans="8:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H49" s="38"/>
       <c r="I49" s="38"/>
       <c r="J49" s="38"/>
@@ -14474,7 +14695,7 @@
       <c r="W49" s="38"/>
       <c r="X49" s="38"/>
     </row>
-    <row r="50" spans="8:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H50" s="38"/>
       <c r="I50" s="38"/>
       <c r="J50" s="38"/>
@@ -14493,7 +14714,7 @@
       <c r="W50" s="38"/>
       <c r="X50" s="38"/>
     </row>
-    <row r="51" spans="8:24" x14ac:dyDescent="0.2">
+    <row r="51" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H51" s="38"/>
       <c r="I51" s="38"/>
       <c r="J51" s="38"/>
@@ -14512,7 +14733,7 @@
       <c r="W51" s="38"/>
       <c r="X51" s="38"/>
     </row>
-    <row r="52" spans="8:24" x14ac:dyDescent="0.2">
+    <row r="52" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H52" s="38"/>
       <c r="I52" s="38"/>
       <c r="J52" s="38"/>
@@ -14531,7 +14752,7 @@
       <c r="W52" s="38"/>
       <c r="X52" s="38"/>
     </row>
-    <row r="53" spans="8:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H53" s="38"/>
       <c r="I53" s="38"/>
       <c r="J53" s="38"/>
@@ -14550,7 +14771,7 @@
       <c r="W53" s="38"/>
       <c r="X53" s="38"/>
     </row>
-    <row r="54" spans="8:24" x14ac:dyDescent="0.2">
+    <row r="54" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H54" s="38"/>
       <c r="I54" s="38"/>
       <c r="J54" s="38"/>
@@ -14569,7 +14790,7 @@
       <c r="W54" s="38"/>
       <c r="X54" s="38"/>
     </row>
-    <row r="55" spans="8:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H55" s="38"/>
       <c r="I55" s="38"/>
       <c r="J55" s="38"/>
@@ -14588,7 +14809,7 @@
       <c r="W55" s="38"/>
       <c r="X55" s="38"/>
     </row>
-    <row r="56" spans="8:24" x14ac:dyDescent="0.2">
+    <row r="56" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H56" s="38"/>
       <c r="I56" s="38"/>
       <c r="J56" s="38"/>
@@ -14607,11 +14828,11 @@
       <c r="W56" s="38"/>
       <c r="X56" s="38"/>
     </row>
-    <row r="57" spans="8:24" x14ac:dyDescent="0.2">
+    <row r="57" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H57" s="38"/>
       <c r="I57" s="38"/>
       <c r="J57" s="38"/>
-      <c r="K57" s="98"/>
+      <c r="K57" s="38"/>
       <c r="L57" s="38"/>
       <c r="M57" s="38"/>
       <c r="N57" s="38"/>
@@ -14622,11 +14843,11 @@
       <c r="S57" s="38"/>
       <c r="T57" s="38"/>
       <c r="U57" s="38"/>
-      <c r="V57" s="98"/>
+      <c r="V57" s="38"/>
       <c r="W57" s="38"/>
       <c r="X57" s="38"/>
     </row>
-    <row r="58" spans="8:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H58" s="38"/>
       <c r="I58" s="38"/>
       <c r="J58" s="38"/>
@@ -14645,7 +14866,7 @@
       <c r="W58" s="38"/>
       <c r="X58" s="38"/>
     </row>
-    <row r="59" spans="8:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H59" s="38"/>
       <c r="I59" s="38"/>
       <c r="J59" s="38"/>
@@ -14664,11 +14885,11 @@
       <c r="W59" s="38"/>
       <c r="X59" s="38"/>
     </row>
-    <row r="60" spans="8:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H60" s="38"/>
       <c r="I60" s="38"/>
       <c r="J60" s="38"/>
-      <c r="K60" s="38"/>
+      <c r="K60" s="98"/>
       <c r="L60" s="38"/>
       <c r="M60" s="38"/>
       <c r="N60" s="38"/>
@@ -14679,11 +14900,11 @@
       <c r="S60" s="38"/>
       <c r="T60" s="38"/>
       <c r="U60" s="38"/>
-      <c r="V60" s="38"/>
+      <c r="V60" s="98"/>
       <c r="W60" s="38"/>
       <c r="X60" s="38"/>
     </row>
-    <row r="61" spans="8:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H61" s="38"/>
       <c r="I61" s="38"/>
       <c r="J61" s="38"/>
@@ -14702,7 +14923,7 @@
       <c r="W61" s="38"/>
       <c r="X61" s="38"/>
     </row>
-    <row r="62" spans="8:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H62" s="38"/>
       <c r="I62" s="38"/>
       <c r="J62" s="38"/>
@@ -14721,7 +14942,7 @@
       <c r="W62" s="38"/>
       <c r="X62" s="38"/>
     </row>
-    <row r="63" spans="8:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H63" s="38"/>
       <c r="I63" s="38"/>
       <c r="J63" s="38"/>
@@ -14740,7 +14961,7 @@
       <c r="W63" s="38"/>
       <c r="X63" s="38"/>
     </row>
-    <row r="64" spans="8:24" x14ac:dyDescent="0.2">
+    <row r="64" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H64" s="38"/>
       <c r="I64" s="38"/>
       <c r="J64" s="38"/>
@@ -14759,7 +14980,7 @@
       <c r="W64" s="38"/>
       <c r="X64" s="38"/>
     </row>
-    <row r="65" spans="8:24" x14ac:dyDescent="0.2">
+    <row r="65" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H65" s="38"/>
       <c r="I65" s="38"/>
       <c r="J65" s="38"/>
@@ -14778,7 +14999,7 @@
       <c r="W65" s="38"/>
       <c r="X65" s="38"/>
     </row>
-    <row r="66" spans="8:24" x14ac:dyDescent="0.2">
+    <row r="66" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H66" s="38"/>
       <c r="I66" s="38"/>
       <c r="J66" s="38"/>
@@ -14797,7 +15018,7 @@
       <c r="W66" s="38"/>
       <c r="X66" s="38"/>
     </row>
-    <row r="67" spans="8:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H67" s="38"/>
       <c r="I67" s="38"/>
       <c r="J67" s="38"/>
@@ -14816,7 +15037,7 @@
       <c r="W67" s="38"/>
       <c r="X67" s="38"/>
     </row>
-    <row r="68" spans="8:24" x14ac:dyDescent="0.2">
+    <row r="68" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H68" s="38"/>
       <c r="I68" s="38"/>
       <c r="J68" s="38"/>
@@ -14835,6 +15056,63 @@
       <c r="W68" s="38"/>
       <c r="X68" s="38"/>
     </row>
+    <row r="69" spans="8:24" x14ac:dyDescent="0.3">
+      <c r="H69" s="38"/>
+      <c r="I69" s="38"/>
+      <c r="J69" s="38"/>
+      <c r="K69" s="38"/>
+      <c r="L69" s="38"/>
+      <c r="M69" s="38"/>
+      <c r="N69" s="38"/>
+      <c r="O69" s="38"/>
+      <c r="P69" s="38"/>
+      <c r="Q69" s="38"/>
+      <c r="R69" s="38"/>
+      <c r="S69" s="38"/>
+      <c r="T69" s="38"/>
+      <c r="U69" s="38"/>
+      <c r="V69" s="38"/>
+      <c r="W69" s="38"/>
+      <c r="X69" s="38"/>
+    </row>
+    <row r="70" spans="8:24" x14ac:dyDescent="0.3">
+      <c r="H70" s="38"/>
+      <c r="I70" s="38"/>
+      <c r="J70" s="38"/>
+      <c r="K70" s="38"/>
+      <c r="L70" s="38"/>
+      <c r="M70" s="38"/>
+      <c r="N70" s="38"/>
+      <c r="O70" s="38"/>
+      <c r="P70" s="38"/>
+      <c r="Q70" s="38"/>
+      <c r="R70" s="38"/>
+      <c r="S70" s="38"/>
+      <c r="T70" s="38"/>
+      <c r="U70" s="38"/>
+      <c r="V70" s="38"/>
+      <c r="W70" s="38"/>
+      <c r="X70" s="38"/>
+    </row>
+    <row r="71" spans="8:24" x14ac:dyDescent="0.3">
+      <c r="H71" s="38"/>
+      <c r="I71" s="38"/>
+      <c r="J71" s="38"/>
+      <c r="K71" s="38"/>
+      <c r="L71" s="38"/>
+      <c r="M71" s="38"/>
+      <c r="N71" s="38"/>
+      <c r="O71" s="38"/>
+      <c r="P71" s="38"/>
+      <c r="Q71" s="38"/>
+      <c r="R71" s="38"/>
+      <c r="S71" s="38"/>
+      <c r="T71" s="38"/>
+      <c r="U71" s="38"/>
+      <c r="V71" s="38"/>
+      <c r="W71" s="38"/>
+      <c r="X71" s="38"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
@@ -14852,15 +15130,15 @@
       <selection activeCell="J19" sqref="J19:J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="10" max="10" width="17.1640625" customWidth="1"/>
-    <col min="14" max="14" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.8984375" customWidth="1"/>
+    <col min="6" max="6" width="13.3984375" customWidth="1"/>
+    <col min="10" max="10" width="17.09765625" customWidth="1"/>
+    <col min="14" max="14" width="16.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>303</v>
       </c>
@@ -14886,7 +15164,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>304</v>
       </c>
@@ -14918,7 +15196,7 @@
       </c>
       <c r="Q6" s="111"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>305</v>
       </c>
@@ -14950,7 +15228,7 @@
       </c>
       <c r="Q7" s="111"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>306</v>
       </c>
@@ -14982,7 +15260,7 @@
       </c>
       <c r="Q8" s="111"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>307</v>
       </c>
@@ -15014,7 +15292,7 @@
       </c>
       <c r="Q9" s="111"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>308</v>
       </c>
@@ -15027,7 +15305,7 @@
       </c>
       <c r="G10">
         <f>COUNTIF(Stats!D:D,'Player Count'!F10)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J10" s="67" t="s">
         <v>354</v>
@@ -15046,7 +15324,7 @@
       </c>
       <c r="Q10" s="111"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>309</v>
       </c>
@@ -15059,7 +15337,7 @@
       </c>
       <c r="G11">
         <f>COUNTIF(Stats!D:D,'Player Count'!F11)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J11" s="67" t="s">
         <v>372</v>
@@ -15078,13 +15356,13 @@
       </c>
       <c r="Q11" s="111"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>310</v>
       </c>
       <c r="C12">
         <f>COUNTIF(Stats!D:D,'Player Count'!B12)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
         <v>333</v>
@@ -15110,7 +15388,7 @@
       </c>
       <c r="Q12" s="111"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>311</v>
       </c>
@@ -15142,7 +15420,7 @@
       </c>
       <c r="Q13" s="111"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>312</v>
       </c>
@@ -15174,7 +15452,7 @@
       </c>
       <c r="Q14" s="111"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>313</v>
       </c>
@@ -15206,7 +15484,7 @@
       </c>
       <c r="Q15" s="111"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>314</v>
       </c>
@@ -15226,7 +15504,7 @@
       </c>
       <c r="K16">
         <f>COUNTIF(Stats!D:D,'Player Count'!J16)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M16" s="111"/>
       <c r="N16" s="67" t="s">
@@ -15238,7 +15516,7 @@
       </c>
       <c r="Q16" s="111"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>315</v>
       </c>
@@ -15270,7 +15548,7 @@
       </c>
       <c r="Q17" s="111"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>316</v>
       </c>
@@ -15290,7 +15568,7 @@
       </c>
       <c r="K18">
         <f>COUNTIF(Stats!D:D,'Player Count'!J18)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M18" s="111"/>
       <c r="N18" t="s">
@@ -15302,7 +15580,7 @@
       </c>
       <c r="Q18" s="111"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>317</v>
       </c>
@@ -15334,7 +15612,7 @@
       </c>
       <c r="Q19" s="111"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>318</v>
       </c>
@@ -15366,7 +15644,7 @@
       </c>
       <c r="Q20" s="111"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>319</v>
       </c>
@@ -15379,7 +15657,7 @@
       </c>
       <c r="G21">
         <f>COUNTIF(Stats!D:D,'Player Count'!F21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="67" t="s">
         <v>363</v>
@@ -15398,7 +15676,7 @@
       </c>
       <c r="Q21" s="111"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>320</v>
       </c>
@@ -15430,13 +15708,13 @@
       </c>
       <c r="Q22" s="111"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>321</v>
       </c>
       <c r="C23">
         <f>COUNTIF(Stats!D:D,'Player Count'!B23)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F23" t="s">
         <v>344</v>
@@ -15462,7 +15740,7 @@
       </c>
       <c r="Q23" s="111"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>322</v>
       </c>
@@ -15494,7 +15772,7 @@
       </c>
       <c r="Q24" s="111"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>323</v>
       </c>
@@ -15526,7 +15804,7 @@
       </c>
       <c r="Q25" s="111"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B26" s="78" t="s">
         <v>325</v>
       </c>
@@ -15558,7 +15836,7 @@
       </c>
       <c r="Q26" s="111"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
       <c r="F27" t="s">
         <v>348</v>
       </c>
@@ -15583,7 +15861,7 @@
       </c>
       <c r="Q27" s="111"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
       <c r="F28" t="s">
         <v>349</v>
       </c>
@@ -15608,7 +15886,7 @@
       </c>
       <c r="Q28" s="111"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
       <c r="F29" t="s">
         <v>350</v>
       </c>
@@ -15621,7 +15899,7 @@
       </c>
       <c r="K29">
         <f>COUNTIF(Stats!D:D,'Player Count'!J29)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N29" t="s">
         <v>398</v>
@@ -15631,20 +15909,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="F30" s="78" t="s">
         <v>325</v>
       </c>
       <c r="G30" s="78">
         <f>SUM(G6:G29)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J30" s="78" t="s">
         <v>325</v>
       </c>
       <c r="K30" s="78">
         <f>SUM(K6:K29)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N30" s="78" t="s">
         <v>325</v>
@@ -15654,34 +15932,34 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="67" t="s">
         <v>431</v>
       </c>
       <c r="C38" s="116">
         <f>C26/SUM(C26,G30,K30,O30)</f>
-        <v>0.42045454545454547</v>
+        <v>0.4157303370786517</v>
       </c>
       <c r="D38" s="116"/>
       <c r="E38" s="116"/>
       <c r="F38" s="116"/>
       <c r="G38" s="116">
         <f>G30/SUM(C26,G30,K30,O30)</f>
-        <v>0.24431818181818182</v>
+        <v>0.24719101123595505</v>
       </c>
       <c r="H38" s="116"/>
       <c r="I38" s="116"/>
       <c r="J38" s="116"/>
       <c r="K38" s="116">
         <f>K30/SUM(C26,G30,K30,O30)</f>
-        <v>0.17613636363636365</v>
+        <v>0.1797752808988764</v>
       </c>
       <c r="L38" s="116"/>
       <c r="M38" s="116"/>
       <c r="N38" s="116"/>
       <c r="O38" s="116">
         <f>O30/SUM(C26,G30,K30,O30)</f>
-        <v>0.15909090909090909</v>
+        <v>0.15730337078651685</v>
       </c>
     </row>
   </sheetData>

--- a/data/DreamLeague25-26.xlsx
+++ b/data/DreamLeague25-26.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/462a734c48854128/Desktop/Dream League/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="373" documentId="8_{7D36DF2E-EA78-4237-9818-EA41DFB80887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD7FE276-ECB6-4F2C-9EE2-5E39A3DFFEB8}"/>
+  <xr:revisionPtr revIDLastSave="531" documentId="8_{7D36DF2E-EA78-4237-9818-EA41DFB80887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB5F67F5-37A2-414A-8C71-0E7AB33D3481}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="464">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1413,6 +1413,24 @@
   </si>
   <si>
     <t>BRADFORD</t>
+  </si>
+  <si>
+    <t>NEWLL'S OLD TIKI TAKA</t>
+  </si>
+  <si>
+    <t>WOODHALL SPA WHITES</t>
+  </si>
+  <si>
+    <t>BETTER TOGETHER</t>
+  </si>
+  <si>
+    <t>ALTERNATIVE ULSTERMEN</t>
+  </si>
+  <si>
+    <t>OWEN BAILEY</t>
+  </si>
+  <si>
+    <t>ZAN VIPOTNIK</t>
   </si>
 </sst>
 </file>
@@ -3331,7 +3349,7 @@
   <dimension ref="A1:IX404"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G318" sqref="G318"/>
+      <selection activeCell="K5" sqref="K5:O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3469,7 +3487,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5" s="83"/>
       <c r="H5" s="84"/>
@@ -3485,15 +3503,15 @@
       </c>
       <c r="M5" s="18">
         <f t="shared" ref="M5:M17" si="0">N5-O5</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N5" s="19">
         <f>SUM(F8:F25)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="O5" s="20">
         <f>SUM(F5:F7)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S5" s="102"/>
       <c r="T5" s="101"/>
@@ -3520,15 +3538,15 @@
       </c>
       <c r="M6" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N6" s="26">
         <f>SUM(F35:F52)</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="O6" s="27">
         <f>SUM(F32:F34)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="S6" s="102"/>
       <c r="T6" s="101"/>
@@ -3555,15 +3573,15 @@
       </c>
       <c r="M7" s="25">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N7" s="26">
         <f>SUM(F62:F79)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="O7" s="27">
         <f>SUM(F59:F61)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S7" s="102"/>
       <c r="T7" s="101"/>
@@ -3599,15 +3617,15 @@
       </c>
       <c r="M8" s="25">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="26">
         <f>SUM(F89:F106)</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O8" s="27">
         <f>SUM(F86:F88)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3641,7 +3659,7 @@
       </c>
       <c r="M9" s="25">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N9" s="73">
         <f>SUM(F116:F133)</f>
@@ -3649,7 +3667,7 @@
       </c>
       <c r="O9" s="74">
         <f>SUM(F113:F115)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3673,15 +3691,15 @@
       </c>
       <c r="M10" s="25">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N10" s="26">
         <f>SUM(F143:F160)</f>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="O10" s="27">
         <f>SUM(F140:F142)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="R10" s="117"/>
       <c r="S10" s="117"/>
@@ -3704,7 +3722,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" s="87"/>
       <c r="H11" s="84"/>
@@ -3720,15 +3738,15 @@
       </c>
       <c r="M11" s="25">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N11" s="26">
         <f>SUM(F170:F187)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O11" s="27">
         <f>SUM(F167:F169)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S11" s="102"/>
       <c r="T11" s="101"/>
@@ -3736,23 +3754,27 @@
     </row>
     <row r="12" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="79"/>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="108" t="s">
         <v>168</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="108" t="s">
         <v>136</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="109">
         <v>1</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="110">
         <v>0</v>
       </c>
-      <c r="G12" s="87"/>
-      <c r="H12" s="84"/>
+      <c r="G12" s="87" t="s">
+        <v>292</v>
+      </c>
+      <c r="H12" s="84">
+        <v>45932</v>
+      </c>
       <c r="I12" s="99"/>
       <c r="J12" s="82"/>
       <c r="K12" s="71" t="str">
@@ -3765,15 +3787,15 @@
       </c>
       <c r="M12" s="25">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N12" s="73">
         <f>SUM(F197:F214)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O12" s="74">
         <f>SUM(F194:F196)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3782,18 +3804,20 @@
         <v>16</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>188</v>
+        <v>462</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="E13" s="29">
-        <v>1</v>
+        <v>105</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>291</v>
       </c>
       <c r="F13" s="30">
-        <v>1</v>
-      </c>
-      <c r="G13" s="87"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="87">
+        <v>45932</v>
+      </c>
       <c r="H13" s="84"/>
       <c r="I13" s="99"/>
       <c r="J13" s="82"/>
@@ -3807,15 +3831,15 @@
       </c>
       <c r="M13" s="25">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N13" s="73">
         <f>SUM(F224:F241)</f>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="O13" s="74">
         <f>SUM(F221:F223)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="R13" s="117"/>
       <c r="S13" s="117"/>
@@ -3825,11 +3849,21 @@
     </row>
     <row r="14" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="79"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="30"/>
+      <c r="B14" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="29">
+        <v>1</v>
+      </c>
+      <c r="F14" s="30">
+        <v>2</v>
+      </c>
       <c r="G14" s="87"/>
       <c r="H14" s="84"/>
       <c r="I14" s="99"/>
@@ -3844,15 +3878,15 @@
       </c>
       <c r="M14" s="25">
         <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>-12</v>
       </c>
       <c r="N14" s="73">
         <f>SUM(F251:F268)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O14" s="74">
         <f>SUM(F248:F250)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="S14" s="102"/>
       <c r="T14" s="101"/>
@@ -3879,15 +3913,15 @@
       </c>
       <c r="M15" s="25">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N15" s="26">
         <f>SUM(F277:F295)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O15" s="27">
         <f>SUM(F275:F276)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3911,15 +3945,15 @@
       </c>
       <c r="M16" s="25">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N16" s="26">
         <f>SUM(F305:F322)</f>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="O16" s="27">
         <f>SUM(F302:F304)</f>
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3957,15 +3991,15 @@
       </c>
       <c r="M17" s="25">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N17" s="26">
         <f>SUM(F332:F349)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="O17" s="27">
         <f>SUM(F329:F331)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R17" s="117"/>
       <c r="S17" s="117"/>
@@ -4006,15 +4040,15 @@
       </c>
       <c r="M18" s="25">
         <f>N18-O18</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N18" s="26">
         <f>SUM(F359:F376)</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O18" s="27">
         <f>SUM(F356:F358)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="S18" s="102"/>
       <c r="T18" s="101"/>
@@ -4085,25 +4119,27 @@
     </row>
     <row r="21" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="79"/>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="108" t="s">
         <v>298</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="108" t="s">
         <v>299</v>
       </c>
-      <c r="E21" s="29" t="s">
+      <c r="E21" s="109" t="s">
         <v>291</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="110">
         <v>0</v>
       </c>
       <c r="G21" s="87">
         <v>45883</v>
       </c>
-      <c r="H21" s="84"/>
+      <c r="H21" s="84">
+        <v>45932</v>
+      </c>
       <c r="I21" s="99"/>
       <c r="J21" s="76"/>
       <c r="K21" s="1"/>
@@ -4121,18 +4157,20 @@
         <v>17</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>190</v>
+        <v>463</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="E22" s="29">
-        <v>8</v>
+        <v>136</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>291</v>
       </c>
       <c r="F22" s="30">
-        <v>3</v>
-      </c>
-      <c r="G22" s="87"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="87">
+        <v>45932</v>
+      </c>
       <c r="H22" s="84"/>
       <c r="I22" s="89"/>
       <c r="J22" s="76"/>
@@ -4144,27 +4182,23 @@
     </row>
     <row r="23" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="79"/>
-      <c r="B23" s="108" t="s">
+      <c r="B23" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="108" t="s">
-        <v>191</v>
-      </c>
-      <c r="D23" s="108" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" s="109">
-        <v>1</v>
-      </c>
-      <c r="F23" s="110">
-        <v>1</v>
-      </c>
-      <c r="G23" s="87" t="s">
-        <v>292</v>
-      </c>
-      <c r="H23" s="84">
-        <v>45911</v>
-      </c>
+      <c r="C23" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="29">
+        <v>8</v>
+      </c>
+      <c r="F23" s="30">
+        <v>3</v>
+      </c>
+      <c r="G23" s="87"/>
+      <c r="H23" s="84"/>
       <c r="I23" s="89"/>
       <c r="J23" s="76"/>
       <c r="K23" s="1"/>
@@ -4175,25 +4209,27 @@
     </row>
     <row r="24" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="79"/>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="28" t="s">
-        <v>435</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="F24" s="30">
-        <v>0</v>
-      </c>
-      <c r="G24" s="87">
+      <c r="C24" s="108" t="s">
+        <v>191</v>
+      </c>
+      <c r="D24" s="108" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="109">
+        <v>1</v>
+      </c>
+      <c r="F24" s="110">
+        <v>1</v>
+      </c>
+      <c r="G24" s="87" t="s">
+        <v>292</v>
+      </c>
+      <c r="H24" s="84">
         <v>45911</v>
       </c>
-      <c r="H24" s="84"/>
       <c r="I24" s="89"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -4209,12 +4245,24 @@
     </row>
     <row r="25" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="79"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="87"/>
+      <c r="B25" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>435</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="F25" s="30">
+        <v>1</v>
+      </c>
+      <c r="G25" s="87">
+        <v>45911</v>
+      </c>
       <c r="H25" s="84"/>
       <c r="I25" s="89"/>
       <c r="J25" s="76"/>
@@ -4238,7 +4286,7 @@
       </c>
       <c r="F26" s="36">
         <f>SUM(F8:F25)-SUM(F5:F7)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" s="80"/>
       <c r="H26" s="92"/>
@@ -4367,13 +4415,11 @@
         <v>1</v>
       </c>
       <c r="F32" s="15">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G32" s="80"/>
       <c r="H32" s="94"/>
-      <c r="I32" s="95">
-        <v>-3</v>
-      </c>
+      <c r="I32" s="95"/>
       <c r="J32" s="76"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -4457,7 +4503,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" s="91"/>
       <c r="H36" s="91"/>
@@ -4501,13 +4547,11 @@
         <v>32</v>
       </c>
       <c r="F38" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G38" s="83"/>
       <c r="H38" s="91"/>
-      <c r="I38" s="93">
-        <v>1</v>
-      </c>
+      <c r="I38" s="93"/>
       <c r="J38" s="76"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -4535,7 +4579,7 @@
         <v>12</v>
       </c>
       <c r="F39" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39" s="87"/>
       <c r="H39" s="91"/>
@@ -4562,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F40" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G40" s="87"/>
       <c r="H40" s="91"/>
@@ -4671,7 +4715,7 @@
         <v>291</v>
       </c>
       <c r="F45" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" s="87">
         <v>45876</v>
@@ -4887,7 +4931,7 @@
       </c>
       <c r="F53" s="36">
         <f>SUM(F35:F52)-SUM(F32:F34)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G53" s="80"/>
       <c r="H53" s="92"/>
@@ -5011,7 +5055,7 @@
         <v>4</v>
       </c>
       <c r="F59" s="15">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G59" s="80"/>
       <c r="H59" s="92"/>
@@ -5143,7 +5187,7 @@
         <v>30</v>
       </c>
       <c r="F65" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G65" s="83"/>
       <c r="H65" s="90"/>
@@ -5170,13 +5214,11 @@
         <v>5</v>
       </c>
       <c r="F66" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G66" s="83"/>
       <c r="H66" s="91"/>
-      <c r="I66" s="90">
-        <v>1</v>
-      </c>
+      <c r="I66" s="90"/>
       <c r="J66" s="76"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
@@ -5230,15 +5272,13 @@
         <v>291</v>
       </c>
       <c r="F68" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G68" s="91">
         <v>45904</v>
       </c>
       <c r="H68" s="91"/>
-      <c r="I68" s="90">
-        <v>1</v>
-      </c>
+      <c r="I68" s="90"/>
       <c r="J68" s="76"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
@@ -5526,7 +5566,7 @@
       </c>
       <c r="F80" s="36">
         <f>SUM(F62:F79)-SUM(F59:F61)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G80" s="80"/>
       <c r="H80" s="92"/>
@@ -5650,13 +5690,11 @@
         <v>8</v>
       </c>
       <c r="F86" s="15">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G86" s="80"/>
       <c r="H86" s="94"/>
-      <c r="I86" s="93">
-        <v>-3</v>
-      </c>
+      <c r="I86" s="93"/>
       <c r="J86" s="76"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
@@ -5871,7 +5909,7 @@
         <v>19</v>
       </c>
       <c r="F95" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95" s="91"/>
       <c r="H95" s="91"/>
@@ -5932,7 +5970,7 @@
         <v>25</v>
       </c>
       <c r="F98" s="30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G98" s="87"/>
       <c r="H98" s="91"/>
@@ -6011,13 +6049,13 @@
         <v>453</v>
       </c>
       <c r="D101" s="28" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E101" s="29" t="s">
         <v>291</v>
       </c>
       <c r="F101" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G101" s="87">
         <v>45918</v>
@@ -6110,9 +6148,7 @@
         <v>45911</v>
       </c>
       <c r="H104" s="91"/>
-      <c r="I104" s="90">
-        <v>1</v>
-      </c>
+      <c r="I104" s="90"/>
       <c r="J104" s="76"/>
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
@@ -6165,7 +6201,7 @@
       </c>
       <c r="F107" s="36">
         <f>SUM(F89:F106)-SUM(F86:F88)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G107" s="80"/>
       <c r="H107" s="92"/>
@@ -6289,13 +6325,11 @@
         <v>1</v>
       </c>
       <c r="F113" s="15">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G113" s="80"/>
       <c r="H113" s="94"/>
-      <c r="I113" s="90">
-        <v>-1</v>
-      </c>
+      <c r="I113" s="90"/>
       <c r="J113" s="76"/>
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
@@ -6427,9 +6461,7 @@
       </c>
       <c r="G119" s="87"/>
       <c r="H119" s="91"/>
-      <c r="I119" s="90">
-        <v>1</v>
-      </c>
+      <c r="I119" s="90"/>
       <c r="J119" s="76"/>
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
@@ -6708,9 +6740,7 @@
       </c>
       <c r="G130" s="87"/>
       <c r="H130" s="91"/>
-      <c r="I130" s="90">
-        <v>1</v>
-      </c>
+      <c r="I130" s="90"/>
       <c r="J130" s="76"/>
       <c r="K130" s="1"/>
       <c r="L130" s="1"/>
@@ -6737,9 +6767,7 @@
       </c>
       <c r="G131" s="87"/>
       <c r="H131" s="91"/>
-      <c r="I131" s="90">
-        <v>1</v>
-      </c>
+      <c r="I131" s="90"/>
       <c r="J131" s="76"/>
       <c r="K131" s="1"/>
       <c r="L131" s="1"/>
@@ -6792,7 +6820,7 @@
       </c>
       <c r="F134" s="36">
         <f>SUM(F116:F133)-SUM(F113:F115)</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G134" s="80"/>
       <c r="H134" s="92"/>
@@ -6945,7 +6973,7 @@
         <v>438</v>
       </c>
       <c r="F141" s="21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G141" s="86">
         <v>45911</v>
@@ -7062,13 +7090,11 @@
         <v>42</v>
       </c>
       <c r="F146" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G146" s="87"/>
       <c r="H146" s="90"/>
-      <c r="I146" s="90">
-        <v>1</v>
-      </c>
+      <c r="I146" s="90"/>
       <c r="J146" s="76"/>
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
@@ -7091,12 +7117,10 @@
         <v>1</v>
       </c>
       <c r="F147" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H147" s="103"/>
-      <c r="I147" s="90">
-        <v>1</v>
-      </c>
+      <c r="I147" s="90"/>
       <c r="J147" s="76"/>
       <c r="K147" s="1"/>
       <c r="L147" s="1"/>
@@ -7224,7 +7248,7 @@
         <v>18</v>
       </c>
       <c r="F153" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G153" s="83"/>
       <c r="H153" s="91"/>
@@ -7338,7 +7362,7 @@
         <v>4</v>
       </c>
       <c r="F157" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G157" s="87"/>
       <c r="H157" s="91"/>
@@ -7412,7 +7436,7 @@
       </c>
       <c r="F161" s="36">
         <f>SUM(F143:F160)-SUM(F140:F142)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G161" s="80"/>
       <c r="H161" s="92"/>
@@ -7536,7 +7560,7 @@
         <v>1</v>
       </c>
       <c r="F167" s="15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G167" s="80"/>
       <c r="H167" s="94"/>
@@ -7668,13 +7692,11 @@
         <v>3</v>
       </c>
       <c r="F173" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G173" s="83"/>
       <c r="H173" s="91"/>
-      <c r="I173" s="90">
-        <v>1</v>
-      </c>
+      <c r="I173" s="90"/>
       <c r="J173" s="76"/>
       <c r="K173" s="1"/>
       <c r="L173" s="1"/>
@@ -7757,7 +7779,7 @@
         <v>1</v>
       </c>
       <c r="F176" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G176" s="91"/>
       <c r="H176" s="91"/>
@@ -7818,7 +7840,7 @@
         <v>56</v>
       </c>
       <c r="F179" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G179" s="87"/>
       <c r="H179" s="91"/>
@@ -8033,7 +8055,7 @@
       </c>
       <c r="F188" s="36">
         <f>SUM(F170:F187)-SUM(F167:F169)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G188" s="87"/>
       <c r="H188" s="91"/>
@@ -8157,7 +8179,7 @@
         <v>1</v>
       </c>
       <c r="F194" s="15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G194" s="80"/>
       <c r="H194" s="94"/>
@@ -8425,9 +8447,7 @@
       </c>
       <c r="G206" s="87"/>
       <c r="H206" s="90"/>
-      <c r="I206" s="90">
-        <v>1</v>
-      </c>
+      <c r="I206" s="90"/>
       <c r="J206" s="76"/>
       <c r="K206" s="1"/>
       <c r="L206" s="1"/>
@@ -8454,9 +8474,7 @@
       </c>
       <c r="G207" s="83"/>
       <c r="H207" s="90"/>
-      <c r="I207" s="90">
-        <v>1</v>
-      </c>
+      <c r="I207" s="90"/>
       <c r="J207" s="76"/>
       <c r="K207" s="1"/>
       <c r="L207" s="1"/>
@@ -8506,7 +8524,7 @@
         <v>1</v>
       </c>
       <c r="F209" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G209" s="87"/>
       <c r="H209" s="91"/>
@@ -8624,7 +8642,7 @@
       </c>
       <c r="F215" s="36">
         <f>SUM(F197:F214)-SUM(F194:F196)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G215" s="80"/>
       <c r="H215" s="92"/>
@@ -8777,15 +8795,13 @@
         <v>291</v>
       </c>
       <c r="F222" s="21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G222" s="94">
         <v>45890</v>
       </c>
       <c r="H222" s="92"/>
-      <c r="I222" s="89">
-        <v>-1</v>
-      </c>
+      <c r="I222" s="89"/>
       <c r="J222" s="76"/>
       <c r="K222" s="1"/>
       <c r="L222" s="1"/>
@@ -8852,7 +8868,7 @@
         <v>5</v>
       </c>
       <c r="F225" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G225" s="87"/>
       <c r="H225" s="91"/>
@@ -8927,7 +8943,7 @@
         <v>291</v>
       </c>
       <c r="F228" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G228" s="87">
         <v>45918</v>
@@ -9064,9 +9080,7 @@
       </c>
       <c r="G233" s="87"/>
       <c r="H233" s="91"/>
-      <c r="I233" s="89">
-        <v>1</v>
-      </c>
+      <c r="I233" s="89"/>
       <c r="J233" s="1"/>
       <c r="K233" s="1"/>
       <c r="L233" s="1"/>
@@ -9089,7 +9103,7 @@
         <v>20</v>
       </c>
       <c r="F234" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G234" s="87"/>
       <c r="H234" s="91"/>
@@ -9120,9 +9134,7 @@
       </c>
       <c r="G235" s="83"/>
       <c r="H235" s="91"/>
-      <c r="I235" s="89">
-        <v>1</v>
-      </c>
+      <c r="I235" s="89"/>
       <c r="J235" s="76"/>
       <c r="K235" s="1"/>
       <c r="L235" s="1"/>
@@ -9203,7 +9215,7 @@
         <v>291</v>
       </c>
       <c r="F238" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G238" s="87">
         <v>45911</v>
@@ -9279,7 +9291,7 @@
       </c>
       <c r="F242" s="36">
         <f>SUM(F224:F241)-SUM(F221:F223)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G242" s="80"/>
       <c r="H242" s="92"/>
@@ -9403,9 +9415,7 @@
       <c r="H248" s="94">
         <v>45918</v>
       </c>
-      <c r="I248" s="90">
-        <v>-5</v>
-      </c>
+      <c r="I248" s="90"/>
       <c r="J248" s="1"/>
       <c r="K248" s="1"/>
       <c r="L248" s="1"/>
@@ -9426,7 +9436,7 @@
         <v>291</v>
       </c>
       <c r="F249" s="21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G249" s="86">
         <v>45918</v>
@@ -9718,7 +9728,7 @@
         <v>18</v>
       </c>
       <c r="F261" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G261" s="87"/>
       <c r="H261" s="91"/>
@@ -9906,7 +9916,7 @@
       </c>
       <c r="F269" s="36">
         <f>SUM(F251:F268)-SUM(F248:F250)</f>
-        <v>-10</v>
+        <v>-12</v>
       </c>
       <c r="G269" s="80"/>
       <c r="H269" s="92"/>
@@ -10030,7 +10040,7 @@
         <v>1</v>
       </c>
       <c r="F275" s="15">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G275" s="80"/>
       <c r="H275" s="94"/>
@@ -10310,7 +10320,7 @@
         <v>12</v>
       </c>
       <c r="F287" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G287" s="87"/>
       <c r="H287" s="91"/>
@@ -10341,9 +10351,7 @@
       </c>
       <c r="G288" s="87"/>
       <c r="H288" s="91"/>
-      <c r="I288" s="90">
-        <v>1</v>
-      </c>
+      <c r="I288" s="90"/>
       <c r="J288" s="1"/>
       <c r="K288" s="1"/>
       <c r="L288" s="1"/>
@@ -10420,7 +10428,7 @@
         <v>1</v>
       </c>
       <c r="F291" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G291" s="87"/>
       <c r="H291" s="91"/>
@@ -10511,7 +10519,7 @@
       </c>
       <c r="F296" s="36">
         <f>SUM(F278:F295)-SUM(F275:F276)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G296" s="91"/>
       <c r="H296" s="91"/>
@@ -10664,7 +10672,7 @@
         <v>291</v>
       </c>
       <c r="F303" s="21">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G303" s="87">
         <v>45890</v>
@@ -10781,7 +10789,7 @@
         <v>4</v>
       </c>
       <c r="F308" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G308" s="87"/>
       <c r="H308" s="91"/>
@@ -10929,13 +10937,11 @@
         <v>54</v>
       </c>
       <c r="F314" s="30">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G314" s="87"/>
       <c r="H314" s="91"/>
-      <c r="I314" s="90">
-        <v>2</v>
-      </c>
+      <c r="I314" s="90"/>
       <c r="J314" s="1"/>
       <c r="K314" s="1"/>
       <c r="L314" s="1"/>
@@ -10962,9 +10968,7 @@
       </c>
       <c r="G315" s="87"/>
       <c r="H315" s="91"/>
-      <c r="I315" s="90">
-        <v>1</v>
-      </c>
+      <c r="I315" s="90"/>
       <c r="J315" s="1"/>
       <c r="K315" s="1"/>
       <c r="L315" s="1"/>
@@ -10987,13 +10991,11 @@
         <v>1</v>
       </c>
       <c r="F316" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G316" s="87"/>
       <c r="H316" s="91"/>
-      <c r="I316" s="90">
-        <v>1</v>
-      </c>
+      <c r="I316" s="90"/>
       <c r="J316" s="1"/>
       <c r="K316" s="1"/>
       <c r="L316" s="1"/>
@@ -11107,7 +11109,7 @@
         <v>291</v>
       </c>
       <c r="F320" s="30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G320" s="87">
         <v>45890</v>
@@ -11166,7 +11168,7 @@
       </c>
       <c r="F323" s="36">
         <f>SUM(F305:F322)-SUM(F302:F304)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G323" s="80"/>
       <c r="H323" s="92"/>
@@ -11290,7 +11292,7 @@
         <v>1</v>
       </c>
       <c r="F329" s="15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G329" s="83"/>
       <c r="H329" s="87"/>
@@ -11552,9 +11554,7 @@
       </c>
       <c r="G341" s="83"/>
       <c r="H341" s="91"/>
-      <c r="I341" s="90">
-        <v>1</v>
-      </c>
+      <c r="I341" s="90"/>
       <c r="J341" s="1"/>
       <c r="N341" s="1"/>
       <c r="O341" s="1"/>
@@ -11574,7 +11574,7 @@
         <v>1</v>
       </c>
       <c r="F342" s="30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G342" s="87"/>
       <c r="H342" s="91"/>
@@ -11598,7 +11598,7 @@
         <v>1</v>
       </c>
       <c r="F343" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G343" s="87"/>
       <c r="H343" s="91"/>
@@ -11622,13 +11622,11 @@
         <v>1</v>
       </c>
       <c r="F344" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G344" s="83"/>
       <c r="H344" s="91"/>
-      <c r="I344" s="90">
-        <v>3</v>
-      </c>
+      <c r="I344" s="90"/>
       <c r="J344" s="1"/>
       <c r="N344" s="1"/>
       <c r="O344" s="1"/>
@@ -11724,7 +11722,7 @@
       </c>
       <c r="F350" s="36">
         <f>SUM(F332:F349)-SUM(F329:F331)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G350" s="83"/>
       <c r="H350" s="90"/>
@@ -11806,13 +11804,11 @@
         <v>5</v>
       </c>
       <c r="F356" s="15">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G356" s="1"/>
       <c r="H356" s="104"/>
-      <c r="I356" s="1">
-        <v>-1</v>
-      </c>
+      <c r="I356" s="1"/>
       <c r="J356" s="1"/>
     </row>
     <row r="357" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -11872,7 +11868,7 @@
         <v>1</v>
       </c>
       <c r="F360" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G360" s="1"/>
       <c r="H360" s="1"/>
@@ -11929,9 +11925,7 @@
       </c>
       <c r="G363" s="1"/>
       <c r="H363" s="104"/>
-      <c r="I363" s="1">
-        <v>1</v>
-      </c>
+      <c r="I363" s="1"/>
       <c r="J363" s="1"/>
     </row>
     <row r="364" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -12039,7 +12033,7 @@
         <v>12</v>
       </c>
       <c r="F369" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G369" s="104"/>
       <c r="H369" s="104"/>
@@ -12060,7 +12054,7 @@
         <v>5</v>
       </c>
       <c r="F370" s="30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G370" s="104"/>
       <c r="H370" s="1"/>
@@ -12081,7 +12075,7 @@
         <v>1</v>
       </c>
       <c r="F371" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G371" s="1"/>
       <c r="H371" s="104"/>
@@ -12179,7 +12173,7 @@
       </c>
       <c r="F377" s="36">
         <f>SUM(F359:F376)-SUM(F356:F358)</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G377" s="1"/>
       <c r="H377" s="1"/>
@@ -12435,7 +12429,7 @@
   <dimension ref="A1:IV22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12559,13 +12553,13 @@
         <v>1</v>
       </c>
       <c r="E7" s="25">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" s="26">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G7" s="27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7" s="52"/>
       <c r="I7" s="41"/>
@@ -12580,22 +12574,22 @@
       <c r="C8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="55" t="s">
         <v>202</v>
       </c>
       <c r="E8" s="25">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" s="26">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G8" s="27">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H8" s="52"/>
       <c r="I8" s="41"/>
       <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
+      <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="47"/>
@@ -12603,19 +12597,19 @@
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="55" t="s">
-        <v>207</v>
+        <v>99</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>237</v>
       </c>
       <c r="E9" s="25">
-        <v>9</v>
-      </c>
-      <c r="F9" s="56">
-        <v>19</v>
-      </c>
-      <c r="G9" s="57">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="F9" s="26">
+        <v>22</v>
+      </c>
+      <c r="G9" s="27">
+        <v>15</v>
       </c>
       <c r="H9" s="52"/>
       <c r="I9" s="41"/>
@@ -12628,19 +12622,19 @@
         <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>273</v>
+        <v>33</v>
+      </c>
+      <c r="D10" s="55" t="s">
+        <v>32</v>
       </c>
       <c r="E10" s="25">
-        <v>6</v>
-      </c>
-      <c r="F10" s="26">
-        <v>13</v>
-      </c>
-      <c r="G10" s="27">
         <v>7</v>
+      </c>
+      <c r="F10" s="56">
+        <v>18</v>
+      </c>
+      <c r="G10" s="57">
+        <v>11</v>
       </c>
       <c r="H10" s="52"/>
       <c r="I10" s="41"/>
@@ -12650,22 +12644,22 @@
     <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="47"/>
       <c r="B11" s="54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>32</v>
+        <v>55</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>273</v>
       </c>
       <c r="E11" s="25">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F11" s="26">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G11" s="27">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H11" s="52"/>
       <c r="I11" s="41"/>
@@ -12680,17 +12674,17 @@
       <c r="C12" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="55" t="s">
         <v>248</v>
       </c>
       <c r="E12" s="25">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F12" s="26">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G12" s="27">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H12" s="52"/>
       <c r="I12" s="41"/>
@@ -12703,19 +12697,19 @@
         <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="55" t="s">
-        <v>237</v>
+        <v>52</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>207</v>
       </c>
       <c r="E13" s="25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F13" s="26">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G13" s="27">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H13" s="52"/>
       <c r="I13" s="41"/>
@@ -12728,19 +12722,19 @@
         <v>8</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D14" s="55" t="s">
-        <v>142</v>
+        <v>36</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>35</v>
       </c>
       <c r="E14" s="25">
-        <v>3</v>
-      </c>
-      <c r="F14" s="56">
-        <v>9</v>
-      </c>
-      <c r="G14" s="57">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="F14" s="26">
+        <v>11</v>
+      </c>
+      <c r="G14" s="27">
+        <v>7</v>
       </c>
       <c r="H14" s="52"/>
       <c r="I14" s="41"/>
@@ -12753,19 +12747,19 @@
         <v>9</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>35</v>
+        <v>21</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>192</v>
       </c>
       <c r="E15" s="25">
         <v>2</v>
       </c>
-      <c r="F15" s="26">
-        <v>8</v>
-      </c>
-      <c r="G15" s="27">
-        <v>6</v>
+      <c r="F15" s="56">
+        <v>12</v>
+      </c>
+      <c r="G15" s="57">
+        <v>10</v>
       </c>
       <c r="H15" s="52"/>
       <c r="I15" s="41"/>
@@ -12778,19 +12772,19 @@
         <v>10</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>54</v>
+        <v>249</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>250</v>
       </c>
       <c r="E16" s="25">
-        <v>2</v>
-      </c>
-      <c r="F16" s="26">
-        <v>5</v>
-      </c>
-      <c r="G16" s="27">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F16" s="56">
+        <v>13</v>
+      </c>
+      <c r="G16" s="57">
+        <v>12</v>
       </c>
       <c r="H16" s="52"/>
       <c r="I16" s="41"/>
@@ -12803,24 +12797,24 @@
         <v>11</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="55" t="s">
-        <v>192</v>
+        <v>53</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>54</v>
       </c>
       <c r="E17" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G17" s="27">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H17" s="52"/>
       <c r="I17" s="41"/>
       <c r="J17" s="41"/>
-      <c r="K17" s="53"/>
+      <c r="K17" s="41"/>
     </row>
     <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="47"/>
@@ -12830,17 +12824,17 @@
       <c r="C18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="55" t="s">
+      <c r="D18" s="24" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="25">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="26">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G18" s="27">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H18" s="52"/>
       <c r="I18" s="41"/>
@@ -12850,22 +12844,22 @@
     <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="47"/>
       <c r="B19" s="54">
+        <v>13</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="E19" s="25">
+        <v>0</v>
+      </c>
+      <c r="F19" s="26">
         <v>12</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="E19" s="25">
-        <v>-1</v>
-      </c>
-      <c r="F19" s="26">
-        <v>8</v>
-      </c>
       <c r="G19" s="27">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H19" s="52"/>
       <c r="I19" s="41"/>
@@ -12880,17 +12874,17 @@
       <c r="C20" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="55" t="s">
+      <c r="D20" s="24" t="s">
         <v>226</v>
       </c>
       <c r="E20" s="25">
-        <v>-10</v>
-      </c>
-      <c r="F20" s="56">
-        <v>4</v>
-      </c>
-      <c r="G20" s="57">
-        <v>14</v>
+        <v>-12</v>
+      </c>
+      <c r="F20" s="26">
+        <v>5</v>
+      </c>
+      <c r="G20" s="27">
+        <v>17</v>
       </c>
       <c r="H20" s="52"/>
       <c r="I20" s="41"/>
@@ -13265,7 +13259,7 @@
   <dimension ref="A1:X71"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -13366,13 +13360,13 @@
       <c r="D4" s="64" t="s">
         <v>445</v>
       </c>
-      <c r="E4" s="68" t="s">
+      <c r="E4" s="69" t="s">
         <v>420</v>
       </c>
-      <c r="F4" s="64">
+      <c r="F4" s="100">
         <v>-1</v>
       </c>
-      <c r="G4" s="64" t="s">
+      <c r="G4" s="100" t="s">
         <v>450</v>
       </c>
       <c r="H4" s="38"/>
@@ -13408,13 +13402,13 @@
       <c r="D5" s="64" t="s">
         <v>443</v>
       </c>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="69" t="s">
         <v>421</v>
       </c>
-      <c r="F5" s="64">
+      <c r="F5" s="100">
         <v>0</v>
       </c>
-      <c r="G5" s="64" t="s">
+      <c r="G5" s="100" t="s">
         <v>449</v>
       </c>
       <c r="H5" s="38"/>
@@ -13450,13 +13444,13 @@
       <c r="D6" s="64" t="s">
         <v>443</v>
       </c>
-      <c r="E6" s="68" t="s">
+      <c r="E6" s="69" t="s">
         <v>422</v>
       </c>
-      <c r="F6" s="64">
+      <c r="F6" s="100">
         <v>0</v>
       </c>
-      <c r="G6" s="64" t="s">
+      <c r="G6" s="100" t="s">
         <v>446</v>
       </c>
       <c r="H6" s="38"/>
@@ -13492,13 +13486,13 @@
       <c r="D7" s="64" t="s">
         <v>441</v>
       </c>
-      <c r="E7" s="68" t="s">
+      <c r="E7" s="69" t="s">
         <v>423</v>
       </c>
-      <c r="F7" s="64">
+      <c r="F7" s="100">
         <v>1</v>
       </c>
-      <c r="G7" s="64" t="s">
+      <c r="G7" s="100" t="s">
         <v>444</v>
       </c>
       <c r="H7" s="38"/>
@@ -13525,13 +13519,13 @@
       <c r="A8" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="69" t="s">
         <v>250</v>
       </c>
-      <c r="C8" s="64">
+      <c r="C8" s="100">
         <v>0</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="D8" s="100" t="s">
         <v>446</v>
       </c>
       <c r="E8" s="68" t="s">
@@ -13567,13 +13561,13 @@
       <c r="A9" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="64">
+      <c r="C9" s="100">
         <v>-2</v>
       </c>
-      <c r="D9" s="64" t="s">
+      <c r="D9" s="100" t="s">
         <v>442</v>
       </c>
       <c r="E9" s="68" t="s">
@@ -13609,13 +13603,13 @@
       <c r="A10" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="69" t="s">
         <v>273</v>
       </c>
-      <c r="C10" s="64">
+      <c r="C10" s="100">
         <v>1</v>
       </c>
-      <c r="D10" s="64" t="s">
+      <c r="D10" s="100" t="s">
         <v>444</v>
       </c>
       <c r="E10" s="68" t="s">
@@ -13691,13 +13685,13 @@
       <c r="A12" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="69" t="s">
         <v>428</v>
       </c>
-      <c r="C12" s="64">
+      <c r="C12" s="100">
         <v>-2</v>
       </c>
-      <c r="D12" s="64" t="s">
+      <c r="D12" s="100" t="s">
         <v>442</v>
       </c>
       <c r="E12" s="68" t="s">
@@ -13740,13 +13734,13 @@
       <c r="D13" s="64" t="s">
         <v>441</v>
       </c>
-      <c r="E13" s="68" t="s">
+      <c r="E13" s="69" t="s">
         <v>430</v>
       </c>
-      <c r="F13" s="64">
+      <c r="F13" s="100">
         <v>1</v>
       </c>
-      <c r="G13" s="64" t="s">
+      <c r="G13" s="100" t="s">
         <v>443</v>
       </c>
       <c r="H13" s="38"/>
@@ -13828,13 +13822,21 @@
       <c r="B16" s="68" t="s">
         <v>202</v>
       </c>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="68" t="s">
+      <c r="C16" s="64">
+        <v>-1</v>
+      </c>
+      <c r="D16" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="E16" s="69" t="s">
         <v>427</v>
       </c>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
+      <c r="F16" s="100">
+        <v>-1</v>
+      </c>
+      <c r="G16" s="100" t="s">
+        <v>447</v>
+      </c>
       <c r="H16" s="38"/>
       <c r="I16" s="38"/>
       <c r="J16" s="38"/>
@@ -13911,10 +13913,14 @@
       <c r="A19" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="65"/>
+      <c r="B19" s="65" t="s">
+        <v>248</v>
+      </c>
       <c r="C19" s="68"/>
       <c r="D19" s="64"/>
-      <c r="E19" s="70"/>
+      <c r="E19" s="65" t="s">
+        <v>54</v>
+      </c>
       <c r="F19" s="69"/>
       <c r="G19" s="100"/>
       <c r="H19" s="38"/>
@@ -13939,10 +13945,14 @@
       <c r="A20" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="65"/>
+      <c r="B20" s="65" t="s">
+        <v>35</v>
+      </c>
       <c r="C20" s="68"/>
       <c r="D20" s="64"/>
-      <c r="E20" s="65"/>
+      <c r="E20" s="65" t="s">
+        <v>424</v>
+      </c>
       <c r="F20" s="68"/>
       <c r="G20" s="64"/>
       <c r="H20" s="38"/>
@@ -13967,10 +13977,14 @@
       <c r="A21" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="B21" s="65"/>
+      <c r="B21" s="65" t="s">
+        <v>142</v>
+      </c>
       <c r="C21" s="68"/>
       <c r="D21" s="64"/>
-      <c r="E21" s="70"/>
+      <c r="E21" s="65" t="s">
+        <v>426</v>
+      </c>
       <c r="F21" s="69"/>
       <c r="G21" s="100"/>
       <c r="H21" s="38"/>
@@ -13995,10 +14009,14 @@
       <c r="A22" s="67" t="s">
         <v>261</v>
       </c>
-      <c r="B22" s="70"/>
+      <c r="B22" s="65" t="s">
+        <v>54</v>
+      </c>
       <c r="C22" s="69"/>
       <c r="D22" s="100"/>
-      <c r="E22" s="65"/>
+      <c r="E22" s="65" t="s">
+        <v>202</v>
+      </c>
       <c r="F22" s="68"/>
       <c r="G22" s="64"/>
       <c r="H22" s="38"/>
@@ -14023,10 +14041,14 @@
       <c r="A23" s="67" t="s">
         <v>262</v>
       </c>
-      <c r="B23" s="70"/>
+      <c r="B23" s="65" t="s">
+        <v>458</v>
+      </c>
       <c r="C23" s="69"/>
       <c r="D23" s="100"/>
-      <c r="E23" s="65"/>
+      <c r="E23" s="65" t="s">
+        <v>425</v>
+      </c>
       <c r="F23" s="68"/>
       <c r="G23" s="64"/>
       <c r="H23" s="38"/>
@@ -14051,10 +14073,14 @@
       <c r="A24" s="67" t="s">
         <v>263</v>
       </c>
-      <c r="B24" s="70"/>
+      <c r="B24" s="65" t="s">
+        <v>429</v>
+      </c>
       <c r="C24" s="69"/>
       <c r="D24" s="100"/>
-      <c r="E24" s="65"/>
+      <c r="E24" s="65" t="s">
+        <v>459</v>
+      </c>
       <c r="F24" s="68"/>
       <c r="G24" s="64"/>
       <c r="H24" s="38"/>
@@ -14079,10 +14105,14 @@
       <c r="A25" s="67" t="s">
         <v>264</v>
       </c>
-      <c r="B25" s="70"/>
+      <c r="B25" s="65" t="s">
+        <v>207</v>
+      </c>
       <c r="C25" s="69"/>
       <c r="D25" s="100"/>
-      <c r="E25" s="65"/>
+      <c r="E25" s="65" t="s">
+        <v>460</v>
+      </c>
       <c r="F25" s="68"/>
       <c r="G25" s="64"/>
       <c r="H25" s="38"/>
@@ -14107,10 +14137,14 @@
       <c r="A26" s="67" t="s">
         <v>265</v>
       </c>
-      <c r="B26" s="70"/>
+      <c r="B26" s="65" t="s">
+        <v>32</v>
+      </c>
       <c r="C26" s="69"/>
       <c r="D26" s="100"/>
-      <c r="E26" s="65"/>
+      <c r="E26" s="65" t="s">
+        <v>461</v>
+      </c>
       <c r="F26" s="68"/>
       <c r="G26" s="64"/>
       <c r="H26" s="38"/>
@@ -15127,7 +15161,7 @@
   <dimension ref="A5:Q38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19:J22"/>
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -15408,7 +15442,7 @@
       </c>
       <c r="K13">
         <f>COUNTIF(Stats!D:D,'Player Count'!J13)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M13" s="111"/>
       <c r="N13" t="s">
@@ -15504,7 +15538,7 @@
       </c>
       <c r="K16">
         <f>COUNTIF(Stats!D:D,'Player Count'!J16)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M16" s="111"/>
       <c r="N16" s="67" t="s">
@@ -15817,7 +15851,7 @@
       </c>
       <c r="G26">
         <f>COUNTIF(Stats!D:D,'Player Count'!F26)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J26" t="s">
         <v>368</v>
@@ -15857,7 +15891,7 @@
       </c>
       <c r="O27">
         <f>COUNTIF(Stats!D:D,'Player Count'!N27)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q27" s="111"/>
     </row>
@@ -15915,7 +15949,7 @@
       </c>
       <c r="G30" s="78">
         <f>SUM(G6:G29)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J30" s="78" t="s">
         <v>325</v>
@@ -15929,7 +15963,7 @@
       </c>
       <c r="O30" s="78">
         <f>SUM(O6:O29)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
@@ -15938,28 +15972,28 @@
       </c>
       <c r="C38" s="116">
         <f>C26/SUM(C26,G30,K30,O30)</f>
-        <v>0.4157303370786517</v>
+        <v>0.41111111111111109</v>
       </c>
       <c r="D38" s="116"/>
       <c r="E38" s="116"/>
       <c r="F38" s="116"/>
       <c r="G38" s="116">
         <f>G30/SUM(C26,G30,K30,O30)</f>
-        <v>0.24719101123595505</v>
+        <v>0.25</v>
       </c>
       <c r="H38" s="116"/>
       <c r="I38" s="116"/>
       <c r="J38" s="116"/>
       <c r="K38" s="116">
         <f>K30/SUM(C26,G30,K30,O30)</f>
-        <v>0.1797752808988764</v>
+        <v>0.17777777777777778</v>
       </c>
       <c r="L38" s="116"/>
       <c r="M38" s="116"/>
       <c r="N38" s="116"/>
       <c r="O38" s="116">
         <f>O30/SUM(C26,G30,K30,O30)</f>
-        <v>0.15730337078651685</v>
+        <v>0.16111111111111112</v>
       </c>
     </row>
   </sheetData>

--- a/data/DreamLeague25-26.xlsx
+++ b/data/DreamLeague25-26.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/462a734c48854128/Desktop/Dream League/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="531" documentId="8_{7D36DF2E-EA78-4237-9818-EA41DFB80887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB5F67F5-37A2-414A-8C71-0E7AB33D3481}"/>
+  <xr:revisionPtr revIDLastSave="610" documentId="8_{7D36DF2E-EA78-4237-9818-EA41DFB80887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0404E0D3-5A01-491E-99B8-27B5C5702331}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="466">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -122,9 +122,6 @@
     <t>ASTON VILLA</t>
   </si>
   <si>
-    <t>LEICESTER</t>
-  </si>
-  <si>
     <t>SEAN HELSBY</t>
   </si>
   <si>
@@ -1431,6 +1428,15 @@
   </si>
   <si>
     <t>ZAN VIPOTNIK</t>
+  </si>
+  <si>
+    <t>OLI MCBURNIE</t>
+  </si>
+  <si>
+    <t>HULL</t>
+  </si>
+  <si>
+    <t>MASON BURSTOW</t>
   </si>
 </sst>
 </file>
@@ -3503,11 +3509,11 @@
       </c>
       <c r="M5" s="18">
         <f t="shared" ref="M5:M17" si="0">N5-O5</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N5" s="19">
         <f>SUM(F8:F25)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="O5" s="20">
         <f>SUM(F5:F7)</f>
@@ -3542,11 +3548,11 @@
       </c>
       <c r="N6" s="26">
         <f>SUM(F35:F52)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="O6" s="27">
         <f>SUM(F32:F34)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="S6" s="102"/>
       <c r="T6" s="101"/>
@@ -3573,15 +3579,15 @@
       </c>
       <c r="M7" s="25">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N7" s="26">
         <f>SUM(F62:F79)</f>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O7" s="27">
         <f>SUM(F59:F61)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S7" s="102"/>
       <c r="T7" s="101"/>
@@ -3593,10 +3599,10 @@
         <v>14</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E8" s="29">
         <v>1</v>
@@ -3617,11 +3623,11 @@
       </c>
       <c r="M8" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="26">
         <f>SUM(F89:F106)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O8" s="27">
         <f>SUM(F86:F88)</f>
@@ -3634,10 +3640,10 @@
         <v>14</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="E9" s="29">
         <v>1</v>
@@ -3659,15 +3665,15 @@
       </c>
       <c r="M9" s="25">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N9" s="73">
         <f>SUM(F116:F133)</f>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O9" s="74">
         <f>SUM(F113:F115)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3691,15 +3697,15 @@
       </c>
       <c r="M10" s="25">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N10" s="26">
         <f>SUM(F143:F160)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O10" s="27">
         <f>SUM(F140:F142)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="R10" s="117"/>
       <c r="S10" s="117"/>
@@ -3713,7 +3719,7 @@
         <v>16</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D11" s="28" t="s">
         <v>24</v>
@@ -3738,7 +3744,7 @@
       </c>
       <c r="M11" s="25">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N11" s="26">
         <f>SUM(F170:F187)</f>
@@ -3746,7 +3752,7 @@
       </c>
       <c r="O11" s="27">
         <f>SUM(F167:F169)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S11" s="102"/>
       <c r="T11" s="101"/>
@@ -3758,19 +3764,19 @@
         <v>16</v>
       </c>
       <c r="C12" s="108" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D12" s="108" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E12" s="109">
         <v>1</v>
       </c>
       <c r="F12" s="110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="87" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H12" s="84">
         <v>45932</v>
@@ -3791,11 +3797,11 @@
       </c>
       <c r="N12" s="73">
         <f>SUM(F197:F214)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O12" s="74">
         <f>SUM(F194:F196)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3804,13 +3810,13 @@
         <v>16</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F13" s="30">
         <v>0</v>
@@ -3831,15 +3837,15 @@
       </c>
       <c r="M13" s="25">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N13" s="73">
         <f>SUM(F224:F241)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O13" s="74">
         <f>SUM(F221:F223)</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="R13" s="117"/>
       <c r="S13" s="117"/>
@@ -3853,10 +3859,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E14" s="29">
         <v>1</v>
@@ -3878,7 +3884,7 @@
       </c>
       <c r="M14" s="25">
         <f t="shared" si="0"/>
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="N14" s="73">
         <f>SUM(F251:F268)</f>
@@ -3886,7 +3892,7 @@
       </c>
       <c r="O14" s="74">
         <f>SUM(F248:F250)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="S14" s="102"/>
       <c r="T14" s="101"/>
@@ -3913,15 +3919,15 @@
       </c>
       <c r="M15" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="N15" s="26">
         <f>SUM(F277:F295)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O15" s="27">
         <f>SUM(F275:F276)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3945,11 +3951,11 @@
       </c>
       <c r="M16" s="25">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N16" s="26">
         <f>SUM(F305:F322)</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="O16" s="27">
         <f>SUM(F302:F304)</f>
@@ -3962,10 +3968,10 @@
         <v>17</v>
       </c>
       <c r="C17" s="108" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D17" s="108" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E17" s="109">
         <v>14</v>
@@ -3974,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="87" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H17" s="84">
         <v>45897</v>
@@ -3991,15 +3997,15 @@
       </c>
       <c r="M17" s="25">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N17" s="26">
         <f>SUM(F332:F349)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O17" s="27">
         <f>SUM(F329:F331)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R17" s="117"/>
       <c r="S17" s="117"/>
@@ -4013,16 +4019,16 @@
         <v>17</v>
       </c>
       <c r="C18" s="28" t="s">
+        <v>417</v>
+      </c>
+      <c r="D18" s="28" t="s">
         <v>418</v>
       </c>
-      <c r="D18" s="28" t="s">
-        <v>419</v>
-      </c>
       <c r="E18" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F18" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G18" s="84">
         <v>45897</v>
@@ -4040,15 +4046,15 @@
       </c>
       <c r="M18" s="25">
         <f>N18-O18</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N18" s="26">
         <f>SUM(F359:F376)</f>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="O18" s="27">
         <f>SUM(F356:F358)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="S18" s="102"/>
       <c r="T18" s="101"/>
@@ -4060,16 +4066,16 @@
         <v>17</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E19" s="29">
         <v>15</v>
       </c>
       <c r="F19" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G19" s="84"/>
       <c r="H19" s="84"/>
@@ -4087,10 +4093,10 @@
         <v>17</v>
       </c>
       <c r="C20" s="108" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D20" s="108" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E20" s="109">
         <v>17</v>
@@ -4099,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="83" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H20" s="84">
         <v>45883</v>
@@ -4123,13 +4129,13 @@
         <v>17</v>
       </c>
       <c r="C21" s="108" t="s">
+        <v>297</v>
+      </c>
+      <c r="D21" s="108" t="s">
         <v>298</v>
       </c>
-      <c r="D21" s="108" t="s">
-        <v>299</v>
-      </c>
       <c r="E21" s="109" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F21" s="110">
         <v>0</v>
@@ -4157,13 +4163,13 @@
         <v>17</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F22" s="30">
         <v>0</v>
@@ -4186,10 +4192,10 @@
         <v>17</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E23" s="29">
         <v>8</v>
@@ -4213,10 +4219,10 @@
         <v>17</v>
       </c>
       <c r="C24" s="108" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D24" s="108" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E24" s="109">
         <v>1</v>
@@ -4225,7 +4231,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="87" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H24" s="84">
         <v>45911</v>
@@ -4249,13 +4255,13 @@
         <v>17</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F25" s="30">
         <v>1</v>
@@ -4286,7 +4292,7 @@
       </c>
       <c r="F26" s="36">
         <f>SUM(F8:F25)-SUM(F5:F7)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G26" s="80"/>
       <c r="H26" s="92"/>
@@ -4341,7 +4347,7 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>21</v>
@@ -4409,13 +4415,13 @@
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E32" s="14">
         <v>1</v>
       </c>
       <c r="F32" s="15">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G32" s="80"/>
       <c r="H32" s="94"/>
@@ -4467,16 +4473,16 @@
         <v>14</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E35" s="29">
         <v>4</v>
       </c>
       <c r="F35" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G35" s="83"/>
       <c r="H35" s="91"/>
@@ -4494,10 +4500,10 @@
         <v>14</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E36" s="29">
         <v>1</v>
@@ -4538,7 +4544,7 @@
         <v>16</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D38" s="28" t="s">
         <v>19</v>
@@ -4570,16 +4576,16 @@
         <v>16</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E39" s="29">
         <v>12</v>
       </c>
       <c r="F39" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G39" s="87"/>
       <c r="H39" s="91"/>
@@ -4597,10 +4603,10 @@
         <v>16</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E40" s="29">
         <v>1</v>
@@ -4675,10 +4681,10 @@
         <v>17</v>
       </c>
       <c r="C44" s="108" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D44" s="108" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E44" s="109">
         <v>2</v>
@@ -4687,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="87" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H44" s="91">
         <v>45876</v>
@@ -4706,16 +4712,16 @@
         <v>17</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E45" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F45" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G45" s="87">
         <v>45876</v>
@@ -4735,10 +4741,10 @@
         <v>17</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E46" s="29">
         <v>12</v>
@@ -4762,10 +4768,10 @@
         <v>17</v>
       </c>
       <c r="C47" s="108" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D47" s="108" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E47" s="109">
         <v>9</v>
@@ -4774,7 +4780,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="87" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H47" s="91">
         <v>45904</v>
@@ -4793,13 +4799,13 @@
         <v>17</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D48" s="28" t="s">
         <v>24</v>
       </c>
       <c r="E48" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F48" s="30">
         <v>0</v>
@@ -4822,10 +4828,10 @@
         <v>17</v>
       </c>
       <c r="C49" s="108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D49" s="108" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E49" s="109">
         <v>1</v>
@@ -4834,7 +4840,7 @@
         <v>1</v>
       </c>
       <c r="G49" s="91" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H49" s="91">
         <v>45904</v>
@@ -4853,13 +4859,13 @@
         <v>17</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E50" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F50" s="30">
         <v>1</v>
@@ -4882,7 +4888,7 @@
         <v>17</v>
       </c>
       <c r="C51" s="28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D51" s="28" t="s">
         <v>22</v>
@@ -4981,7 +4987,7 @@
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>25</v>
@@ -5049,13 +5055,13 @@
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E59" s="14">
         <v>4</v>
       </c>
       <c r="F59" s="15">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G59" s="80"/>
       <c r="H59" s="92"/>
@@ -5107,7 +5113,7 @@
         <v>14</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D62" s="28" t="s">
         <v>26</v>
@@ -5134,10 +5140,10 @@
         <v>14</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E63" s="29">
         <v>1</v>
@@ -5178,10 +5184,10 @@
         <v>16</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D65" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E65" s="29">
         <v>30</v>
@@ -5205,16 +5211,16 @@
         <v>16</v>
       </c>
       <c r="C66" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="D66" s="28" t="s">
         <v>162</v>
-      </c>
-      <c r="D66" s="28" t="s">
-        <v>163</v>
       </c>
       <c r="E66" s="29">
         <v>5</v>
       </c>
       <c r="F66" s="30">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G66" s="83"/>
       <c r="H66" s="91"/>
@@ -5232,7 +5238,7 @@
         <v>16</v>
       </c>
       <c r="C67" s="108" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D67" s="108" t="s">
         <v>26</v>
@@ -5244,7 +5250,7 @@
         <v>0</v>
       </c>
       <c r="G67" s="87" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H67" s="91">
         <v>45904</v>
@@ -5263,16 +5269,16 @@
         <v>16</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E68" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F68" s="30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G68" s="91">
         <v>45904</v>
@@ -5326,7 +5332,7 @@
         <v>17</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D71" s="28" t="s">
         <v>20</v>
@@ -5353,7 +5359,7 @@
         <v>17</v>
       </c>
       <c r="C72" s="108" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D72" s="108" t="s">
         <v>18</v>
@@ -5365,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="G72" s="83" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H72" s="91">
         <v>45897</v>
@@ -5384,13 +5390,13 @@
         <v>17</v>
       </c>
       <c r="C73" s="28" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D73" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E73" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F73" s="30">
         <v>0</v>
@@ -5413,10 +5419,10 @@
         <v>17</v>
       </c>
       <c r="C74" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D74" s="28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E74" s="29">
         <v>7</v>
@@ -5440,10 +5446,10 @@
         <v>17</v>
       </c>
       <c r="C75" s="108" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D75" s="108" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E75" s="109">
         <v>1</v>
@@ -5452,7 +5458,7 @@
         <v>0</v>
       </c>
       <c r="G75" s="87" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H75" s="91">
         <v>45890</v>
@@ -5471,13 +5477,13 @@
         <v>17</v>
       </c>
       <c r="C76" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="D76" s="28" t="s">
         <v>300</v>
       </c>
-      <c r="D76" s="28" t="s">
-        <v>301</v>
-      </c>
       <c r="E76" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F76" s="30">
         <v>0</v>
@@ -5500,10 +5506,10 @@
         <v>17</v>
       </c>
       <c r="C77" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D77" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E77" s="29">
         <v>1</v>
@@ -5566,7 +5572,7 @@
       </c>
       <c r="F80" s="36">
         <f>SUM(F62:F79)-SUM(F59:F61)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G80" s="80"/>
       <c r="H80" s="92"/>
@@ -5619,7 +5625,7 @@
         <v>15</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="1"/>
@@ -5684,7 +5690,7 @@
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E86" s="14">
         <v>8</v>
@@ -5742,10 +5748,10 @@
         <v>14</v>
       </c>
       <c r="C89" s="28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D89" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E89" s="29">
         <v>1</v>
@@ -5769,10 +5775,10 @@
         <v>14</v>
       </c>
       <c r="C90" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D90" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E90" s="29">
         <v>3</v>
@@ -5813,7 +5819,7 @@
         <v>16</v>
       </c>
       <c r="C92" s="28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D92" s="28" t="s">
         <v>22</v>
@@ -5840,10 +5846,10 @@
         <v>16</v>
       </c>
       <c r="C93" s="108" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D93" s="108" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E93" s="109">
         <v>1</v>
@@ -5852,7 +5858,7 @@
         <v>0</v>
       </c>
       <c r="G93" s="91" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H93" s="91">
         <v>45876</v>
@@ -5871,13 +5877,13 @@
         <v>16</v>
       </c>
       <c r="C94" s="28" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D94" s="28" t="s">
         <v>24</v>
       </c>
       <c r="E94" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F94" s="30">
         <v>0</v>
@@ -5900,7 +5906,7 @@
         <v>16</v>
       </c>
       <c r="C95" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D95" s="28" t="s">
         <v>18</v>
@@ -5961,10 +5967,10 @@
         <v>17</v>
       </c>
       <c r="C98" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D98" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E98" s="29">
         <v>25</v>
@@ -5988,16 +5994,16 @@
         <v>17</v>
       </c>
       <c r="C99" s="28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D99" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E99" s="29">
         <v>10</v>
       </c>
       <c r="F99" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G99" s="83"/>
       <c r="H99" s="91"/>
@@ -6015,10 +6021,10 @@
         <v>17</v>
       </c>
       <c r="C100" s="108" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D100" s="108" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E100" s="109">
         <v>6</v>
@@ -6027,7 +6033,7 @@
         <v>1</v>
       </c>
       <c r="G100" s="87" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H100" s="91">
         <v>45918</v>
@@ -6046,13 +6052,13 @@
         <v>17</v>
       </c>
       <c r="C101" s="28" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D101" s="28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E101" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F101" s="30">
         <v>2</v>
@@ -6075,10 +6081,10 @@
         <v>17</v>
       </c>
       <c r="C102" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D102" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E102" s="29">
         <v>22</v>
@@ -6102,10 +6108,10 @@
         <v>17</v>
       </c>
       <c r="C103" s="108" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D103" s="108" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E103" s="109">
         <v>1</v>
@@ -6114,7 +6120,7 @@
         <v>0</v>
       </c>
       <c r="G103" s="87" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H103" s="91">
         <v>45911</v>
@@ -6133,13 +6139,13 @@
         <v>17</v>
       </c>
       <c r="C104" s="28" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D104" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E104" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F104" s="30">
         <v>1</v>
@@ -6201,7 +6207,7 @@
       </c>
       <c r="F107" s="36">
         <f>SUM(F89:F106)-SUM(F86:F88)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G107" s="80"/>
       <c r="H107" s="92"/>
@@ -6251,10 +6257,10 @@
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" s="1"/>
@@ -6319,13 +6325,13 @@
       </c>
       <c r="C113" s="13"/>
       <c r="D113" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E113" s="14">
         <v>1</v>
       </c>
       <c r="F113" s="15">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G113" s="80"/>
       <c r="H113" s="94"/>
@@ -6377,10 +6383,10 @@
         <v>14</v>
       </c>
       <c r="C116" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="D116" s="28" t="s">
         <v>209</v>
-      </c>
-      <c r="D116" s="28" t="s">
-        <v>210</v>
       </c>
       <c r="E116" s="29">
         <v>1</v>
@@ -6404,10 +6410,10 @@
         <v>14</v>
       </c>
       <c r="C117" s="28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D117" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E117" s="29">
         <v>1</v>
@@ -6448,16 +6454,16 @@
         <v>16</v>
       </c>
       <c r="C119" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D119" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E119" s="29">
         <v>19</v>
       </c>
       <c r="F119" s="30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G119" s="87"/>
       <c r="H119" s="91"/>
@@ -6475,16 +6481,16 @@
         <v>16</v>
       </c>
       <c r="C120" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D120" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E120" s="29">
         <v>20</v>
       </c>
       <c r="F120" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G120" s="87"/>
       <c r="H120" s="91"/>
@@ -6502,10 +6508,10 @@
         <v>16</v>
       </c>
       <c r="C121" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D121" s="28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E121" s="29">
         <v>1</v>
@@ -6580,7 +6586,7 @@
         <v>17</v>
       </c>
       <c r="C125" s="28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D125" s="28" t="s">
         <v>23</v>
@@ -6607,10 +6613,10 @@
         <v>17</v>
       </c>
       <c r="C126" s="108" t="s">
+        <v>168</v>
+      </c>
+      <c r="D126" s="108" t="s">
         <v>169</v>
-      </c>
-      <c r="D126" s="108" t="s">
-        <v>170</v>
       </c>
       <c r="E126" s="109">
         <v>10</v>
@@ -6619,7 +6625,7 @@
         <v>1</v>
       </c>
       <c r="G126" s="83" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H126" s="91">
         <v>45890</v>
@@ -6638,13 +6644,13 @@
         <v>17</v>
       </c>
       <c r="C127" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="D127" s="28" t="s">
         <v>411</v>
       </c>
-      <c r="D127" s="28" t="s">
-        <v>412</v>
-      </c>
       <c r="E127" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F127" s="30">
         <v>2</v>
@@ -6667,10 +6673,10 @@
         <v>17</v>
       </c>
       <c r="C128" s="108" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D128" s="108" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E128" s="109">
         <v>19</v>
@@ -6679,7 +6685,7 @@
         <v>2</v>
       </c>
       <c r="G128" s="87" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H128" s="91">
         <v>45890</v>
@@ -6698,13 +6704,13 @@
         <v>17</v>
       </c>
       <c r="C129" s="28" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D129" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E129" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F129" s="30">
         <v>0</v>
@@ -6727,16 +6733,16 @@
         <v>17</v>
       </c>
       <c r="C130" s="28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D130" s="28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E130" s="29">
         <v>1</v>
       </c>
       <c r="F130" s="30">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G130" s="87"/>
       <c r="H130" s="91"/>
@@ -6750,23 +6756,27 @@
     </row>
     <row r="131" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="79"/>
-      <c r="B131" s="28" t="s">
+      <c r="B131" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C131" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="D131" s="28" t="s">
+      <c r="C131" s="108" t="s">
+        <v>213</v>
+      </c>
+      <c r="D131" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="E131" s="29">
+      <c r="E131" s="109">
         <v>1</v>
       </c>
-      <c r="F131" s="30">
+      <c r="F131" s="110">
         <v>1</v>
       </c>
-      <c r="G131" s="87"/>
-      <c r="H131" s="91"/>
+      <c r="G131" s="87" t="s">
+        <v>291</v>
+      </c>
+      <c r="H131" s="91">
+        <v>45932</v>
+      </c>
       <c r="I131" s="90"/>
       <c r="J131" s="76"/>
       <c r="K131" s="1"/>
@@ -6777,12 +6787,24 @@
     </row>
     <row r="132" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="79"/>
-      <c r="B132" s="28"/>
-      <c r="C132" s="28"/>
-      <c r="D132" s="28"/>
-      <c r="E132" s="29"/>
-      <c r="F132" s="30"/>
-      <c r="G132" s="87"/>
+      <c r="B132" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C132" s="28" t="s">
+        <v>463</v>
+      </c>
+      <c r="D132" s="28" t="s">
+        <v>464</v>
+      </c>
+      <c r="E132" s="29" t="s">
+        <v>290</v>
+      </c>
+      <c r="F132" s="30">
+        <v>0</v>
+      </c>
+      <c r="G132" s="87">
+        <v>45932</v>
+      </c>
       <c r="H132" s="91"/>
       <c r="I132" s="90"/>
       <c r="J132" s="76"/>
@@ -6820,7 +6842,7 @@
       </c>
       <c r="F134" s="36">
         <f>SUM(F116:F133)-SUM(F113:F115)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G134" s="80"/>
       <c r="H134" s="92"/>
@@ -6870,10 +6892,10 @@
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D137" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" s="1"/>
@@ -6938,7 +6960,7 @@
       </c>
       <c r="C140" s="113"/>
       <c r="D140" s="112" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E140" s="114">
         <v>1</v>
@@ -6947,7 +6969,7 @@
         <v>9</v>
       </c>
       <c r="G140" s="80" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H140" s="94">
         <v>45911</v>
@@ -6967,13 +6989,13 @@
       </c>
       <c r="C141" s="21"/>
       <c r="D141" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="E141" s="22" t="s">
         <v>437</v>
       </c>
-      <c r="E141" s="22" t="s">
-        <v>438</v>
-      </c>
       <c r="F141" s="21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G141" s="86">
         <v>45911</v>
@@ -7010,10 +7032,10 @@
         <v>14</v>
       </c>
       <c r="C143" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D143" s="28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E143" s="29">
         <v>3</v>
@@ -7037,10 +7059,10 @@
         <v>14</v>
       </c>
       <c r="C144" s="28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D144" s="28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E144" s="29">
         <v>1</v>
@@ -7081,10 +7103,10 @@
         <v>16</v>
       </c>
       <c r="C146" s="28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D146" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E146" s="29">
         <v>42</v>
@@ -7108,7 +7130,7 @@
         <v>16</v>
       </c>
       <c r="C147" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D147" s="28" t="s">
         <v>22</v>
@@ -7134,10 +7156,10 @@
         <v>16</v>
       </c>
       <c r="C148" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D148" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E148" s="29">
         <v>1</v>
@@ -7212,10 +7234,10 @@
         <v>17</v>
       </c>
       <c r="C152" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D152" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E152" s="29">
         <v>1</v>
@@ -7239,10 +7261,10 @@
         <v>17</v>
       </c>
       <c r="C153" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D153" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E153" s="29">
         <v>18</v>
@@ -7266,7 +7288,7 @@
         <v>17</v>
       </c>
       <c r="C154" s="108" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D154" s="108" t="s">
         <v>19</v>
@@ -7278,7 +7300,7 @@
         <v>0</v>
       </c>
       <c r="G154" s="87" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H154" s="91">
         <v>45911</v>
@@ -7297,16 +7319,16 @@
         <v>17</v>
       </c>
       <c r="C155" s="28" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D155" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E155" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F155" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G155" s="87">
         <v>45911</v>
@@ -7326,7 +7348,7 @@
         <v>17</v>
       </c>
       <c r="C156" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D156" s="28" t="s">
         <v>19</v>
@@ -7353,16 +7375,16 @@
         <v>17</v>
       </c>
       <c r="C157" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D157" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E157" s="29">
         <v>4</v>
       </c>
       <c r="F157" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G157" s="87"/>
       <c r="H157" s="91"/>
@@ -7436,7 +7458,7 @@
       </c>
       <c r="F161" s="36">
         <f>SUM(F143:F160)-SUM(F140:F142)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G161" s="80"/>
       <c r="H161" s="92"/>
@@ -7486,10 +7508,10 @@
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D164" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="E164" s="2"/>
       <c r="F164" s="1"/>
@@ -7554,13 +7576,13 @@
       </c>
       <c r="C167" s="13"/>
       <c r="D167" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E167" s="14">
         <v>1</v>
       </c>
       <c r="F167" s="15">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G167" s="80"/>
       <c r="H167" s="94"/>
@@ -7612,7 +7634,7 @@
         <v>14</v>
       </c>
       <c r="C170" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D170" s="28" t="s">
         <v>22</v>
@@ -7639,7 +7661,7 @@
         <v>14</v>
       </c>
       <c r="C171" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D171" s="28" t="s">
         <v>24</v>
@@ -7683,10 +7705,10 @@
         <v>16</v>
       </c>
       <c r="C173" s="28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D173" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E173" s="29">
         <v>3</v>
@@ -7710,10 +7732,10 @@
         <v>16</v>
       </c>
       <c r="C174" s="108" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D174" s="108" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E174" s="109">
         <v>1</v>
@@ -7722,7 +7744,7 @@
         <v>0</v>
       </c>
       <c r="G174" s="91" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H174" s="91">
         <v>45897</v>
@@ -7741,13 +7763,13 @@
         <v>16</v>
       </c>
       <c r="C175" s="28" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D175" s="28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E175" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F175" s="30">
         <v>0</v>
@@ -7770,10 +7792,10 @@
         <v>16</v>
       </c>
       <c r="C176" s="28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D176" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E176" s="29">
         <v>1</v>
@@ -7831,10 +7853,10 @@
         <v>17</v>
       </c>
       <c r="C179" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D179" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E179" s="29">
         <v>56</v>
@@ -7858,10 +7880,10 @@
         <v>17</v>
       </c>
       <c r="C180" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D180" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E180" s="29">
         <v>1</v>
@@ -7885,10 +7907,10 @@
         <v>17</v>
       </c>
       <c r="C181" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D181" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E181" s="29">
         <v>7</v>
@@ -7912,10 +7934,10 @@
         <v>17</v>
       </c>
       <c r="C182" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D182" s="28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E182" s="29">
         <v>1</v>
@@ -7939,10 +7961,10 @@
         <v>17</v>
       </c>
       <c r="C183" s="108" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D183" s="108" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E183" s="109">
         <v>1</v>
@@ -7951,7 +7973,7 @@
         <v>0</v>
       </c>
       <c r="G183" s="83" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H183" s="91">
         <v>45876</v>
@@ -7970,13 +7992,13 @@
         <v>17</v>
       </c>
       <c r="C184" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="D184" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E184" s="29" t="s">
         <v>290</v>
-      </c>
-      <c r="D184" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="E184" s="29" t="s">
-        <v>291</v>
       </c>
       <c r="F184" s="30">
         <v>0</v>
@@ -8055,7 +8077,7 @@
       </c>
       <c r="F188" s="36">
         <f>SUM(F170:F187)-SUM(F167:F169)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G188" s="87"/>
       <c r="H188" s="91"/>
@@ -8105,10 +8127,10 @@
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E191" s="2"/>
       <c r="F191" s="1"/>
@@ -8173,13 +8195,13 @@
       </c>
       <c r="C194" s="13"/>
       <c r="D194" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E194" s="14">
         <v>1</v>
       </c>
       <c r="F194" s="15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G194" s="80"/>
       <c r="H194" s="94"/>
@@ -8231,7 +8253,7 @@
         <v>14</v>
       </c>
       <c r="C197" s="28" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D197" s="28" t="s">
         <v>18</v>
@@ -8258,7 +8280,7 @@
         <v>14</v>
       </c>
       <c r="C198" s="28" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D198" s="28" t="s">
         <v>22</v>
@@ -8302,10 +8324,10 @@
         <v>16</v>
       </c>
       <c r="C200" s="28" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D200" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E200" s="29">
         <v>1</v>
@@ -8329,7 +8351,7 @@
         <v>16</v>
       </c>
       <c r="C201" s="28" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D201" s="28" t="s">
         <v>18</v>
@@ -8338,7 +8360,7 @@
         <v>1</v>
       </c>
       <c r="F201" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G201" s="83"/>
       <c r="H201" s="90"/>
@@ -8356,7 +8378,7 @@
         <v>16</v>
       </c>
       <c r="C202" s="28" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D202" s="28" t="s">
         <v>22</v>
@@ -8434,16 +8456,16 @@
         <v>17</v>
       </c>
       <c r="C206" s="28" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D206" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E206" s="29">
         <v>1</v>
       </c>
       <c r="F206" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G206" s="87"/>
       <c r="H206" s="90"/>
@@ -8461,10 +8483,10 @@
         <v>17</v>
       </c>
       <c r="C207" s="28" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D207" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E207" s="29">
         <v>1</v>
@@ -8488,10 +8510,10 @@
         <v>17</v>
       </c>
       <c r="C208" s="28" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D208" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E208" s="29">
         <v>1</v>
@@ -8515,10 +8537,10 @@
         <v>17</v>
       </c>
       <c r="C209" s="28" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D209" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E209" s="29">
         <v>1</v>
@@ -8542,10 +8564,10 @@
         <v>17</v>
       </c>
       <c r="C210" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="D210" s="28" t="s">
         <v>282</v>
-      </c>
-      <c r="D210" s="28" t="s">
-        <v>283</v>
       </c>
       <c r="E210" s="29">
         <v>1</v>
@@ -8692,10 +8714,10 @@
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E218" s="2"/>
       <c r="F218" s="1"/>
@@ -8760,7 +8782,7 @@
       </c>
       <c r="C221" s="113"/>
       <c r="D221" s="112" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E221" s="114">
         <v>1</v>
@@ -8769,7 +8791,7 @@
         <v>6</v>
       </c>
       <c r="G221" s="80" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H221" s="94">
         <v>45890</v>
@@ -8789,13 +8811,13 @@
       </c>
       <c r="C222" s="21"/>
       <c r="D222" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E222" s="22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F222" s="21">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G222" s="94">
         <v>45890</v>
@@ -8832,7 +8854,7 @@
         <v>14</v>
       </c>
       <c r="C224" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D224" s="28" t="s">
         <v>19</v>
@@ -8859,7 +8881,7 @@
         <v>14</v>
       </c>
       <c r="C225" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D225" s="28" t="s">
         <v>18</v>
@@ -8903,10 +8925,10 @@
         <v>16</v>
       </c>
       <c r="C227" s="108" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D227" s="108" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E227" s="109">
         <v>1</v>
@@ -8915,7 +8937,7 @@
         <v>0</v>
       </c>
       <c r="G227" s="83" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H227" s="91">
         <v>45918</v>
@@ -8934,13 +8956,13 @@
         <v>16</v>
       </c>
       <c r="C228" s="28" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D228" s="28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E228" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F228" s="30">
         <v>1</v>
@@ -8963,10 +8985,10 @@
         <v>16</v>
       </c>
       <c r="C229" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D229" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E229" s="29">
         <v>5</v>
@@ -8990,10 +9012,10 @@
         <v>16</v>
       </c>
       <c r="C230" s="108" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D230" s="108" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E230" s="109">
         <v>4</v>
@@ -9002,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="G230" s="87" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H230" s="91">
         <v>45876</v>
@@ -9021,13 +9043,13 @@
         <v>16</v>
       </c>
       <c r="C231" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="D231" s="28" t="s">
         <v>295</v>
       </c>
-      <c r="D231" s="28" t="s">
-        <v>296</v>
-      </c>
       <c r="E231" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F231" s="30">
         <v>0</v>
@@ -9067,7 +9089,7 @@
         <v>17</v>
       </c>
       <c r="C233" s="28" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D233" s="28" t="s">
         <v>18</v>
@@ -9094,16 +9116,16 @@
         <v>17</v>
       </c>
       <c r="C234" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D234" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E234" s="29">
         <v>20</v>
       </c>
       <c r="F234" s="30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G234" s="87"/>
       <c r="H234" s="91"/>
@@ -9121,16 +9143,16 @@
         <v>17</v>
       </c>
       <c r="C235" s="28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D235" s="28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E235" s="29">
         <v>8</v>
       </c>
       <c r="F235" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G235" s="83"/>
       <c r="H235" s="91"/>
@@ -9148,10 +9170,10 @@
         <v>17</v>
       </c>
       <c r="C236" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D236" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E236" s="29">
         <v>15</v>
@@ -9175,10 +9197,10 @@
         <v>17</v>
       </c>
       <c r="C237" s="108" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D237" s="108" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E237" s="109">
         <v>1</v>
@@ -9187,7 +9209,7 @@
         <v>0</v>
       </c>
       <c r="G237" s="87" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H237" s="91">
         <v>45911</v>
@@ -9206,13 +9228,13 @@
         <v>17</v>
       </c>
       <c r="C238" s="28" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D238" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E238" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F238" s="30">
         <v>2</v>
@@ -9291,7 +9313,7 @@
       </c>
       <c r="F242" s="36">
         <f>SUM(F224:F241)-SUM(F221:F223)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G242" s="80"/>
       <c r="H242" s="92"/>
@@ -9341,10 +9363,10 @@
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E245" s="2"/>
       <c r="F245" s="1"/>
@@ -9401,7 +9423,7 @@
       </c>
       <c r="C248" s="113"/>
       <c r="D248" s="112" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E248" s="114">
         <v>8</v>
@@ -9410,7 +9432,7 @@
         <v>14</v>
       </c>
       <c r="G248" s="80" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H248" s="94">
         <v>45918</v>
@@ -9433,10 +9455,10 @@
         <v>24</v>
       </c>
       <c r="E249" s="22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F249" s="21">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G249" s="86">
         <v>45918</v>
@@ -9473,10 +9495,10 @@
         <v>14</v>
       </c>
       <c r="C251" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D251" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E251" s="29">
         <v>1</v>
@@ -9500,7 +9522,7 @@
         <v>14</v>
       </c>
       <c r="C252" s="28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D252" s="28" t="s">
         <v>22</v>
@@ -9544,10 +9566,10 @@
         <v>16</v>
       </c>
       <c r="C254" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D254" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E254" s="29">
         <v>1</v>
@@ -9571,7 +9593,7 @@
         <v>16</v>
       </c>
       <c r="C255" s="108" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D255" s="108" t="s">
         <v>24</v>
@@ -9583,7 +9605,7 @@
         <v>0</v>
       </c>
       <c r="G255" s="91" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H255" s="91">
         <v>45890</v>
@@ -9602,13 +9624,13 @@
         <v>16</v>
       </c>
       <c r="C256" s="28" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D256" s="28" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E256" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F256" s="30">
         <v>0</v>
@@ -9631,7 +9653,7 @@
         <v>16</v>
       </c>
       <c r="C257" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D257" s="28" t="s">
         <v>22</v>
@@ -9692,10 +9714,10 @@
         <v>17</v>
       </c>
       <c r="C260" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D260" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E260" s="29">
         <v>20</v>
@@ -9719,7 +9741,7 @@
         <v>17</v>
       </c>
       <c r="C261" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D261" s="28" t="s">
         <v>26</v>
@@ -9746,7 +9768,7 @@
         <v>17</v>
       </c>
       <c r="C262" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D262" s="28" t="s">
         <v>24</v>
@@ -9773,10 +9795,10 @@
         <v>17</v>
       </c>
       <c r="C263" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D263" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E263" s="29">
         <v>14</v>
@@ -9800,10 +9822,10 @@
         <v>17</v>
       </c>
       <c r="C264" s="108" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D264" s="108" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E264" s="109">
         <v>14</v>
@@ -9812,7 +9834,7 @@
         <v>0</v>
       </c>
       <c r="G264" s="83" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H264" s="91">
         <v>45897</v>
@@ -9831,13 +9853,13 @@
         <v>17</v>
       </c>
       <c r="C265" s="28" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D265" s="28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E265" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F265" s="30">
         <v>1</v>
@@ -9916,7 +9938,7 @@
       </c>
       <c r="F269" s="36">
         <f>SUM(F251:F268)-SUM(F248:F250)</f>
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="G269" s="80"/>
       <c r="H269" s="92"/>
@@ -9966,10 +9988,10 @@
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E272" s="2"/>
       <c r="F272" s="1"/>
@@ -10034,13 +10056,13 @@
       </c>
       <c r="C275" s="13"/>
       <c r="D275" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E275" s="14">
         <v>1</v>
       </c>
       <c r="F275" s="15">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G275" s="80"/>
       <c r="H275" s="94"/>
@@ -10092,10 +10114,10 @@
         <v>14</v>
       </c>
       <c r="C278" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D278" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E278" s="29">
         <v>4</v>
@@ -10119,10 +10141,10 @@
         <v>14</v>
       </c>
       <c r="C279" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D279" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E279" s="29">
         <v>1</v>
@@ -10163,10 +10185,10 @@
         <v>16</v>
       </c>
       <c r="C281" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D281" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E281" s="29">
         <v>25</v>
@@ -10190,10 +10212,10 @@
         <v>16</v>
       </c>
       <c r="C282" s="28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D282" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E282" s="29">
         <v>40</v>
@@ -10217,10 +10239,10 @@
         <v>16</v>
       </c>
       <c r="C283" s="108" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D283" s="108" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E283" s="109">
         <v>1</v>
@@ -10229,7 +10251,7 @@
         <v>0</v>
       </c>
       <c r="G283" s="87" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H283" s="91">
         <v>45876</v>
@@ -10248,13 +10270,13 @@
         <v>16</v>
       </c>
       <c r="C284" s="28" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D284" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E284" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F284" s="30">
         <v>1</v>
@@ -10311,16 +10333,16 @@
         <v>17</v>
       </c>
       <c r="C287" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D287" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E287" s="29">
         <v>12</v>
       </c>
       <c r="F287" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G287" s="87"/>
       <c r="H287" s="91"/>
@@ -10338,10 +10360,10 @@
         <v>17</v>
       </c>
       <c r="C288" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="D288" s="28" t="s">
         <v>158</v>
-      </c>
-      <c r="D288" s="28" t="s">
-        <v>159</v>
       </c>
       <c r="E288" s="29">
         <v>1</v>
@@ -10365,10 +10387,10 @@
         <v>17</v>
       </c>
       <c r="C289" s="28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D289" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E289" s="29">
         <v>4</v>
@@ -10392,10 +10414,10 @@
         <v>17</v>
       </c>
       <c r="C290" s="28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D290" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E290" s="29">
         <v>10</v>
@@ -10419,10 +10441,10 @@
         <v>17</v>
       </c>
       <c r="C291" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D291" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E291" s="29">
         <v>1</v>
@@ -10519,7 +10541,7 @@
       </c>
       <c r="F296" s="36">
         <f>SUM(F278:F295)-SUM(F275:F276)</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G296" s="91"/>
       <c r="H296" s="91"/>
@@ -10569,10 +10591,10 @@
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E299" s="2"/>
       <c r="F299" s="1"/>
@@ -10637,7 +10659,7 @@
       </c>
       <c r="C302" s="113"/>
       <c r="D302" s="112" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E302" s="114">
         <v>4</v>
@@ -10646,7 +10668,7 @@
         <v>6</v>
       </c>
       <c r="G302" s="80" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H302" s="91">
         <v>45890</v>
@@ -10666,10 +10688,10 @@
       </c>
       <c r="C303" s="21"/>
       <c r="D303" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E303" s="22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F303" s="21">
         <v>9</v>
@@ -10709,10 +10731,10 @@
         <v>14</v>
       </c>
       <c r="C305" s="28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D305" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E305" s="29">
         <v>2</v>
@@ -10736,10 +10758,10 @@
         <v>14</v>
       </c>
       <c r="C306" s="28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D306" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E306" s="29">
         <v>1</v>
@@ -10780,10 +10802,10 @@
         <v>16</v>
       </c>
       <c r="C308" s="28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D308" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E308" s="29">
         <v>4</v>
@@ -10807,10 +10829,10 @@
         <v>16</v>
       </c>
       <c r="C309" s="108" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D309" s="108" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E309" s="109">
         <v>1</v>
@@ -10819,7 +10841,7 @@
         <v>1</v>
       </c>
       <c r="G309" s="87" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H309" s="91">
         <v>45911</v>
@@ -10838,13 +10860,13 @@
         <v>16</v>
       </c>
       <c r="C310" s="28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D310" s="28" t="s">
         <v>26</v>
       </c>
       <c r="E310" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F310" s="30">
         <v>0</v>
@@ -10867,10 +10889,10 @@
         <v>16</v>
       </c>
       <c r="C311" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D311" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E311" s="29">
         <v>9</v>
@@ -10928,7 +10950,7 @@
         <v>17</v>
       </c>
       <c r="C314" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D314" s="28" t="s">
         <v>22</v>
@@ -10937,7 +10959,7 @@
         <v>54</v>
       </c>
       <c r="F314" s="30">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G314" s="87"/>
       <c r="H314" s="91"/>
@@ -10951,23 +10973,27 @@
     </row>
     <row r="315" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="79"/>
-      <c r="B315" s="28" t="s">
+      <c r="B315" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C315" s="28" t="s">
-        <v>240</v>
-      </c>
-      <c r="D315" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="E315" s="29">
+      <c r="C315" s="108" t="s">
+        <v>239</v>
+      </c>
+      <c r="D315" s="108" t="s">
+        <v>123</v>
+      </c>
+      <c r="E315" s="109">
         <v>8</v>
       </c>
-      <c r="F315" s="30">
+      <c r="F315" s="110">
         <v>1</v>
       </c>
-      <c r="G315" s="87"/>
-      <c r="H315" s="91"/>
+      <c r="G315" s="87" t="s">
+        <v>291</v>
+      </c>
+      <c r="H315" s="91">
+        <v>45939</v>
+      </c>
       <c r="I315" s="90"/>
       <c r="J315" s="1"/>
       <c r="K315" s="1"/>
@@ -10982,18 +11008,20 @@
         <v>17</v>
       </c>
       <c r="C316" s="28" t="s">
-        <v>241</v>
+        <v>465</v>
       </c>
       <c r="D316" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="E316" s="29">
-        <v>1</v>
+        <v>85</v>
+      </c>
+      <c r="E316" s="29" t="s">
+        <v>290</v>
       </c>
       <c r="F316" s="30">
-        <v>3</v>
-      </c>
-      <c r="G316" s="87"/>
+        <v>0</v>
+      </c>
+      <c r="G316" s="87">
+        <v>45939</v>
+      </c>
       <c r="H316" s="91"/>
       <c r="I316" s="90"/>
       <c r="J316" s="1"/>
@@ -11005,27 +11033,23 @@
     </row>
     <row r="317" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="79"/>
-      <c r="B317" s="108" t="s">
+      <c r="B317" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C317" s="108" t="s">
-        <v>242</v>
-      </c>
-      <c r="D317" s="108" t="s">
-        <v>243</v>
-      </c>
-      <c r="E317" s="109">
+      <c r="C317" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="D317" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="E317" s="29">
         <v>1</v>
       </c>
-      <c r="F317" s="110">
-        <v>0</v>
-      </c>
-      <c r="G317" s="83" t="s">
-        <v>292</v>
-      </c>
-      <c r="H317" s="91">
-        <v>45911</v>
-      </c>
+      <c r="F317" s="30">
+        <v>4</v>
+      </c>
+      <c r="G317" s="87"/>
+      <c r="H317" s="91"/>
       <c r="I317" s="90"/>
       <c r="J317" s="1"/>
       <c r="K317" s="1"/>
@@ -11036,25 +11060,27 @@
     </row>
     <row r="318" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="79"/>
-      <c r="B318" s="28" t="s">
+      <c r="B318" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C318" s="28" t="s">
-        <v>456</v>
-      </c>
-      <c r="D318" s="28" t="s">
-        <v>457</v>
-      </c>
-      <c r="E318" s="29" t="s">
+      <c r="C318" s="108" t="s">
+        <v>241</v>
+      </c>
+      <c r="D318" s="108" t="s">
+        <v>242</v>
+      </c>
+      <c r="E318" s="109">
+        <v>1</v>
+      </c>
+      <c r="F318" s="110">
+        <v>0</v>
+      </c>
+      <c r="G318" s="83" t="s">
         <v>291</v>
       </c>
-      <c r="F318" s="30">
-        <v>0</v>
-      </c>
-      <c r="G318" s="87">
+      <c r="H318" s="91">
         <v>45911</v>
       </c>
-      <c r="H318" s="91"/>
       <c r="I318" s="90"/>
       <c r="J318" s="1"/>
       <c r="K318" s="1"/>
@@ -11065,27 +11091,25 @@
     </row>
     <row r="319" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="79"/>
-      <c r="B319" s="108" t="s">
+      <c r="B319" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C319" s="108" t="s">
-        <v>244</v>
-      </c>
-      <c r="D319" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="E319" s="109">
-        <v>1</v>
-      </c>
-      <c r="F319" s="110">
+      <c r="C319" s="28" t="s">
+        <v>455</v>
+      </c>
+      <c r="D319" s="28" t="s">
+        <v>456</v>
+      </c>
+      <c r="E319" s="29" t="s">
+        <v>290</v>
+      </c>
+      <c r="F319" s="30">
         <v>0</v>
       </c>
-      <c r="G319" s="87" t="s">
-        <v>292</v>
-      </c>
-      <c r="H319" s="91">
-        <v>45890</v>
-      </c>
+      <c r="G319" s="87">
+        <v>45911</v>
+      </c>
+      <c r="H319" s="91"/>
       <c r="I319" s="90"/>
       <c r="J319" s="1"/>
       <c r="K319" s="1"/>
@@ -11096,25 +11120,27 @@
     </row>
     <row r="320" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="79"/>
-      <c r="B320" s="28" t="s">
+      <c r="B320" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C320" s="28" t="s">
-        <v>410</v>
-      </c>
-      <c r="D320" s="28" t="s">
-        <v>283</v>
-      </c>
-      <c r="E320" s="29" t="s">
+      <c r="C320" s="108" t="s">
+        <v>243</v>
+      </c>
+      <c r="D320" s="108" t="s">
+        <v>88</v>
+      </c>
+      <c r="E320" s="109">
+        <v>1</v>
+      </c>
+      <c r="F320" s="110">
+        <v>0</v>
+      </c>
+      <c r="G320" s="87" t="s">
         <v>291</v>
       </c>
-      <c r="F320" s="30">
-        <v>4</v>
-      </c>
-      <c r="G320" s="87">
+      <c r="H320" s="91">
         <v>45890</v>
       </c>
-      <c r="H320" s="91"/>
       <c r="I320" s="90"/>
       <c r="J320" s="1"/>
       <c r="K320" s="1"/>
@@ -11125,12 +11151,24 @@
     </row>
     <row r="321" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="79"/>
-      <c r="B321" s="28"/>
-      <c r="C321" s="28"/>
-      <c r="D321" s="28"/>
-      <c r="E321" s="29"/>
-      <c r="F321" s="30"/>
-      <c r="G321" s="87"/>
+      <c r="B321" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C321" s="28" t="s">
+        <v>409</v>
+      </c>
+      <c r="D321" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="E321" s="29" t="s">
+        <v>290</v>
+      </c>
+      <c r="F321" s="30">
+        <v>4</v>
+      </c>
+      <c r="G321" s="87">
+        <v>45890</v>
+      </c>
       <c r="H321" s="91"/>
       <c r="I321" s="90"/>
       <c r="J321" s="1"/>
@@ -11168,7 +11206,7 @@
       </c>
       <c r="F323" s="36">
         <f>SUM(F305:F322)-SUM(F302:F304)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G323" s="80"/>
       <c r="H323" s="92"/>
@@ -11218,10 +11256,10 @@
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E326" s="2"/>
       <c r="F326" s="1"/>
@@ -11292,7 +11330,7 @@
         <v>1</v>
       </c>
       <c r="F329" s="15">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G329" s="83"/>
       <c r="H329" s="87"/>
@@ -11344,10 +11382,10 @@
         <v>14</v>
       </c>
       <c r="C332" s="28" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D332" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E332" s="29">
         <v>1</v>
@@ -11371,7 +11409,7 @@
         <v>14</v>
       </c>
       <c r="C333" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D333" s="28" t="s">
         <v>20</v>
@@ -11415,10 +11453,10 @@
         <v>16</v>
       </c>
       <c r="C335" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D335" s="28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E335" s="29">
         <v>1</v>
@@ -11442,16 +11480,16 @@
         <v>16</v>
       </c>
       <c r="C336" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D336" s="28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E336" s="29">
         <v>1</v>
       </c>
       <c r="F336" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G336" s="87"/>
       <c r="H336" s="90"/>
@@ -11469,7 +11507,7 @@
         <v>16</v>
       </c>
       <c r="C337" s="28" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D337" s="28" t="s">
         <v>24</v>
@@ -11478,7 +11516,7 @@
         <v>1</v>
       </c>
       <c r="F337" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G337" s="87"/>
       <c r="H337" s="90"/>
@@ -11541,10 +11579,10 @@
         <v>17</v>
       </c>
       <c r="C341" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D341" s="28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E341" s="29">
         <v>1</v>
@@ -11565,10 +11603,10 @@
         <v>17</v>
       </c>
       <c r="C342" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D342" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E342" s="29">
         <v>1</v>
@@ -11589,10 +11627,10 @@
         <v>17</v>
       </c>
       <c r="C343" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D343" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E343" s="29">
         <v>1</v>
@@ -11613,16 +11651,16 @@
         <v>17</v>
       </c>
       <c r="C344" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D344" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E344" s="29">
         <v>1</v>
       </c>
       <c r="F344" s="30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G344" s="83"/>
       <c r="H344" s="91"/>
@@ -11637,10 +11675,10 @@
         <v>17</v>
       </c>
       <c r="C345" s="28" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D345" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E345" s="29">
         <v>1</v>
@@ -11722,7 +11760,7 @@
       </c>
       <c r="F350" s="36">
         <f>SUM(F332:F349)-SUM(F329:F331)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G350" s="83"/>
       <c r="H350" s="90"/>
@@ -11748,10 +11786,10 @@
     <row r="353" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B353" s="1"/>
       <c r="C353" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E353" s="2"/>
       <c r="F353" s="1"/>
@@ -11798,13 +11836,13 @@
       </c>
       <c r="C356" s="13"/>
       <c r="D356" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E356" s="14">
         <v>5</v>
       </c>
       <c r="F356" s="15">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G356" s="1"/>
       <c r="H356" s="104"/>
@@ -11838,10 +11876,10 @@
         <v>14</v>
       </c>
       <c r="C359" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D359" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E359" s="29">
         <v>4</v>
@@ -11859,7 +11897,7 @@
         <v>14</v>
       </c>
       <c r="C360" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D360" s="28" t="s">
         <v>23</v>
@@ -11891,7 +11929,7 @@
         <v>16</v>
       </c>
       <c r="C362" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D362" s="28" t="s">
         <v>18</v>
@@ -11900,7 +11938,7 @@
         <v>32</v>
       </c>
       <c r="F362" s="30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G362" s="1"/>
       <c r="H362" s="1"/>
@@ -11912,10 +11950,10 @@
         <v>16</v>
       </c>
       <c r="C363" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D363" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E363" s="29">
         <v>4</v>
@@ -11933,10 +11971,10 @@
         <v>16</v>
       </c>
       <c r="C364" s="108" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D364" s="108" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E364" s="109">
         <v>1</v>
@@ -11945,7 +11983,7 @@
         <v>0</v>
       </c>
       <c r="G364" s="104" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H364" s="104">
         <v>45904</v>
@@ -11958,16 +11996,16 @@
         <v>16</v>
       </c>
       <c r="C365" s="28" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D365" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E365" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F365" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G365" s="104">
         <v>45904</v>
@@ -12003,10 +12041,10 @@
         <v>17</v>
       </c>
       <c r="C368" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D368" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E368" s="29">
         <v>27</v>
@@ -12024,16 +12062,16 @@
         <v>17</v>
       </c>
       <c r="C369" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D369" s="28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E369" s="29">
         <v>12</v>
       </c>
       <c r="F369" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G369" s="104"/>
       <c r="H369" s="104"/>
@@ -12045,16 +12083,16 @@
         <v>17</v>
       </c>
       <c r="C370" s="28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D370" s="28" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E370" s="29">
         <v>5</v>
       </c>
       <c r="F370" s="30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G370" s="104"/>
       <c r="H370" s="1"/>
@@ -12066,10 +12104,10 @@
         <v>17</v>
       </c>
       <c r="C371" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="D371" s="28" t="s">
         <v>256</v>
-      </c>
-      <c r="D371" s="28" t="s">
-        <v>257</v>
       </c>
       <c r="E371" s="29">
         <v>1</v>
@@ -12087,10 +12125,10 @@
         <v>17</v>
       </c>
       <c r="C372" s="108" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D372" s="108" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E372" s="109">
         <v>1</v>
@@ -12099,7 +12137,7 @@
         <v>0</v>
       </c>
       <c r="G372" s="104" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H372" s="104">
         <v>45890</v>
@@ -12112,13 +12150,13 @@
         <v>17</v>
       </c>
       <c r="C373" s="28" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D373" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E373" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F373" s="30">
         <v>0</v>
@@ -12173,7 +12211,7 @@
       </c>
       <c r="F377" s="36">
         <f>SUM(F359:F376)-SUM(F356:F358)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G377" s="1"/>
       <c r="H377" s="1"/>
@@ -12183,10 +12221,10 @@
     <row r="380" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B380" s="1"/>
       <c r="C380" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D380" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="D380" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="E380" s="2"/>
       <c r="F380" s="1"/>
@@ -12429,7 +12467,7 @@
   <dimension ref="A1:IV22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12465,7 +12503,7 @@
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
       <c r="D2" s="43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" s="41"/>
       <c r="F2" s="41"/>
@@ -12493,7 +12531,7 @@
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
       <c r="D4" s="43" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E4" s="41"/>
       <c r="F4" s="41"/>
@@ -12553,10 +12591,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="25">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F7" s="26">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G7" s="27">
         <v>3</v>
@@ -12574,22 +12612,22 @@
       <c r="C8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="55" t="s">
-        <v>202</v>
+      <c r="D8" s="24" t="s">
+        <v>201</v>
       </c>
       <c r="E8" s="25">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F8" s="26">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G8" s="27">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H8" s="52"/>
       <c r="I8" s="41"/>
       <c r="J8" s="41"/>
-      <c r="K8" s="53"/>
+      <c r="K8" s="41"/>
     </row>
     <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="47"/>
@@ -12597,16 +12635,16 @@
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E9" s="25">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F9" s="26">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G9" s="27">
         <v>15</v>
@@ -12622,19 +12660,19 @@
         <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>32</v>
+        <v>206</v>
       </c>
       <c r="E10" s="25">
         <v>7</v>
       </c>
-      <c r="F10" s="56">
-        <v>18</v>
-      </c>
-      <c r="G10" s="57">
-        <v>11</v>
+      <c r="F10" s="26">
+        <v>24</v>
+      </c>
+      <c r="G10" s="27">
+        <v>17</v>
       </c>
       <c r="H10" s="52"/>
       <c r="I10" s="41"/>
@@ -12644,22 +12682,22 @@
     <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="47"/>
       <c r="B11" s="54">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="55" t="s">
-        <v>273</v>
+        <v>66</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>247</v>
       </c>
       <c r="E11" s="25">
         <v>7</v>
       </c>
       <c r="F11" s="26">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G11" s="27">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H11" s="52"/>
       <c r="I11" s="41"/>
@@ -12672,19 +12710,19 @@
         <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>248</v>
+        <v>31</v>
       </c>
       <c r="E12" s="25">
         <v>6</v>
       </c>
       <c r="F12" s="26">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G12" s="27">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H12" s="52"/>
       <c r="I12" s="41"/>
@@ -12697,18 +12735,18 @@
         <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>207</v>
+        <v>54</v>
+      </c>
+      <c r="D13" s="55" t="s">
+        <v>272</v>
       </c>
       <c r="E13" s="25">
-        <v>4</v>
-      </c>
-      <c r="F13" s="26">
-        <v>19</v>
-      </c>
-      <c r="G13" s="27">
+        <v>5</v>
+      </c>
+      <c r="F13" s="56">
+        <v>20</v>
+      </c>
+      <c r="G13" s="57">
         <v>15</v>
       </c>
       <c r="H13" s="52"/>
@@ -12722,19 +12760,19 @@
         <v>8</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>36</v>
+        <v>248</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>35</v>
+        <v>249</v>
       </c>
       <c r="E14" s="25">
         <v>4</v>
       </c>
       <c r="F14" s="26">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G14" s="27">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H14" s="52"/>
       <c r="I14" s="41"/>
@@ -12750,21 +12788,21 @@
         <v>21</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E15" s="25">
         <v>2</v>
       </c>
-      <c r="F15" s="56">
-        <v>12</v>
-      </c>
-      <c r="G15" s="57">
-        <v>10</v>
+      <c r="F15" s="26">
+        <v>16</v>
+      </c>
+      <c r="G15" s="27">
+        <v>14</v>
       </c>
       <c r="H15" s="52"/>
       <c r="I15" s="41"/>
       <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
+      <c r="K15" s="53"/>
     </row>
     <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="47"/>
@@ -12772,19 +12810,19 @@
         <v>10</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D16" s="55" t="s">
-        <v>250</v>
+        <v>35</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="E16" s="25">
-        <v>1</v>
-      </c>
-      <c r="F16" s="56">
-        <v>13</v>
-      </c>
-      <c r="G16" s="57">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="F16" s="26">
+        <v>11</v>
+      </c>
+      <c r="G16" s="27">
+        <v>9</v>
       </c>
       <c r="H16" s="52"/>
       <c r="I16" s="41"/>
@@ -12797,19 +12835,19 @@
         <v>11</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>54</v>
+        <v>27</v>
+      </c>
+      <c r="D17" s="55" t="s">
+        <v>15</v>
       </c>
       <c r="E17" s="25">
         <v>1</v>
       </c>
-      <c r="F17" s="26">
-        <v>6</v>
-      </c>
-      <c r="G17" s="27">
-        <v>5</v>
+      <c r="F17" s="56">
+        <v>14</v>
+      </c>
+      <c r="G17" s="57">
+        <v>13</v>
       </c>
       <c r="H17" s="52"/>
       <c r="I17" s="41"/>
@@ -12822,19 +12860,19 @@
         <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="E18" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="26">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G18" s="27">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H18" s="52"/>
       <c r="I18" s="41"/>
@@ -12847,19 +12885,19 @@
         <v>13</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E19" s="25">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F19" s="26">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" s="27">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H19" s="52"/>
       <c r="I19" s="41"/>
@@ -12872,19 +12910,19 @@
         <v>14</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>226</v>
+        <v>55</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>225</v>
       </c>
       <c r="E20" s="25">
-        <v>-12</v>
-      </c>
-      <c r="F20" s="26">
+        <v>-15</v>
+      </c>
+      <c r="F20" s="56">
         <v>5</v>
       </c>
-      <c r="G20" s="27">
-        <v>17</v>
+      <c r="G20" s="57">
+        <v>20</v>
       </c>
       <c r="H20" s="52"/>
       <c r="I20" s="41"/>
@@ -12950,7 +12988,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="62" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C1" s="40"/>
       <c r="D1" s="40"/>
@@ -12968,7 +13006,7 @@
     </row>
     <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
@@ -12978,7 +13016,7 @@
     </row>
     <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="68"/>
       <c r="C4" s="68"/>
@@ -12989,7 +13027,7 @@
     </row>
     <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="68"/>
       <c r="C5" s="105"/>
@@ -13000,7 +13038,7 @@
     </row>
     <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="68"/>
       <c r="C6" s="68"/>
@@ -13011,7 +13049,7 @@
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="68"/>
       <c r="C7" s="68"/>
@@ -13022,7 +13060,7 @@
     </row>
     <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="68"/>
       <c r="C8" s="68"/>
@@ -13033,7 +13071,7 @@
     </row>
     <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="68"/>
       <c r="C9" s="68"/>
@@ -13054,7 +13092,7 @@
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="67"/>
       <c r="B11" s="63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" s="68"/>
       <c r="D11" s="64"/>
@@ -13064,7 +13102,7 @@
     </row>
     <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" s="65"/>
       <c r="C12" s="68"/>
@@ -13075,7 +13113,7 @@
     </row>
     <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" s="65"/>
       <c r="C13" s="68"/>
@@ -13086,7 +13124,7 @@
     </row>
     <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="67" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" s="65"/>
       <c r="C14" s="68"/>
@@ -13097,7 +13135,7 @@
     </row>
     <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="67" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B15" s="70"/>
       <c r="C15" s="69"/>
@@ -13118,7 +13156,7 @@
     <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="67"/>
       <c r="B17" s="63" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C17" s="68"/>
       <c r="D17" s="64"/>
@@ -13128,7 +13166,7 @@
     </row>
     <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="67" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B18" s="70"/>
       <c r="C18" s="69"/>
@@ -13155,7 +13193,7 @@
     </row>
     <row r="21" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="66"/>
       <c r="D21" s="61"/>
@@ -13165,7 +13203,7 @@
     </row>
     <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="67" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B22" s="70"/>
       <c r="C22" s="69"/>
@@ -13176,7 +13214,7 @@
     </row>
     <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B23" s="65"/>
       <c r="C23" s="68"/>
@@ -13195,7 +13233,7 @@
     </row>
     <row r="25" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="63" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="65"/>
       <c r="D25" s="64"/>
@@ -13205,7 +13243,7 @@
     </row>
     <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="67" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B26" s="65"/>
       <c r="C26" s="68"/>
@@ -13224,7 +13262,7 @@
     </row>
     <row r="28" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" s="40"/>
       <c r="D28" s="40"/>
@@ -13270,7 +13308,7 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B1" s="62" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C1" s="40"/>
       <c r="D1" s="40"/>
@@ -13322,7 +13360,7 @@
     </row>
     <row r="3" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B3" s="63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
@@ -13349,30 +13387,30 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="68" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C4" s="64">
         <v>4</v>
       </c>
       <c r="D4" s="64" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E4" s="69" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F4" s="100">
         <v>-1</v>
       </c>
       <c r="G4" s="100" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H4" s="38"/>
       <c r="I4" s="38"/>
       <c r="J4" s="98" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K4" s="38"/>
       <c r="L4" s="38"/>
@@ -13391,30 +13429,30 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="64">
         <v>1</v>
       </c>
       <c r="D5" s="64" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E5" s="69" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F5" s="100">
         <v>0</v>
       </c>
       <c r="G5" s="100" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H5" s="38"/>
       <c r="I5" s="38"/>
       <c r="J5" s="98" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K5" s="38"/>
       <c r="L5" s="38"/>
@@ -13433,30 +13471,30 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="68" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C6" s="64">
         <v>1</v>
       </c>
       <c r="D6" s="64" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E6" s="69" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F6" s="100">
         <v>0</v>
       </c>
       <c r="G6" s="100" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H6" s="38"/>
       <c r="I6" s="38"/>
       <c r="J6" s="98" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K6" s="38"/>
       <c r="L6" s="38"/>
@@ -13475,30 +13513,30 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="68" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="64">
         <v>2</v>
       </c>
       <c r="D7" s="64" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E7" s="69" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F7" s="100">
         <v>1</v>
       </c>
       <c r="G7" s="100" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
       <c r="J7" s="98" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K7" s="38"/>
       <c r="L7" s="38"/>
@@ -13517,30 +13555,30 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="69" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C8" s="100">
         <v>0</v>
       </c>
       <c r="D8" s="100" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E8" s="68" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F8" s="64">
         <v>2</v>
       </c>
       <c r="G8" s="64" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H8" s="38"/>
       <c r="I8" s="38"/>
       <c r="J8" s="98" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K8" s="38"/>
       <c r="L8" s="38"/>
@@ -13559,7 +13597,7 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="69" t="s">
         <v>15</v>
@@ -13568,21 +13606,21 @@
         <v>-2</v>
       </c>
       <c r="D9" s="100" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E9" s="68" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F9" s="64">
         <v>1</v>
       </c>
       <c r="G9" s="64" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H9" s="38"/>
       <c r="I9" s="38"/>
       <c r="J9" s="98" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K9" s="38"/>
       <c r="L9" s="38"/>
@@ -13601,30 +13639,30 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C10" s="100">
         <v>1</v>
       </c>
       <c r="D10" s="100" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E10" s="68" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F10" s="64">
         <v>1</v>
       </c>
       <c r="G10" s="64" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H10" s="38"/>
       <c r="I10" s="38"/>
       <c r="J10" s="98" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K10" s="38"/>
       <c r="L10" s="38"/>
@@ -13643,25 +13681,25 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" s="68" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C11" s="64">
         <v>2</v>
       </c>
       <c r="D11" s="64" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E11" s="68" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F11" s="64">
         <v>2</v>
       </c>
       <c r="G11" s="64" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H11" s="38"/>
       <c r="I11" s="38"/>
@@ -13683,25 +13721,25 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="67" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" s="69" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C12" s="100">
         <v>-2</v>
       </c>
       <c r="D12" s="100" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E12" s="68" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F12" s="64">
         <v>-1</v>
       </c>
       <c r="G12" s="64" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H12" s="38"/>
       <c r="I12" s="38"/>
@@ -13723,25 +13761,25 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="67" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" s="68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="64">
         <v>2</v>
       </c>
       <c r="D13" s="64" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E13" s="69" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F13" s="100">
         <v>1</v>
       </c>
       <c r="G13" s="100" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H13" s="38"/>
       <c r="I13" s="38"/>
@@ -13790,7 +13828,7 @@
     <row r="15" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A15" s="67"/>
       <c r="B15" s="63" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
@@ -13817,25 +13855,25 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="67" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B16" s="68" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C16" s="64">
         <v>-1</v>
       </c>
       <c r="D16" s="64" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E16" s="69" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F16" s="100">
         <v>-1</v>
       </c>
       <c r="G16" s="100" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H16" s="38"/>
       <c r="I16" s="38"/>
@@ -13884,7 +13922,7 @@
     <row r="18" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A18" s="67"/>
       <c r="B18" s="63" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C18" s="68"/>
       <c r="D18" s="64"/>
@@ -13911,15 +13949,15 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="67" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B19" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C19" s="68"/>
       <c r="D19" s="64"/>
       <c r="E19" s="65" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F19" s="69"/>
       <c r="G19" s="100"/>
@@ -13943,15 +13981,15 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B20" s="65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="68"/>
       <c r="D20" s="64"/>
       <c r="E20" s="65" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F20" s="68"/>
       <c r="G20" s="64"/>
@@ -13975,15 +14013,15 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="67" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B21" s="65" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C21" s="68"/>
       <c r="D21" s="64"/>
       <c r="E21" s="65" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F21" s="69"/>
       <c r="G21" s="100"/>
@@ -14007,15 +14045,15 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="67" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B22" s="65" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="69"/>
       <c r="D22" s="100"/>
       <c r="E22" s="65" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F22" s="68"/>
       <c r="G22" s="64"/>
@@ -14039,15 +14077,15 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="67" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B23" s="65" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C23" s="69"/>
       <c r="D23" s="100"/>
       <c r="E23" s="65" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F23" s="68"/>
       <c r="G23" s="64"/>
@@ -14071,15 +14109,15 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="67" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B24" s="65" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C24" s="69"/>
       <c r="D24" s="100"/>
       <c r="E24" s="65" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F24" s="68"/>
       <c r="G24" s="64"/>
@@ -14103,15 +14141,15 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="67" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B25" s="65" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C25" s="69"/>
       <c r="D25" s="100"/>
       <c r="E25" s="65" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F25" s="68"/>
       <c r="G25" s="64"/>
@@ -14135,15 +14173,15 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="67" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B26" s="65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" s="69"/>
       <c r="D26" s="100"/>
       <c r="E26" s="65" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F26" s="68"/>
       <c r="G26" s="64"/>
@@ -14194,7 +14232,7 @@
     <row r="28" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A28" s="67"/>
       <c r="B28" s="63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C28" s="68"/>
       <c r="D28" s="64"/>
@@ -14221,7 +14259,7 @@
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="67" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B29" s="70"/>
       <c r="C29" s="69"/>
@@ -14249,7 +14287,7 @@
     </row>
     <row r="30" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A30" s="67" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B30" s="63"/>
       <c r="C30" s="64"/>
@@ -14277,7 +14315,7 @@
     </row>
     <row r="31" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A31" s="67" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B31" s="63"/>
       <c r="C31" s="64"/>
@@ -14305,7 +14343,7 @@
     </row>
     <row r="32" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A32" s="67" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B32" s="63"/>
       <c r="C32" s="64"/>
@@ -14358,7 +14396,7 @@
     </row>
     <row r="34" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B34" s="63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34" s="66"/>
       <c r="D34" s="61"/>
@@ -14385,7 +14423,7 @@
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" s="67" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B35" s="70"/>
       <c r="C35" s="69"/>
@@ -14413,7 +14451,7 @@
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" s="67" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B36" s="65"/>
       <c r="C36" s="68"/>
@@ -14466,7 +14504,7 @@
     </row>
     <row r="38" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B38" s="63" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C38" s="65"/>
       <c r="D38" s="64"/>
@@ -14493,7 +14531,7 @@
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" s="67" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B39" s="65"/>
       <c r="C39" s="68"/>
@@ -14546,7 +14584,7 @@
     </row>
     <row r="41" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B41" s="63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C41" s="40"/>
       <c r="D41" s="40"/>
@@ -15174,47 +15212,47 @@
   <sheetData>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J5" s="67" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="N5" s="67" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="O5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C6">
         <f>COUNTIF(Stats!D:D,'Player Count'!B6)</f>
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G6">
         <f>COUNTIF(Stats!D:D,'Player Count'!F6)</f>
         <v>3</v>
       </c>
       <c r="J6" s="67" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K6">
         <f>COUNTIF(Stats!D:D,'Player Count'!J6)</f>
@@ -15222,7 +15260,7 @@
       </c>
       <c r="M6" s="111"/>
       <c r="N6" s="67" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O6">
         <f>COUNTIF(Stats!D:D,'Player Count'!N6)</f>
@@ -15232,21 +15270,21 @@
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C7">
         <f>COUNTIF(Stats!D:D,'Player Count'!B7)</f>
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G7">
         <f>COUNTIF(Stats!D:D,'Player Count'!F7)</f>
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K7">
         <f>COUNTIF(Stats!D:D,'Player Count'!J7)</f>
@@ -15254,7 +15292,7 @@
       </c>
       <c r="M7" s="111"/>
       <c r="N7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O7">
         <f>COUNTIF(Stats!D:D,'Player Count'!N7)</f>
@@ -15264,21 +15302,21 @@
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C8">
         <f>COUNTIF(Stats!D:D,'Player Count'!B8)</f>
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G8">
         <f>COUNTIF(Stats!D:D,'Player Count'!F8)</f>
         <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K8">
         <f>COUNTIF(Stats!D:D,'Player Count'!J8)</f>
@@ -15286,7 +15324,7 @@
       </c>
       <c r="M8" s="111"/>
       <c r="N8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="O8">
         <f>COUNTIF(Stats!D:D,'Player Count'!N8)</f>
@@ -15296,29 +15334,29 @@
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C9">
         <f>COUNTIF(Stats!D:D,'Player Count'!B9)</f>
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G9">
         <f>COUNTIF(Stats!D:D,'Player Count'!F9)</f>
         <v>2</v>
       </c>
       <c r="J9" s="67" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K9">
         <f>COUNTIF(Stats!D:D,'Player Count'!J9)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M9" s="111"/>
       <c r="N9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O9">
         <f>COUNTIF(Stats!D:D,'Player Count'!N9)</f>
@@ -15328,21 +15366,21 @@
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C10">
         <f>COUNTIF(Stats!D:D,'Player Count'!B10)</f>
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G10">
         <f>COUNTIF(Stats!D:D,'Player Count'!F10)</f>
         <v>4</v>
       </c>
       <c r="J10" s="67" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K10">
         <f>COUNTIF(Stats!D:D,'Player Count'!J10)</f>
@@ -15350,7 +15388,7 @@
       </c>
       <c r="M10" s="111"/>
       <c r="N10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O10">
         <f>COUNTIF(Stats!D:D,'Player Count'!N10)</f>
@@ -15360,21 +15398,21 @@
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C11">
         <f>COUNTIF(Stats!D:D,'Player Count'!B11)</f>
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G11">
         <f>COUNTIF(Stats!D:D,'Player Count'!F11)</f>
         <v>2</v>
       </c>
       <c r="J11" s="67" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K11">
         <f>COUNTIF(Stats!D:D,'Player Count'!J11)</f>
@@ -15382,7 +15420,7 @@
       </c>
       <c r="M11" s="111"/>
       <c r="N11" s="67" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O11">
         <f>COUNTIF(Stats!D:D,'Player Count'!N11)</f>
@@ -15392,21 +15430,21 @@
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C12">
         <f>COUNTIF(Stats!D:D,'Player Count'!B12)</f>
         <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G12">
         <f>COUNTIF(Stats!D:D,'Player Count'!F12)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="67" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K12">
         <f>COUNTIF(Stats!D:D,'Player Count'!J12)</f>
@@ -15414,7 +15452,7 @@
       </c>
       <c r="M12" s="111"/>
       <c r="N12" s="67" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O12">
         <f>COUNTIF(Stats!D:D,'Player Count'!N12)</f>
@@ -15424,21 +15462,21 @@
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C13">
         <f>COUNTIF(Stats!D:D,'Player Count'!B13)</f>
         <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G13">
         <f>COUNTIF(Stats!D:D,'Player Count'!F13)</f>
         <v>4</v>
       </c>
       <c r="J13" s="67" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K13">
         <f>COUNTIF(Stats!D:D,'Player Count'!J13)</f>
@@ -15446,7 +15484,7 @@
       </c>
       <c r="M13" s="111"/>
       <c r="N13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O13">
         <f>COUNTIF(Stats!D:D,'Player Count'!N13)</f>
@@ -15456,21 +15494,21 @@
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C14">
         <f>COUNTIF(Stats!D:D,'Player Count'!B14)</f>
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G14">
         <f>COUNTIF(Stats!D:D,'Player Count'!F14)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="67" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K14">
         <f>COUNTIF(Stats!D:D,'Player Count'!J14)</f>
@@ -15478,7 +15516,7 @@
       </c>
       <c r="M14" s="111"/>
       <c r="N14" s="67" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="O14">
         <f>COUNTIF(Stats!D:D,'Player Count'!N14)</f>
@@ -15488,21 +15526,21 @@
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C15">
         <f>COUNTIF(Stats!D:D,'Player Count'!B15)</f>
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G15">
         <f>COUNTIF(Stats!D:D,'Player Count'!F15)</f>
         <v>2</v>
       </c>
       <c r="J15" s="67" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K15">
         <f>COUNTIF(Stats!D:D,'Player Count'!J15)</f>
@@ -15510,7 +15548,7 @@
       </c>
       <c r="M15" s="111"/>
       <c r="N15" s="67" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="O15">
         <f>COUNTIF(Stats!D:D,'Player Count'!N15)</f>
@@ -15520,21 +15558,21 @@
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C16">
         <f>COUNTIF(Stats!D:D,'Player Count'!B16)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G16">
         <f>COUNTIF(Stats!D:D,'Player Count'!F16)</f>
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K16">
         <f>COUNTIF(Stats!D:D,'Player Count'!J16)</f>
@@ -15542,7 +15580,7 @@
       </c>
       <c r="M16" s="111"/>
       <c r="N16" s="67" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="O16">
         <f>COUNTIF(Stats!D:D,'Player Count'!N16)</f>
@@ -15552,21 +15590,21 @@
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C17">
         <f>COUNTIF(Stats!D:D,'Player Count'!B17)</f>
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G17">
         <f>COUNTIF(Stats!D:D,'Player Count'!F17)</f>
         <v>3</v>
       </c>
       <c r="J17" s="67" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K17">
         <f>COUNTIF(Stats!D:D,'Player Count'!J17)</f>
@@ -15574,7 +15612,7 @@
       </c>
       <c r="M17" s="111"/>
       <c r="N17" s="67" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O17">
         <f>COUNTIF(Stats!D:D,'Player Count'!N17)</f>
@@ -15584,21 +15622,21 @@
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C18">
         <f>COUNTIF(Stats!D:D,'Player Count'!B18)</f>
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G18">
         <f>COUNTIF(Stats!D:D,'Player Count'!F18)</f>
         <v>1</v>
       </c>
       <c r="J18" s="67" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K18">
         <f>COUNTIF(Stats!D:D,'Player Count'!J18)</f>
@@ -15606,7 +15644,7 @@
       </c>
       <c r="M18" s="111"/>
       <c r="N18" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="O18">
         <f>COUNTIF(Stats!D:D,'Player Count'!N18)</f>
@@ -15616,21 +15654,21 @@
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C19">
         <f>COUNTIF(Stats!D:D,'Player Count'!B19)</f>
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G19">
         <f>COUNTIF(Stats!D:D,'Player Count'!F19)</f>
         <v>1</v>
       </c>
       <c r="J19" s="67" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K19">
         <f>COUNTIF(Stats!D:D,'Player Count'!J19)</f>
@@ -15638,7 +15676,7 @@
       </c>
       <c r="M19" s="111"/>
       <c r="N19" s="67" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="O19">
         <f>COUNTIF(Stats!D:D,'Player Count'!N19)</f>
@@ -15648,21 +15686,21 @@
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C20">
         <f>COUNTIF(Stats!D:D,'Player Count'!B20)</f>
         <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G20">
         <f>COUNTIF(Stats!D:D,'Player Count'!F20)</f>
         <v>0</v>
       </c>
       <c r="J20" s="67" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K20">
         <f>COUNTIF(Stats!D:D,'Player Count'!J20)</f>
@@ -15670,7 +15708,7 @@
       </c>
       <c r="M20" s="111"/>
       <c r="N20" s="67" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O20">
         <f>COUNTIF(Stats!D:D,'Player Count'!N20)</f>
@@ -15680,21 +15718,21 @@
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C21">
         <f>COUNTIF(Stats!D:D,'Player Count'!B21)</f>
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G21">
         <f>COUNTIF(Stats!D:D,'Player Count'!F21)</f>
         <v>1</v>
       </c>
       <c r="J21" s="67" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K21">
         <f>COUNTIF(Stats!D:D,'Player Count'!J21)</f>
@@ -15702,7 +15740,7 @@
       </c>
       <c r="M21" s="111"/>
       <c r="N21" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="O21">
         <f>COUNTIF(Stats!D:D,'Player Count'!N21)</f>
@@ -15712,21 +15750,21 @@
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C22">
         <f>COUNTIF(Stats!D:D,'Player Count'!B22)</f>
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G22">
         <f>COUNTIF(Stats!D:D,'Player Count'!F22)</f>
         <v>5</v>
       </c>
       <c r="J22" s="67" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K22">
         <f>COUNTIF(Stats!D:D,'Player Count'!J22)</f>
@@ -15734,7 +15772,7 @@
       </c>
       <c r="M22" s="111"/>
       <c r="N22" s="67" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="O22">
         <f>COUNTIF(Stats!D:D,'Player Count'!N22)</f>
@@ -15744,21 +15782,21 @@
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C23">
         <f>COUNTIF(Stats!D:D,'Player Count'!B23)</f>
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G23">
         <f>COUNTIF(Stats!D:D,'Player Count'!F23)</f>
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K23">
         <f>COUNTIF(Stats!D:D,'Player Count'!J23)</f>
@@ -15766,7 +15804,7 @@
       </c>
       <c r="M23" s="111"/>
       <c r="N23" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O23">
         <f>COUNTIF(Stats!D:D,'Player Count'!N23)</f>
@@ -15776,21 +15814,21 @@
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C24">
         <f>COUNTIF(Stats!D:D,'Player Count'!B24)</f>
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G24">
         <f>COUNTIF(Stats!D:D,'Player Count'!F24)</f>
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K24">
         <f>COUNTIF(Stats!D:D,'Player Count'!J24)</f>
@@ -15798,7 +15836,7 @@
       </c>
       <c r="M24" s="111"/>
       <c r="N24" s="67" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="O24">
         <f>COUNTIF(Stats!D:D,'Player Count'!N24)</f>
@@ -15808,21 +15846,21 @@
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C25">
         <f>COUNTIF(Stats!D:D,'Player Count'!B25)</f>
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G25">
         <f>COUNTIF(Stats!D:D,'Player Count'!F25)</f>
         <v>1</v>
       </c>
       <c r="J25" s="67" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K25">
         <f>COUNTIF(Stats!D:D,'Player Count'!J25)</f>
@@ -15830,7 +15868,7 @@
       </c>
       <c r="M25" s="111"/>
       <c r="N25" s="67" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="O25">
         <f>COUNTIF(Stats!D:D,'Player Count'!N25)</f>
@@ -15840,21 +15878,21 @@
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B26" s="78" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C26" s="78">
         <f>SUM(C6:C25)</f>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F26" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G26">
         <f>COUNTIF(Stats!D:D,'Player Count'!F26)</f>
         <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K26">
         <f>COUNTIF(Stats!D:D,'Player Count'!J26)</f>
@@ -15862,7 +15900,7 @@
       </c>
       <c r="M26" s="111"/>
       <c r="N26" s="67" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="O26">
         <f>COUNTIF(Stats!D:D,'Player Count'!N26)</f>
@@ -15872,14 +15910,14 @@
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.3">
       <c r="F27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G27">
         <f>COUNTIF(Stats!D:D,'Player Count'!F27)</f>
         <v>2</v>
       </c>
       <c r="J27" s="67" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K27">
         <f>COUNTIF(Stats!D:D,'Player Count'!J27)</f>
@@ -15887,7 +15925,7 @@
       </c>
       <c r="M27" s="111"/>
       <c r="N27" s="67" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="O27">
         <f>COUNTIF(Stats!D:D,'Player Count'!N27)</f>
@@ -15897,14 +15935,14 @@
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.3">
       <c r="F28" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G28">
         <f>COUNTIF(Stats!D:D,'Player Count'!F28)</f>
         <v>3</v>
       </c>
       <c r="J28" s="67" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K28">
         <f>COUNTIF(Stats!D:D,'Player Count'!J28)</f>
@@ -15912,7 +15950,7 @@
       </c>
       <c r="M28" s="111"/>
       <c r="N28" s="67" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="O28">
         <f>COUNTIF(Stats!D:D,'Player Count'!N28)</f>
@@ -15922,21 +15960,21 @@
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
       <c r="F29" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G29">
         <f>COUNTIF(Stats!D:D,'Player Count'!F29)</f>
         <v>3</v>
       </c>
       <c r="J29" s="67" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K29">
         <f>COUNTIF(Stats!D:D,'Player Count'!J29)</f>
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O29">
         <f>COUNTIF(Stats!D:D,'Player Count'!N29)</f>
@@ -15945,21 +15983,21 @@
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="F30" s="78" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G30" s="78">
         <f>SUM(G6:G29)</f>
         <v>45</v>
       </c>
       <c r="J30" s="78" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K30" s="78">
         <f>SUM(K6:K29)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N30" s="78" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O30" s="78">
         <f>SUM(O6:O29)</f>
@@ -15968,32 +16006,32 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="67" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C38" s="116">
         <f>C26/SUM(C26,G30,K30,O30)</f>
-        <v>0.41111111111111109</v>
+        <v>0.41208791208791207</v>
       </c>
       <c r="D38" s="116"/>
       <c r="E38" s="116"/>
       <c r="F38" s="116"/>
       <c r="G38" s="116">
         <f>G30/SUM(C26,G30,K30,O30)</f>
-        <v>0.25</v>
+        <v>0.24725274725274726</v>
       </c>
       <c r="H38" s="116"/>
       <c r="I38" s="116"/>
       <c r="J38" s="116"/>
       <c r="K38" s="116">
         <f>K30/SUM(C26,G30,K30,O30)</f>
-        <v>0.17777777777777778</v>
+        <v>0.18131868131868131</v>
       </c>
       <c r="L38" s="116"/>
       <c r="M38" s="116"/>
       <c r="N38" s="116"/>
       <c r="O38" s="116">
         <f>O30/SUM(C26,G30,K30,O30)</f>
-        <v>0.16111111111111112</v>
+        <v>0.15934065934065933</v>
       </c>
     </row>
   </sheetData>

--- a/data/DreamLeague25-26.xlsx
+++ b/data/DreamLeague25-26.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/462a734c48854128/Desktop/Dream League/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="610" documentId="8_{7D36DF2E-EA78-4237-9818-EA41DFB80887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0404E0D3-5A01-491E-99B8-27B5C5702331}"/>
+  <xr:revisionPtr revIDLastSave="913" documentId="8_{7D36DF2E-EA78-4237-9818-EA41DFB80887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFB8FEC4-FEA6-469A-91C5-4369931CB508}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="485">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1437,6 +1437,63 @@
   </si>
   <si>
     <t>MASON BURSTOW</t>
+  </si>
+  <si>
+    <t>JACK MARRIOTT</t>
+  </si>
+  <si>
+    <t>BRANDON THOMAS-ASANTE</t>
+  </si>
+  <si>
+    <t>DEVANTE COLE</t>
+  </si>
+  <si>
+    <t>PORT VALE</t>
+  </si>
+  <si>
+    <t>DOM BALLARD</t>
+  </si>
+  <si>
+    <t>(4 - 1)</t>
+  </si>
+  <si>
+    <t>(2 - 2)</t>
+  </si>
+  <si>
+    <t>(0 - 3)</t>
+  </si>
+  <si>
+    <t>(4 - 2)</t>
+  </si>
+  <si>
+    <t>(4 - 3)</t>
+  </si>
+  <si>
+    <t>(0 - 0)</t>
+  </si>
+  <si>
+    <t>(0 - 2)</t>
+  </si>
+  <si>
+    <t>GEORGE HIRST</t>
+  </si>
+  <si>
+    <t>JAIDON ANTHONY</t>
+  </si>
+  <si>
+    <t>BURNLEY</t>
+  </si>
+  <si>
+    <t>MILUTIN OSMAJIC</t>
+  </si>
+  <si>
+    <t>PRESTON</t>
+  </si>
+  <si>
+    <t>ANTONI SARCEVIC</t>
+  </si>
+  <si>
+    <t>IGOR THIAGO</t>
   </si>
 </sst>
 </file>
@@ -1854,7 +1911,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2158,6 +2215,12 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3509,11 +3572,11 @@
       </c>
       <c r="M5" s="18">
         <f t="shared" ref="M5:M17" si="0">N5-O5</f>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N5" s="19">
         <f>SUM(F8:F25)</f>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O5" s="20">
         <f>SUM(F5:F7)</f>
@@ -3548,11 +3611,11 @@
       </c>
       <c r="N6" s="26">
         <f>SUM(F35:F52)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="O6" s="27">
         <f>SUM(F32:F34)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S6" s="102"/>
       <c r="T6" s="101"/>
@@ -3579,15 +3642,15 @@
       </c>
       <c r="M7" s="25">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N7" s="26">
         <f>SUM(F62:F79)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O7" s="27">
         <f>SUM(F59:F61)</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="S7" s="102"/>
       <c r="T7" s="101"/>
@@ -3623,15 +3686,15 @@
       </c>
       <c r="M8" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N8" s="26">
         <f>SUM(F89:F106)</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="O8" s="27">
         <f>SUM(F86:F88)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3669,11 +3732,11 @@
       </c>
       <c r="N9" s="73">
         <f>SUM(F116:F133)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O9" s="74">
         <f>SUM(F113:F115)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3697,15 +3760,15 @@
       </c>
       <c r="M10" s="25">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N10" s="26">
         <f>SUM(F143:F160)</f>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="O10" s="27">
         <f>SUM(F140:F142)</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="R10" s="117"/>
       <c r="S10" s="117"/>
@@ -3744,15 +3807,15 @@
       </c>
       <c r="M11" s="25">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N11" s="26">
         <f>SUM(F170:F187)</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="O11" s="27">
         <f>SUM(F167:F169)</f>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="S11" s="102"/>
       <c r="T11" s="101"/>
@@ -3793,15 +3856,15 @@
       </c>
       <c r="M12" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="N12" s="73">
         <f>SUM(F197:F214)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O12" s="74">
         <f>SUM(F194:F196)</f>
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3837,15 +3900,15 @@
       </c>
       <c r="M13" s="25">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N13" s="73">
         <f>SUM(F224:F241)</f>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="O13" s="74">
         <f>SUM(F221:F223)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R13" s="117"/>
       <c r="S13" s="117"/>
@@ -3868,7 +3931,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G14" s="87"/>
       <c r="H14" s="84"/>
@@ -3884,15 +3947,15 @@
       </c>
       <c r="M14" s="25">
         <f t="shared" si="0"/>
-        <v>-15</v>
+        <v>-13</v>
       </c>
       <c r="N14" s="73">
         <f>SUM(F251:F268)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O14" s="74">
         <f>SUM(F248:F250)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="S14" s="102"/>
       <c r="T14" s="101"/>
@@ -3919,15 +3982,15 @@
       </c>
       <c r="M15" s="25">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="N15" s="26">
-        <f>SUM(F277:F295)</f>
-        <v>13</v>
+        <f>SUM(F278:F295)</f>
+        <v>23</v>
       </c>
       <c r="O15" s="27">
-        <f>SUM(F275:F276)</f>
-        <v>15</v>
+        <f>SUM(F275:F277)</f>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3955,11 +4018,11 @@
       </c>
       <c r="N16" s="26">
         <f>SUM(F305:F322)</f>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="O16" s="27">
         <f>SUM(F302:F304)</f>
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3997,15 +4060,15 @@
       </c>
       <c r="M17" s="25">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N17" s="26">
         <f>SUM(F332:F349)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="O17" s="27">
         <f>SUM(F329:F331)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R17" s="117"/>
       <c r="S17" s="117"/>
@@ -4046,15 +4109,15 @@
       </c>
       <c r="M18" s="25">
         <f>N18-O18</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N18" s="26">
         <f>SUM(F359:F376)</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="O18" s="27">
         <f>SUM(F356:F358)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S18" s="102"/>
       <c r="T18" s="101"/>
@@ -4075,7 +4138,7 @@
         <v>15</v>
       </c>
       <c r="F19" s="30">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G19" s="84"/>
       <c r="H19" s="84"/>
@@ -4172,7 +4235,7 @@
         <v>290</v>
       </c>
       <c r="F22" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G22" s="87">
         <v>45932</v>
@@ -4292,7 +4355,7 @@
       </c>
       <c r="F26" s="36">
         <f>SUM(F8:F25)-SUM(F5:F7)</f>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G26" s="80"/>
       <c r="H26" s="92"/>
@@ -4421,7 +4484,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="15">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G32" s="80"/>
       <c r="H32" s="94"/>
@@ -4509,7 +4572,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36" s="91"/>
       <c r="H36" s="91"/>
@@ -4750,7 +4813,7 @@
         <v>12</v>
       </c>
       <c r="F46" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46" s="87"/>
       <c r="H46" s="91"/>
@@ -5061,7 +5124,7 @@
         <v>4</v>
       </c>
       <c r="F59" s="15">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G59" s="80"/>
       <c r="H59" s="92"/>
@@ -5278,7 +5341,7 @@
         <v>290</v>
       </c>
       <c r="F68" s="30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G68" s="91">
         <v>45904</v>
@@ -5399,7 +5462,7 @@
         <v>290</v>
       </c>
       <c r="F73" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G73" s="87">
         <v>45897</v>
@@ -5502,23 +5565,27 @@
     </row>
     <row r="77" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="79"/>
-      <c r="B77" s="28" t="s">
+      <c r="B77" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C77" s="28" t="s">
+      <c r="C77" s="108" t="s">
         <v>200</v>
       </c>
-      <c r="D77" s="28" t="s">
+      <c r="D77" s="108" t="s">
         <v>100</v>
       </c>
-      <c r="E77" s="29">
+      <c r="E77" s="109">
         <v>1</v>
       </c>
-      <c r="F77" s="30">
+      <c r="F77" s="110">
         <v>1</v>
       </c>
-      <c r="G77" s="87"/>
-      <c r="H77" s="91"/>
+      <c r="G77" s="87" t="s">
+        <v>291</v>
+      </c>
+      <c r="H77" s="91">
+        <v>45946</v>
+      </c>
       <c r="I77" s="90"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
@@ -5529,12 +5596,24 @@
     </row>
     <row r="78" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="79"/>
-      <c r="B78" s="28"/>
-      <c r="C78" s="28"/>
-      <c r="D78" s="28"/>
-      <c r="E78" s="29"/>
-      <c r="F78" s="30"/>
-      <c r="G78" s="87"/>
+      <c r="B78" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" s="28" t="s">
+        <v>468</v>
+      </c>
+      <c r="D78" s="28" t="s">
+        <v>469</v>
+      </c>
+      <c r="E78" s="29" t="s">
+        <v>290</v>
+      </c>
+      <c r="F78" s="30">
+        <v>0</v>
+      </c>
+      <c r="G78" s="87">
+        <v>45946</v>
+      </c>
       <c r="H78" s="91"/>
       <c r="I78" s="90"/>
       <c r="J78" s="76"/>
@@ -5572,7 +5651,7 @@
       </c>
       <c r="F80" s="36">
         <f>SUM(F62:F79)-SUM(F59:F61)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G80" s="80"/>
       <c r="H80" s="92"/>
@@ -5696,7 +5775,7 @@
         <v>8</v>
       </c>
       <c r="F86" s="15">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G86" s="80"/>
       <c r="H86" s="94"/>
@@ -5915,7 +5994,7 @@
         <v>19</v>
       </c>
       <c r="F95" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G95" s="91"/>
       <c r="H95" s="91"/>
@@ -5976,7 +6055,7 @@
         <v>25</v>
       </c>
       <c r="F98" s="30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G98" s="87"/>
       <c r="H98" s="91"/>
@@ -6061,7 +6140,7 @@
         <v>290</v>
       </c>
       <c r="F101" s="30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G101" s="87">
         <v>45918</v>
@@ -6207,7 +6286,7 @@
       </c>
       <c r="F107" s="36">
         <f>SUM(F89:F106)-SUM(F86:F88)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G107" s="80"/>
       <c r="H107" s="92"/>
@@ -6331,7 +6410,7 @@
         <v>1</v>
       </c>
       <c r="F113" s="15">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G113" s="80"/>
       <c r="H113" s="94"/>
@@ -6490,7 +6569,7 @@
         <v>20</v>
       </c>
       <c r="F120" s="30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G120" s="87"/>
       <c r="H120" s="91"/>
@@ -6589,7 +6668,7 @@
         <v>163</v>
       </c>
       <c r="D125" s="28" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E125" s="29">
         <v>24</v>
@@ -6995,7 +7074,7 @@
         <v>437</v>
       </c>
       <c r="F141" s="21">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G141" s="86">
         <v>45911</v>
@@ -7112,7 +7191,7 @@
         <v>42</v>
       </c>
       <c r="F146" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G146" s="87"/>
       <c r="H146" s="90"/>
@@ -7243,7 +7322,7 @@
         <v>1</v>
       </c>
       <c r="F152" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G152" s="87"/>
       <c r="H152" s="91"/>
@@ -7270,7 +7349,7 @@
         <v>18</v>
       </c>
       <c r="F153" s="30">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G153" s="83"/>
       <c r="H153" s="91"/>
@@ -7384,7 +7463,7 @@
         <v>4</v>
       </c>
       <c r="F157" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G157" s="87"/>
       <c r="H157" s="91"/>
@@ -7458,7 +7537,7 @@
       </c>
       <c r="F161" s="36">
         <f>SUM(F143:F160)-SUM(F140:F142)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G161" s="80"/>
       <c r="H161" s="92"/>
@@ -7569,23 +7648,27 @@
       <c r="N166" s="1"/>
       <c r="O166" s="1"/>
     </row>
-    <row r="167" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="79"/>
-      <c r="B167" s="12" t="s">
+      <c r="B167" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="C167" s="13"/>
-      <c r="D167" s="12" t="s">
+      <c r="C167" s="113"/>
+      <c r="D167" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="E167" s="14">
+      <c r="E167" s="114">
         <v>1</v>
       </c>
-      <c r="F167" s="15">
-        <v>9</v>
-      </c>
-      <c r="G167" s="80"/>
-      <c r="H167" s="94"/>
+      <c r="F167" s="115">
+        <v>14</v>
+      </c>
+      <c r="G167" s="80" t="s">
+        <v>291</v>
+      </c>
+      <c r="H167" s="94">
+        <v>45953</v>
+      </c>
       <c r="I167" s="92"/>
       <c r="J167" s="76"/>
       <c r="K167" s="1"/>
@@ -7596,12 +7679,22 @@
     </row>
     <row r="168" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="79"/>
-      <c r="B168" s="21"/>
+      <c r="B168" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="C168" s="21"/>
-      <c r="D168" s="21"/>
-      <c r="E168" s="22"/>
-      <c r="F168" s="21"/>
-      <c r="G168" s="86"/>
+      <c r="D168" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E168" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="F168" s="21">
+        <v>1</v>
+      </c>
+      <c r="G168" s="86">
+        <v>45953</v>
+      </c>
       <c r="H168" s="92"/>
       <c r="I168" s="92"/>
       <c r="J168" s="76"/>
@@ -7714,7 +7807,7 @@
         <v>3</v>
       </c>
       <c r="F173" s="30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G173" s="83"/>
       <c r="H173" s="91"/>
@@ -7759,25 +7852,27 @@
     </row>
     <row r="175" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="79"/>
-      <c r="B175" s="28" t="s">
+      <c r="B175" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="C175" s="28" t="s">
+      <c r="C175" s="108" t="s">
         <v>416</v>
       </c>
-      <c r="D175" s="28" t="s">
+      <c r="D175" s="108" t="s">
         <v>97</v>
       </c>
-      <c r="E175" s="29" t="s">
+      <c r="E175" s="109" t="s">
         <v>290</v>
       </c>
-      <c r="F175" s="30">
+      <c r="F175" s="110">
         <v>0</v>
       </c>
       <c r="G175" s="87">
         <v>45897</v>
       </c>
-      <c r="H175" s="91"/>
+      <c r="H175" s="91">
+        <v>45953</v>
+      </c>
       <c r="I175" s="90"/>
       <c r="J175" s="1"/>
       <c r="K175" s="1"/>
@@ -7792,18 +7887,20 @@
         <v>16</v>
       </c>
       <c r="C176" s="28" t="s">
-        <v>130</v>
+        <v>479</v>
       </c>
       <c r="D176" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="E176" s="29">
-        <v>1</v>
+        <v>480</v>
+      </c>
+      <c r="E176" s="29" t="s">
+        <v>290</v>
       </c>
       <c r="F176" s="30">
-        <v>3</v>
-      </c>
-      <c r="G176" s="91"/>
+        <v>0</v>
+      </c>
+      <c r="G176" s="91">
+        <v>45953</v>
+      </c>
       <c r="H176" s="91"/>
       <c r="I176" s="90"/>
       <c r="J176" s="76"/>
@@ -7815,13 +7912,23 @@
     </row>
     <row r="177" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="79"/>
-      <c r="B177" s="28"/>
-      <c r="C177" s="28"/>
-      <c r="D177" s="28"/>
-      <c r="E177" s="29"/>
-      <c r="F177" s="30"/>
+      <c r="B177" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C177" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="D177" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E177" s="29">
+        <v>1</v>
+      </c>
+      <c r="F177" s="30">
+        <v>6</v>
+      </c>
       <c r="G177" s="91"/>
-      <c r="H177" s="90"/>
+      <c r="H177" s="91"/>
       <c r="I177" s="90"/>
       <c r="J177" s="76"/>
       <c r="K177" s="1"/>
@@ -7837,8 +7944,8 @@
       <c r="D178" s="28"/>
       <c r="E178" s="29"/>
       <c r="F178" s="30"/>
-      <c r="G178" s="83"/>
-      <c r="H178" s="91"/>
+      <c r="G178" s="91"/>
+      <c r="H178" s="90"/>
       <c r="I178" s="90"/>
       <c r="J178" s="1"/>
       <c r="K178" s="1"/>
@@ -7849,22 +7956,12 @@
     </row>
     <row r="179" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="79"/>
-      <c r="B179" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C179" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="D179" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E179" s="29">
-        <v>56</v>
-      </c>
-      <c r="F179" s="30">
-        <v>1</v>
-      </c>
-      <c r="G179" s="87"/>
+      <c r="B179" s="28"/>
+      <c r="C179" s="28"/>
+      <c r="D179" s="28"/>
+      <c r="E179" s="29"/>
+      <c r="F179" s="30"/>
+      <c r="G179" s="83"/>
       <c r="H179" s="91"/>
       <c r="I179" s="90"/>
       <c r="J179" s="76"/>
@@ -7880,18 +7977,18 @@
         <v>17</v>
       </c>
       <c r="C180" s="28" t="s">
-        <v>178</v>
+        <v>96</v>
       </c>
       <c r="D180" s="28" t="s">
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="E180" s="29">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="F180" s="30">
         <v>1</v>
       </c>
-      <c r="G180" s="91"/>
+      <c r="G180" s="87"/>
       <c r="H180" s="91"/>
       <c r="I180" s="90"/>
       <c r="J180" s="76"/>
@@ -7907,20 +8004,20 @@
         <v>17</v>
       </c>
       <c r="C181" s="28" t="s">
-        <v>126</v>
+        <v>178</v>
       </c>
       <c r="D181" s="28" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="E181" s="29">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F181" s="30">
-        <v>2</v>
-      </c>
-      <c r="G181" s="87"/>
+        <v>1</v>
+      </c>
+      <c r="G181" s="91"/>
       <c r="H181" s="91"/>
-      <c r="I181" s="91"/>
+      <c r="I181" s="90"/>
       <c r="J181" s="76"/>
       <c r="K181" s="1"/>
       <c r="L181" s="1"/>
@@ -7934,20 +8031,20 @@
         <v>17</v>
       </c>
       <c r="C182" s="28" t="s">
-        <v>219</v>
+        <v>126</v>
       </c>
       <c r="D182" s="28" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="E182" s="29">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F182" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G182" s="87"/>
-      <c r="H182" s="90"/>
-      <c r="I182" s="89"/>
+      <c r="H182" s="91"/>
+      <c r="I182" s="91"/>
       <c r="J182" s="76"/>
       <c r="K182" s="1"/>
       <c r="L182" s="1"/>
@@ -7961,10 +8058,10 @@
         <v>17</v>
       </c>
       <c r="C183" s="108" t="s">
-        <v>148</v>
+        <v>219</v>
       </c>
       <c r="D183" s="108" t="s">
-        <v>220</v>
+        <v>28</v>
       </c>
       <c r="E183" s="109">
         <v>1</v>
@@ -7972,13 +8069,13 @@
       <c r="F183" s="110">
         <v>0</v>
       </c>
-      <c r="G183" s="83" t="s">
+      <c r="G183" s="87" t="s">
         <v>291</v>
       </c>
       <c r="H183" s="91">
-        <v>45876</v>
-      </c>
-      <c r="I183" s="90"/>
+        <v>45953</v>
+      </c>
+      <c r="I183" s="89"/>
       <c r="J183" s="1"/>
       <c r="K183" s="1"/>
       <c r="L183" s="1"/>
@@ -7992,10 +8089,10 @@
         <v>17</v>
       </c>
       <c r="C184" s="28" t="s">
-        <v>289</v>
+        <v>483</v>
       </c>
       <c r="D184" s="28" t="s">
-        <v>133</v>
+        <v>456</v>
       </c>
       <c r="E184" s="29" t="s">
         <v>290</v>
@@ -8003,10 +8100,10 @@
       <c r="F184" s="30">
         <v>0</v>
       </c>
-      <c r="G184" s="91">
-        <v>45876</v>
-      </c>
-      <c r="H184" s="90"/>
+      <c r="G184" s="87">
+        <v>45953</v>
+      </c>
+      <c r="H184" s="91"/>
       <c r="I184" s="90"/>
       <c r="J184" s="76"/>
       <c r="K184" s="1"/>
@@ -8017,13 +8114,27 @@
     </row>
     <row r="185" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="79"/>
-      <c r="B185" s="28"/>
-      <c r="C185" s="28"/>
-      <c r="D185" s="28"/>
-      <c r="E185" s="29"/>
-      <c r="F185" s="30"/>
-      <c r="G185" s="83"/>
-      <c r="H185" s="90"/>
+      <c r="B185" s="108" t="s">
+        <v>17</v>
+      </c>
+      <c r="C185" s="108" t="s">
+        <v>148</v>
+      </c>
+      <c r="D185" s="108" t="s">
+        <v>220</v>
+      </c>
+      <c r="E185" s="109">
+        <v>1</v>
+      </c>
+      <c r="F185" s="110">
+        <v>0</v>
+      </c>
+      <c r="G185" s="83" t="s">
+        <v>291</v>
+      </c>
+      <c r="H185" s="91">
+        <v>45876</v>
+      </c>
       <c r="I185" s="90"/>
       <c r="J185" s="76"/>
       <c r="K185" s="1"/>
@@ -8034,13 +8145,27 @@
     </row>
     <row r="186" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="79"/>
-      <c r="B186" s="28"/>
-      <c r="C186" s="28"/>
-      <c r="D186" s="28"/>
-      <c r="E186" s="29"/>
-      <c r="F186" s="30"/>
-      <c r="G186" s="80"/>
-      <c r="H186" s="92"/>
+      <c r="B186" s="108" t="s">
+        <v>17</v>
+      </c>
+      <c r="C186" s="108" t="s">
+        <v>289</v>
+      </c>
+      <c r="D186" s="108" t="s">
+        <v>133</v>
+      </c>
+      <c r="E186" s="109" t="s">
+        <v>290</v>
+      </c>
+      <c r="F186" s="110">
+        <v>0</v>
+      </c>
+      <c r="G186" s="91">
+        <v>45876</v>
+      </c>
+      <c r="H186" s="91">
+        <v>45953</v>
+      </c>
       <c r="I186" s="90"/>
       <c r="J186" s="76"/>
       <c r="K186" s="1"/>
@@ -8051,12 +8176,24 @@
     </row>
     <row r="187" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="79"/>
-      <c r="B187" s="28"/>
-      <c r="C187" s="28"/>
-      <c r="D187" s="28"/>
-      <c r="E187" s="29"/>
-      <c r="F187" s="30"/>
-      <c r="G187" s="80"/>
+      <c r="B187" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C187" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="D187" s="28" t="s">
+        <v>482</v>
+      </c>
+      <c r="E187" s="29" t="s">
+        <v>290</v>
+      </c>
+      <c r="F187" s="30">
+        <v>0</v>
+      </c>
+      <c r="G187" s="86">
+        <v>45953</v>
+      </c>
       <c r="H187" s="92"/>
       <c r="I187" s="90"/>
       <c r="J187" s="76"/>
@@ -8077,7 +8214,7 @@
       </c>
       <c r="F188" s="36">
         <f>SUM(F170:F187)-SUM(F167:F169)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G188" s="87"/>
       <c r="H188" s="91"/>
@@ -8201,7 +8338,7 @@
         <v>1</v>
       </c>
       <c r="F194" s="15">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G194" s="80"/>
       <c r="H194" s="94"/>
@@ -8333,7 +8470,7 @@
         <v>1</v>
       </c>
       <c r="F200" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G200" s="83"/>
       <c r="H200" s="90"/>
@@ -8387,7 +8524,7 @@
         <v>1</v>
       </c>
       <c r="F202" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G202" s="83"/>
       <c r="H202" s="91"/>
@@ -8664,7 +8801,7 @@
       </c>
       <c r="F215" s="36">
         <f>SUM(F197:F214)-SUM(F194:F196)</f>
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="G215" s="80"/>
       <c r="H215" s="92"/>
@@ -8817,7 +8954,7 @@
         <v>290</v>
       </c>
       <c r="F222" s="21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G222" s="94">
         <v>45890</v>
@@ -8890,7 +9027,7 @@
         <v>5</v>
       </c>
       <c r="F225" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G225" s="87"/>
       <c r="H225" s="91"/>
@@ -8965,7 +9102,7 @@
         <v>290</v>
       </c>
       <c r="F228" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G228" s="87">
         <v>45918</v>
@@ -9098,7 +9235,7 @@
         <v>36</v>
       </c>
       <c r="F233" s="30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G233" s="87"/>
       <c r="H233" s="91"/>
@@ -9125,7 +9262,7 @@
         <v>20</v>
       </c>
       <c r="F234" s="30">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G234" s="87"/>
       <c r="H234" s="91"/>
@@ -9313,7 +9450,7 @@
       </c>
       <c r="F242" s="36">
         <f>SUM(F224:F241)-SUM(F221:F223)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G242" s="80"/>
       <c r="H242" s="92"/>
@@ -9458,7 +9595,7 @@
         <v>290</v>
       </c>
       <c r="F249" s="21">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G249" s="86">
         <v>45918</v>
@@ -9633,7 +9770,7 @@
         <v>290</v>
       </c>
       <c r="F256" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G256" s="87">
         <v>45890</v>
@@ -9764,23 +9901,27 @@
     </row>
     <row r="262" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="79"/>
-      <c r="B262" s="28" t="s">
+      <c r="B262" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C262" s="28" t="s">
+      <c r="C262" s="108" t="s">
         <v>106</v>
       </c>
-      <c r="D262" s="28" t="s">
+      <c r="D262" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E262" s="29">
+      <c r="E262" s="109">
         <v>16</v>
       </c>
-      <c r="F262" s="30">
+      <c r="F262" s="110">
         <v>0</v>
       </c>
-      <c r="G262" s="87"/>
-      <c r="H262" s="91"/>
+      <c r="G262" s="87" t="s">
+        <v>291</v>
+      </c>
+      <c r="H262" s="91">
+        <v>45946</v>
+      </c>
       <c r="I262" s="90"/>
       <c r="J262" s="1"/>
       <c r="K262" s="1"/>
@@ -9795,18 +9936,20 @@
         <v>17</v>
       </c>
       <c r="C263" s="28" t="s">
-        <v>140</v>
+        <v>470</v>
       </c>
       <c r="D263" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="E263" s="29">
-        <v>14</v>
+        <v>172</v>
+      </c>
+      <c r="E263" s="29" t="s">
+        <v>290</v>
       </c>
       <c r="F263" s="30">
         <v>0</v>
       </c>
-      <c r="G263" s="87"/>
+      <c r="G263" s="87">
+        <v>45946</v>
+      </c>
       <c r="H263" s="91"/>
       <c r="I263" s="90"/>
       <c r="J263" s="1"/>
@@ -9822,10 +9965,10 @@
         <v>17</v>
       </c>
       <c r="C264" s="108" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D264" s="108" t="s">
-        <v>295</v>
+        <v>84</v>
       </c>
       <c r="E264" s="109">
         <v>14</v>
@@ -9833,11 +9976,11 @@
       <c r="F264" s="110">
         <v>0</v>
       </c>
-      <c r="G264" s="83" t="s">
+      <c r="G264" s="87" t="s">
         <v>291</v>
       </c>
       <c r="H264" s="91">
-        <v>45897</v>
+        <v>45953</v>
       </c>
       <c r="I264" s="90"/>
       <c r="J264" s="1"/>
@@ -9853,10 +9996,10 @@
         <v>17</v>
       </c>
       <c r="C265" s="28" t="s">
-        <v>413</v>
+        <v>484</v>
       </c>
       <c r="D265" s="28" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="E265" s="29" t="s">
         <v>290</v>
@@ -9865,7 +10008,7 @@
         <v>1</v>
       </c>
       <c r="G265" s="87">
-        <v>45897</v>
+        <v>45953</v>
       </c>
       <c r="H265" s="91"/>
       <c r="I265" s="90"/>
@@ -9878,13 +10021,27 @@
     </row>
     <row r="266" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="79"/>
-      <c r="B266" s="28"/>
-      <c r="C266" s="28"/>
-      <c r="D266" s="28"/>
-      <c r="E266" s="29"/>
-      <c r="F266" s="30"/>
-      <c r="G266" s="83"/>
-      <c r="H266" s="91"/>
+      <c r="B266" s="108" t="s">
+        <v>17</v>
+      </c>
+      <c r="C266" s="108" t="s">
+        <v>142</v>
+      </c>
+      <c r="D266" s="108" t="s">
+        <v>295</v>
+      </c>
+      <c r="E266" s="109">
+        <v>14</v>
+      </c>
+      <c r="F266" s="110">
+        <v>0</v>
+      </c>
+      <c r="G266" s="83" t="s">
+        <v>291</v>
+      </c>
+      <c r="H266" s="91">
+        <v>45897</v>
+      </c>
       <c r="I266" s="90"/>
       <c r="J266" s="1"/>
       <c r="K266" s="1"/>
@@ -9895,12 +10052,24 @@
     </row>
     <row r="267" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="79"/>
-      <c r="B267" s="28"/>
-      <c r="C267" s="28"/>
-      <c r="D267" s="28"/>
-      <c r="E267" s="29"/>
-      <c r="F267" s="30"/>
-      <c r="G267" s="87"/>
+      <c r="B267" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C267" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="D267" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="E267" s="29" t="s">
+        <v>290</v>
+      </c>
+      <c r="F267" s="30">
+        <v>2</v>
+      </c>
+      <c r="G267" s="87">
+        <v>45897</v>
+      </c>
       <c r="H267" s="91"/>
       <c r="I267" s="90"/>
       <c r="J267" s="1"/>
@@ -9938,7 +10107,7 @@
       </c>
       <c r="F269" s="36">
         <f>SUM(F251:F268)-SUM(F248:F250)</f>
-        <v>-15</v>
+        <v>-13</v>
       </c>
       <c r="G269" s="80"/>
       <c r="H269" s="92"/>
@@ -10062,7 +10231,7 @@
         <v>1</v>
       </c>
       <c r="F275" s="15">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G275" s="80"/>
       <c r="H275" s="94"/>
@@ -10123,7 +10292,7 @@
         <v>4</v>
       </c>
       <c r="F278" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G278" s="83"/>
       <c r="H278" s="90"/>
@@ -10194,7 +10363,7 @@
         <v>25</v>
       </c>
       <c r="F281" s="30">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G281" s="83"/>
       <c r="H281" s="91"/>
@@ -10342,7 +10511,7 @@
         <v>12</v>
       </c>
       <c r="F287" s="30">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G287" s="87"/>
       <c r="H287" s="91"/>
@@ -10383,23 +10552,27 @@
     </row>
     <row r="289" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="79"/>
-      <c r="B289" s="28" t="s">
+      <c r="B289" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C289" s="28" t="s">
+      <c r="C289" s="108" t="s">
         <v>235</v>
       </c>
-      <c r="D289" s="28" t="s">
+      <c r="D289" s="108" t="s">
         <v>137</v>
       </c>
-      <c r="E289" s="29">
+      <c r="E289" s="109">
         <v>4</v>
       </c>
-      <c r="F289" s="30">
+      <c r="F289" s="110">
         <v>0</v>
       </c>
-      <c r="G289" s="87"/>
-      <c r="H289" s="91"/>
+      <c r="G289" s="87" t="s">
+        <v>291</v>
+      </c>
+      <c r="H289" s="91">
+        <v>45946</v>
+      </c>
       <c r="I289" s="90"/>
       <c r="J289" s="1"/>
       <c r="K289" s="1"/>
@@ -10414,18 +10587,20 @@
         <v>17</v>
       </c>
       <c r="C290" s="28" t="s">
-        <v>164</v>
+        <v>478</v>
       </c>
       <c r="D290" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="E290" s="29">
-        <v>10</v>
+        <v>133</v>
+      </c>
+      <c r="E290" s="29" t="s">
+        <v>290</v>
       </c>
       <c r="F290" s="30">
         <v>0</v>
       </c>
-      <c r="G290" s="87"/>
+      <c r="G290" s="87">
+        <v>45946</v>
+      </c>
       <c r="H290" s="91"/>
       <c r="I290" s="90"/>
       <c r="J290" s="1"/>
@@ -10441,16 +10616,16 @@
         <v>17</v>
       </c>
       <c r="C291" s="28" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="D291" s="28" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="E291" s="29">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F291" s="30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G291" s="87"/>
       <c r="H291" s="91"/>
@@ -10464,11 +10639,21 @@
     </row>
     <row r="292" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="79"/>
-      <c r="B292" s="28"/>
-      <c r="C292" s="28"/>
-      <c r="D292" s="28"/>
-      <c r="E292" s="29"/>
-      <c r="F292" s="30"/>
+      <c r="B292" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C292" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="D292" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E292" s="29">
+        <v>1</v>
+      </c>
+      <c r="F292" s="30">
+        <v>5</v>
+      </c>
       <c r="G292" s="87"/>
       <c r="H292" s="91"/>
       <c r="I292" s="90"/>
@@ -10541,7 +10726,7 @@
       </c>
       <c r="F296" s="36">
         <f>SUM(F278:F295)-SUM(F275:F276)</f>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="G296" s="91"/>
       <c r="H296" s="91"/>
@@ -10683,23 +10868,25 @@
     </row>
     <row r="303" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="79"/>
-      <c r="B303" s="21" t="s">
+      <c r="B303" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="C303" s="21"/>
-      <c r="D303" s="21" t="s">
+      <c r="C303" s="118"/>
+      <c r="D303" s="118" t="s">
         <v>100</v>
       </c>
-      <c r="E303" s="22" t="s">
+      <c r="E303" s="119" t="s">
         <v>290</v>
       </c>
-      <c r="F303" s="21">
-        <v>9</v>
+      <c r="F303" s="118">
+        <v>13</v>
       </c>
       <c r="G303" s="87">
         <v>45890</v>
       </c>
-      <c r="H303" s="91"/>
+      <c r="H303" s="91">
+        <v>45953</v>
+      </c>
       <c r="I303" s="92"/>
       <c r="J303" s="1"/>
       <c r="K303" s="1"/>
@@ -10710,12 +10897,22 @@
     </row>
     <row r="304" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="79"/>
-      <c r="B304" s="21"/>
+      <c r="B304" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="C304" s="21"/>
-      <c r="D304" s="21"/>
-      <c r="E304" s="22"/>
-      <c r="F304" s="21"/>
-      <c r="G304" s="87"/>
+      <c r="D304" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E304" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="F304" s="21">
+        <v>1</v>
+      </c>
+      <c r="G304" s="87">
+        <v>45953</v>
+      </c>
       <c r="H304" s="92"/>
       <c r="I304" s="90"/>
       <c r="J304" s="1"/>
@@ -10869,7 +11066,7 @@
         <v>290</v>
       </c>
       <c r="F310" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G310" s="87">
         <v>45911</v>
@@ -10959,7 +11156,7 @@
         <v>54</v>
       </c>
       <c r="F314" s="30">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G314" s="87"/>
       <c r="H314" s="91"/>
@@ -11046,7 +11243,7 @@
         <v>1</v>
       </c>
       <c r="F317" s="30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G317" s="87"/>
       <c r="H317" s="91"/>
@@ -11330,7 +11527,7 @@
         <v>1</v>
       </c>
       <c r="F329" s="15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G329" s="83"/>
       <c r="H329" s="87"/>
@@ -11612,7 +11809,7 @@
         <v>1</v>
       </c>
       <c r="F342" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G342" s="87"/>
       <c r="H342" s="91"/>
@@ -11671,23 +11868,27 @@
     </row>
     <row r="345" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="79"/>
-      <c r="B345" s="28" t="s">
+      <c r="B345" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C345" s="28" t="s">
+      <c r="C345" s="108" t="s">
         <v>287</v>
       </c>
-      <c r="D345" s="28" t="s">
+      <c r="D345" s="108" t="s">
         <v>84</v>
       </c>
-      <c r="E345" s="29">
+      <c r="E345" s="109">
         <v>1</v>
       </c>
-      <c r="F345" s="30">
+      <c r="F345" s="110">
         <v>0</v>
       </c>
-      <c r="G345" s="87"/>
-      <c r="H345" s="91"/>
+      <c r="G345" s="87" t="s">
+        <v>291</v>
+      </c>
+      <c r="H345" s="91">
+        <v>45932</v>
+      </c>
       <c r="I345" s="90"/>
       <c r="J345" s="1"/>
       <c r="N345" s="1"/>
@@ -11695,12 +11896,24 @@
     </row>
     <row r="346" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="79"/>
-      <c r="B346" s="28"/>
-      <c r="C346" s="28"/>
-      <c r="D346" s="28"/>
-      <c r="E346" s="29"/>
-      <c r="F346" s="30"/>
-      <c r="G346" s="87"/>
+      <c r="B346" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C346" s="28" t="s">
+        <v>466</v>
+      </c>
+      <c r="D346" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="E346" s="29" t="s">
+        <v>290</v>
+      </c>
+      <c r="F346" s="30">
+        <v>2</v>
+      </c>
+      <c r="G346" s="87">
+        <v>45932</v>
+      </c>
       <c r="H346" s="91"/>
       <c r="I346" s="90"/>
       <c r="J346" s="1"/>
@@ -11760,7 +11973,7 @@
       </c>
       <c r="F350" s="36">
         <f>SUM(F332:F349)-SUM(F329:F331)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G350" s="83"/>
       <c r="H350" s="90"/>
@@ -11842,7 +12055,7 @@
         <v>5</v>
       </c>
       <c r="F356" s="15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G356" s="1"/>
       <c r="H356" s="104"/>
@@ -11885,7 +12098,7 @@
         <v>4</v>
       </c>
       <c r="F359" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G359" s="1"/>
       <c r="H359" s="1"/>
@@ -12071,7 +12284,7 @@
         <v>12</v>
       </c>
       <c r="F369" s="30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G369" s="104"/>
       <c r="H369" s="104"/>
@@ -12113,7 +12326,7 @@
         <v>1</v>
       </c>
       <c r="F371" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G371" s="1"/>
       <c r="H371" s="104"/>
@@ -12146,35 +12359,49 @@
       <c r="J372" s="1"/>
     </row>
     <row r="373" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B373" s="28" t="s">
+      <c r="B373" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C373" s="28" t="s">
+      <c r="C373" s="108" t="s">
         <v>408</v>
       </c>
-      <c r="D373" s="28" t="s">
+      <c r="D373" s="108" t="s">
         <v>160</v>
       </c>
-      <c r="E373" s="29" t="s">
+      <c r="E373" s="109" t="s">
         <v>290</v>
       </c>
-      <c r="F373" s="30">
+      <c r="F373" s="110">
         <v>0</v>
       </c>
       <c r="G373" s="104">
         <v>45890</v>
       </c>
-      <c r="H373" s="1"/>
+      <c r="H373" s="104">
+        <v>45939</v>
+      </c>
       <c r="I373" s="1"/>
       <c r="J373" s="1"/>
     </row>
     <row r="374" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B374" s="28"/>
-      <c r="C374" s="28"/>
-      <c r="D374" s="28"/>
-      <c r="E374" s="29"/>
-      <c r="F374" s="30"/>
-      <c r="G374" s="1"/>
+      <c r="B374" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C374" s="28" t="s">
+        <v>467</v>
+      </c>
+      <c r="D374" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="E374" s="29" t="s">
+        <v>290</v>
+      </c>
+      <c r="F374" s="30">
+        <v>4</v>
+      </c>
+      <c r="G374" s="104">
+        <v>45939</v>
+      </c>
       <c r="H374" s="1"/>
       <c r="I374" s="1"/>
       <c r="J374" s="1"/>
@@ -12211,7 +12438,7 @@
       </c>
       <c r="F377" s="36">
         <f>SUM(F359:F376)-SUM(F356:F358)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G377" s="1"/>
       <c r="H377" s="1"/>
@@ -12467,7 +12694,7 @@
   <dimension ref="A1:IV22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12591,10 +12818,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="25">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F7" s="26">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G7" s="27">
         <v>3</v>
@@ -12607,22 +12834,22 @@
     <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="47"/>
       <c r="B8" s="54">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="E8" s="25">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" s="26">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G8" s="27">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="H8" s="52"/>
       <c r="I8" s="41"/>
@@ -12632,22 +12859,22 @@
     <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="47"/>
       <c r="B9" s="54">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>236</v>
+        <v>54</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>272</v>
       </c>
       <c r="E9" s="25">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" s="26">
         <v>26</v>
       </c>
       <c r="G9" s="27">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H9" s="52"/>
       <c r="I9" s="41"/>
@@ -12657,22 +12884,22 @@
     <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="47"/>
       <c r="B10" s="54">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="55" t="s">
-        <v>206</v>
+        <v>248</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>249</v>
       </c>
       <c r="E10" s="25">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F10" s="26">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G10" s="27">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H10" s="52"/>
       <c r="I10" s="41"/>
@@ -12682,22 +12909,22 @@
     <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="47"/>
       <c r="B11" s="54">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>247</v>
+        <v>201</v>
       </c>
       <c r="E11" s="25">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F11" s="26">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G11" s="27">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H11" s="52"/>
       <c r="I11" s="41"/>
@@ -12707,47 +12934,47 @@
     <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="47"/>
       <c r="B12" s="54">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>31</v>
+        <v>247</v>
       </c>
       <c r="E12" s="25">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F12" s="26">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G12" s="27">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H12" s="52"/>
       <c r="I12" s="41"/>
       <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
+      <c r="K12" s="53"/>
     </row>
     <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="47"/>
       <c r="B13" s="54">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="55" t="s">
-        <v>272</v>
+        <v>32</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>31</v>
       </c>
       <c r="E13" s="25">
-        <v>5</v>
-      </c>
-      <c r="F13" s="56">
-        <v>20</v>
-      </c>
-      <c r="G13" s="57">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="F13" s="26">
+        <v>26</v>
+      </c>
+      <c r="G13" s="27">
+        <v>18</v>
       </c>
       <c r="H13" s="52"/>
       <c r="I13" s="41"/>
@@ -12757,22 +12984,22 @@
     <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="47"/>
       <c r="B14" s="54">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>248</v>
+        <v>51</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="E14" s="25">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F14" s="26">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G14" s="27">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H14" s="52"/>
       <c r="I14" s="41"/>
@@ -12782,47 +13009,47 @@
     <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="47"/>
       <c r="B15" s="54">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>191</v>
+        <v>15</v>
       </c>
       <c r="E15" s="25">
-        <v>2</v>
-      </c>
-      <c r="F15" s="26">
-        <v>16</v>
-      </c>
-      <c r="G15" s="27">
-        <v>14</v>
+        <v>3</v>
+      </c>
+      <c r="F15" s="56">
+        <v>18</v>
+      </c>
+      <c r="G15" s="57">
+        <v>15</v>
       </c>
       <c r="H15" s="52"/>
       <c r="I15" s="41"/>
       <c r="J15" s="41"/>
-      <c r="K15" s="53"/>
+      <c r="K15" s="41"/>
     </row>
     <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="47"/>
       <c r="B16" s="54">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="E16" s="25">
         <v>2</v>
       </c>
       <c r="F16" s="26">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G16" s="27">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="H16" s="52"/>
       <c r="I16" s="41"/>
@@ -12832,22 +13059,22 @@
     <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="47"/>
       <c r="B17" s="54">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="55" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>191</v>
       </c>
       <c r="E17" s="25">
-        <v>1</v>
-      </c>
-      <c r="F17" s="56">
-        <v>14</v>
-      </c>
-      <c r="G17" s="57">
-        <v>13</v>
+        <v>2</v>
+      </c>
+      <c r="F17" s="26">
+        <v>18</v>
+      </c>
+      <c r="G17" s="27">
+        <v>16</v>
       </c>
       <c r="H17" s="52"/>
       <c r="I17" s="41"/>
@@ -12857,22 +13084,22 @@
     <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="47"/>
       <c r="B18" s="54">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>53</v>
+        <v>35</v>
+      </c>
+      <c r="D18" s="55" t="s">
+        <v>34</v>
       </c>
       <c r="E18" s="25">
-        <v>1</v>
-      </c>
-      <c r="F18" s="26">
-        <v>8</v>
-      </c>
-      <c r="G18" s="27">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="F18" s="56">
+        <v>15</v>
+      </c>
+      <c r="G18" s="57">
+        <v>15</v>
       </c>
       <c r="H18" s="52"/>
       <c r="I18" s="41"/>
@@ -12882,22 +13109,22 @@
     <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="47"/>
       <c r="B19" s="54">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>141</v>
+        <v>52</v>
+      </c>
+      <c r="D19" s="55" t="s">
+        <v>53</v>
       </c>
       <c r="E19" s="25">
         <v>-2</v>
       </c>
-      <c r="F19" s="26">
-        <v>13</v>
-      </c>
-      <c r="G19" s="27">
-        <v>15</v>
+      <c r="F19" s="56">
+        <v>10</v>
+      </c>
+      <c r="G19" s="57">
+        <v>12</v>
       </c>
       <c r="H19" s="52"/>
       <c r="I19" s="41"/>
@@ -12907,7 +13134,7 @@
     <row r="20" spans="1:11" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="47"/>
       <c r="B20" s="54">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>55</v>
@@ -12916,13 +13143,13 @@
         <v>225</v>
       </c>
       <c r="E20" s="25">
-        <v>-15</v>
-      </c>
-      <c r="F20" s="56">
-        <v>5</v>
-      </c>
-      <c r="G20" s="57">
-        <v>20</v>
+        <v>-13</v>
+      </c>
+      <c r="F20" s="26">
+        <v>9</v>
+      </c>
+      <c r="G20" s="27">
+        <v>22</v>
       </c>
       <c r="H20" s="52"/>
       <c r="I20" s="41"/>
@@ -12946,7 +13173,7 @@
       <c r="A22" s="40"/>
       <c r="B22" s="40"/>
       <c r="C22" s="40"/>
-      <c r="D22" s="61"/>
+      <c r="D22" s="44"/>
       <c r="E22" s="41"/>
       <c r="F22" s="41"/>
       <c r="G22" s="40"/>
@@ -12956,6 +13183,11 @@
       <c r="K22" s="41"/>
     </row>
   </sheetData>
+  <autoFilter ref="A6:IV6" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:IV20">
+      <sortCondition descending="1" ref="E6"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="93" orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -13297,7 +13529,7 @@
   <dimension ref="A1:X71"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -13954,13 +14186,21 @@
       <c r="B19" s="65" t="s">
         <v>247</v>
       </c>
-      <c r="C19" s="68"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="69"/>
-      <c r="G19" s="100"/>
+      <c r="C19" s="64">
+        <v>0</v>
+      </c>
+      <c r="D19" s="64" t="s">
+        <v>476</v>
+      </c>
+      <c r="E19" s="70" t="s">
+        <v>225</v>
+      </c>
+      <c r="F19" s="100">
+        <v>-1</v>
+      </c>
+      <c r="G19" s="100" t="s">
+        <v>449</v>
+      </c>
       <c r="H19" s="38"/>
       <c r="I19" s="38"/>
       <c r="J19" s="38"/>
@@ -13986,13 +14226,21 @@
       <c r="B20" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="68"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="65" t="s">
+      <c r="C20" s="64">
+        <v>0</v>
+      </c>
+      <c r="D20" s="64" t="s">
+        <v>472</v>
+      </c>
+      <c r="E20" s="70" t="s">
         <v>423</v>
       </c>
-      <c r="F20" s="68"/>
-      <c r="G20" s="64"/>
+      <c r="F20" s="100">
+        <v>-2</v>
+      </c>
+      <c r="G20" s="100" t="s">
+        <v>477</v>
+      </c>
       <c r="H20" s="38"/>
       <c r="I20" s="38"/>
       <c r="J20" s="38"/>
@@ -14018,13 +14266,21 @@
       <c r="B21" s="65" t="s">
         <v>141</v>
       </c>
-      <c r="C21" s="68"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="65" t="s">
+      <c r="C21" s="64">
+        <v>2</v>
+      </c>
+      <c r="D21" s="64" t="s">
+        <v>474</v>
+      </c>
+      <c r="E21" s="70" t="s">
         <v>425</v>
       </c>
-      <c r="F21" s="69"/>
-      <c r="G21" s="100"/>
+      <c r="F21" s="100">
+        <v>0</v>
+      </c>
+      <c r="G21" s="100" t="s">
+        <v>445</v>
+      </c>
       <c r="H21" s="38"/>
       <c r="I21" s="38"/>
       <c r="J21" s="38"/>
@@ -14050,13 +14306,21 @@
       <c r="B22" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="69"/>
-      <c r="D22" s="100"/>
+      <c r="C22" s="100">
+        <v>-3</v>
+      </c>
+      <c r="D22" s="100" t="s">
+        <v>473</v>
+      </c>
       <c r="E22" s="65" t="s">
         <v>201</v>
       </c>
-      <c r="F22" s="68"/>
-      <c r="G22" s="64"/>
+      <c r="F22" s="64">
+        <v>-1</v>
+      </c>
+      <c r="G22" s="64" t="s">
+        <v>449</v>
+      </c>
       <c r="H22" s="38"/>
       <c r="I22" s="38"/>
       <c r="J22" s="38"/>
@@ -14082,13 +14346,21 @@
       <c r="B23" s="65" t="s">
         <v>457</v>
       </c>
-      <c r="C23" s="69"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="65" t="s">
+      <c r="C23" s="64">
+        <v>1</v>
+      </c>
+      <c r="D23" s="64" t="s">
+        <v>475</v>
+      </c>
+      <c r="E23" s="70" t="s">
         <v>424</v>
       </c>
-      <c r="F23" s="68"/>
-      <c r="G23" s="64"/>
+      <c r="F23" s="100">
+        <v>-3</v>
+      </c>
+      <c r="G23" s="100" t="s">
+        <v>473</v>
+      </c>
       <c r="H23" s="38"/>
       <c r="I23" s="38"/>
       <c r="J23" s="38"/>
@@ -14114,13 +14386,21 @@
       <c r="B24" s="65" t="s">
         <v>428</v>
       </c>
-      <c r="C24" s="69"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="65" t="s">
+      <c r="C24" s="64">
+        <v>3</v>
+      </c>
+      <c r="D24" s="64" t="s">
+        <v>471</v>
+      </c>
+      <c r="E24" s="70" t="s">
         <v>458</v>
       </c>
-      <c r="F24" s="68"/>
-      <c r="G24" s="64"/>
+      <c r="F24" s="100">
+        <v>2</v>
+      </c>
+      <c r="G24" s="100" t="s">
+        <v>440</v>
+      </c>
       <c r="H24" s="38"/>
       <c r="I24" s="38"/>
       <c r="J24" s="38"/>
@@ -14146,13 +14426,21 @@
       <c r="B25" s="65" t="s">
         <v>206</v>
       </c>
-      <c r="C25" s="69"/>
-      <c r="D25" s="100"/>
-      <c r="E25" s="65" t="s">
+      <c r="C25" s="64">
+        <v>0</v>
+      </c>
+      <c r="D25" s="64" t="s">
+        <v>445</v>
+      </c>
+      <c r="E25" s="70" t="s">
         <v>459</v>
       </c>
-      <c r="F25" s="68"/>
-      <c r="G25" s="64"/>
+      <c r="F25" s="100">
+        <v>-1</v>
+      </c>
+      <c r="G25" s="100" t="s">
+        <v>446</v>
+      </c>
       <c r="H25" s="38"/>
       <c r="I25" s="38"/>
       <c r="J25" s="38"/>
@@ -14178,13 +14466,21 @@
       <c r="B26" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="65" t="s">
+      <c r="C26" s="64">
+        <v>3</v>
+      </c>
+      <c r="D26" s="64" t="s">
+        <v>471</v>
+      </c>
+      <c r="E26" s="70" t="s">
         <v>460</v>
       </c>
-      <c r="F26" s="68"/>
-      <c r="G26" s="64"/>
+      <c r="F26" s="100">
+        <v>2</v>
+      </c>
+      <c r="G26" s="100" t="s">
+        <v>440</v>
+      </c>
       <c r="H26" s="38"/>
       <c r="I26" s="38"/>
       <c r="J26" s="38"/>
@@ -15377,14 +15673,14 @@
       </c>
       <c r="G10">
         <f>COUNTIF(Stats!D:D,'Player Count'!F10)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J10" s="67" t="s">
         <v>353</v>
       </c>
       <c r="K10">
         <f>COUNTIF(Stats!D:D,'Player Count'!J10)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M10" s="111"/>
       <c r="N10" t="s">
@@ -15402,7 +15698,7 @@
       </c>
       <c r="C11">
         <f>COUNTIF(Stats!D:D,'Player Count'!B11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="s">
         <v>331</v>
@@ -15473,7 +15769,7 @@
       </c>
       <c r="G13">
         <f>COUNTIF(Stats!D:D,'Player Count'!F13)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J13" s="67" t="s">
         <v>355</v>
@@ -15537,7 +15833,7 @@
       </c>
       <c r="G15">
         <f>COUNTIF(Stats!D:D,'Player Count'!F15)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J15" s="67" t="s">
         <v>357</v>
@@ -15576,7 +15872,7 @@
       </c>
       <c r="K16">
         <f>COUNTIF(Stats!D:D,'Player Count'!J16)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M16" s="111"/>
       <c r="N16" s="67" t="s">
@@ -15690,14 +15986,14 @@
       </c>
       <c r="C20">
         <f>COUNTIF(Stats!D:D,'Player Count'!B20)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20" t="s">
         <v>340</v>
       </c>
       <c r="G20">
         <f>COUNTIF(Stats!D:D,'Player Count'!F20)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="67" t="s">
         <v>372</v>
@@ -15800,7 +16096,7 @@
       </c>
       <c r="K23">
         <f>COUNTIF(Stats!D:D,'Player Count'!J23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="111"/>
       <c r="N23" t="s">
@@ -15832,7 +16128,7 @@
       </c>
       <c r="K24">
         <f>COUNTIF(Stats!D:D,'Player Count'!J24)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M24" s="111"/>
       <c r="N24" s="67" t="s">
@@ -15882,7 +16178,7 @@
       </c>
       <c r="C26" s="78">
         <f>SUM(C6:C25)</f>
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F26" t="s">
         <v>346</v>
@@ -15987,14 +16283,14 @@
       </c>
       <c r="G30" s="78">
         <f>SUM(G6:G29)</f>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J30" s="78" t="s">
         <v>324</v>
       </c>
       <c r="K30" s="78">
         <f>SUM(K6:K29)</f>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="N30" s="78" t="s">
         <v>324</v>
@@ -16010,28 +16306,28 @@
       </c>
       <c r="C38" s="116">
         <f>C26/SUM(C26,G30,K30,O30)</f>
-        <v>0.41208791208791207</v>
+        <v>0.39896373056994816</v>
       </c>
       <c r="D38" s="116"/>
       <c r="E38" s="116"/>
       <c r="F38" s="116"/>
       <c r="G38" s="116">
         <f>G30/SUM(C26,G30,K30,O30)</f>
-        <v>0.24725274725274726</v>
+        <v>0.25906735751295334</v>
       </c>
       <c r="H38" s="116"/>
       <c r="I38" s="116"/>
       <c r="J38" s="116"/>
       <c r="K38" s="116">
         <f>K30/SUM(C26,G30,K30,O30)</f>
-        <v>0.18131868131868131</v>
+        <v>0.19170984455958548</v>
       </c>
       <c r="L38" s="116"/>
       <c r="M38" s="116"/>
       <c r="N38" s="116"/>
       <c r="O38" s="116">
         <f>O30/SUM(C26,G30,K30,O30)</f>
-        <v>0.15934065934065933</v>
+        <v>0.15025906735751296</v>
       </c>
     </row>
   </sheetData>

--- a/data/DreamLeague25-26.xlsx
+++ b/data/DreamLeague25-26.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/462a734c48854128/Desktop/Dream League/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="913" documentId="8_{7D36DF2E-EA78-4237-9818-EA41DFB80887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFB8FEC4-FEA6-469A-91C5-4369931CB508}"/>
+  <xr:revisionPtr revIDLastSave="1106" documentId="8_{7D36DF2E-EA78-4237-9818-EA41DFB80887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80082099-87FD-42E7-A982-9C2864572695}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="487">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -773,9 +773,6 @@
     <t>RUEL SOTIRIOU</t>
   </si>
   <si>
-    <t>ADEBOLA OLUWU</t>
-  </si>
-  <si>
     <t>QUEENS PARK RANGERS</t>
   </si>
   <si>
@@ -809,9 +806,6 @@
     <t>KEVIN SCHADE</t>
   </si>
   <si>
-    <t>BENTFORD</t>
-  </si>
-  <si>
     <t>2025/2026</t>
   </si>
   <si>
@@ -1346,15 +1340,9 @@
     <t>PAUL MULLIN</t>
   </si>
   <si>
-    <t>NICKE KAMAMBA</t>
-  </si>
-  <si>
     <t>GILLINGHAM</t>
   </si>
   <si>
-    <t>TRASNFER</t>
-  </si>
-  <si>
     <t>RANDOL KOLO MUANI</t>
   </si>
   <si>
@@ -1403,9 +1391,6 @@
     <t>AC MILAN</t>
   </si>
   <si>
-    <t>VIKTOR TORP</t>
-  </si>
-  <si>
     <t>WILL SWAN</t>
   </si>
   <si>
@@ -1494,6 +1479,27 @@
   </si>
   <si>
     <t>IGOR THIAGO</t>
+  </si>
+  <si>
+    <t>FEMI AZEEZI</t>
+  </si>
+  <si>
+    <t>MICHAEL MELLON</t>
+  </si>
+  <si>
+    <t>JOE GELHARDT</t>
+  </si>
+  <si>
+    <t>AMARIO COZIER-DUBERRY</t>
+  </si>
+  <si>
+    <t>NICKE KABAMBA</t>
+  </si>
+  <si>
+    <t>ADEBOLA OLUWO</t>
+  </si>
+  <si>
+    <t>VICTOR TORP</t>
   </si>
 </sst>
 </file>
@@ -1911,7 +1917,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2177,7 +2183,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2213,14 +2218,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2306,10 +2315,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3417,8 +3422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IX404"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:O18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3537,11 +3542,11 @@
       <c r="O4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="R4" s="117"/>
-      <c r="S4" s="117"/>
-      <c r="T4" s="117"/>
-      <c r="U4" s="117"/>
-      <c r="V4" s="117"/>
+      <c r="R4" s="118"/>
+      <c r="S4" s="118"/>
+      <c r="T4" s="118"/>
+      <c r="U4" s="118"/>
+      <c r="V4" s="118"/>
     </row>
     <row r="5" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="79"/>
@@ -3556,7 +3561,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G5" s="83"/>
       <c r="H5" s="84"/>
@@ -3572,15 +3577,15 @@
       </c>
       <c r="M5" s="18">
         <f t="shared" ref="M5:M17" si="0">N5-O5</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N5" s="19">
         <f>SUM(F8:F25)</f>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="O5" s="20">
         <f>SUM(F5:F7)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S5" s="102"/>
       <c r="T5" s="101"/>
@@ -3607,15 +3612,15 @@
       </c>
       <c r="M6" s="25">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N6" s="26">
         <f>SUM(F35:F52)</f>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O6" s="27">
         <f>SUM(F32:F34)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="S6" s="102"/>
       <c r="T6" s="101"/>
@@ -3642,15 +3647,15 @@
       </c>
       <c r="M7" s="25">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="N7" s="26">
         <f>SUM(F62:F79)</f>
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="O7" s="27">
         <f>SUM(F59:F61)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S7" s="102"/>
       <c r="T7" s="101"/>
@@ -3690,11 +3695,11 @@
       </c>
       <c r="N8" s="26">
         <f>SUM(F89:F106)</f>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O8" s="27">
         <f>SUM(F86:F88)</f>
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3728,15 +3733,15 @@
       </c>
       <c r="M9" s="25">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N9" s="73">
         <f>SUM(F116:F133)</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="O9" s="74">
         <f>SUM(F113:F115)</f>
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3760,21 +3765,21 @@
       </c>
       <c r="M10" s="25">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N10" s="26">
         <f>SUM(F143:F160)</f>
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="O10" s="27">
         <f>SUM(F140:F142)</f>
-        <v>18</v>
-      </c>
-      <c r="R10" s="117"/>
-      <c r="S10" s="117"/>
-      <c r="T10" s="117"/>
-      <c r="U10" s="117"/>
-      <c r="V10" s="117"/>
+        <v>20</v>
+      </c>
+      <c r="R10" s="118"/>
+      <c r="S10" s="118"/>
+      <c r="T10" s="118"/>
+      <c r="U10" s="118"/>
+      <c r="V10" s="118"/>
     </row>
     <row r="11" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="79"/>
@@ -3791,7 +3796,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11" s="87"/>
       <c r="H11" s="84"/>
@@ -3807,15 +3812,15 @@
       </c>
       <c r="M11" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="N11" s="26">
         <f>SUM(F170:F187)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O11" s="27">
         <f>SUM(F167:F169)</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="S11" s="102"/>
       <c r="T11" s="101"/>
@@ -3823,23 +3828,23 @@
     </row>
     <row r="12" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="79"/>
-      <c r="B12" s="108" t="s">
+      <c r="B12" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="108" t="s">
+      <c r="C12" s="107" t="s">
         <v>167</v>
       </c>
-      <c r="D12" s="108" t="s">
+      <c r="D12" s="107" t="s">
         <v>135</v>
       </c>
-      <c r="E12" s="109">
+      <c r="E12" s="108">
         <v>1</v>
       </c>
-      <c r="F12" s="110">
+      <c r="F12" s="109">
         <v>1</v>
       </c>
       <c r="G12" s="87" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H12" s="84">
         <v>45932</v>
@@ -3856,15 +3861,15 @@
       </c>
       <c r="M12" s="25">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="N12" s="73">
         <f>SUM(F197:F214)</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="O12" s="74">
         <f>SUM(F194:F196)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3873,16 +3878,16 @@
         <v>16</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D13" s="28" t="s">
         <v>104</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F13" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="87">
         <v>45932</v>
@@ -3904,17 +3909,17 @@
       </c>
       <c r="N13" s="73">
         <f>SUM(F224:F241)</f>
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="O13" s="74">
         <f>SUM(F221:F223)</f>
-        <v>16</v>
-      </c>
-      <c r="R13" s="117"/>
-      <c r="S13" s="117"/>
-      <c r="T13" s="117"/>
-      <c r="U13" s="117"/>
-      <c r="V13" s="117"/>
+        <v>22</v>
+      </c>
+      <c r="R13" s="118"/>
+      <c r="S13" s="118"/>
+      <c r="T13" s="118"/>
+      <c r="U13" s="118"/>
+      <c r="V13" s="118"/>
     </row>
     <row r="14" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="79"/>
@@ -3947,15 +3952,15 @@
       </c>
       <c r="M14" s="25">
         <f t="shared" si="0"/>
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="N14" s="73">
         <f>SUM(F251:F268)</f>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="O14" s="74">
         <f>SUM(F248:F250)</f>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="S14" s="102"/>
       <c r="T14" s="101"/>
@@ -3986,11 +3991,11 @@
       </c>
       <c r="N15" s="26">
         <f>SUM(F278:F295)</f>
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="O15" s="27">
         <f>SUM(F275:F277)</f>
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -4014,36 +4019,36 @@
       </c>
       <c r="M16" s="25">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N16" s="26">
         <f>SUM(F305:F322)</f>
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="O16" s="27">
         <f>SUM(F302:F304)</f>
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="79"/>
-      <c r="B17" s="108" t="s">
+      <c r="B17" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="108" t="s">
+      <c r="C17" s="107" t="s">
         <v>171</v>
       </c>
-      <c r="D17" s="108" t="s">
+      <c r="D17" s="107" t="s">
         <v>90</v>
       </c>
-      <c r="E17" s="109">
+      <c r="E17" s="108">
         <v>14</v>
       </c>
-      <c r="F17" s="110">
+      <c r="F17" s="109">
         <v>0</v>
       </c>
       <c r="G17" s="87" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H17" s="84">
         <v>45897</v>
@@ -4060,21 +4065,21 @@
       </c>
       <c r="M17" s="25">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N17" s="26">
         <f>SUM(F332:F349)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O17" s="27">
         <f>SUM(F329:F331)</f>
-        <v>9</v>
-      </c>
-      <c r="R17" s="117"/>
-      <c r="S17" s="117"/>
-      <c r="T17" s="117"/>
-      <c r="U17" s="117"/>
-      <c r="V17" s="117"/>
+        <v>12</v>
+      </c>
+      <c r="R17" s="118"/>
+      <c r="S17" s="118"/>
+      <c r="T17" s="118"/>
+      <c r="U17" s="118"/>
+      <c r="V17" s="118"/>
     </row>
     <row r="18" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="79"/>
@@ -4082,13 +4087,13 @@
         <v>17</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F18" s="30">
         <v>3</v>
@@ -4109,15 +4114,15 @@
       </c>
       <c r="M18" s="25">
         <f>N18-O18</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N18" s="26">
         <f>SUM(F359:F376)</f>
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="O18" s="27">
         <f>SUM(F356:F358)</f>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="S18" s="102"/>
       <c r="T18" s="101"/>
@@ -4138,7 +4143,7 @@
         <v>15</v>
       </c>
       <c r="F19" s="30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G19" s="84"/>
       <c r="H19" s="84"/>
@@ -4152,23 +4157,23 @@
     </row>
     <row r="20" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="79"/>
-      <c r="B20" s="108" t="s">
+      <c r="B20" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="108" t="s">
+      <c r="C20" s="107" t="s">
         <v>188</v>
       </c>
-      <c r="D20" s="108" t="s">
+      <c r="D20" s="107" t="s">
         <v>85</v>
       </c>
-      <c r="E20" s="109">
+      <c r="E20" s="108">
         <v>17</v>
       </c>
-      <c r="F20" s="110">
+      <c r="F20" s="109">
         <v>0</v>
       </c>
       <c r="G20" s="83" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H20" s="84">
         <v>45883</v>
@@ -4180,27 +4185,27 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="R20" s="117"/>
-      <c r="S20" s="117"/>
-      <c r="T20" s="117"/>
-      <c r="U20" s="117"/>
-      <c r="V20" s="117"/>
+      <c r="R20" s="118"/>
+      <c r="S20" s="118"/>
+      <c r="T20" s="118"/>
+      <c r="U20" s="118"/>
+      <c r="V20" s="118"/>
     </row>
     <row r="21" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="79"/>
-      <c r="B21" s="108" t="s">
+      <c r="B21" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="108" t="s">
-        <v>297</v>
-      </c>
-      <c r="D21" s="108" t="s">
-        <v>298</v>
-      </c>
-      <c r="E21" s="109" t="s">
-        <v>290</v>
-      </c>
-      <c r="F21" s="110">
+      <c r="C21" s="107" t="s">
+        <v>295</v>
+      </c>
+      <c r="D21" s="107" t="s">
+        <v>296</v>
+      </c>
+      <c r="E21" s="108" t="s">
+        <v>288</v>
+      </c>
+      <c r="F21" s="109">
         <v>0</v>
       </c>
       <c r="G21" s="87">
@@ -4226,13 +4231,13 @@
         <v>17</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D22" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F22" s="30">
         <v>2</v>
@@ -4278,23 +4283,23 @@
     </row>
     <row r="24" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="79"/>
-      <c r="B24" s="108" t="s">
+      <c r="B24" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="108" t="s">
+      <c r="C24" s="107" t="s">
         <v>190</v>
       </c>
-      <c r="D24" s="108" t="s">
+      <c r="D24" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="E24" s="109">
+      <c r="E24" s="108">
         <v>1</v>
       </c>
-      <c r="F24" s="110">
+      <c r="F24" s="109">
         <v>1</v>
       </c>
       <c r="G24" s="87" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H24" s="84">
         <v>45911</v>
@@ -4306,11 +4311,11 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
-      <c r="R24" s="117"/>
-      <c r="S24" s="117"/>
-      <c r="T24" s="117"/>
-      <c r="U24" s="117"/>
-      <c r="V24" s="117"/>
+      <c r="R24" s="118"/>
+      <c r="S24" s="118"/>
+      <c r="T24" s="118"/>
+      <c r="U24" s="118"/>
+      <c r="V24" s="118"/>
     </row>
     <row r="25" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="79"/>
@@ -4318,13 +4323,13 @@
         <v>17</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D25" s="28" t="s">
         <v>94</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F25" s="30">
         <v>1</v>
@@ -4355,7 +4360,7 @@
       </c>
       <c r="F26" s="36">
         <f>SUM(F8:F25)-SUM(F5:F7)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G26" s="80"/>
       <c r="H26" s="92"/>
@@ -4400,11 +4405,11 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
-      <c r="R28" s="117"/>
-      <c r="S28" s="117"/>
-      <c r="T28" s="117"/>
-      <c r="U28" s="117"/>
-      <c r="V28" s="117"/>
+      <c r="R28" s="118"/>
+      <c r="S28" s="118"/>
+      <c r="T28" s="118"/>
+      <c r="U28" s="118"/>
+      <c r="V28" s="118"/>
     </row>
     <row r="29" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
@@ -4484,7 +4489,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="15">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G32" s="80"/>
       <c r="H32" s="94"/>
@@ -4627,11 +4632,11 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
-      <c r="R38" s="117"/>
-      <c r="S38" s="117"/>
-      <c r="T38" s="117"/>
-      <c r="U38" s="117"/>
-      <c r="V38" s="117"/>
+      <c r="R38" s="118"/>
+      <c r="S38" s="118"/>
+      <c r="T38" s="118"/>
+      <c r="U38" s="118"/>
+      <c r="V38" s="118"/>
     </row>
     <row r="39" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="79"/>
@@ -4675,7 +4680,7 @@
         <v>1</v>
       </c>
       <c r="F40" s="30">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G40" s="87"/>
       <c r="H40" s="91"/>
@@ -4740,23 +4745,23 @@
     </row>
     <row r="44" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="79"/>
-      <c r="B44" s="108" t="s">
+      <c r="B44" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="108" t="s">
+      <c r="C44" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="D44" s="108" t="s">
+      <c r="D44" s="107" t="s">
         <v>74</v>
       </c>
-      <c r="E44" s="109">
+      <c r="E44" s="108">
         <v>2</v>
       </c>
-      <c r="F44" s="110">
+      <c r="F44" s="109">
         <v>0</v>
       </c>
       <c r="G44" s="87" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H44" s="91">
         <v>45876</v>
@@ -4775,13 +4780,13 @@
         <v>17</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D45" s="28" t="s">
         <v>70</v>
       </c>
       <c r="E45" s="29" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F45" s="30">
         <v>2</v>
@@ -4827,23 +4832,23 @@
     </row>
     <row r="47" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="79"/>
-      <c r="B47" s="108" t="s">
+      <c r="B47" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="108" t="s">
+      <c r="C47" s="107" t="s">
         <v>194</v>
       </c>
-      <c r="D47" s="108" t="s">
+      <c r="D47" s="107" t="s">
         <v>86</v>
       </c>
-      <c r="E47" s="109">
+      <c r="E47" s="108">
         <v>9</v>
       </c>
-      <c r="F47" s="110">
+      <c r="F47" s="109">
         <v>0</v>
       </c>
       <c r="G47" s="87" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H47" s="91">
         <v>45904</v>
@@ -4862,13 +4867,13 @@
         <v>17</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D48" s="28" t="s">
         <v>24</v>
       </c>
       <c r="E48" s="29" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F48" s="30">
         <v>0</v>
@@ -4887,23 +4892,23 @@
     </row>
     <row r="49" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="79"/>
-      <c r="B49" s="108" t="s">
+      <c r="B49" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="C49" s="108" t="s">
+      <c r="C49" s="107" t="s">
         <v>120</v>
       </c>
-      <c r="D49" s="108" t="s">
+      <c r="D49" s="107" t="s">
         <v>195</v>
       </c>
-      <c r="E49" s="109">
+      <c r="E49" s="108">
         <v>1</v>
       </c>
-      <c r="F49" s="110">
+      <c r="F49" s="109">
         <v>1</v>
       </c>
       <c r="G49" s="91" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H49" s="91">
         <v>45904</v>
@@ -4922,13 +4927,13 @@
         <v>17</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D50" s="28" t="s">
         <v>89</v>
       </c>
       <c r="E50" s="29" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F50" s="30">
         <v>1</v>
@@ -4960,7 +4965,7 @@
         <v>24</v>
       </c>
       <c r="F51" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" s="87"/>
       <c r="H51" s="91"/>
@@ -5000,7 +5005,7 @@
       </c>
       <c r="F53" s="36">
         <f>SUM(F35:F52)-SUM(F32:F34)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G53" s="80"/>
       <c r="H53" s="92"/>
@@ -5124,7 +5129,7 @@
         <v>4</v>
       </c>
       <c r="F59" s="15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G59" s="80"/>
       <c r="H59" s="92"/>
@@ -5185,7 +5190,7 @@
         <v>1</v>
       </c>
       <c r="F62" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62" s="83"/>
       <c r="H62" s="91"/>
@@ -5297,23 +5302,23 @@
     </row>
     <row r="67" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="79"/>
-      <c r="B67" s="108" t="s">
+      <c r="B67" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="C67" s="108" t="s">
+      <c r="C67" s="107" t="s">
         <v>174</v>
       </c>
-      <c r="D67" s="108" t="s">
+      <c r="D67" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="E67" s="109">
+      <c r="E67" s="108">
         <v>29</v>
       </c>
-      <c r="F67" s="110">
+      <c r="F67" s="109">
         <v>0</v>
       </c>
       <c r="G67" s="87" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H67" s="91">
         <v>45904</v>
@@ -5332,16 +5337,16 @@
         <v>16</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D68" s="28" t="s">
         <v>36</v>
       </c>
       <c r="E68" s="29" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F68" s="30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G68" s="91">
         <v>45904</v>
@@ -5418,23 +5423,23 @@
     </row>
     <row r="72" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="79"/>
-      <c r="B72" s="108" t="s">
+      <c r="B72" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="C72" s="108" t="s">
+      <c r="C72" s="107" t="s">
         <v>59</v>
       </c>
-      <c r="D72" s="108" t="s">
+      <c r="D72" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="E72" s="109">
+      <c r="E72" s="108">
         <v>7</v>
       </c>
-      <c r="F72" s="110">
+      <c r="F72" s="109">
         <v>0</v>
       </c>
       <c r="G72" s="83" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H72" s="91">
         <v>45897</v>
@@ -5453,16 +5458,16 @@
         <v>17</v>
       </c>
       <c r="C73" s="28" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D73" s="28" t="s">
         <v>87</v>
       </c>
       <c r="E73" s="29" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F73" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G73" s="87">
         <v>45897</v>
@@ -5505,23 +5510,23 @@
     </row>
     <row r="75" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="79"/>
-      <c r="B75" s="108" t="s">
+      <c r="B75" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="C75" s="108" t="s">
+      <c r="C75" s="107" t="s">
         <v>199</v>
       </c>
-      <c r="D75" s="108" t="s">
+      <c r="D75" s="107" t="s">
         <v>82</v>
       </c>
-      <c r="E75" s="109">
+      <c r="E75" s="108">
         <v>1</v>
       </c>
-      <c r="F75" s="110">
+      <c r="F75" s="109">
         <v>0</v>
       </c>
       <c r="G75" s="87" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H75" s="91">
         <v>45890</v>
@@ -5540,16 +5545,16 @@
         <v>17</v>
       </c>
       <c r="C76" s="28" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D76" s="28" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E76" s="29" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F76" s="30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G76" s="87">
         <v>45890</v>
@@ -5565,23 +5570,23 @@
     </row>
     <row r="77" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="79"/>
-      <c r="B77" s="108" t="s">
+      <c r="B77" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="C77" s="108" t="s">
+      <c r="C77" s="107" t="s">
         <v>200</v>
       </c>
-      <c r="D77" s="108" t="s">
+      <c r="D77" s="107" t="s">
         <v>100</v>
       </c>
-      <c r="E77" s="109">
+      <c r="E77" s="108">
         <v>1</v>
       </c>
-      <c r="F77" s="110">
+      <c r="F77" s="109">
         <v>1</v>
       </c>
       <c r="G77" s="87" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H77" s="91">
         <v>45946</v>
@@ -5600,16 +5605,16 @@
         <v>17</v>
       </c>
       <c r="C78" s="28" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="D78" s="28" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="E78" s="29" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F78" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G78" s="87">
         <v>45946</v>
@@ -5651,7 +5656,7 @@
       </c>
       <c r="F80" s="36">
         <f>SUM(F62:F79)-SUM(F59:F61)</f>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G80" s="80"/>
       <c r="H80" s="92"/>
@@ -5775,7 +5780,7 @@
         <v>8</v>
       </c>
       <c r="F86" s="15">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G86" s="80"/>
       <c r="H86" s="94"/>
@@ -5836,7 +5841,7 @@
         <v>1</v>
       </c>
       <c r="F89" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89" s="83"/>
       <c r="H89" s="90"/>
@@ -5921,23 +5926,23 @@
     </row>
     <row r="93" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="79"/>
-      <c r="B93" s="108" t="s">
+      <c r="B93" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="C93" s="108" t="s">
+      <c r="C93" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="D93" s="108" t="s">
+      <c r="D93" s="107" t="s">
         <v>137</v>
       </c>
-      <c r="E93" s="109">
+      <c r="E93" s="108">
         <v>1</v>
       </c>
-      <c r="F93" s="110">
+      <c r="F93" s="109">
         <v>0</v>
       </c>
       <c r="G93" s="91" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H93" s="91">
         <v>45876</v>
@@ -5956,13 +5961,13 @@
         <v>16</v>
       </c>
       <c r="C94" s="28" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D94" s="28" t="s">
         <v>24</v>
       </c>
       <c r="E94" s="29" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F94" s="30">
         <v>0</v>
@@ -6096,23 +6101,23 @@
     </row>
     <row r="100" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="79"/>
-      <c r="B100" s="108" t="s">
+      <c r="B100" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="C100" s="108" t="s">
+      <c r="C100" s="107" t="s">
         <v>60</v>
       </c>
-      <c r="D100" s="108" t="s">
+      <c r="D100" s="107" t="s">
         <v>150</v>
       </c>
-      <c r="E100" s="109">
+      <c r="E100" s="108">
         <v>6</v>
       </c>
-      <c r="F100" s="110">
+      <c r="F100" s="109">
         <v>1</v>
       </c>
       <c r="G100" s="87" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H100" s="91">
         <v>45918</v>
@@ -6131,13 +6136,13 @@
         <v>17</v>
       </c>
       <c r="C101" s="28" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D101" s="28" t="s">
         <v>169</v>
       </c>
       <c r="E101" s="29" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F101" s="30">
         <v>4</v>
@@ -6183,23 +6188,23 @@
     </row>
     <row r="103" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="79"/>
-      <c r="B103" s="108" t="s">
+      <c r="B103" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="C103" s="108" t="s">
+      <c r="C103" s="107" t="s">
         <v>205</v>
       </c>
-      <c r="D103" s="108" t="s">
+      <c r="D103" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="E103" s="109">
+      <c r="E103" s="108">
         <v>1</v>
       </c>
-      <c r="F103" s="110">
+      <c r="F103" s="109">
         <v>0</v>
       </c>
       <c r="G103" s="87" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H103" s="91">
         <v>45911</v>
@@ -6218,16 +6223,16 @@
         <v>17</v>
       </c>
       <c r="C104" s="28" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D104" s="28" t="s">
         <v>82</v>
       </c>
       <c r="E104" s="29" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F104" s="30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G104" s="87">
         <v>45911</v>
@@ -6410,7 +6415,7 @@
         <v>1</v>
       </c>
       <c r="F113" s="15">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G113" s="80"/>
       <c r="H113" s="94"/>
@@ -6471,7 +6476,7 @@
         <v>1</v>
       </c>
       <c r="F116" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G116" s="83"/>
       <c r="H116" s="91"/>
@@ -6542,7 +6547,7 @@
         <v>19</v>
       </c>
       <c r="F119" s="30">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G119" s="87"/>
       <c r="H119" s="91"/>
@@ -6688,23 +6693,23 @@
     </row>
     <row r="126" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="79"/>
-      <c r="B126" s="108" t="s">
+      <c r="B126" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="C126" s="108" t="s">
+      <c r="C126" s="107" t="s">
         <v>168</v>
       </c>
-      <c r="D126" s="108" t="s">
+      <c r="D126" s="107" t="s">
         <v>169</v>
       </c>
-      <c r="E126" s="109">
+      <c r="E126" s="108">
         <v>10</v>
       </c>
-      <c r="F126" s="110">
+      <c r="F126" s="109">
         <v>1</v>
       </c>
       <c r="G126" s="83" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H126" s="91">
         <v>45890</v>
@@ -6719,25 +6724,27 @@
     </row>
     <row r="127" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="79"/>
-      <c r="B127" s="28" t="s">
+      <c r="B127" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="C127" s="28" t="s">
-        <v>410</v>
-      </c>
-      <c r="D127" s="28" t="s">
-        <v>411</v>
-      </c>
-      <c r="E127" s="29" t="s">
-        <v>290</v>
-      </c>
-      <c r="F127" s="30">
+      <c r="C127" s="107" t="s">
+        <v>408</v>
+      </c>
+      <c r="D127" s="107" t="s">
+        <v>409</v>
+      </c>
+      <c r="E127" s="108" t="s">
+        <v>288</v>
+      </c>
+      <c r="F127" s="109">
         <v>2</v>
       </c>
       <c r="G127" s="87">
         <v>45890</v>
       </c>
-      <c r="H127" s="91"/>
+      <c r="H127" s="91">
+        <v>45967</v>
+      </c>
       <c r="I127" s="90"/>
       <c r="J127" s="76"/>
       <c r="K127" s="1"/>
@@ -6748,27 +6755,25 @@
     </row>
     <row r="128" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="79"/>
-      <c r="B128" s="108" t="s">
+      <c r="B128" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C128" s="108" t="s">
-        <v>212</v>
-      </c>
-      <c r="D128" s="108" t="s">
-        <v>129</v>
-      </c>
-      <c r="E128" s="109">
-        <v>19</v>
-      </c>
-      <c r="F128" s="110">
-        <v>2</v>
-      </c>
-      <c r="G128" s="87" t="s">
-        <v>291</v>
-      </c>
-      <c r="H128" s="91">
-        <v>45890</v>
-      </c>
+      <c r="C128" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="D128" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="E128" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="F128" s="30">
+        <v>0</v>
+      </c>
+      <c r="G128" s="87">
+        <v>45967</v>
+      </c>
+      <c r="H128" s="91"/>
       <c r="I128" s="90"/>
       <c r="J128" s="76"/>
       <c r="K128" s="1"/>
@@ -6779,25 +6784,27 @@
     </row>
     <row r="129" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="79"/>
-      <c r="B129" s="28" t="s">
+      <c r="B129" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="C129" s="28" t="s">
-        <v>407</v>
-      </c>
-      <c r="D129" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E129" s="29" t="s">
-        <v>290</v>
-      </c>
-      <c r="F129" s="30">
-        <v>0</v>
-      </c>
-      <c r="G129" s="87">
+      <c r="C129" s="107" t="s">
+        <v>212</v>
+      </c>
+      <c r="D129" s="107" t="s">
+        <v>129</v>
+      </c>
+      <c r="E129" s="108">
+        <v>19</v>
+      </c>
+      <c r="F129" s="109">
+        <v>2</v>
+      </c>
+      <c r="G129" s="87" t="s">
+        <v>289</v>
+      </c>
+      <c r="H129" s="91">
         <v>45890</v>
       </c>
-      <c r="H129" s="91"/>
       <c r="I129" s="90"/>
       <c r="J129" s="76"/>
       <c r="K129" s="1"/>
@@ -6812,18 +6819,20 @@
         <v>17</v>
       </c>
       <c r="C130" s="28" t="s">
-        <v>110</v>
+        <v>405</v>
       </c>
       <c r="D130" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="E130" s="29">
-        <v>1</v>
+        <v>69</v>
+      </c>
+      <c r="E130" s="29" t="s">
+        <v>288</v>
       </c>
       <c r="F130" s="30">
-        <v>9</v>
-      </c>
-      <c r="G130" s="87"/>
+        <v>0</v>
+      </c>
+      <c r="G130" s="87">
+        <v>45890</v>
+      </c>
       <c r="H130" s="91"/>
       <c r="I130" s="90"/>
       <c r="J130" s="76"/>
@@ -6835,27 +6844,23 @@
     </row>
     <row r="131" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="79"/>
-      <c r="B131" s="108" t="s">
+      <c r="B131" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C131" s="108" t="s">
-        <v>213</v>
-      </c>
-      <c r="D131" s="108" t="s">
-        <v>20</v>
-      </c>
-      <c r="E131" s="109">
+      <c r="C131" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D131" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="E131" s="29">
         <v>1</v>
       </c>
-      <c r="F131" s="110">
-        <v>1</v>
-      </c>
-      <c r="G131" s="87" t="s">
-        <v>291</v>
-      </c>
-      <c r="H131" s="91">
-        <v>45932</v>
-      </c>
+      <c r="F131" s="30">
+        <v>9</v>
+      </c>
+      <c r="G131" s="87"/>
+      <c r="H131" s="91"/>
       <c r="I131" s="90"/>
       <c r="J131" s="76"/>
       <c r="K131" s="1"/>
@@ -6866,25 +6871,27 @@
     </row>
     <row r="132" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="79"/>
-      <c r="B132" s="28" t="s">
+      <c r="B132" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="C132" s="28" t="s">
-        <v>463</v>
-      </c>
-      <c r="D132" s="28" t="s">
-        <v>464</v>
-      </c>
-      <c r="E132" s="29" t="s">
-        <v>290</v>
-      </c>
-      <c r="F132" s="30">
-        <v>0</v>
-      </c>
-      <c r="G132" s="87">
+      <c r="C132" s="107" t="s">
+        <v>213</v>
+      </c>
+      <c r="D132" s="107" t="s">
+        <v>20</v>
+      </c>
+      <c r="E132" s="108">
+        <v>1</v>
+      </c>
+      <c r="F132" s="109">
+        <v>1</v>
+      </c>
+      <c r="G132" s="87" t="s">
+        <v>289</v>
+      </c>
+      <c r="H132" s="91">
         <v>45932</v>
       </c>
-      <c r="H132" s="91"/>
       <c r="I132" s="90"/>
       <c r="J132" s="76"/>
       <c r="K132" s="1"/>
@@ -6895,12 +6902,24 @@
     </row>
     <row r="133" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="79"/>
-      <c r="B133" s="28"/>
-      <c r="C133" s="28"/>
-      <c r="D133" s="28"/>
-      <c r="E133" s="29"/>
-      <c r="F133" s="30"/>
-      <c r="G133" s="87"/>
+      <c r="B133" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C133" s="28" t="s">
+        <v>458</v>
+      </c>
+      <c r="D133" s="28" t="s">
+        <v>459</v>
+      </c>
+      <c r="E133" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="F133" s="30">
+        <v>0</v>
+      </c>
+      <c r="G133" s="87">
+        <v>45932</v>
+      </c>
       <c r="H133" s="91"/>
       <c r="I133" s="90"/>
       <c r="J133" s="76"/>
@@ -6921,7 +6940,7 @@
       </c>
       <c r="F134" s="36">
         <f>SUM(F116:F133)-SUM(F113:F115)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G134" s="80"/>
       <c r="H134" s="92"/>
@@ -7034,21 +7053,21 @@
     </row>
     <row r="140" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="79"/>
-      <c r="B140" s="112" t="s">
+      <c r="B140" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="C140" s="113"/>
-      <c r="D140" s="112" t="s">
+      <c r="C140" s="112"/>
+      <c r="D140" s="111" t="s">
         <v>94</v>
       </c>
-      <c r="E140" s="114">
+      <c r="E140" s="113">
         <v>1</v>
       </c>
-      <c r="F140" s="115">
+      <c r="F140" s="114">
         <v>9</v>
       </c>
       <c r="G140" s="80" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H140" s="94">
         <v>45911</v>
@@ -7063,23 +7082,25 @@
     </row>
     <row r="141" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="79"/>
-      <c r="B141" s="21" t="s">
+      <c r="B141" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="C141" s="21"/>
-      <c r="D141" s="21" t="s">
-        <v>436</v>
-      </c>
-      <c r="E141" s="22" t="s">
-        <v>437</v>
-      </c>
-      <c r="F141" s="21">
-        <v>9</v>
+      <c r="C141" s="116"/>
+      <c r="D141" s="116" t="s">
+        <v>433</v>
+      </c>
+      <c r="E141" s="117" t="s">
+        <v>288</v>
+      </c>
+      <c r="F141" s="116">
+        <v>11</v>
       </c>
       <c r="G141" s="86">
         <v>45911</v>
       </c>
-      <c r="H141" s="92"/>
+      <c r="H141" s="94">
+        <v>45974</v>
+      </c>
       <c r="I141" s="92"/>
       <c r="J141" s="76"/>
       <c r="K141" s="1"/>
@@ -7090,12 +7111,22 @@
     </row>
     <row r="142" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="79"/>
-      <c r="B142" s="21"/>
+      <c r="B142" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="C142" s="21"/>
-      <c r="D142" s="21"/>
-      <c r="E142" s="22"/>
-      <c r="F142" s="21"/>
-      <c r="G142" s="80"/>
+      <c r="D142" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="E142" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="F142" s="21">
+        <v>0</v>
+      </c>
+      <c r="G142" s="86">
+        <v>45974</v>
+      </c>
       <c r="H142" s="92"/>
       <c r="I142" s="92"/>
       <c r="J142" s="76"/>
@@ -7147,7 +7178,7 @@
         <v>1</v>
       </c>
       <c r="F144" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G144" s="83"/>
       <c r="H144" s="91"/>
@@ -7167,7 +7198,7 @@
       <c r="E145" s="29"/>
       <c r="F145" s="30"/>
       <c r="G145" s="87"/>
-      <c r="H145" s="90"/>
+      <c r="H145" s="91"/>
       <c r="I145" s="90"/>
       <c r="J145" s="76"/>
       <c r="K145" s="1"/>
@@ -7191,10 +7222,10 @@
         <v>42</v>
       </c>
       <c r="F146" s="30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G146" s="87"/>
-      <c r="H146" s="90"/>
+      <c r="H146" s="91"/>
       <c r="I146" s="90"/>
       <c r="J146" s="76"/>
       <c r="K146" s="1"/>
@@ -7218,11 +7249,12 @@
         <v>1</v>
       </c>
       <c r="F147" s="30">
-        <v>2</v>
-      </c>
-      <c r="H147" s="103"/>
+        <v>4</v>
+      </c>
+      <c r="G147" s="87"/>
+      <c r="H147" s="91"/>
       <c r="I147" s="90"/>
-      <c r="J147" s="76"/>
+      <c r="J147" s="96"/>
       <c r="K147" s="1"/>
       <c r="L147" s="1"/>
       <c r="M147" s="1"/>
@@ -7231,25 +7263,29 @@
     </row>
     <row r="148" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="79"/>
-      <c r="B148" s="28" t="s">
+      <c r="B148" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="C148" s="28" t="s">
+      <c r="C148" s="107" t="s">
         <v>101</v>
       </c>
-      <c r="D148" s="28" t="s">
+      <c r="D148" s="107" t="s">
         <v>69</v>
       </c>
-      <c r="E148" s="29">
+      <c r="E148" s="108">
         <v>1</v>
       </c>
-      <c r="F148" s="30">
+      <c r="F148" s="109">
         <v>2</v>
       </c>
-      <c r="G148" s="87"/>
-      <c r="H148" s="87"/>
+      <c r="G148" s="87" t="s">
+        <v>289</v>
+      </c>
+      <c r="H148" s="91">
+        <v>45974</v>
+      </c>
       <c r="I148" s="90"/>
-      <c r="J148" s="76"/>
+      <c r="J148" s="96"/>
       <c r="K148" s="1"/>
       <c r="L148" s="1"/>
       <c r="M148" s="1"/>
@@ -7258,13 +7294,25 @@
     </row>
     <row r="149" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="79"/>
-      <c r="B149" s="28"/>
-      <c r="C149" s="28"/>
-      <c r="D149" s="28"/>
-      <c r="E149" s="29"/>
-      <c r="F149" s="30"/>
-      <c r="G149" s="87"/>
-      <c r="H149" s="87"/>
+      <c r="B149" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C149" s="28" t="s">
+        <v>482</v>
+      </c>
+      <c r="D149" s="28" t="s">
+        <v>459</v>
+      </c>
+      <c r="E149" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="F149" s="30">
+        <v>0</v>
+      </c>
+      <c r="G149" s="87">
+        <v>45974</v>
+      </c>
+      <c r="H149" s="91"/>
       <c r="I149" s="90"/>
       <c r="J149" s="76"/>
       <c r="K149" s="1"/>
@@ -7322,7 +7370,7 @@
         <v>1</v>
       </c>
       <c r="F152" s="30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G152" s="87"/>
       <c r="H152" s="91"/>
@@ -7349,7 +7397,7 @@
         <v>18</v>
       </c>
       <c r="F153" s="30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G153" s="83"/>
       <c r="H153" s="91"/>
@@ -7363,23 +7411,23 @@
     </row>
     <row r="154" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="79"/>
-      <c r="B154" s="108" t="s">
+      <c r="B154" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="C154" s="108" t="s">
+      <c r="C154" s="107" t="s">
         <v>217</v>
       </c>
-      <c r="D154" s="108" t="s">
+      <c r="D154" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="E154" s="109">
+      <c r="E154" s="108">
         <v>3</v>
       </c>
-      <c r="F154" s="110">
+      <c r="F154" s="109">
         <v>0</v>
       </c>
       <c r="G154" s="87" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H154" s="91">
         <v>45911</v>
@@ -7398,13 +7446,13 @@
         <v>17</v>
       </c>
       <c r="C155" s="28" t="s">
-        <v>435</v>
+        <v>484</v>
       </c>
       <c r="D155" s="28" t="s">
         <v>139</v>
       </c>
       <c r="E155" s="29" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F155" s="30">
         <v>1</v>
@@ -7436,7 +7484,7 @@
         <v>25</v>
       </c>
       <c r="F156" s="30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G156" s="87"/>
       <c r="H156" s="91"/>
@@ -7463,7 +7511,7 @@
         <v>4</v>
       </c>
       <c r="F157" s="30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G157" s="87"/>
       <c r="H157" s="91"/>
@@ -7537,7 +7585,7 @@
       </c>
       <c r="F161" s="36">
         <f>SUM(F143:F160)-SUM(F140:F142)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G161" s="80"/>
       <c r="H161" s="92"/>
@@ -7650,21 +7698,21 @@
     </row>
     <row r="167" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="79"/>
-      <c r="B167" s="112" t="s">
+      <c r="B167" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="C167" s="113"/>
-      <c r="D167" s="112" t="s">
+      <c r="C167" s="112"/>
+      <c r="D167" s="111" t="s">
         <v>133</v>
       </c>
-      <c r="E167" s="114">
+      <c r="E167" s="113">
         <v>1</v>
       </c>
-      <c r="F167" s="115">
+      <c r="F167" s="114">
         <v>14</v>
       </c>
       <c r="G167" s="80" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H167" s="94">
         <v>45953</v>
@@ -7687,10 +7735,10 @@
         <v>97</v>
       </c>
       <c r="E168" s="22" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F168" s="21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G168" s="86">
         <v>45953</v>
@@ -7821,23 +7869,23 @@
     </row>
     <row r="174" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="79"/>
-      <c r="B174" s="108" t="s">
+      <c r="B174" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="C174" s="108" t="s">
+      <c r="C174" s="107" t="s">
         <v>108</v>
       </c>
-      <c r="D174" s="108" t="s">
+      <c r="D174" s="107" t="s">
         <v>74</v>
       </c>
-      <c r="E174" s="109">
+      <c r="E174" s="108">
         <v>1</v>
       </c>
-      <c r="F174" s="110">
+      <c r="F174" s="109">
         <v>0</v>
       </c>
       <c r="G174" s="91" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H174" s="91">
         <v>45897</v>
@@ -7852,19 +7900,19 @@
     </row>
     <row r="175" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="79"/>
-      <c r="B175" s="108" t="s">
+      <c r="B175" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="C175" s="108" t="s">
-        <v>416</v>
-      </c>
-      <c r="D175" s="108" t="s">
+      <c r="C175" s="107" t="s">
+        <v>414</v>
+      </c>
+      <c r="D175" s="107" t="s">
         <v>97</v>
       </c>
-      <c r="E175" s="109" t="s">
-        <v>290</v>
-      </c>
-      <c r="F175" s="110">
+      <c r="E175" s="108" t="s">
+        <v>288</v>
+      </c>
+      <c r="F175" s="109">
         <v>0</v>
       </c>
       <c r="G175" s="87">
@@ -7887,13 +7935,13 @@
         <v>16</v>
       </c>
       <c r="C176" s="28" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="D176" s="28" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="E176" s="29" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F176" s="30">
         <v>0</v>
@@ -8054,23 +8102,23 @@
     </row>
     <row r="183" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="79"/>
-      <c r="B183" s="108" t="s">
+      <c r="B183" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="C183" s="108" t="s">
+      <c r="C183" s="107" t="s">
         <v>219</v>
       </c>
-      <c r="D183" s="108" t="s">
+      <c r="D183" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="E183" s="109">
+      <c r="E183" s="108">
         <v>1</v>
       </c>
-      <c r="F183" s="110">
+      <c r="F183" s="109">
         <v>0</v>
       </c>
       <c r="G183" s="87" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H183" s="91">
         <v>45953</v>
@@ -8089,13 +8137,13 @@
         <v>17</v>
       </c>
       <c r="C184" s="28" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="D184" s="28" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E184" s="29" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F184" s="30">
         <v>0</v>
@@ -8114,23 +8162,23 @@
     </row>
     <row r="185" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="79"/>
-      <c r="B185" s="108" t="s">
+      <c r="B185" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="C185" s="108" t="s">
+      <c r="C185" s="107" t="s">
         <v>148</v>
       </c>
-      <c r="D185" s="108" t="s">
+      <c r="D185" s="107" t="s">
         <v>220</v>
       </c>
-      <c r="E185" s="109">
+      <c r="E185" s="108">
         <v>1</v>
       </c>
-      <c r="F185" s="110">
+      <c r="F185" s="109">
         <v>0</v>
       </c>
       <c r="G185" s="83" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H185" s="91">
         <v>45876</v>
@@ -8145,19 +8193,19 @@
     </row>
     <row r="186" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="79"/>
-      <c r="B186" s="108" t="s">
+      <c r="B186" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="C186" s="108" t="s">
-        <v>289</v>
-      </c>
-      <c r="D186" s="108" t="s">
+      <c r="C186" s="107" t="s">
+        <v>287</v>
+      </c>
+      <c r="D186" s="107" t="s">
         <v>133</v>
       </c>
-      <c r="E186" s="109" t="s">
-        <v>290</v>
-      </c>
-      <c r="F186" s="110">
+      <c r="E186" s="108" t="s">
+        <v>288</v>
+      </c>
+      <c r="F186" s="109">
         <v>0</v>
       </c>
       <c r="G186" s="91">
@@ -8180,16 +8228,16 @@
         <v>17</v>
       </c>
       <c r="C187" s="28" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D187" s="28" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="E187" s="29" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F187" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G187" s="86">
         <v>45953</v>
@@ -8214,7 +8262,7 @@
       </c>
       <c r="F188" s="36">
         <f>SUM(F170:F187)-SUM(F167:F169)</f>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="G188" s="87"/>
       <c r="H188" s="91"/>
@@ -8338,7 +8386,7 @@
         <v>1</v>
       </c>
       <c r="F194" s="15">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G194" s="80"/>
       <c r="H194" s="94"/>
@@ -8390,7 +8438,7 @@
         <v>14</v>
       </c>
       <c r="C197" s="28" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D197" s="28" t="s">
         <v>18</v>
@@ -8417,7 +8465,7 @@
         <v>14</v>
       </c>
       <c r="C198" s="28" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D198" s="28" t="s">
         <v>22</v>
@@ -8461,7 +8509,7 @@
         <v>16</v>
       </c>
       <c r="C200" s="28" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D200" s="28" t="s">
         <v>155</v>
@@ -8470,7 +8518,7 @@
         <v>1</v>
       </c>
       <c r="F200" s="30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G200" s="83"/>
       <c r="H200" s="90"/>
@@ -8488,7 +8536,7 @@
         <v>16</v>
       </c>
       <c r="C201" s="28" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D201" s="28" t="s">
         <v>18</v>
@@ -8497,7 +8545,7 @@
         <v>1</v>
       </c>
       <c r="F201" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G201" s="83"/>
       <c r="H201" s="90"/>
@@ -8515,7 +8563,7 @@
         <v>16</v>
       </c>
       <c r="C202" s="28" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D202" s="28" t="s">
         <v>22</v>
@@ -8593,10 +8641,10 @@
         <v>17</v>
       </c>
       <c r="C206" s="28" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D206" s="28" t="s">
-        <v>87</v>
+        <v>477</v>
       </c>
       <c r="E206" s="29">
         <v>1</v>
@@ -8620,7 +8668,7 @@
         <v>17</v>
       </c>
       <c r="C207" s="28" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D207" s="28" t="s">
         <v>123</v>
@@ -8647,7 +8695,7 @@
         <v>17</v>
       </c>
       <c r="C208" s="28" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D208" s="28" t="s">
         <v>90</v>
@@ -8674,7 +8722,7 @@
         <v>17</v>
       </c>
       <c r="C209" s="28" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D209" s="28" t="s">
         <v>195</v>
@@ -8701,16 +8749,16 @@
         <v>17</v>
       </c>
       <c r="C210" s="28" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D210" s="28" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E210" s="29">
         <v>1</v>
       </c>
       <c r="F210" s="30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G210" s="87"/>
       <c r="H210" s="90"/>
@@ -8801,7 +8849,7 @@
       </c>
       <c r="F215" s="36">
         <f>SUM(F197:F214)-SUM(F194:F196)</f>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="G215" s="80"/>
       <c r="H215" s="92"/>
@@ -8851,7 +8899,7 @@
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D218" s="3" t="s">
         <v>54</v>
@@ -8914,21 +8962,21 @@
     </row>
     <row r="221" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="58"/>
-      <c r="B221" s="112" t="s">
+      <c r="B221" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="C221" s="113"/>
-      <c r="D221" s="112" t="s">
+      <c r="C221" s="112"/>
+      <c r="D221" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="E221" s="114">
+      <c r="E221" s="113">
         <v>1</v>
       </c>
-      <c r="F221" s="115">
+      <c r="F221" s="114">
         <v>6</v>
       </c>
       <c r="G221" s="80" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H221" s="94">
         <v>45890</v>
@@ -8951,10 +8999,10 @@
         <v>121</v>
       </c>
       <c r="E222" s="22" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F222" s="21">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G222" s="94">
         <v>45890</v>
@@ -9058,23 +9106,23 @@
     </row>
     <row r="227" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="79"/>
-      <c r="B227" s="108" t="s">
+      <c r="B227" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="C227" s="108" t="s">
+      <c r="C227" s="107" t="s">
         <v>81</v>
       </c>
-      <c r="D227" s="108" t="s">
-        <v>453</v>
-      </c>
-      <c r="E227" s="109">
+      <c r="D227" s="107" t="s">
+        <v>449</v>
+      </c>
+      <c r="E227" s="108">
         <v>1</v>
       </c>
-      <c r="F227" s="110">
+      <c r="F227" s="109">
         <v>0</v>
       </c>
       <c r="G227" s="83" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H227" s="91">
         <v>45918</v>
@@ -9093,13 +9141,13 @@
         <v>16</v>
       </c>
       <c r="C228" s="28" t="s">
-        <v>454</v>
+        <v>486</v>
       </c>
       <c r="D228" s="28" t="s">
         <v>97</v>
       </c>
       <c r="E228" s="29" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F228" s="30">
         <v>2</v>
@@ -9131,7 +9179,7 @@
         <v>5</v>
       </c>
       <c r="F229" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G229" s="87"/>
       <c r="H229" s="91"/>
@@ -9145,23 +9193,23 @@
     </row>
     <row r="230" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="79"/>
-      <c r="B230" s="108" t="s">
+      <c r="B230" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="C230" s="108" t="s">
+      <c r="C230" s="107" t="s">
         <v>177</v>
       </c>
-      <c r="D230" s="108" t="s">
-        <v>284</v>
-      </c>
-      <c r="E230" s="109">
+      <c r="D230" s="107" t="s">
+        <v>282</v>
+      </c>
+      <c r="E230" s="108">
         <v>4</v>
       </c>
-      <c r="F230" s="110">
+      <c r="F230" s="109">
         <v>0</v>
       </c>
       <c r="G230" s="87" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H230" s="91">
         <v>45876</v>
@@ -9176,25 +9224,27 @@
     </row>
     <row r="231" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="79"/>
-      <c r="B231" s="28" t="s">
+      <c r="B231" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="C231" s="28" t="s">
-        <v>294</v>
-      </c>
-      <c r="D231" s="28" t="s">
-        <v>295</v>
-      </c>
-      <c r="E231" s="29" t="s">
-        <v>290</v>
-      </c>
-      <c r="F231" s="30">
-        <v>0</v>
+      <c r="C231" s="107" t="s">
+        <v>292</v>
+      </c>
+      <c r="D231" s="107" t="s">
+        <v>293</v>
+      </c>
+      <c r="E231" s="108" t="s">
+        <v>288</v>
+      </c>
+      <c r="F231" s="109">
+        <v>1</v>
       </c>
       <c r="G231" s="87">
         <v>45876</v>
       </c>
-      <c r="H231" s="91"/>
+      <c r="H231" s="91">
+        <v>45974</v>
+      </c>
       <c r="I231" s="89"/>
       <c r="J231" s="76"/>
       <c r="K231" s="1"/>
@@ -9205,12 +9255,24 @@
     </row>
     <row r="232" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="79"/>
-      <c r="B232" s="28"/>
-      <c r="C232" s="28"/>
-      <c r="D232" s="28"/>
-      <c r="E232" s="29"/>
-      <c r="F232" s="30"/>
-      <c r="G232" s="87"/>
+      <c r="B232" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C232" s="28" t="s">
+        <v>483</v>
+      </c>
+      <c r="D232" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E232" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="F232" s="30">
+        <v>0</v>
+      </c>
+      <c r="G232" s="87">
+        <v>45974</v>
+      </c>
       <c r="H232" s="91"/>
       <c r="I232" s="89"/>
       <c r="J232" s="1"/>
@@ -9235,7 +9297,7 @@
         <v>36</v>
       </c>
       <c r="F233" s="30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G233" s="87"/>
       <c r="H233" s="91"/>
@@ -9262,7 +9324,7 @@
         <v>20</v>
       </c>
       <c r="F234" s="30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G234" s="87"/>
       <c r="H234" s="91"/>
@@ -9283,7 +9345,7 @@
         <v>154</v>
       </c>
       <c r="D235" s="28" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E235" s="29">
         <v>8</v>
@@ -9316,7 +9378,7 @@
         <v>15</v>
       </c>
       <c r="F236" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G236" s="87"/>
       <c r="H236" s="91"/>
@@ -9330,23 +9392,23 @@
     </row>
     <row r="237" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="79"/>
-      <c r="B237" s="108" t="s">
+      <c r="B237" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="C237" s="108" t="s">
-        <v>271</v>
-      </c>
-      <c r="D237" s="108" t="s">
+      <c r="C237" s="107" t="s">
+        <v>269</v>
+      </c>
+      <c r="D237" s="107" t="s">
         <v>160</v>
       </c>
-      <c r="E237" s="109">
+      <c r="E237" s="108">
         <v>1</v>
       </c>
-      <c r="F237" s="110">
+      <c r="F237" s="109">
         <v>0</v>
       </c>
       <c r="G237" s="87" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H237" s="91">
         <v>45911</v>
@@ -9365,16 +9427,16 @@
         <v>17</v>
       </c>
       <c r="C238" s="28" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D238" s="28" t="s">
         <v>68</v>
       </c>
       <c r="E238" s="29" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F238" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G238" s="87">
         <v>45911</v>
@@ -9555,21 +9617,21 @@
     </row>
     <row r="248" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="79"/>
-      <c r="B248" s="112" t="s">
+      <c r="B248" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="C248" s="113"/>
-      <c r="D248" s="112" t="s">
+      <c r="C248" s="112"/>
+      <c r="D248" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="E248" s="114">
+      <c r="E248" s="113">
         <v>8</v>
       </c>
-      <c r="F248" s="115">
+      <c r="F248" s="114">
         <v>14</v>
       </c>
       <c r="G248" s="80" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H248" s="94">
         <v>45918</v>
@@ -9592,10 +9654,10 @@
         <v>24</v>
       </c>
       <c r="E249" s="22" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F249" s="21">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G249" s="86">
         <v>45918</v>
@@ -9712,7 +9774,7 @@
         <v>1</v>
       </c>
       <c r="F254" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G254" s="83"/>
       <c r="H254" s="91"/>
@@ -9726,23 +9788,23 @@
     </row>
     <row r="255" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="79"/>
-      <c r="B255" s="108" t="s">
+      <c r="B255" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="C255" s="108" t="s">
+      <c r="C255" s="107" t="s">
         <v>131</v>
       </c>
-      <c r="D255" s="108" t="s">
+      <c r="D255" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="E255" s="109">
+      <c r="E255" s="108">
         <v>2</v>
       </c>
-      <c r="F255" s="110">
+      <c r="F255" s="109">
         <v>0</v>
       </c>
       <c r="G255" s="91" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H255" s="91">
         <v>45890</v>
@@ -9761,13 +9823,13 @@
         <v>16</v>
       </c>
       <c r="C256" s="28" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D256" s="28" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E256" s="29" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F256" s="30">
         <v>2</v>
@@ -9799,7 +9861,7 @@
         <v>3</v>
       </c>
       <c r="F257" s="30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G257" s="83"/>
       <c r="H257" s="91"/>
@@ -9901,23 +9963,23 @@
     </row>
     <row r="262" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="79"/>
-      <c r="B262" s="108" t="s">
+      <c r="B262" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="C262" s="108" t="s">
+      <c r="C262" s="107" t="s">
         <v>106</v>
       </c>
-      <c r="D262" s="108" t="s">
+      <c r="D262" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="E262" s="109">
+      <c r="E262" s="108">
         <v>16</v>
       </c>
-      <c r="F262" s="110">
+      <c r="F262" s="109">
         <v>0</v>
       </c>
       <c r="G262" s="87" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H262" s="91">
         <v>45946</v>
@@ -9936,13 +9998,13 @@
         <v>17</v>
       </c>
       <c r="C263" s="28" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D263" s="28" t="s">
         <v>172</v>
       </c>
       <c r="E263" s="29" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F263" s="30">
         <v>0</v>
@@ -9961,23 +10023,23 @@
     </row>
     <row r="264" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="79"/>
-      <c r="B264" s="108" t="s">
+      <c r="B264" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="C264" s="108" t="s">
+      <c r="C264" s="107" t="s">
         <v>140</v>
       </c>
-      <c r="D264" s="108" t="s">
+      <c r="D264" s="107" t="s">
         <v>84</v>
       </c>
-      <c r="E264" s="109">
+      <c r="E264" s="108">
         <v>14</v>
       </c>
-      <c r="F264" s="110">
+      <c r="F264" s="109">
         <v>0</v>
       </c>
       <c r="G264" s="87" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H264" s="91">
         <v>45953</v>
@@ -9996,16 +10058,16 @@
         <v>17</v>
       </c>
       <c r="C265" s="28" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D265" s="28" t="s">
         <v>23</v>
       </c>
       <c r="E265" s="29" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F265" s="30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G265" s="87">
         <v>45953</v>
@@ -10021,23 +10083,23 @@
     </row>
     <row r="266" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="79"/>
-      <c r="B266" s="108" t="s">
+      <c r="B266" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="C266" s="108" t="s">
+      <c r="C266" s="107" t="s">
         <v>142</v>
       </c>
-      <c r="D266" s="108" t="s">
-        <v>295</v>
-      </c>
-      <c r="E266" s="109">
+      <c r="D266" s="107" t="s">
+        <v>293</v>
+      </c>
+      <c r="E266" s="108">
         <v>14</v>
       </c>
-      <c r="F266" s="110">
+      <c r="F266" s="109">
         <v>0</v>
       </c>
       <c r="G266" s="83" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H266" s="91">
         <v>45897</v>
@@ -10056,16 +10118,16 @@
         <v>17</v>
       </c>
       <c r="C267" s="28" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D267" s="28" t="s">
         <v>73</v>
       </c>
       <c r="E267" s="29" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F267" s="30">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G267" s="87">
         <v>45897</v>
@@ -10107,7 +10169,7 @@
       </c>
       <c r="F269" s="36">
         <f>SUM(F251:F268)-SUM(F248:F250)</f>
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="G269" s="80"/>
       <c r="H269" s="92"/>
@@ -10231,7 +10293,7 @@
         <v>1</v>
       </c>
       <c r="F275" s="15">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G275" s="80"/>
       <c r="H275" s="94"/>
@@ -10313,7 +10375,7 @@
         <v>230</v>
       </c>
       <c r="D279" s="28" t="s">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c r="E279" s="29">
         <v>1</v>
@@ -10363,7 +10425,7 @@
         <v>25</v>
       </c>
       <c r="F281" s="30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G281" s="83"/>
       <c r="H281" s="91"/>
@@ -10404,23 +10466,23 @@
     </row>
     <row r="283" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="79"/>
-      <c r="B283" s="108" t="s">
+      <c r="B283" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="C283" s="108" t="s">
+      <c r="C283" s="107" t="s">
         <v>234</v>
       </c>
-      <c r="D283" s="108" t="s">
+      <c r="D283" s="107" t="s">
         <v>233</v>
       </c>
-      <c r="E283" s="109">
+      <c r="E283" s="108">
         <v>1</v>
       </c>
-      <c r="F283" s="110">
+      <c r="F283" s="109">
         <v>0</v>
       </c>
       <c r="G283" s="87" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H283" s="91">
         <v>45876</v>
@@ -10439,13 +10501,13 @@
         <v>16</v>
       </c>
       <c r="C284" s="28" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D284" s="28" t="s">
         <v>84</v>
       </c>
       <c r="E284" s="29" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F284" s="30">
         <v>1</v>
@@ -10511,7 +10573,7 @@
         <v>12</v>
       </c>
       <c r="F287" s="30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G287" s="87"/>
       <c r="H287" s="91"/>
@@ -10552,23 +10614,23 @@
     </row>
     <row r="289" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="79"/>
-      <c r="B289" s="108" t="s">
+      <c r="B289" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="C289" s="108" t="s">
+      <c r="C289" s="107" t="s">
         <v>235</v>
       </c>
-      <c r="D289" s="108" t="s">
+      <c r="D289" s="107" t="s">
         <v>137</v>
       </c>
-      <c r="E289" s="109">
+      <c r="E289" s="108">
         <v>4</v>
       </c>
-      <c r="F289" s="110">
+      <c r="F289" s="109">
         <v>0</v>
       </c>
       <c r="G289" s="87" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H289" s="91">
         <v>45946</v>
@@ -10587,16 +10649,16 @@
         <v>17</v>
       </c>
       <c r="C290" s="28" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D290" s="28" t="s">
         <v>133</v>
       </c>
       <c r="E290" s="29" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F290" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G290" s="87">
         <v>45946</v>
@@ -10625,7 +10687,7 @@
         <v>10</v>
       </c>
       <c r="F291" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G291" s="87"/>
       <c r="H291" s="91"/>
@@ -10652,7 +10714,7 @@
         <v>1</v>
       </c>
       <c r="F292" s="30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G292" s="87"/>
       <c r="H292" s="91"/>
@@ -10743,8 +10805,8 @@
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
-      <c r="E297" s="107"/>
-      <c r="F297" s="106"/>
+      <c r="E297" s="106"/>
+      <c r="F297" s="105"/>
       <c r="G297" s="75"/>
       <c r="H297" s="75"/>
       <c r="I297" s="75"/>
@@ -10839,21 +10901,21 @@
     </row>
     <row r="302" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="79"/>
-      <c r="B302" s="112" t="s">
+      <c r="B302" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="C302" s="113"/>
-      <c r="D302" s="112" t="s">
+      <c r="C302" s="112"/>
+      <c r="D302" s="111" t="s">
         <v>68</v>
       </c>
-      <c r="E302" s="114">
+      <c r="E302" s="113">
         <v>4</v>
       </c>
-      <c r="F302" s="115">
+      <c r="F302" s="114">
         <v>6</v>
       </c>
       <c r="G302" s="80" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H302" s="91">
         <v>45890</v>
@@ -10868,18 +10930,18 @@
     </row>
     <row r="303" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="79"/>
-      <c r="B303" s="118" t="s">
+      <c r="B303" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="C303" s="118"/>
-      <c r="D303" s="118" t="s">
+      <c r="C303" s="116"/>
+      <c r="D303" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="E303" s="119" t="s">
-        <v>290</v>
-      </c>
-      <c r="F303" s="118">
-        <v>13</v>
+      <c r="E303" s="117" t="s">
+        <v>288</v>
+      </c>
+      <c r="F303" s="116">
+        <v>14</v>
       </c>
       <c r="G303" s="87">
         <v>45890</v>
@@ -10905,10 +10967,10 @@
         <v>64</v>
       </c>
       <c r="E304" s="22" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F304" s="21">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G304" s="87">
         <v>45953</v>
@@ -10958,7 +11020,7 @@
         <v>238</v>
       </c>
       <c r="D306" s="28" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="E306" s="29">
         <v>1</v>
@@ -11022,23 +11084,23 @@
     </row>
     <row r="309" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="79"/>
-      <c r="B309" s="108" t="s">
+      <c r="B309" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="C309" s="108" t="s">
+      <c r="C309" s="107" t="s">
         <v>165</v>
       </c>
-      <c r="D309" s="108" t="s">
+      <c r="D309" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="E309" s="109">
+      <c r="E309" s="108">
         <v>1</v>
       </c>
-      <c r="F309" s="110">
+      <c r="F309" s="109">
         <v>1</v>
       </c>
       <c r="G309" s="87" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H309" s="91">
         <v>45911</v>
@@ -11063,7 +11125,7 @@
         <v>26</v>
       </c>
       <c r="E310" s="29" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F310" s="30">
         <v>1</v>
@@ -11082,23 +11144,27 @@
     </row>
     <row r="311" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="79"/>
-      <c r="B311" s="28" t="s">
+      <c r="B311" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="C311" s="28" t="s">
+      <c r="C311" s="107" t="s">
         <v>102</v>
       </c>
-      <c r="D311" s="28" t="s">
+      <c r="D311" s="107" t="s">
         <v>133</v>
       </c>
-      <c r="E311" s="29">
+      <c r="E311" s="108">
         <v>9</v>
       </c>
-      <c r="F311" s="30">
+      <c r="F311" s="109">
         <v>0</v>
       </c>
-      <c r="G311" s="83"/>
-      <c r="H311" s="91"/>
+      <c r="G311" s="83" t="s">
+        <v>289</v>
+      </c>
+      <c r="H311" s="91">
+        <v>45961</v>
+      </c>
       <c r="I311" s="90"/>
       <c r="J311" s="1"/>
       <c r="K311" s="1"/>
@@ -11109,12 +11175,24 @@
     </row>
     <row r="312" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="79"/>
-      <c r="B312" s="28"/>
-      <c r="C312" s="28"/>
-      <c r="D312" s="28"/>
-      <c r="E312" s="29"/>
-      <c r="F312" s="30"/>
-      <c r="G312" s="87"/>
+      <c r="B312" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C312" s="28" t="s">
+        <v>480</v>
+      </c>
+      <c r="D312" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="E312" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="F312" s="30">
+        <v>0</v>
+      </c>
+      <c r="G312" s="87">
+        <v>45961</v>
+      </c>
       <c r="H312" s="91"/>
       <c r="I312" s="90"/>
       <c r="J312" s="1"/>
@@ -11156,7 +11234,7 @@
         <v>54</v>
       </c>
       <c r="F314" s="30">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G314" s="87"/>
       <c r="H314" s="91"/>
@@ -11170,23 +11248,23 @@
     </row>
     <row r="315" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="79"/>
-      <c r="B315" s="108" t="s">
+      <c r="B315" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="C315" s="108" t="s">
+      <c r="C315" s="107" t="s">
         <v>239</v>
       </c>
-      <c r="D315" s="108" t="s">
+      <c r="D315" s="107" t="s">
         <v>123</v>
       </c>
-      <c r="E315" s="109">
+      <c r="E315" s="108">
         <v>8</v>
       </c>
-      <c r="F315" s="110">
+      <c r="F315" s="109">
         <v>1</v>
       </c>
       <c r="G315" s="87" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H315" s="91">
         <v>45939</v>
@@ -11205,13 +11283,13 @@
         <v>17</v>
       </c>
       <c r="C316" s="28" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D316" s="28" t="s">
         <v>85</v>
       </c>
       <c r="E316" s="29" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F316" s="30">
         <v>0</v>
@@ -11243,7 +11321,7 @@
         <v>1</v>
       </c>
       <c r="F317" s="30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G317" s="87"/>
       <c r="H317" s="91"/>
@@ -11257,23 +11335,23 @@
     </row>
     <row r="318" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="79"/>
-      <c r="B318" s="108" t="s">
+      <c r="B318" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="C318" s="108" t="s">
+      <c r="C318" s="107" t="s">
         <v>241</v>
       </c>
-      <c r="D318" s="108" t="s">
+      <c r="D318" s="107" t="s">
         <v>242</v>
       </c>
-      <c r="E318" s="109">
+      <c r="E318" s="108">
         <v>1</v>
       </c>
-      <c r="F318" s="110">
+      <c r="F318" s="109">
         <v>0</v>
       </c>
       <c r="G318" s="83" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H318" s="91">
         <v>45911</v>
@@ -11292,13 +11370,13 @@
         <v>17</v>
       </c>
       <c r="C319" s="28" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D319" s="28" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E319" s="29" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F319" s="30">
         <v>0</v>
@@ -11317,23 +11395,23 @@
     </row>
     <row r="320" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="79"/>
-      <c r="B320" s="108" t="s">
+      <c r="B320" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="C320" s="108" t="s">
+      <c r="C320" s="107" t="s">
         <v>243</v>
       </c>
-      <c r="D320" s="108" t="s">
+      <c r="D320" s="107" t="s">
         <v>88</v>
       </c>
-      <c r="E320" s="109">
+      <c r="E320" s="108">
         <v>1</v>
       </c>
-      <c r="F320" s="110">
+      <c r="F320" s="109">
         <v>0</v>
       </c>
       <c r="G320" s="87" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H320" s="91">
         <v>45890</v>
@@ -11352,13 +11430,13 @@
         <v>17</v>
       </c>
       <c r="C321" s="28" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D321" s="28" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E321" s="29" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F321" s="30">
         <v>4</v>
@@ -11403,7 +11481,7 @@
       </c>
       <c r="F323" s="36">
         <f>SUM(F305:F322)-SUM(F302:F304)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G323" s="80"/>
       <c r="H323" s="92"/>
@@ -11453,7 +11531,7 @@
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D326" s="1" t="s">
         <v>66</v>
@@ -11527,7 +11605,7 @@
         <v>1</v>
       </c>
       <c r="F329" s="15">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G329" s="83"/>
       <c r="H329" s="87"/>
@@ -11579,7 +11657,7 @@
         <v>14</v>
       </c>
       <c r="C332" s="28" t="s">
-        <v>244</v>
+        <v>485</v>
       </c>
       <c r="D332" s="28" t="s">
         <v>150</v>
@@ -11653,7 +11731,7 @@
         <v>146</v>
       </c>
       <c r="D335" s="28" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E335" s="29">
         <v>1</v>
@@ -11704,7 +11782,7 @@
         <v>16</v>
       </c>
       <c r="C337" s="28" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D337" s="28" t="s">
         <v>24</v>
@@ -11776,7 +11854,7 @@
         <v>17</v>
       </c>
       <c r="C341" s="28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D341" s="28" t="s">
         <v>209</v>
@@ -11809,7 +11887,7 @@
         <v>1</v>
       </c>
       <c r="F342" s="30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G342" s="87"/>
       <c r="H342" s="91"/>
@@ -11848,7 +11926,7 @@
         <v>17</v>
       </c>
       <c r="C344" s="28" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D344" s="28" t="s">
         <v>133</v>
@@ -11857,7 +11935,7 @@
         <v>1</v>
       </c>
       <c r="F344" s="30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G344" s="83"/>
       <c r="H344" s="91"/>
@@ -11868,23 +11946,23 @@
     </row>
     <row r="345" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="79"/>
-      <c r="B345" s="108" t="s">
+      <c r="B345" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="C345" s="108" t="s">
-        <v>287</v>
-      </c>
-      <c r="D345" s="108" t="s">
+      <c r="C345" s="107" t="s">
+        <v>285</v>
+      </c>
+      <c r="D345" s="107" t="s">
         <v>84</v>
       </c>
-      <c r="E345" s="109">
+      <c r="E345" s="108">
         <v>1</v>
       </c>
-      <c r="F345" s="110">
+      <c r="F345" s="109">
         <v>0</v>
       </c>
       <c r="G345" s="87" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H345" s="91">
         <v>45932</v>
@@ -11900,13 +11978,13 @@
         <v>17</v>
       </c>
       <c r="C346" s="28" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="D346" s="28" t="s">
         <v>179</v>
       </c>
       <c r="E346" s="29" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F346" s="30">
         <v>2</v>
@@ -11973,7 +12051,7 @@
       </c>
       <c r="F350" s="36">
         <f>SUM(F332:F349)-SUM(F329:F331)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G350" s="83"/>
       <c r="H350" s="90"/>
@@ -11999,10 +12077,10 @@
     <row r="353" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B353" s="1"/>
       <c r="C353" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E353" s="2"/>
       <c r="F353" s="1"/>
@@ -12055,10 +12133,10 @@
         <v>5</v>
       </c>
       <c r="F356" s="15">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G356" s="1"/>
-      <c r="H356" s="104"/>
+      <c r="H356" s="103"/>
       <c r="I356" s="1"/>
       <c r="J356" s="1"/>
     </row>
@@ -12068,8 +12146,8 @@
       <c r="D357" s="21"/>
       <c r="E357" s="22"/>
       <c r="F357" s="21"/>
-      <c r="G357" s="104"/>
-      <c r="H357" s="104"/>
+      <c r="G357" s="103"/>
+      <c r="H357" s="103"/>
       <c r="I357" s="1"/>
       <c r="J357" s="1"/>
     </row>
@@ -12079,7 +12157,7 @@
       <c r="D358" s="21"/>
       <c r="E358" s="22"/>
       <c r="F358" s="21"/>
-      <c r="G358" s="104"/>
+      <c r="G358" s="103"/>
       <c r="H358" s="1"/>
       <c r="I358" s="1"/>
       <c r="J358" s="1"/>
@@ -12110,7 +12188,7 @@
         <v>14</v>
       </c>
       <c r="C360" s="28" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D360" s="28" t="s">
         <v>23</v>
@@ -12142,7 +12220,7 @@
         <v>16</v>
       </c>
       <c r="C362" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D362" s="28" t="s">
         <v>18</v>
@@ -12151,7 +12229,7 @@
         <v>32</v>
       </c>
       <c r="F362" s="30">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G362" s="1"/>
       <c r="H362" s="1"/>
@@ -12163,7 +12241,7 @@
         <v>16</v>
       </c>
       <c r="C363" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D363" s="28" t="s">
         <v>56</v>
@@ -12175,30 +12253,30 @@
         <v>1</v>
       </c>
       <c r="G363" s="1"/>
-      <c r="H363" s="104"/>
+      <c r="H363" s="103"/>
       <c r="I363" s="1"/>
       <c r="J363" s="1"/>
     </row>
     <row r="364" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B364" s="108" t="s">
+      <c r="B364" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="C364" s="108" t="s">
+      <c r="C364" s="107" t="s">
         <v>175</v>
       </c>
-      <c r="D364" s="108" t="s">
+      <c r="D364" s="107" t="s">
         <v>121</v>
       </c>
-      <c r="E364" s="109">
+      <c r="E364" s="108">
         <v>1</v>
       </c>
-      <c r="F364" s="110">
+      <c r="F364" s="109">
         <v>0</v>
       </c>
-      <c r="G364" s="104" t="s">
-        <v>291</v>
-      </c>
-      <c r="H364" s="104">
+      <c r="G364" s="103" t="s">
+        <v>289</v>
+      </c>
+      <c r="H364" s="103">
         <v>45904</v>
       </c>
       <c r="I364" s="1"/>
@@ -12209,21 +12287,21 @@
         <v>16</v>
       </c>
       <c r="C365" s="28" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D365" s="28" t="s">
         <v>151</v>
       </c>
       <c r="E365" s="29" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F365" s="30">
-        <v>1</v>
-      </c>
-      <c r="G365" s="104">
+        <v>2</v>
+      </c>
+      <c r="G365" s="103">
         <v>45904</v>
       </c>
-      <c r="H365" s="104"/>
+      <c r="H365" s="103"/>
       <c r="I365" s="1"/>
       <c r="J365" s="1"/>
     </row>
@@ -12233,7 +12311,7 @@
       <c r="D366" s="28"/>
       <c r="E366" s="29"/>
       <c r="F366" s="30"/>
-      <c r="G366" s="104"/>
+      <c r="G366" s="103"/>
       <c r="H366" s="1"/>
       <c r="I366" s="1"/>
       <c r="J366" s="1"/>
@@ -12245,7 +12323,7 @@
       <c r="E367" s="29"/>
       <c r="F367" s="30"/>
       <c r="G367" s="1"/>
-      <c r="H367" s="104"/>
+      <c r="H367" s="103"/>
       <c r="I367" s="1"/>
       <c r="J367" s="1"/>
     </row>
@@ -12266,7 +12344,7 @@
         <v>2</v>
       </c>
       <c r="G368" s="1"/>
-      <c r="H368" s="104"/>
+      <c r="H368" s="103"/>
       <c r="I368" s="1"/>
       <c r="J368" s="1"/>
     </row>
@@ -12275,7 +12353,7 @@
         <v>17</v>
       </c>
       <c r="C369" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D369" s="28" t="s">
         <v>172</v>
@@ -12284,10 +12362,10 @@
         <v>12</v>
       </c>
       <c r="F369" s="30">
-        <v>5</v>
-      </c>
-      <c r="G369" s="104"/>
-      <c r="H369" s="104"/>
+        <v>6</v>
+      </c>
+      <c r="G369" s="103"/>
+      <c r="H369" s="103"/>
       <c r="I369" s="1"/>
       <c r="J369" s="1"/>
     </row>
@@ -12296,18 +12374,18 @@
         <v>17</v>
       </c>
       <c r="C370" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D370" s="28" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E370" s="29">
         <v>5</v>
       </c>
       <c r="F370" s="30">
-        <v>5</v>
-      </c>
-      <c r="G370" s="104"/>
+        <v>6</v>
+      </c>
+      <c r="G370" s="103"/>
       <c r="H370" s="1"/>
       <c r="I370" s="1"/>
       <c r="J370" s="1"/>
@@ -12317,67 +12395,67 @@
         <v>17</v>
       </c>
       <c r="C371" s="28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D371" s="28" t="s">
-        <v>256</v>
+        <v>23</v>
       </c>
       <c r="E371" s="29">
         <v>1</v>
       </c>
       <c r="F371" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G371" s="1"/>
-      <c r="H371" s="104"/>
+      <c r="H371" s="103"/>
       <c r="I371" s="1"/>
       <c r="J371" s="1"/>
     </row>
     <row r="372" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B372" s="108" t="s">
+      <c r="B372" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="C372" s="108" t="s">
+      <c r="C372" s="107" t="s">
         <v>147</v>
       </c>
-      <c r="D372" s="108" t="s">
+      <c r="D372" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="E372" s="109">
+      <c r="E372" s="108">
         <v>1</v>
       </c>
-      <c r="F372" s="110">
+      <c r="F372" s="109">
         <v>0</v>
       </c>
-      <c r="G372" s="104" t="s">
-        <v>291</v>
-      </c>
-      <c r="H372" s="104">
+      <c r="G372" s="103" t="s">
+        <v>289</v>
+      </c>
+      <c r="H372" s="103">
         <v>45890</v>
       </c>
       <c r="I372" s="1"/>
       <c r="J372" s="1"/>
     </row>
     <row r="373" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B373" s="108" t="s">
+      <c r="B373" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="C373" s="108" t="s">
-        <v>408</v>
-      </c>
-      <c r="D373" s="108" t="s">
+      <c r="C373" s="107" t="s">
+        <v>406</v>
+      </c>
+      <c r="D373" s="107" t="s">
         <v>160</v>
       </c>
-      <c r="E373" s="109" t="s">
-        <v>290</v>
-      </c>
-      <c r="F373" s="110">
+      <c r="E373" s="108" t="s">
+        <v>288</v>
+      </c>
+      <c r="F373" s="109">
         <v>0</v>
       </c>
-      <c r="G373" s="104">
+      <c r="G373" s="103">
         <v>45890</v>
       </c>
-      <c r="H373" s="104">
+      <c r="H373" s="103">
         <v>45939</v>
       </c>
       <c r="I373" s="1"/>
@@ -12388,18 +12466,18 @@
         <v>17</v>
       </c>
       <c r="C374" s="28" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="D374" s="28" t="s">
         <v>97</v>
       </c>
       <c r="E374" s="29" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F374" s="30">
-        <v>4</v>
-      </c>
-      <c r="G374" s="104">
+        <v>5</v>
+      </c>
+      <c r="G374" s="103">
         <v>45939</v>
       </c>
       <c r="H374" s="1"/>
@@ -12413,7 +12491,7 @@
       <c r="E375" s="29"/>
       <c r="F375" s="30"/>
       <c r="G375" s="1"/>
-      <c r="H375" s="104"/>
+      <c r="H375" s="103"/>
       <c r="I375" s="1"/>
       <c r="J375" s="1"/>
     </row>
@@ -12423,7 +12501,7 @@
       <c r="D376" s="28"/>
       <c r="E376" s="29"/>
       <c r="F376" s="30"/>
-      <c r="G376" s="104"/>
+      <c r="G376" s="103"/>
       <c r="H376" s="1"/>
       <c r="I376" s="1"/>
       <c r="J376" s="1"/>
@@ -12438,7 +12516,7 @@
       </c>
       <c r="F377" s="36">
         <f>SUM(F359:F376)-SUM(F356:F358)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G377" s="1"/>
       <c r="H377" s="1"/>
@@ -12693,8 +12771,8 @@
   </sheetPr>
   <dimension ref="A1:IV22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12758,7 +12836,7 @@
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
       <c r="D4" s="43" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E4" s="41"/>
       <c r="F4" s="41"/>
@@ -12808,7 +12886,7 @@
     </row>
     <row r="7" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="47"/>
-      <c r="B7" s="54">
+      <c r="B7" s="120">
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -12818,13 +12896,13 @@
         <v>1</v>
       </c>
       <c r="E7" s="25">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="26">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G7" s="27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H7" s="52"/>
       <c r="I7" s="41"/>
@@ -12834,24 +12912,24 @@
     <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="47"/>
       <c r="B8" s="54">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>236</v>
+        <v>25</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>201</v>
       </c>
       <c r="E8" s="25">
-        <v>11</v>
-      </c>
-      <c r="F8" s="26">
-        <v>31</v>
-      </c>
-      <c r="G8" s="27">
-        <v>20</v>
-      </c>
-      <c r="H8" s="52"/>
+        <v>17</v>
+      </c>
+      <c r="F8" s="56">
+        <v>32</v>
+      </c>
+      <c r="G8" s="57">
+        <v>15</v>
+      </c>
+      <c r="H8" s="119"/>
       <c r="I8" s="41"/>
       <c r="J8" s="41"/>
       <c r="K8" s="41"/>
@@ -12859,49 +12937,49 @@
     <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="47"/>
       <c r="B9" s="54">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>272</v>
+        <v>31</v>
       </c>
       <c r="E9" s="25">
-        <v>10</v>
-      </c>
-      <c r="F9" s="26">
-        <v>26</v>
-      </c>
-      <c r="G9" s="27">
         <v>16</v>
       </c>
-      <c r="H9" s="52"/>
+      <c r="F9" s="56">
+        <v>36</v>
+      </c>
+      <c r="G9" s="57">
+        <v>20</v>
+      </c>
+      <c r="H9" s="119"/>
       <c r="I9" s="41"/>
       <c r="J9" s="41"/>
       <c r="K9" s="41"/>
     </row>
     <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="47"/>
-      <c r="B10" s="54">
-        <v>14</v>
+      <c r="B10" s="120">
+        <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D10" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="D10" s="24" t="s">
-        <v>249</v>
-      </c>
       <c r="E10" s="25">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F10" s="26">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G10" s="27">
-        <v>15</v>
-      </c>
-      <c r="H10" s="52"/>
+        <v>21</v>
+      </c>
+      <c r="H10" s="119"/>
       <c r="I10" s="41"/>
       <c r="J10" s="41"/>
       <c r="K10" s="41"/>
@@ -12909,22 +12987,22 @@
     <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="47"/>
       <c r="B11" s="54">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="E11" s="25">
         <v>10</v>
       </c>
       <c r="F11" s="26">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G11" s="27">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="H11" s="52"/>
       <c r="I11" s="41"/>
@@ -12934,49 +13012,49 @@
     <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="47"/>
       <c r="B12" s="54">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="E12" s="25">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="26">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="G12" s="27">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="H12" s="52"/>
       <c r="I12" s="41"/>
       <c r="J12" s="41"/>
-      <c r="K12" s="53"/>
+      <c r="K12" s="41"/>
     </row>
     <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="47"/>
-      <c r="B13" s="54">
-        <v>6</v>
+      <c r="B13" s="120">
+        <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>31</v>
+        <v>66</v>
+      </c>
+      <c r="D13" s="55" t="s">
+        <v>246</v>
       </c>
       <c r="E13" s="25">
         <v>8</v>
       </c>
-      <c r="F13" s="26">
-        <v>26</v>
-      </c>
-      <c r="G13" s="27">
-        <v>18</v>
-      </c>
-      <c r="H13" s="52"/>
+      <c r="F13" s="56">
+        <v>20</v>
+      </c>
+      <c r="G13" s="57">
+        <v>12</v>
+      </c>
+      <c r="H13" s="119"/>
       <c r="I13" s="41"/>
       <c r="J13" s="41"/>
       <c r="K13" s="41"/>
@@ -12984,7 +13062,7 @@
     <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="47"/>
       <c r="B14" s="54">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>51</v>
@@ -12993,13 +13071,13 @@
         <v>206</v>
       </c>
       <c r="E14" s="25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F14" s="26">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G14" s="27">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H14" s="52"/>
       <c r="I14" s="41"/>
@@ -13009,22 +13087,22 @@
     <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="47"/>
       <c r="B15" s="54">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="E15" s="25">
         <v>4</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="25">
-        <v>3</v>
-      </c>
-      <c r="F15" s="56">
-        <v>18</v>
-      </c>
-      <c r="G15" s="57">
-        <v>15</v>
+      <c r="F15" s="26">
+        <v>23</v>
+      </c>
+      <c r="G15" s="27">
+        <v>19</v>
       </c>
       <c r="H15" s="52"/>
       <c r="I15" s="41"/>
@@ -13033,23 +13111,23 @@
     </row>
     <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="47"/>
-      <c r="B16" s="54">
-        <v>11</v>
+      <c r="B16" s="120">
+        <v>10</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>141</v>
+        <v>15</v>
       </c>
       <c r="E16" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16" s="26">
         <v>23</v>
       </c>
       <c r="G16" s="27">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H16" s="52"/>
       <c r="I16" s="41"/>
@@ -13059,24 +13137,24 @@
     <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="47"/>
       <c r="B17" s="54">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>191</v>
+        <v>141</v>
       </c>
       <c r="E17" s="25">
         <v>2</v>
       </c>
       <c r="F17" s="26">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G17" s="27">
-        <v>16</v>
-      </c>
-      <c r="H17" s="52"/>
+        <v>27</v>
+      </c>
+      <c r="H17" s="119"/>
       <c r="I17" s="41"/>
       <c r="J17" s="41"/>
       <c r="K17" s="41"/>
@@ -13084,22 +13162,22 @@
     <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="47"/>
       <c r="B18" s="54">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="55" t="s">
-        <v>34</v>
+        <v>52</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>53</v>
       </c>
       <c r="E18" s="25">
-        <v>0</v>
-      </c>
-      <c r="F18" s="56">
-        <v>15</v>
-      </c>
-      <c r="G18" s="57">
-        <v>15</v>
+        <v>2</v>
+      </c>
+      <c r="F18" s="26">
+        <v>16</v>
+      </c>
+      <c r="G18" s="27">
+        <v>14</v>
       </c>
       <c r="H18" s="52"/>
       <c r="I18" s="41"/>
@@ -13108,25 +13186,25 @@
     </row>
     <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="47"/>
-      <c r="B19" s="54">
-        <v>8</v>
+      <c r="B19" s="120">
+        <v>13</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="55" t="s">
-        <v>53</v>
+        <v>35</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="E19" s="25">
-        <v>-2</v>
-      </c>
-      <c r="F19" s="56">
-        <v>10</v>
-      </c>
-      <c r="G19" s="57">
-        <v>12</v>
-      </c>
-      <c r="H19" s="52"/>
+        <v>-3</v>
+      </c>
+      <c r="F19" s="26">
+        <v>16</v>
+      </c>
+      <c r="G19" s="27">
+        <v>19</v>
+      </c>
+      <c r="H19" s="119"/>
       <c r="I19" s="41"/>
       <c r="J19" s="41"/>
       <c r="K19" s="41"/>
@@ -13134,7 +13212,7 @@
     <row r="20" spans="1:11" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="47"/>
       <c r="B20" s="54">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>55</v>
@@ -13143,18 +13221,18 @@
         <v>225</v>
       </c>
       <c r="E20" s="25">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="F20" s="26">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G20" s="27">
-        <v>22</v>
-      </c>
-      <c r="H20" s="52"/>
+        <v>27</v>
+      </c>
+      <c r="H20" s="119"/>
       <c r="I20" s="41"/>
       <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
+      <c r="K20" s="53"/>
     </row>
     <row r="21" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
@@ -13183,11 +13261,6 @@
       <c r="K22" s="41"/>
     </row>
   </sheetData>
-  <autoFilter ref="A6:IV6" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:IV20">
-      <sortCondition descending="1" ref="E6"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="93" orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -13220,7 +13293,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="62" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C1" s="40"/>
       <c r="D1" s="40"/>
@@ -13262,7 +13335,7 @@
         <v>43</v>
       </c>
       <c r="B5" s="68"/>
-      <c r="C5" s="105"/>
+      <c r="C5" s="104"/>
       <c r="D5" s="64"/>
       <c r="E5" s="68"/>
       <c r="F5" s="68"/>
@@ -13529,7 +13602,7 @@
   <dimension ref="A1:X71"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -13540,7 +13613,7 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B1" s="62" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C1" s="40"/>
       <c r="D1" s="40"/>
@@ -13622,27 +13695,27 @@
         <v>42</v>
       </c>
       <c r="B4" s="68" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C4" s="64">
         <v>4</v>
       </c>
       <c r="D4" s="64" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E4" s="69" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F4" s="100">
         <v>-1</v>
       </c>
       <c r="G4" s="100" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H4" s="38"/>
       <c r="I4" s="38"/>
       <c r="J4" s="98" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K4" s="38"/>
       <c r="L4" s="38"/>
@@ -13670,21 +13743,21 @@
         <v>1</v>
       </c>
       <c r="D5" s="64" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E5" s="69" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F5" s="100">
         <v>0</v>
       </c>
       <c r="G5" s="100" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="H5" s="38"/>
       <c r="I5" s="38"/>
       <c r="J5" s="98" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="K5" s="38"/>
       <c r="L5" s="38"/>
@@ -13712,21 +13785,21 @@
         <v>1</v>
       </c>
       <c r="D6" s="64" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E6" s="69" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F6" s="100">
         <v>0</v>
       </c>
       <c r="G6" s="100" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="H6" s="38"/>
       <c r="I6" s="38"/>
       <c r="J6" s="98" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K6" s="38"/>
       <c r="L6" s="38"/>
@@ -13754,21 +13827,21 @@
         <v>2</v>
       </c>
       <c r="D7" s="64" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E7" s="69" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F7" s="100">
         <v>1</v>
       </c>
       <c r="G7" s="100" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
       <c r="J7" s="98" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="K7" s="38"/>
       <c r="L7" s="38"/>
@@ -13790,27 +13863,27 @@
         <v>46</v>
       </c>
       <c r="B8" s="69" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C8" s="100">
         <v>0</v>
       </c>
       <c r="D8" s="100" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E8" s="68" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F8" s="64">
         <v>2</v>
       </c>
       <c r="G8" s="64" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="H8" s="38"/>
       <c r="I8" s="38"/>
       <c r="J8" s="98" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="K8" s="38"/>
       <c r="L8" s="38"/>
@@ -13838,21 +13911,21 @@
         <v>-2</v>
       </c>
       <c r="D9" s="100" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="E9" s="68" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F9" s="64">
         <v>1</v>
       </c>
       <c r="G9" s="64" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="H9" s="38"/>
       <c r="I9" s="38"/>
       <c r="J9" s="98" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="K9" s="38"/>
       <c r="L9" s="38"/>
@@ -13874,27 +13947,27 @@
         <v>48</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C10" s="100">
         <v>1</v>
       </c>
       <c r="D10" s="100" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E10" s="68" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F10" s="64">
         <v>1</v>
       </c>
       <c r="G10" s="64" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="H10" s="38"/>
       <c r="I10" s="38"/>
       <c r="J10" s="98" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="K10" s="38"/>
       <c r="L10" s="38"/>
@@ -13922,16 +13995,16 @@
         <v>2</v>
       </c>
       <c r="D11" s="64" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E11" s="68" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F11" s="64">
         <v>2</v>
       </c>
       <c r="G11" s="64" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="H11" s="38"/>
       <c r="I11" s="38"/>
@@ -13956,22 +14029,22 @@
         <v>50</v>
       </c>
       <c r="B12" s="69" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C12" s="100">
         <v>-2</v>
       </c>
       <c r="D12" s="100" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="E12" s="68" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F12" s="64">
         <v>-1</v>
       </c>
       <c r="G12" s="64" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="H12" s="38"/>
       <c r="I12" s="38"/>
@@ -14002,16 +14075,16 @@
         <v>2</v>
       </c>
       <c r="D13" s="64" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E13" s="69" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F13" s="100">
         <v>1</v>
       </c>
       <c r="G13" s="100" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="H13" s="38"/>
       <c r="I13" s="38"/>
@@ -14060,7 +14133,7 @@
     <row r="15" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A15" s="67"/>
       <c r="B15" s="63" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
@@ -14096,16 +14169,16 @@
         <v>-1</v>
       </c>
       <c r="D16" s="64" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="E16" s="69" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F16" s="100">
         <v>-1</v>
       </c>
       <c r="G16" s="100" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="H16" s="38"/>
       <c r="I16" s="38"/>
@@ -14154,7 +14227,7 @@
     <row r="18" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A18" s="67"/>
       <c r="B18" s="63" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C18" s="68"/>
       <c r="D18" s="64"/>
@@ -14184,13 +14257,13 @@
         <v>77</v>
       </c>
       <c r="B19" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C19" s="64">
         <v>0</v>
       </c>
       <c r="D19" s="64" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="E19" s="70" t="s">
         <v>225</v>
@@ -14199,7 +14272,7 @@
         <v>-1</v>
       </c>
       <c r="G19" s="100" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H19" s="38"/>
       <c r="I19" s="38"/>
@@ -14230,16 +14303,16 @@
         <v>0</v>
       </c>
       <c r="D20" s="64" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="E20" s="70" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F20" s="100">
         <v>-2</v>
       </c>
       <c r="G20" s="100" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="H20" s="38"/>
       <c r="I20" s="38"/>
@@ -14270,16 +14343,16 @@
         <v>2</v>
       </c>
       <c r="D21" s="64" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="E21" s="70" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F21" s="100">
         <v>0</v>
       </c>
       <c r="G21" s="100" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="H21" s="38"/>
       <c r="I21" s="38"/>
@@ -14301,16 +14374,16 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="67" t="s">
-        <v>260</v>
-      </c>
-      <c r="B22" s="65" t="s">
+        <v>258</v>
+      </c>
+      <c r="B22" s="70" t="s">
         <v>53</v>
       </c>
       <c r="C22" s="100">
         <v>-3</v>
       </c>
       <c r="D22" s="100" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="E22" s="65" t="s">
         <v>201</v>
@@ -14319,7 +14392,7 @@
         <v>-1</v>
       </c>
       <c r="G22" s="64" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H22" s="38"/>
       <c r="I22" s="38"/>
@@ -14341,25 +14414,25 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="67" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B23" s="65" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C23" s="64">
         <v>1</v>
       </c>
       <c r="D23" s="64" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="E23" s="70" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F23" s="100">
         <v>-3</v>
       </c>
       <c r="G23" s="100" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="H23" s="38"/>
       <c r="I23" s="38"/>
@@ -14381,25 +14454,25 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="67" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B24" s="65" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C24" s="64">
         <v>3</v>
       </c>
       <c r="D24" s="64" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="E24" s="70" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="F24" s="100">
         <v>2</v>
       </c>
       <c r="G24" s="100" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="H24" s="38"/>
       <c r="I24" s="38"/>
@@ -14421,7 +14494,7 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="67" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B25" s="65" t="s">
         <v>206</v>
@@ -14430,16 +14503,16 @@
         <v>0</v>
       </c>
       <c r="D25" s="64" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E25" s="70" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F25" s="100">
         <v>-1</v>
       </c>
       <c r="G25" s="100" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="H25" s="38"/>
       <c r="I25" s="38"/>
@@ -14461,7 +14534,7 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="67" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B26" s="65" t="s">
         <v>31</v>
@@ -14470,16 +14543,16 @@
         <v>3</v>
       </c>
       <c r="D26" s="64" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="E26" s="70" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="F26" s="100">
         <v>2</v>
       </c>
       <c r="G26" s="100" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="H26" s="38"/>
       <c r="I26" s="38"/>
@@ -14555,7 +14628,7 @@
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="67" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B29" s="70"/>
       <c r="C29" s="69"/>
@@ -14583,7 +14656,7 @@
     </row>
     <row r="30" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A30" s="67" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B30" s="63"/>
       <c r="C30" s="64"/>
@@ -14611,7 +14684,7 @@
     </row>
     <row r="31" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A31" s="67" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B31" s="63"/>
       <c r="C31" s="64"/>
@@ -14639,7 +14712,7 @@
     </row>
     <row r="32" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A32" s="67" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B32" s="63"/>
       <c r="C32" s="64"/>
@@ -14719,7 +14792,7 @@
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" s="67" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B35" s="70"/>
       <c r="C35" s="69"/>
@@ -14747,7 +14820,7 @@
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" s="67" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B36" s="65"/>
       <c r="C36" s="68"/>
@@ -14827,7 +14900,7 @@
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" s="67" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B39" s="65"/>
       <c r="C39" s="68"/>
@@ -15508,769 +15581,769 @@
   <sheetData>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C5" t="s">
+        <v>321</v>
+      </c>
+      <c r="F5" t="s">
         <v>323</v>
       </c>
-      <c r="F5" t="s">
-        <v>325</v>
-      </c>
       <c r="G5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J5" s="67" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="N5" s="67" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="O5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C6">
         <f>COUNTIF(Stats!D:D,'Player Count'!B6)</f>
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G6">
         <f>COUNTIF(Stats!D:D,'Player Count'!F6)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J6" s="67" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="K6">
         <f>COUNTIF(Stats!D:D,'Player Count'!J6)</f>
         <v>1</v>
       </c>
-      <c r="M6" s="111"/>
+      <c r="M6" s="110"/>
       <c r="N6" s="67" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="O6">
         <f>COUNTIF(Stats!D:D,'Player Count'!N6)</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="111"/>
+      <c r="Q6" s="110"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C7">
         <f>COUNTIF(Stats!D:D,'Player Count'!B7)</f>
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G7">
         <f>COUNTIF(Stats!D:D,'Player Count'!F7)</f>
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="K7">
         <f>COUNTIF(Stats!D:D,'Player Count'!J7)</f>
         <v>1</v>
       </c>
-      <c r="M7" s="111"/>
+      <c r="M7" s="110"/>
       <c r="N7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="O7">
         <f>COUNTIF(Stats!D:D,'Player Count'!N7)</f>
         <v>1</v>
       </c>
-      <c r="Q7" s="111"/>
+      <c r="Q7" s="110"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C8">
         <f>COUNTIF(Stats!D:D,'Player Count'!B8)</f>
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G8">
         <f>COUNTIF(Stats!D:D,'Player Count'!F8)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K8">
         <f>COUNTIF(Stats!D:D,'Player Count'!J8)</f>
         <v>2</v>
       </c>
-      <c r="M8" s="111"/>
+      <c r="M8" s="110"/>
       <c r="N8" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="O8">
         <f>COUNTIF(Stats!D:D,'Player Count'!N8)</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="111"/>
+      <c r="Q8" s="110"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C9">
         <f>COUNTIF(Stats!D:D,'Player Count'!B9)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G9">
         <f>COUNTIF(Stats!D:D,'Player Count'!F9)</f>
         <v>2</v>
       </c>
       <c r="J9" s="67" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="K9">
         <f>COUNTIF(Stats!D:D,'Player Count'!J9)</f>
-        <v>2</v>
-      </c>
-      <c r="M9" s="111"/>
+        <v>3</v>
+      </c>
+      <c r="M9" s="110"/>
       <c r="N9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="O9">
         <f>COUNTIF(Stats!D:D,'Player Count'!N9)</f>
         <v>1</v>
       </c>
-      <c r="Q9" s="111"/>
+      <c r="Q9" s="110"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C10">
         <f>COUNTIF(Stats!D:D,'Player Count'!B10)</f>
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G10">
         <f>COUNTIF(Stats!D:D,'Player Count'!F10)</f>
         <v>6</v>
       </c>
       <c r="J10" s="67" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K10">
         <f>COUNTIF(Stats!D:D,'Player Count'!J10)</f>
         <v>2</v>
       </c>
-      <c r="M10" s="111"/>
+      <c r="M10" s="110"/>
       <c r="N10" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="O10">
         <f>COUNTIF(Stats!D:D,'Player Count'!N10)</f>
         <v>2</v>
       </c>
-      <c r="Q10" s="111"/>
+      <c r="Q10" s="110"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C11">
         <f>COUNTIF(Stats!D:D,'Player Count'!B11)</f>
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G11">
         <f>COUNTIF(Stats!D:D,'Player Count'!F11)</f>
         <v>2</v>
       </c>
       <c r="J11" s="67" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K11">
         <f>COUNTIF(Stats!D:D,'Player Count'!J11)</f>
         <v>0</v>
       </c>
-      <c r="M11" s="111"/>
+      <c r="M11" s="110"/>
       <c r="N11" s="67" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="O11">
         <f>COUNTIF(Stats!D:D,'Player Count'!N11)</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="111"/>
+      <c r="Q11" s="110"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C12">
         <f>COUNTIF(Stats!D:D,'Player Count'!B12)</f>
         <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G12">
         <f>COUNTIF(Stats!D:D,'Player Count'!F12)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" s="67" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="K12">
         <f>COUNTIF(Stats!D:D,'Player Count'!J12)</f>
         <v>3</v>
       </c>
-      <c r="M12" s="111"/>
+      <c r="M12" s="110"/>
       <c r="N12" s="67" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="O12">
         <f>COUNTIF(Stats!D:D,'Player Count'!N12)</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="111"/>
+      <c r="Q12" s="110"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C13">
         <f>COUNTIF(Stats!D:D,'Player Count'!B13)</f>
         <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G13">
         <f>COUNTIF(Stats!D:D,'Player Count'!F13)</f>
         <v>5</v>
       </c>
       <c r="J13" s="67" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="K13">
         <f>COUNTIF(Stats!D:D,'Player Count'!J13)</f>
         <v>2</v>
       </c>
-      <c r="M13" s="111"/>
+      <c r="M13" s="110"/>
       <c r="N13" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="O13">
         <f>COUNTIF(Stats!D:D,'Player Count'!N13)</f>
         <v>3</v>
       </c>
-      <c r="Q13" s="111"/>
+      <c r="Q13" s="110"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C14">
         <f>COUNTIF(Stats!D:D,'Player Count'!B14)</f>
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G14">
         <f>COUNTIF(Stats!D:D,'Player Count'!F14)</f>
         <v>0</v>
       </c>
       <c r="J14" s="67" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K14">
         <f>COUNTIF(Stats!D:D,'Player Count'!J14)</f>
         <v>0</v>
       </c>
-      <c r="M14" s="111"/>
+      <c r="M14" s="110"/>
       <c r="N14" s="67" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="O14">
         <f>COUNTIF(Stats!D:D,'Player Count'!N14)</f>
         <v>1</v>
       </c>
-      <c r="Q14" s="111"/>
+      <c r="Q14" s="110"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C15">
         <f>COUNTIF(Stats!D:D,'Player Count'!B15)</f>
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G15">
         <f>COUNTIF(Stats!D:D,'Player Count'!F15)</f>
         <v>3</v>
       </c>
       <c r="J15" s="67" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K15">
         <f>COUNTIF(Stats!D:D,'Player Count'!J15)</f>
         <v>1</v>
       </c>
-      <c r="M15" s="111"/>
+      <c r="M15" s="110"/>
       <c r="N15" s="67" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="O15">
         <f>COUNTIF(Stats!D:D,'Player Count'!N15)</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="111"/>
+      <c r="Q15" s="110"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C16">
         <f>COUNTIF(Stats!D:D,'Player Count'!B16)</f>
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G16">
         <f>COUNTIF(Stats!D:D,'Player Count'!F16)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="K16">
         <f>COUNTIF(Stats!D:D,'Player Count'!J16)</f>
         <v>2</v>
       </c>
-      <c r="M16" s="111"/>
+      <c r="M16" s="110"/>
       <c r="N16" s="67" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="O16">
         <f>COUNTIF(Stats!D:D,'Player Count'!N16)</f>
         <v>2</v>
       </c>
-      <c r="Q16" s="111"/>
+      <c r="Q16" s="110"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C17">
         <f>COUNTIF(Stats!D:D,'Player Count'!B17)</f>
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G17">
         <f>COUNTIF(Stats!D:D,'Player Count'!F17)</f>
         <v>3</v>
       </c>
       <c r="J17" s="67" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K17">
         <f>COUNTIF(Stats!D:D,'Player Count'!J17)</f>
         <v>1</v>
       </c>
-      <c r="M17" s="111"/>
+      <c r="M17" s="110"/>
       <c r="N17" s="67" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="O17">
         <f>COUNTIF(Stats!D:D,'Player Count'!N17)</f>
         <v>1</v>
       </c>
-      <c r="Q17" s="111"/>
+      <c r="Q17" s="110"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C18">
         <f>COUNTIF(Stats!D:D,'Player Count'!B18)</f>
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G18">
         <f>COUNTIF(Stats!D:D,'Player Count'!F18)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" s="67" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="K18">
         <f>COUNTIF(Stats!D:D,'Player Count'!J18)</f>
-        <v>5</v>
-      </c>
-      <c r="M18" s="111"/>
+        <v>4</v>
+      </c>
+      <c r="M18" s="110"/>
       <c r="N18" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="O18">
         <f>COUNTIF(Stats!D:D,'Player Count'!N18)</f>
         <v>1</v>
       </c>
-      <c r="Q18" s="111"/>
+      <c r="Q18" s="110"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C19">
         <f>COUNTIF(Stats!D:D,'Player Count'!B19)</f>
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G19">
         <f>COUNTIF(Stats!D:D,'Player Count'!F19)</f>
         <v>1</v>
       </c>
       <c r="J19" s="67" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="K19">
         <f>COUNTIF(Stats!D:D,'Player Count'!J19)</f>
         <v>0</v>
       </c>
-      <c r="M19" s="111"/>
+      <c r="M19" s="110"/>
       <c r="N19" s="67" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="O19">
         <f>COUNTIF(Stats!D:D,'Player Count'!N19)</f>
         <v>2</v>
       </c>
-      <c r="Q19" s="111"/>
+      <c r="Q19" s="110"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C20">
         <f>COUNTIF(Stats!D:D,'Player Count'!B20)</f>
         <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G20">
         <f>COUNTIF(Stats!D:D,'Player Count'!F20)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" s="67" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K20">
         <f>COUNTIF(Stats!D:D,'Player Count'!J20)</f>
         <v>0</v>
       </c>
-      <c r="M20" s="111"/>
+      <c r="M20" s="110"/>
       <c r="N20" s="67" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="O20">
         <f>COUNTIF(Stats!D:D,'Player Count'!N20)</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="111"/>
+      <c r="Q20" s="110"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C21">
         <f>COUNTIF(Stats!D:D,'Player Count'!B21)</f>
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G21">
         <f>COUNTIF(Stats!D:D,'Player Count'!F21)</f>
         <v>1</v>
       </c>
       <c r="J21" s="67" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="K21">
         <f>COUNTIF(Stats!D:D,'Player Count'!J21)</f>
         <v>0</v>
       </c>
-      <c r="M21" s="111"/>
+      <c r="M21" s="110"/>
       <c r="N21" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="O21">
         <f>COUNTIF(Stats!D:D,'Player Count'!N21)</f>
         <v>4</v>
       </c>
-      <c r="Q21" s="111"/>
+      <c r="Q21" s="110"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C22">
         <f>COUNTIF(Stats!D:D,'Player Count'!B22)</f>
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G22">
         <f>COUNTIF(Stats!D:D,'Player Count'!F22)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J22" s="67" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="K22">
         <f>COUNTIF(Stats!D:D,'Player Count'!J22)</f>
         <v>1</v>
       </c>
-      <c r="M22" s="111"/>
+      <c r="M22" s="110"/>
       <c r="N22" s="67" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="O22">
         <f>COUNTIF(Stats!D:D,'Player Count'!N22)</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="111"/>
+      <c r="Q22" s="110"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C23">
         <f>COUNTIF(Stats!D:D,'Player Count'!B23)</f>
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G23">
         <f>COUNTIF(Stats!D:D,'Player Count'!F23)</f>
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K23">
         <f>COUNTIF(Stats!D:D,'Player Count'!J23)</f>
         <v>1</v>
       </c>
-      <c r="M23" s="111"/>
+      <c r="M23" s="110"/>
       <c r="N23" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="O23">
         <f>COUNTIF(Stats!D:D,'Player Count'!N23)</f>
         <v>2</v>
       </c>
-      <c r="Q23" s="111"/>
+      <c r="Q23" s="110"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C24">
         <f>COUNTIF(Stats!D:D,'Player Count'!B24)</f>
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G24">
         <f>COUNTIF(Stats!D:D,'Player Count'!F24)</f>
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K24">
         <f>COUNTIF(Stats!D:D,'Player Count'!J24)</f>
         <v>2</v>
       </c>
-      <c r="M24" s="111"/>
+      <c r="M24" s="110"/>
       <c r="N24" s="67" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="O24">
         <f>COUNTIF(Stats!D:D,'Player Count'!N24)</f>
-        <v>2</v>
-      </c>
-      <c r="Q24" s="111"/>
+        <v>3</v>
+      </c>
+      <c r="Q24" s="110"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C25">
         <f>COUNTIF(Stats!D:D,'Player Count'!B25)</f>
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G25">
         <f>COUNTIF(Stats!D:D,'Player Count'!F25)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" s="67" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="K25">
         <f>COUNTIF(Stats!D:D,'Player Count'!J25)</f>
         <v>1</v>
       </c>
-      <c r="M25" s="111"/>
+      <c r="M25" s="110"/>
       <c r="N25" s="67" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="O25">
         <f>COUNTIF(Stats!D:D,'Player Count'!N25)</f>
         <v>2</v>
       </c>
-      <c r="Q25" s="111"/>
+      <c r="Q25" s="110"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B26" s="78" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C26" s="78">
         <f>SUM(C6:C25)</f>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F26" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G26">
         <f>COUNTIF(Stats!D:D,'Player Count'!F26)</f>
         <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="K26">
         <f>COUNTIF(Stats!D:D,'Player Count'!J26)</f>
         <v>2</v>
       </c>
-      <c r="M26" s="111"/>
+      <c r="M26" s="110"/>
       <c r="N26" s="67" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="O26">
         <f>COUNTIF(Stats!D:D,'Player Count'!N26)</f>
         <v>0</v>
       </c>
-      <c r="Q26" s="111"/>
+      <c r="Q26" s="110"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.3">
       <c r="F27" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G27">
         <f>COUNTIF(Stats!D:D,'Player Count'!F27)</f>
         <v>2</v>
       </c>
       <c r="J27" s="67" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="K27">
         <f>COUNTIF(Stats!D:D,'Player Count'!J27)</f>
         <v>4</v>
       </c>
-      <c r="M27" s="111"/>
+      <c r="M27" s="110"/>
       <c r="N27" s="67" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="O27">
         <f>COUNTIF(Stats!D:D,'Player Count'!N27)</f>
         <v>3</v>
       </c>
-      <c r="Q27" s="111"/>
+      <c r="Q27" s="110"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.3">
       <c r="F28" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G28">
         <f>COUNTIF(Stats!D:D,'Player Count'!F28)</f>
         <v>3</v>
       </c>
       <c r="J28" s="67" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K28">
         <f>COUNTIF(Stats!D:D,'Player Count'!J28)</f>
         <v>2</v>
       </c>
-      <c r="M28" s="111"/>
+      <c r="M28" s="110"/>
       <c r="N28" s="67" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="O28">
         <f>COUNTIF(Stats!D:D,'Player Count'!N28)</f>
         <v>1</v>
       </c>
-      <c r="Q28" s="111"/>
+      <c r="Q28" s="110"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
       <c r="F29" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G29">
         <f>COUNTIF(Stats!D:D,'Player Count'!F29)</f>
         <v>3</v>
       </c>
       <c r="J29" s="67" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="K29">
         <f>COUNTIF(Stats!D:D,'Player Count'!J29)</f>
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="O29">
         <f>COUNTIF(Stats!D:D,'Player Count'!N29)</f>
@@ -16279,55 +16352,55 @@
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="F30" s="78" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G30" s="78">
         <f>SUM(G6:G29)</f>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J30" s="78" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K30" s="78">
         <f>SUM(K6:K29)</f>
         <v>37</v>
       </c>
       <c r="N30" s="78" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="O30" s="78">
         <f>SUM(O6:O29)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="67" t="s">
-        <v>430</v>
-      </c>
-      <c r="C38" s="116">
+        <v>428</v>
+      </c>
+      <c r="C38" s="115">
         <f>C26/SUM(C26,G30,K30,O30)</f>
-        <v>0.39896373056994816</v>
-      </c>
-      <c r="D38" s="116"/>
-      <c r="E38" s="116"/>
-      <c r="F38" s="116"/>
-      <c r="G38" s="116">
+        <v>0.39195979899497485</v>
+      </c>
+      <c r="D38" s="115"/>
+      <c r="E38" s="115"/>
+      <c r="F38" s="115"/>
+      <c r="G38" s="115">
         <f>G30/SUM(C26,G30,K30,O30)</f>
-        <v>0.25906735751295334</v>
-      </c>
-      <c r="H38" s="116"/>
-      <c r="I38" s="116"/>
-      <c r="J38" s="116"/>
-      <c r="K38" s="116">
+        <v>0.271356783919598</v>
+      </c>
+      <c r="H38" s="115"/>
+      <c r="I38" s="115"/>
+      <c r="J38" s="115"/>
+      <c r="K38" s="115">
         <f>K30/SUM(C26,G30,K30,O30)</f>
-        <v>0.19170984455958548</v>
-      </c>
-      <c r="L38" s="116"/>
-      <c r="M38" s="116"/>
-      <c r="N38" s="116"/>
-      <c r="O38" s="116">
+        <v>0.18592964824120603</v>
+      </c>
+      <c r="L38" s="115"/>
+      <c r="M38" s="115"/>
+      <c r="N38" s="115"/>
+      <c r="O38" s="115">
         <f>O30/SUM(C26,G30,K30,O30)</f>
-        <v>0.15025906735751296</v>
+        <v>0.15075376884422109</v>
       </c>
     </row>
   </sheetData>

--- a/data/DreamLeague25-26.xlsx
+++ b/data/DreamLeague25-26.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/462a734c48854128/Desktop/Dream League/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1106" documentId="8_{7D36DF2E-EA78-4237-9818-EA41DFB80887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80082099-87FD-42E7-A982-9C2864572695}"/>
+  <xr:revisionPtr revIDLastSave="1143" documentId="8_{7D36DF2E-EA78-4237-9818-EA41DFB80887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E02A3271-5B6E-41A5-917D-A552C7BA3921}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="488">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1500,6 +1500,9 @@
   </si>
   <si>
     <t>VICTOR TORP</t>
+  </si>
+  <si>
+    <t>EPHRON MASON-CLARK</t>
   </si>
 </sst>
 </file>
@@ -2224,11 +2227,11 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2315,6 +2318,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3422,8 +3429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IX404"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5:O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3542,11 +3549,11 @@
       <c r="O4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="R4" s="118"/>
-      <c r="S4" s="118"/>
-      <c r="T4" s="118"/>
-      <c r="U4" s="118"/>
-      <c r="V4" s="118"/>
+      <c r="R4" s="120"/>
+      <c r="S4" s="120"/>
+      <c r="T4" s="120"/>
+      <c r="U4" s="120"/>
+      <c r="V4" s="120"/>
     </row>
     <row r="5" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="79"/>
@@ -3612,11 +3619,11 @@
       </c>
       <c r="M6" s="25">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N6" s="26">
         <f>SUM(F35:F52)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O6" s="27">
         <f>SUM(F32:F34)</f>
@@ -3765,21 +3772,21 @@
       </c>
       <c r="M10" s="25">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N10" s="26">
         <f>SUM(F143:F160)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O10" s="27">
         <f>SUM(F140:F142)</f>
         <v>20</v>
       </c>
-      <c r="R10" s="118"/>
-      <c r="S10" s="118"/>
-      <c r="T10" s="118"/>
-      <c r="U10" s="118"/>
-      <c r="V10" s="118"/>
+      <c r="R10" s="120"/>
+      <c r="S10" s="120"/>
+      <c r="T10" s="120"/>
+      <c r="U10" s="120"/>
+      <c r="V10" s="120"/>
     </row>
     <row r="11" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="79"/>
@@ -3915,11 +3922,11 @@
         <f>SUM(F221:F223)</f>
         <v>22</v>
       </c>
-      <c r="R13" s="118"/>
-      <c r="S13" s="118"/>
-      <c r="T13" s="118"/>
-      <c r="U13" s="118"/>
-      <c r="V13" s="118"/>
+      <c r="R13" s="120"/>
+      <c r="S13" s="120"/>
+      <c r="T13" s="120"/>
+      <c r="U13" s="120"/>
+      <c r="V13" s="120"/>
     </row>
     <row r="14" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="79"/>
@@ -4075,11 +4082,11 @@
         <f>SUM(F329:F331)</f>
         <v>12</v>
       </c>
-      <c r="R17" s="118"/>
-      <c r="S17" s="118"/>
-      <c r="T17" s="118"/>
-      <c r="U17" s="118"/>
-      <c r="V17" s="118"/>
+      <c r="R17" s="120"/>
+      <c r="S17" s="120"/>
+      <c r="T17" s="120"/>
+      <c r="U17" s="120"/>
+      <c r="V17" s="120"/>
     </row>
     <row r="18" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="79"/>
@@ -4185,11 +4192,11 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="R20" s="118"/>
-      <c r="S20" s="118"/>
-      <c r="T20" s="118"/>
-      <c r="U20" s="118"/>
-      <c r="V20" s="118"/>
+      <c r="R20" s="120"/>
+      <c r="S20" s="120"/>
+      <c r="T20" s="120"/>
+      <c r="U20" s="120"/>
+      <c r="V20" s="120"/>
     </row>
     <row r="21" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="79"/>
@@ -4311,11 +4318,11 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
-      <c r="R24" s="118"/>
-      <c r="S24" s="118"/>
-      <c r="T24" s="118"/>
-      <c r="U24" s="118"/>
-      <c r="V24" s="118"/>
+      <c r="R24" s="120"/>
+      <c r="S24" s="120"/>
+      <c r="T24" s="120"/>
+      <c r="U24" s="120"/>
+      <c r="V24" s="120"/>
     </row>
     <row r="25" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="79"/>
@@ -4405,11 +4412,11 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
-      <c r="R28" s="118"/>
-      <c r="S28" s="118"/>
-      <c r="T28" s="118"/>
-      <c r="U28" s="118"/>
-      <c r="V28" s="118"/>
+      <c r="R28" s="120"/>
+      <c r="S28" s="120"/>
+      <c r="T28" s="120"/>
+      <c r="U28" s="120"/>
+      <c r="V28" s="120"/>
     </row>
     <row r="29" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
@@ -4632,11 +4639,11 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
-      <c r="R38" s="118"/>
-      <c r="S38" s="118"/>
-      <c r="T38" s="118"/>
-      <c r="U38" s="118"/>
-      <c r="V38" s="118"/>
+      <c r="R38" s="120"/>
+      <c r="S38" s="120"/>
+      <c r="T38" s="120"/>
+      <c r="U38" s="120"/>
+      <c r="V38" s="120"/>
     </row>
     <row r="39" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="79"/>
@@ -4936,7 +4943,7 @@
         <v>288</v>
       </c>
       <c r="F50" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G50" s="91">
         <v>45904</v>
@@ -5005,7 +5012,7 @@
       </c>
       <c r="F53" s="36">
         <f>SUM(F35:F52)-SUM(F32:F34)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G53" s="80"/>
       <c r="H53" s="92"/>
@@ -6588,23 +6595,27 @@
     </row>
     <row r="121" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="79"/>
-      <c r="B121" s="28" t="s">
+      <c r="B121" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="C121" s="28" t="s">
+      <c r="C121" s="107" t="s">
         <v>180</v>
       </c>
-      <c r="D121" s="28" t="s">
+      <c r="D121" s="107" t="s">
         <v>179</v>
       </c>
-      <c r="E121" s="29">
+      <c r="E121" s="108">
         <v>1</v>
       </c>
-      <c r="F121" s="30">
+      <c r="F121" s="109">
         <v>1</v>
       </c>
-      <c r="G121" s="86"/>
-      <c r="H121" s="94"/>
+      <c r="G121" s="86" t="s">
+        <v>289</v>
+      </c>
+      <c r="H121" s="94">
+        <v>45974</v>
+      </c>
       <c r="I121" s="90"/>
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
@@ -6615,12 +6626,24 @@
     </row>
     <row r="122" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="79"/>
-      <c r="B122" s="28"/>
-      <c r="C122" s="28"/>
-      <c r="D122" s="28"/>
-      <c r="E122" s="29"/>
-      <c r="F122" s="30"/>
-      <c r="G122" s="87"/>
+      <c r="B122" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C122" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="D122" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="E122" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="F122" s="30">
+        <v>0</v>
+      </c>
+      <c r="G122" s="87">
+        <v>45974</v>
+      </c>
       <c r="H122" s="91"/>
       <c r="I122" s="90"/>
       <c r="J122" s="76"/>
@@ -7455,7 +7478,7 @@
         <v>288</v>
       </c>
       <c r="F155" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G155" s="87">
         <v>45911</v>
@@ -7585,7 +7608,7 @@
       </c>
       <c r="F161" s="36">
         <f>SUM(F143:F160)-SUM(F140:F142)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G161" s="80"/>
       <c r="H161" s="92"/>
@@ -10280,23 +10303,27 @@
       <c r="N274" s="1"/>
       <c r="O274" s="1"/>
     </row>
-    <row r="275" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A275" s="79"/>
-      <c r="B275" s="12" t="s">
+      <c r="B275" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="C275" s="13"/>
-      <c r="D275" s="12" t="s">
+      <c r="C275" s="112"/>
+      <c r="D275" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="E275" s="14">
+      <c r="E275" s="113">
         <v>1</v>
       </c>
-      <c r="F275" s="15">
+      <c r="F275" s="114">
         <v>27</v>
       </c>
-      <c r="G275" s="80"/>
-      <c r="H275" s="94"/>
+      <c r="G275" s="80" t="s">
+        <v>289</v>
+      </c>
+      <c r="H275" s="94">
+        <v>45974</v>
+      </c>
       <c r="I275" s="92"/>
       <c r="J275" s="1"/>
       <c r="K275" s="1"/>
@@ -10307,12 +10334,22 @@
     </row>
     <row r="276" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="79"/>
-      <c r="B276" s="21"/>
+      <c r="B276" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="C276" s="21"/>
-      <c r="D276" s="21"/>
-      <c r="E276" s="22"/>
-      <c r="F276" s="21"/>
-      <c r="G276" s="86"/>
+      <c r="D276" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E276" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="F276" s="21">
+        <v>0</v>
+      </c>
+      <c r="G276" s="86">
+        <v>45974</v>
+      </c>
       <c r="H276" s="92"/>
       <c r="I276" s="92"/>
       <c r="J276" s="1"/>
@@ -12771,8 +12808,8 @@
   </sheetPr>
   <dimension ref="A1:IV22"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12886,7 +12923,7 @@
     </row>
     <row r="7" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="47"/>
-      <c r="B7" s="120">
+      <c r="B7" s="119">
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -12915,21 +12952,21 @@
         <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>201</v>
+        <v>31</v>
       </c>
       <c r="E8" s="25">
         <v>17</v>
       </c>
-      <c r="F8" s="56">
-        <v>32</v>
-      </c>
-      <c r="G8" s="57">
-        <v>15</v>
-      </c>
-      <c r="H8" s="119"/>
+      <c r="F8" s="26">
+        <v>37</v>
+      </c>
+      <c r="G8" s="27">
+        <v>20</v>
+      </c>
+      <c r="H8" s="52"/>
       <c r="I8" s="41"/>
       <c r="J8" s="41"/>
       <c r="K8" s="41"/>
@@ -12940,34 +12977,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>201</v>
+      </c>
+      <c r="E9" s="25">
+        <v>17</v>
+      </c>
+      <c r="F9" s="56">
         <v>32</v>
       </c>
-      <c r="D9" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="25">
-        <v>16</v>
-      </c>
-      <c r="F9" s="56">
-        <v>36</v>
-      </c>
       <c r="G9" s="57">
-        <v>20</v>
-      </c>
-      <c r="H9" s="119"/>
+        <v>15</v>
+      </c>
+      <c r="H9" s="118"/>
       <c r="I9" s="41"/>
       <c r="J9" s="41"/>
       <c r="K9" s="41"/>
     </row>
     <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="47"/>
-      <c r="B10" s="120">
+      <c r="B10" s="119">
         <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="55" t="s">
         <v>248</v>
       </c>
       <c r="E10" s="25">
@@ -12979,10 +13016,10 @@
       <c r="G10" s="27">
         <v>21</v>
       </c>
-      <c r="H10" s="119"/>
+      <c r="H10" s="118"/>
       <c r="I10" s="41"/>
       <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
+      <c r="K10" s="53"/>
     </row>
     <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="47"/>
@@ -13036,25 +13073,25 @@
     </row>
     <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="47"/>
-      <c r="B13" s="120">
+      <c r="B13" s="119">
         <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="24" t="s">
         <v>246</v>
       </c>
       <c r="E13" s="25">
         <v>8</v>
       </c>
-      <c r="F13" s="56">
+      <c r="F13" s="26">
         <v>20</v>
       </c>
-      <c r="G13" s="57">
+      <c r="G13" s="27">
         <v>12</v>
       </c>
-      <c r="H13" s="119"/>
+      <c r="H13" s="118"/>
       <c r="I13" s="41"/>
       <c r="J13" s="41"/>
       <c r="K13" s="41"/>
@@ -13096,22 +13133,22 @@
         <v>191</v>
       </c>
       <c r="E15" s="25">
-        <v>4</v>
-      </c>
-      <c r="F15" s="26">
-        <v>23</v>
-      </c>
-      <c r="G15" s="27">
+        <v>5</v>
+      </c>
+      <c r="F15" s="56">
+        <v>24</v>
+      </c>
+      <c r="G15" s="57">
         <v>19</v>
       </c>
-      <c r="H15" s="52"/>
+      <c r="H15" s="118"/>
       <c r="I15" s="41"/>
       <c r="J15" s="41"/>
       <c r="K15" s="41"/>
     </row>
     <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="47"/>
-      <c r="B16" s="120">
+      <c r="B16" s="119">
         <v>10</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -13129,7 +13166,7 @@
       <c r="G16" s="27">
         <v>20</v>
       </c>
-      <c r="H16" s="52"/>
+      <c r="H16" s="118"/>
       <c r="I16" s="41"/>
       <c r="J16" s="41"/>
       <c r="K16" s="41"/>
@@ -13154,7 +13191,7 @@
       <c r="G17" s="27">
         <v>27</v>
       </c>
-      <c r="H17" s="119"/>
+      <c r="H17" s="118"/>
       <c r="I17" s="41"/>
       <c r="J17" s="41"/>
       <c r="K17" s="41"/>
@@ -13186,25 +13223,25 @@
     </row>
     <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="47"/>
-      <c r="B19" s="120">
+      <c r="B19" s="119">
         <v>13</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="55" t="s">
         <v>34</v>
       </c>
       <c r="E19" s="25">
         <v>-3</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="56">
         <v>16</v>
       </c>
-      <c r="G19" s="27">
+      <c r="G19" s="57">
         <v>19</v>
       </c>
-      <c r="H19" s="119"/>
+      <c r="H19" s="118"/>
       <c r="I19" s="41"/>
       <c r="J19" s="41"/>
       <c r="K19" s="41"/>
@@ -13217,7 +13254,7 @@
       <c r="C20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="55" t="s">
+      <c r="D20" s="24" t="s">
         <v>225</v>
       </c>
       <c r="E20" s="25">
@@ -13229,10 +13266,10 @@
       <c r="G20" s="27">
         <v>27</v>
       </c>
-      <c r="H20" s="119"/>
+      <c r="H20" s="52"/>
       <c r="I20" s="41"/>
       <c r="J20" s="41"/>
-      <c r="K20" s="53"/>
+      <c r="K20" s="41"/>
     </row>
     <row r="21" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
@@ -13602,7 +13639,7 @@
   <dimension ref="A1:X71"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -14630,10 +14667,14 @@
       <c r="A29" s="67" t="s">
         <v>263</v>
       </c>
-      <c r="B29" s="70"/>
+      <c r="B29" s="65" t="s">
+        <v>141</v>
+      </c>
       <c r="C29" s="69"/>
       <c r="D29" s="100"/>
-      <c r="E29" s="65"/>
+      <c r="E29" s="65" t="s">
+        <v>236</v>
+      </c>
       <c r="F29" s="68"/>
       <c r="G29" s="64"/>
       <c r="H29" s="38"/>
@@ -14654,14 +14695,18 @@
       <c r="W29" s="38"/>
       <c r="X29" s="38"/>
     </row>
-    <row r="30" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="67" t="s">
         <v>264</v>
       </c>
-      <c r="B30" s="63"/>
+      <c r="B30" s="65" t="s">
+        <v>34</v>
+      </c>
       <c r="C30" s="64"/>
       <c r="D30" s="64"/>
-      <c r="E30" s="65"/>
+      <c r="E30" s="65" t="s">
+        <v>31</v>
+      </c>
       <c r="F30" s="66"/>
       <c r="G30" s="40"/>
       <c r="H30" s="38"/>
@@ -14682,14 +14727,18 @@
       <c r="W30" s="38"/>
       <c r="X30" s="38"/>
     </row>
-    <row r="31" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" s="67" t="s">
         <v>265</v>
       </c>
-      <c r="B31" s="63"/>
+      <c r="B31" s="65" t="s">
+        <v>246</v>
+      </c>
       <c r="C31" s="64"/>
       <c r="D31" s="64"/>
-      <c r="E31" s="65"/>
+      <c r="E31" s="65" t="s">
+        <v>426</v>
+      </c>
       <c r="F31" s="66"/>
       <c r="G31" s="40"/>
       <c r="H31" s="38"/>
@@ -14710,14 +14759,18 @@
       <c r="W31" s="38"/>
       <c r="X31" s="38"/>
     </row>
-    <row r="32" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" s="67" t="s">
         <v>266</v>
       </c>
-      <c r="B32" s="63"/>
+      <c r="B32" s="65" t="s">
+        <v>201</v>
+      </c>
       <c r="C32" s="64"/>
       <c r="D32" s="64"/>
-      <c r="E32" s="65"/>
+      <c r="E32" s="65" t="s">
+        <v>206</v>
+      </c>
       <c r="F32" s="66"/>
       <c r="G32" s="40"/>
       <c r="H32" s="38"/>
@@ -15746,7 +15799,7 @@
       </c>
       <c r="G10">
         <f>COUNTIF(Stats!D:D,'Player Count'!F10)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J10" s="67" t="s">
         <v>351</v>
@@ -16265,7 +16318,7 @@
       </c>
       <c r="K26">
         <f>COUNTIF(Stats!D:D,'Player Count'!J26)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M26" s="110"/>
       <c r="N26" s="67" t="s">
@@ -16356,14 +16409,14 @@
       </c>
       <c r="G30" s="78">
         <f>SUM(G6:G29)</f>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J30" s="78" t="s">
         <v>322</v>
       </c>
       <c r="K30" s="78">
         <f>SUM(K6:K29)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N30" s="78" t="s">
         <v>322</v>
@@ -16379,28 +16432,28 @@
       </c>
       <c r="C38" s="115">
         <f>C26/SUM(C26,G30,K30,O30)</f>
-        <v>0.39195979899497485</v>
+        <v>0.38805970149253732</v>
       </c>
       <c r="D38" s="115"/>
       <c r="E38" s="115"/>
       <c r="F38" s="115"/>
       <c r="G38" s="115">
         <f>G30/SUM(C26,G30,K30,O30)</f>
-        <v>0.271356783919598</v>
+        <v>0.27363184079601988</v>
       </c>
       <c r="H38" s="115"/>
       <c r="I38" s="115"/>
       <c r="J38" s="115"/>
       <c r="K38" s="115">
         <f>K30/SUM(C26,G30,K30,O30)</f>
-        <v>0.18592964824120603</v>
+        <v>0.1890547263681592</v>
       </c>
       <c r="L38" s="115"/>
       <c r="M38" s="115"/>
       <c r="N38" s="115"/>
       <c r="O38" s="115">
         <f>O30/SUM(C26,G30,K30,O30)</f>
-        <v>0.15075376884422109</v>
+        <v>0.14925373134328357</v>
       </c>
     </row>
   </sheetData>

--- a/data/DreamLeague25-26.xlsx
+++ b/data/DreamLeague25-26.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/462a734c48854128/Desktop/Dream League/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1143" documentId="8_{7D36DF2E-EA78-4237-9818-EA41DFB80887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E02A3271-5B6E-41A5-917D-A552C7BA3921}"/>
+  <xr:revisionPtr revIDLastSave="1309" documentId="8_{7D36DF2E-EA78-4237-9818-EA41DFB80887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66A7630E-620D-4F40-9FE5-DEE8772B6F6E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="490">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -857,9 +857,6 @@
     <t>WILLIAM SALIBA</t>
   </si>
   <si>
-    <t>RUBEN DIAZ</t>
-  </si>
-  <si>
     <t>MORGAN GIBBS-WHITE</t>
   </si>
   <si>
@@ -1503,6 +1500,15 @@
   </si>
   <si>
     <t>EPHRON MASON-CLARK</t>
+  </si>
+  <si>
+    <t>RUBEN DIAS</t>
+  </si>
+  <si>
+    <t>BRSTOL CITY</t>
+  </si>
+  <si>
+    <t>MIKEL MERINO</t>
   </si>
 </sst>
 </file>
@@ -3429,8 +3435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IX404"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:O18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K366" sqref="K366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3568,11 +3574,13 @@
         <v>1</v>
       </c>
       <c r="F5" s="15">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G5" s="83"/>
       <c r="H5" s="84"/>
-      <c r="I5" s="85"/>
+      <c r="I5" s="85">
+        <v>1</v>
+      </c>
       <c r="J5" s="82"/>
       <c r="K5" s="16" t="str">
         <f>D2</f>
@@ -3584,15 +3592,15 @@
       </c>
       <c r="M5" s="18">
         <f t="shared" ref="M5:M17" si="0">N5-O5</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N5" s="19">
         <f>SUM(F8:F25)</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="O5" s="20">
         <f>SUM(F5:F7)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S5" s="102"/>
       <c r="T5" s="101"/>
@@ -3619,15 +3627,15 @@
       </c>
       <c r="M6" s="25">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N6" s="26">
         <f>SUM(F35:F52)</f>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O6" s="27">
         <f>SUM(F32:F34)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S6" s="102"/>
       <c r="T6" s="101"/>
@@ -3654,15 +3662,15 @@
       </c>
       <c r="M7" s="25">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N7" s="26">
         <f>SUM(F62:F79)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O7" s="27">
         <f>SUM(F59:F61)</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="S7" s="102"/>
       <c r="T7" s="101"/>
@@ -3698,15 +3706,15 @@
       </c>
       <c r="M8" s="25">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N8" s="26">
         <f>SUM(F89:F106)</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O8" s="27">
         <f>SUM(F86:F88)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3740,15 +3748,15 @@
       </c>
       <c r="M9" s="25">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N9" s="73">
         <f>SUM(F116:F133)</f>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O9" s="74">
         <f>SUM(F113:F115)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3772,15 +3780,15 @@
       </c>
       <c r="M10" s="25">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N10" s="26">
         <f>SUM(F143:F160)</f>
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O10" s="27">
         <f>SUM(F140:F142)</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="R10" s="120"/>
       <c r="S10" s="120"/>
@@ -3819,15 +3827,15 @@
       </c>
       <c r="M11" s="25">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="N11" s="26">
         <f>SUM(F170:F187)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="O11" s="27">
         <f>SUM(F167:F169)</f>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="S11" s="102"/>
       <c r="T11" s="101"/>
@@ -3851,7 +3859,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="87" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H12" s="84">
         <v>45932</v>
@@ -3868,15 +3876,15 @@
       </c>
       <c r="M12" s="25">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N12" s="73">
         <f>SUM(F197:F214)</f>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="O12" s="74">
         <f>SUM(F194:F196)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3885,13 +3893,13 @@
         <v>16</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D13" s="28" t="s">
         <v>104</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F13" s="30">
         <v>1</v>
@@ -3916,11 +3924,11 @@
       </c>
       <c r="N13" s="73">
         <f>SUM(F224:F241)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O13" s="74">
         <f>SUM(F221:F223)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R13" s="120"/>
       <c r="S13" s="120"/>
@@ -3943,11 +3951,13 @@
         <v>1</v>
       </c>
       <c r="F14" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G14" s="87"/>
       <c r="H14" s="84"/>
-      <c r="I14" s="99"/>
+      <c r="I14" s="99">
+        <v>1</v>
+      </c>
       <c r="J14" s="79"/>
       <c r="K14" s="71" t="str">
         <f>D245</f>
@@ -3959,15 +3969,15 @@
       </c>
       <c r="M14" s="25">
         <f t="shared" si="0"/>
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="N14" s="73">
         <f>SUM(F251:F268)</f>
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="O14" s="74">
         <f>SUM(F248:F250)</f>
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="S14" s="102"/>
       <c r="T14" s="101"/>
@@ -3994,11 +4004,11 @@
       </c>
       <c r="M15" s="25">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N15" s="26">
         <f>SUM(F278:F295)</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O15" s="27">
         <f>SUM(F275:F277)</f>
@@ -4026,15 +4036,15 @@
       </c>
       <c r="M16" s="25">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N16" s="26">
         <f>SUM(F305:F322)</f>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="O16" s="27">
         <f>SUM(F302:F304)</f>
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -4055,7 +4065,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="87" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H17" s="84">
         <v>45897</v>
@@ -4072,15 +4082,15 @@
       </c>
       <c r="M17" s="25">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N17" s="26">
         <f>SUM(F332:F349)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O17" s="27">
         <f>SUM(F329:F331)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R17" s="120"/>
       <c r="S17" s="120"/>
@@ -4094,13 +4104,13 @@
         <v>17</v>
       </c>
       <c r="C18" s="28" t="s">
+        <v>414</v>
+      </c>
+      <c r="D18" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="D18" s="28" t="s">
-        <v>416</v>
-      </c>
       <c r="E18" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F18" s="30">
         <v>3</v>
@@ -4121,15 +4131,15 @@
       </c>
       <c r="M18" s="25">
         <f>N18-O18</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N18" s="26">
         <f>SUM(F359:F376)</f>
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="O18" s="27">
         <f>SUM(F356:F358)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S18" s="102"/>
       <c r="T18" s="101"/>
@@ -4150,11 +4160,13 @@
         <v>15</v>
       </c>
       <c r="F19" s="30">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G19" s="84"/>
       <c r="H19" s="84"/>
-      <c r="I19" s="99"/>
+      <c r="I19" s="99">
+        <v>2</v>
+      </c>
       <c r="J19" s="76"/>
       <c r="K19" s="33"/>
       <c r="L19" s="33"/>
@@ -4180,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="83" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H20" s="84">
         <v>45883</v>
@@ -4204,13 +4216,13 @@
         <v>17</v>
       </c>
       <c r="C21" s="107" t="s">
+        <v>294</v>
+      </c>
+      <c r="D21" s="107" t="s">
         <v>295</v>
       </c>
-      <c r="D21" s="107" t="s">
-        <v>296</v>
-      </c>
       <c r="E21" s="108" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F21" s="109">
         <v>0</v>
@@ -4238,16 +4250,16 @@
         <v>17</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D22" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F22" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G22" s="87">
         <v>45932</v>
@@ -4306,7 +4318,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="87" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H24" s="84">
         <v>45911</v>
@@ -4330,13 +4342,13 @@
         <v>17</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D25" s="28" t="s">
         <v>94</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F25" s="30">
         <v>1</v>
@@ -4367,7 +4379,7 @@
       </c>
       <c r="F26" s="36">
         <f>SUM(F8:F25)-SUM(F5:F7)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G26" s="80"/>
       <c r="H26" s="92"/>
@@ -4496,7 +4508,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="15">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G32" s="80"/>
       <c r="H32" s="94"/>
@@ -4557,11 +4569,13 @@
         <v>4</v>
       </c>
       <c r="F35" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G35" s="83"/>
       <c r="H35" s="91"/>
-      <c r="I35" s="89"/>
+      <c r="I35" s="89">
+        <v>1</v>
+      </c>
       <c r="J35" s="76"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -4768,7 +4782,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="87" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H44" s="91">
         <v>45876</v>
@@ -4787,13 +4801,13 @@
         <v>17</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D45" s="28" t="s">
         <v>70</v>
       </c>
       <c r="E45" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F45" s="30">
         <v>2</v>
@@ -4855,7 +4869,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="87" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H47" s="91">
         <v>45904</v>
@@ -4874,16 +4888,16 @@
         <v>17</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D48" s="28" t="s">
         <v>24</v>
       </c>
       <c r="E48" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F48" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G48" s="91">
         <v>45904</v>
@@ -4915,7 +4929,7 @@
         <v>1</v>
       </c>
       <c r="G49" s="91" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H49" s="91">
         <v>45904</v>
@@ -4934,16 +4948,16 @@
         <v>17</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D50" s="28" t="s">
         <v>89</v>
       </c>
       <c r="E50" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F50" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G50" s="91">
         <v>45904</v>
@@ -5012,7 +5026,7 @@
       </c>
       <c r="F53" s="36">
         <f>SUM(F35:F52)-SUM(F32:F34)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G53" s="80"/>
       <c r="H53" s="92"/>
@@ -5136,7 +5150,7 @@
         <v>4</v>
       </c>
       <c r="F59" s="15">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G59" s="80"/>
       <c r="H59" s="92"/>
@@ -5325,7 +5339,7 @@
         <v>0</v>
       </c>
       <c r="G67" s="87" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H67" s="91">
         <v>45904</v>
@@ -5344,16 +5358,16 @@
         <v>16</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D68" s="28" t="s">
         <v>36</v>
       </c>
       <c r="E68" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F68" s="30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G68" s="91">
         <v>45904</v>
@@ -5446,7 +5460,7 @@
         <v>0</v>
       </c>
       <c r="G72" s="83" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H72" s="91">
         <v>45897</v>
@@ -5465,13 +5479,13 @@
         <v>17</v>
       </c>
       <c r="C73" s="28" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D73" s="28" t="s">
         <v>87</v>
       </c>
       <c r="E73" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F73" s="30">
         <v>3</v>
@@ -5533,7 +5547,7 @@
         <v>0</v>
       </c>
       <c r="G75" s="87" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H75" s="91">
         <v>45890</v>
@@ -5552,13 +5566,13 @@
         <v>17</v>
       </c>
       <c r="C76" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="D76" s="28" t="s">
         <v>297</v>
       </c>
-      <c r="D76" s="28" t="s">
-        <v>298</v>
-      </c>
       <c r="E76" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F76" s="30">
         <v>3</v>
@@ -5593,7 +5607,7 @@
         <v>1</v>
       </c>
       <c r="G77" s="87" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H77" s="91">
         <v>45946</v>
@@ -5612,13 +5626,13 @@
         <v>17</v>
       </c>
       <c r="C78" s="28" t="s">
+        <v>462</v>
+      </c>
+      <c r="D78" s="28" t="s">
         <v>463</v>
       </c>
-      <c r="D78" s="28" t="s">
-        <v>464</v>
-      </c>
       <c r="E78" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F78" s="30">
         <v>2</v>
@@ -5663,7 +5677,7 @@
       </c>
       <c r="F80" s="36">
         <f>SUM(F62:F79)-SUM(F59:F61)</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G80" s="80"/>
       <c r="H80" s="92"/>
@@ -5787,7 +5801,7 @@
         <v>8</v>
       </c>
       <c r="F86" s="15">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G86" s="80"/>
       <c r="H86" s="94"/>
@@ -5949,7 +5963,7 @@
         <v>0</v>
       </c>
       <c r="G93" s="91" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H93" s="91">
         <v>45876</v>
@@ -5968,13 +5982,13 @@
         <v>16</v>
       </c>
       <c r="C94" s="28" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D94" s="28" t="s">
         <v>24</v>
       </c>
       <c r="E94" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F94" s="30">
         <v>0</v>
@@ -6006,11 +6020,13 @@
         <v>19</v>
       </c>
       <c r="F95" s="30">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G95" s="91"/>
       <c r="H95" s="91"/>
-      <c r="I95" s="90"/>
+      <c r="I95" s="90">
+        <v>3</v>
+      </c>
       <c r="J95" s="76"/>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
@@ -6124,7 +6140,7 @@
         <v>1</v>
       </c>
       <c r="G100" s="87" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H100" s="91">
         <v>45918</v>
@@ -6143,13 +6159,13 @@
         <v>17</v>
       </c>
       <c r="C101" s="28" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D101" s="28" t="s">
         <v>169</v>
       </c>
       <c r="E101" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F101" s="30">
         <v>4</v>
@@ -6211,7 +6227,7 @@
         <v>0</v>
       </c>
       <c r="G103" s="87" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H103" s="91">
         <v>45911</v>
@@ -6230,13 +6246,13 @@
         <v>17</v>
       </c>
       <c r="C104" s="28" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D104" s="28" t="s">
         <v>82</v>
       </c>
       <c r="E104" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F104" s="30">
         <v>5</v>
@@ -6298,7 +6314,7 @@
       </c>
       <c r="F107" s="36">
         <f>SUM(F89:F106)-SUM(F86:F88)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G107" s="80"/>
       <c r="H107" s="92"/>
@@ -6422,11 +6438,13 @@
         <v>1</v>
       </c>
       <c r="F113" s="15">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G113" s="80"/>
       <c r="H113" s="94"/>
-      <c r="I113" s="90"/>
+      <c r="I113" s="90">
+        <v>1</v>
+      </c>
       <c r="J113" s="76"/>
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
@@ -6554,11 +6572,13 @@
         <v>19</v>
       </c>
       <c r="F119" s="30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G119" s="87"/>
       <c r="H119" s="91"/>
-      <c r="I119" s="90"/>
+      <c r="I119" s="90">
+        <v>1</v>
+      </c>
       <c r="J119" s="76"/>
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
@@ -6581,7 +6601,7 @@
         <v>20</v>
       </c>
       <c r="F120" s="30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G120" s="87"/>
       <c r="H120" s="91"/>
@@ -6611,7 +6631,7 @@
         <v>1</v>
       </c>
       <c r="G121" s="86" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H121" s="94">
         <v>45974</v>
@@ -6630,13 +6650,13 @@
         <v>16</v>
       </c>
       <c r="C122" s="28" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D122" s="28" t="s">
         <v>97</v>
       </c>
       <c r="E122" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F122" s="30">
         <v>0</v>
@@ -6732,7 +6752,7 @@
         <v>1</v>
       </c>
       <c r="G126" s="83" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H126" s="91">
         <v>45890</v>
@@ -6751,13 +6771,13 @@
         <v>17</v>
       </c>
       <c r="C127" s="107" t="s">
+        <v>407</v>
+      </c>
+      <c r="D127" s="107" t="s">
         <v>408</v>
       </c>
-      <c r="D127" s="107" t="s">
-        <v>409</v>
-      </c>
       <c r="E127" s="108" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F127" s="109">
         <v>2</v>
@@ -6782,13 +6802,13 @@
         <v>17</v>
       </c>
       <c r="C128" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D128" s="28" t="s">
         <v>209</v>
       </c>
       <c r="E128" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F128" s="30">
         <v>0</v>
@@ -6823,7 +6843,7 @@
         <v>2</v>
       </c>
       <c r="G129" s="87" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H129" s="91">
         <v>45890</v>
@@ -6842,16 +6862,16 @@
         <v>17</v>
       </c>
       <c r="C130" s="28" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D130" s="28" t="s">
         <v>69</v>
       </c>
       <c r="E130" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F130" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G130" s="87">
         <v>45890</v>
@@ -6910,7 +6930,7 @@
         <v>1</v>
       </c>
       <c r="G132" s="87" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H132" s="91">
         <v>45932</v>
@@ -6929,13 +6949,13 @@
         <v>17</v>
       </c>
       <c r="C133" s="28" t="s">
+        <v>457</v>
+      </c>
+      <c r="D133" s="28" t="s">
         <v>458</v>
       </c>
-      <c r="D133" s="28" t="s">
-        <v>459</v>
-      </c>
       <c r="E133" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F133" s="30">
         <v>0</v>
@@ -6963,7 +6983,7 @@
       </c>
       <c r="F134" s="36">
         <f>SUM(F116:F133)-SUM(F113:F115)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G134" s="80"/>
       <c r="H134" s="92"/>
@@ -7090,7 +7110,7 @@
         <v>9</v>
       </c>
       <c r="G140" s="80" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H140" s="94">
         <v>45911</v>
@@ -7110,10 +7130,10 @@
       </c>
       <c r="C141" s="116"/>
       <c r="D141" s="116" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E141" s="117" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F141" s="116">
         <v>11</v>
@@ -7139,19 +7159,21 @@
       </c>
       <c r="C142" s="21"/>
       <c r="D142" s="21" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E142" s="22" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F142" s="21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G142" s="86">
         <v>45974</v>
       </c>
       <c r="H142" s="92"/>
-      <c r="I142" s="92"/>
+      <c r="I142" s="92">
+        <v>2</v>
+      </c>
       <c r="J142" s="76"/>
       <c r="K142" s="1"/>
       <c r="L142" s="1"/>
@@ -7272,7 +7294,7 @@
         <v>1</v>
       </c>
       <c r="F147" s="30">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G147" s="87"/>
       <c r="H147" s="91"/>
@@ -7302,7 +7324,7 @@
         <v>2</v>
       </c>
       <c r="G148" s="87" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H148" s="91">
         <v>45974</v>
@@ -7321,22 +7343,24 @@
         <v>16</v>
       </c>
       <c r="C149" s="28" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D149" s="28" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E149" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F149" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G149" s="87">
         <v>45974</v>
       </c>
       <c r="H149" s="91"/>
-      <c r="I149" s="90"/>
+      <c r="I149" s="90">
+        <v>1</v>
+      </c>
       <c r="J149" s="76"/>
       <c r="K149" s="1"/>
       <c r="L149" s="1"/>
@@ -7420,7 +7444,7 @@
         <v>18</v>
       </c>
       <c r="F153" s="30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G153" s="83"/>
       <c r="H153" s="91"/>
@@ -7450,7 +7474,7 @@
         <v>0</v>
       </c>
       <c r="G154" s="87" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H154" s="91">
         <v>45911</v>
@@ -7469,13 +7493,13 @@
         <v>17</v>
       </c>
       <c r="C155" s="28" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D155" s="28" t="s">
         <v>139</v>
       </c>
       <c r="E155" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F155" s="30">
         <v>2</v>
@@ -7534,11 +7558,13 @@
         <v>4</v>
       </c>
       <c r="F157" s="30">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G157" s="87"/>
       <c r="H157" s="91"/>
-      <c r="I157" s="90"/>
+      <c r="I157" s="90">
+        <v>1</v>
+      </c>
       <c r="J157" s="76"/>
       <c r="K157" s="1"/>
       <c r="L157" s="1"/>
@@ -7608,7 +7634,7 @@
       </c>
       <c r="F161" s="36">
         <f>SUM(F143:F160)-SUM(F140:F142)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G161" s="80"/>
       <c r="H161" s="92"/>
@@ -7735,7 +7761,7 @@
         <v>14</v>
       </c>
       <c r="G167" s="80" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H167" s="94">
         <v>45953</v>
@@ -7758,16 +7784,18 @@
         <v>97</v>
       </c>
       <c r="E168" s="22" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F168" s="21">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G168" s="86">
         <v>45953</v>
       </c>
       <c r="H168" s="92"/>
-      <c r="I168" s="92"/>
+      <c r="I168" s="92">
+        <v>2</v>
+      </c>
       <c r="J168" s="76"/>
       <c r="K168" s="1"/>
       <c r="L168" s="1"/>
@@ -7807,7 +7835,7 @@
         <v>5</v>
       </c>
       <c r="F170" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G170" s="83"/>
       <c r="H170" s="91"/>
@@ -7878,7 +7906,7 @@
         <v>3</v>
       </c>
       <c r="F173" s="30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G173" s="83"/>
       <c r="H173" s="91"/>
@@ -7908,7 +7936,7 @@
         <v>0</v>
       </c>
       <c r="G174" s="91" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H174" s="91">
         <v>45897</v>
@@ -7927,13 +7955,13 @@
         <v>16</v>
       </c>
       <c r="C175" s="107" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D175" s="107" t="s">
         <v>97</v>
       </c>
       <c r="E175" s="108" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F175" s="109">
         <v>0</v>
@@ -7958,13 +7986,13 @@
         <v>16</v>
       </c>
       <c r="C176" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="D176" s="28" t="s">
         <v>474</v>
       </c>
-      <c r="D176" s="28" t="s">
-        <v>475</v>
-      </c>
       <c r="E176" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F176" s="30">
         <v>0</v>
@@ -8057,7 +8085,7 @@
         <v>56</v>
       </c>
       <c r="F180" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G180" s="87"/>
       <c r="H180" s="91"/>
@@ -8141,7 +8169,7 @@
         <v>0</v>
       </c>
       <c r="G183" s="87" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H183" s="91">
         <v>45953</v>
@@ -8160,13 +8188,13 @@
         <v>17</v>
       </c>
       <c r="C184" s="28" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D184" s="28" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E184" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F184" s="30">
         <v>0</v>
@@ -8201,7 +8229,7 @@
         <v>0</v>
       </c>
       <c r="G185" s="83" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H185" s="91">
         <v>45876</v>
@@ -8220,13 +8248,13 @@
         <v>17</v>
       </c>
       <c r="C186" s="107" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D186" s="107" t="s">
         <v>133</v>
       </c>
       <c r="E186" s="108" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F186" s="109">
         <v>0</v>
@@ -8251,13 +8279,13 @@
         <v>17</v>
       </c>
       <c r="C187" s="28" t="s">
+        <v>475</v>
+      </c>
+      <c r="D187" s="28" t="s">
         <v>476</v>
       </c>
-      <c r="D187" s="28" t="s">
-        <v>477</v>
-      </c>
       <c r="E187" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F187" s="30">
         <v>1</v>
@@ -8285,7 +8313,7 @@
       </c>
       <c r="F188" s="36">
         <f>SUM(F170:F187)-SUM(F167:F169)</f>
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="G188" s="87"/>
       <c r="H188" s="91"/>
@@ -8409,7 +8437,7 @@
         <v>1</v>
       </c>
       <c r="F194" s="15">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G194" s="80"/>
       <c r="H194" s="94"/>
@@ -8488,7 +8516,7 @@
         <v>14</v>
       </c>
       <c r="C198" s="28" t="s">
-        <v>272</v>
+        <v>487</v>
       </c>
       <c r="D198" s="28" t="s">
         <v>22</v>
@@ -8497,11 +8525,13 @@
         <v>1</v>
       </c>
       <c r="F198" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G198" s="87"/>
       <c r="H198" s="90"/>
-      <c r="I198" s="90"/>
+      <c r="I198" s="90">
+        <v>1</v>
+      </c>
       <c r="J198" s="76"/>
       <c r="K198" s="1"/>
       <c r="L198" s="1"/>
@@ -8532,7 +8562,7 @@
         <v>16</v>
       </c>
       <c r="C200" s="28" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D200" s="28" t="s">
         <v>155</v>
@@ -8541,11 +8571,13 @@
         <v>1</v>
       </c>
       <c r="F200" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G200" s="83"/>
       <c r="H200" s="90"/>
-      <c r="I200" s="90"/>
+      <c r="I200" s="90">
+        <v>1</v>
+      </c>
       <c r="J200" s="76"/>
       <c r="K200" s="1"/>
       <c r="L200" s="1"/>
@@ -8559,7 +8591,7 @@
         <v>16</v>
       </c>
       <c r="C201" s="28" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D201" s="28" t="s">
         <v>18</v>
@@ -8586,7 +8618,7 @@
         <v>16</v>
       </c>
       <c r="C202" s="28" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D202" s="28" t="s">
         <v>22</v>
@@ -8664,20 +8696,22 @@
         <v>17</v>
       </c>
       <c r="C206" s="28" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D206" s="28" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="E206" s="29">
         <v>1</v>
       </c>
       <c r="F206" s="30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G206" s="87"/>
       <c r="H206" s="90"/>
-      <c r="I206" s="90"/>
+      <c r="I206" s="90">
+        <v>1</v>
+      </c>
       <c r="J206" s="76"/>
       <c r="K206" s="1"/>
       <c r="L206" s="1"/>
@@ -8691,7 +8725,7 @@
         <v>17</v>
       </c>
       <c r="C207" s="28" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D207" s="28" t="s">
         <v>123</v>
@@ -8700,7 +8734,7 @@
         <v>1</v>
       </c>
       <c r="F207" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G207" s="83"/>
       <c r="H207" s="90"/>
@@ -8718,7 +8752,7 @@
         <v>17</v>
       </c>
       <c r="C208" s="28" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D208" s="28" t="s">
         <v>90</v>
@@ -8745,7 +8779,7 @@
         <v>17</v>
       </c>
       <c r="C209" s="28" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D209" s="28" t="s">
         <v>195</v>
@@ -8754,11 +8788,13 @@
         <v>1</v>
       </c>
       <c r="F209" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G209" s="87"/>
       <c r="H209" s="91"/>
-      <c r="I209" s="90"/>
+      <c r="I209" s="90">
+        <v>1</v>
+      </c>
       <c r="J209" s="76"/>
       <c r="K209" s="1"/>
       <c r="L209" s="1"/>
@@ -8772,20 +8808,22 @@
         <v>17</v>
       </c>
       <c r="C210" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="D210" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="D210" s="28" t="s">
-        <v>280</v>
-      </c>
       <c r="E210" s="29">
         <v>1</v>
       </c>
       <c r="F210" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G210" s="87"/>
       <c r="H210" s="90"/>
-      <c r="I210" s="90"/>
+      <c r="I210" s="90">
+        <v>1</v>
+      </c>
       <c r="J210" s="76"/>
       <c r="K210" s="1"/>
       <c r="L210" s="1"/>
@@ -8872,7 +8910,7 @@
       </c>
       <c r="F215" s="36">
         <f>SUM(F197:F214)-SUM(F194:F196)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G215" s="80"/>
       <c r="H215" s="92"/>
@@ -8999,7 +9037,7 @@
         <v>6</v>
       </c>
       <c r="G221" s="80" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H221" s="94">
         <v>45890</v>
@@ -9022,16 +9060,18 @@
         <v>121</v>
       </c>
       <c r="E222" s="22" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F222" s="21">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G222" s="94">
         <v>45890</v>
       </c>
       <c r="H222" s="92"/>
-      <c r="I222" s="89"/>
+      <c r="I222" s="89">
+        <v>1</v>
+      </c>
       <c r="J222" s="76"/>
       <c r="K222" s="1"/>
       <c r="L222" s="1"/>
@@ -9136,7 +9176,7 @@
         <v>81</v>
       </c>
       <c r="D227" s="107" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E227" s="108">
         <v>1</v>
@@ -9145,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="G227" s="83" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H227" s="91">
         <v>45918</v>
@@ -9164,22 +9204,24 @@
         <v>16</v>
       </c>
       <c r="C228" s="28" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D228" s="28" t="s">
         <v>97</v>
       </c>
       <c r="E228" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F228" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G228" s="87">
         <v>45918</v>
       </c>
       <c r="H228" s="91"/>
-      <c r="I228" s="89"/>
+      <c r="I228" s="89">
+        <v>1</v>
+      </c>
       <c r="J228" s="1"/>
       <c r="K228" s="1"/>
       <c r="L228" s="1"/>
@@ -9223,7 +9265,7 @@
         <v>177</v>
       </c>
       <c r="D230" s="107" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E230" s="108">
         <v>4</v>
@@ -9232,7 +9274,7 @@
         <v>0</v>
       </c>
       <c r="G230" s="87" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H230" s="91">
         <v>45876</v>
@@ -9251,13 +9293,13 @@
         <v>16</v>
       </c>
       <c r="C231" s="107" t="s">
+        <v>291</v>
+      </c>
+      <c r="D231" s="107" t="s">
         <v>292</v>
       </c>
-      <c r="D231" s="107" t="s">
-        <v>293</v>
-      </c>
       <c r="E231" s="108" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F231" s="109">
         <v>1</v>
@@ -9282,13 +9324,13 @@
         <v>16</v>
       </c>
       <c r="C232" s="28" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D232" s="28" t="s">
         <v>85</v>
       </c>
       <c r="E232" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F232" s="30">
         <v>0</v>
@@ -9368,7 +9410,7 @@
         <v>154</v>
       </c>
       <c r="D235" s="28" t="s">
-        <v>339</v>
+        <v>244</v>
       </c>
       <c r="E235" s="29">
         <v>8</v>
@@ -9431,7 +9473,7 @@
         <v>0</v>
       </c>
       <c r="G237" s="87" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H237" s="91">
         <v>45911</v>
@@ -9450,13 +9492,13 @@
         <v>17</v>
       </c>
       <c r="C238" s="28" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D238" s="28" t="s">
         <v>68</v>
       </c>
       <c r="E238" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F238" s="30">
         <v>3</v>
@@ -9654,7 +9696,7 @@
         <v>14</v>
       </c>
       <c r="G248" s="80" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H248" s="94">
         <v>45918</v>
@@ -9677,16 +9719,18 @@
         <v>24</v>
       </c>
       <c r="E249" s="22" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F249" s="21">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="G249" s="86">
         <v>45918</v>
       </c>
       <c r="H249" s="92"/>
-      <c r="I249" s="92"/>
+      <c r="I249" s="92">
+        <v>4</v>
+      </c>
       <c r="J249" s="1"/>
       <c r="K249" s="1"/>
       <c r="L249" s="1"/>
@@ -9726,7 +9770,7 @@
         <v>1</v>
       </c>
       <c r="F251" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G251" s="83"/>
       <c r="H251" s="91"/>
@@ -9791,17 +9835,19 @@
         <v>159</v>
       </c>
       <c r="D254" s="28" t="s">
-        <v>64</v>
+        <v>218</v>
       </c>
       <c r="E254" s="29">
         <v>1</v>
       </c>
       <c r="F254" s="30">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G254" s="83"/>
       <c r="H254" s="91"/>
-      <c r="I254" s="90"/>
+      <c r="I254" s="90">
+        <v>2</v>
+      </c>
       <c r="J254" s="1"/>
       <c r="K254" s="1"/>
       <c r="L254" s="1"/>
@@ -9827,7 +9873,7 @@
         <v>0</v>
       </c>
       <c r="G255" s="91" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H255" s="91">
         <v>45890</v>
@@ -9846,13 +9892,13 @@
         <v>16</v>
       </c>
       <c r="C256" s="28" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D256" s="28" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E256" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F256" s="30">
         <v>2</v>
@@ -10002,7 +10048,7 @@
         <v>0</v>
       </c>
       <c r="G262" s="87" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H262" s="91">
         <v>45946</v>
@@ -10021,16 +10067,16 @@
         <v>17</v>
       </c>
       <c r="C263" s="28" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D263" s="28" t="s">
         <v>172</v>
       </c>
       <c r="E263" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F263" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G263" s="87">
         <v>45946</v>
@@ -10062,7 +10108,7 @@
         <v>0</v>
       </c>
       <c r="G264" s="87" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H264" s="91">
         <v>45953</v>
@@ -10081,22 +10127,24 @@
         <v>17</v>
       </c>
       <c r="C265" s="28" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D265" s="28" t="s">
         <v>23</v>
       </c>
       <c r="E265" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F265" s="30">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G265" s="87">
         <v>45953</v>
       </c>
       <c r="H265" s="91"/>
-      <c r="I265" s="90"/>
+      <c r="I265" s="90">
+        <v>1</v>
+      </c>
       <c r="J265" s="1"/>
       <c r="K265" s="1"/>
       <c r="L265" s="1"/>
@@ -10113,7 +10161,7 @@
         <v>142</v>
       </c>
       <c r="D266" s="107" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E266" s="108">
         <v>14</v>
@@ -10122,7 +10170,7 @@
         <v>0</v>
       </c>
       <c r="G266" s="83" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H266" s="91">
         <v>45897</v>
@@ -10141,13 +10189,13 @@
         <v>17</v>
       </c>
       <c r="C267" s="28" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D267" s="28" t="s">
         <v>73</v>
       </c>
       <c r="E267" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F267" s="30">
         <v>7</v>
@@ -10192,7 +10240,7 @@
       </c>
       <c r="F269" s="36">
         <f>SUM(F251:F268)-SUM(F248:F250)</f>
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="G269" s="80"/>
       <c r="H269" s="92"/>
@@ -10319,7 +10367,7 @@
         <v>27</v>
       </c>
       <c r="G275" s="80" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H275" s="94">
         <v>45974</v>
@@ -10342,7 +10390,7 @@
         <v>69</v>
       </c>
       <c r="E276" s="22" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F276" s="21">
         <v>0</v>
@@ -10519,7 +10567,7 @@
         <v>0</v>
       </c>
       <c r="G283" s="87" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H283" s="91">
         <v>45876</v>
@@ -10538,16 +10586,16 @@
         <v>16</v>
       </c>
       <c r="C284" s="28" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D284" s="28" t="s">
         <v>84</v>
       </c>
       <c r="E284" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F284" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G284" s="87">
         <v>45876</v>
@@ -10667,7 +10715,7 @@
         <v>0</v>
       </c>
       <c r="G289" s="87" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H289" s="91">
         <v>45946</v>
@@ -10686,13 +10734,13 @@
         <v>17</v>
       </c>
       <c r="C290" s="28" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D290" s="28" t="s">
         <v>133</v>
       </c>
       <c r="E290" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F290" s="30">
         <v>2</v>
@@ -10751,11 +10799,13 @@
         <v>1</v>
       </c>
       <c r="F292" s="30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G292" s="87"/>
       <c r="H292" s="91"/>
-      <c r="I292" s="90"/>
+      <c r="I292" s="90">
+        <v>1</v>
+      </c>
       <c r="J292" s="1"/>
       <c r="K292" s="1"/>
       <c r="L292" s="1"/>
@@ -10825,7 +10875,7 @@
       </c>
       <c r="F296" s="36">
         <f>SUM(F278:F295)-SUM(F275:F276)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G296" s="91"/>
       <c r="H296" s="91"/>
@@ -10952,7 +11002,7 @@
         <v>6</v>
       </c>
       <c r="G302" s="80" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H302" s="91">
         <v>45890</v>
@@ -10975,7 +11025,7 @@
         <v>100</v>
       </c>
       <c r="E303" s="117" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F303" s="116">
         <v>14</v>
@@ -11004,16 +11054,18 @@
         <v>64</v>
       </c>
       <c r="E304" s="22" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F304" s="21">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G304" s="87">
         <v>45953</v>
       </c>
       <c r="H304" s="92"/>
-      <c r="I304" s="90"/>
+      <c r="I304" s="90">
+        <v>1</v>
+      </c>
       <c r="J304" s="1"/>
       <c r="K304" s="1"/>
       <c r="L304" s="1"/>
@@ -11137,7 +11189,7 @@
         <v>1</v>
       </c>
       <c r="G309" s="87" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H309" s="91">
         <v>45911</v>
@@ -11162,16 +11214,18 @@
         <v>26</v>
       </c>
       <c r="E310" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F310" s="30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G310" s="87">
         <v>45911</v>
       </c>
       <c r="H310" s="91"/>
-      <c r="I310" s="90"/>
+      <c r="I310" s="90">
+        <v>2</v>
+      </c>
       <c r="J310" s="1"/>
       <c r="K310" s="1"/>
       <c r="L310" s="1"/>
@@ -11197,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="G311" s="83" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H311" s="91">
         <v>45961</v>
@@ -11216,13 +11270,13 @@
         <v>16</v>
       </c>
       <c r="C312" s="28" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D312" s="28" t="s">
         <v>86</v>
       </c>
       <c r="E312" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F312" s="30">
         <v>0</v>
@@ -11301,7 +11355,7 @@
         <v>1</v>
       </c>
       <c r="G315" s="87" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H315" s="91">
         <v>45939</v>
@@ -11320,13 +11374,13 @@
         <v>17</v>
       </c>
       <c r="C316" s="28" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D316" s="28" t="s">
         <v>85</v>
       </c>
       <c r="E316" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F316" s="30">
         <v>0</v>
@@ -11358,7 +11412,7 @@
         <v>1</v>
       </c>
       <c r="F317" s="30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G317" s="87"/>
       <c r="H317" s="91"/>
@@ -11388,7 +11442,7 @@
         <v>0</v>
       </c>
       <c r="G318" s="83" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H318" s="91">
         <v>45911</v>
@@ -11407,13 +11461,13 @@
         <v>17</v>
       </c>
       <c r="C319" s="28" t="s">
+        <v>449</v>
+      </c>
+      <c r="D319" s="28" t="s">
         <v>450</v>
       </c>
-      <c r="D319" s="28" t="s">
-        <v>451</v>
-      </c>
       <c r="E319" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F319" s="30">
         <v>0</v>
@@ -11448,7 +11502,7 @@
         <v>0</v>
       </c>
       <c r="G320" s="87" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H320" s="91">
         <v>45890</v>
@@ -11467,13 +11521,13 @@
         <v>17</v>
       </c>
       <c r="C321" s="28" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D321" s="28" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E321" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F321" s="30">
         <v>4</v>
@@ -11518,7 +11572,7 @@
       </c>
       <c r="F323" s="36">
         <f>SUM(F305:F322)-SUM(F302:F304)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G323" s="80"/>
       <c r="H323" s="92"/>
@@ -11642,11 +11696,13 @@
         <v>1</v>
       </c>
       <c r="F329" s="15">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G329" s="83"/>
       <c r="H329" s="87"/>
-      <c r="I329" s="90"/>
+      <c r="I329" s="90">
+        <v>2</v>
+      </c>
       <c r="J329" s="1"/>
       <c r="K329" s="1"/>
       <c r="L329" s="1"/>
@@ -11694,7 +11750,7 @@
         <v>14</v>
       </c>
       <c r="C332" s="28" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D332" s="28" t="s">
         <v>150</v>
@@ -11819,7 +11875,7 @@
         <v>16</v>
       </c>
       <c r="C337" s="28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D337" s="28" t="s">
         <v>24</v>
@@ -11828,7 +11884,7 @@
         <v>1</v>
       </c>
       <c r="F337" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G337" s="87"/>
       <c r="H337" s="90"/>
@@ -11963,7 +12019,7 @@
         <v>17</v>
       </c>
       <c r="C344" s="28" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D344" s="28" t="s">
         <v>133</v>
@@ -11987,7 +12043,7 @@
         <v>17</v>
       </c>
       <c r="C345" s="107" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D345" s="107" t="s">
         <v>84</v>
@@ -11999,7 +12055,7 @@
         <v>0</v>
       </c>
       <c r="G345" s="87" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H345" s="91">
         <v>45932</v>
@@ -12015,13 +12071,13 @@
         <v>17</v>
       </c>
       <c r="C346" s="28" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D346" s="28" t="s">
         <v>179</v>
       </c>
       <c r="E346" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F346" s="30">
         <v>2</v>
@@ -12088,7 +12144,7 @@
       </c>
       <c r="F350" s="36">
         <f>SUM(F332:F349)-SUM(F329:F331)</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G350" s="83"/>
       <c r="H350" s="90"/>
@@ -12170,11 +12226,13 @@
         <v>5</v>
       </c>
       <c r="F356" s="15">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G356" s="1"/>
       <c r="H356" s="103"/>
-      <c r="I356" s="1"/>
+      <c r="I356" s="1">
+        <v>2</v>
+      </c>
       <c r="J356" s="1"/>
     </row>
     <row r="357" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -12274,82 +12332,98 @@
       <c r="J362" s="1"/>
     </row>
     <row r="363" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B363" s="28" t="s">
+      <c r="B363" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="C363" s="28" t="s">
+      <c r="C363" s="107" t="s">
         <v>251</v>
       </c>
-      <c r="D363" s="28" t="s">
+      <c r="D363" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="E363" s="29">
+      <c r="E363" s="108">
         <v>4</v>
       </c>
-      <c r="F363" s="30">
-        <v>1</v>
-      </c>
-      <c r="G363" s="1"/>
-      <c r="H363" s="103"/>
+      <c r="F363" s="109">
+        <v>1</v>
+      </c>
+      <c r="G363" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="H363" s="103">
+        <v>45988</v>
+      </c>
       <c r="I363" s="1"/>
       <c r="J363" s="1"/>
     </row>
     <row r="364" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B364" s="107" t="s">
+      <c r="B364" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C364" s="107" t="s">
-        <v>175</v>
-      </c>
-      <c r="D364" s="107" t="s">
-        <v>121</v>
-      </c>
-      <c r="E364" s="108">
-        <v>1</v>
-      </c>
-      <c r="F364" s="109">
-        <v>0</v>
-      </c>
-      <c r="G364" s="103" t="s">
-        <v>289</v>
-      </c>
-      <c r="H364" s="103">
-        <v>45904</v>
-      </c>
+      <c r="C364" s="28" t="s">
+        <v>489</v>
+      </c>
+      <c r="D364" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E364" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="F364" s="30">
+        <v>1</v>
+      </c>
+      <c r="G364" s="103">
+        <v>45988</v>
+      </c>
+      <c r="H364" s="103"/>
       <c r="I364" s="1"/>
       <c r="J364" s="1"/>
     </row>
     <row r="365" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B365" s="28" t="s">
+      <c r="B365" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="C365" s="28" t="s">
-        <v>412</v>
-      </c>
-      <c r="D365" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="E365" s="29" t="s">
+      <c r="C365" s="107" t="s">
+        <v>175</v>
+      </c>
+      <c r="D365" s="107" t="s">
+        <v>121</v>
+      </c>
+      <c r="E365" s="108">
+        <v>1</v>
+      </c>
+      <c r="F365" s="109">
+        <v>0</v>
+      </c>
+      <c r="G365" s="103" t="s">
         <v>288</v>
       </c>
-      <c r="F365" s="30">
-        <v>2</v>
-      </c>
-      <c r="G365" s="103">
+      <c r="H365" s="103">
         <v>45904</v>
       </c>
-      <c r="H365" s="103"/>
       <c r="I365" s="1"/>
       <c r="J365" s="1"/>
     </row>
     <row r="366" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B366" s="28"/>
-      <c r="C366" s="28"/>
-      <c r="D366" s="28"/>
-      <c r="E366" s="29"/>
-      <c r="F366" s="30"/>
-      <c r="G366" s="103"/>
-      <c r="H366" s="1"/>
+      <c r="B366" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C366" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="D366" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="E366" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="F366" s="30">
+        <v>2</v>
+      </c>
+      <c r="G366" s="103">
+        <v>45904</v>
+      </c>
+      <c r="H366" s="103"/>
       <c r="I366" s="1"/>
       <c r="J366" s="1"/>
     </row>
@@ -12378,7 +12452,7 @@
         <v>27</v>
       </c>
       <c r="F368" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G368" s="1"/>
       <c r="H368" s="103"/>
@@ -12399,11 +12473,13 @@
         <v>12</v>
       </c>
       <c r="F369" s="30">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G369" s="103"/>
       <c r="H369" s="103"/>
-      <c r="I369" s="1"/>
+      <c r="I369" s="1">
+        <v>1</v>
+      </c>
       <c r="J369" s="1"/>
     </row>
     <row r="370" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -12414,17 +12490,19 @@
         <v>253</v>
       </c>
       <c r="D370" s="28" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E370" s="29">
         <v>5</v>
       </c>
       <c r="F370" s="30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G370" s="103"/>
       <c r="H370" s="1"/>
-      <c r="I370" s="1"/>
+      <c r="I370" s="1">
+        <v>1</v>
+      </c>
       <c r="J370" s="1"/>
     </row>
     <row r="371" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -12465,7 +12543,7 @@
         <v>0</v>
       </c>
       <c r="G372" s="103" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H372" s="103">
         <v>45890</v>
@@ -12478,13 +12556,13 @@
         <v>17</v>
       </c>
       <c r="C373" s="107" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D373" s="107" t="s">
         <v>160</v>
       </c>
       <c r="E373" s="108" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F373" s="109">
         <v>0</v>
@@ -12503,13 +12581,13 @@
         <v>17</v>
       </c>
       <c r="C374" s="28" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D374" s="28" t="s">
         <v>97</v>
       </c>
       <c r="E374" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F374" s="30">
         <v>5</v>
@@ -12553,7 +12631,7 @@
       </c>
       <c r="F377" s="36">
         <f>SUM(F359:F376)-SUM(F356:F358)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G377" s="1"/>
       <c r="H377" s="1"/>
@@ -12808,8 +12886,8 @@
   </sheetPr>
   <dimension ref="A1:IV22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12933,13 +13011,13 @@
         <v>1</v>
       </c>
       <c r="E7" s="25">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" s="26">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G7" s="27">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H7" s="52"/>
       <c r="I7" s="41"/>
@@ -12958,13 +13036,13 @@
         <v>31</v>
       </c>
       <c r="E8" s="25">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F8" s="26">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G8" s="27">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H8" s="52"/>
       <c r="I8" s="41"/>
@@ -12977,19 +13055,19 @@
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>25</v>
+        <v>247</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>201</v>
+        <v>248</v>
       </c>
       <c r="E9" s="25">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F9" s="56">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G9" s="57">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H9" s="118"/>
       <c r="I9" s="41"/>
@@ -13002,24 +13080,24 @@
         <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D10" s="55" t="s">
-        <v>248</v>
+        <v>25</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>201</v>
       </c>
       <c r="E10" s="25">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F10" s="26">
         <v>33</v>
       </c>
       <c r="G10" s="27">
-        <v>21</v>
-      </c>
-      <c r="H10" s="118"/>
+        <v>19</v>
+      </c>
+      <c r="H10" s="52"/>
       <c r="I10" s="41"/>
       <c r="J10" s="41"/>
-      <c r="K10" s="53"/>
+      <c r="K10" s="41"/>
     </row>
     <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="47"/>
@@ -13027,21 +13105,21 @@
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>236</v>
+        <v>54</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>270</v>
       </c>
       <c r="E11" s="25">
         <v>10</v>
       </c>
-      <c r="F11" s="26">
-        <v>36</v>
-      </c>
-      <c r="G11" s="27">
-        <v>26</v>
-      </c>
-      <c r="H11" s="52"/>
+      <c r="F11" s="56">
+        <v>33</v>
+      </c>
+      <c r="G11" s="57">
+        <v>23</v>
+      </c>
+      <c r="H11" s="118"/>
       <c r="I11" s="41"/>
       <c r="J11" s="41"/>
       <c r="K11" s="41"/>
@@ -13052,19 +13130,19 @@
         <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="55" t="s">
-        <v>270</v>
+        <v>51</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>206</v>
       </c>
       <c r="E12" s="25">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F12" s="26">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G12" s="27">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H12" s="52"/>
       <c r="I12" s="41"/>
@@ -13077,21 +13155,21 @@
         <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>246</v>
+        <v>21</v>
+      </c>
+      <c r="D13" s="55" t="s">
+        <v>191</v>
       </c>
       <c r="E13" s="25">
         <v>8</v>
       </c>
       <c r="F13" s="26">
+        <v>28</v>
+      </c>
+      <c r="G13" s="27">
         <v>20</v>
       </c>
-      <c r="G13" s="27">
-        <v>12</v>
-      </c>
-      <c r="H13" s="118"/>
+      <c r="H13" s="52"/>
       <c r="I13" s="41"/>
       <c r="J13" s="41"/>
       <c r="K13" s="41"/>
@@ -13102,19 +13180,19 @@
         <v>8</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="E14" s="25">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F14" s="26">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G14" s="27">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H14" s="52"/>
       <c r="I14" s="41"/>
@@ -13127,21 +13205,21 @@
         <v>9</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="55" t="s">
-        <v>191</v>
+        <v>52</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>53</v>
       </c>
       <c r="E15" s="25">
-        <v>5</v>
-      </c>
-      <c r="F15" s="56">
-        <v>24</v>
-      </c>
-      <c r="G15" s="57">
-        <v>19</v>
-      </c>
-      <c r="H15" s="118"/>
+        <v>6</v>
+      </c>
+      <c r="F15" s="26">
+        <v>22</v>
+      </c>
+      <c r="G15" s="27">
+        <v>16</v>
+      </c>
+      <c r="H15" s="52"/>
       <c r="I15" s="41"/>
       <c r="J15" s="41"/>
       <c r="K15" s="41"/>
@@ -13154,22 +13232,22 @@
       <c r="C16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="55" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F16" s="26">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G16" s="27">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H16" s="118"/>
       <c r="I16" s="41"/>
       <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
+      <c r="K16" s="53"/>
     </row>
     <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="47"/>
@@ -13183,10 +13261,10 @@
         <v>141</v>
       </c>
       <c r="E17" s="25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F17" s="26">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G17" s="27">
         <v>27</v>
@@ -13202,21 +13280,21 @@
         <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>53</v>
+        <v>66</v>
+      </c>
+      <c r="D18" s="55" t="s">
+        <v>246</v>
       </c>
       <c r="E18" s="25">
-        <v>2</v>
-      </c>
-      <c r="F18" s="26">
-        <v>16</v>
-      </c>
-      <c r="G18" s="27">
-        <v>14</v>
-      </c>
-      <c r="H18" s="52"/>
+        <v>3</v>
+      </c>
+      <c r="F18" s="56">
+        <v>21</v>
+      </c>
+      <c r="G18" s="57">
+        <v>18</v>
+      </c>
+      <c r="H18" s="118"/>
       <c r="I18" s="41"/>
       <c r="J18" s="41"/>
       <c r="K18" s="41"/>
@@ -13229,17 +13307,17 @@
       <c r="C19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="55" t="s">
+      <c r="D19" s="24" t="s">
         <v>34</v>
       </c>
       <c r="E19" s="25">
-        <v>-3</v>
-      </c>
-      <c r="F19" s="56">
-        <v>16</v>
-      </c>
-      <c r="G19" s="57">
+        <v>-5</v>
+      </c>
+      <c r="F19" s="26">
         <v>19</v>
+      </c>
+      <c r="G19" s="27">
+        <v>24</v>
       </c>
       <c r="H19" s="118"/>
       <c r="I19" s="41"/>
@@ -13258,15 +13336,15 @@
         <v>225</v>
       </c>
       <c r="E20" s="25">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="F20" s="26">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G20" s="27">
-        <v>27</v>
-      </c>
-      <c r="H20" s="52"/>
+        <v>38</v>
+      </c>
+      <c r="H20" s="118"/>
       <c r="I20" s="41"/>
       <c r="J20" s="41"/>
       <c r="K20" s="41"/>
@@ -13639,7 +13717,7 @@
   <dimension ref="A1:X71"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -13650,7 +13728,7 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B1" s="62" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C1" s="40"/>
       <c r="D1" s="40"/>
@@ -13738,21 +13816,21 @@
         <v>4</v>
       </c>
       <c r="D4" s="64" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E4" s="69" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F4" s="100">
         <v>-1</v>
       </c>
       <c r="G4" s="100" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H4" s="38"/>
       <c r="I4" s="38"/>
       <c r="J4" s="98" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K4" s="38"/>
       <c r="L4" s="38"/>
@@ -13780,21 +13858,21 @@
         <v>1</v>
       </c>
       <c r="D5" s="64" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E5" s="69" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F5" s="100">
         <v>0</v>
       </c>
       <c r="G5" s="100" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H5" s="38"/>
       <c r="I5" s="38"/>
       <c r="J5" s="98" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K5" s="38"/>
       <c r="L5" s="38"/>
@@ -13822,21 +13900,21 @@
         <v>1</v>
       </c>
       <c r="D6" s="64" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E6" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F6" s="100">
         <v>0</v>
       </c>
       <c r="G6" s="100" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H6" s="38"/>
       <c r="I6" s="38"/>
       <c r="J6" s="98" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K6" s="38"/>
       <c r="L6" s="38"/>
@@ -13864,21 +13942,21 @@
         <v>2</v>
       </c>
       <c r="D7" s="64" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E7" s="69" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F7" s="100">
         <v>1</v>
       </c>
       <c r="G7" s="100" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
       <c r="J7" s="98" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K7" s="38"/>
       <c r="L7" s="38"/>
@@ -13906,21 +13984,21 @@
         <v>0</v>
       </c>
       <c r="D8" s="100" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E8" s="68" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F8" s="64">
         <v>2</v>
       </c>
       <c r="G8" s="64" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H8" s="38"/>
       <c r="I8" s="38"/>
       <c r="J8" s="98" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K8" s="38"/>
       <c r="L8" s="38"/>
@@ -13948,21 +14026,21 @@
         <v>-2</v>
       </c>
       <c r="D9" s="100" t="s">
+        <v>436</v>
+      </c>
+      <c r="E9" s="68" t="s">
+        <v>421</v>
+      </c>
+      <c r="F9" s="64">
+        <v>1</v>
+      </c>
+      <c r="G9" s="64" t="s">
         <v>437</v>
-      </c>
-      <c r="E9" s="68" t="s">
-        <v>422</v>
-      </c>
-      <c r="F9" s="64">
-        <v>1</v>
-      </c>
-      <c r="G9" s="64" t="s">
-        <v>438</v>
       </c>
       <c r="H9" s="38"/>
       <c r="I9" s="38"/>
       <c r="J9" s="98" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K9" s="38"/>
       <c r="L9" s="38"/>
@@ -13990,21 +14068,21 @@
         <v>1</v>
       </c>
       <c r="D10" s="100" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E10" s="68" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F10" s="64">
         <v>1</v>
       </c>
       <c r="G10" s="64" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H10" s="38"/>
       <c r="I10" s="38"/>
       <c r="J10" s="98" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K10" s="38"/>
       <c r="L10" s="38"/>
@@ -14032,16 +14110,16 @@
         <v>2</v>
       </c>
       <c r="D11" s="64" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E11" s="68" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F11" s="64">
         <v>2</v>
       </c>
       <c r="G11" s="64" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H11" s="38"/>
       <c r="I11" s="38"/>
@@ -14066,22 +14144,22 @@
         <v>50</v>
       </c>
       <c r="B12" s="69" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C12" s="100">
         <v>-2</v>
       </c>
       <c r="D12" s="100" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E12" s="68" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F12" s="64">
         <v>-1</v>
       </c>
       <c r="G12" s="64" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H12" s="38"/>
       <c r="I12" s="38"/>
@@ -14112,16 +14190,16 @@
         <v>2</v>
       </c>
       <c r="D13" s="64" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E13" s="69" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F13" s="100">
         <v>1</v>
       </c>
       <c r="G13" s="100" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H13" s="38"/>
       <c r="I13" s="38"/>
@@ -14170,7 +14248,7 @@
     <row r="15" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A15" s="67"/>
       <c r="B15" s="63" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
@@ -14206,16 +14284,16 @@
         <v>-1</v>
       </c>
       <c r="D16" s="64" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E16" s="69" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F16" s="100">
         <v>-1</v>
       </c>
       <c r="G16" s="100" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H16" s="38"/>
       <c r="I16" s="38"/>
@@ -14300,7 +14378,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="64" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E19" s="70" t="s">
         <v>225</v>
@@ -14309,7 +14387,7 @@
         <v>-1</v>
       </c>
       <c r="G19" s="100" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H19" s="38"/>
       <c r="I19" s="38"/>
@@ -14340,16 +14418,16 @@
         <v>0</v>
       </c>
       <c r="D20" s="64" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E20" s="70" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F20" s="100">
         <v>-2</v>
       </c>
       <c r="G20" s="100" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H20" s="38"/>
       <c r="I20" s="38"/>
@@ -14380,16 +14458,16 @@
         <v>2</v>
       </c>
       <c r="D21" s="64" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E21" s="70" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F21" s="100">
         <v>0</v>
       </c>
       <c r="G21" s="100" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H21" s="38"/>
       <c r="I21" s="38"/>
@@ -14420,7 +14498,7 @@
         <v>-3</v>
       </c>
       <c r="D22" s="100" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E22" s="65" t="s">
         <v>201</v>
@@ -14429,7 +14507,7 @@
         <v>-1</v>
       </c>
       <c r="G22" s="64" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H22" s="38"/>
       <c r="I22" s="38"/>
@@ -14454,22 +14532,22 @@
         <v>259</v>
       </c>
       <c r="B23" s="65" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C23" s="64">
         <v>1</v>
       </c>
       <c r="D23" s="64" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E23" s="70" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F23" s="100">
         <v>-3</v>
       </c>
       <c r="G23" s="100" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H23" s="38"/>
       <c r="I23" s="38"/>
@@ -14494,22 +14572,22 @@
         <v>260</v>
       </c>
       <c r="B24" s="65" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C24" s="64">
         <v>3</v>
       </c>
       <c r="D24" s="64" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E24" s="70" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F24" s="100">
         <v>2</v>
       </c>
       <c r="G24" s="100" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H24" s="38"/>
       <c r="I24" s="38"/>
@@ -14540,16 +14618,16 @@
         <v>0</v>
       </c>
       <c r="D25" s="64" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E25" s="70" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F25" s="100">
         <v>-1</v>
       </c>
       <c r="G25" s="100" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H25" s="38"/>
       <c r="I25" s="38"/>
@@ -14580,16 +14658,16 @@
         <v>3</v>
       </c>
       <c r="D26" s="64" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E26" s="70" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F26" s="100">
         <v>2</v>
       </c>
       <c r="G26" s="100" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H26" s="38"/>
       <c r="I26" s="38"/>
@@ -14667,16 +14745,24 @@
       <c r="A29" s="67" t="s">
         <v>263</v>
       </c>
-      <c r="B29" s="65" t="s">
+      <c r="B29" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="C29" s="69"/>
-      <c r="D29" s="100"/>
+      <c r="C29" s="100">
+        <v>1</v>
+      </c>
+      <c r="D29" s="100" t="s">
+        <v>437</v>
+      </c>
       <c r="E29" s="65" t="s">
         <v>236</v>
       </c>
-      <c r="F29" s="68"/>
-      <c r="G29" s="64"/>
+      <c r="F29" s="64">
+        <v>1</v>
+      </c>
+      <c r="G29" s="64" t="s">
+        <v>438</v>
+      </c>
       <c r="H29" s="38"/>
       <c r="I29" s="38"/>
       <c r="J29" s="38"/>
@@ -14699,16 +14785,24 @@
       <c r="A30" s="67" t="s">
         <v>264</v>
       </c>
-      <c r="B30" s="65" t="s">
+      <c r="B30" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
+      <c r="C30" s="100">
+        <v>-2</v>
+      </c>
+      <c r="D30" s="100" t="s">
+        <v>471</v>
+      </c>
       <c r="E30" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="66"/>
-      <c r="G30" s="40"/>
+      <c r="F30" s="64">
+        <v>0</v>
+      </c>
+      <c r="G30" s="64" t="s">
+        <v>466</v>
+      </c>
       <c r="H30" s="38"/>
       <c r="I30" s="38"/>
       <c r="J30" s="38"/>
@@ -14731,16 +14825,24 @@
       <c r="A31" s="67" t="s">
         <v>265</v>
       </c>
-      <c r="B31" s="65" t="s">
+      <c r="B31" s="70" t="s">
         <v>246</v>
       </c>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
+      <c r="C31" s="100">
+        <v>-2</v>
+      </c>
+      <c r="D31" s="100" t="s">
+        <v>471</v>
+      </c>
       <c r="E31" s="65" t="s">
-        <v>426</v>
-      </c>
-      <c r="F31" s="66"/>
-      <c r="G31" s="40"/>
+        <v>425</v>
+      </c>
+      <c r="F31" s="64">
+        <v>1</v>
+      </c>
+      <c r="G31" s="64" t="s">
+        <v>442</v>
+      </c>
       <c r="H31" s="38"/>
       <c r="I31" s="38"/>
       <c r="J31" s="38"/>
@@ -14763,16 +14865,24 @@
       <c r="A32" s="67" t="s">
         <v>266</v>
       </c>
-      <c r="B32" s="65" t="s">
+      <c r="B32" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
+      <c r="C32" s="100">
+        <v>0</v>
+      </c>
+      <c r="D32" s="100" t="s">
+        <v>470</v>
+      </c>
       <c r="E32" s="65" t="s">
         <v>206</v>
       </c>
-      <c r="F32" s="66"/>
-      <c r="G32" s="40"/>
+      <c r="F32" s="64">
+        <v>0</v>
+      </c>
+      <c r="G32" s="64" t="s">
+        <v>440</v>
+      </c>
       <c r="H32" s="38"/>
       <c r="I32" s="38"/>
       <c r="J32" s="38"/>
@@ -14847,10 +14957,14 @@
       <c r="A35" s="67" t="s">
         <v>267</v>
       </c>
-      <c r="B35" s="70"/>
+      <c r="B35" s="65" t="s">
+        <v>425</v>
+      </c>
       <c r="C35" s="69"/>
       <c r="D35" s="100"/>
-      <c r="E35" s="65"/>
+      <c r="E35" s="65" t="s">
+        <v>206</v>
+      </c>
       <c r="F35" s="68"/>
       <c r="G35" s="64"/>
       <c r="H35" s="38"/>
@@ -14875,10 +14989,14 @@
       <c r="A36" s="67" t="s">
         <v>268</v>
       </c>
-      <c r="B36" s="65"/>
+      <c r="B36" s="65" t="s">
+        <v>31</v>
+      </c>
       <c r="C36" s="68"/>
       <c r="D36" s="64"/>
-      <c r="E36" s="70"/>
+      <c r="E36" s="65" t="s">
+        <v>236</v>
+      </c>
       <c r="F36" s="69"/>
       <c r="G36" s="100"/>
       <c r="H36" s="38"/>
@@ -14953,7 +15071,7 @@
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" s="67" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B39" s="65"/>
       <c r="C39" s="68"/>
@@ -15634,47 +15752,47 @@
   <sheetData>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J5" s="67" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="N5" s="67" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="O5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C6">
         <f>COUNTIF(Stats!D:D,'Player Count'!B6)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G6">
         <f>COUNTIF(Stats!D:D,'Player Count'!F6)</f>
         <v>2</v>
       </c>
       <c r="J6" s="67" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K6">
         <f>COUNTIF(Stats!D:D,'Player Count'!J6)</f>
@@ -15682,7 +15800,7 @@
       </c>
       <c r="M6" s="110"/>
       <c r="N6" s="67" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="O6">
         <f>COUNTIF(Stats!D:D,'Player Count'!N6)</f>
@@ -15692,21 +15810,21 @@
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C7">
         <f>COUNTIF(Stats!D:D,'Player Count'!B7)</f>
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G7">
         <f>COUNTIF(Stats!D:D,'Player Count'!F7)</f>
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K7">
         <f>COUNTIF(Stats!D:D,'Player Count'!J7)</f>
@@ -15714,7 +15832,7 @@
       </c>
       <c r="M7" s="110"/>
       <c r="N7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O7">
         <f>COUNTIF(Stats!D:D,'Player Count'!N7)</f>
@@ -15724,21 +15842,21 @@
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C8">
         <f>COUNTIF(Stats!D:D,'Player Count'!B8)</f>
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G8">
         <f>COUNTIF(Stats!D:D,'Player Count'!F8)</f>
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K8">
         <f>COUNTIF(Stats!D:D,'Player Count'!J8)</f>
@@ -15746,7 +15864,7 @@
       </c>
       <c r="M8" s="110"/>
       <c r="N8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="O8">
         <f>COUNTIF(Stats!D:D,'Player Count'!N8)</f>
@@ -15756,21 +15874,21 @@
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C9">
         <f>COUNTIF(Stats!D:D,'Player Count'!B9)</f>
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G9">
         <f>COUNTIF(Stats!D:D,'Player Count'!F9)</f>
         <v>2</v>
       </c>
       <c r="J9" s="67" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K9">
         <f>COUNTIF(Stats!D:D,'Player Count'!J9)</f>
@@ -15778,7 +15896,7 @@
       </c>
       <c r="M9" s="110"/>
       <c r="N9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O9">
         <f>COUNTIF(Stats!D:D,'Player Count'!N9)</f>
@@ -15788,21 +15906,21 @@
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C10">
         <f>COUNTIF(Stats!D:D,'Player Count'!B10)</f>
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G10">
         <f>COUNTIF(Stats!D:D,'Player Count'!F10)</f>
         <v>7</v>
       </c>
       <c r="J10" s="67" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K10">
         <f>COUNTIF(Stats!D:D,'Player Count'!J10)</f>
@@ -15810,7 +15928,7 @@
       </c>
       <c r="M10" s="110"/>
       <c r="N10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O10">
         <f>COUNTIF(Stats!D:D,'Player Count'!N10)</f>
@@ -15820,21 +15938,21 @@
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C11">
         <f>COUNTIF(Stats!D:D,'Player Count'!B11)</f>
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G11">
         <f>COUNTIF(Stats!D:D,'Player Count'!F11)</f>
         <v>2</v>
       </c>
       <c r="J11" s="67" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K11">
         <f>COUNTIF(Stats!D:D,'Player Count'!J11)</f>
@@ -15842,7 +15960,7 @@
       </c>
       <c r="M11" s="110"/>
       <c r="N11" s="67" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="O11">
         <f>COUNTIF(Stats!D:D,'Player Count'!N11)</f>
@@ -15852,21 +15970,21 @@
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C12">
         <f>COUNTIF(Stats!D:D,'Player Count'!B12)</f>
         <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G12">
         <f>COUNTIF(Stats!D:D,'Player Count'!F12)</f>
         <v>2</v>
       </c>
       <c r="J12" s="67" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K12">
         <f>COUNTIF(Stats!D:D,'Player Count'!J12)</f>
@@ -15874,7 +15992,7 @@
       </c>
       <c r="M12" s="110"/>
       <c r="N12" s="67" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O12">
         <f>COUNTIF(Stats!D:D,'Player Count'!N12)</f>
@@ -15884,21 +16002,21 @@
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C13">
         <f>COUNTIF(Stats!D:D,'Player Count'!B13)</f>
         <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G13">
         <f>COUNTIF(Stats!D:D,'Player Count'!F13)</f>
         <v>5</v>
       </c>
       <c r="J13" s="67" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K13">
         <f>COUNTIF(Stats!D:D,'Player Count'!J13)</f>
@@ -15906,7 +16024,7 @@
       </c>
       <c r="M13" s="110"/>
       <c r="N13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O13">
         <f>COUNTIF(Stats!D:D,'Player Count'!N13)</f>
@@ -15916,21 +16034,21 @@
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C14">
         <f>COUNTIF(Stats!D:D,'Player Count'!B14)</f>
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G14">
         <f>COUNTIF(Stats!D:D,'Player Count'!F14)</f>
         <v>0</v>
       </c>
       <c r="J14" s="67" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K14">
         <f>COUNTIF(Stats!D:D,'Player Count'!J14)</f>
@@ -15938,7 +16056,7 @@
       </c>
       <c r="M14" s="110"/>
       <c r="N14" s="67" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O14">
         <f>COUNTIF(Stats!D:D,'Player Count'!N14)</f>
@@ -15948,21 +16066,21 @@
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C15">
         <f>COUNTIF(Stats!D:D,'Player Count'!B15)</f>
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G15">
         <f>COUNTIF(Stats!D:D,'Player Count'!F15)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J15" s="67" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K15">
         <f>COUNTIF(Stats!D:D,'Player Count'!J15)</f>
@@ -15970,7 +16088,7 @@
       </c>
       <c r="M15" s="110"/>
       <c r="N15" s="67" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O15">
         <f>COUNTIF(Stats!D:D,'Player Count'!N15)</f>
@@ -15980,21 +16098,21 @@
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C16">
         <f>COUNTIF(Stats!D:D,'Player Count'!B16)</f>
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G16">
         <f>COUNTIF(Stats!D:D,'Player Count'!F16)</f>
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K16">
         <f>COUNTIF(Stats!D:D,'Player Count'!J16)</f>
@@ -16002,7 +16120,7 @@
       </c>
       <c r="M16" s="110"/>
       <c r="N16" s="67" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O16">
         <f>COUNTIF(Stats!D:D,'Player Count'!N16)</f>
@@ -16012,21 +16130,21 @@
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C17">
         <f>COUNTIF(Stats!D:D,'Player Count'!B17)</f>
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G17">
         <f>COUNTIF(Stats!D:D,'Player Count'!F17)</f>
         <v>3</v>
       </c>
       <c r="J17" s="67" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K17">
         <f>COUNTIF(Stats!D:D,'Player Count'!J17)</f>
@@ -16034,7 +16152,7 @@
       </c>
       <c r="M17" s="110"/>
       <c r="N17" s="67" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="O17">
         <f>COUNTIF(Stats!D:D,'Player Count'!N17)</f>
@@ -16044,21 +16162,21 @@
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C18">
         <f>COUNTIF(Stats!D:D,'Player Count'!B18)</f>
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G18">
         <f>COUNTIF(Stats!D:D,'Player Count'!F18)</f>
         <v>2</v>
       </c>
       <c r="J18" s="67" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K18">
         <f>COUNTIF(Stats!D:D,'Player Count'!J18)</f>
@@ -16066,7 +16184,7 @@
       </c>
       <c r="M18" s="110"/>
       <c r="N18" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="O18">
         <f>COUNTIF(Stats!D:D,'Player Count'!N18)</f>
@@ -16076,21 +16194,21 @@
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C19">
         <f>COUNTIF(Stats!D:D,'Player Count'!B19)</f>
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G19">
         <f>COUNTIF(Stats!D:D,'Player Count'!F19)</f>
         <v>1</v>
       </c>
       <c r="J19" s="67" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K19">
         <f>COUNTIF(Stats!D:D,'Player Count'!J19)</f>
@@ -16098,7 +16216,7 @@
       </c>
       <c r="M19" s="110"/>
       <c r="N19" s="67" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="O19">
         <f>COUNTIF(Stats!D:D,'Player Count'!N19)</f>
@@ -16108,21 +16226,21 @@
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C20">
         <f>COUNTIF(Stats!D:D,'Player Count'!B20)</f>
         <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G20">
         <f>COUNTIF(Stats!D:D,'Player Count'!F20)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" s="67" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K20">
         <f>COUNTIF(Stats!D:D,'Player Count'!J20)</f>
@@ -16130,7 +16248,7 @@
       </c>
       <c r="M20" s="110"/>
       <c r="N20" s="67" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="O20">
         <f>COUNTIF(Stats!D:D,'Player Count'!N20)</f>
@@ -16140,21 +16258,21 @@
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C21">
         <f>COUNTIF(Stats!D:D,'Player Count'!B21)</f>
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G21">
         <f>COUNTIF(Stats!D:D,'Player Count'!F21)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" s="67" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K21">
         <f>COUNTIF(Stats!D:D,'Player Count'!J21)</f>
@@ -16162,7 +16280,7 @@
       </c>
       <c r="M21" s="110"/>
       <c r="N21" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O21">
         <f>COUNTIF(Stats!D:D,'Player Count'!N21)</f>
@@ -16172,21 +16290,21 @@
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C22">
         <f>COUNTIF(Stats!D:D,'Player Count'!B22)</f>
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G22">
         <f>COUNTIF(Stats!D:D,'Player Count'!F22)</f>
         <v>6</v>
       </c>
       <c r="J22" s="67" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K22">
         <f>COUNTIF(Stats!D:D,'Player Count'!J22)</f>
@@ -16194,7 +16312,7 @@
       </c>
       <c r="M22" s="110"/>
       <c r="N22" s="67" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="O22">
         <f>COUNTIF(Stats!D:D,'Player Count'!N22)</f>
@@ -16204,21 +16322,21 @@
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C23">
         <f>COUNTIF(Stats!D:D,'Player Count'!B23)</f>
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G23">
         <f>COUNTIF(Stats!D:D,'Player Count'!F23)</f>
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K23">
         <f>COUNTIF(Stats!D:D,'Player Count'!J23)</f>
@@ -16226,7 +16344,7 @@
       </c>
       <c r="M23" s="110"/>
       <c r="N23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O23">
         <f>COUNTIF(Stats!D:D,'Player Count'!N23)</f>
@@ -16236,21 +16354,21 @@
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C24">
         <f>COUNTIF(Stats!D:D,'Player Count'!B24)</f>
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G24">
         <f>COUNTIF(Stats!D:D,'Player Count'!F24)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K24">
         <f>COUNTIF(Stats!D:D,'Player Count'!J24)</f>
@@ -16258,7 +16376,7 @@
       </c>
       <c r="M24" s="110"/>
       <c r="N24" s="67" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="O24">
         <f>COUNTIF(Stats!D:D,'Player Count'!N24)</f>
@@ -16268,21 +16386,21 @@
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C25">
         <f>COUNTIF(Stats!D:D,'Player Count'!B25)</f>
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G25">
         <f>COUNTIF(Stats!D:D,'Player Count'!F25)</f>
         <v>2</v>
       </c>
       <c r="J25" s="67" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K25">
         <f>COUNTIF(Stats!D:D,'Player Count'!J25)</f>
@@ -16290,7 +16408,7 @@
       </c>
       <c r="M25" s="110"/>
       <c r="N25" s="67" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="O25">
         <f>COUNTIF(Stats!D:D,'Player Count'!N25)</f>
@@ -16300,21 +16418,21 @@
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B26" s="78" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C26" s="78">
         <f>SUM(C6:C25)</f>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F26" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G26">
         <f>COUNTIF(Stats!D:D,'Player Count'!F26)</f>
         <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K26">
         <f>COUNTIF(Stats!D:D,'Player Count'!J26)</f>
@@ -16322,7 +16440,7 @@
       </c>
       <c r="M26" s="110"/>
       <c r="N26" s="67" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O26">
         <f>COUNTIF(Stats!D:D,'Player Count'!N26)</f>
@@ -16332,14 +16450,14 @@
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.3">
       <c r="F27" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G27">
         <f>COUNTIF(Stats!D:D,'Player Count'!F27)</f>
         <v>2</v>
       </c>
       <c r="J27" s="67" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K27">
         <f>COUNTIF(Stats!D:D,'Player Count'!J27)</f>
@@ -16347,7 +16465,7 @@
       </c>
       <c r="M27" s="110"/>
       <c r="N27" s="67" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="O27">
         <f>COUNTIF(Stats!D:D,'Player Count'!N27)</f>
@@ -16357,14 +16475,14 @@
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.3">
       <c r="F28" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G28">
         <f>COUNTIF(Stats!D:D,'Player Count'!F28)</f>
         <v>3</v>
       </c>
       <c r="J28" s="67" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K28">
         <f>COUNTIF(Stats!D:D,'Player Count'!J28)</f>
@@ -16372,7 +16490,7 @@
       </c>
       <c r="M28" s="110"/>
       <c r="N28" s="67" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="O28">
         <f>COUNTIF(Stats!D:D,'Player Count'!N28)</f>
@@ -16382,21 +16500,21 @@
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
       <c r="F29" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G29">
         <f>COUNTIF(Stats!D:D,'Player Count'!F29)</f>
         <v>3</v>
       </c>
       <c r="J29" s="67" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K29">
         <f>COUNTIF(Stats!D:D,'Player Count'!J29)</f>
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="O29">
         <f>COUNTIF(Stats!D:D,'Player Count'!N29)</f>
@@ -16405,21 +16523,21 @@
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="F30" s="78" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G30" s="78">
         <f>SUM(G6:G29)</f>
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J30" s="78" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K30" s="78">
         <f>SUM(K6:K29)</f>
         <v>38</v>
       </c>
       <c r="N30" s="78" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O30" s="78">
         <f>SUM(O6:O29)</f>
@@ -16428,32 +16546,32 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="67" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C38" s="115">
         <f>C26/SUM(C26,G30,K30,O30)</f>
-        <v>0.38805970149253732</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="D38" s="115"/>
       <c r="E38" s="115"/>
       <c r="F38" s="115"/>
       <c r="G38" s="115">
         <f>G30/SUM(C26,G30,K30,O30)</f>
-        <v>0.27363184079601988</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="H38" s="115"/>
       <c r="I38" s="115"/>
       <c r="J38" s="115"/>
       <c r="K38" s="115">
         <f>K30/SUM(C26,G30,K30,O30)</f>
-        <v>0.1890547263681592</v>
+        <v>0.19</v>
       </c>
       <c r="L38" s="115"/>
       <c r="M38" s="115"/>
       <c r="N38" s="115"/>
       <c r="O38" s="115">
         <f>O30/SUM(C26,G30,K30,O30)</f>
-        <v>0.14925373134328357</v>
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>

--- a/data/DreamLeague25-26.xlsx
+++ b/data/DreamLeague25-26.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/462a734c48854128/Desktop/Dream League/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kelloggcompany-my.sharepoint.com/personal/bryn_coombe_kellogg_com/Documents/Desktop/Dream League/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1309" documentId="8_{7D36DF2E-EA78-4237-9818-EA41DFB80887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66A7630E-620D-4F40-9FE5-DEE8772B6F6E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C787F6C9-6D19-48E2-96AB-9D578E0B907B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13900" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="496">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -911,9 +911,6 @@
     <t>BENJAMIN SESKO</t>
   </si>
   <si>
-    <t>XAVI SIMMONS</t>
-  </si>
-  <si>
     <t>JOHN SWIFT</t>
   </si>
   <si>
@@ -1509,6 +1506,27 @@
   </si>
   <si>
     <t>MIKEL MERINO</t>
+  </si>
+  <si>
+    <t>ELLIS SIMMS</t>
+  </si>
+  <si>
+    <t>ESTEVAO WILLIAN</t>
+  </si>
+  <si>
+    <t>DONYELL MALEN</t>
+  </si>
+  <si>
+    <t>LEANDRO TROSSARD</t>
+  </si>
+  <si>
+    <t>XAVI SIMONS</t>
+  </si>
+  <si>
+    <t>(5 - 1)</t>
+  </si>
+  <si>
+    <t>(4 - 4)</t>
   </si>
 </sst>
 </file>
@@ -1926,7 +1944,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2240,6 +2258,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2324,10 +2345,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3435,8 +3452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IX404"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K366" sqref="K366"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3578,9 +3595,7 @@
       </c>
       <c r="G5" s="83"/>
       <c r="H5" s="84"/>
-      <c r="I5" s="85">
-        <v>1</v>
-      </c>
+      <c r="I5" s="85"/>
       <c r="J5" s="82"/>
       <c r="K5" s="16" t="str">
         <f>D2</f>
@@ -3592,11 +3607,11 @@
       </c>
       <c r="M5" s="18">
         <f t="shared" ref="M5:M17" si="0">N5-O5</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N5" s="19">
         <f>SUM(F8:F25)</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O5" s="20">
         <f>SUM(F5:F7)</f>
@@ -3627,11 +3642,11 @@
       </c>
       <c r="M6" s="25">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N6" s="26">
         <f>SUM(F35:F52)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O6" s="27">
         <f>SUM(F32:F34)</f>
@@ -3662,11 +3677,11 @@
       </c>
       <c r="M7" s="25">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N7" s="26">
         <f>SUM(F62:F79)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O7" s="27">
         <f>SUM(F59:F61)</f>
@@ -3706,15 +3721,15 @@
       </c>
       <c r="M8" s="25">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N8" s="26">
         <f>SUM(F89:F106)</f>
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="O8" s="27">
         <f>SUM(F86:F88)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3780,15 +3795,15 @@
       </c>
       <c r="M10" s="25">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N10" s="26">
         <f>SUM(F143:F160)</f>
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="O10" s="27">
         <f>SUM(F140:F142)</f>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R10" s="120"/>
       <c r="S10" s="120"/>
@@ -3827,15 +3842,15 @@
       </c>
       <c r="M11" s="25">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="N11" s="26">
         <f>SUM(F170:F187)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O11" s="27">
         <f>SUM(F167:F169)</f>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="S11" s="102"/>
       <c r="T11" s="101"/>
@@ -3880,11 +3895,11 @@
       </c>
       <c r="N12" s="73">
         <f>SUM(F197:F214)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O12" s="74">
         <f>SUM(F194:F196)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3893,7 +3908,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D13" s="28" t="s">
         <v>104</v>
@@ -3902,7 +3917,7 @@
         <v>287</v>
       </c>
       <c r="F13" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" s="87">
         <v>45932</v>
@@ -3920,7 +3935,7 @@
       </c>
       <c r="M13" s="25">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N13" s="73">
         <f>SUM(F224:F241)</f>
@@ -3928,7 +3943,7 @@
       </c>
       <c r="O13" s="74">
         <f>SUM(F221:F223)</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R13" s="120"/>
       <c r="S13" s="120"/>
@@ -3955,9 +3970,7 @@
       </c>
       <c r="G14" s="87"/>
       <c r="H14" s="84"/>
-      <c r="I14" s="99">
-        <v>1</v>
-      </c>
+      <c r="I14" s="99"/>
       <c r="J14" s="79"/>
       <c r="K14" s="71" t="str">
         <f>D245</f>
@@ -3969,15 +3982,15 @@
       </c>
       <c r="M14" s="25">
         <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="N14" s="73">
         <f>SUM(F251:F268)</f>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="O14" s="74">
         <f>SUM(F248:F250)</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="S14" s="102"/>
       <c r="T14" s="101"/>
@@ -4004,11 +4017,11 @@
       </c>
       <c r="M15" s="25">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N15" s="26">
         <f>SUM(F278:F295)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O15" s="27">
         <f>SUM(F275:F277)</f>
@@ -4017,13 +4030,27 @@
     </row>
     <row r="16" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="79"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="87"/>
-      <c r="H16" s="84"/>
+      <c r="B16" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="107" t="s">
+        <v>171</v>
+      </c>
+      <c r="D16" s="107" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="108">
+        <v>14</v>
+      </c>
+      <c r="F16" s="109">
+        <v>0</v>
+      </c>
+      <c r="G16" s="87" t="s">
+        <v>288</v>
+      </c>
+      <c r="H16" s="84">
+        <v>45897</v>
+      </c>
       <c r="I16" s="99"/>
       <c r="J16" s="82"/>
       <c r="K16" s="31" t="str">
@@ -4036,40 +4063,38 @@
       </c>
       <c r="M16" s="25">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="N16" s="26">
         <f>SUM(F305:F322)</f>
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="O16" s="27">
         <f>SUM(F302:F304)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="79"/>
-      <c r="B17" s="107" t="s">
+      <c r="B17" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="107" t="s">
-        <v>171</v>
-      </c>
-      <c r="D17" s="107" t="s">
-        <v>90</v>
-      </c>
-      <c r="E17" s="108">
-        <v>14</v>
-      </c>
-      <c r="F17" s="109">
-        <v>0</v>
-      </c>
-      <c r="G17" s="87" t="s">
-        <v>288</v>
-      </c>
-      <c r="H17" s="84">
+      <c r="C17" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>414</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="F17" s="30">
+        <v>3</v>
+      </c>
+      <c r="G17" s="84">
         <v>45897</v>
       </c>
+      <c r="H17" s="84"/>
       <c r="I17" s="99"/>
       <c r="J17" s="82"/>
       <c r="K17" s="31" t="str">
@@ -4082,7 +4107,7 @@
       </c>
       <c r="M17" s="25">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="N17" s="26">
         <f>SUM(F332:F349)</f>
@@ -4090,7 +4115,7 @@
       </c>
       <c r="O17" s="27">
         <f>SUM(F329:F331)</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="R17" s="120"/>
       <c r="S17" s="120"/>
@@ -4104,20 +4129,18 @@
         <v>17</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>414</v>
+        <v>124</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>415</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>287</v>
+        <v>119</v>
+      </c>
+      <c r="E18" s="29">
+        <v>15</v>
       </c>
       <c r="F18" s="30">
-        <v>3</v>
-      </c>
-      <c r="G18" s="84">
-        <v>45897</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G18" s="84"/>
       <c r="H18" s="84"/>
       <c r="I18" s="99"/>
       <c r="J18" s="82"/>
@@ -4131,15 +4154,15 @@
       </c>
       <c r="M18" s="25">
         <f>N18-O18</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N18" s="26">
         <f>SUM(F359:F376)</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O18" s="27">
         <f>SUM(F356:F358)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S18" s="102"/>
       <c r="T18" s="101"/>
@@ -4147,26 +4170,28 @@
     </row>
     <row r="19" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="79"/>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="E19" s="29">
-        <v>15</v>
-      </c>
-      <c r="F19" s="30">
-        <v>9</v>
-      </c>
-      <c r="G19" s="84"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="99">
-        <v>2</v>
-      </c>
+      <c r="C19" s="107" t="s">
+        <v>188</v>
+      </c>
+      <c r="D19" s="107" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="108">
+        <v>17</v>
+      </c>
+      <c r="F19" s="109">
+        <v>0</v>
+      </c>
+      <c r="G19" s="83" t="s">
+        <v>288</v>
+      </c>
+      <c r="H19" s="84">
+        <v>45883</v>
+      </c>
+      <c r="I19" s="99"/>
       <c r="J19" s="76"/>
       <c r="K19" s="33"/>
       <c r="L19" s="33"/>
@@ -4180,22 +4205,22 @@
         <v>17</v>
       </c>
       <c r="C20" s="107" t="s">
-        <v>188</v>
+        <v>293</v>
       </c>
       <c r="D20" s="107" t="s">
-        <v>85</v>
-      </c>
-      <c r="E20" s="108">
-        <v>17</v>
+        <v>294</v>
+      </c>
+      <c r="E20" s="108" t="s">
+        <v>287</v>
       </c>
       <c r="F20" s="109">
         <v>0</v>
       </c>
-      <c r="G20" s="83" t="s">
-        <v>288</v>
+      <c r="G20" s="87">
+        <v>45883</v>
       </c>
       <c r="H20" s="84">
-        <v>45883</v>
+        <v>45932</v>
       </c>
       <c r="I20" s="99"/>
       <c r="J20" s="76"/>
@@ -4212,27 +4237,25 @@
     </row>
     <row r="21" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="79"/>
-      <c r="B21" s="107" t="s">
+      <c r="B21" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="107" t="s">
-        <v>294</v>
-      </c>
-      <c r="D21" s="107" t="s">
-        <v>295</v>
-      </c>
-      <c r="E21" s="108" t="s">
+      <c r="C21" s="28" t="s">
+        <v>455</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" s="29" t="s">
         <v>287</v>
       </c>
-      <c r="F21" s="109">
-        <v>0</v>
+      <c r="F21" s="30">
+        <v>3</v>
       </c>
       <c r="G21" s="87">
-        <v>45883</v>
-      </c>
-      <c r="H21" s="84">
         <v>45932</v>
       </c>
+      <c r="H21" s="84"/>
       <c r="I21" s="99"/>
       <c r="J21" s="76"/>
       <c r="K21" s="1"/>
@@ -4246,25 +4269,27 @@
     </row>
     <row r="22" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="79"/>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="28" t="s">
-        <v>456</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>287</v>
-      </c>
-      <c r="F22" s="30">
+      <c r="C22" s="107" t="s">
+        <v>189</v>
+      </c>
+      <c r="D22" s="107" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="108">
+        <v>8</v>
+      </c>
+      <c r="F22" s="109">
         <v>3</v>
       </c>
-      <c r="G22" s="87">
-        <v>45932</v>
-      </c>
-      <c r="H22" s="84"/>
+      <c r="G22" s="87" t="s">
+        <v>288</v>
+      </c>
+      <c r="H22" s="84">
+        <v>46002</v>
+      </c>
       <c r="I22" s="89"/>
       <c r="J22" s="76"/>
       <c r="K22" s="1"/>
@@ -4279,18 +4304,20 @@
         <v>17</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>189</v>
+        <v>492</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="E23" s="29">
-        <v>8</v>
+        <v>18</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>287</v>
       </c>
       <c r="F23" s="30">
-        <v>3</v>
-      </c>
-      <c r="G23" s="87"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="87">
+        <v>46002</v>
+      </c>
       <c r="H23" s="84"/>
       <c r="I23" s="89"/>
       <c r="J23" s="76"/>
@@ -4342,7 +4369,7 @@
         <v>17</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D25" s="28" t="s">
         <v>94</v>
@@ -4351,7 +4378,7 @@
         <v>287</v>
       </c>
       <c r="F25" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25" s="87">
         <v>45911</v>
@@ -4379,7 +4406,7 @@
       </c>
       <c r="F26" s="36">
         <f>SUM(F8:F25)-SUM(F5:F7)</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G26" s="80"/>
       <c r="H26" s="92"/>
@@ -4569,13 +4596,11 @@
         <v>4</v>
       </c>
       <c r="F35" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G35" s="83"/>
       <c r="H35" s="91"/>
-      <c r="I35" s="89">
-        <v>1</v>
-      </c>
+      <c r="I35" s="89"/>
       <c r="J35" s="76"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -4674,7 +4699,7 @@
         <v>12</v>
       </c>
       <c r="F39" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G39" s="87"/>
       <c r="H39" s="91"/>
@@ -4888,7 +4913,7 @@
         <v>17</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D48" s="28" t="s">
         <v>24</v>
@@ -4948,7 +4973,7 @@
         <v>17</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D50" s="28" t="s">
         <v>89</v>
@@ -5026,7 +5051,7 @@
       </c>
       <c r="F53" s="36">
         <f>SUM(F35:F52)-SUM(F32:F34)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G53" s="80"/>
       <c r="H53" s="92"/>
@@ -5358,7 +5383,7 @@
         <v>16</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D68" s="28" t="s">
         <v>36</v>
@@ -5430,7 +5455,7 @@
         <v>5</v>
       </c>
       <c r="F71" s="30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G71" s="87"/>
       <c r="H71" s="91"/>
@@ -5479,7 +5504,7 @@
         <v>17</v>
       </c>
       <c r="C73" s="28" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D73" s="28" t="s">
         <v>87</v>
@@ -5566,10 +5591,10 @@
         <v>17</v>
       </c>
       <c r="C76" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="D76" s="28" t="s">
         <v>296</v>
-      </c>
-      <c r="D76" s="28" t="s">
-        <v>297</v>
       </c>
       <c r="E76" s="29" t="s">
         <v>287</v>
@@ -5626,10 +5651,10 @@
         <v>17</v>
       </c>
       <c r="C78" s="28" t="s">
+        <v>461</v>
+      </c>
+      <c r="D78" s="28" t="s">
         <v>462</v>
-      </c>
-      <c r="D78" s="28" t="s">
-        <v>463</v>
       </c>
       <c r="E78" s="29" t="s">
         <v>287</v>
@@ -5677,7 +5702,7 @@
       </c>
       <c r="F80" s="36">
         <f>SUM(F62:F79)-SUM(F59:F61)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G80" s="80"/>
       <c r="H80" s="92"/>
@@ -5801,7 +5826,7 @@
         <v>8</v>
       </c>
       <c r="F86" s="15">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G86" s="80"/>
       <c r="H86" s="94"/>
@@ -5933,7 +5958,7 @@
         <v>1</v>
       </c>
       <c r="F92" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G92" s="87"/>
       <c r="H92" s="91"/>
@@ -5982,7 +6007,7 @@
         <v>16</v>
       </c>
       <c r="C94" s="28" t="s">
-        <v>290</v>
+        <v>493</v>
       </c>
       <c r="D94" s="28" t="s">
         <v>24</v>
@@ -5991,7 +6016,7 @@
         <v>287</v>
       </c>
       <c r="F94" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" s="91">
         <v>45876</v>
@@ -6024,9 +6049,7 @@
       </c>
       <c r="G95" s="91"/>
       <c r="H95" s="91"/>
-      <c r="I95" s="90">
-        <v>3</v>
-      </c>
+      <c r="I95" s="90"/>
       <c r="J95" s="76"/>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
@@ -6083,7 +6106,7 @@
         <v>25</v>
       </c>
       <c r="F98" s="30">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G98" s="87"/>
       <c r="H98" s="91"/>
@@ -6097,23 +6120,27 @@
     </row>
     <row r="99" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="79"/>
-      <c r="B99" s="28" t="s">
+      <c r="B99" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="C99" s="28" t="s">
+      <c r="C99" s="107" t="s">
         <v>156</v>
       </c>
-      <c r="D99" s="28" t="s">
+      <c r="D99" s="107" t="s">
         <v>155</v>
       </c>
-      <c r="E99" s="29">
+      <c r="E99" s="108">
         <v>10</v>
       </c>
-      <c r="F99" s="30">
+      <c r="F99" s="109">
         <v>3</v>
       </c>
-      <c r="G99" s="83"/>
-      <c r="H99" s="91"/>
+      <c r="G99" s="83" t="s">
+        <v>288</v>
+      </c>
+      <c r="H99" s="91">
+        <v>45995</v>
+      </c>
       <c r="I99" s="90"/>
       <c r="J99" s="76"/>
       <c r="K99" s="1"/>
@@ -6124,27 +6151,25 @@
     </row>
     <row r="100" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="79"/>
-      <c r="B100" s="107" t="s">
+      <c r="B100" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C100" s="107" t="s">
-        <v>60</v>
-      </c>
-      <c r="D100" s="107" t="s">
-        <v>150</v>
-      </c>
-      <c r="E100" s="108">
-        <v>6</v>
-      </c>
-      <c r="F100" s="109">
-        <v>1</v>
-      </c>
-      <c r="G100" s="87" t="s">
-        <v>288</v>
-      </c>
-      <c r="H100" s="91">
-        <v>45918</v>
-      </c>
+      <c r="C100" s="28" t="s">
+        <v>489</v>
+      </c>
+      <c r="D100" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="E100" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="F100" s="30">
+        <v>0</v>
+      </c>
+      <c r="G100" s="87">
+        <v>45995</v>
+      </c>
+      <c r="H100" s="91"/>
       <c r="I100" s="90"/>
       <c r="J100" s="76"/>
       <c r="K100" s="1"/>
@@ -6155,25 +6180,27 @@
     </row>
     <row r="101" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="79"/>
-      <c r="B101" s="28" t="s">
+      <c r="B101" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="C101" s="28" t="s">
-        <v>447</v>
-      </c>
-      <c r="D101" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="E101" s="29" t="s">
-        <v>287</v>
-      </c>
-      <c r="F101" s="30">
-        <v>4</v>
-      </c>
-      <c r="G101" s="87">
+      <c r="C101" s="107" t="s">
+        <v>60</v>
+      </c>
+      <c r="D101" s="107" t="s">
+        <v>150</v>
+      </c>
+      <c r="E101" s="108">
+        <v>6</v>
+      </c>
+      <c r="F101" s="109">
+        <v>1</v>
+      </c>
+      <c r="G101" s="87" t="s">
+        <v>288</v>
+      </c>
+      <c r="H101" s="91">
         <v>45918</v>
       </c>
-      <c r="H101" s="91"/>
       <c r="I101" s="90"/>
       <c r="J101" s="76"/>
       <c r="K101" s="1"/>
@@ -6188,18 +6215,20 @@
         <v>17</v>
       </c>
       <c r="C102" s="28" t="s">
-        <v>93</v>
+        <v>446</v>
       </c>
       <c r="D102" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="E102" s="29">
-        <v>22</v>
+        <v>169</v>
+      </c>
+      <c r="E102" s="29" t="s">
+        <v>287</v>
       </c>
       <c r="F102" s="30">
-        <v>0</v>
-      </c>
-      <c r="G102" s="87"/>
+        <v>7</v>
+      </c>
+      <c r="G102" s="87">
+        <v>45918</v>
+      </c>
       <c r="H102" s="91"/>
       <c r="I102" s="90"/>
       <c r="J102" s="76"/>
@@ -6211,27 +6240,23 @@
     </row>
     <row r="103" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="79"/>
-      <c r="B103" s="107" t="s">
+      <c r="B103" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C103" s="107" t="s">
-        <v>205</v>
-      </c>
-      <c r="D103" s="107" t="s">
-        <v>73</v>
-      </c>
-      <c r="E103" s="108">
-        <v>1</v>
-      </c>
-      <c r="F103" s="109">
+      <c r="C103" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D103" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E103" s="29">
+        <v>22</v>
+      </c>
+      <c r="F103" s="30">
         <v>0</v>
       </c>
-      <c r="G103" s="87" t="s">
-        <v>288</v>
-      </c>
-      <c r="H103" s="91">
-        <v>45911</v>
-      </c>
+      <c r="G103" s="87"/>
+      <c r="H103" s="91"/>
       <c r="I103" s="90"/>
       <c r="J103" s="76"/>
       <c r="K103" s="1"/>
@@ -6242,25 +6267,27 @@
     </row>
     <row r="104" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="79"/>
-      <c r="B104" s="28" t="s">
+      <c r="B104" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="C104" s="28" t="s">
-        <v>434</v>
-      </c>
-      <c r="D104" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="E104" s="29" t="s">
-        <v>287</v>
-      </c>
-      <c r="F104" s="30">
-        <v>5</v>
-      </c>
-      <c r="G104" s="87">
+      <c r="C104" s="107" t="s">
+        <v>205</v>
+      </c>
+      <c r="D104" s="107" t="s">
+        <v>73</v>
+      </c>
+      <c r="E104" s="108">
+        <v>1</v>
+      </c>
+      <c r="F104" s="109">
+        <v>0</v>
+      </c>
+      <c r="G104" s="87" t="s">
+        <v>288</v>
+      </c>
+      <c r="H104" s="91">
         <v>45911</v>
       </c>
-      <c r="H104" s="91"/>
       <c r="I104" s="90"/>
       <c r="J104" s="76"/>
       <c r="K104" s="1"/>
@@ -6271,12 +6298,24 @@
     </row>
     <row r="105" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="79"/>
-      <c r="B105" s="28"/>
-      <c r="C105" s="28"/>
-      <c r="D105" s="28"/>
-      <c r="E105" s="29"/>
-      <c r="F105" s="30"/>
-      <c r="G105" s="87"/>
+      <c r="B105" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C105" s="28" t="s">
+        <v>433</v>
+      </c>
+      <c r="D105" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E105" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="F105" s="30">
+        <v>6</v>
+      </c>
+      <c r="G105" s="87">
+        <v>45911</v>
+      </c>
       <c r="H105" s="91"/>
       <c r="I105" s="90"/>
       <c r="J105" s="76"/>
@@ -6314,7 +6353,7 @@
       </c>
       <c r="F107" s="36">
         <f>SUM(F89:F106)-SUM(F86:F88)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G107" s="80"/>
       <c r="H107" s="92"/>
@@ -6442,9 +6481,7 @@
       </c>
       <c r="G113" s="80"/>
       <c r="H113" s="94"/>
-      <c r="I113" s="90">
-        <v>1</v>
-      </c>
+      <c r="I113" s="90"/>
       <c r="J113" s="76"/>
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
@@ -6576,9 +6613,7 @@
       </c>
       <c r="G119" s="87"/>
       <c r="H119" s="91"/>
-      <c r="I119" s="90">
-        <v>1</v>
-      </c>
+      <c r="I119" s="90"/>
       <c r="J119" s="76"/>
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
@@ -6650,7 +6685,7 @@
         <v>16</v>
       </c>
       <c r="C122" s="28" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D122" s="28" t="s">
         <v>97</v>
@@ -6771,10 +6806,10 @@
         <v>17</v>
       </c>
       <c r="C127" s="107" t="s">
+        <v>406</v>
+      </c>
+      <c r="D127" s="107" t="s">
         <v>407</v>
-      </c>
-      <c r="D127" s="107" t="s">
-        <v>408</v>
       </c>
       <c r="E127" s="108" t="s">
         <v>287</v>
@@ -6802,7 +6837,7 @@
         <v>17</v>
       </c>
       <c r="C128" s="28" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D128" s="28" t="s">
         <v>209</v>
@@ -6862,7 +6897,7 @@
         <v>17</v>
       </c>
       <c r="C130" s="28" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D130" s="28" t="s">
         <v>69</v>
@@ -6949,10 +6984,10 @@
         <v>17</v>
       </c>
       <c r="C133" s="28" t="s">
+        <v>456</v>
+      </c>
+      <c r="D133" s="28" t="s">
         <v>457</v>
-      </c>
-      <c r="D133" s="28" t="s">
-        <v>458</v>
       </c>
       <c r="E133" s="29" t="s">
         <v>287</v>
@@ -7130,7 +7165,7 @@
       </c>
       <c r="C141" s="116"/>
       <c r="D141" s="116" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E141" s="117" t="s">
         <v>287</v>
@@ -7159,20 +7194,20 @@
       </c>
       <c r="C142" s="21"/>
       <c r="D142" s="21" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E142" s="22" t="s">
         <v>287</v>
       </c>
       <c r="F142" s="21">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G142" s="86">
         <v>45974</v>
       </c>
       <c r="H142" s="92"/>
-      <c r="I142" s="92">
-        <v>2</v>
+      <c r="I142" s="121">
+        <v>4</v>
       </c>
       <c r="J142" s="76"/>
       <c r="K142" s="1"/>
@@ -7294,11 +7329,13 @@
         <v>1</v>
       </c>
       <c r="F147" s="30">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G147" s="87"/>
       <c r="H147" s="91"/>
-      <c r="I147" s="90"/>
+      <c r="I147" s="90">
+        <v>1</v>
+      </c>
       <c r="J147" s="96"/>
       <c r="K147" s="1"/>
       <c r="L147" s="1"/>
@@ -7343,16 +7380,16 @@
         <v>16</v>
       </c>
       <c r="C149" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D149" s="28" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E149" s="29" t="s">
         <v>287</v>
       </c>
       <c r="F149" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G149" s="87">
         <v>45974</v>
@@ -7489,25 +7526,27 @@
     </row>
     <row r="155" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="79"/>
-      <c r="B155" s="28" t="s">
+      <c r="B155" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="C155" s="28" t="s">
-        <v>483</v>
-      </c>
-      <c r="D155" s="28" t="s">
+      <c r="C155" s="107" t="s">
+        <v>482</v>
+      </c>
+      <c r="D155" s="107" t="s">
         <v>139</v>
       </c>
-      <c r="E155" s="29" t="s">
+      <c r="E155" s="108" t="s">
         <v>287</v>
       </c>
-      <c r="F155" s="30">
+      <c r="F155" s="109">
         <v>2</v>
       </c>
       <c r="G155" s="87">
         <v>45911</v>
       </c>
-      <c r="H155" s="91"/>
+      <c r="H155" s="91">
+        <v>45995</v>
+      </c>
       <c r="I155" s="90"/>
       <c r="J155" s="76"/>
       <c r="K155" s="1"/>
@@ -7522,18 +7561,20 @@
         <v>17</v>
       </c>
       <c r="C156" s="28" t="s">
-        <v>117</v>
+        <v>491</v>
       </c>
       <c r="D156" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E156" s="29">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="E156" s="29" t="s">
+        <v>287</v>
       </c>
       <c r="F156" s="30">
-        <v>4</v>
-      </c>
-      <c r="G156" s="87"/>
+        <v>0</v>
+      </c>
+      <c r="G156" s="87">
+        <v>45995</v>
+      </c>
       <c r="H156" s="91"/>
       <c r="I156" s="90"/>
       <c r="J156" s="76"/>
@@ -7549,22 +7590,20 @@
         <v>17</v>
       </c>
       <c r="C157" s="28" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="D157" s="28" t="s">
-        <v>218</v>
+        <v>19</v>
       </c>
       <c r="E157" s="29">
+        <v>25</v>
+      </c>
+      <c r="F157" s="30">
         <v>4</v>
-      </c>
-      <c r="F157" s="30">
-        <v>7</v>
       </c>
       <c r="G157" s="87"/>
       <c r="H157" s="91"/>
-      <c r="I157" s="90">
-        <v>1</v>
-      </c>
+      <c r="I157" s="90"/>
       <c r="J157" s="76"/>
       <c r="K157" s="1"/>
       <c r="L157" s="1"/>
@@ -7574,14 +7613,26 @@
     </row>
     <row r="158" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="79"/>
-      <c r="B158" s="28"/>
-      <c r="C158" s="28"/>
-      <c r="D158" s="28"/>
-      <c r="E158" s="29"/>
-      <c r="F158" s="30"/>
+      <c r="B158" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C158" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="D158" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="E158" s="29">
+        <v>4</v>
+      </c>
+      <c r="F158" s="30">
+        <v>9</v>
+      </c>
       <c r="G158" s="87"/>
       <c r="H158" s="91"/>
-      <c r="I158" s="90"/>
+      <c r="I158" s="90">
+        <v>2</v>
+      </c>
       <c r="J158" s="76"/>
       <c r="K158" s="1"/>
       <c r="L158" s="1"/>
@@ -7634,7 +7685,7 @@
       </c>
       <c r="F161" s="36">
         <f>SUM(F143:F160)-SUM(F140:F142)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G161" s="80"/>
       <c r="H161" s="92"/>
@@ -7787,15 +7838,13 @@
         <v>287</v>
       </c>
       <c r="F168" s="21">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G168" s="86">
         <v>45953</v>
       </c>
       <c r="H168" s="92"/>
-      <c r="I168" s="92">
-        <v>2</v>
-      </c>
+      <c r="I168" s="92"/>
       <c r="J168" s="76"/>
       <c r="K168" s="1"/>
       <c r="L168" s="1"/>
@@ -7835,7 +7884,7 @@
         <v>5</v>
       </c>
       <c r="F170" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G170" s="83"/>
       <c r="H170" s="91"/>
@@ -7955,7 +8004,7 @@
         <v>16</v>
       </c>
       <c r="C175" s="107" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D175" s="107" t="s">
         <v>97</v>
@@ -7986,10 +8035,10 @@
         <v>16</v>
       </c>
       <c r="C176" s="28" t="s">
+        <v>472</v>
+      </c>
+      <c r="D176" s="28" t="s">
         <v>473</v>
-      </c>
-      <c r="D176" s="28" t="s">
-        <v>474</v>
       </c>
       <c r="E176" s="29" t="s">
         <v>287</v>
@@ -8188,16 +8237,16 @@
         <v>17</v>
       </c>
       <c r="C184" s="28" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D184" s="28" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E184" s="29" t="s">
         <v>287</v>
       </c>
       <c r="F184" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G184" s="87">
         <v>45953</v>
@@ -8279,10 +8328,10 @@
         <v>17</v>
       </c>
       <c r="C187" s="28" t="s">
+        <v>474</v>
+      </c>
+      <c r="D187" s="28" t="s">
         <v>475</v>
-      </c>
-      <c r="D187" s="28" t="s">
-        <v>476</v>
       </c>
       <c r="E187" s="29" t="s">
         <v>287</v>
@@ -8313,7 +8362,7 @@
       </c>
       <c r="F188" s="36">
         <f>SUM(F170:F187)-SUM(F167:F169)</f>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="G188" s="87"/>
       <c r="H188" s="91"/>
@@ -8437,7 +8486,7 @@
         <v>1</v>
       </c>
       <c r="F194" s="15">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G194" s="80"/>
       <c r="H194" s="94"/>
@@ -8516,7 +8565,7 @@
         <v>14</v>
       </c>
       <c r="C198" s="28" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D198" s="28" t="s">
         <v>22</v>
@@ -8529,9 +8578,7 @@
       </c>
       <c r="G198" s="87"/>
       <c r="H198" s="90"/>
-      <c r="I198" s="90">
-        <v>1</v>
-      </c>
+      <c r="I198" s="90"/>
       <c r="J198" s="76"/>
       <c r="K198" s="1"/>
       <c r="L198" s="1"/>
@@ -8575,9 +8622,7 @@
       </c>
       <c r="G200" s="83"/>
       <c r="H200" s="90"/>
-      <c r="I200" s="90">
-        <v>1</v>
-      </c>
+      <c r="I200" s="90"/>
       <c r="J200" s="76"/>
       <c r="K200" s="1"/>
       <c r="L200" s="1"/>
@@ -8699,7 +8744,7 @@
         <v>275</v>
       </c>
       <c r="D206" s="28" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E206" s="29">
         <v>1</v>
@@ -8709,9 +8754,7 @@
       </c>
       <c r="G206" s="87"/>
       <c r="H206" s="90"/>
-      <c r="I206" s="90">
-        <v>1</v>
-      </c>
+      <c r="I206" s="90"/>
       <c r="J206" s="76"/>
       <c r="K206" s="1"/>
       <c r="L206" s="1"/>
@@ -8734,7 +8777,7 @@
         <v>1</v>
       </c>
       <c r="F207" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G207" s="83"/>
       <c r="H207" s="90"/>
@@ -8792,9 +8835,7 @@
       </c>
       <c r="G209" s="87"/>
       <c r="H209" s="91"/>
-      <c r="I209" s="90">
-        <v>1</v>
-      </c>
+      <c r="I209" s="90"/>
       <c r="J209" s="76"/>
       <c r="K209" s="1"/>
       <c r="L209" s="1"/>
@@ -8821,9 +8862,7 @@
       </c>
       <c r="G210" s="87"/>
       <c r="H210" s="90"/>
-      <c r="I210" s="90">
-        <v>1</v>
-      </c>
+      <c r="I210" s="90"/>
       <c r="J210" s="76"/>
       <c r="K210" s="1"/>
       <c r="L210" s="1"/>
@@ -9063,15 +9102,13 @@
         <v>287</v>
       </c>
       <c r="F222" s="21">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G222" s="94">
         <v>45890</v>
       </c>
       <c r="H222" s="92"/>
-      <c r="I222" s="89">
-        <v>1</v>
-      </c>
+      <c r="I222" s="89"/>
       <c r="J222" s="76"/>
       <c r="K222" s="1"/>
       <c r="L222" s="1"/>
@@ -9176,7 +9213,7 @@
         <v>81</v>
       </c>
       <c r="D227" s="107" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E227" s="108">
         <v>1</v>
@@ -9204,7 +9241,7 @@
         <v>16</v>
       </c>
       <c r="C228" s="28" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D228" s="28" t="s">
         <v>97</v>
@@ -9219,9 +9256,7 @@
         <v>45918</v>
       </c>
       <c r="H228" s="91"/>
-      <c r="I228" s="89">
-        <v>1</v>
-      </c>
+      <c r="I228" s="89"/>
       <c r="J228" s="1"/>
       <c r="K228" s="1"/>
       <c r="L228" s="1"/>
@@ -9293,10 +9328,10 @@
         <v>16</v>
       </c>
       <c r="C231" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D231" s="107" t="s">
         <v>291</v>
-      </c>
-      <c r="D231" s="107" t="s">
-        <v>292</v>
       </c>
       <c r="E231" s="108" t="s">
         <v>287</v>
@@ -9324,7 +9359,7 @@
         <v>16</v>
       </c>
       <c r="C232" s="28" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D232" s="28" t="s">
         <v>85</v>
@@ -9492,7 +9527,7 @@
         <v>17</v>
       </c>
       <c r="C238" s="28" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D238" s="28" t="s">
         <v>68</v>
@@ -9577,7 +9612,7 @@
       </c>
       <c r="F242" s="36">
         <f>SUM(F224:F241)-SUM(F221:F223)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G242" s="80"/>
       <c r="H242" s="92"/>
@@ -9722,15 +9757,13 @@
         <v>287</v>
       </c>
       <c r="F249" s="21">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G249" s="86">
         <v>45918</v>
       </c>
       <c r="H249" s="92"/>
-      <c r="I249" s="92">
-        <v>4</v>
-      </c>
+      <c r="I249" s="92"/>
       <c r="J249" s="1"/>
       <c r="K249" s="1"/>
       <c r="L249" s="1"/>
@@ -9841,13 +9874,11 @@
         <v>1</v>
       </c>
       <c r="F254" s="30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G254" s="83"/>
       <c r="H254" s="91"/>
-      <c r="I254" s="90">
-        <v>2</v>
-      </c>
+      <c r="I254" s="90"/>
       <c r="J254" s="1"/>
       <c r="K254" s="1"/>
       <c r="L254" s="1"/>
@@ -9892,10 +9923,10 @@
         <v>16</v>
       </c>
       <c r="C256" s="28" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D256" s="28" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E256" s="29" t="s">
         <v>287</v>
@@ -10018,7 +10049,7 @@
         <v>18</v>
       </c>
       <c r="F261" s="30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G261" s="87"/>
       <c r="H261" s="91"/>
@@ -10067,7 +10098,7 @@
         <v>17</v>
       </c>
       <c r="C263" s="28" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D263" s="28" t="s">
         <v>172</v>
@@ -10127,7 +10158,7 @@
         <v>17</v>
       </c>
       <c r="C265" s="28" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D265" s="28" t="s">
         <v>23</v>
@@ -10142,9 +10173,7 @@
         <v>45953</v>
       </c>
       <c r="H265" s="91"/>
-      <c r="I265" s="90">
-        <v>1</v>
-      </c>
+      <c r="I265" s="90"/>
       <c r="J265" s="1"/>
       <c r="K265" s="1"/>
       <c r="L265" s="1"/>
@@ -10161,7 +10190,7 @@
         <v>142</v>
       </c>
       <c r="D266" s="107" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E266" s="108">
         <v>14</v>
@@ -10189,7 +10218,7 @@
         <v>17</v>
       </c>
       <c r="C267" s="28" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D267" s="28" t="s">
         <v>73</v>
@@ -10240,7 +10269,7 @@
       </c>
       <c r="F269" s="36">
         <f>SUM(F251:F268)-SUM(F248:F250)</f>
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="G269" s="80"/>
       <c r="H269" s="92"/>
@@ -10586,7 +10615,7 @@
         <v>16</v>
       </c>
       <c r="C284" s="28" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D284" s="28" t="s">
         <v>84</v>
@@ -10734,7 +10763,7 @@
         <v>17</v>
       </c>
       <c r="C290" s="28" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D290" s="28" t="s">
         <v>133</v>
@@ -10743,7 +10772,7 @@
         <v>287</v>
       </c>
       <c r="F290" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G290" s="87">
         <v>45946</v>
@@ -10803,9 +10832,7 @@
       </c>
       <c r="G292" s="87"/>
       <c r="H292" s="91"/>
-      <c r="I292" s="90">
-        <v>1</v>
-      </c>
+      <c r="I292" s="90"/>
       <c r="J292" s="1"/>
       <c r="K292" s="1"/>
       <c r="L292" s="1"/>
@@ -10875,7 +10902,7 @@
       </c>
       <c r="F296" s="36">
         <f>SUM(F278:F295)-SUM(F275:F276)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G296" s="91"/>
       <c r="H296" s="91"/>
@@ -11057,7 +11084,7 @@
         <v>287</v>
       </c>
       <c r="F304" s="21">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G304" s="87">
         <v>45953</v>
@@ -11115,11 +11142,13 @@
         <v>1</v>
       </c>
       <c r="F306" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G306" s="87"/>
       <c r="H306" s="90"/>
-      <c r="I306" s="90"/>
+      <c r="I306" s="90">
+        <v>1</v>
+      </c>
       <c r="J306" s="1"/>
       <c r="K306" s="1"/>
       <c r="L306" s="1"/>
@@ -11223,9 +11252,7 @@
         <v>45911</v>
       </c>
       <c r="H310" s="91"/>
-      <c r="I310" s="90">
-        <v>2</v>
-      </c>
+      <c r="I310" s="90"/>
       <c r="J310" s="1"/>
       <c r="K310" s="1"/>
       <c r="L310" s="1"/>
@@ -11270,7 +11297,7 @@
         <v>16</v>
       </c>
       <c r="C312" s="28" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D312" s="28" t="s">
         <v>86</v>
@@ -11325,7 +11352,7 @@
         <v>54</v>
       </c>
       <c r="F314" s="30">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G314" s="87"/>
       <c r="H314" s="91"/>
@@ -11374,7 +11401,7 @@
         <v>17</v>
       </c>
       <c r="C316" s="28" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D316" s="28" t="s">
         <v>85</v>
@@ -11412,11 +11439,13 @@
         <v>1</v>
       </c>
       <c r="F317" s="30">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G317" s="87"/>
       <c r="H317" s="91"/>
-      <c r="I317" s="90"/>
+      <c r="I317" s="90">
+        <v>2</v>
+      </c>
       <c r="J317" s="1"/>
       <c r="K317" s="1"/>
       <c r="L317" s="1"/>
@@ -11461,10 +11490,10 @@
         <v>17</v>
       </c>
       <c r="C319" s="28" t="s">
+        <v>448</v>
+      </c>
+      <c r="D319" s="28" t="s">
         <v>449</v>
-      </c>
-      <c r="D319" s="28" t="s">
-        <v>450</v>
       </c>
       <c r="E319" s="29" t="s">
         <v>287</v>
@@ -11521,7 +11550,7 @@
         <v>17</v>
       </c>
       <c r="C321" s="28" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D321" s="28" t="s">
         <v>279</v>
@@ -11530,13 +11559,15 @@
         <v>287</v>
       </c>
       <c r="F321" s="30">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G321" s="87">
         <v>45890</v>
       </c>
       <c r="H321" s="91"/>
-      <c r="I321" s="90"/>
+      <c r="I321" s="90">
+        <v>2</v>
+      </c>
       <c r="J321" s="1"/>
       <c r="K321" s="1"/>
       <c r="L321" s="1"/>
@@ -11572,7 +11603,7 @@
       </c>
       <c r="F323" s="36">
         <f>SUM(F305:F322)-SUM(F302:F304)</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G323" s="80"/>
       <c r="H323" s="92"/>
@@ -11696,13 +11727,11 @@
         <v>1</v>
       </c>
       <c r="F329" s="15">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G329" s="83"/>
       <c r="H329" s="87"/>
-      <c r="I329" s="90">
-        <v>2</v>
-      </c>
+      <c r="I329" s="90"/>
       <c r="J329" s="1"/>
       <c r="K329" s="1"/>
       <c r="L329" s="1"/>
@@ -11750,7 +11779,7 @@
         <v>14</v>
       </c>
       <c r="C332" s="28" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D332" s="28" t="s">
         <v>150</v>
@@ -11817,23 +11846,27 @@
     </row>
     <row r="335" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="79"/>
-      <c r="B335" s="28" t="s">
+      <c r="B335" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="C335" s="28" t="s">
+      <c r="C335" s="107" t="s">
         <v>146</v>
       </c>
-      <c r="D335" s="28" t="s">
+      <c r="D335" s="107" t="s">
         <v>244</v>
       </c>
-      <c r="E335" s="29">
+      <c r="E335" s="108">
         <v>1</v>
       </c>
-      <c r="F335" s="30">
+      <c r="F335" s="109">
         <v>0</v>
       </c>
-      <c r="G335" s="87"/>
-      <c r="H335" s="91"/>
+      <c r="G335" s="87" t="s">
+        <v>288</v>
+      </c>
+      <c r="H335" s="91">
+        <v>45995</v>
+      </c>
       <c r="I335" s="90"/>
       <c r="J335" s="1"/>
       <c r="K335" s="1"/>
@@ -11848,18 +11881,20 @@
         <v>16</v>
       </c>
       <c r="C336" s="28" t="s">
-        <v>182</v>
+        <v>490</v>
       </c>
       <c r="D336" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="E336" s="29">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E336" s="29" t="s">
+        <v>287</v>
       </c>
       <c r="F336" s="30">
-        <v>1</v>
-      </c>
-      <c r="G336" s="87"/>
+        <v>0</v>
+      </c>
+      <c r="G336" s="87">
+        <v>45995</v>
+      </c>
       <c r="H336" s="90"/>
       <c r="I336" s="90"/>
       <c r="J336" s="1"/>
@@ -11875,16 +11910,16 @@
         <v>16</v>
       </c>
       <c r="C337" s="28" t="s">
-        <v>282</v>
+        <v>182</v>
       </c>
       <c r="D337" s="28" t="s">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="E337" s="29">
         <v>1</v>
       </c>
       <c r="F337" s="30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G337" s="87"/>
       <c r="H337" s="90"/>
@@ -11898,11 +11933,21 @@
     </row>
     <row r="338" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="79"/>
-      <c r="B338" s="28"/>
-      <c r="C338" s="28"/>
-      <c r="D338" s="28"/>
-      <c r="E338" s="29"/>
-      <c r="F338" s="30"/>
+      <c r="B338" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C338" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="D338" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E338" s="29">
+        <v>1</v>
+      </c>
+      <c r="F338" s="30">
+        <v>2</v>
+      </c>
       <c r="G338" s="83"/>
       <c r="H338" s="91"/>
       <c r="I338" s="90"/>
@@ -12071,7 +12116,7 @@
         <v>17</v>
       </c>
       <c r="C346" s="28" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D346" s="28" t="s">
         <v>179</v>
@@ -12144,7 +12189,7 @@
       </c>
       <c r="F350" s="36">
         <f>SUM(F332:F349)-SUM(F329:F331)</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="G350" s="83"/>
       <c r="H350" s="90"/>
@@ -12226,13 +12271,11 @@
         <v>5</v>
       </c>
       <c r="F356" s="15">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G356" s="1"/>
       <c r="H356" s="103"/>
-      <c r="I356" s="1">
-        <v>2</v>
-      </c>
+      <c r="I356" s="1"/>
       <c r="J356" s="1"/>
     </row>
     <row r="357" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -12324,7 +12367,7 @@
         <v>32</v>
       </c>
       <c r="F362" s="30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G362" s="1"/>
       <c r="H362" s="1"/>
@@ -12361,7 +12404,7 @@
         <v>16</v>
       </c>
       <c r="C364" s="28" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D364" s="28" t="s">
         <v>18</v>
@@ -12370,7 +12413,7 @@
         <v>287</v>
       </c>
       <c r="F364" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G364" s="103">
         <v>45988</v>
@@ -12409,7 +12452,7 @@
         <v>16</v>
       </c>
       <c r="C366" s="28" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D366" s="28" t="s">
         <v>151</v>
@@ -12477,9 +12520,7 @@
       </c>
       <c r="G369" s="103"/>
       <c r="H369" s="103"/>
-      <c r="I369" s="1">
-        <v>1</v>
-      </c>
+      <c r="I369" s="1"/>
       <c r="J369" s="1"/>
     </row>
     <row r="370" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -12490,7 +12531,7 @@
         <v>253</v>
       </c>
       <c r="D370" s="28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E370" s="29">
         <v>5</v>
@@ -12500,9 +12541,7 @@
       </c>
       <c r="G370" s="103"/>
       <c r="H370" s="1"/>
-      <c r="I370" s="1">
-        <v>1</v>
-      </c>
+      <c r="I370" s="1"/>
       <c r="J370" s="1"/>
     </row>
     <row r="371" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -12556,7 +12595,7 @@
         <v>17</v>
       </c>
       <c r="C373" s="107" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D373" s="107" t="s">
         <v>160</v>
@@ -12581,7 +12620,7 @@
         <v>17</v>
       </c>
       <c r="C374" s="28" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D374" s="28" t="s">
         <v>97</v>
@@ -12631,7 +12670,7 @@
       </c>
       <c r="F377" s="36">
         <f>SUM(F359:F376)-SUM(F356:F358)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G377" s="1"/>
       <c r="H377" s="1"/>
@@ -12886,8 +12925,8 @@
   </sheetPr>
   <dimension ref="A1:IV22"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13011,10 +13050,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="25">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F7" s="26">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" s="27">
         <v>8</v>
@@ -13032,17 +13071,17 @@
       <c r="C8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="24" t="s">
         <v>31</v>
       </c>
       <c r="E8" s="25">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F8" s="26">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G8" s="27">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H8" s="52"/>
       <c r="I8" s="41"/>
@@ -13057,17 +13096,17 @@
       <c r="C9" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="24" t="s">
         <v>248</v>
       </c>
       <c r="E9" s="25">
-        <v>14</v>
-      </c>
-      <c r="F9" s="56">
-        <v>38</v>
-      </c>
-      <c r="G9" s="57">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="F9" s="26">
+        <v>40</v>
+      </c>
+      <c r="G9" s="27">
+        <v>25</v>
       </c>
       <c r="H9" s="118"/>
       <c r="I9" s="41"/>
@@ -13082,19 +13121,19 @@
       <c r="C10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="55" t="s">
         <v>201</v>
       </c>
       <c r="E10" s="25">
-        <v>14</v>
-      </c>
-      <c r="F10" s="26">
-        <v>33</v>
-      </c>
-      <c r="G10" s="27">
+        <v>15</v>
+      </c>
+      <c r="F10" s="56">
+        <v>34</v>
+      </c>
+      <c r="G10" s="57">
         <v>19</v>
       </c>
-      <c r="H10" s="52"/>
+      <c r="H10" s="118"/>
       <c r="I10" s="41"/>
       <c r="J10" s="41"/>
       <c r="K10" s="41"/>
@@ -13105,19 +13144,19 @@
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="E11" s="25">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F11" s="56">
+        <v>45</v>
+      </c>
+      <c r="G11" s="57">
         <v>33</v>
-      </c>
-      <c r="G11" s="57">
-        <v>23</v>
       </c>
       <c r="H11" s="118"/>
       <c r="I11" s="41"/>
@@ -13130,19 +13169,19 @@
         <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>206</v>
+        <v>15</v>
       </c>
       <c r="E12" s="25">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F12" s="26">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G12" s="27">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H12" s="52"/>
       <c r="I12" s="41"/>
@@ -13161,10 +13200,10 @@
         <v>191</v>
       </c>
       <c r="E13" s="25">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F13" s="26">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G13" s="27">
         <v>20</v>
@@ -13180,21 +13219,21 @@
         <v>8</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>236</v>
+        <v>51</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>206</v>
       </c>
       <c r="E14" s="25">
-        <v>7</v>
-      </c>
-      <c r="F14" s="26">
-        <v>39</v>
-      </c>
-      <c r="G14" s="27">
-        <v>32</v>
-      </c>
-      <c r="H14" s="52"/>
+        <v>8</v>
+      </c>
+      <c r="F14" s="56">
+        <v>33</v>
+      </c>
+      <c r="G14" s="57">
+        <v>25</v>
+      </c>
+      <c r="H14" s="118"/>
       <c r="I14" s="41"/>
       <c r="J14" s="41"/>
       <c r="K14" s="41"/>
@@ -13205,19 +13244,19 @@
         <v>9</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>53</v>
+        <v>270</v>
       </c>
       <c r="E15" s="25">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F15" s="26">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G15" s="27">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H15" s="52"/>
       <c r="I15" s="41"/>
@@ -13230,24 +13269,24 @@
         <v>10</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="55" t="s">
-        <v>15</v>
+        <v>52</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>53</v>
       </c>
       <c r="E16" s="25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F16" s="26">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G16" s="27">
-        <v>21</v>
-      </c>
-      <c r="H16" s="118"/>
+        <v>17</v>
+      </c>
+      <c r="H16" s="52"/>
       <c r="I16" s="41"/>
       <c r="J16" s="41"/>
-      <c r="K16" s="53"/>
+      <c r="K16" s="41"/>
     </row>
     <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="47"/>
@@ -13261,10 +13300,10 @@
         <v>141</v>
       </c>
       <c r="E17" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F17" s="26">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G17" s="27">
         <v>27</v>
@@ -13282,17 +13321,17 @@
       <c r="C18" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="55" t="s">
+      <c r="D18" s="24" t="s">
         <v>246</v>
       </c>
       <c r="E18" s="25">
-        <v>3</v>
-      </c>
-      <c r="F18" s="56">
+        <v>-1</v>
+      </c>
+      <c r="F18" s="26">
         <v>21</v>
       </c>
-      <c r="G18" s="57">
-        <v>18</v>
+      <c r="G18" s="27">
+        <v>22</v>
       </c>
       <c r="H18" s="118"/>
       <c r="I18" s="41"/>
@@ -13307,19 +13346,19 @@
       <c r="C19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="55" t="s">
         <v>34</v>
       </c>
       <c r="E19" s="25">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="F19" s="26">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G19" s="27">
-        <v>24</v>
-      </c>
-      <c r="H19" s="118"/>
+        <v>27</v>
+      </c>
+      <c r="H19" s="52"/>
       <c r="I19" s="41"/>
       <c r="J19" s="41"/>
       <c r="K19" s="41"/>
@@ -13332,22 +13371,22 @@
       <c r="C20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="55" t="s">
         <v>225</v>
       </c>
       <c r="E20" s="25">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="F20" s="26">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G20" s="27">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H20" s="118"/>
       <c r="I20" s="41"/>
       <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
+      <c r="K20" s="53"/>
     </row>
     <row r="21" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
@@ -13716,8 +13755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA85496-96FC-4E57-B88C-D037E5ADD8C6}">
   <dimension ref="A1:X71"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView showGridLines="0" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -13816,21 +13855,21 @@
         <v>4</v>
       </c>
       <c r="D4" s="64" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E4" s="69" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F4" s="100">
         <v>-1</v>
       </c>
       <c r="G4" s="100" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H4" s="38"/>
       <c r="I4" s="38"/>
       <c r="J4" s="98" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K4" s="38"/>
       <c r="L4" s="38"/>
@@ -13858,21 +13897,21 @@
         <v>1</v>
       </c>
       <c r="D5" s="64" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E5" s="69" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F5" s="100">
         <v>0</v>
       </c>
       <c r="G5" s="100" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H5" s="38"/>
       <c r="I5" s="38"/>
       <c r="J5" s="98" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K5" s="38"/>
       <c r="L5" s="38"/>
@@ -13900,21 +13939,21 @@
         <v>1</v>
       </c>
       <c r="D6" s="64" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E6" s="69" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F6" s="100">
         <v>0</v>
       </c>
       <c r="G6" s="100" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H6" s="38"/>
       <c r="I6" s="38"/>
       <c r="J6" s="98" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K6" s="38"/>
       <c r="L6" s="38"/>
@@ -13942,21 +13981,21 @@
         <v>2</v>
       </c>
       <c r="D7" s="64" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E7" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F7" s="100">
         <v>1</v>
       </c>
       <c r="G7" s="100" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
       <c r="J7" s="98" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K7" s="38"/>
       <c r="L7" s="38"/>
@@ -13984,21 +14023,21 @@
         <v>0</v>
       </c>
       <c r="D8" s="100" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E8" s="68" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F8" s="64">
         <v>2</v>
       </c>
       <c r="G8" s="64" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H8" s="38"/>
       <c r="I8" s="38"/>
       <c r="J8" s="98" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K8" s="38"/>
       <c r="L8" s="38"/>
@@ -14026,21 +14065,21 @@
         <v>-2</v>
       </c>
       <c r="D9" s="100" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E9" s="68" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F9" s="64">
         <v>1</v>
       </c>
       <c r="G9" s="64" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H9" s="38"/>
       <c r="I9" s="38"/>
       <c r="J9" s="98" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K9" s="38"/>
       <c r="L9" s="38"/>
@@ -14068,21 +14107,21 @@
         <v>1</v>
       </c>
       <c r="D10" s="100" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E10" s="68" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F10" s="64">
         <v>1</v>
       </c>
       <c r="G10" s="64" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H10" s="38"/>
       <c r="I10" s="38"/>
       <c r="J10" s="98" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K10" s="38"/>
       <c r="L10" s="38"/>
@@ -14110,16 +14149,16 @@
         <v>2</v>
       </c>
       <c r="D11" s="64" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E11" s="68" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F11" s="64">
         <v>2</v>
       </c>
       <c r="G11" s="64" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H11" s="38"/>
       <c r="I11" s="38"/>
@@ -14144,22 +14183,22 @@
         <v>50</v>
       </c>
       <c r="B12" s="69" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C12" s="100">
         <v>-2</v>
       </c>
       <c r="D12" s="100" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E12" s="68" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F12" s="64">
         <v>-1</v>
       </c>
       <c r="G12" s="64" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H12" s="38"/>
       <c r="I12" s="38"/>
@@ -14190,16 +14229,16 @@
         <v>2</v>
       </c>
       <c r="D13" s="64" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E13" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F13" s="100">
         <v>1</v>
       </c>
       <c r="G13" s="100" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H13" s="38"/>
       <c r="I13" s="38"/>
@@ -14248,7 +14287,7 @@
     <row r="15" spans="1:24" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A15" s="67"/>
       <c r="B15" s="63" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
@@ -14284,16 +14323,16 @@
         <v>-1</v>
       </c>
       <c r="D16" s="64" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E16" s="69" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F16" s="100">
         <v>-1</v>
       </c>
       <c r="G16" s="100" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H16" s="38"/>
       <c r="I16" s="38"/>
@@ -14378,7 +14417,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="64" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E19" s="70" t="s">
         <v>225</v>
@@ -14387,7 +14426,7 @@
         <v>-1</v>
       </c>
       <c r="G19" s="100" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H19" s="38"/>
       <c r="I19" s="38"/>
@@ -14418,16 +14457,16 @@
         <v>0</v>
       </c>
       <c r="D20" s="64" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E20" s="70" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F20" s="100">
         <v>-2</v>
       </c>
       <c r="G20" s="100" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H20" s="38"/>
       <c r="I20" s="38"/>
@@ -14458,16 +14497,16 @@
         <v>2</v>
       </c>
       <c r="D21" s="64" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E21" s="70" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F21" s="100">
         <v>0</v>
       </c>
       <c r="G21" s="100" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H21" s="38"/>
       <c r="I21" s="38"/>
@@ -14498,7 +14537,7 @@
         <v>-3</v>
       </c>
       <c r="D22" s="100" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E22" s="65" t="s">
         <v>201</v>
@@ -14507,7 +14546,7 @@
         <v>-1</v>
       </c>
       <c r="G22" s="64" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H22" s="38"/>
       <c r="I22" s="38"/>
@@ -14532,22 +14571,22 @@
         <v>259</v>
       </c>
       <c r="B23" s="65" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C23" s="64">
         <v>1</v>
       </c>
       <c r="D23" s="64" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E23" s="70" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F23" s="100">
         <v>-3</v>
       </c>
       <c r="G23" s="100" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H23" s="38"/>
       <c r="I23" s="38"/>
@@ -14572,22 +14611,22 @@
         <v>260</v>
       </c>
       <c r="B24" s="65" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C24" s="64">
         <v>3</v>
       </c>
       <c r="D24" s="64" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E24" s="70" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F24" s="100">
         <v>2</v>
       </c>
       <c r="G24" s="100" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H24" s="38"/>
       <c r="I24" s="38"/>
@@ -14618,16 +14657,16 @@
         <v>0</v>
       </c>
       <c r="D25" s="64" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E25" s="70" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F25" s="100">
         <v>-1</v>
       </c>
       <c r="G25" s="100" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H25" s="38"/>
       <c r="I25" s="38"/>
@@ -14658,16 +14697,16 @@
         <v>3</v>
       </c>
       <c r="D26" s="64" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E26" s="70" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F26" s="100">
         <v>2</v>
       </c>
       <c r="G26" s="100" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H26" s="38"/>
       <c r="I26" s="38"/>
@@ -14752,7 +14791,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="100" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E29" s="65" t="s">
         <v>236</v>
@@ -14761,7 +14800,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="64" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H29" s="38"/>
       <c r="I29" s="38"/>
@@ -14792,7 +14831,7 @@
         <v>-2</v>
       </c>
       <c r="D30" s="100" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E30" s="65" t="s">
         <v>31</v>
@@ -14801,7 +14840,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="64" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H30" s="38"/>
       <c r="I30" s="38"/>
@@ -14832,16 +14871,16 @@
         <v>-2</v>
       </c>
       <c r="D31" s="100" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E31" s="65" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F31" s="64">
         <v>1</v>
       </c>
       <c r="G31" s="64" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H31" s="38"/>
       <c r="I31" s="38"/>
@@ -14872,7 +14911,7 @@
         <v>0</v>
       </c>
       <c r="D32" s="100" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E32" s="65" t="s">
         <v>206</v>
@@ -14881,7 +14920,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="64" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H32" s="38"/>
       <c r="I32" s="38"/>
@@ -14957,16 +14996,24 @@
       <c r="A35" s="67" t="s">
         <v>267</v>
       </c>
-      <c r="B35" s="65" t="s">
-        <v>425</v>
-      </c>
-      <c r="C35" s="69"/>
-      <c r="D35" s="100"/>
+      <c r="B35" s="70" t="s">
+        <v>424</v>
+      </c>
+      <c r="C35" s="100">
+        <v>-1</v>
+      </c>
+      <c r="D35" s="100" t="s">
+        <v>440</v>
+      </c>
       <c r="E35" s="65" t="s">
         <v>206</v>
       </c>
-      <c r="F35" s="68"/>
-      <c r="G35" s="64"/>
+      <c r="F35" s="64">
+        <v>0</v>
+      </c>
+      <c r="G35" s="64" t="s">
+        <v>469</v>
+      </c>
       <c r="H35" s="38"/>
       <c r="I35" s="38"/>
       <c r="J35" s="38"/>
@@ -14989,16 +15036,24 @@
       <c r="A36" s="67" t="s">
         <v>268</v>
       </c>
-      <c r="B36" s="65" t="s">
+      <c r="B36" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="68"/>
-      <c r="D36" s="64"/>
+      <c r="C36" s="100">
+        <v>0</v>
+      </c>
+      <c r="D36" s="100" t="s">
+        <v>495</v>
+      </c>
       <c r="E36" s="65" t="s">
         <v>236</v>
       </c>
-      <c r="F36" s="69"/>
-      <c r="G36" s="100"/>
+      <c r="F36" s="64">
+        <v>4</v>
+      </c>
+      <c r="G36" s="64" t="s">
+        <v>494</v>
+      </c>
       <c r="H36" s="38"/>
       <c r="I36" s="38"/>
       <c r="J36" s="38"/>
@@ -15071,12 +15126,16 @@
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" s="67" t="s">
-        <v>446</v>
-      </c>
-      <c r="B39" s="65"/>
+        <v>445</v>
+      </c>
+      <c r="B39" s="65" t="s">
+        <v>206</v>
+      </c>
       <c r="C39" s="68"/>
       <c r="D39" s="64"/>
-      <c r="E39" s="70"/>
+      <c r="E39" s="65" t="s">
+        <v>236</v>
+      </c>
       <c r="F39" s="69"/>
       <c r="G39" s="100"/>
       <c r="H39" s="38"/>
@@ -15752,47 +15811,47 @@
   <sheetData>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J5" s="67" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="N5" s="67" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="O5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C6">
         <f>COUNTIF(Stats!D:D,'Player Count'!B6)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G6">
         <f>COUNTIF(Stats!D:D,'Player Count'!F6)</f>
         <v>2</v>
       </c>
       <c r="J6" s="67" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K6">
         <f>COUNTIF(Stats!D:D,'Player Count'!J6)</f>
@@ -15800,7 +15859,7 @@
       </c>
       <c r="M6" s="110"/>
       <c r="N6" s="67" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="O6">
         <f>COUNTIF(Stats!D:D,'Player Count'!N6)</f>
@@ -15810,21 +15869,21 @@
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C7">
         <f>COUNTIF(Stats!D:D,'Player Count'!B7)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G7">
         <f>COUNTIF(Stats!D:D,'Player Count'!F7)</f>
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K7">
         <f>COUNTIF(Stats!D:D,'Player Count'!J7)</f>
@@ -15832,7 +15891,7 @@
       </c>
       <c r="M7" s="110"/>
       <c r="N7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="O7">
         <f>COUNTIF(Stats!D:D,'Player Count'!N7)</f>
@@ -15842,21 +15901,21 @@
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C8">
         <f>COUNTIF(Stats!D:D,'Player Count'!B8)</f>
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G8">
         <f>COUNTIF(Stats!D:D,'Player Count'!F8)</f>
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K8">
         <f>COUNTIF(Stats!D:D,'Player Count'!J8)</f>
@@ -15864,7 +15923,7 @@
       </c>
       <c r="M8" s="110"/>
       <c r="N8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O8">
         <f>COUNTIF(Stats!D:D,'Player Count'!N8)</f>
@@ -15874,21 +15933,21 @@
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C9">
         <f>COUNTIF(Stats!D:D,'Player Count'!B9)</f>
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G9">
         <f>COUNTIF(Stats!D:D,'Player Count'!F9)</f>
         <v>2</v>
       </c>
       <c r="J9" s="67" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K9">
         <f>COUNTIF(Stats!D:D,'Player Count'!J9)</f>
@@ -15896,7 +15955,7 @@
       </c>
       <c r="M9" s="110"/>
       <c r="N9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="O9">
         <f>COUNTIF(Stats!D:D,'Player Count'!N9)</f>
@@ -15906,21 +15965,21 @@
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C10">
         <f>COUNTIF(Stats!D:D,'Player Count'!B10)</f>
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G10">
         <f>COUNTIF(Stats!D:D,'Player Count'!F10)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J10" s="67" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K10">
         <f>COUNTIF(Stats!D:D,'Player Count'!J10)</f>
@@ -15928,7 +15987,7 @@
       </c>
       <c r="M10" s="110"/>
       <c r="N10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O10">
         <f>COUNTIF(Stats!D:D,'Player Count'!N10)</f>
@@ -15938,21 +15997,21 @@
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C11">
         <f>COUNTIF(Stats!D:D,'Player Count'!B11)</f>
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G11">
         <f>COUNTIF(Stats!D:D,'Player Count'!F11)</f>
         <v>2</v>
       </c>
       <c r="J11" s="67" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K11">
         <f>COUNTIF(Stats!D:D,'Player Count'!J11)</f>
@@ -15960,7 +16019,7 @@
       </c>
       <c r="M11" s="110"/>
       <c r="N11" s="67" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O11">
         <f>COUNTIF(Stats!D:D,'Player Count'!N11)</f>
@@ -15970,21 +16029,21 @@
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C12">
         <f>COUNTIF(Stats!D:D,'Player Count'!B12)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G12">
         <f>COUNTIF(Stats!D:D,'Player Count'!F12)</f>
         <v>2</v>
       </c>
       <c r="J12" s="67" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K12">
         <f>COUNTIF(Stats!D:D,'Player Count'!J12)</f>
@@ -15992,7 +16051,7 @@
       </c>
       <c r="M12" s="110"/>
       <c r="N12" s="67" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="O12">
         <f>COUNTIF(Stats!D:D,'Player Count'!N12)</f>
@@ -16002,21 +16061,21 @@
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C13">
         <f>COUNTIF(Stats!D:D,'Player Count'!B13)</f>
         <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G13">
         <f>COUNTIF(Stats!D:D,'Player Count'!F13)</f>
         <v>5</v>
       </c>
       <c r="J13" s="67" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K13">
         <f>COUNTIF(Stats!D:D,'Player Count'!J13)</f>
@@ -16024,7 +16083,7 @@
       </c>
       <c r="M13" s="110"/>
       <c r="N13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O13">
         <f>COUNTIF(Stats!D:D,'Player Count'!N13)</f>
@@ -16034,21 +16093,21 @@
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C14">
         <f>COUNTIF(Stats!D:D,'Player Count'!B14)</f>
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G14">
         <f>COUNTIF(Stats!D:D,'Player Count'!F14)</f>
         <v>0</v>
       </c>
       <c r="J14" s="67" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K14">
         <f>COUNTIF(Stats!D:D,'Player Count'!J14)</f>
@@ -16056,7 +16115,7 @@
       </c>
       <c r="M14" s="110"/>
       <c r="N14" s="67" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O14">
         <f>COUNTIF(Stats!D:D,'Player Count'!N14)</f>
@@ -16066,21 +16125,21 @@
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C15">
         <f>COUNTIF(Stats!D:D,'Player Count'!B15)</f>
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G15">
         <f>COUNTIF(Stats!D:D,'Player Count'!F15)</f>
         <v>2</v>
       </c>
       <c r="J15" s="67" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K15">
         <f>COUNTIF(Stats!D:D,'Player Count'!J15)</f>
@@ -16088,7 +16147,7 @@
       </c>
       <c r="M15" s="110"/>
       <c r="N15" s="67" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O15">
         <f>COUNTIF(Stats!D:D,'Player Count'!N15)</f>
@@ -16098,21 +16157,21 @@
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C16">
         <f>COUNTIF(Stats!D:D,'Player Count'!B16)</f>
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G16">
         <f>COUNTIF(Stats!D:D,'Player Count'!F16)</f>
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K16">
         <f>COUNTIF(Stats!D:D,'Player Count'!J16)</f>
@@ -16120,7 +16179,7 @@
       </c>
       <c r="M16" s="110"/>
       <c r="N16" s="67" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O16">
         <f>COUNTIF(Stats!D:D,'Player Count'!N16)</f>
@@ -16130,21 +16189,21 @@
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C17">
         <f>COUNTIF(Stats!D:D,'Player Count'!B17)</f>
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G17">
         <f>COUNTIF(Stats!D:D,'Player Count'!F17)</f>
         <v>3</v>
       </c>
       <c r="J17" s="67" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K17">
         <f>COUNTIF(Stats!D:D,'Player Count'!J17)</f>
@@ -16152,7 +16211,7 @@
       </c>
       <c r="M17" s="110"/>
       <c r="N17" s="67" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O17">
         <f>COUNTIF(Stats!D:D,'Player Count'!N17)</f>
@@ -16162,21 +16221,21 @@
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C18">
         <f>COUNTIF(Stats!D:D,'Player Count'!B18)</f>
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G18">
         <f>COUNTIF(Stats!D:D,'Player Count'!F18)</f>
         <v>2</v>
       </c>
       <c r="J18" s="67" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K18">
         <f>COUNTIF(Stats!D:D,'Player Count'!J18)</f>
@@ -16184,7 +16243,7 @@
       </c>
       <c r="M18" s="110"/>
       <c r="N18" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="O18">
         <f>COUNTIF(Stats!D:D,'Player Count'!N18)</f>
@@ -16194,21 +16253,21 @@
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C19">
         <f>COUNTIF(Stats!D:D,'Player Count'!B19)</f>
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G19">
         <f>COUNTIF(Stats!D:D,'Player Count'!F19)</f>
         <v>1</v>
       </c>
       <c r="J19" s="67" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K19">
         <f>COUNTIF(Stats!D:D,'Player Count'!J19)</f>
@@ -16216,7 +16275,7 @@
       </c>
       <c r="M19" s="110"/>
       <c r="N19" s="67" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="O19">
         <f>COUNTIF(Stats!D:D,'Player Count'!N19)</f>
@@ -16226,21 +16285,21 @@
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C20">
         <f>COUNTIF(Stats!D:D,'Player Count'!B20)</f>
         <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G20">
         <f>COUNTIF(Stats!D:D,'Player Count'!F20)</f>
         <v>1</v>
       </c>
       <c r="J20" s="67" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K20">
         <f>COUNTIF(Stats!D:D,'Player Count'!J20)</f>
@@ -16248,7 +16307,7 @@
       </c>
       <c r="M20" s="110"/>
       <c r="N20" s="67" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="O20">
         <f>COUNTIF(Stats!D:D,'Player Count'!N20)</f>
@@ -16258,21 +16317,21 @@
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C21">
         <f>COUNTIF(Stats!D:D,'Player Count'!B21)</f>
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G21">
         <f>COUNTIF(Stats!D:D,'Player Count'!F21)</f>
         <v>0</v>
       </c>
       <c r="J21" s="67" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K21">
         <f>COUNTIF(Stats!D:D,'Player Count'!J21)</f>
@@ -16280,7 +16339,7 @@
       </c>
       <c r="M21" s="110"/>
       <c r="N21" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="O21">
         <f>COUNTIF(Stats!D:D,'Player Count'!N21)</f>
@@ -16290,21 +16349,21 @@
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C22">
         <f>COUNTIF(Stats!D:D,'Player Count'!B22)</f>
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G22">
         <f>COUNTIF(Stats!D:D,'Player Count'!F22)</f>
         <v>6</v>
       </c>
       <c r="J22" s="67" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K22">
         <f>COUNTIF(Stats!D:D,'Player Count'!J22)</f>
@@ -16312,7 +16371,7 @@
       </c>
       <c r="M22" s="110"/>
       <c r="N22" s="67" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O22">
         <f>COUNTIF(Stats!D:D,'Player Count'!N22)</f>
@@ -16322,21 +16381,21 @@
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C23">
         <f>COUNTIF(Stats!D:D,'Player Count'!B23)</f>
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G23">
         <f>COUNTIF(Stats!D:D,'Player Count'!F23)</f>
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K23">
         <f>COUNTIF(Stats!D:D,'Player Count'!J23)</f>
@@ -16344,7 +16403,7 @@
       </c>
       <c r="M23" s="110"/>
       <c r="N23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="O23">
         <f>COUNTIF(Stats!D:D,'Player Count'!N23)</f>
@@ -16354,21 +16413,21 @@
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C24">
         <f>COUNTIF(Stats!D:D,'Player Count'!B24)</f>
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G24">
         <f>COUNTIF(Stats!D:D,'Player Count'!F24)</f>
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K24">
         <f>COUNTIF(Stats!D:D,'Player Count'!J24)</f>
@@ -16376,7 +16435,7 @@
       </c>
       <c r="M24" s="110"/>
       <c r="N24" s="67" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O24">
         <f>COUNTIF(Stats!D:D,'Player Count'!N24)</f>
@@ -16386,21 +16445,21 @@
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C25">
         <f>COUNTIF(Stats!D:D,'Player Count'!B25)</f>
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G25">
         <f>COUNTIF(Stats!D:D,'Player Count'!F25)</f>
         <v>2</v>
       </c>
       <c r="J25" s="67" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K25">
         <f>COUNTIF(Stats!D:D,'Player Count'!J25)</f>
@@ -16408,7 +16467,7 @@
       </c>
       <c r="M25" s="110"/>
       <c r="N25" s="67" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="O25">
         <f>COUNTIF(Stats!D:D,'Player Count'!N25)</f>
@@ -16418,21 +16477,21 @@
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B26" s="78" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C26" s="78">
         <f>SUM(C6:C25)</f>
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F26" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G26">
         <f>COUNTIF(Stats!D:D,'Player Count'!F26)</f>
         <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K26">
         <f>COUNTIF(Stats!D:D,'Player Count'!J26)</f>
@@ -16440,7 +16499,7 @@
       </c>
       <c r="M26" s="110"/>
       <c r="N26" s="67" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="O26">
         <f>COUNTIF(Stats!D:D,'Player Count'!N26)</f>
@@ -16450,14 +16509,14 @@
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.3">
       <c r="F27" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G27">
         <f>COUNTIF(Stats!D:D,'Player Count'!F27)</f>
         <v>2</v>
       </c>
       <c r="J27" s="67" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K27">
         <f>COUNTIF(Stats!D:D,'Player Count'!J27)</f>
@@ -16465,7 +16524,7 @@
       </c>
       <c r="M27" s="110"/>
       <c r="N27" s="67" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O27">
         <f>COUNTIF(Stats!D:D,'Player Count'!N27)</f>
@@ -16475,14 +16534,14 @@
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.3">
       <c r="F28" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G28">
         <f>COUNTIF(Stats!D:D,'Player Count'!F28)</f>
         <v>3</v>
       </c>
       <c r="J28" s="67" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K28">
         <f>COUNTIF(Stats!D:D,'Player Count'!J28)</f>
@@ -16490,7 +16549,7 @@
       </c>
       <c r="M28" s="110"/>
       <c r="N28" s="67" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="O28">
         <f>COUNTIF(Stats!D:D,'Player Count'!N28)</f>
@@ -16500,21 +16559,21 @@
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
       <c r="F29" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G29">
         <f>COUNTIF(Stats!D:D,'Player Count'!F29)</f>
         <v>3</v>
       </c>
       <c r="J29" s="67" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K29">
         <f>COUNTIF(Stats!D:D,'Player Count'!J29)</f>
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="O29">
         <f>COUNTIF(Stats!D:D,'Player Count'!N29)</f>
@@ -16523,21 +16582,21 @@
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="F30" s="78" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G30" s="78">
         <f>SUM(G6:G29)</f>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J30" s="78" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K30" s="78">
         <f>SUM(K6:K29)</f>
         <v>38</v>
       </c>
       <c r="N30" s="78" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O30" s="78">
         <f>SUM(O6:O29)</f>
@@ -16546,32 +16605,32 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="67" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C38" s="115">
         <f>C26/SUM(C26,G30,K30,O30)</f>
-        <v>0.39500000000000002</v>
+        <v>0.40196078431372551</v>
       </c>
       <c r="D38" s="115"/>
       <c r="E38" s="115"/>
       <c r="F38" s="115"/>
       <c r="G38" s="115">
         <f>G30/SUM(C26,G30,K30,O30)</f>
-        <v>0.26500000000000001</v>
+        <v>0.26470588235294118</v>
       </c>
       <c r="H38" s="115"/>
       <c r="I38" s="115"/>
       <c r="J38" s="115"/>
       <c r="K38" s="115">
         <f>K30/SUM(C26,G30,K30,O30)</f>
-        <v>0.19</v>
+        <v>0.18627450980392157</v>
       </c>
       <c r="L38" s="115"/>
       <c r="M38" s="115"/>
       <c r="N38" s="115"/>
       <c r="O38" s="115">
         <f>O30/SUM(C26,G30,K30,O30)</f>
-        <v>0.15</v>
+        <v>0.14705882352941177</v>
       </c>
     </row>
   </sheetData>

--- a/data/DreamLeague25-26.xlsx
+++ b/data/DreamLeague25-26.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kelloggcompany-my.sharepoint.com/personal/bryn_coombe_kellogg_com/Documents/Desktop/Dream League/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C787F6C9-6D19-48E2-96AB-9D578E0B907B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="112" documentId="8_{C787F6C9-6D19-48E2-96AB-9D578E0B907B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E7E06D6-2F6F-4C42-9A7A-7A0D0672C989}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13900" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13900" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="500">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1527,6 +1527,18 @@
   </si>
   <si>
     <t>(4 - 4)</t>
+  </si>
+  <si>
+    <t>MORGAN WHITTAKER</t>
+  </si>
+  <si>
+    <t>DANIEL KANU</t>
+  </si>
+  <si>
+    <t>NATHANIEL MENDEZ-LAING</t>
+  </si>
+  <si>
+    <t>MILTON KEYNES</t>
   </si>
 </sst>
 </file>
@@ -2255,11 +2267,11 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3452,8 +3464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IX404"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3572,11 +3584,11 @@
       <c r="O4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="R4" s="120"/>
-      <c r="S4" s="120"/>
-      <c r="T4" s="120"/>
-      <c r="U4" s="120"/>
-      <c r="V4" s="120"/>
+      <c r="R4" s="121"/>
+      <c r="S4" s="121"/>
+      <c r="T4" s="121"/>
+      <c r="U4" s="121"/>
+      <c r="V4" s="121"/>
     </row>
     <row r="5" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="79"/>
@@ -3591,7 +3603,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G5" s="83"/>
       <c r="H5" s="84"/>
@@ -3607,15 +3619,15 @@
       </c>
       <c r="M5" s="18">
         <f t="shared" ref="M5:M17" si="0">N5-O5</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N5" s="19">
         <f>SUM(F8:F25)</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O5" s="20">
         <f>SUM(F5:F7)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S5" s="102"/>
       <c r="T5" s="101"/>
@@ -3642,15 +3654,15 @@
       </c>
       <c r="M6" s="25">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N6" s="26">
         <f>SUM(F35:F52)</f>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O6" s="27">
         <f>SUM(F32:F34)</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="S6" s="102"/>
       <c r="T6" s="101"/>
@@ -3677,11 +3689,11 @@
       </c>
       <c r="M7" s="25">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N7" s="26">
         <f>SUM(F62:F79)</f>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="O7" s="27">
         <f>SUM(F59:F61)</f>
@@ -3721,15 +3733,15 @@
       </c>
       <c r="M8" s="25">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N8" s="26">
         <f>SUM(F89:F106)</f>
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="O8" s="27">
         <f>SUM(F86:F88)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3763,15 +3775,15 @@
       </c>
       <c r="M9" s="25">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N9" s="73">
         <f>SUM(F116:F133)</f>
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="O9" s="74">
         <f>SUM(F113:F115)</f>
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3795,41 +3807,45 @@
       </c>
       <c r="M10" s="25">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N10" s="26">
         <f>SUM(F143:F160)</f>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O10" s="27">
         <f>SUM(F140:F142)</f>
-        <v>28</v>
-      </c>
-      <c r="R10" s="120"/>
-      <c r="S10" s="120"/>
-      <c r="T10" s="120"/>
-      <c r="U10" s="120"/>
-      <c r="V10" s="120"/>
+        <v>30</v>
+      </c>
+      <c r="R10" s="121"/>
+      <c r="S10" s="121"/>
+      <c r="T10" s="121"/>
+      <c r="U10" s="121"/>
+      <c r="V10" s="121"/>
     </row>
     <row r="11" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="79"/>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="107" t="s">
         <v>186</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="108">
         <v>11</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="109">
         <v>4</v>
       </c>
-      <c r="G11" s="87"/>
-      <c r="H11" s="84"/>
+      <c r="G11" s="87" t="s">
+        <v>288</v>
+      </c>
+      <c r="H11" s="84">
+        <v>46009</v>
+      </c>
       <c r="I11" s="99"/>
       <c r="J11" s="82"/>
       <c r="K11" s="23" t="str">
@@ -3842,15 +3858,15 @@
       </c>
       <c r="M11" s="25">
         <f t="shared" si="0"/>
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="N11" s="26">
         <f>SUM(F170:F187)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O11" s="27">
         <f>SUM(F167:F169)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S11" s="102"/>
       <c r="T11" s="101"/>
@@ -3858,27 +3874,25 @@
     </row>
     <row r="12" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="79"/>
-      <c r="B12" s="107" t="s">
+      <c r="B12" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="107" t="s">
-        <v>167</v>
-      </c>
-      <c r="D12" s="107" t="s">
-        <v>135</v>
-      </c>
-      <c r="E12" s="108">
-        <v>1</v>
-      </c>
-      <c r="F12" s="109">
-        <v>1</v>
-      </c>
-      <c r="G12" s="87" t="s">
-        <v>288</v>
-      </c>
-      <c r="H12" s="84">
-        <v>45932</v>
-      </c>
+      <c r="C12" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="F12" s="30">
+        <v>0</v>
+      </c>
+      <c r="G12" s="87">
+        <v>46009</v>
+      </c>
+      <c r="H12" s="84"/>
       <c r="I12" s="99"/>
       <c r="J12" s="82"/>
       <c r="K12" s="71" t="str">
@@ -3891,7 +3905,7 @@
       </c>
       <c r="M12" s="25">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N12" s="73">
         <f>SUM(F197:F214)</f>
@@ -3899,30 +3913,32 @@
       </c>
       <c r="O12" s="74">
         <f>SUM(F194:F196)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="79"/>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="28" t="s">
-        <v>454</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>287</v>
-      </c>
-      <c r="F13" s="30">
-        <v>2</v>
-      </c>
-      <c r="G13" s="87">
+      <c r="C13" s="107" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" s="107" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="108">
+        <v>1</v>
+      </c>
+      <c r="F13" s="109">
+        <v>1</v>
+      </c>
+      <c r="G13" s="87" t="s">
+        <v>288</v>
+      </c>
+      <c r="H13" s="84">
         <v>45932</v>
       </c>
-      <c r="H13" s="84"/>
       <c r="I13" s="99"/>
       <c r="J13" s="82"/>
       <c r="K13" s="71" t="str">
@@ -3939,17 +3955,17 @@
       </c>
       <c r="N13" s="73">
         <f>SUM(F224:F241)</f>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O13" s="74">
         <f>SUM(F221:F223)</f>
-        <v>25</v>
-      </c>
-      <c r="R13" s="120"/>
-      <c r="S13" s="120"/>
-      <c r="T13" s="120"/>
-      <c r="U13" s="120"/>
-      <c r="V13" s="120"/>
+        <v>28</v>
+      </c>
+      <c r="R13" s="121"/>
+      <c r="S13" s="121"/>
+      <c r="T13" s="121"/>
+      <c r="U13" s="121"/>
+      <c r="V13" s="121"/>
     </row>
     <row r="14" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="79"/>
@@ -3957,18 +3973,20 @@
         <v>16</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>187</v>
+        <v>454</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="E14" s="29">
-        <v>1</v>
+        <v>104</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>287</v>
       </c>
       <c r="F14" s="30">
-        <v>4</v>
-      </c>
-      <c r="G14" s="87"/>
+        <v>3</v>
+      </c>
+      <c r="G14" s="87">
+        <v>45932</v>
+      </c>
       <c r="H14" s="84"/>
       <c r="I14" s="99"/>
       <c r="J14" s="79"/>
@@ -3982,15 +4000,15 @@
       </c>
       <c r="M14" s="25">
         <f t="shared" si="0"/>
-        <v>-9</v>
+        <v>-11</v>
       </c>
       <c r="N14" s="73">
         <f>SUM(F251:F268)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O14" s="74">
         <f>SUM(F248:F250)</f>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S14" s="102"/>
       <c r="T14" s="101"/>
@@ -3998,11 +4016,21 @@
     </row>
     <row r="15" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="79"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="30"/>
+      <c r="B15" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" s="29">
+        <v>1</v>
+      </c>
+      <c r="F15" s="30">
+        <v>4</v>
+      </c>
       <c r="G15" s="87"/>
       <c r="H15" s="84"/>
       <c r="I15" s="99"/>
@@ -4017,15 +4045,15 @@
       </c>
       <c r="M15" s="25">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N15" s="26">
         <f>SUM(F278:F295)</f>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O15" s="27">
         <f>SUM(F275:F277)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -4063,15 +4091,15 @@
       </c>
       <c r="M16" s="25">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="N16" s="26">
         <f>SUM(F305:F322)</f>
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="O16" s="27">
         <f>SUM(F302:F304)</f>
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -4107,21 +4135,21 @@
       </c>
       <c r="M17" s="25">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="N17" s="26">
         <f>SUM(F332:F349)</f>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="O17" s="27">
         <f>SUM(F329:F331)</f>
         <v>22</v>
       </c>
-      <c r="R17" s="120"/>
-      <c r="S17" s="120"/>
-      <c r="T17" s="120"/>
-      <c r="U17" s="120"/>
-      <c r="V17" s="120"/>
+      <c r="R17" s="121"/>
+      <c r="S17" s="121"/>
+      <c r="T17" s="121"/>
+      <c r="U17" s="121"/>
+      <c r="V17" s="121"/>
     </row>
     <row r="18" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="79"/>
@@ -4154,7 +4182,7 @@
       </c>
       <c r="M18" s="25">
         <f>N18-O18</f>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N18" s="26">
         <f>SUM(F359:F376)</f>
@@ -4162,7 +4190,7 @@
       </c>
       <c r="O18" s="27">
         <f>SUM(F356:F358)</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="S18" s="102"/>
       <c r="T18" s="101"/>
@@ -4229,11 +4257,11 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="R20" s="120"/>
-      <c r="S20" s="120"/>
-      <c r="T20" s="120"/>
-      <c r="U20" s="120"/>
-      <c r="V20" s="120"/>
+      <c r="R20" s="121"/>
+      <c r="S20" s="121"/>
+      <c r="T20" s="121"/>
+      <c r="U20" s="121"/>
+      <c r="V20" s="121"/>
     </row>
     <row r="21" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="79"/>
@@ -4250,7 +4278,7 @@
         <v>287</v>
       </c>
       <c r="F21" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G21" s="87">
         <v>45932</v>
@@ -4357,11 +4385,11 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
-      <c r="R24" s="120"/>
-      <c r="S24" s="120"/>
-      <c r="T24" s="120"/>
-      <c r="U24" s="120"/>
-      <c r="V24" s="120"/>
+      <c r="R24" s="121"/>
+      <c r="S24" s="121"/>
+      <c r="T24" s="121"/>
+      <c r="U24" s="121"/>
+      <c r="V24" s="121"/>
     </row>
     <row r="25" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="79"/>
@@ -4406,7 +4434,7 @@
       </c>
       <c r="F26" s="36">
         <f>SUM(F8:F25)-SUM(F5:F7)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G26" s="80"/>
       <c r="H26" s="92"/>
@@ -4451,11 +4479,11 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
-      <c r="R28" s="120"/>
-      <c r="S28" s="120"/>
-      <c r="T28" s="120"/>
-      <c r="U28" s="120"/>
-      <c r="V28" s="120"/>
+      <c r="R28" s="121"/>
+      <c r="S28" s="121"/>
+      <c r="T28" s="121"/>
+      <c r="U28" s="121"/>
+      <c r="V28" s="121"/>
     </row>
     <row r="29" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
@@ -4535,7 +4563,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="15">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G32" s="80"/>
       <c r="H32" s="94"/>
@@ -4667,7 +4695,7 @@
         <v>32</v>
       </c>
       <c r="F38" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G38" s="83"/>
       <c r="H38" s="91"/>
@@ -4678,11 +4706,11 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
-      <c r="R38" s="120"/>
-      <c r="S38" s="120"/>
-      <c r="T38" s="120"/>
-      <c r="U38" s="120"/>
-      <c r="V38" s="120"/>
+      <c r="R38" s="121"/>
+      <c r="S38" s="121"/>
+      <c r="T38" s="121"/>
+      <c r="U38" s="121"/>
+      <c r="V38" s="121"/>
     </row>
     <row r="39" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="79"/>
@@ -4699,7 +4727,7 @@
         <v>12</v>
       </c>
       <c r="F39" s="30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G39" s="87"/>
       <c r="H39" s="91"/>
@@ -4982,7 +5010,7 @@
         <v>287</v>
       </c>
       <c r="F50" s="30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G50" s="91">
         <v>45904</v>
@@ -5051,7 +5079,7 @@
       </c>
       <c r="F53" s="36">
         <f>SUM(F35:F52)-SUM(F32:F34)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G53" s="80"/>
       <c r="H53" s="92"/>
@@ -5307,7 +5335,7 @@
         <v>30</v>
       </c>
       <c r="F65" s="30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G65" s="83"/>
       <c r="H65" s="90"/>
@@ -5660,7 +5688,7 @@
         <v>287</v>
       </c>
       <c r="F78" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G78" s="87">
         <v>45946</v>
@@ -5702,7 +5730,7 @@
       </c>
       <c r="F80" s="36">
         <f>SUM(F62:F79)-SUM(F59:F61)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G80" s="80"/>
       <c r="H80" s="92"/>
@@ -5826,7 +5854,7 @@
         <v>8</v>
       </c>
       <c r="F86" s="15">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G86" s="80"/>
       <c r="H86" s="94"/>
@@ -6016,7 +6044,7 @@
         <v>287</v>
       </c>
       <c r="F94" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G94" s="91">
         <v>45876</v>
@@ -6106,7 +6134,7 @@
         <v>25</v>
       </c>
       <c r="F98" s="30">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G98" s="87"/>
       <c r="H98" s="91"/>
@@ -6224,7 +6252,7 @@
         <v>287</v>
       </c>
       <c r="F102" s="30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G102" s="87">
         <v>45918</v>
@@ -6298,25 +6326,27 @@
     </row>
     <row r="105" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="79"/>
-      <c r="B105" s="28" t="s">
+      <c r="B105" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="C105" s="28" t="s">
+      <c r="C105" s="107" t="s">
         <v>433</v>
       </c>
-      <c r="D105" s="28" t="s">
+      <c r="D105" s="107" t="s">
         <v>82</v>
       </c>
-      <c r="E105" s="29" t="s">
+      <c r="E105" s="108" t="s">
         <v>287</v>
       </c>
-      <c r="F105" s="30">
+      <c r="F105" s="109">
         <v>6</v>
       </c>
       <c r="G105" s="87">
         <v>45911</v>
       </c>
-      <c r="H105" s="91"/>
+      <c r="H105" s="91">
+        <v>46002</v>
+      </c>
       <c r="I105" s="90"/>
       <c r="J105" s="76"/>
       <c r="K105" s="1"/>
@@ -6327,12 +6357,24 @@
     </row>
     <row r="106" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="79"/>
-      <c r="B106" s="28"/>
-      <c r="C106" s="28"/>
-      <c r="D106" s="28"/>
-      <c r="E106" s="29"/>
-      <c r="F106" s="30"/>
-      <c r="G106" s="87"/>
+      <c r="B106" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106" s="28" t="s">
+        <v>497</v>
+      </c>
+      <c r="D106" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="E106" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="F106" s="30">
+        <v>1</v>
+      </c>
+      <c r="G106" s="87">
+        <v>46002</v>
+      </c>
       <c r="H106" s="91"/>
       <c r="I106" s="92"/>
       <c r="J106" s="1"/>
@@ -6353,7 +6395,7 @@
       </c>
       <c r="F107" s="36">
         <f>SUM(F89:F106)-SUM(F86:F88)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G107" s="80"/>
       <c r="H107" s="92"/>
@@ -6477,7 +6519,7 @@
         <v>1</v>
       </c>
       <c r="F113" s="15">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G113" s="80"/>
       <c r="H113" s="94"/>
@@ -6609,7 +6651,7 @@
         <v>19</v>
       </c>
       <c r="F119" s="30">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G119" s="87"/>
       <c r="H119" s="91"/>
@@ -6694,7 +6736,7 @@
         <v>287</v>
       </c>
       <c r="F122" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G122" s="87">
         <v>45974</v>
@@ -6846,7 +6888,7 @@
         <v>287</v>
       </c>
       <c r="F128" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128" s="87">
         <v>45967</v>
@@ -6906,7 +6948,7 @@
         <v>287</v>
       </c>
       <c r="F130" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G130" s="87">
         <v>45890</v>
@@ -6993,7 +7035,7 @@
         <v>287</v>
       </c>
       <c r="F133" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G133" s="87">
         <v>45932</v>
@@ -7018,7 +7060,7 @@
       </c>
       <c r="F134" s="36">
         <f>SUM(F116:F133)-SUM(F113:F115)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G134" s="80"/>
       <c r="H134" s="92"/>
@@ -7200,15 +7242,13 @@
         <v>287</v>
       </c>
       <c r="F142" s="21">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G142" s="86">
         <v>45974</v>
       </c>
       <c r="H142" s="92"/>
-      <c r="I142" s="121">
-        <v>4</v>
-      </c>
+      <c r="I142" s="120"/>
       <c r="J142" s="76"/>
       <c r="K142" s="1"/>
       <c r="L142" s="1"/>
@@ -7329,13 +7369,11 @@
         <v>1</v>
       </c>
       <c r="F147" s="30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G147" s="87"/>
       <c r="H147" s="91"/>
-      <c r="I147" s="90">
-        <v>1</v>
-      </c>
+      <c r="I147" s="90"/>
       <c r="J147" s="96"/>
       <c r="K147" s="1"/>
       <c r="L147" s="1"/>
@@ -7395,9 +7433,7 @@
         <v>45974</v>
       </c>
       <c r="H149" s="91"/>
-      <c r="I149" s="90">
-        <v>1</v>
-      </c>
+      <c r="I149" s="90"/>
       <c r="J149" s="76"/>
       <c r="K149" s="1"/>
       <c r="L149" s="1"/>
@@ -7599,7 +7635,7 @@
         <v>25</v>
       </c>
       <c r="F157" s="30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G157" s="87"/>
       <c r="H157" s="91"/>
@@ -7626,13 +7662,11 @@
         <v>4</v>
       </c>
       <c r="F158" s="30">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G158" s="87"/>
       <c r="H158" s="91"/>
-      <c r="I158" s="90">
-        <v>2</v>
-      </c>
+      <c r="I158" s="90"/>
       <c r="J158" s="76"/>
       <c r="K158" s="1"/>
       <c r="L158" s="1"/>
@@ -7685,7 +7719,7 @@
       </c>
       <c r="F161" s="36">
         <f>SUM(F143:F160)-SUM(F140:F142)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G161" s="80"/>
       <c r="H161" s="92"/>
@@ -7838,7 +7872,7 @@
         <v>287</v>
       </c>
       <c r="F168" s="21">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G168" s="86">
         <v>45953</v>
@@ -8188,7 +8222,7 @@
         <v>7</v>
       </c>
       <c r="F182" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G182" s="87"/>
       <c r="H182" s="91"/>
@@ -8246,7 +8280,7 @@
         <v>287</v>
       </c>
       <c r="F184" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G184" s="87">
         <v>45953</v>
@@ -8362,7 +8396,7 @@
       </c>
       <c r="F188" s="36">
         <f>SUM(F170:F187)-SUM(F167:F169)</f>
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="G188" s="87"/>
       <c r="H188" s="91"/>
@@ -8486,7 +8520,7 @@
         <v>1</v>
       </c>
       <c r="F194" s="15">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G194" s="80"/>
       <c r="H194" s="94"/>
@@ -8949,7 +8983,7 @@
       </c>
       <c r="F215" s="36">
         <f>SUM(F197:F214)-SUM(F194:F196)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G215" s="80"/>
       <c r="H215" s="92"/>
@@ -9102,7 +9136,7 @@
         <v>287</v>
       </c>
       <c r="F222" s="21">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G222" s="94">
         <v>45890</v>
@@ -9424,7 +9458,7 @@
         <v>20</v>
       </c>
       <c r="F234" s="30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G234" s="87"/>
       <c r="H234" s="91"/>
@@ -9536,7 +9570,7 @@
         <v>287</v>
       </c>
       <c r="F238" s="30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G238" s="87">
         <v>45911</v>
@@ -9757,7 +9791,7 @@
         <v>287</v>
       </c>
       <c r="F249" s="21">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G249" s="86">
         <v>45918</v>
@@ -10107,7 +10141,7 @@
         <v>287</v>
       </c>
       <c r="F263" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G263" s="87">
         <v>45946</v>
@@ -10214,25 +10248,27 @@
     </row>
     <row r="267" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="79"/>
-      <c r="B267" s="28" t="s">
+      <c r="B267" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="C267" s="28" t="s">
+      <c r="C267" s="107" t="s">
         <v>409</v>
       </c>
-      <c r="D267" s="28" t="s">
+      <c r="D267" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="E267" s="29" t="s">
+      <c r="E267" s="108" t="s">
         <v>287</v>
       </c>
-      <c r="F267" s="30">
+      <c r="F267" s="109">
         <v>7</v>
       </c>
       <c r="G267" s="87">
         <v>45897</v>
       </c>
-      <c r="H267" s="91"/>
+      <c r="H267" s="91">
+        <v>46002</v>
+      </c>
       <c r="I267" s="90"/>
       <c r="J267" s="1"/>
       <c r="K267" s="1"/>
@@ -10243,12 +10279,24 @@
     </row>
     <row r="268" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A268" s="79"/>
-      <c r="B268" s="28"/>
-      <c r="C268" s="28"/>
-      <c r="D268" s="28"/>
-      <c r="E268" s="29"/>
-      <c r="F268" s="30"/>
-      <c r="G268" s="87"/>
+      <c r="B268" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C268" s="28" t="s">
+        <v>498</v>
+      </c>
+      <c r="D268" s="28" t="s">
+        <v>499</v>
+      </c>
+      <c r="E268" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="F268" s="30">
+        <v>0</v>
+      </c>
+      <c r="G268" s="87">
+        <v>46002</v>
+      </c>
       <c r="H268" s="90"/>
       <c r="I268" s="90"/>
       <c r="J268" s="1"/>
@@ -10269,7 +10317,7 @@
       </c>
       <c r="F269" s="36">
         <f>SUM(F251:F268)-SUM(F248:F250)</f>
-        <v>-9</v>
+        <v>-11</v>
       </c>
       <c r="G269" s="80"/>
       <c r="H269" s="92"/>
@@ -10422,7 +10470,7 @@
         <v>287</v>
       </c>
       <c r="F276" s="21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G276" s="86">
         <v>45974</v>
@@ -10539,7 +10587,7 @@
         <v>25</v>
       </c>
       <c r="F281" s="30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G281" s="83"/>
       <c r="H281" s="91"/>
@@ -10687,7 +10735,7 @@
         <v>12</v>
       </c>
       <c r="F287" s="30">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G287" s="87"/>
       <c r="H287" s="91"/>
@@ -10902,7 +10950,7 @@
       </c>
       <c r="F296" s="36">
         <f>SUM(F278:F295)-SUM(F275:F276)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G296" s="91"/>
       <c r="H296" s="91"/>
@@ -11084,15 +11132,13 @@
         <v>287</v>
       </c>
       <c r="F304" s="21">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G304" s="87">
         <v>45953</v>
       </c>
       <c r="H304" s="92"/>
-      <c r="I304" s="90">
-        <v>1</v>
-      </c>
+      <c r="I304" s="90"/>
       <c r="J304" s="1"/>
       <c r="K304" s="1"/>
       <c r="L304" s="1"/>
@@ -11146,9 +11192,7 @@
       </c>
       <c r="G306" s="87"/>
       <c r="H306" s="90"/>
-      <c r="I306" s="90">
-        <v>1</v>
-      </c>
+      <c r="I306" s="90"/>
       <c r="J306" s="1"/>
       <c r="K306" s="1"/>
       <c r="L306" s="1"/>
@@ -11175,23 +11219,27 @@
     </row>
     <row r="308" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="79"/>
-      <c r="B308" s="28" t="s">
+      <c r="B308" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="C308" s="28" t="s">
+      <c r="C308" s="107" t="s">
         <v>176</v>
       </c>
-      <c r="D308" s="28" t="s">
+      <c r="D308" s="107" t="s">
         <v>122</v>
       </c>
-      <c r="E308" s="29">
+      <c r="E308" s="108">
         <v>4</v>
       </c>
-      <c r="F308" s="30">
+      <c r="F308" s="109">
         <v>4</v>
       </c>
-      <c r="G308" s="87"/>
-      <c r="H308" s="91"/>
+      <c r="G308" s="87" t="s">
+        <v>288</v>
+      </c>
+      <c r="H308" s="91">
+        <v>46002</v>
+      </c>
       <c r="I308" s="90"/>
       <c r="J308" s="1"/>
       <c r="K308" s="1"/>
@@ -11202,27 +11250,25 @@
     </row>
     <row r="309" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="79"/>
-      <c r="B309" s="107" t="s">
+      <c r="B309" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C309" s="107" t="s">
-        <v>165</v>
-      </c>
-      <c r="D309" s="107" t="s">
-        <v>68</v>
-      </c>
-      <c r="E309" s="108">
+      <c r="C309" s="28" t="s">
+        <v>496</v>
+      </c>
+      <c r="D309" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E309" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="F309" s="30">
         <v>1</v>
       </c>
-      <c r="F309" s="109">
-        <v>1</v>
-      </c>
-      <c r="G309" s="87" t="s">
-        <v>288</v>
-      </c>
-      <c r="H309" s="91">
-        <v>45911</v>
-      </c>
+      <c r="G309" s="87">
+        <v>46002</v>
+      </c>
+      <c r="H309" s="91"/>
       <c r="I309" s="90"/>
       <c r="J309" s="1"/>
       <c r="K309" s="1"/>
@@ -11233,25 +11279,27 @@
     </row>
     <row r="310" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="79"/>
-      <c r="B310" s="28" t="s">
+      <c r="B310" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="C310" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="D310" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E310" s="29" t="s">
-        <v>287</v>
-      </c>
-      <c r="F310" s="30">
-        <v>3</v>
-      </c>
-      <c r="G310" s="87">
+      <c r="C310" s="107" t="s">
+        <v>165</v>
+      </c>
+      <c r="D310" s="107" t="s">
+        <v>68</v>
+      </c>
+      <c r="E310" s="108">
+        <v>1</v>
+      </c>
+      <c r="F310" s="109">
+        <v>1</v>
+      </c>
+      <c r="G310" s="87" t="s">
+        <v>288</v>
+      </c>
+      <c r="H310" s="91">
         <v>45911</v>
       </c>
-      <c r="H310" s="91"/>
       <c r="I310" s="90"/>
       <c r="J310" s="1"/>
       <c r="K310" s="1"/>
@@ -11262,27 +11310,25 @@
     </row>
     <row r="311" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="79"/>
-      <c r="B311" s="107" t="s">
+      <c r="B311" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C311" s="107" t="s">
-        <v>102</v>
-      </c>
-      <c r="D311" s="107" t="s">
-        <v>133</v>
-      </c>
-      <c r="E311" s="108">
-        <v>9</v>
-      </c>
-      <c r="F311" s="109">
-        <v>0</v>
-      </c>
-      <c r="G311" s="83" t="s">
-        <v>288</v>
-      </c>
-      <c r="H311" s="91">
-        <v>45961</v>
-      </c>
+      <c r="C311" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="D311" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E311" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="F311" s="30">
+        <v>5</v>
+      </c>
+      <c r="G311" s="87">
+        <v>45911</v>
+      </c>
+      <c r="H311" s="91"/>
       <c r="I311" s="90"/>
       <c r="J311" s="1"/>
       <c r="K311" s="1"/>
@@ -11293,25 +11339,27 @@
     </row>
     <row r="312" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="79"/>
-      <c r="B312" s="28" t="s">
+      <c r="B312" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="C312" s="28" t="s">
-        <v>478</v>
-      </c>
-      <c r="D312" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="E312" s="29" t="s">
-        <v>287</v>
-      </c>
-      <c r="F312" s="30">
+      <c r="C312" s="107" t="s">
+        <v>102</v>
+      </c>
+      <c r="D312" s="107" t="s">
+        <v>133</v>
+      </c>
+      <c 